--- a/conformancelib/testdata/85b_test_definitions_PIV_Production_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV_Production_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6401F523-DABA-46F5-828D-AC9481FD7768}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA37A9A7-2F5A-425B-9852-B11791547532}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="0" windowWidth="29850" windowHeight="16860" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6270" yWindow="0" windowWidth="20970" windowHeight="16830" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3315" uniqueCount="1151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3315" uniqueCount="1152">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -3486,6 +3486,9 @@
   </si>
   <si>
     <t>CARDHOLDER_FINGERPRINTS_OID:128,CARDHOLDER_FACIAL_IMAGE_OID:32:2,CARDHOLDER_IRIS_IMAGES_OID:64</t>
+  </si>
+  <si>
+    <t>Issue #63</t>
   </si>
 </sst>
 </file>
@@ -3600,7 +3603,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3673,12 +3676,6 @@
         <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -3736,7 +3733,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3930,12 +3927,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8022,9 +8013,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G446"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C330" sqref="C330"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -10982,7 +10971,7 @@
       <c r="C183" s="39" t="s">
         <v>359</v>
       </c>
-      <c r="D183" s="67" t="s">
+      <c r="D183" s="45" t="s">
         <v>958</v>
       </c>
       <c r="E183" s="60"/>
@@ -10998,7 +10987,7 @@
       <c r="C184" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="D184" s="68">
+      <c r="D184" s="44">
         <v>76.39</v>
       </c>
       <c r="E184" s="60"/>
@@ -11014,7 +11003,7 @@
       <c r="C185" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="D185" s="68">
+      <c r="D185" s="44">
         <v>76.400000000000006</v>
       </c>
       <c r="E185" s="60"/>
@@ -11030,7 +11019,7 @@
       <c r="C186" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="D186" s="67">
+      <c r="D186" s="45">
         <v>76.41</v>
       </c>
       <c r="E186" s="60"/>
@@ -11046,7 +11035,7 @@
       <c r="C187" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="D187" s="67">
+      <c r="D187" s="45">
         <v>76.42</v>
       </c>
       <c r="E187" s="60"/>
@@ -13382,7 +13371,7 @@
         <v>1115</v>
       </c>
       <c r="E334" s="60" t="s">
-        <v>1132</v>
+        <v>1151</v>
       </c>
       <c r="F334" s="3"/>
     </row>
@@ -14086,7 +14075,7 @@
         <v>1115</v>
       </c>
       <c r="E378" s="60" t="s">
-        <v>1132</v>
+        <v>1151</v>
       </c>
       <c r="F378" s="3"/>
     </row>
@@ -18233,7 +18222,7 @@
   <dimension ref="A1:IV27"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/conformancelib/testdata/85b_test_definitions_PIV_Production_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV_Production_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vmware-host\Shared Folders\gsa-devel\piv-conformance-swing\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AA57AC-E143-4D37-BF17-B7B6CE6A91A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C133DD2-4BF0-42A9-8423-8BFA6FB03C23}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="2194" windowWidth="13697" windowHeight="8272" tabRatio="500" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3724" uniqueCount="1302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3764" uniqueCount="1302">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -8424,8 +8424,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F431" sqref="F431:F471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -16184,7 +16184,9 @@
       </c>
       <c r="D432" s="41"/>
       <c r="E432" s="41"/>
-      <c r="F432" s="41"/>
+      <c r="F432" s="38" t="s">
+        <v>1153</v>
+      </c>
       <c r="G432" s="41"/>
     </row>
     <row r="433" spans="1:7" ht="45">
@@ -16201,7 +16203,9 @@
         <v>606</v>
       </c>
       <c r="E433" s="40"/>
-      <c r="F433" s="40"/>
+      <c r="F433" s="38" t="s">
+        <v>1153</v>
+      </c>
       <c r="G433" s="44" t="s">
         <v>738</v>
       </c>
@@ -16220,7 +16224,9 @@
         <v>606</v>
       </c>
       <c r="E434" s="40"/>
-      <c r="F434" s="40"/>
+      <c r="F434" s="38" t="s">
+        <v>1153</v>
+      </c>
       <c r="G434" s="44"/>
     </row>
     <row r="435" spans="1:7">
@@ -16237,7 +16243,9 @@
         <v>606</v>
       </c>
       <c r="E435" s="40"/>
-      <c r="F435" s="40"/>
+      <c r="F435" s="38" t="s">
+        <v>1153</v>
+      </c>
       <c r="G435" s="44" t="s">
         <v>606</v>
       </c>
@@ -16256,7 +16264,9 @@
         <v>618</v>
       </c>
       <c r="E436" s="40"/>
-      <c r="F436" s="40"/>
+      <c r="F436" s="38" t="s">
+        <v>1153</v>
+      </c>
       <c r="G436" s="44"/>
     </row>
     <row r="437" spans="1:7">
@@ -16271,7 +16281,9 @@
       </c>
       <c r="D437" s="41"/>
       <c r="E437" s="41"/>
-      <c r="F437" s="41"/>
+      <c r="F437" s="38" t="s">
+        <v>1153</v>
+      </c>
       <c r="G437" s="41"/>
     </row>
     <row r="438" spans="1:7">
@@ -16288,7 +16300,9 @@
         <v>597</v>
       </c>
       <c r="E438" s="40"/>
-      <c r="F438" s="40"/>
+      <c r="F438" s="38" t="s">
+        <v>1153</v>
+      </c>
       <c r="G438" s="44" t="s">
         <v>1105</v>
       </c>
@@ -16309,7 +16323,9 @@
       <c r="E439" s="40" t="s">
         <v>1131</v>
       </c>
-      <c r="F439" s="40"/>
+      <c r="F439" s="38" t="s">
+        <v>1153</v>
+      </c>
       <c r="G439" s="38"/>
     </row>
     <row r="440" spans="1:7">
@@ -16324,7 +16340,9 @@
       </c>
       <c r="D440" s="41"/>
       <c r="E440" s="41"/>
-      <c r="F440" s="41"/>
+      <c r="F440" s="38" t="s">
+        <v>1153</v>
+      </c>
       <c r="G440" s="41"/>
     </row>
     <row r="441" spans="1:7">
@@ -16343,7 +16361,9 @@
       <c r="E441" s="38" t="s">
         <v>636</v>
       </c>
-      <c r="F441" s="38"/>
+      <c r="F441" s="38" t="s">
+        <v>1153</v>
+      </c>
       <c r="G441" s="38"/>
     </row>
     <row r="442" spans="1:7">
@@ -16358,7 +16378,9 @@
       </c>
       <c r="D442" s="41"/>
       <c r="E442" s="41"/>
-      <c r="F442" s="41"/>
+      <c r="F442" s="38" t="s">
+        <v>1153</v>
+      </c>
       <c r="G442" s="37"/>
     </row>
     <row r="443" spans="1:7">
@@ -16375,7 +16397,9 @@
       <c r="E443" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="F443" s="44"/>
+      <c r="F443" s="38" t="s">
+        <v>1153</v>
+      </c>
       <c r="G443" s="44"/>
     </row>
     <row r="444" spans="1:7">
@@ -16392,7 +16416,9 @@
       <c r="E444" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="F444" s="44"/>
+      <c r="F444" s="38" t="s">
+        <v>1153</v>
+      </c>
       <c r="G444" s="44"/>
     </row>
     <row r="445" spans="1:7">
@@ -16409,7 +16435,9 @@
       <c r="E445" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="F445" s="44"/>
+      <c r="F445" s="38" t="s">
+        <v>1153</v>
+      </c>
       <c r="G445" s="44"/>
     </row>
     <row r="446" spans="1:7">
@@ -16424,7 +16452,9 @@
       </c>
       <c r="D446" s="41"/>
       <c r="E446" s="37"/>
-      <c r="F446" s="37"/>
+      <c r="F446" s="38" t="s">
+        <v>1153</v>
+      </c>
       <c r="G446" s="37"/>
     </row>
     <row r="447" spans="1:7">
@@ -16441,7 +16471,9 @@
       <c r="E447" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="F447" s="44"/>
+      <c r="F447" s="38" t="s">
+        <v>1153</v>
+      </c>
       <c r="G447" s="44"/>
     </row>
     <row r="448" spans="1:7">
@@ -16458,7 +16490,9 @@
       <c r="E448" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="F448" s="44"/>
+      <c r="F448" s="38" t="s">
+        <v>1153</v>
+      </c>
       <c r="G448" s="44"/>
     </row>
     <row r="449" spans="1:7">
@@ -16473,7 +16507,9 @@
       </c>
       <c r="D449" s="41"/>
       <c r="E449" s="41"/>
-      <c r="F449" s="41"/>
+      <c r="F449" s="38" t="s">
+        <v>1153</v>
+      </c>
       <c r="G449" s="37"/>
     </row>
     <row r="450" spans="1:7">
@@ -16488,7 +16524,9 @@
       </c>
       <c r="D450" s="41"/>
       <c r="E450" s="41"/>
-      <c r="F450" s="41"/>
+      <c r="F450" s="38" t="s">
+        <v>1153</v>
+      </c>
       <c r="G450" s="41"/>
     </row>
     <row r="451" spans="1:7" ht="45">
@@ -16505,7 +16543,9 @@
         <v>78.3</v>
       </c>
       <c r="E451" s="38"/>
-      <c r="F451" s="38"/>
+      <c r="F451" s="38" t="s">
+        <v>1153</v>
+      </c>
       <c r="G451" s="44" t="s">
         <v>568</v>
       </c>
@@ -16524,7 +16564,9 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E452" s="38"/>
-      <c r="F452" s="38"/>
+      <c r="F452" s="38" t="s">
+        <v>1153</v>
+      </c>
       <c r="G452" s="44"/>
     </row>
     <row r="453" spans="1:7">
@@ -16541,7 +16583,9 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E453" s="38"/>
-      <c r="F453" s="38"/>
+      <c r="F453" s="38" t="s">
+        <v>1153</v>
+      </c>
       <c r="G453" s="44"/>
     </row>
     <row r="454" spans="1:7">
@@ -16556,7 +16600,9 @@
       </c>
       <c r="D454" s="41"/>
       <c r="E454" s="41"/>
-      <c r="F454" s="41"/>
+      <c r="F454" s="38" t="s">
+        <v>1153</v>
+      </c>
       <c r="G454" s="41"/>
     </row>
     <row r="455" spans="1:7">
@@ -16571,7 +16617,9 @@
       </c>
       <c r="D455" s="41"/>
       <c r="E455" s="41"/>
-      <c r="F455" s="41"/>
+      <c r="F455" s="38" t="s">
+        <v>1153</v>
+      </c>
       <c r="G455" s="41"/>
     </row>
     <row r="456" spans="1:7">
@@ -16588,7 +16636,9 @@
         <v>577</v>
       </c>
       <c r="E456" s="38"/>
-      <c r="F456" s="38"/>
+      <c r="F456" s="38" t="s">
+        <v>1153</v>
+      </c>
       <c r="G456" s="44" t="s">
         <v>1108</v>
       </c>
@@ -16607,7 +16657,9 @@
         <v>580</v>
       </c>
       <c r="E457" s="38"/>
-      <c r="F457" s="38"/>
+      <c r="F457" s="38" t="s">
+        <v>1153</v>
+      </c>
       <c r="G457" s="44"/>
     </row>
     <row r="458" spans="1:7">
@@ -16624,10 +16676,12 @@
         <v>1109</v>
       </c>
       <c r="E458" s="38"/>
-      <c r="F458" s="38"/>
+      <c r="F458" s="38" t="s">
+        <v>1153</v>
+      </c>
       <c r="G458" s="38"/>
     </row>
-    <row r="459" spans="1:7">
+    <row r="459" spans="1:7" ht="30">
       <c r="A459" s="38" t="s">
         <v>58</v>
       </c>
@@ -16641,7 +16695,9 @@
         <v>618</v>
       </c>
       <c r="E459" s="38"/>
-      <c r="F459" s="38"/>
+      <c r="F459" s="38" t="s">
+        <v>1153</v>
+      </c>
       <c r="G459" s="38"/>
     </row>
     <row r="460" spans="1:7">
@@ -16656,7 +16712,9 @@
       </c>
       <c r="D460" s="38"/>
       <c r="E460" s="38"/>
-      <c r="F460" s="38"/>
+      <c r="F460" s="38" t="s">
+        <v>1153</v>
+      </c>
       <c r="G460" s="38"/>
     </row>
     <row r="461" spans="1:7" ht="30">
@@ -16673,7 +16731,9 @@
         <v>586</v>
       </c>
       <c r="E461" s="38"/>
-      <c r="F461" s="38"/>
+      <c r="F461" s="38" t="s">
+        <v>1153</v>
+      </c>
       <c r="G461" s="38"/>
     </row>
     <row r="462" spans="1:7">
@@ -16690,7 +16750,9 @@
         <v>724</v>
       </c>
       <c r="E462" s="38"/>
-      <c r="F462" s="38"/>
+      <c r="F462" s="38" t="s">
+        <v>1153</v>
+      </c>
       <c r="G462" s="38"/>
     </row>
     <row r="463" spans="1:7">
@@ -16705,7 +16767,9 @@
       </c>
       <c r="D463" s="41"/>
       <c r="E463" s="41"/>
-      <c r="F463" s="41"/>
+      <c r="F463" s="38" t="s">
+        <v>1153</v>
+      </c>
       <c r="G463" s="41"/>
     </row>
     <row r="464" spans="1:7">
@@ -16722,7 +16786,9 @@
         <v>597</v>
       </c>
       <c r="E464" s="38"/>
-      <c r="F464" s="38"/>
+      <c r="F464" s="38" t="s">
+        <v>1153</v>
+      </c>
       <c r="G464" s="44" t="s">
         <v>1105</v>
       </c>
@@ -16741,7 +16807,9 @@
         <v>1104</v>
       </c>
       <c r="E465" s="40"/>
-      <c r="F465" s="40"/>
+      <c r="F465" s="38" t="s">
+        <v>1153</v>
+      </c>
       <c r="G465" s="38"/>
     </row>
     <row r="466" spans="1:7">
@@ -16756,7 +16824,9 @@
       </c>
       <c r="D466" s="41"/>
       <c r="E466" s="41"/>
-      <c r="F466" s="41"/>
+      <c r="F466" s="38" t="s">
+        <v>1153</v>
+      </c>
       <c r="G466" s="41"/>
     </row>
     <row r="467" spans="1:7">
@@ -16773,7 +16843,9 @@
         <v>591</v>
       </c>
       <c r="E467" s="38"/>
-      <c r="F467" s="38"/>
+      <c r="F467" s="38" t="s">
+        <v>1153</v>
+      </c>
       <c r="G467" s="44" t="s">
         <v>1106</v>
       </c>
@@ -16792,7 +16864,9 @@
         <v>594</v>
       </c>
       <c r="E468" s="38"/>
-      <c r="F468" s="38"/>
+      <c r="F468" s="38" t="s">
+        <v>1153</v>
+      </c>
       <c r="G468" s="44"/>
     </row>
     <row r="469" spans="1:7">
@@ -16809,7 +16883,9 @@
         <v>597</v>
       </c>
       <c r="E469" s="38"/>
-      <c r="F469" s="38"/>
+      <c r="F469" s="38" t="s">
+        <v>1153</v>
+      </c>
       <c r="G469" s="44"/>
     </row>
     <row r="470" spans="1:7">
@@ -16826,7 +16902,9 @@
         <v>1110</v>
       </c>
       <c r="E470" s="38"/>
-      <c r="F470" s="38"/>
+      <c r="F470" s="38" t="s">
+        <v>1153</v>
+      </c>
       <c r="G470" s="38"/>
     </row>
     <row r="471" spans="1:7">
@@ -16843,7 +16921,9 @@
         <v>1107</v>
       </c>
       <c r="E471" s="38"/>
-      <c r="F471" s="38"/>
+      <c r="F471" s="38" t="s">
+        <v>1153</v>
+      </c>
       <c r="G471" s="38"/>
     </row>
   </sheetData>
@@ -21774,8 +21854,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView showGridLines="0" topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>

--- a/conformancelib/testdata/85b_test_definitions_PIV_Production_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV_Production_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vmware-host\Shared Folders\gsa-devel\piv-conformance-swing\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C133DD2-4BF0-42A9-8423-8BFA6FB03C23}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501F570D-3BF7-4B47-A66B-3482BF8CC092}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" tabRatio="500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3764" uniqueCount="1302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3765" uniqueCount="1303">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -3939,6 +3939,9 @@
   </si>
   <si>
     <t>2.16.840.1.101.3.2.1.3.39</t>
+  </si>
+  <si>
+    <t>2.5.29.31</t>
   </si>
 </sst>
 </file>
@@ -8424,7 +8427,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A54" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="F431" sqref="F431:F471"/>
     </sheetView>
   </sheetViews>
@@ -16681,7 +16684,7 @@
       </c>
       <c r="G458" s="38"/>
     </row>
-    <row r="459" spans="1:7" ht="30">
+    <row r="459" spans="1:7">
       <c r="A459" s="38" t="s">
         <v>58</v>
       </c>
@@ -21854,8 +21857,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
@@ -22614,7 +22617,9 @@
       <c r="D25" s="30" t="s">
         <v>624</v>
       </c>
-      <c r="E25" s="30"/>
+      <c r="E25" s="30" t="s">
+        <v>1302</v>
+      </c>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
     </row>

--- a/conformancelib/testdata/85b_test_definitions_PIV_Production_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV_Production_Cards.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vmware-host\Shared Folders\gsa-devel\piv-conformance-swing\conformancelib\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\python_den\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501F570D-3BF7-4B47-A66B-3482BF8CC092}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF992A6A-0664-4738-AC95-F51BDF4D9D82}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" tabRatio="500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6360" yWindow="825" windowWidth="28755" windowHeight="17760" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3765" uniqueCount="1303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3767" uniqueCount="1305">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -3075,9 +3075,6 @@
     <t>2.16.840.1.101.3.6.7</t>
   </si>
   <si>
-    <t>Test OID for PIV-I Content Signing</t>
-  </si>
-  <si>
     <t>CMS_Test_16</t>
   </si>
   <si>
@@ -3189,9 +3186,6 @@
     <t>Confirm that id- fpki-common-authentication OID is asserted in certificate policies</t>
   </si>
   <si>
-    <t>2.16.840.1.101.3.2.1.48.11</t>
-  </si>
-  <si>
     <t>PKIX_Test_7</t>
   </si>
   <si>
@@ -3270,15 +3264,9 @@
     <t>PKIX_Test_18</t>
   </si>
   <si>
-    <t>Confirm that id- fpki-common-cardAuth OID is asserted in certificate policies</t>
-  </si>
-  <si>
     <t>PKIX_Test_19</t>
   </si>
   <si>
-    <t>Confirm extendedKeyUsage extension is present</t>
-  </si>
-  <si>
     <t>PKIX_Test_20</t>
   </si>
   <si>
@@ -3298,9 +3286,6 @@
   </si>
   <si>
     <t>Confirm CHUID signing certificate asserts certificate policy for id-fpki-common-piv-contentSigning</t>
-  </si>
-  <si>
-    <t>PIV OID for test CHUID signer cert</t>
   </si>
   <si>
     <t>****** FIX ME ******</t>
@@ -3942,6 +3927,27 @@
   </si>
   <si>
     <t>2.5.29.31</t>
+  </si>
+  <si>
+    <t>EKU KPID OID for id-PIV-ContentSigning</t>
+  </si>
+  <si>
+    <t>PIV cert policy OID for test content signer cert</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.101.3.2.1.3.13</t>
+  </si>
+  <si>
+    <t>Extended key usage (extKeyUsage) extension asserts id-PIV-cardAuth</t>
+  </si>
+  <si>
+    <t>Confirm that id-fpki-common-cardAuth OID is asserted in certificate policies</t>
+  </si>
+  <si>
+    <t>Extended key usage (extKeyUsage) extension is present and maked critical</t>
   </si>
 </sst>
 </file>
@@ -4733,17 +4739,17 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="57.35546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="57.375" style="4" customWidth="1"/>
     <col min="3" max="5" width="10.5" style="4" customWidth="1"/>
-    <col min="6" max="256" width="8.85546875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.85546875" style="19" customWidth="1"/>
+    <col min="6" max="256" width="8.875" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.875" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="1" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
@@ -4751,7 +4757,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="2" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="2">
         <v>8</v>
       </c>
@@ -4759,7 +4765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="3" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="3">
         <v>8.1</v>
       </c>
@@ -4767,7 +4773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="4" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>59</v>
       </c>
@@ -4775,7 +4781,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="5" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>63</v>
       </c>
@@ -4783,7 +4789,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="6" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>66</v>
       </c>
@@ -4791,7 +4797,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="7" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>69</v>
       </c>
@@ -4799,7 +4805,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="8" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>72</v>
       </c>
@@ -4807,7 +4813,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="9" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>75</v>
       </c>
@@ -4815,7 +4821,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="10" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>78</v>
       </c>
@@ -4823,7 +4829,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="11" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>81</v>
       </c>
@@ -4831,7 +4837,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="12" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>84</v>
       </c>
@@ -4839,7 +4845,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="13" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>87</v>
       </c>
@@ -4847,7 +4853,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="14" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>90</v>
       </c>
@@ -4855,7 +4861,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="15" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="3">
         <v>8.1999999999999993</v>
       </c>
@@ -4863,7 +4869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="16" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>93</v>
       </c>
@@ -4871,7 +4877,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="17" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>96</v>
       </c>
@@ -4879,7 +4885,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="18" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>97</v>
       </c>
@@ -4887,7 +4893,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="19" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>98</v>
       </c>
@@ -4895,7 +4901,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="20" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>99</v>
       </c>
@@ -4903,7 +4909,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="21" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>102</v>
       </c>
@@ -4911,7 +4917,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="22" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>105</v>
       </c>
@@ -4919,7 +4925,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="23" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>108</v>
       </c>
@@ -4927,7 +4933,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="24" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>111</v>
       </c>
@@ -4935,7 +4941,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="25" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>114</v>
       </c>
@@ -4943,7 +4949,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="26" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>117</v>
       </c>
@@ -4951,7 +4957,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="27" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>120</v>
       </c>
@@ -4959,7 +4965,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="28" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>123</v>
       </c>
@@ -4967,7 +4973,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="29" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>126</v>
       </c>
@@ -4975,7 +4981,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="30" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>128</v>
       </c>
@@ -4983,7 +4989,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="31" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>132</v>
       </c>
@@ -4991,7 +4997,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="32" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="3">
         <v>8.3000000000000007</v>
       </c>
@@ -4999,7 +5005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="33" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>134</v>
       </c>
@@ -5007,7 +5013,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="34" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>137</v>
       </c>
@@ -5015,7 +5021,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="35" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>138</v>
       </c>
@@ -5023,7 +5029,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="36" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>139</v>
       </c>
@@ -5031,7 +5037,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="37" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>140</v>
       </c>
@@ -5039,7 +5045,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="38" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>143</v>
       </c>
@@ -5047,7 +5053,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="39" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>146</v>
       </c>
@@ -5055,7 +5061,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="40" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>149</v>
       </c>
@@ -5063,7 +5069,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="41" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>152</v>
       </c>
@@ -5071,7 +5077,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="42" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>155</v>
       </c>
@@ -5079,7 +5085,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="43" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A43" s="3">
         <v>8.4</v>
       </c>
@@ -5087,7 +5093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="44" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>156</v>
       </c>
@@ -5095,7 +5101,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="45" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>159</v>
       </c>
@@ -5103,7 +5109,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="46" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>160</v>
       </c>
@@ -5111,7 +5117,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="47" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>161</v>
       </c>
@@ -5119,7 +5125,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="48" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>162</v>
       </c>
@@ -5130,7 +5136,7 @@
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
     </row>
-    <row r="49" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="49" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A49" s="3" t="s">
         <v>163</v>
       </c>
@@ -5141,7 +5147,7 @@
       <c r="D49" s="18"/>
       <c r="E49" s="18"/>
     </row>
-    <row r="50" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="50" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>164</v>
       </c>
@@ -5152,7 +5158,7 @@
       <c r="D50" s="18"/>
       <c r="E50" s="18"/>
     </row>
-    <row r="51" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="51" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A51" s="3" t="s">
         <v>165</v>
       </c>
@@ -5163,7 +5169,7 @@
       <c r="D51" s="18"/>
       <c r="E51" s="18"/>
     </row>
-    <row r="52" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="52" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A52" s="3" t="s">
         <v>166</v>
       </c>
@@ -5174,7 +5180,7 @@
       <c r="D52" s="18"/>
       <c r="E52" s="18"/>
     </row>
-    <row r="53" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="53" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A53" s="3">
         <v>8.5</v>
       </c>
@@ -5185,7 +5191,7 @@
       <c r="D53" s="18"/>
       <c r="E53" s="18"/>
     </row>
-    <row r="54" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="54" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A54" s="3" t="s">
         <v>167</v>
       </c>
@@ -5196,7 +5202,7 @@
       <c r="D54" s="18"/>
       <c r="E54" s="18"/>
     </row>
-    <row r="55" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="55" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A55" s="3" t="s">
         <v>170</v>
       </c>
@@ -5207,7 +5213,7 @@
       <c r="D55" s="18"/>
       <c r="E55" s="18"/>
     </row>
-    <row r="56" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="56" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A56" s="3" t="s">
         <v>171</v>
       </c>
@@ -5218,7 +5224,7 @@
       <c r="D56" s="18"/>
       <c r="E56" s="18"/>
     </row>
-    <row r="57" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="57" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A57" s="3" t="s">
         <v>172</v>
       </c>
@@ -5229,7 +5235,7 @@
       <c r="D57" s="18"/>
       <c r="E57" s="18"/>
     </row>
-    <row r="58" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="58" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A58" s="3" t="s">
         <v>173</v>
       </c>
@@ -5240,7 +5246,7 @@
       <c r="D58" s="18"/>
       <c r="E58" s="18"/>
     </row>
-    <row r="59" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="59" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A59" s="3" t="s">
         <v>176</v>
       </c>
@@ -5251,7 +5257,7 @@
       <c r="D59" s="18"/>
       <c r="E59" s="18"/>
     </row>
-    <row r="60" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="60" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A60" s="3" t="s">
         <v>179</v>
       </c>
@@ -5262,7 +5268,7 @@
       <c r="D60" s="18"/>
       <c r="E60" s="18"/>
     </row>
-    <row r="61" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="61" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A61" s="3" t="s">
         <v>182</v>
       </c>
@@ -5273,7 +5279,7 @@
       <c r="D61" s="18"/>
       <c r="E61" s="18"/>
     </row>
-    <row r="62" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="62" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A62" s="3" t="s">
         <v>185</v>
       </c>
@@ -5284,7 +5290,7 @@
       <c r="D62" s="18"/>
       <c r="E62" s="18"/>
     </row>
-    <row r="63" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="63" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A63" s="3" t="s">
         <v>188</v>
       </c>
@@ -5295,7 +5301,7 @@
       <c r="D63" s="18"/>
       <c r="E63" s="18"/>
     </row>
-    <row r="64" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="64" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A64" s="3">
         <v>8.6</v>
       </c>
@@ -5306,7 +5312,7 @@
       <c r="D64" s="18"/>
       <c r="E64" s="18"/>
     </row>
-    <row r="65" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="65" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>189</v>
       </c>
@@ -5317,7 +5323,7 @@
       <c r="D65" s="18"/>
       <c r="E65" s="18"/>
     </row>
-    <row r="66" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="66" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A66" s="3" t="s">
         <v>192</v>
       </c>
@@ -5328,7 +5334,7 @@
       <c r="D66" s="18"/>
       <c r="E66" s="18"/>
     </row>
-    <row r="67" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="67" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A67" s="3" t="s">
         <v>193</v>
       </c>
@@ -5339,7 +5345,7 @@
       <c r="D67" s="18"/>
       <c r="E67" s="18"/>
     </row>
-    <row r="68" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="68" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A68" s="3" t="s">
         <v>194</v>
       </c>
@@ -5350,7 +5356,7 @@
       <c r="D68" s="18"/>
       <c r="E68" s="18"/>
     </row>
-    <row r="69" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="69" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A69" s="3" t="s">
         <v>195</v>
       </c>
@@ -5361,7 +5367,7 @@
       <c r="D69" s="18"/>
       <c r="E69" s="18"/>
     </row>
-    <row r="70" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="70" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A70" s="3" t="s">
         <v>198</v>
       </c>
@@ -5396,7 +5402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="31.75">
+    <row r="74" spans="1:5" ht="31.5">
       <c r="A74" s="3" t="s">
         <v>205</v>
       </c>
@@ -5484,7 +5490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="31.75">
+    <row r="85" spans="1:2" ht="31.5">
       <c r="A85" s="3" t="s">
         <v>217</v>
       </c>
@@ -5572,7 +5578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="31.75">
+    <row r="96" spans="1:2" ht="31.5">
       <c r="A96" s="3" t="s">
         <v>229</v>
       </c>
@@ -5716,7 +5722,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="31.75">
+    <row r="114" spans="1:2" ht="31.5">
       <c r="A114" s="3" t="s">
         <v>255</v>
       </c>
@@ -5732,7 +5738,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="28.3">
+    <row r="116" spans="1:2" ht="28.5">
       <c r="A116" s="3" t="s">
         <v>258</v>
       </c>
@@ -5772,7 +5778,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="47.6">
+    <row r="121" spans="1:2" ht="47.25">
       <c r="A121" s="3" t="s">
         <v>267</v>
       </c>
@@ -5788,7 +5794,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="63.45">
+    <row r="123" spans="1:2" ht="63">
       <c r="A123" s="3" t="s">
         <v>272</v>
       </c>
@@ -5940,7 +5946,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="31.75">
+    <row r="142" spans="1:2" ht="31.5">
       <c r="A142" s="3" t="s">
         <v>296</v>
       </c>
@@ -5956,7 +5962,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="31.75">
+    <row r="144" spans="1:2" ht="31.5">
       <c r="A144" s="3" t="s">
         <v>301</v>
       </c>
@@ -5964,7 +5970,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="31.75">
+    <row r="145" spans="1:2" ht="47.25">
       <c r="A145" s="3" t="s">
         <v>303</v>
       </c>
@@ -5972,7 +5978,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="47.6">
+    <row r="146" spans="1:2" ht="47.25">
       <c r="A146" s="3" t="s">
         <v>305</v>
       </c>
@@ -5996,7 +6002,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="47.6">
+    <row r="149" spans="1:2" ht="47.25">
       <c r="A149" s="3" t="s">
         <v>311</v>
       </c>
@@ -6012,7 +6018,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="47.6">
+    <row r="151" spans="1:2" ht="63">
       <c r="A151" s="3" t="s">
         <v>315</v>
       </c>
@@ -6020,7 +6026,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="31.75">
+    <row r="152" spans="1:2" ht="31.5">
       <c r="A152" s="3" t="s">
         <v>317</v>
       </c>
@@ -6028,7 +6034,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="31.75">
+    <row r="153" spans="1:2" ht="31.5">
       <c r="A153" s="3" t="s">
         <v>319</v>
       </c>
@@ -6092,7 +6098,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="31.75">
+    <row r="161" spans="1:2" ht="31.5">
       <c r="A161" s="3" t="s">
         <v>327</v>
       </c>
@@ -6108,7 +6114,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="31.75">
+    <row r="163" spans="1:2" ht="31.5">
       <c r="A163" s="3" t="s">
         <v>329</v>
       </c>
@@ -6116,7 +6122,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="31.75">
+    <row r="164" spans="1:2" ht="31.5">
       <c r="A164" s="3" t="s">
         <v>330</v>
       </c>
@@ -6124,7 +6130,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="47.6">
+    <row r="165" spans="1:2" ht="47.25">
       <c r="A165" s="3" t="s">
         <v>332</v>
       </c>
@@ -6148,7 +6154,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="31.75">
+    <row r="168" spans="1:2" ht="31.5">
       <c r="A168" s="3" t="s">
         <v>336</v>
       </c>
@@ -6164,7 +6170,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="47.6">
+    <row r="170" spans="1:2" ht="63">
       <c r="A170" s="3" t="s">
         <v>340</v>
       </c>
@@ -6172,7 +6178,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="31.75">
+    <row r="171" spans="1:2" ht="31.5">
       <c r="A171" s="3" t="s">
         <v>341</v>
       </c>
@@ -6180,7 +6186,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="31.75">
+    <row r="172" spans="1:2" ht="31.5">
       <c r="A172" s="3" t="s">
         <v>342</v>
       </c>
@@ -6276,7 +6282,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="47.6">
+    <row r="184" spans="1:2" ht="47.25">
       <c r="A184" s="3" t="s">
         <v>332</v>
       </c>
@@ -6300,7 +6306,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="31.75">
+    <row r="187" spans="1:2" ht="31.5">
       <c r="A187" s="3" t="s">
         <v>360</v>
       </c>
@@ -6316,7 +6322,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="47.6">
+    <row r="189" spans="1:2" ht="63">
       <c r="A189" s="3" t="s">
         <v>363</v>
       </c>
@@ -6324,7 +6330,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="31.75">
+    <row r="190" spans="1:2" ht="31.5">
       <c r="A190" s="3" t="s">
         <v>364</v>
       </c>
@@ -6332,7 +6338,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="31.75">
+    <row r="191" spans="1:2" ht="31.5">
       <c r="A191" s="3" t="s">
         <v>365</v>
       </c>
@@ -6380,7 +6386,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="47.6">
+    <row r="197" spans="1:2" ht="47.25">
       <c r="A197" s="3" t="s">
         <v>375</v>
       </c>
@@ -6388,7 +6394,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="47.6">
+    <row r="198" spans="1:2" ht="47.25">
       <c r="A198" s="3" t="s">
         <v>377</v>
       </c>
@@ -6412,7 +6418,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="31.75">
+    <row r="201" spans="1:2" ht="31.5">
       <c r="A201" s="3" t="s">
         <v>382</v>
       </c>
@@ -6420,7 +6426,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="31.75">
+    <row r="202" spans="1:2" ht="31.5">
       <c r="A202" s="3" t="s">
         <v>384</v>
       </c>
@@ -6524,7 +6530,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="31.75">
+    <row r="215" spans="1:2" ht="31.5">
       <c r="A215" s="3" t="s">
         <v>409</v>
       </c>
@@ -6668,7 +6674,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="47.6">
+    <row r="233" spans="1:2" ht="47.25">
       <c r="A233" s="3" t="s">
         <v>432</v>
       </c>
@@ -6684,7 +6690,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="31.75">
+    <row r="235" spans="1:2" ht="31.5">
       <c r="A235" s="3" t="s">
         <v>439</v>
       </c>
@@ -6692,7 +6698,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="31.75">
+    <row r="236" spans="1:2" ht="31.5">
       <c r="A236" s="3" t="s">
         <v>442</v>
       </c>
@@ -6716,7 +6722,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="47.6">
+    <row r="239" spans="1:2" ht="47.25">
       <c r="A239" s="3" t="s">
         <v>451</v>
       </c>
@@ -6724,7 +6730,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="47.6">
+    <row r="240" spans="1:2" ht="47.25">
       <c r="A240" s="3" t="s">
         <v>454</v>
       </c>
@@ -6732,7 +6738,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="79.3">
+    <row r="241" spans="1:2" ht="78.75">
       <c r="A241" s="3" t="s">
         <v>457</v>
       </c>
@@ -6740,7 +6746,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="47.6">
+    <row r="242" spans="1:2" ht="47.25">
       <c r="A242" s="3" t="s">
         <v>460</v>
       </c>
@@ -6748,7 +6754,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="79.3">
+    <row r="243" spans="1:2" ht="78.75">
       <c r="A243" s="3" t="s">
         <v>463</v>
       </c>
@@ -6756,7 +6762,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="31.75">
+    <row r="244" spans="1:2" ht="31.5">
       <c r="A244" s="3" t="s">
         <v>466</v>
       </c>
@@ -6780,7 +6786,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="47.6">
+    <row r="247" spans="1:2" ht="47.25">
       <c r="A247" s="3" t="s">
         <v>471</v>
       </c>
@@ -6796,7 +6802,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="31.75">
+    <row r="249" spans="1:2" ht="31.5">
       <c r="A249" s="3" t="s">
         <v>476</v>
       </c>
@@ -6804,7 +6810,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="31.75">
+    <row r="250" spans="1:2" ht="31.5">
       <c r="A250" s="3" t="s">
         <v>478</v>
       </c>
@@ -6836,7 +6842,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="31.75">
+    <row r="254" spans="1:2" ht="31.5">
       <c r="A254" s="3" t="s">
         <v>484</v>
       </c>
@@ -6844,7 +6850,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="31.75">
+    <row r="255" spans="1:2" ht="31.5">
       <c r="A255" s="3" t="s">
         <v>486</v>
       </c>
@@ -6852,7 +6858,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="31.75">
+    <row r="256" spans="1:2" ht="31.5">
       <c r="A256" s="3" t="s">
         <v>489</v>
       </c>
@@ -6860,7 +6866,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="47.6">
+    <row r="257" spans="1:2" ht="47.25">
       <c r="A257" s="3" t="s">
         <v>491</v>
       </c>
@@ -6868,7 +6874,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="47.6">
+    <row r="258" spans="1:2" ht="47.25">
       <c r="A258" s="3" t="s">
         <v>494</v>
       </c>
@@ -6876,7 +6882,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="63.45">
+    <row r="259" spans="1:2" ht="63">
       <c r="A259" s="3" t="s">
         <v>496</v>
       </c>
@@ -6884,7 +6890,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="79.3">
+    <row r="260" spans="1:2" ht="78.75">
       <c r="A260" s="3" t="s">
         <v>498</v>
       </c>
@@ -6892,7 +6898,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="79.3">
+    <row r="261" spans="1:2" ht="78.75">
       <c r="A261" s="3" t="s">
         <v>500</v>
       </c>
@@ -6900,7 +6906,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="47.6">
+    <row r="262" spans="1:2" ht="47.25">
       <c r="A262" s="3" t="s">
         <v>503</v>
       </c>
@@ -6924,7 +6930,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="47.6">
+    <row r="265" spans="1:2" ht="47.25">
       <c r="A265" s="3" t="s">
         <v>507</v>
       </c>
@@ -6940,7 +6946,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="31.75">
+    <row r="267" spans="1:2" ht="31.5">
       <c r="A267" s="3" t="s">
         <v>509</v>
       </c>
@@ -6948,7 +6954,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="31.75">
+    <row r="268" spans="1:2" ht="31.5">
       <c r="A268" s="3" t="s">
         <v>510</v>
       </c>
@@ -6980,7 +6986,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="31.75">
+    <row r="272" spans="1:2" ht="31.5">
       <c r="A272" s="3" t="s">
         <v>514</v>
       </c>
@@ -6988,7 +6994,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="31.75">
+    <row r="273" spans="1:2" ht="31.5">
       <c r="A273" s="3" t="s">
         <v>515</v>
       </c>
@@ -6996,7 +7002,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="31.75">
+    <row r="274" spans="1:2" ht="31.5">
       <c r="A274" s="3" t="s">
         <v>516</v>
       </c>
@@ -7004,7 +7010,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="47.6">
+    <row r="275" spans="1:2" ht="47.25">
       <c r="A275" s="3" t="s">
         <v>517</v>
       </c>
@@ -7012,7 +7018,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="47.6">
+    <row r="276" spans="1:2" ht="47.25">
       <c r="A276" s="3" t="s">
         <v>518</v>
       </c>
@@ -7020,7 +7026,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="63.45">
+    <row r="277" spans="1:2" ht="63">
       <c r="A277" s="3" t="s">
         <v>519</v>
       </c>
@@ -7028,7 +7034,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="79.3">
+    <row r="278" spans="1:2" ht="78.75">
       <c r="A278" s="3" t="s">
         <v>520</v>
       </c>
@@ -7036,7 +7042,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="79.3">
+    <row r="279" spans="1:2" ht="78.75">
       <c r="A279" s="3" t="s">
         <v>521</v>
       </c>
@@ -7044,7 +7050,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="47.6">
+    <row r="280" spans="1:2" ht="47.25">
       <c r="A280" s="3" t="s">
         <v>522</v>
       </c>
@@ -7068,7 +7074,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="31.75">
+    <row r="283" spans="1:2" ht="31.5">
       <c r="A283" s="3" t="s">
         <v>524</v>
       </c>
@@ -7084,7 +7090,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="31.75">
+    <row r="285" spans="1:2" ht="31.5">
       <c r="A285" s="3" t="s">
         <v>528</v>
       </c>
@@ -7108,7 +7114,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="47.6">
+    <row r="288" spans="1:2" ht="47.25">
       <c r="A288" s="3" t="s">
         <v>537</v>
       </c>
@@ -7132,7 +7138,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="79.3">
+    <row r="291" spans="1:2" ht="78.75">
       <c r="A291" s="3" t="s">
         <v>545</v>
       </c>
@@ -7156,7 +7162,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="47.6">
+    <row r="294" spans="1:2" ht="47.25">
       <c r="A294" s="3" t="s">
         <v>549</v>
       </c>
@@ -7172,7 +7178,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="31.75">
+    <row r="296" spans="1:2" ht="31.5">
       <c r="A296" s="3" t="s">
         <v>551</v>
       </c>
@@ -7180,7 +7186,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="31.75">
+    <row r="297" spans="1:2" ht="31.5">
       <c r="A297" s="3" t="s">
         <v>552</v>
       </c>
@@ -7212,7 +7218,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="31.75">
+    <row r="301" spans="1:2" ht="31.5">
       <c r="A301" s="3" t="s">
         <v>556</v>
       </c>
@@ -7220,7 +7226,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="31.75">
+    <row r="302" spans="1:2" ht="31.5">
       <c r="A302" s="3" t="s">
         <v>557</v>
       </c>
@@ -7228,7 +7234,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="31.75">
+    <row r="303" spans="1:2" ht="31.5">
       <c r="A303" s="3" t="s">
         <v>558</v>
       </c>
@@ -7236,7 +7242,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="47.6">
+    <row r="304" spans="1:2" ht="47.25">
       <c r="A304" s="3" t="s">
         <v>559</v>
       </c>
@@ -7244,7 +7250,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="47.6">
+    <row r="305" spans="1:2" ht="47.25">
       <c r="A305" s="3" t="s">
         <v>560</v>
       </c>
@@ -7252,7 +7258,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="63.45">
+    <row r="306" spans="1:2" ht="63">
       <c r="A306" s="3" t="s">
         <v>561</v>
       </c>
@@ -7260,7 +7266,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="79.3">
+    <row r="307" spans="1:2" ht="78.75">
       <c r="A307" s="3" t="s">
         <v>562</v>
       </c>
@@ -7268,7 +7274,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="79.3">
+    <row r="308" spans="1:2" ht="78.75">
       <c r="A308" s="3" t="s">
         <v>563</v>
       </c>
@@ -7276,7 +7282,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="47.6">
+    <row r="309" spans="1:2" ht="47.25">
       <c r="A309" s="3" t="s">
         <v>564</v>
       </c>
@@ -7308,7 +7314,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="95.15">
+    <row r="313" spans="1:2" ht="94.5">
       <c r="A313" s="3" t="s">
         <v>566</v>
       </c>
@@ -7316,7 +7322,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="31.75">
+    <row r="314" spans="1:2" ht="31.5">
       <c r="A314" s="3" t="s">
         <v>569</v>
       </c>
@@ -7364,7 +7370,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="31.75">
+    <row r="320" spans="1:2" ht="31.5">
       <c r="A320" s="3" t="s">
         <v>584</v>
       </c>
@@ -7396,7 +7402,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="31.75">
+    <row r="324" spans="1:2" ht="31.5">
       <c r="A324" s="3" t="s">
         <v>595</v>
       </c>
@@ -7412,7 +7418,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="31.75">
+    <row r="326" spans="1:2" ht="31.5">
       <c r="A326" s="3" t="s">
         <v>601</v>
       </c>
@@ -7428,7 +7434,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="63.45">
+    <row r="328" spans="1:2" ht="63">
       <c r="A328" s="3" t="s">
         <v>607</v>
       </c>
@@ -7436,7 +7442,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="47.6">
+    <row r="329" spans="1:2" ht="47.25">
       <c r="A329" s="3" t="s">
         <v>609</v>
       </c>
@@ -7452,7 +7458,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="31.75">
+    <row r="331" spans="1:2" ht="31.5">
       <c r="A331" s="3" t="s">
         <v>613</v>
       </c>
@@ -7460,7 +7466,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="31.75">
+    <row r="332" spans="1:2" ht="31.5">
       <c r="A332" s="3" t="s">
         <v>616</v>
       </c>
@@ -7516,7 +7522,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="31.75">
+    <row r="339" spans="1:2" ht="31.5">
       <c r="A339" s="3" t="s">
         <v>630</v>
       </c>
@@ -7556,7 +7562,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="95.15">
+    <row r="344" spans="1:2" ht="94.5">
       <c r="A344" s="3" t="s">
         <v>638</v>
       </c>
@@ -7564,7 +7570,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="31.75">
+    <row r="345" spans="1:2" ht="31.5">
       <c r="A345" s="3" t="s">
         <v>639</v>
       </c>
@@ -7612,7 +7618,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="31.75">
+    <row r="351" spans="1:2" ht="31.5">
       <c r="A351" s="3" t="s">
         <v>652</v>
       </c>
@@ -7620,7 +7626,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="31.75">
+    <row r="352" spans="1:2" ht="31.5">
       <c r="A352" s="3" t="s">
         <v>654</v>
       </c>
@@ -7628,7 +7634,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="31.75">
+    <row r="353" spans="1:2" ht="31.5">
       <c r="A353" s="3" t="s">
         <v>656</v>
       </c>
@@ -7636,7 +7642,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="47.6">
+    <row r="354" spans="1:2" ht="31.5">
       <c r="A354" s="3" t="s">
         <v>658</v>
       </c>
@@ -7692,7 +7698,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="31.75">
+    <row r="361" spans="1:2" ht="31.5">
       <c r="A361" s="3" t="s">
         <v>667</v>
       </c>
@@ -7732,7 +7738,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="79.3">
+    <row r="366" spans="1:2" ht="78.75">
       <c r="A366" s="3" t="s">
         <v>671</v>
       </c>
@@ -7740,7 +7746,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="31.75">
+    <row r="367" spans="1:2" ht="31.5">
       <c r="A367" s="3" t="s">
         <v>673</v>
       </c>
@@ -7772,7 +7778,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="31.75">
+    <row r="371" spans="1:2" ht="31.5">
       <c r="A371" s="3" t="s">
         <v>679</v>
       </c>
@@ -7780,7 +7786,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="31.75">
+    <row r="372" spans="1:2" ht="31.5">
       <c r="A372" s="3" t="s">
         <v>682</v>
       </c>
@@ -7796,7 +7802,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="31.75">
+    <row r="374" spans="1:2" ht="31.5">
       <c r="A374" s="3" t="s">
         <v>687</v>
       </c>
@@ -7804,7 +7810,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="31.75">
+    <row r="375" spans="1:2" ht="31.5">
       <c r="A375" s="3" t="s">
         <v>689</v>
       </c>
@@ -7812,7 +7818,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="47.6">
+    <row r="376" spans="1:2" ht="31.5">
       <c r="A376" s="3" t="s">
         <v>691</v>
       </c>
@@ -7868,7 +7874,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="31.75">
+    <row r="383" spans="1:2" ht="31.5">
       <c r="A383" s="3" t="s">
         <v>698</v>
       </c>
@@ -7908,7 +7914,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="79.3">
+    <row r="388" spans="1:2" ht="78.75">
       <c r="A388" s="3" t="s">
         <v>702</v>
       </c>
@@ -7916,7 +7922,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="31.75">
+    <row r="389" spans="1:2" ht="31.5">
       <c r="A389" s="3" t="s">
         <v>703</v>
       </c>
@@ -7972,7 +7978,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="396" spans="1:2" ht="31.75">
+    <row r="396" spans="1:2" ht="31.5">
       <c r="A396" s="3" t="s">
         <v>714</v>
       </c>
@@ -7996,7 +8002,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="399" spans="1:2" ht="31.75">
+    <row r="399" spans="1:2" ht="31.5">
       <c r="A399" s="3" t="s">
         <v>722</v>
       </c>
@@ -8036,7 +8042,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="404" spans="1:2" ht="31.75">
+    <row r="404" spans="1:2" ht="31.5">
       <c r="A404" s="3" t="s">
         <v>732</v>
       </c>
@@ -8060,7 +8066,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="407" spans="1:2" ht="31.75">
+    <row r="407" spans="1:2" ht="31.5">
       <c r="A407" s="3" t="s">
         <v>735</v>
       </c>
@@ -8076,7 +8082,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="409" spans="1:2" ht="63.45">
+    <row r="409" spans="1:2" ht="63">
       <c r="A409" s="3" t="s">
         <v>737</v>
       </c>
@@ -8084,7 +8090,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="410" spans="1:2" ht="47.6">
+    <row r="410" spans="1:2" ht="47.25">
       <c r="A410" s="3" t="s">
         <v>739</v>
       </c>
@@ -8100,7 +8106,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="412" spans="1:2" ht="31.75">
+    <row r="412" spans="1:2" ht="31.5">
       <c r="A412" s="3" t="s">
         <v>742</v>
       </c>
@@ -8156,7 +8162,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="419" spans="1:2" ht="31.75">
+    <row r="419" spans="1:2" ht="31.5">
       <c r="A419" s="3" t="s">
         <v>749</v>
       </c>
@@ -8252,7 +8258,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="431" spans="1:2" ht="79.3">
+    <row r="431" spans="1:2" ht="78.75">
       <c r="A431" s="3" t="s">
         <v>758</v>
       </c>
@@ -8260,7 +8266,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="432" spans="1:2" ht="31.75">
+    <row r="432" spans="1:2" ht="31.5">
       <c r="A432" s="3" t="s">
         <v>759</v>
       </c>
@@ -8316,7 +8322,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="439" spans="1:2" ht="31.75">
+    <row r="439" spans="1:2" ht="31.5">
       <c r="A439" s="3" t="s">
         <v>768</v>
       </c>
@@ -8324,7 +8330,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="440" spans="1:2" ht="47.6">
+    <row r="440" spans="1:2" ht="47.25">
       <c r="A440" s="3" t="s">
         <v>770</v>
       </c>
@@ -8388,7 +8394,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="448" spans="1:2" ht="31.75">
+    <row r="448" spans="1:2" ht="31.5">
       <c r="A448" s="3" t="s">
         <v>779</v>
       </c>
@@ -8427,25 +8433,25 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F431" sqref="F431:F471"/>
+    <sheetView tabSelected="1" topLeftCell="A392" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A422" sqref="A422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="52" customWidth="1"/>
+    <col min="1" max="1" width="17.875" style="52" customWidth="1"/>
     <col min="2" max="2" width="12" style="50" customWidth="1"/>
     <col min="3" max="3" width="91.5" style="50" customWidth="1"/>
-    <col min="4" max="4" width="20.35546875" style="50" customWidth="1"/>
-    <col min="5" max="5" width="155.35546875" style="50" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" style="50" customWidth="1"/>
-    <col min="7" max="7" width="84.640625" style="50" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="50" customWidth="1"/>
+    <col min="5" max="5" width="155.375" style="50" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="62.75" style="50" customWidth="1"/>
+    <col min="7" max="7" width="84.625" style="50" customWidth="1"/>
     <col min="8" max="8" width="9" style="51"/>
     <col min="9" max="1027" width="8.5" style="34" customWidth="1"/>
     <col min="1028" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="54" customFormat="1" ht="15.45">
+    <row r="1" spans="1:8" s="54" customFormat="1" ht="15.75">
       <c r="A1" s="33" t="s">
         <v>52</v>
       </c>
@@ -8462,19 +8468,19 @@
         <v>56</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="G1" s="33" t="s">
         <v>55</v>
       </c>
       <c r="H1" s="53"/>
     </row>
-    <row r="2" spans="1:8" ht="15.45">
+    <row r="2" spans="1:8" ht="15.75">
       <c r="A2" s="35" t="s">
         <v>58</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
       <c r="C2" s="36" t="s">
         <v>0</v>
@@ -8504,10 +8510,10 @@
         <v>58</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="D4" s="37"/>
       <c r="E4" s="37"/>
@@ -8529,7 +8535,7 @@
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="38" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="G5" s="38" t="s">
         <v>61</v>
@@ -8550,7 +8556,7 @@
       </c>
       <c r="E6" s="38"/>
       <c r="F6" s="38" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="G6" s="38"/>
     </row>
@@ -8569,7 +8575,7 @@
       </c>
       <c r="E7" s="38"/>
       <c r="F7" s="38" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="G7" s="38"/>
     </row>
@@ -8588,7 +8594,7 @@
       </c>
       <c r="E8" s="38"/>
       <c r="F8" s="38" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="G8" s="38"/>
     </row>
@@ -8607,7 +8613,7 @@
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="38" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="G9" s="38"/>
     </row>
@@ -8626,7 +8632,7 @@
       </c>
       <c r="E10" s="38"/>
       <c r="F10" s="38" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="G10" s="38"/>
     </row>
@@ -8645,7 +8651,7 @@
       </c>
       <c r="E11" s="38"/>
       <c r="F11" s="38" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="G11" s="38"/>
     </row>
@@ -8664,7 +8670,7 @@
       </c>
       <c r="E12" s="38"/>
       <c r="F12" s="38" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="G12" s="38"/>
     </row>
@@ -8683,7 +8689,7 @@
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="38" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="G13" s="38"/>
     </row>
@@ -8702,7 +8708,7 @@
       </c>
       <c r="E14" s="38"/>
       <c r="F14" s="38" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="G14" s="38"/>
     </row>
@@ -8721,7 +8727,7 @@
       </c>
       <c r="E15" s="38"/>
       <c r="F15" s="38" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="G15" s="38"/>
     </row>
@@ -8745,10 +8751,10 @@
         <v>58</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
@@ -8770,7 +8776,7 @@
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="38" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="G18" s="38" t="s">
         <v>95</v>
@@ -8791,7 +8797,7 @@
       </c>
       <c r="E19" s="38"/>
       <c r="F19" s="38" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="G19" s="38"/>
     </row>
@@ -8810,7 +8816,7 @@
       </c>
       <c r="E20" s="38"/>
       <c r="F20" s="38" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="G20" s="38"/>
     </row>
@@ -8829,7 +8835,7 @@
       </c>
       <c r="E21" s="38"/>
       <c r="F21" s="38" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="G21" s="38"/>
     </row>
@@ -8848,7 +8854,7 @@
       </c>
       <c r="E22" s="38"/>
       <c r="F22" s="38" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="G22" s="38"/>
     </row>
@@ -8860,14 +8866,14 @@
         <v>102</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>104</v>
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="38" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="G23" s="38"/>
     </row>
@@ -8879,14 +8885,14 @@
         <v>105</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="39" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="G24" s="39"/>
     </row>
@@ -8905,7 +8911,7 @@
       </c>
       <c r="E25" s="38"/>
       <c r="F25" s="38" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="G25" s="38"/>
     </row>
@@ -8917,14 +8923,14 @@
         <v>111</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="D26" s="38" t="s">
         <v>110</v>
       </c>
       <c r="E26" s="38"/>
       <c r="F26" s="38" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="G26" s="38"/>
     </row>
@@ -8936,14 +8942,14 @@
         <v>114</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="39" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="G27" s="39"/>
     </row>
@@ -8955,14 +8961,14 @@
         <v>117</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="39" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="G28" s="39"/>
     </row>
@@ -8971,34 +8977,34 @@
         <v>58</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="E29" s="39"/>
       <c r="F29" s="39" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="G29" s="39"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="39"/>
       <c r="B30" s="39" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="39" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="G30" s="39"/>
     </row>
@@ -9007,17 +9013,17 @@
         <v>58</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="D31" s="38" t="s">
         <v>113</v>
       </c>
       <c r="E31" s="38"/>
       <c r="F31" s="38" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="G31" s="38"/>
     </row>
@@ -9026,7 +9032,7 @@
         <v>58</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="C32" s="38" t="s">
         <v>115</v>
@@ -9036,7 +9042,7 @@
       </c>
       <c r="E32" s="38"/>
       <c r="F32" s="38" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="G32" s="38"/>
     </row>
@@ -9045,17 +9051,17 @@
         <v>58</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="E33" s="39"/>
       <c r="F33" s="39" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="G33" s="39"/>
     </row>
@@ -9064,17 +9070,17 @@
         <v>58</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
       <c r="E34" s="39"/>
       <c r="F34" s="39" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="G34" s="39"/>
     </row>
@@ -9083,17 +9089,17 @@
         <v>58</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="E35" s="39"/>
       <c r="F35" s="39" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="G35" s="39"/>
     </row>
@@ -9102,17 +9108,17 @@
         <v>58</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="E36" s="39"/>
       <c r="F36" s="39" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="G36" s="39"/>
     </row>
@@ -9121,7 +9127,7 @@
         <v>58</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="C37" s="38" t="s">
         <v>118</v>
@@ -9131,7 +9137,7 @@
       </c>
       <c r="E37" s="38"/>
       <c r="F37" s="38" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="G37" s="38"/>
     </row>
@@ -9150,7 +9156,7 @@
       </c>
       <c r="E38" s="38"/>
       <c r="F38" s="38" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="G38" s="38"/>
     </row>
@@ -9169,7 +9175,7 @@
       </c>
       <c r="E39" s="38"/>
       <c r="F39" s="38" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="G39" s="38"/>
     </row>
@@ -9188,7 +9194,7 @@
       </c>
       <c r="E40" s="38"/>
       <c r="F40" s="38" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="G40" s="38"/>
     </row>
@@ -9207,7 +9213,7 @@
       </c>
       <c r="E41" s="38"/>
       <c r="F41" s="38" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="G41" s="38"/>
     </row>
@@ -9216,7 +9222,7 @@
         <v>131</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>1274</v>
+        <v>1269</v>
       </c>
       <c r="C42" s="38" t="s">
         <v>133</v>
@@ -9226,7 +9232,7 @@
       </c>
       <c r="E42" s="38"/>
       <c r="F42" s="38" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="G42" s="38"/>
     </row>
@@ -9250,10 +9256,10 @@
         <v>58</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
@@ -9275,7 +9281,7 @@
       </c>
       <c r="E45" s="38"/>
       <c r="F45" s="38" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="G45" s="38" t="s">
         <v>136</v>
@@ -9296,7 +9302,7 @@
       </c>
       <c r="E46" s="38"/>
       <c r="F46" s="38" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="G46" s="38"/>
     </row>
@@ -9315,7 +9321,7 @@
       </c>
       <c r="E47" s="38"/>
       <c r="F47" s="38" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="G47" s="38"/>
     </row>
@@ -9334,7 +9340,7 @@
       </c>
       <c r="E48" s="38"/>
       <c r="F48" s="38" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="G48" s="38"/>
     </row>
@@ -9353,7 +9359,7 @@
       </c>
       <c r="E49" s="38"/>
       <c r="F49" s="38" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="G49" s="38"/>
     </row>
@@ -9372,7 +9378,7 @@
       </c>
       <c r="E50" s="38"/>
       <c r="F50" s="38" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="G50" s="38"/>
     </row>
@@ -9391,7 +9397,7 @@
       </c>
       <c r="E51" s="38"/>
       <c r="F51" s="38" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="G51" s="38"/>
     </row>
@@ -9410,7 +9416,7 @@
       </c>
       <c r="E52" s="38"/>
       <c r="F52" s="38" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="G52" s="38"/>
     </row>
@@ -9429,7 +9435,7 @@
       </c>
       <c r="E53" s="38"/>
       <c r="F53" s="38" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="G53" s="38"/>
     </row>
@@ -9438,7 +9444,7 @@
         <v>131</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="C54" s="38" t="s">
         <v>133</v>
@@ -9448,7 +9454,7 @@
       </c>
       <c r="E54" s="38"/>
       <c r="F54" s="38" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="G54" s="38"/>
     </row>
@@ -9472,10 +9478,10 @@
         <v>58</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="D56" s="37"/>
       <c r="E56" s="37"/>
@@ -9497,7 +9503,7 @@
       </c>
       <c r="E57" s="38"/>
       <c r="F57" s="38" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="G57" s="38" t="s">
         <v>158</v>
@@ -9518,7 +9524,7 @@
       </c>
       <c r="E58" s="38"/>
       <c r="F58" s="38" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="G58" s="38"/>
     </row>
@@ -9537,7 +9543,7 @@
       </c>
       <c r="E59" s="38"/>
       <c r="F59" s="38" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="G59" s="38"/>
     </row>
@@ -9556,7 +9562,7 @@
       </c>
       <c r="E60" s="38"/>
       <c r="F60" s="38" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="G60" s="38"/>
     </row>
@@ -9575,7 +9581,7 @@
       </c>
       <c r="E61" s="38"/>
       <c r="F61" s="38" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="G61" s="38"/>
     </row>
@@ -9594,7 +9600,7 @@
       </c>
       <c r="E62" s="38"/>
       <c r="F62" s="38" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="G62" s="38"/>
     </row>
@@ -9613,7 +9619,7 @@
       </c>
       <c r="E63" s="38"/>
       <c r="F63" s="38" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="G63" s="38"/>
     </row>
@@ -9632,7 +9638,7 @@
       </c>
       <c r="E64" s="38"/>
       <c r="F64" s="38" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="G64" s="38"/>
     </row>
@@ -9651,7 +9657,7 @@
       </c>
       <c r="E65" s="38"/>
       <c r="F65" s="38" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="G65" s="38"/>
     </row>
@@ -9675,10 +9681,10 @@
         <v>58</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="D67" s="37"/>
       <c r="E67" s="37"/>
@@ -9700,7 +9706,7 @@
       </c>
       <c r="E68" s="38"/>
       <c r="F68" s="38" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="G68" s="38" t="s">
         <v>169</v>
@@ -9721,7 +9727,7 @@
       </c>
       <c r="E69" s="38"/>
       <c r="F69" s="38" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="G69" s="38"/>
     </row>
@@ -9740,7 +9746,7 @@
       </c>
       <c r="E70" s="38"/>
       <c r="F70" s="38" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="G70" s="38"/>
     </row>
@@ -9759,7 +9765,7 @@
       </c>
       <c r="E71" s="38"/>
       <c r="F71" s="38" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="G71" s="38"/>
     </row>
@@ -9778,7 +9784,7 @@
       </c>
       <c r="E72" s="40"/>
       <c r="F72" s="38" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="G72" s="38"/>
     </row>
@@ -9797,7 +9803,7 @@
       </c>
       <c r="E73" s="38"/>
       <c r="F73" s="38" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="G73" s="38"/>
     </row>
@@ -9809,14 +9815,14 @@
         <v>179</v>
       </c>
       <c r="C74" s="39" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="D74" s="39" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="E74" s="39"/>
       <c r="F74" s="39" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="G74" s="39"/>
     </row>
@@ -9828,14 +9834,14 @@
         <v>182</v>
       </c>
       <c r="C75" s="39" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="D75" s="39" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="E75" s="39"/>
       <c r="F75" s="39" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="G75" s="39"/>
     </row>
@@ -9854,7 +9860,7 @@
       </c>
       <c r="E76" s="38"/>
       <c r="F76" s="38" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="G76" s="38"/>
     </row>
@@ -9863,7 +9869,7 @@
         <v>58</v>
       </c>
       <c r="B77" s="38" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="C77" s="38" t="s">
         <v>183</v>
@@ -9873,7 +9879,7 @@
       </c>
       <c r="E77" s="38"/>
       <c r="F77" s="38" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="G77" s="38"/>
     </row>
@@ -9882,7 +9888,7 @@
         <v>58</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="C78" s="38" t="s">
         <v>186</v>
@@ -9892,7 +9898,7 @@
       </c>
       <c r="E78" s="38"/>
       <c r="F78" s="38" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="G78" s="38"/>
     </row>
@@ -9901,7 +9907,7 @@
         <v>131</v>
       </c>
       <c r="B79" s="38" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="C79" s="38" t="s">
         <v>133</v>
@@ -9911,7 +9917,7 @@
       </c>
       <c r="E79" s="38"/>
       <c r="F79" s="38" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="G79" s="38"/>
     </row>
@@ -9920,7 +9926,7 @@
         <v>58</v>
       </c>
       <c r="B80" s="38" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="C80" s="37" t="s">
         <v>6</v>
@@ -9935,10 +9941,10 @@
         <v>58</v>
       </c>
       <c r="B81" s="38" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="D81" s="37"/>
       <c r="E81" s="37"/>
@@ -9960,7 +9966,7 @@
       </c>
       <c r="E82" s="38"/>
       <c r="F82" s="38" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="G82" s="38" t="s">
         <v>191</v>
@@ -9981,7 +9987,7 @@
       </c>
       <c r="E83" s="38"/>
       <c r="F83" s="38" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="G83" s="38"/>
     </row>
@@ -10000,7 +10006,7 @@
       </c>
       <c r="E84" s="38"/>
       <c r="F84" s="38" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="G84" s="38"/>
     </row>
@@ -10019,7 +10025,7 @@
       </c>
       <c r="E85" s="38"/>
       <c r="F85" s="38" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="G85" s="38"/>
     </row>
@@ -10038,7 +10044,7 @@
       </c>
       <c r="E86" s="38"/>
       <c r="F86" s="38" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="G86" s="38"/>
     </row>
@@ -10057,7 +10063,7 @@
       </c>
       <c r="E87" s="38"/>
       <c r="F87" s="38" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="G87" s="38"/>
     </row>
@@ -10076,7 +10082,7 @@
       </c>
       <c r="E88" s="38"/>
       <c r="F88" s="38" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="G88" s="38"/>
     </row>
@@ -10085,7 +10091,7 @@
         <v>131</v>
       </c>
       <c r="B89" s="38" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="C89" s="38" t="s">
         <v>133</v>
@@ -10095,7 +10101,7 @@
       </c>
       <c r="E89" s="38"/>
       <c r="F89" s="38" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="G89" s="38"/>
     </row>
@@ -10119,10 +10125,10 @@
         <v>58</v>
       </c>
       <c r="B91" s="38" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="D91" s="37"/>
       <c r="E91" s="37"/>
@@ -10144,7 +10150,7 @@
       </c>
       <c r="E92" s="38"/>
       <c r="F92" s="38" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="G92" s="38" t="s">
         <v>207</v>
@@ -10165,7 +10171,7 @@
       </c>
       <c r="E93" s="38"/>
       <c r="F93" s="38" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="G93" s="38"/>
     </row>
@@ -10184,7 +10190,7 @@
       </c>
       <c r="E94" s="38"/>
       <c r="F94" s="38" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="G94" s="38"/>
     </row>
@@ -10203,7 +10209,7 @@
       </c>
       <c r="E95" s="38"/>
       <c r="F95" s="38" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="G95" s="38"/>
     </row>
@@ -10222,7 +10228,7 @@
       </c>
       <c r="E96" s="38"/>
       <c r="F96" s="38" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="G96" s="38"/>
     </row>
@@ -10241,7 +10247,7 @@
       </c>
       <c r="E97" s="38"/>
       <c r="F97" s="38" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="G97" s="38"/>
     </row>
@@ -10260,7 +10266,7 @@
       </c>
       <c r="E98" s="38"/>
       <c r="F98" s="38" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="G98" s="38"/>
     </row>
@@ -10279,7 +10285,7 @@
       </c>
       <c r="E99" s="38"/>
       <c r="F99" s="38" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="G99" s="38"/>
     </row>
@@ -10298,7 +10304,7 @@
       </c>
       <c r="E100" s="38"/>
       <c r="F100" s="38" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="G100" s="38"/>
     </row>
@@ -10307,7 +10313,7 @@
         <v>131</v>
       </c>
       <c r="B101" s="38" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
       <c r="C101" s="38" t="s">
         <v>133</v>
@@ -10317,7 +10323,7 @@
       </c>
       <c r="E101" s="38"/>
       <c r="F101" s="38" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="G101" s="38"/>
     </row>
@@ -10341,10 +10347,10 @@
         <v>58</v>
       </c>
       <c r="B103" s="38" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="D103" s="37"/>
       <c r="E103" s="37"/>
@@ -10366,7 +10372,7 @@
       </c>
       <c r="E104" s="38"/>
       <c r="F104" s="38" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="G104" s="38" t="s">
         <v>219</v>
@@ -10387,7 +10393,7 @@
       </c>
       <c r="E105" s="38"/>
       <c r="F105" s="38" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="G105" s="38"/>
     </row>
@@ -10406,7 +10412,7 @@
       </c>
       <c r="E106" s="38"/>
       <c r="F106" s="38" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="G106" s="38"/>
     </row>
@@ -10425,7 +10431,7 @@
       </c>
       <c r="E107" s="38"/>
       <c r="F107" s="38" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="G107" s="38"/>
     </row>
@@ -10444,7 +10450,7 @@
       </c>
       <c r="E108" s="38"/>
       <c r="F108" s="38" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="G108" s="38"/>
     </row>
@@ -10463,7 +10469,7 @@
       </c>
       <c r="E109" s="38"/>
       <c r="F109" s="38" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="G109" s="38"/>
     </row>
@@ -10482,7 +10488,7 @@
       </c>
       <c r="E110" s="38"/>
       <c r="F110" s="38" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="G110" s="38"/>
     </row>
@@ -10501,7 +10507,7 @@
       </c>
       <c r="E111" s="38"/>
       <c r="F111" s="38" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="G111" s="38"/>
     </row>
@@ -10520,7 +10526,7 @@
       </c>
       <c r="E112" s="38"/>
       <c r="F112" s="38" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="G112" s="38"/>
     </row>
@@ -10529,7 +10535,7 @@
         <v>131</v>
       </c>
       <c r="B113" s="38" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
       <c r="C113" s="38" t="s">
         <v>133</v>
@@ -10539,7 +10545,7 @@
       </c>
       <c r="E113" s="38"/>
       <c r="F113" s="38" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="G113" s="38"/>
     </row>
@@ -10563,10 +10569,10 @@
         <v>58</v>
       </c>
       <c r="B115" s="38" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
       <c r="C115" s="37" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="D115" s="37"/>
       <c r="E115" s="37"/>
@@ -10588,7 +10594,7 @@
       </c>
       <c r="E116" s="38"/>
       <c r="F116" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G116" s="38" t="s">
         <v>136</v>
@@ -10609,7 +10615,7 @@
       </c>
       <c r="E117" s="38"/>
       <c r="F117" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G117" s="38"/>
     </row>
@@ -10628,7 +10634,7 @@
       </c>
       <c r="E118" s="38"/>
       <c r="F118" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G118" s="38"/>
     </row>
@@ -10647,7 +10653,7 @@
       </c>
       <c r="E119" s="38"/>
       <c r="F119" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G119" s="38"/>
     </row>
@@ -10666,7 +10672,7 @@
       </c>
       <c r="E120" s="38"/>
       <c r="F120" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G120" s="38"/>
     </row>
@@ -10685,7 +10691,7 @@
       </c>
       <c r="E121" s="38"/>
       <c r="F121" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G121" s="38"/>
     </row>
@@ -10704,7 +10710,7 @@
       </c>
       <c r="E122" s="38"/>
       <c r="F122" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G122" s="38"/>
     </row>
@@ -10723,7 +10729,7 @@
       </c>
       <c r="E123" s="38"/>
       <c r="F123" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G123" s="38"/>
     </row>
@@ -10742,7 +10748,7 @@
       </c>
       <c r="E124" s="38"/>
       <c r="F124" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G124" s="38"/>
     </row>
@@ -10751,7 +10757,7 @@
         <v>131</v>
       </c>
       <c r="B125" s="38" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
       <c r="C125" s="38" t="s">
         <v>133</v>
@@ -10761,7 +10767,7 @@
       </c>
       <c r="E125" s="38"/>
       <c r="F125" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G125" s="38"/>
     </row>
@@ -10770,7 +10776,7 @@
         <v>58</v>
       </c>
       <c r="B126" s="38" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="C126" s="37" t="s">
         <v>10</v>
@@ -10785,10 +10791,10 @@
         <v>58</v>
       </c>
       <c r="B127" s="38" t="s">
-        <v>1268</v>
+        <v>1263</v>
       </c>
       <c r="C127" s="37" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="D127" s="37"/>
       <c r="E127" s="37"/>
@@ -10810,7 +10816,7 @@
       </c>
       <c r="E128" s="38"/>
       <c r="F128" s="38" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="G128" s="38" t="s">
         <v>242</v>
@@ -10831,7 +10837,7 @@
       </c>
       <c r="E129" s="38"/>
       <c r="F129" s="38" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="G129" s="38"/>
     </row>
@@ -10850,7 +10856,7 @@
       </c>
       <c r="E130" s="38"/>
       <c r="F130" s="38" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="G130" s="38"/>
     </row>
@@ -10869,7 +10875,7 @@
       </c>
       <c r="E131" s="38"/>
       <c r="F131" s="38" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="G131" s="38"/>
     </row>
@@ -10888,7 +10894,7 @@
       </c>
       <c r="E132" s="38"/>
       <c r="F132" s="38" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="G132" s="38"/>
     </row>
@@ -10900,14 +10906,14 @@
         <v>249</v>
       </c>
       <c r="C133" s="38" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="D133" s="38" t="s">
         <v>251</v>
       </c>
       <c r="E133" s="38"/>
       <c r="F133" s="38" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="G133" s="38"/>
     </row>
@@ -10919,14 +10925,14 @@
         <v>252</v>
       </c>
       <c r="C134" s="39" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="D134" s="39" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="E134" s="39"/>
       <c r="F134" s="39" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="G134" s="39"/>
     </row>
@@ -10945,7 +10951,7 @@
       </c>
       <c r="E135" s="38"/>
       <c r="F135" s="38" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="G135" s="38"/>
     </row>
@@ -10954,7 +10960,7 @@
         <v>58</v>
       </c>
       <c r="B136" s="38" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="C136" s="38" t="s">
         <v>256</v>
@@ -10964,7 +10970,7 @@
       </c>
       <c r="E136" s="38"/>
       <c r="F136" s="38" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="G136" s="38"/>
     </row>
@@ -10988,10 +10994,10 @@
         <v>58</v>
       </c>
       <c r="B138" s="38" t="s">
-        <v>1269</v>
+        <v>1264</v>
       </c>
       <c r="C138" s="37" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="D138" s="37"/>
       <c r="E138" s="37"/>
@@ -11015,10 +11021,10 @@
         <v>260</v>
       </c>
       <c r="F139" s="38" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="G139" s="38" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -11038,7 +11044,7 @@
         <v>260</v>
       </c>
       <c r="F140" s="38" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="G140" s="38"/>
     </row>
@@ -11059,7 +11065,7 @@
         <v>260</v>
       </c>
       <c r="F141" s="38" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="G141" s="38"/>
     </row>
@@ -11080,7 +11086,7 @@
         <v>260</v>
       </c>
       <c r="F142" s="38" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="G142" s="38"/>
     </row>
@@ -11092,7 +11098,7 @@
         <v>267</v>
       </c>
       <c r="C143" s="38" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="D143" s="38" t="s">
         <v>269</v>
@@ -11101,7 +11107,7 @@
         <v>260</v>
       </c>
       <c r="F143" s="38" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="G143" s="38"/>
     </row>
@@ -11113,7 +11119,7 @@
         <v>270</v>
       </c>
       <c r="C144" s="38" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="D144" s="38" t="s">
         <v>266</v>
@@ -11122,7 +11128,7 @@
         <v>260</v>
       </c>
       <c r="F144" s="38" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="G144" s="38"/>
     </row>
@@ -11134,14 +11140,14 @@
         <v>272</v>
       </c>
       <c r="C145" s="39" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="D145" s="39" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="E145" s="39"/>
       <c r="F145" s="39" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="G145" s="39"/>
     </row>
@@ -11150,19 +11156,19 @@
         <v>58</v>
       </c>
       <c r="B146" s="38" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="C146" s="38" t="s">
         <v>271</v>
       </c>
       <c r="D146" s="38" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="E146" s="38" t="s">
         <v>260</v>
       </c>
       <c r="F146" s="38" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="G146" s="38"/>
     </row>
@@ -11171,7 +11177,7 @@
         <v>58</v>
       </c>
       <c r="B147" s="38" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="C147" s="38" t="s">
         <v>273</v>
@@ -11183,7 +11189,7 @@
         <v>260</v>
       </c>
       <c r="F147" s="38" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="G147" s="38"/>
     </row>
@@ -11192,19 +11198,19 @@
         <v>131</v>
       </c>
       <c r="B148" s="38" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="C148" s="38" t="s">
         <v>133</v>
       </c>
       <c r="D148" s="38" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="E148" s="38" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F148" s="38" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="G148" s="38"/>
     </row>
@@ -11213,7 +11219,7 @@
         <v>131</v>
       </c>
       <c r="B149" s="38" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="C149" s="38" t="s">
         <v>277</v>
@@ -11223,7 +11229,7 @@
       </c>
       <c r="E149" s="38"/>
       <c r="F149" s="38" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="G149" s="38"/>
     </row>
@@ -11272,14 +11278,14 @@
         <v>14</v>
       </c>
       <c r="D152" s="38" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="E152" s="38" t="s">
         <v>281</v>
       </c>
       <c r="F152" s="38"/>
       <c r="G152" s="38" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -11293,14 +11299,14 @@
         <v>15</v>
       </c>
       <c r="D153" s="38" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="E153" s="38" t="s">
         <v>281</v>
       </c>
       <c r="F153" s="38"/>
       <c r="G153" s="38" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -11314,14 +11320,14 @@
         <v>283</v>
       </c>
       <c r="D154" s="38" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="E154" s="38" t="s">
         <v>284</v>
       </c>
       <c r="F154" s="38"/>
       <c r="G154" s="38" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -11375,12 +11381,12 @@
       <c r="F157" s="37"/>
       <c r="G157" s="41"/>
     </row>
-    <row r="158" spans="1:7" ht="15.45">
+    <row r="158" spans="1:7" ht="15.75">
       <c r="A158" s="35" t="s">
         <v>58</v>
       </c>
       <c r="B158" s="35" t="s">
-        <v>1271</v>
+        <v>1266</v>
       </c>
       <c r="C158" s="36" t="s">
         <v>19</v>
@@ -11505,7 +11511,7 @@
       <c r="F165" s="41"/>
       <c r="G165" s="41"/>
     </row>
-    <row r="166" spans="1:7" ht="30">
+    <row r="166" spans="1:7">
       <c r="A166" s="38" t="s">
         <v>58</v>
       </c>
@@ -11566,7 +11572,7 @@
         <v>303</v>
       </c>
       <c r="C169" s="38" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="D169" s="40" t="s">
         <v>950</v>
@@ -11660,7 +11666,7 @@
       <c r="F174" s="40"/>
       <c r="G174" s="38"/>
     </row>
-    <row r="175" spans="1:7" ht="45">
+    <row r="175" spans="1:7" ht="30">
       <c r="A175" s="38" t="s">
         <v>58</v>
       </c>
@@ -11826,7 +11832,7 @@
       <c r="F184" s="41"/>
       <c r="G184" s="41"/>
     </row>
-    <row r="185" spans="1:7" ht="30">
+    <row r="185" spans="1:7">
       <c r="A185" s="38" t="s">
         <v>58</v>
       </c>
@@ -11887,7 +11893,7 @@
         <v>330</v>
       </c>
       <c r="C188" s="38" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="D188" s="40" t="s">
         <v>950</v>
@@ -11981,7 +11987,7 @@
       <c r="F193" s="40"/>
       <c r="G193" s="38"/>
     </row>
-    <row r="194" spans="1:7" ht="45">
+    <row r="194" spans="1:7" ht="30">
       <c r="A194" s="38" t="s">
         <v>58</v>
       </c>
@@ -12302,7 +12308,7 @@
       <c r="F212" s="40"/>
       <c r="G212" s="38"/>
     </row>
-    <row r="213" spans="1:7" ht="45">
+    <row r="213" spans="1:7" ht="30">
       <c r="A213" s="38" t="s">
         <v>58</v>
       </c>
@@ -12399,7 +12405,7 @@
       <c r="E218" s="38"/>
       <c r="F218" s="38"/>
       <c r="G218" s="38" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -12512,18 +12518,18 @@
         <v>382</v>
       </c>
       <c r="C225" s="40" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="D225" s="40" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="E225" s="38" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="F225" s="38"/>
       <c r="G225" s="38"/>
     </row>
-    <row r="226" spans="1:7" ht="30">
+    <row r="226" spans="1:7">
       <c r="A226" s="38" t="s">
         <v>58</v>
       </c>
@@ -12534,10 +12540,10 @@
         <v>385</v>
       </c>
       <c r="D226" s="40" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="E226" s="38" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="F226" s="38"/>
       <c r="G226" s="38"/>
@@ -12550,7 +12556,7 @@
         <v>386</v>
       </c>
       <c r="C227" s="38" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="D227" s="38">
         <v>76.16</v>
@@ -12624,7 +12630,7 @@
       <c r="E231" s="38"/>
       <c r="F231" s="38"/>
       <c r="G231" s="38" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -12692,7 +12698,7 @@
         <v>981</v>
       </c>
       <c r="E235" s="40" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="F235" s="40"/>
       <c r="G235" s="38"/>
@@ -12980,12 +12986,12 @@
       <c r="F252" s="38"/>
       <c r="G252" s="38"/>
     </row>
-    <row r="253" spans="1:7" ht="15.45">
+    <row r="253" spans="1:7" ht="15.75">
       <c r="A253" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B253" s="35" t="s">
-        <v>1272</v>
+        <v>1267</v>
       </c>
       <c r="C253" s="36" t="s">
         <v>35</v>
@@ -13075,7 +13081,7 @@
         <v>441</v>
       </c>
       <c r="E258" s="59" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="F258" s="38"/>
       <c r="G258" s="44"/>
@@ -13156,13 +13162,13 @@
         <v>454</v>
       </c>
       <c r="C263" s="44" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="D263" s="38" t="s">
         <v>456</v>
       </c>
       <c r="E263" s="59" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="F263" s="38"/>
       <c r="G263" s="44"/>
@@ -13172,13 +13178,13 @@
         <v>58</v>
       </c>
       <c r="B264" s="38" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="C264" s="44" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="D264" s="38" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="E264" s="38"/>
       <c r="F264" s="38"/>
@@ -13232,7 +13238,7 @@
         <v>465</v>
       </c>
       <c r="E267" s="59" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="F267" s="38"/>
       <c r="G267" s="44"/>
@@ -13242,7 +13248,7 @@
         <v>58</v>
       </c>
       <c r="B268" s="38" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="C268" s="44" t="s">
         <v>467</v>
@@ -13450,7 +13456,7 @@
         <v>490</v>
       </c>
       <c r="D280" s="38" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="E280" s="38"/>
       <c r="F280" s="38"/>
@@ -13754,7 +13760,7 @@
         <v>490</v>
       </c>
       <c r="D298" s="38" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="E298" s="38"/>
       <c r="F298" s="38"/>
@@ -14184,7 +14190,7 @@
         <v>58</v>
       </c>
       <c r="B324" s="38" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="C324" s="38" t="s">
         <v>483</v>
@@ -14201,7 +14207,7 @@
         <v>58</v>
       </c>
       <c r="B325" s="38" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="C325" s="38" t="s">
         <v>485</v>
@@ -14241,7 +14247,7 @@
         <v>490</v>
       </c>
       <c r="D327" s="38" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="E327" s="38"/>
       <c r="F327" s="38"/>
@@ -14320,7 +14326,7 @@
         <v>58</v>
       </c>
       <c r="B332" s="38" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="C332" s="38" t="s">
         <v>501</v>
@@ -14337,7 +14343,7 @@
         <v>58</v>
       </c>
       <c r="B333" s="38" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="C333" s="38" t="s">
         <v>504</v>
@@ -14349,12 +14355,12 @@
       <c r="F333" s="38"/>
       <c r="G333" s="38"/>
     </row>
-    <row r="334" spans="1:7" ht="15.45">
+    <row r="334" spans="1:7" ht="15.75">
       <c r="A334" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B334" s="35" t="s">
-        <v>1273</v>
+        <v>1268</v>
       </c>
       <c r="C334" s="49" t="s">
         <v>40</v>
@@ -14408,10 +14414,10 @@
         <v>78.3</v>
       </c>
       <c r="E337" s="38" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="F337" s="38" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="G337" s="44" t="s">
         <v>568</v>
@@ -14431,10 +14437,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E338" s="38" t="s">
-        <v>1279</v>
+        <v>1274</v>
       </c>
       <c r="F338" s="38" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="G338" s="44"/>
     </row>
@@ -14446,14 +14452,14 @@
         <v>571</v>
       </c>
       <c r="C339" s="44" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="D339" s="38">
         <v>78.099999999999994</v>
       </c>
       <c r="E339" s="38"/>
       <c r="F339" s="38" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="G339" s="44"/>
     </row>
@@ -14487,7 +14493,7 @@
       </c>
       <c r="E341" s="38"/>
       <c r="F341" s="38" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="G341" s="44" t="s">
         <v>576</v>
@@ -14508,7 +14514,7 @@
       </c>
       <c r="E342" s="38"/>
       <c r="F342" s="38" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="G342" s="44"/>
     </row>
@@ -14527,7 +14533,7 @@
       </c>
       <c r="E343" s="38"/>
       <c r="F343" s="38" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="G343" s="38"/>
     </row>
@@ -14546,7 +14552,7 @@
       </c>
       <c r="E344" s="38"/>
       <c r="F344" s="38" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="G344" s="44"/>
     </row>
@@ -14580,10 +14586,10 @@
       </c>
       <c r="E346" s="38"/>
       <c r="F346" s="38" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="G346" s="44" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="347" spans="1:7">
@@ -14601,7 +14607,7 @@
       </c>
       <c r="E347" s="38"/>
       <c r="F347" s="38" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="G347" s="44"/>
     </row>
@@ -14613,14 +14619,14 @@
         <v>595</v>
       </c>
       <c r="C348" s="44" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="D348" s="38" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="E348" s="38"/>
       <c r="F348" s="38" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="G348" s="44"/>
     </row>
@@ -14639,7 +14645,7 @@
       </c>
       <c r="E349" s="38"/>
       <c r="F349" s="38" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="G349" s="44"/>
     </row>
@@ -14658,7 +14664,7 @@
       </c>
       <c r="E350" s="38"/>
       <c r="F350" s="38" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="G350" s="44"/>
     </row>
@@ -14692,10 +14698,10 @@
       </c>
       <c r="E352" s="40"/>
       <c r="F352" s="38" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="G352" s="44" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="353" spans="1:7" ht="30">
@@ -14713,7 +14719,7 @@
       </c>
       <c r="E353" s="40"/>
       <c r="F353" s="38" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="G353" s="44"/>
     </row>
@@ -14728,11 +14734,11 @@
         <v>612</v>
       </c>
       <c r="D354" s="40" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="E354" s="40"/>
       <c r="F354" s="38" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="G354" s="38"/>
     </row>
@@ -14751,7 +14757,7 @@
       </c>
       <c r="E355" s="40"/>
       <c r="F355" s="38" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="G355" s="44"/>
     </row>
@@ -14770,7 +14776,7 @@
       </c>
       <c r="E356" s="38"/>
       <c r="F356" s="38" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="G356" s="44"/>
     </row>
@@ -14804,10 +14810,10 @@
       </c>
       <c r="E358" s="38"/>
       <c r="F358" s="38" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="G358" s="38" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="359" spans="1:7">
@@ -14821,11 +14827,11 @@
         <v>624</v>
       </c>
       <c r="D359" s="40" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="E359" s="40"/>
       <c r="F359" s="38" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="G359" s="38"/>
     </row>
@@ -14859,10 +14865,10 @@
       </c>
       <c r="E361" s="38"/>
       <c r="F361" s="38" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="G361" s="44" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="362" spans="1:7">
@@ -14876,11 +14882,11 @@
         <v>629</v>
       </c>
       <c r="D362" s="38" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="E362" s="46"/>
       <c r="F362" s="38" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="G362" s="44"/>
     </row>
@@ -14899,7 +14905,7 @@
       </c>
       <c r="E363" s="38"/>
       <c r="F363" s="38" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="G363" s="44"/>
     </row>
@@ -14914,11 +14920,11 @@
         <v>633</v>
       </c>
       <c r="D364" s="38" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="E364" s="38"/>
       <c r="F364" s="38" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="G364" s="44"/>
     </row>
@@ -14933,13 +14939,13 @@
         <v>635</v>
       </c>
       <c r="D365" s="38" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="E365" s="38" t="s">
         <v>636</v>
       </c>
       <c r="F365" s="38" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="G365" s="38"/>
     </row>
@@ -14984,13 +14990,13 @@
         <v>567</v>
       </c>
       <c r="D368" s="40" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E368" s="40" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="F368" s="38" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="G368" s="44" t="s">
         <v>568</v>
@@ -15007,13 +15013,13 @@
         <v>640</v>
       </c>
       <c r="D369" s="40" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E369" s="40" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="F369" s="38" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="G369" s="44"/>
     </row>
@@ -15031,10 +15037,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E370" s="38" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="F370" s="38" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="G370" s="44"/>
     </row>
@@ -15083,7 +15089,7 @@
       </c>
       <c r="E373" s="38"/>
       <c r="F373" s="38" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="G373" s="44" t="s">
         <v>647</v>
@@ -15104,7 +15110,7 @@
       </c>
       <c r="E374" s="38"/>
       <c r="F374" s="38" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="G374" s="44"/>
     </row>
@@ -15123,7 +15129,7 @@
       </c>
       <c r="E375" s="38"/>
       <c r="F375" s="38" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="G375" s="44"/>
     </row>
@@ -15142,7 +15148,7 @@
       </c>
       <c r="E376" s="40"/>
       <c r="F376" s="38" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="G376" s="44"/>
     </row>
@@ -15161,7 +15167,7 @@
       </c>
       <c r="E377" s="38"/>
       <c r="F377" s="38" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="G377" s="44"/>
     </row>
@@ -15180,7 +15186,7 @@
       </c>
       <c r="E378" s="38"/>
       <c r="F378" s="38" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="G378" s="44"/>
     </row>
@@ -15214,10 +15220,10 @@
       </c>
       <c r="E380" s="38"/>
       <c r="F380" s="38" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="G380" s="44" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="381" spans="1:7">
@@ -15231,13 +15237,13 @@
         <v>624</v>
       </c>
       <c r="D381" s="40" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="E381" s="40" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="F381" s="38" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="G381" s="38"/>
     </row>
@@ -15271,10 +15277,10 @@
       </c>
       <c r="E383" s="38"/>
       <c r="F383" s="38" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="G383" s="44" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="384" spans="1:7">
@@ -15288,11 +15294,11 @@
         <v>666</v>
       </c>
       <c r="D384" s="38" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="E384" s="46"/>
       <c r="F384" s="38" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="G384" s="44"/>
     </row>
@@ -15311,7 +15317,7 @@
       </c>
       <c r="E385" s="38"/>
       <c r="F385" s="38" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="G385" s="44"/>
     </row>
@@ -15326,11 +15332,11 @@
         <v>633</v>
       </c>
       <c r="D386" s="38" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="E386" s="38"/>
       <c r="F386" s="38" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="G386" s="38"/>
     </row>
@@ -15345,13 +15351,13 @@
         <v>635</v>
       </c>
       <c r="D387" s="38" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="E387" s="38" t="s">
         <v>636</v>
       </c>
       <c r="F387" s="38" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="G387" s="38"/>
     </row>
@@ -15399,10 +15405,10 @@
         <v>78.3</v>
       </c>
       <c r="E390" s="38" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="F390" s="38" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="G390" s="44" t="s">
         <v>568</v>
@@ -15419,13 +15425,13 @@
         <v>674</v>
       </c>
       <c r="D391" s="38" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E391" s="40" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
       <c r="F391" s="38" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="G391" s="38"/>
     </row>
@@ -15443,10 +15449,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E392" s="38" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="F392" s="38" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="G392" s="44"/>
     </row>
@@ -15491,11 +15497,11 @@
         <v>680</v>
       </c>
       <c r="D395" s="38" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="E395" s="38"/>
       <c r="F395" s="38" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="G395" s="44" t="s">
         <v>681</v>
@@ -15516,7 +15522,7 @@
       </c>
       <c r="E396" s="38"/>
       <c r="F396" s="38" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="G396" s="44"/>
     </row>
@@ -15535,7 +15541,7 @@
       </c>
       <c r="E397" s="38"/>
       <c r="F397" s="38" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="G397" s="44"/>
     </row>
@@ -15554,7 +15560,7 @@
       </c>
       <c r="E398" s="38"/>
       <c r="F398" s="38" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="G398" s="44"/>
     </row>
@@ -15573,7 +15579,7 @@
       </c>
       <c r="E399" s="38"/>
       <c r="F399" s="38" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="G399" s="44"/>
     </row>
@@ -15592,7 +15598,7 @@
       </c>
       <c r="E400" s="38"/>
       <c r="F400" s="38" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="G400" s="44"/>
     </row>
@@ -15626,10 +15632,10 @@
       </c>
       <c r="E402" s="38"/>
       <c r="F402" s="38" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="G402" s="44" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="403" spans="1:7">
@@ -15643,13 +15649,13 @@
         <v>624</v>
       </c>
       <c r="D403" s="40" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="E403" s="40" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="F403" s="38" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="G403" s="38"/>
     </row>
@@ -15683,10 +15689,10 @@
       </c>
       <c r="E405" s="38"/>
       <c r="F405" s="38" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="G405" s="44" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="406" spans="1:7">
@@ -15700,11 +15706,11 @@
         <v>666</v>
       </c>
       <c r="D406" s="38" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="E406" s="46"/>
       <c r="F406" s="38" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="G406" s="44"/>
     </row>
@@ -15723,7 +15729,7 @@
       </c>
       <c r="E407" s="38"/>
       <c r="F407" s="38" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="G407" s="44"/>
     </row>
@@ -15738,11 +15744,11 @@
         <v>633</v>
       </c>
       <c r="D408" s="38" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="E408" s="38"/>
       <c r="F408" s="38" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="G408" s="38"/>
     </row>
@@ -15757,13 +15763,13 @@
         <v>635</v>
       </c>
       <c r="D409" s="38" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="E409" s="38" t="s">
         <v>636</v>
       </c>
       <c r="F409" s="38" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="G409" s="38"/>
     </row>
@@ -15811,10 +15817,10 @@
         <v>78.3</v>
       </c>
       <c r="E412" s="3" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="F412" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G412" s="44" t="s">
         <v>568</v>
@@ -15834,10 +15840,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E413" s="38" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
       <c r="F413" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G413" s="44"/>
     </row>
@@ -15855,10 +15861,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E414" s="38" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="F414" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G414" s="44"/>
     </row>
@@ -15907,7 +15913,7 @@
       </c>
       <c r="E417" s="38"/>
       <c r="F417" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G417" s="38" t="s">
         <v>709</v>
@@ -15928,7 +15934,7 @@
       </c>
       <c r="E418" s="38"/>
       <c r="F418" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G418" s="44"/>
     </row>
@@ -15947,7 +15953,7 @@
       </c>
       <c r="E419" s="38"/>
       <c r="F419" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G419" s="44"/>
     </row>
@@ -15966,7 +15972,7 @@
       </c>
       <c r="E420" s="38"/>
       <c r="F420" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G420" s="38"/>
     </row>
@@ -15993,14 +15999,14 @@
         <v>718</v>
       </c>
       <c r="C422" s="38" t="s">
-        <v>719</v>
+        <v>1304</v>
       </c>
       <c r="D422" s="38" t="s">
-        <v>721</v>
+        <v>1076</v>
       </c>
       <c r="E422" s="38"/>
       <c r="F422" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G422" s="38" t="s">
         <v>720</v>
@@ -16014,14 +16020,14 @@
         <v>722</v>
       </c>
       <c r="C423" s="38" t="s">
-        <v>723</v>
+        <v>1302</v>
       </c>
       <c r="D423" s="40" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E423" s="40"/>
       <c r="F423" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G423" s="38"/>
     </row>
@@ -16040,7 +16046,7 @@
       </c>
       <c r="E424" s="40"/>
       <c r="F424" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G424" s="38"/>
     </row>
@@ -16074,7 +16080,7 @@
       </c>
       <c r="E426" s="40"/>
       <c r="F426" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G426" s="44" t="s">
         <v>729</v>
@@ -16095,7 +16101,7 @@
       </c>
       <c r="E427" s="40"/>
       <c r="F427" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G427" s="44"/>
     </row>
@@ -16114,7 +16120,7 @@
       </c>
       <c r="E428" s="40"/>
       <c r="F428" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G428" s="44"/>
     </row>
@@ -16133,7 +16139,7 @@
       </c>
       <c r="E429" s="40"/>
       <c r="F429" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G429" s="38"/>
     </row>
@@ -16152,7 +16158,7 @@
       </c>
       <c r="E430" s="40"/>
       <c r="F430" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G430" s="44"/>
     </row>
@@ -16171,7 +16177,7 @@
       </c>
       <c r="E431" s="40"/>
       <c r="F431" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G431" s="44"/>
     </row>
@@ -16188,7 +16194,7 @@
       <c r="D432" s="41"/>
       <c r="E432" s="41"/>
       <c r="F432" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G432" s="41"/>
     </row>
@@ -16207,7 +16213,7 @@
       </c>
       <c r="E433" s="40"/>
       <c r="F433" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G433" s="44" t="s">
         <v>738</v>
@@ -16228,7 +16234,7 @@
       </c>
       <c r="E434" s="40"/>
       <c r="F434" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G434" s="44"/>
     </row>
@@ -16247,7 +16253,7 @@
       </c>
       <c r="E435" s="40"/>
       <c r="F435" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G435" s="44" t="s">
         <v>606</v>
@@ -16268,7 +16274,7 @@
       </c>
       <c r="E436" s="40"/>
       <c r="F436" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G436" s="44"/>
     </row>
@@ -16285,7 +16291,7 @@
       <c r="D437" s="41"/>
       <c r="E437" s="41"/>
       <c r="F437" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G437" s="41"/>
     </row>
@@ -16304,10 +16310,10 @@
       </c>
       <c r="E438" s="40"/>
       <c r="F438" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G438" s="44" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -16321,13 +16327,13 @@
         <v>624</v>
       </c>
       <c r="D439" s="40" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="E439" s="40" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="F439" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G439" s="38"/>
     </row>
@@ -16339,12 +16345,12 @@
         <v>746</v>
       </c>
       <c r="C440" s="41" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="D440" s="41"/>
       <c r="E440" s="41"/>
       <c r="F440" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G440" s="41"/>
     </row>
@@ -16359,13 +16365,13 @@
         <v>635</v>
       </c>
       <c r="D441" s="38" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="E441" s="38" t="s">
         <v>636</v>
       </c>
       <c r="F441" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G441" s="38"/>
     </row>
@@ -16382,7 +16388,7 @@
       <c r="D442" s="41"/>
       <c r="E442" s="41"/>
       <c r="F442" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G442" s="37"/>
     </row>
@@ -16401,7 +16407,7 @@
         <v>279</v>
       </c>
       <c r="F443" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G443" s="44"/>
     </row>
@@ -16420,7 +16426,7 @@
         <v>279</v>
       </c>
       <c r="F444" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G444" s="44"/>
     </row>
@@ -16439,7 +16445,7 @@
         <v>279</v>
       </c>
       <c r="F445" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G445" s="44"/>
     </row>
@@ -16456,7 +16462,7 @@
       <c r="D446" s="41"/>
       <c r="E446" s="37"/>
       <c r="F446" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G446" s="37"/>
     </row>
@@ -16475,7 +16481,7 @@
         <v>279</v>
       </c>
       <c r="F447" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G447" s="44"/>
     </row>
@@ -16494,7 +16500,7 @@
         <v>279</v>
       </c>
       <c r="F448" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G448" s="44"/>
     </row>
@@ -16511,7 +16517,7 @@
       <c r="D449" s="41"/>
       <c r="E449" s="41"/>
       <c r="F449" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G449" s="37"/>
     </row>
@@ -16528,7 +16534,7 @@
       <c r="D450" s="41"/>
       <c r="E450" s="41"/>
       <c r="F450" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G450" s="41"/>
     </row>
@@ -16547,7 +16553,7 @@
       </c>
       <c r="E451" s="38"/>
       <c r="F451" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G451" s="44" t="s">
         <v>568</v>
@@ -16568,7 +16574,7 @@
       </c>
       <c r="E452" s="38"/>
       <c r="F452" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G452" s="44"/>
     </row>
@@ -16587,7 +16593,7 @@
       </c>
       <c r="E453" s="38"/>
       <c r="F453" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G453" s="44"/>
     </row>
@@ -16604,7 +16610,7 @@
       <c r="D454" s="41"/>
       <c r="E454" s="41"/>
       <c r="F454" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G454" s="41"/>
     </row>
@@ -16621,7 +16627,7 @@
       <c r="D455" s="41"/>
       <c r="E455" s="41"/>
       <c r="F455" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G455" s="41"/>
     </row>
@@ -16640,10 +16646,10 @@
       </c>
       <c r="E456" s="38"/>
       <c r="F456" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G456" s="44" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="457" spans="1:7">
@@ -16661,7 +16667,7 @@
       </c>
       <c r="E457" s="38"/>
       <c r="F457" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G457" s="44"/>
     </row>
@@ -16676,11 +16682,11 @@
         <v>767</v>
       </c>
       <c r="D458" s="38" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="E458" s="38"/>
       <c r="F458" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G458" s="38"/>
     </row>
@@ -16699,7 +16705,7 @@
       </c>
       <c r="E459" s="38"/>
       <c r="F459" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G459" s="38"/>
     </row>
@@ -16711,12 +16717,12 @@
         <v>770</v>
       </c>
       <c r="C460" s="38" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="D460" s="38"/>
       <c r="E460" s="38"/>
       <c r="F460" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G460" s="38"/>
     </row>
@@ -16725,7 +16731,7 @@
         <v>58</v>
       </c>
       <c r="B461" s="38" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="C461" s="38" t="s">
         <v>771</v>
@@ -16735,7 +16741,7 @@
       </c>
       <c r="E461" s="38"/>
       <c r="F461" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G461" s="38"/>
     </row>
@@ -16744,17 +16750,17 @@
         <v>58</v>
       </c>
       <c r="B462" s="38" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="C462" s="38" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="D462" s="38" t="s">
         <v>724</v>
       </c>
       <c r="E462" s="38"/>
       <c r="F462" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G462" s="38"/>
     </row>
@@ -16771,7 +16777,7 @@
       <c r="D463" s="41"/>
       <c r="E463" s="41"/>
       <c r="F463" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G463" s="41"/>
     </row>
@@ -16790,10 +16796,10 @@
       </c>
       <c r="E464" s="38"/>
       <c r="F464" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G464" s="44" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="465" spans="1:7">
@@ -16807,11 +16813,11 @@
         <v>624</v>
       </c>
       <c r="D465" s="40" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="E465" s="40"/>
       <c r="F465" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G465" s="38"/>
     </row>
@@ -16828,7 +16834,7 @@
       <c r="D466" s="41"/>
       <c r="E466" s="41"/>
       <c r="F466" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G466" s="41"/>
     </row>
@@ -16847,10 +16853,10 @@
       </c>
       <c r="E467" s="38"/>
       <c r="F467" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G467" s="44" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="468" spans="1:7">
@@ -16868,7 +16874,7 @@
       </c>
       <c r="E468" s="38"/>
       <c r="F468" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G468" s="44"/>
     </row>
@@ -16887,7 +16893,7 @@
       </c>
       <c r="E469" s="38"/>
       <c r="F469" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G469" s="44"/>
     </row>
@@ -16902,11 +16908,11 @@
         <v>633</v>
       </c>
       <c r="D470" s="38" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="E470" s="38"/>
       <c r="F470" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G470" s="38"/>
     </row>
@@ -16921,11 +16927,11 @@
         <v>635</v>
       </c>
       <c r="D471" s="38" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="E471" s="38"/>
       <c r="F471" s="38" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G471" s="38"/>
     </row>
@@ -16944,14 +16950,14 @@
       <selection activeCell="G6" sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="45.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.640625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="81.35546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="45.125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="4" customWidth="1"/>
+    <col min="4" max="5" width="81.375" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="1025" width="8.85546875" style="4" customWidth="1"/>
+    <col min="8" max="1025" width="8.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
@@ -16983,7 +16989,7 @@
         <v>62</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>789</v>
@@ -17002,7 +17008,7 @@
         <v>65</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>791</v>
@@ -17021,7 +17027,7 @@
         <v>68</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>792</v>
@@ -17035,12 +17041,12 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="126.9">
+    <row r="5" spans="1:7" ht="126">
       <c r="A5" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>793</v>
@@ -17059,7 +17065,7 @@
         <v>796</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>797</v>
@@ -17091,20 +17097,20 @@
       <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.5" style="29" customWidth="1"/>
     <col min="2" max="2" width="68.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.875" style="4" customWidth="1"/>
     <col min="4" max="4" width="100" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="22.875" style="4" customWidth="1"/>
     <col min="7" max="7" width="20" style="4" customWidth="1"/>
-    <col min="8" max="1025" width="8.85546875" style="4" customWidth="1"/>
+    <col min="8" max="1025" width="8.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" s="24" customFormat="1" ht="31.75">
+    <row r="1" spans="1:1025" s="24" customFormat="1" ht="31.5">
       <c r="A1" s="8" t="s">
         <v>782</v>
       </c>
@@ -18259,7 +18265,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:1025">
+    <row r="8" spans="1:1025" ht="31.5">
       <c r="A8" s="3" t="s">
         <v>810</v>
       </c>
@@ -18430,7 +18436,7 @@
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="47.6">
+    <row r="17" spans="1:7" ht="47.25">
       <c r="A17" s="3" t="s">
         <v>125</v>
       </c>
@@ -18812,7 +18818,7 @@
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="63.45">
+    <row r="37" spans="1:7" ht="63">
       <c r="A37" s="3" t="s">
         <v>257</v>
       </c>
@@ -18833,7 +18839,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="31.75">
+    <row r="38" spans="1:7" ht="31.5">
       <c r="A38" s="3" t="s">
         <v>526</v>
       </c>
@@ -18857,7 +18863,7 @@
         <v>278</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>855</v>
@@ -18876,13 +18882,13 @@
         <v>269</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="C40" s="28" t="s">
         <v>856</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3" t="s">
@@ -18895,13 +18901,13 @@
         <v>266</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>857</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
@@ -18909,12 +18915,12 @@
       </c>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" ht="47.6">
+    <row r="42" spans="1:7" ht="47.25">
       <c r="A42" s="3" t="s">
         <v>274</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>858</v>
@@ -18930,16 +18936,16 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="32" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="B43" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="E43" s="32"/>
       <c r="F43" s="32" t="s">
@@ -18949,16 +18955,16 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="32" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="B44" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="E44" s="32"/>
       <c r="F44" s="32" t="s">
@@ -18968,16 +18974,16 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="32" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="B45" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="E45" s="32"/>
       <c r="F45" s="32" t="s">
@@ -18987,16 +18993,16 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="32" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="B46" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="E46" s="32"/>
       <c r="F46" s="32" t="s">
@@ -19006,16 +19012,16 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="32" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="B47" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="E47" s="32"/>
       <c r="F47" s="32" t="s">
@@ -19025,16 +19031,16 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="32" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="B48" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="E48" s="32"/>
       <c r="F48" s="32" t="s">
@@ -19044,16 +19050,16 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="32" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
       <c r="B49" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="E49" s="32"/>
       <c r="F49" s="32" t="s">
@@ -19063,16 +19069,16 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="32" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="B50" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="E50" s="32"/>
       <c r="F50" s="32" t="s">
@@ -19082,16 +19088,16 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="32" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="B51" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="32" t="s">
@@ -19101,16 +19107,16 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="32" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="B52" s="32" t="s">
         <v>840</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="E52" s="32"/>
       <c r="F52" s="32" t="s">
@@ -19120,16 +19126,16 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="32" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="B53" s="32" t="s">
         <v>840</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
       <c r="E53" s="32"/>
       <c r="F53" s="32" t="s">
@@ -19139,16 +19145,16 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="32" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="B54" s="32" t="s">
         <v>848</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="E54" s="32"/>
       <c r="F54" s="32" t="s">
@@ -19158,16 +19164,16 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="32" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="E55" s="32"/>
       <c r="F55" s="32" t="s">
@@ -19193,19 +19199,19 @@
       <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="29" customWidth="1"/>
-    <col min="2" max="2" width="47.35546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="4" customWidth="1"/>
-    <col min="4" max="5" width="80.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="29" customWidth="1"/>
+    <col min="2" max="2" width="47.375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="4" customWidth="1"/>
+    <col min="4" max="5" width="80.875" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="256" width="8.85546875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.85546875" style="19" customWidth="1"/>
+    <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.875" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="24" customFormat="1" ht="31" customHeight="1">
+    <row r="1" spans="1:256" s="24" customFormat="1" ht="30.95" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>782</v>
       </c>
@@ -19477,7 +19483,7 @@
       <c r="IU1" s="23"/>
       <c r="IV1" s="23"/>
     </row>
-    <row r="2" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="2" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="30" t="s">
         <v>860</v>
       </c>
@@ -19496,7 +19502,7 @@
       </c>
       <c r="G2" s="30"/>
     </row>
-    <row r="3" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="30" t="s">
         <v>863</v>
       </c>
@@ -19515,7 +19521,7 @@
       </c>
       <c r="G3" s="30"/>
     </row>
-    <row r="4" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="30" t="s">
         <v>865</v>
       </c>
@@ -19553,7 +19559,7 @@
       </c>
       <c r="G5" s="30"/>
     </row>
-    <row r="6" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="30" t="s">
         <v>869</v>
       </c>
@@ -19572,7 +19578,7 @@
       </c>
       <c r="G6" s="30"/>
     </row>
-    <row r="7" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="7" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="30" t="s">
         <v>872</v>
       </c>
@@ -19591,7 +19597,7 @@
       </c>
       <c r="G7" s="30"/>
     </row>
-    <row r="8" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="8" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="30" t="s">
         <v>875</v>
       </c>
@@ -19629,7 +19635,7 @@
       </c>
       <c r="G9" s="30"/>
     </row>
-    <row r="10" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="10" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="30" t="s">
         <v>881</v>
       </c>
@@ -19648,7 +19654,7 @@
       </c>
       <c r="G10" s="30"/>
     </row>
-    <row r="11" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="30" t="s">
         <v>883</v>
       </c>
@@ -19667,7 +19673,7 @@
       </c>
       <c r="G11" s="30"/>
     </row>
-    <row r="12" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="12" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="30" t="s">
         <v>885</v>
       </c>
@@ -19705,7 +19711,7 @@
       </c>
       <c r="G13" s="30"/>
     </row>
-    <row r="14" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="14" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="30" t="s">
         <v>890</v>
       </c>
@@ -19724,7 +19730,7 @@
       </c>
       <c r="G14" s="30"/>
     </row>
-    <row r="15" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="15" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="30" t="s">
         <v>892</v>
       </c>
@@ -19745,16 +19751,16 @@
     </row>
     <row r="16" spans="1:256" ht="31.5" customHeight="1">
       <c r="A16" s="31" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="B16" s="30" t="s">
         <v>861</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30" t="s">
@@ -19764,16 +19770,16 @@
     </row>
     <row r="17" spans="1:7" ht="31.5" customHeight="1">
       <c r="A17" s="31" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="B17" s="30" t="s">
         <v>861</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="30" t="s">
@@ -19781,7 +19787,7 @@
       </c>
       <c r="G17" s="30"/>
     </row>
-    <row r="18" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="30" t="s">
         <v>894</v>
       </c>
@@ -19792,7 +19798,7 @@
         <v>895</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="30" t="s">
@@ -19800,7 +19806,7 @@
       </c>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="30" t="s">
         <v>896</v>
       </c>
@@ -19819,7 +19825,7 @@
       </c>
       <c r="G19" s="30"/>
     </row>
-    <row r="20" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="30" t="s">
         <v>898</v>
       </c>
@@ -19838,7 +19844,7 @@
       </c>
       <c r="G20" s="30"/>
     </row>
-    <row r="21" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="30" t="s">
         <v>900</v>
       </c>
@@ -19857,7 +19863,7 @@
       </c>
       <c r="G21" s="30"/>
     </row>
-    <row r="22" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="22" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="30" t="s">
         <v>903</v>
       </c>
@@ -19876,7 +19882,7 @@
       </c>
       <c r="G22" s="30"/>
     </row>
-    <row r="23" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="30" t="s">
         <v>905</v>
       </c>
@@ -19895,7 +19901,7 @@
       </c>
       <c r="G23" s="30"/>
     </row>
-    <row r="24" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="30" t="s">
         <v>907</v>
       </c>
@@ -19914,7 +19920,7 @@
       </c>
       <c r="G24" s="30"/>
     </row>
-    <row r="25" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="30" t="s">
         <v>909</v>
       </c>
@@ -19933,7 +19939,7 @@
       </c>
       <c r="G25" s="30"/>
     </row>
-    <row r="26" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="30" t="s">
         <v>912</v>
       </c>
@@ -19952,7 +19958,7 @@
       </c>
       <c r="G26" s="30"/>
     </row>
-    <row r="27" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="30" t="s">
         <v>914</v>
       </c>
@@ -19971,7 +19977,7 @@
       </c>
       <c r="G27" s="30"/>
     </row>
-    <row r="28" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="30" t="s">
         <v>917</v>
       </c>
@@ -19990,7 +19996,7 @@
       </c>
       <c r="G28" s="30"/>
     </row>
-    <row r="29" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="30" t="s">
         <v>919</v>
       </c>
@@ -20009,7 +20015,7 @@
       </c>
       <c r="G29" s="30"/>
     </row>
-    <row r="30" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="30" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="30" t="s">
         <v>921</v>
       </c>
@@ -20028,7 +20034,7 @@
       </c>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="31" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="30" t="s">
         <v>923</v>
       </c>
@@ -20047,7 +20053,7 @@
       </c>
       <c r="G31" s="30"/>
     </row>
-    <row r="32" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="32" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="30" t="s">
         <v>926</v>
       </c>
@@ -20066,7 +20072,7 @@
       </c>
       <c r="G32" s="30"/>
     </row>
-    <row r="33" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="33" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A33" s="30" t="s">
         <v>929</v>
       </c>
@@ -20085,7 +20091,7 @@
       </c>
       <c r="G33" s="30"/>
     </row>
-    <row r="34" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A34" s="30" t="s">
         <v>932</v>
       </c>
@@ -20104,7 +20110,7 @@
       </c>
       <c r="G34" s="30"/>
     </row>
-    <row r="35" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="35" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="30" t="s">
         <v>935</v>
       </c>
@@ -20123,7 +20129,7 @@
       </c>
       <c r="G35" s="30"/>
     </row>
-    <row r="36" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="36" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="30" t="s">
         <v>938</v>
       </c>
@@ -20142,7 +20148,7 @@
       </c>
       <c r="G36" s="30"/>
     </row>
-    <row r="37" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="30" t="s">
         <v>941</v>
       </c>
@@ -20161,7 +20167,7 @@
       </c>
       <c r="G37" s="30"/>
     </row>
-    <row r="38" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="38" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A38" s="30" t="s">
         <v>944</v>
       </c>
@@ -20180,7 +20186,7 @@
       </c>
       <c r="G38" s="30"/>
     </row>
-    <row r="39" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="39" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A39" s="30" t="s">
         <v>947</v>
       </c>
@@ -20199,7 +20205,7 @@
       </c>
       <c r="G39" s="30"/>
     </row>
-    <row r="40" spans="1:7" ht="31" customHeight="1">
+    <row r="40" spans="1:7" ht="30.95" customHeight="1">
       <c r="A40" s="30" t="s">
         <v>950</v>
       </c>
@@ -20235,7 +20241,7 @@
       <c r="F41" s="30"/>
       <c r="G41" s="30"/>
     </row>
-    <row r="42" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="42" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A42" s="30" t="s">
         <v>957</v>
       </c>
@@ -20252,7 +20258,7 @@
       <c r="F42" s="30"/>
       <c r="G42" s="30"/>
     </row>
-    <row r="43" spans="1:7" ht="31" customHeight="1">
+    <row r="43" spans="1:7" ht="30.95" customHeight="1">
       <c r="A43" s="30" t="s">
         <v>960</v>
       </c>
@@ -20290,7 +20296,7 @@
       <c r="F44" s="30"/>
       <c r="G44" s="30"/>
     </row>
-    <row r="45" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="45" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A45" s="30" t="s">
         <v>968</v>
       </c>
@@ -20343,7 +20349,7 @@
       <c r="F47" s="30"/>
       <c r="G47" s="30"/>
     </row>
-    <row r="48" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A48" s="30" t="s">
         <v>978</v>
       </c>
@@ -20360,7 +20366,7 @@
       <c r="F48" s="30"/>
       <c r="G48" s="30"/>
     </row>
-    <row r="49" spans="1:256" s="57" customFormat="1" ht="31.75">
+    <row r="49" spans="1:256" s="57" customFormat="1" ht="31.5">
       <c r="A49" s="31" t="s">
         <v>981</v>
       </c>
@@ -20371,7 +20377,7 @@
         <v>982</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="E49" s="30"/>
       <c r="F49" s="30"/>
@@ -20640,25 +20646,23 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.5" style="29" customWidth="1"/>
     <col min="2" max="2" width="33.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="44.35546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="41.35546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="44.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="41.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="4" customWidth="1"/>
     <col min="7" max="7" width="29" style="4" customWidth="1"/>
-    <col min="8" max="256" width="8.85546875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.85546875" style="19" customWidth="1"/>
+    <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.875" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="24" customFormat="1" ht="17.149999999999999" customHeight="1">
+    <row r="1" spans="1:256" s="24" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>782</v>
       </c>
@@ -20935,7 +20939,7 @@
         <v>435</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>983</v>
@@ -20954,7 +20958,7 @@
         <v>438</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>985</v>
@@ -20973,7 +20977,7 @@
         <v>441</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>987</v>
@@ -20992,7 +20996,7 @@
         <v>456</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>989</v>
@@ -21011,7 +21015,7 @@
         <v>444</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>991</v>
@@ -21030,7 +21034,7 @@
         <v>447</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>993</v>
@@ -21049,7 +21053,7 @@
         <v>450</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>995</v>
@@ -21068,7 +21072,7 @@
         <v>453</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>997</v>
@@ -21087,7 +21091,7 @@
         <v>459</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>999</v>
@@ -21106,7 +21110,7 @@
         <v>1001</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>1002</v>
@@ -21125,7 +21129,7 @@
         <v>462</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>1004</v>
@@ -21144,7 +21148,7 @@
         <v>465</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>1006</v>
@@ -21167,7 +21171,7 @@
         <v>468</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>1010</v>
@@ -21186,7 +21190,7 @@
         <v>502</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>1012</v>
@@ -21201,7 +21205,7 @@
         <v>790</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1015</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="16" spans="1:256" ht="47.25" customHeight="1">
@@ -21209,13 +21213,13 @@
         <v>493</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>1016</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>1017</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
@@ -21228,22 +21232,22 @@
         <v>505</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>1018</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>1019</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>1020</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>790</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.5" customHeight="1">
@@ -21251,10 +21255,10 @@
         <v>533</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>532</v>
@@ -21270,10 +21274,10 @@
         <v>536</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>535</v>
@@ -21289,13 +21293,13 @@
         <v>539</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>1024</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>1025</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
@@ -21308,13 +21312,13 @@
         <v>542</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>1026</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>1027</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
@@ -21327,13 +21331,13 @@
         <v>547</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>1028</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>1029</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
@@ -21346,10 +21350,10 @@
         <v>488</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>544</v>
@@ -21358,120 +21362,120 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" ht="31.75">
+    <row r="24" spans="1:7" ht="31.5">
       <c r="A24" s="32" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="E24" s="32"/>
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
     </row>
-    <row r="25" spans="1:7" ht="47.6">
+    <row r="25" spans="1:7" ht="47.25">
       <c r="A25" s="32" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
     </row>
-    <row r="26" spans="1:7" ht="31.75">
+    <row r="26" spans="1:7" ht="31.5">
       <c r="A26" s="32" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="E26" s="32"/>
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
     </row>
-    <row r="27" spans="1:7" ht="47.6">
+    <row r="27" spans="1:7" ht="47.25">
       <c r="A27" s="32" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="E27" s="32"/>
       <c r="F27" s="32"/>
       <c r="G27" s="32"/>
     </row>
-    <row r="28" spans="1:7" ht="31.75">
+    <row r="28" spans="1:7" ht="47.25">
       <c r="A28" s="32" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="E28" s="32"/>
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
     </row>
-    <row r="29" spans="1:7" ht="31.75">
+    <row r="29" spans="1:7" ht="31.5">
       <c r="A29" s="32" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="E29" s="32"/>
       <c r="F29" s="32"/>
       <c r="G29" s="32"/>
     </row>
-    <row r="30" spans="1:7" ht="47.6">
+    <row r="30" spans="1:7" ht="47.25">
       <c r="A30" s="32" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="E30" s="32"/>
       <c r="F30" s="32"/>
@@ -21492,19 +21496,19 @@
   <dimension ref="A1:IV4"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="54.640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="75.640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="132.35546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="54.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="75.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="132.375" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="256" width="8.85546875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.85546875" style="19" customWidth="1"/>
+    <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.875" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
@@ -21531,21 +21535,21 @@
         <v>788</v>
       </c>
     </row>
-    <row r="2" spans="1:256" s="61" customFormat="1" ht="63.45">
+    <row r="2" spans="1:256" s="61" customFormat="1" ht="63">
       <c r="A2" s="8" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>1031</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>1032</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>1033</v>
-      </c>
       <c r="D2" s="8" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="F2" s="28" t="s">
         <v>790</v>
@@ -21801,42 +21805,42 @@
       <c r="IU2" s="60"/>
       <c r="IV2" s="60"/>
     </row>
-    <row r="3" spans="1:256">
+    <row r="3" spans="1:256" ht="31.5">
       <c r="A3" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>1034</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>1035</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>790</v>
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:256" ht="63.45">
+    <row r="4" spans="1:256" ht="63">
       <c r="A4" s="5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>1036</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>1037</v>
-      </c>
       <c r="D4" s="8" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>790</v>
@@ -21857,25 +21861,25 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.5" style="25" customWidth="1"/>
-    <col min="2" max="2" width="53.35546875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="53.375" style="20" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="20" customWidth="1"/>
     <col min="4" max="4" width="44.5" style="20" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" style="20" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="31.875" style="20" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="20" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="20" customWidth="1"/>
-    <col min="8" max="256" width="8.85546875" style="20" customWidth="1"/>
-    <col min="257" max="1025" width="8.85546875" style="21" customWidth="1"/>
+    <col min="8" max="256" width="8.875" style="20" customWidth="1"/>
+    <col min="257" max="1025" width="8.875" style="21" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="27" customFormat="1" ht="17.149999999999999" customHeight="1">
+    <row r="1" spans="1:256" s="27" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>782</v>
       </c>
@@ -22149,37 +22153,37 @@
     </row>
     <row r="2" spans="1:256" ht="31.5" customHeight="1">
       <c r="A2" s="30" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>1038</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="C2" s="30" t="s">
         <v>1039</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="D2" s="30" t="s">
         <v>1040</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>1041</v>
       </c>
       <c r="E2" s="30"/>
       <c r="F2" s="30" t="s">
         <v>790</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="3" spans="1:256" ht="17.149999999999999" customHeight="1">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="30" t="s">
         <v>648</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C3" s="30" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>1043</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>1044</v>
       </c>
       <c r="E3" s="30"/>
       <c r="F3" s="30" t="s">
@@ -22187,18 +22191,18 @@
       </c>
       <c r="G3" s="30"/>
     </row>
-    <row r="4" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="30" t="s">
         <v>577</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C4" s="30" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D4" s="30" t="s">
         <v>1045</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>1046</v>
       </c>
       <c r="E4" s="30"/>
       <c r="F4" s="30" t="s">
@@ -22206,18 +22210,18 @@
       </c>
       <c r="G4" s="30"/>
     </row>
-    <row r="5" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="5" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="30" t="s">
         <v>580</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C5" s="30" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D5" s="30" t="s">
         <v>1047</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>1048</v>
       </c>
       <c r="E5" s="30"/>
       <c r="F5" s="30" t="s">
@@ -22225,18 +22229,18 @@
       </c>
       <c r="G5" s="30"/>
     </row>
-    <row r="6" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="30" t="s">
         <v>583</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C6" s="30" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D6" s="30" t="s">
         <v>1049</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>1050</v>
       </c>
       <c r="E6" s="30"/>
       <c r="F6" s="30" t="s">
@@ -22249,22 +22253,22 @@
         <v>586</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C7" s="30" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D7" s="30" t="s">
         <v>1051</v>
       </c>
-      <c r="D7" s="30" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E7" s="62" t="s">
-        <v>1053</v>
+      <c r="E7" t="s">
+        <v>1301</v>
       </c>
       <c r="F7" s="30" t="s">
         <v>790</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="8" spans="1:256" ht="31.5" customHeight="1">
@@ -22272,13 +22276,13 @@
         <v>591</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E8" s="30"/>
       <c r="F8" s="30" t="s">
@@ -22291,13 +22295,13 @@
         <v>594</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="30" t="s">
@@ -22310,13 +22314,13 @@
         <v>597</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="30" t="s">
@@ -22324,18 +22328,18 @@
       </c>
       <c r="G10" s="30"/>
     </row>
-    <row r="11" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="30" t="s">
         <v>600</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="30" t="s">
@@ -22343,15 +22347,15 @@
       </c>
       <c r="G11" s="30"/>
     </row>
-    <row r="12" spans="1:256" ht="33.65" customHeight="1">
+    <row r="12" spans="1:256" ht="33.6" customHeight="1">
       <c r="A12" s="30" t="s">
         <v>603</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>602</v>
@@ -22367,22 +22371,22 @@
         <v>606</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F13" s="30" t="s">
         <v>790</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="31.5" customHeight="1">
@@ -22390,20 +22394,22 @@
         <v>615</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E14" s="30"/>
+        <v>1065</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>1300</v>
+      </c>
       <c r="F14" s="30" t="s">
         <v>790</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="15" spans="1:256" ht="31.5" customHeight="1">
@@ -22411,13 +22417,13 @@
         <v>618</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="E15" s="30"/>
       <c r="F15" s="30" t="s">
@@ -22430,13 +22436,13 @@
         <v>651</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30" t="s">
@@ -22446,16 +22452,16 @@
     </row>
     <row r="17" spans="1:7" ht="31.5" customHeight="1">
       <c r="A17" s="30" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D17" s="30" t="s">
         <v>1073</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>1075</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="30" t="s">
@@ -22468,13 +22474,13 @@
         <v>684</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="30" t="s">
@@ -22484,101 +22490,103 @@
     </row>
     <row r="19" spans="1:7" ht="31.5" customHeight="1">
       <c r="A19" s="30" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>1080</v>
+        <v>1303</v>
       </c>
       <c r="E19" s="62" t="s">
-        <v>1300</v>
+        <v>1295</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>790</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="17.149999999999999" customHeight="1">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="31.5">
       <c r="A20" s="30" t="s">
         <v>721</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C20" s="30" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E20" t="s">
         <v>1081</v>
       </c>
-      <c r="D20" s="30" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E20" s="30"/>
       <c r="F20" s="30" t="s">
         <v>790</v>
       </c>
       <c r="G20" s="30"/>
     </row>
-    <row r="21" spans="1:7" ht="47.25" customHeight="1">
+    <row r="21" spans="1:7" ht="47.25">
       <c r="A21" s="30" t="s">
         <v>724</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>790</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="31.5" customHeight="1">
       <c r="A22" s="30" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="E22" s="62" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>809</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="31.75">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="31.5">
       <c r="A23" s="30" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>629</v>
@@ -22589,13 +22597,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="30" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C24" s="30" t="s">
         <v>1110</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>1115</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>633</v>
@@ -22606,32 +22614,32 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="30" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>624</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
     </row>
-    <row r="26" spans="1:7" ht="31.75">
+    <row r="26" spans="1:7" ht="31.5">
       <c r="A26" s="30" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>635</v>
@@ -22642,13 +22650,13 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="58" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="D27" s="30" t="s">
         <v>767</v>
@@ -22673,16 +22681,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="19" style="22" customWidth="1"/>
-    <col min="2" max="2" width="53.35546875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="53.375" style="19" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="19" customWidth="1"/>
     <col min="4" max="4" width="25" style="19" customWidth="1"/>
     <col min="5" max="5" width="46" style="19" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="19" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="19" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="19" customWidth="1"/>
-    <col min="8" max="1025" width="8.85546875" style="19" customWidth="1"/>
+    <col min="8" max="1025" width="8.875" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
@@ -22960,40 +22968,40 @@
     </row>
     <row r="2" spans="1:256">
       <c r="A2" s="7" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
         <v>790</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="3" spans="1:256">
       <c r="A3" s="7" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>809</v>
@@ -23002,19 +23010,19 @@
     </row>
     <row r="4" spans="1:256">
       <c r="A4" s="6" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>809</v>

--- a/conformancelib/testdata/85b_test_definitions_PIV_Production_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV_Production_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\python_den\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF992A6A-0664-4738-AC95-F51BDF4D9D82}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC87F0DC-0D8E-4B90-B50F-F08CB018791E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="825" windowWidth="28755" windowHeight="17760" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6705" yWindow="960" windowWidth="28755" windowHeight="17760" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3767" uniqueCount="1305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3763" uniqueCount="1302">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -3052,9 +3052,6 @@
   </si>
   <si>
     <t>Validate that the signature algorithm value for RSA with PKCS #1 v1.5 padding specifies the rsaEncryption OID (as per Section 3.2 of RFC 3370) and for ECDSA and RSA with PSS padding, the signatureAlgorithm is in accordance with Table 3-3 of SP 800-78.</t>
-  </si>
-  <si>
-    <t>1.2.840.113549.1.1.5, 1.2.840.113549.1.1.11, 1.2.840.113549.1.1.10, 1.2.840.10045.4.3.2, 1.2.840.10045.4.3.3</t>
   </si>
   <si>
     <t>Need to see if sunset date still applies</t>
@@ -3875,9 +3872,6 @@
     <t>Ensure that ECDSA key is curve P-256 or P-384 (Table 3-2)</t>
   </si>
   <si>
-    <t>1.2.840.113549.1.1.1:1.2.840.113549.1.1.10,1.2.840.113549.1.1.1:1.2.840.113549.1.1.11,1.2.840.10045.2.1:1.2.840.10045.3.1.7,1.2.840.10045.2.1:1.3.132.0.34</t>
-  </si>
-  <si>
     <t>If the algorithm value is id-RSASSA-PSS, verify that the signature-&gt;parameters field is populated with SHA-256 (OID = 2.16.840.1.101.3.4.2.1). For the other RSA algorithms, the parameters field is populated with NULL. For ECDSA, the parameters field is absent. (Table 3-3)</t>
   </si>
   <si>
@@ -3912,12 +3906,6 @@
   </si>
   <si>
     <t>The key size and types used are in accordance with Table 3-1 of SP 800-78-4.</t>
-  </si>
-  <si>
-    <t>X509_CERTIFICATE_FOR_PIV_AUTHENTICATION_OID:1.2.840.113549.1.1.1+NULL|1.2.840.10045.2.1+1.2.840.10045.3.1.7,
-X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID:1.2.840.113549.1.1.1+NULL|1.2.840.10045.2.1+1.2.840.10045.3.1.7,
-X509_CERTIFICATE_FOR_DIGITAL_CERTIFICATE_OID:1.2.840.113549.1.1.1+NULL|1.2.840.10045.2.1+1.2.840.10045.3.1.7|1.2.840.10045.2.1+1.3.132.0.34,
-X509_CERTIFICATE_FOR_KEY_MANAGEMENT_OID:1.2.840.113549.1.1.1+NULL|1.2.840.10045.2.1+1.2.840.10045.3.1.7|1.2.840.10045.2.1+1.3.132.0.34</t>
   </si>
   <si>
     <t>2.16.840.1.101.3.2.1.3.17</t>
@@ -4038,7 +4026,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4096,6 +4084,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
   </fills>
@@ -4158,7 +4158,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4346,6 +4346,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8433,9 +8439,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A392" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A422" sqref="A422"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -8468,7 +8472,7 @@
         <v>56</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="G1" s="33" t="s">
         <v>55</v>
@@ -8480,7 +8484,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C2" s="36" t="s">
         <v>0</v>
@@ -8510,10 +8514,10 @@
         <v>58</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>1250</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>1251</v>
       </c>
       <c r="D4" s="37"/>
       <c r="E4" s="37"/>
@@ -8535,7 +8539,7 @@
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="38" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G5" s="38" t="s">
         <v>61</v>
@@ -8556,7 +8560,7 @@
       </c>
       <c r="E6" s="38"/>
       <c r="F6" s="38" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G6" s="38"/>
     </row>
@@ -8575,7 +8579,7 @@
       </c>
       <c r="E7" s="38"/>
       <c r="F7" s="38" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G7" s="38"/>
     </row>
@@ -8594,7 +8598,7 @@
       </c>
       <c r="E8" s="38"/>
       <c r="F8" s="38" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G8" s="38"/>
     </row>
@@ -8613,7 +8617,7 @@
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="38" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G9" s="38"/>
     </row>
@@ -8632,7 +8636,7 @@
       </c>
       <c r="E10" s="38"/>
       <c r="F10" s="38" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G10" s="38"/>
     </row>
@@ -8651,7 +8655,7 @@
       </c>
       <c r="E11" s="38"/>
       <c r="F11" s="38" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G11" s="38"/>
     </row>
@@ -8670,7 +8674,7 @@
       </c>
       <c r="E12" s="38"/>
       <c r="F12" s="38" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G12" s="38"/>
     </row>
@@ -8689,7 +8693,7 @@
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="38" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G13" s="38"/>
     </row>
@@ -8708,7 +8712,7 @@
       </c>
       <c r="E14" s="38"/>
       <c r="F14" s="38" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G14" s="38"/>
     </row>
@@ -8727,7 +8731,7 @@
       </c>
       <c r="E15" s="38"/>
       <c r="F15" s="38" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G15" s="38"/>
     </row>
@@ -8751,10 +8755,10 @@
         <v>58</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
@@ -8776,7 +8780,7 @@
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G18" s="38" t="s">
         <v>95</v>
@@ -8797,7 +8801,7 @@
       </c>
       <c r="E19" s="38"/>
       <c r="F19" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G19" s="38"/>
     </row>
@@ -8816,7 +8820,7 @@
       </c>
       <c r="E20" s="38"/>
       <c r="F20" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G20" s="38"/>
     </row>
@@ -8835,7 +8839,7 @@
       </c>
       <c r="E21" s="38"/>
       <c r="F21" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G21" s="38"/>
     </row>
@@ -8854,7 +8858,7 @@
       </c>
       <c r="E22" s="38"/>
       <c r="F22" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G22" s="38"/>
     </row>
@@ -8866,14 +8870,14 @@
         <v>102</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>104</v>
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G23" s="38"/>
     </row>
@@ -8885,14 +8889,14 @@
         <v>105</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="39" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G24" s="39"/>
     </row>
@@ -8911,7 +8915,7 @@
       </c>
       <c r="E25" s="38"/>
       <c r="F25" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G25" s="38"/>
     </row>
@@ -8923,14 +8927,14 @@
         <v>111</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D26" s="38" t="s">
         <v>110</v>
       </c>
       <c r="E26" s="38"/>
       <c r="F26" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G26" s="38"/>
     </row>
@@ -8942,14 +8946,14 @@
         <v>114</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="39" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G27" s="39"/>
     </row>
@@ -8961,14 +8965,14 @@
         <v>117</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="39" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G28" s="39"/>
     </row>
@@ -8977,34 +8981,34 @@
         <v>58</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="E29" s="39"/>
       <c r="F29" s="39" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G29" s="39"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="39"/>
       <c r="B30" s="39" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="39" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G30" s="39"/>
     </row>
@@ -9013,17 +9017,17 @@
         <v>58</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D31" s="38" t="s">
         <v>113</v>
       </c>
       <c r="E31" s="38"/>
       <c r="F31" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G31" s="38"/>
     </row>
@@ -9032,7 +9036,7 @@
         <v>58</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C32" s="38" t="s">
         <v>115</v>
@@ -9042,7 +9046,7 @@
       </c>
       <c r="E32" s="38"/>
       <c r="F32" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G32" s="38"/>
     </row>
@@ -9051,17 +9055,17 @@
         <v>58</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="E33" s="39"/>
       <c r="F33" s="39" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G33" s="39"/>
     </row>
@@ -9070,17 +9074,17 @@
         <v>58</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E34" s="39"/>
       <c r="F34" s="39" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G34" s="39"/>
     </row>
@@ -9089,17 +9093,17 @@
         <v>58</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="E35" s="39"/>
       <c r="F35" s="39" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G35" s="39"/>
     </row>
@@ -9108,17 +9112,17 @@
         <v>58</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="E36" s="39"/>
       <c r="F36" s="39" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G36" s="39"/>
     </row>
@@ -9127,7 +9131,7 @@
         <v>58</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C37" s="38" t="s">
         <v>118</v>
@@ -9137,7 +9141,7 @@
       </c>
       <c r="E37" s="38"/>
       <c r="F37" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G37" s="38"/>
     </row>
@@ -9156,7 +9160,7 @@
       </c>
       <c r="E38" s="38"/>
       <c r="F38" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G38" s="38"/>
     </row>
@@ -9175,7 +9179,7 @@
       </c>
       <c r="E39" s="38"/>
       <c r="F39" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G39" s="38"/>
     </row>
@@ -9194,7 +9198,7 @@
       </c>
       <c r="E40" s="38"/>
       <c r="F40" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G40" s="38"/>
     </row>
@@ -9213,7 +9217,7 @@
       </c>
       <c r="E41" s="38"/>
       <c r="F41" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G41" s="38"/>
     </row>
@@ -9222,7 +9226,7 @@
         <v>131</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C42" s="38" t="s">
         <v>133</v>
@@ -9232,7 +9236,7 @@
       </c>
       <c r="E42" s="38"/>
       <c r="F42" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G42" s="38"/>
     </row>
@@ -9256,10 +9260,10 @@
         <v>58</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
@@ -9281,7 +9285,7 @@
       </c>
       <c r="E45" s="38"/>
       <c r="F45" s="38" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G45" s="38" t="s">
         <v>136</v>
@@ -9302,7 +9306,7 @@
       </c>
       <c r="E46" s="38"/>
       <c r="F46" s="38" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G46" s="38"/>
     </row>
@@ -9321,7 +9325,7 @@
       </c>
       <c r="E47" s="38"/>
       <c r="F47" s="38" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G47" s="38"/>
     </row>
@@ -9340,7 +9344,7 @@
       </c>
       <c r="E48" s="38"/>
       <c r="F48" s="38" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G48" s="38"/>
     </row>
@@ -9359,7 +9363,7 @@
       </c>
       <c r="E49" s="38"/>
       <c r="F49" s="38" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G49" s="38"/>
     </row>
@@ -9378,7 +9382,7 @@
       </c>
       <c r="E50" s="38"/>
       <c r="F50" s="38" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G50" s="38"/>
     </row>
@@ -9397,7 +9401,7 @@
       </c>
       <c r="E51" s="38"/>
       <c r="F51" s="38" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G51" s="38"/>
     </row>
@@ -9416,7 +9420,7 @@
       </c>
       <c r="E52" s="38"/>
       <c r="F52" s="38" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G52" s="38"/>
     </row>
@@ -9435,7 +9439,7 @@
       </c>
       <c r="E53" s="38"/>
       <c r="F53" s="38" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G53" s="38"/>
     </row>
@@ -9444,7 +9448,7 @@
         <v>131</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C54" s="38" t="s">
         <v>133</v>
@@ -9454,7 +9458,7 @@
       </c>
       <c r="E54" s="38"/>
       <c r="F54" s="38" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G54" s="38"/>
     </row>
@@ -9478,10 +9482,10 @@
         <v>58</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D56" s="37"/>
       <c r="E56" s="37"/>
@@ -9503,7 +9507,7 @@
       </c>
       <c r="E57" s="38"/>
       <c r="F57" s="38" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G57" s="38" t="s">
         <v>158</v>
@@ -9524,7 +9528,7 @@
       </c>
       <c r="E58" s="38"/>
       <c r="F58" s="38" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G58" s="38"/>
     </row>
@@ -9543,7 +9547,7 @@
       </c>
       <c r="E59" s="38"/>
       <c r="F59" s="38" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G59" s="38"/>
     </row>
@@ -9562,7 +9566,7 @@
       </c>
       <c r="E60" s="38"/>
       <c r="F60" s="38" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G60" s="38"/>
     </row>
@@ -9581,7 +9585,7 @@
       </c>
       <c r="E61" s="38"/>
       <c r="F61" s="38" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G61" s="38"/>
     </row>
@@ -9600,7 +9604,7 @@
       </c>
       <c r="E62" s="38"/>
       <c r="F62" s="38" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G62" s="38"/>
     </row>
@@ -9619,7 +9623,7 @@
       </c>
       <c r="E63" s="38"/>
       <c r="F63" s="38" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G63" s="38"/>
     </row>
@@ -9638,7 +9642,7 @@
       </c>
       <c r="E64" s="38"/>
       <c r="F64" s="38" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G64" s="38"/>
     </row>
@@ -9657,7 +9661,7 @@
       </c>
       <c r="E65" s="38"/>
       <c r="F65" s="38" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G65" s="38"/>
     </row>
@@ -9681,10 +9685,10 @@
         <v>58</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D67" s="37"/>
       <c r="E67" s="37"/>
@@ -9706,7 +9710,7 @@
       </c>
       <c r="E68" s="38"/>
       <c r="F68" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G68" s="38" t="s">
         <v>169</v>
@@ -9727,7 +9731,7 @@
       </c>
       <c r="E69" s="38"/>
       <c r="F69" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G69" s="38"/>
     </row>
@@ -9746,7 +9750,7 @@
       </c>
       <c r="E70" s="38"/>
       <c r="F70" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G70" s="38"/>
     </row>
@@ -9765,7 +9769,7 @@
       </c>
       <c r="E71" s="38"/>
       <c r="F71" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G71" s="38"/>
     </row>
@@ -9784,7 +9788,7 @@
       </c>
       <c r="E72" s="40"/>
       <c r="F72" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G72" s="38"/>
     </row>
@@ -9803,7 +9807,7 @@
       </c>
       <c r="E73" s="38"/>
       <c r="F73" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G73" s="38"/>
     </row>
@@ -9815,14 +9819,14 @@
         <v>179</v>
       </c>
       <c r="C74" s="39" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D74" s="39" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="E74" s="39"/>
       <c r="F74" s="39" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G74" s="39"/>
     </row>
@@ -9834,14 +9838,14 @@
         <v>182</v>
       </c>
       <c r="C75" s="39" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D75" s="39" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E75" s="39"/>
       <c r="F75" s="39" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G75" s="39"/>
     </row>
@@ -9860,7 +9864,7 @@
       </c>
       <c r="E76" s="38"/>
       <c r="F76" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G76" s="38"/>
     </row>
@@ -9869,7 +9873,7 @@
         <v>58</v>
       </c>
       <c r="B77" s="38" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C77" s="38" t="s">
         <v>183</v>
@@ -9879,7 +9883,7 @@
       </c>
       <c r="E77" s="38"/>
       <c r="F77" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G77" s="38"/>
     </row>
@@ -9888,7 +9892,7 @@
         <v>58</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C78" s="38" t="s">
         <v>186</v>
@@ -9898,7 +9902,7 @@
       </c>
       <c r="E78" s="38"/>
       <c r="F78" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G78" s="38"/>
     </row>
@@ -9907,7 +9911,7 @@
         <v>131</v>
       </c>
       <c r="B79" s="38" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C79" s="38" t="s">
         <v>133</v>
@@ -9917,7 +9921,7 @@
       </c>
       <c r="E79" s="38"/>
       <c r="F79" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G79" s="38"/>
     </row>
@@ -9926,7 +9930,7 @@
         <v>58</v>
       </c>
       <c r="B80" s="38" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C80" s="37" t="s">
         <v>6</v>
@@ -9941,10 +9945,10 @@
         <v>58</v>
       </c>
       <c r="B81" s="38" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D81" s="37"/>
       <c r="E81" s="37"/>
@@ -9966,7 +9970,7 @@
       </c>
       <c r="E82" s="38"/>
       <c r="F82" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G82" s="38" t="s">
         <v>191</v>
@@ -9987,7 +9991,7 @@
       </c>
       <c r="E83" s="38"/>
       <c r="F83" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G83" s="38"/>
     </row>
@@ -10006,7 +10010,7 @@
       </c>
       <c r="E84" s="38"/>
       <c r="F84" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G84" s="38"/>
     </row>
@@ -10025,7 +10029,7 @@
       </c>
       <c r="E85" s="38"/>
       <c r="F85" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G85" s="38"/>
     </row>
@@ -10044,7 +10048,7 @@
       </c>
       <c r="E86" s="38"/>
       <c r="F86" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G86" s="38"/>
     </row>
@@ -10063,7 +10067,7 @@
       </c>
       <c r="E87" s="38"/>
       <c r="F87" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G87" s="38"/>
     </row>
@@ -10082,7 +10086,7 @@
       </c>
       <c r="E88" s="38"/>
       <c r="F88" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G88" s="38"/>
     </row>
@@ -10091,7 +10095,7 @@
         <v>131</v>
       </c>
       <c r="B89" s="38" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C89" s="38" t="s">
         <v>133</v>
@@ -10101,7 +10105,7 @@
       </c>
       <c r="E89" s="38"/>
       <c r="F89" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G89" s="38"/>
     </row>
@@ -10125,10 +10129,10 @@
         <v>58</v>
       </c>
       <c r="B91" s="38" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D91" s="37"/>
       <c r="E91" s="37"/>
@@ -10150,7 +10154,7 @@
       </c>
       <c r="E92" s="38"/>
       <c r="F92" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G92" s="38" t="s">
         <v>207</v>
@@ -10171,7 +10175,7 @@
       </c>
       <c r="E93" s="38"/>
       <c r="F93" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G93" s="38"/>
     </row>
@@ -10190,7 +10194,7 @@
       </c>
       <c r="E94" s="38"/>
       <c r="F94" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G94" s="38"/>
     </row>
@@ -10209,7 +10213,7 @@
       </c>
       <c r="E95" s="38"/>
       <c r="F95" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G95" s="38"/>
     </row>
@@ -10228,7 +10232,7 @@
       </c>
       <c r="E96" s="38"/>
       <c r="F96" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G96" s="38"/>
     </row>
@@ -10247,7 +10251,7 @@
       </c>
       <c r="E97" s="38"/>
       <c r="F97" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G97" s="38"/>
     </row>
@@ -10266,7 +10270,7 @@
       </c>
       <c r="E98" s="38"/>
       <c r="F98" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G98" s="38"/>
     </row>
@@ -10285,7 +10289,7 @@
       </c>
       <c r="E99" s="38"/>
       <c r="F99" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G99" s="38"/>
     </row>
@@ -10304,7 +10308,7 @@
       </c>
       <c r="E100" s="38"/>
       <c r="F100" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G100" s="38"/>
     </row>
@@ -10313,7 +10317,7 @@
         <v>131</v>
       </c>
       <c r="B101" s="38" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C101" s="38" t="s">
         <v>133</v>
@@ -10323,7 +10327,7 @@
       </c>
       <c r="E101" s="38"/>
       <c r="F101" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G101" s="38"/>
     </row>
@@ -10347,10 +10351,10 @@
         <v>58</v>
       </c>
       <c r="B103" s="38" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D103" s="37"/>
       <c r="E103" s="37"/>
@@ -10372,7 +10376,7 @@
       </c>
       <c r="E104" s="38"/>
       <c r="F104" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G104" s="38" t="s">
         <v>219</v>
@@ -10393,7 +10397,7 @@
       </c>
       <c r="E105" s="38"/>
       <c r="F105" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G105" s="38"/>
     </row>
@@ -10412,7 +10416,7 @@
       </c>
       <c r="E106" s="38"/>
       <c r="F106" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G106" s="38"/>
     </row>
@@ -10431,7 +10435,7 @@
       </c>
       <c r="E107" s="38"/>
       <c r="F107" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G107" s="38"/>
     </row>
@@ -10450,7 +10454,7 @@
       </c>
       <c r="E108" s="38"/>
       <c r="F108" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G108" s="38"/>
     </row>
@@ -10469,7 +10473,7 @@
       </c>
       <c r="E109" s="38"/>
       <c r="F109" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G109" s="38"/>
     </row>
@@ -10488,7 +10492,7 @@
       </c>
       <c r="E110" s="38"/>
       <c r="F110" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G110" s="38"/>
     </row>
@@ -10507,7 +10511,7 @@
       </c>
       <c r="E111" s="38"/>
       <c r="F111" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G111" s="38"/>
     </row>
@@ -10526,7 +10530,7 @@
       </c>
       <c r="E112" s="38"/>
       <c r="F112" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G112" s="38"/>
     </row>
@@ -10535,7 +10539,7 @@
         <v>131</v>
       </c>
       <c r="B113" s="38" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C113" s="38" t="s">
         <v>133</v>
@@ -10545,7 +10549,7 @@
       </c>
       <c r="E113" s="38"/>
       <c r="F113" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G113" s="38"/>
     </row>
@@ -10569,10 +10573,10 @@
         <v>58</v>
       </c>
       <c r="B115" s="38" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C115" s="37" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D115" s="37"/>
       <c r="E115" s="37"/>
@@ -10594,7 +10598,7 @@
       </c>
       <c r="E116" s="38"/>
       <c r="F116" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G116" s="38" t="s">
         <v>136</v>
@@ -10615,7 +10619,7 @@
       </c>
       <c r="E117" s="38"/>
       <c r="F117" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G117" s="38"/>
     </row>
@@ -10634,7 +10638,7 @@
       </c>
       <c r="E118" s="38"/>
       <c r="F118" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G118" s="38"/>
     </row>
@@ -10653,7 +10657,7 @@
       </c>
       <c r="E119" s="38"/>
       <c r="F119" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G119" s="38"/>
     </row>
@@ -10672,7 +10676,7 @@
       </c>
       <c r="E120" s="38"/>
       <c r="F120" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G120" s="38"/>
     </row>
@@ -10691,7 +10695,7 @@
       </c>
       <c r="E121" s="38"/>
       <c r="F121" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G121" s="38"/>
     </row>
@@ -10710,7 +10714,7 @@
       </c>
       <c r="E122" s="38"/>
       <c r="F122" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G122" s="38"/>
     </row>
@@ -10729,7 +10733,7 @@
       </c>
       <c r="E123" s="38"/>
       <c r="F123" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G123" s="38"/>
     </row>
@@ -10748,7 +10752,7 @@
       </c>
       <c r="E124" s="38"/>
       <c r="F124" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G124" s="38"/>
     </row>
@@ -10757,7 +10761,7 @@
         <v>131</v>
       </c>
       <c r="B125" s="38" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C125" s="38" t="s">
         <v>133</v>
@@ -10767,7 +10771,7 @@
       </c>
       <c r="E125" s="38"/>
       <c r="F125" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G125" s="38"/>
     </row>
@@ -10776,7 +10780,7 @@
         <v>58</v>
       </c>
       <c r="B126" s="38" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C126" s="37" t="s">
         <v>10</v>
@@ -10791,10 +10795,10 @@
         <v>58</v>
       </c>
       <c r="B127" s="38" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C127" s="37" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D127" s="37"/>
       <c r="E127" s="37"/>
@@ -10816,7 +10820,7 @@
       </c>
       <c r="E128" s="38"/>
       <c r="F128" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G128" s="38" t="s">
         <v>242</v>
@@ -10837,7 +10841,7 @@
       </c>
       <c r="E129" s="38"/>
       <c r="F129" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G129" s="38"/>
     </row>
@@ -10856,7 +10860,7 @@
       </c>
       <c r="E130" s="38"/>
       <c r="F130" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G130" s="38"/>
     </row>
@@ -10875,7 +10879,7 @@
       </c>
       <c r="E131" s="38"/>
       <c r="F131" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G131" s="38"/>
     </row>
@@ -10894,7 +10898,7 @@
       </c>
       <c r="E132" s="38"/>
       <c r="F132" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G132" s="38"/>
     </row>
@@ -10906,14 +10910,14 @@
         <v>249</v>
       </c>
       <c r="C133" s="38" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D133" s="38" t="s">
         <v>251</v>
       </c>
       <c r="E133" s="38"/>
       <c r="F133" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G133" s="38"/>
     </row>
@@ -10925,14 +10929,14 @@
         <v>252</v>
       </c>
       <c r="C134" s="39" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D134" s="39" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E134" s="39"/>
       <c r="F134" s="39" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G134" s="39"/>
     </row>
@@ -10951,7 +10955,7 @@
       </c>
       <c r="E135" s="38"/>
       <c r="F135" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G135" s="38"/>
     </row>
@@ -10960,7 +10964,7 @@
         <v>58</v>
       </c>
       <c r="B136" s="38" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C136" s="38" t="s">
         <v>256</v>
@@ -10970,7 +10974,7 @@
       </c>
       <c r="E136" s="38"/>
       <c r="F136" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G136" s="38"/>
     </row>
@@ -10994,10 +10998,10 @@
         <v>58</v>
       </c>
       <c r="B138" s="38" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C138" s="37" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D138" s="37"/>
       <c r="E138" s="37"/>
@@ -11021,10 +11025,10 @@
         <v>260</v>
       </c>
       <c r="F139" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G139" s="38" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -11044,7 +11048,7 @@
         <v>260</v>
       </c>
       <c r="F140" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G140" s="38"/>
     </row>
@@ -11065,7 +11069,7 @@
         <v>260</v>
       </c>
       <c r="F141" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G141" s="38"/>
     </row>
@@ -11086,7 +11090,7 @@
         <v>260</v>
       </c>
       <c r="F142" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G142" s="38"/>
     </row>
@@ -11098,7 +11102,7 @@
         <v>267</v>
       </c>
       <c r="C143" s="38" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D143" s="38" t="s">
         <v>269</v>
@@ -11107,7 +11111,7 @@
         <v>260</v>
       </c>
       <c r="F143" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G143" s="38"/>
     </row>
@@ -11119,7 +11123,7 @@
         <v>270</v>
       </c>
       <c r="C144" s="38" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D144" s="38" t="s">
         <v>266</v>
@@ -11128,7 +11132,7 @@
         <v>260</v>
       </c>
       <c r="F144" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G144" s="38"/>
     </row>
@@ -11140,14 +11144,14 @@
         <v>272</v>
       </c>
       <c r="C145" s="39" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D145" s="39" t="s">
         <v>1237</v>
-      </c>
-      <c r="D145" s="39" t="s">
-        <v>1238</v>
       </c>
       <c r="E145" s="39"/>
       <c r="F145" s="39" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G145" s="39"/>
     </row>
@@ -11156,19 +11160,19 @@
         <v>58</v>
       </c>
       <c r="B146" s="38" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C146" s="38" t="s">
         <v>271</v>
       </c>
       <c r="D146" s="38" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E146" s="38" t="s">
         <v>260</v>
       </c>
       <c r="F146" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G146" s="38"/>
     </row>
@@ -11177,7 +11181,7 @@
         <v>58</v>
       </c>
       <c r="B147" s="38" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C147" s="38" t="s">
         <v>273</v>
@@ -11189,7 +11193,7 @@
         <v>260</v>
       </c>
       <c r="F147" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G147" s="38"/>
     </row>
@@ -11198,19 +11202,19 @@
         <v>131</v>
       </c>
       <c r="B148" s="38" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C148" s="38" t="s">
         <v>133</v>
       </c>
       <c r="D148" s="38" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E148" s="38" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="F148" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G148" s="38"/>
     </row>
@@ -11219,7 +11223,7 @@
         <v>131</v>
       </c>
       <c r="B149" s="38" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C149" s="38" t="s">
         <v>277</v>
@@ -11229,7 +11233,7 @@
       </c>
       <c r="E149" s="38"/>
       <c r="F149" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G149" s="38"/>
     </row>
@@ -11278,14 +11282,14 @@
         <v>14</v>
       </c>
       <c r="D152" s="38" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E152" s="38" t="s">
         <v>281</v>
       </c>
       <c r="F152" s="38"/>
       <c r="G152" s="38" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -11299,14 +11303,14 @@
         <v>15</v>
       </c>
       <c r="D153" s="38" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E153" s="38" t="s">
         <v>281</v>
       </c>
       <c r="F153" s="38"/>
       <c r="G153" s="38" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -11320,14 +11324,14 @@
         <v>283</v>
       </c>
       <c r="D154" s="38" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E154" s="38" t="s">
         <v>284</v>
       </c>
       <c r="F154" s="38"/>
       <c r="G154" s="38" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -11386,7 +11390,7 @@
         <v>58</v>
       </c>
       <c r="B158" s="35" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C158" s="36" t="s">
         <v>19</v>
@@ -11572,7 +11576,7 @@
         <v>303</v>
       </c>
       <c r="C169" s="38" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D169" s="40" t="s">
         <v>950</v>
@@ -11893,7 +11897,7 @@
         <v>330</v>
       </c>
       <c r="C188" s="38" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="D188" s="40" t="s">
         <v>950</v>
@@ -12405,7 +12409,7 @@
       <c r="E218" s="38"/>
       <c r="F218" s="38"/>
       <c r="G218" s="38" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -12518,13 +12522,13 @@
         <v>382</v>
       </c>
       <c r="C225" s="40" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D225" s="40" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E225" s="38" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="F225" s="38"/>
       <c r="G225" s="38"/>
@@ -12540,10 +12544,10 @@
         <v>385</v>
       </c>
       <c r="D226" s="40" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E226" s="38" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="F226" s="38"/>
       <c r="G226" s="38"/>
@@ -12556,7 +12560,7 @@
         <v>386</v>
       </c>
       <c r="C227" s="38" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D227" s="38">
         <v>76.16</v>
@@ -12630,7 +12634,7 @@
       <c r="E231" s="38"/>
       <c r="F231" s="38"/>
       <c r="G231" s="38" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -12698,7 +12702,7 @@
         <v>981</v>
       </c>
       <c r="E235" s="40" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F235" s="40"/>
       <c r="G235" s="38"/>
@@ -12991,7 +12995,7 @@
         <v>58</v>
       </c>
       <c r="B253" s="35" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C253" s="36" t="s">
         <v>35</v>
@@ -13081,7 +13085,7 @@
         <v>441</v>
       </c>
       <c r="E258" s="59" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F258" s="38"/>
       <c r="G258" s="44"/>
@@ -13162,13 +13166,13 @@
         <v>454</v>
       </c>
       <c r="C263" s="44" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="D263" s="38" t="s">
         <v>456</v>
       </c>
       <c r="E263" s="59" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F263" s="38"/>
       <c r="G263" s="44"/>
@@ -13178,13 +13182,13 @@
         <v>58</v>
       </c>
       <c r="B264" s="38" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="C264" s="44" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="D264" s="38" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="E264" s="38"/>
       <c r="F264" s="38"/>
@@ -13238,7 +13242,7 @@
         <v>465</v>
       </c>
       <c r="E267" s="59" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F267" s="38"/>
       <c r="G267" s="44"/>
@@ -13248,7 +13252,7 @@
         <v>58</v>
       </c>
       <c r="B268" s="38" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="C268" s="44" t="s">
         <v>467</v>
@@ -13456,7 +13460,7 @@
         <v>490</v>
       </c>
       <c r="D280" s="38" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="E280" s="38"/>
       <c r="F280" s="38"/>
@@ -13760,7 +13764,7 @@
         <v>490</v>
       </c>
       <c r="D298" s="38" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="E298" s="38"/>
       <c r="F298" s="38"/>
@@ -14190,7 +14194,7 @@
         <v>58</v>
       </c>
       <c r="B324" s="38" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="C324" s="38" t="s">
         <v>483</v>
@@ -14207,7 +14211,7 @@
         <v>58</v>
       </c>
       <c r="B325" s="38" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C325" s="38" t="s">
         <v>485</v>
@@ -14247,7 +14251,7 @@
         <v>490</v>
       </c>
       <c r="D327" s="38" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="E327" s="38"/>
       <c r="F327" s="38"/>
@@ -14326,7 +14330,7 @@
         <v>58</v>
       </c>
       <c r="B332" s="38" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="C332" s="38" t="s">
         <v>501</v>
@@ -14343,7 +14347,7 @@
         <v>58</v>
       </c>
       <c r="B333" s="38" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C333" s="38" t="s">
         <v>504</v>
@@ -14360,7 +14364,7 @@
         <v>58</v>
       </c>
       <c r="B334" s="35" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C334" s="49" t="s">
         <v>40</v>
@@ -14414,10 +14418,10 @@
         <v>78.3</v>
       </c>
       <c r="E337" s="38" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F337" s="38" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G337" s="44" t="s">
         <v>568</v>
@@ -14437,10 +14441,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E338" s="38" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="F338" s="38" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G338" s="44"/>
     </row>
@@ -14452,14 +14456,14 @@
         <v>571</v>
       </c>
       <c r="C339" s="44" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="D339" s="38">
         <v>78.099999999999994</v>
       </c>
       <c r="E339" s="38"/>
       <c r="F339" s="38" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G339" s="44"/>
     </row>
@@ -14493,7 +14497,7 @@
       </c>
       <c r="E341" s="38"/>
       <c r="F341" s="38" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G341" s="44" t="s">
         <v>576</v>
@@ -14514,7 +14518,7 @@
       </c>
       <c r="E342" s="38"/>
       <c r="F342" s="38" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G342" s="44"/>
     </row>
@@ -14533,7 +14537,7 @@
       </c>
       <c r="E343" s="38"/>
       <c r="F343" s="38" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G343" s="38"/>
     </row>
@@ -14552,7 +14556,7 @@
       </c>
       <c r="E344" s="38"/>
       <c r="F344" s="38" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G344" s="44"/>
     </row>
@@ -14586,10 +14590,10 @@
       </c>
       <c r="E346" s="38"/>
       <c r="F346" s="38" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G346" s="44" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="347" spans="1:7">
@@ -14607,7 +14611,7 @@
       </c>
       <c r="E347" s="38"/>
       <c r="F347" s="38" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G347" s="44"/>
     </row>
@@ -14619,14 +14623,14 @@
         <v>595</v>
       </c>
       <c r="C348" s="44" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D348" s="38" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E348" s="38"/>
       <c r="F348" s="38" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G348" s="44"/>
     </row>
@@ -14645,7 +14649,7 @@
       </c>
       <c r="E349" s="38"/>
       <c r="F349" s="38" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G349" s="44"/>
     </row>
@@ -14664,7 +14668,7 @@
       </c>
       <c r="E350" s="38"/>
       <c r="F350" s="38" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G350" s="44"/>
     </row>
@@ -14698,10 +14702,10 @@
       </c>
       <c r="E352" s="40"/>
       <c r="F352" s="38" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G352" s="44" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="353" spans="1:7" ht="30">
@@ -14719,7 +14723,7 @@
       </c>
       <c r="E353" s="40"/>
       <c r="F353" s="38" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G353" s="44"/>
     </row>
@@ -14734,11 +14738,11 @@
         <v>612</v>
       </c>
       <c r="D354" s="40" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E354" s="40"/>
       <c r="F354" s="38" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G354" s="38"/>
     </row>
@@ -14757,7 +14761,7 @@
       </c>
       <c r="E355" s="40"/>
       <c r="F355" s="38" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G355" s="44"/>
     </row>
@@ -14776,7 +14780,7 @@
       </c>
       <c r="E356" s="38"/>
       <c r="F356" s="38" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G356" s="44"/>
     </row>
@@ -14810,10 +14814,10 @@
       </c>
       <c r="E358" s="38"/>
       <c r="F358" s="38" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G358" s="38" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="359" spans="1:7">
@@ -14827,11 +14831,11 @@
         <v>624</v>
       </c>
       <c r="D359" s="40" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E359" s="40"/>
       <c r="F359" s="38" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G359" s="38"/>
     </row>
@@ -14865,10 +14869,10 @@
       </c>
       <c r="E361" s="38"/>
       <c r="F361" s="38" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G361" s="44" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="362" spans="1:7">
@@ -14882,11 +14886,11 @@
         <v>629</v>
       </c>
       <c r="D362" s="38" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E362" s="46"/>
       <c r="F362" s="38" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G362" s="44"/>
     </row>
@@ -14905,7 +14909,7 @@
       </c>
       <c r="E363" s="38"/>
       <c r="F363" s="38" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G363" s="44"/>
     </row>
@@ -14920,11 +14924,11 @@
         <v>633</v>
       </c>
       <c r="D364" s="38" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E364" s="38"/>
       <c r="F364" s="38" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G364" s="44"/>
     </row>
@@ -14939,13 +14943,13 @@
         <v>635</v>
       </c>
       <c r="D365" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E365" s="38" t="s">
         <v>636</v>
       </c>
       <c r="F365" s="38" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G365" s="38"/>
     </row>
@@ -14990,13 +14994,13 @@
         <v>567</v>
       </c>
       <c r="D368" s="40" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E368" s="40" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F368" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G368" s="44" t="s">
         <v>568</v>
@@ -15013,13 +15017,13 @@
         <v>640</v>
       </c>
       <c r="D369" s="40" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E369" s="40" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="F369" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G369" s="44"/>
     </row>
@@ -15037,10 +15041,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E370" s="38" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F370" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G370" s="44"/>
     </row>
@@ -15089,7 +15093,7 @@
       </c>
       <c r="E373" s="38"/>
       <c r="F373" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G373" s="44" t="s">
         <v>647</v>
@@ -15110,7 +15114,7 @@
       </c>
       <c r="E374" s="38"/>
       <c r="F374" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G374" s="44"/>
     </row>
@@ -15129,7 +15133,7 @@
       </c>
       <c r="E375" s="38"/>
       <c r="F375" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G375" s="44"/>
     </row>
@@ -15148,7 +15152,7 @@
       </c>
       <c r="E376" s="40"/>
       <c r="F376" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G376" s="44"/>
     </row>
@@ -15167,7 +15171,7 @@
       </c>
       <c r="E377" s="38"/>
       <c r="F377" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G377" s="44"/>
     </row>
@@ -15186,7 +15190,7 @@
       </c>
       <c r="E378" s="38"/>
       <c r="F378" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G378" s="44"/>
     </row>
@@ -15220,10 +15224,10 @@
       </c>
       <c r="E380" s="38"/>
       <c r="F380" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G380" s="44" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="381" spans="1:7">
@@ -15237,13 +15241,13 @@
         <v>624</v>
       </c>
       <c r="D381" s="40" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E381" s="40" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="F381" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G381" s="38"/>
     </row>
@@ -15277,10 +15281,10 @@
       </c>
       <c r="E383" s="38"/>
       <c r="F383" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G383" s="44" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="384" spans="1:7">
@@ -15294,11 +15298,11 @@
         <v>666</v>
       </c>
       <c r="D384" s="38" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E384" s="46"/>
       <c r="F384" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G384" s="44"/>
     </row>
@@ -15317,7 +15321,7 @@
       </c>
       <c r="E385" s="38"/>
       <c r="F385" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G385" s="44"/>
     </row>
@@ -15332,11 +15336,11 @@
         <v>633</v>
       </c>
       <c r="D386" s="38" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E386" s="38"/>
       <c r="F386" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G386" s="38"/>
     </row>
@@ -15351,13 +15355,13 @@
         <v>635</v>
       </c>
       <c r="D387" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E387" s="38" t="s">
         <v>636</v>
       </c>
       <c r="F387" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G387" s="38"/>
     </row>
@@ -15405,10 +15409,10 @@
         <v>78.3</v>
       </c>
       <c r="E390" s="38" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F390" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G390" s="44" t="s">
         <v>568</v>
@@ -15425,13 +15429,13 @@
         <v>674</v>
       </c>
       <c r="D391" s="38" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E391" s="40" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="F391" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G391" s="38"/>
     </row>
@@ -15449,10 +15453,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E392" s="38" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F392" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G392" s="44"/>
     </row>
@@ -15497,11 +15501,11 @@
         <v>680</v>
       </c>
       <c r="D395" s="38" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E395" s="38"/>
       <c r="F395" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G395" s="44" t="s">
         <v>681</v>
@@ -15522,7 +15526,7 @@
       </c>
       <c r="E396" s="38"/>
       <c r="F396" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G396" s="44"/>
     </row>
@@ -15541,7 +15545,7 @@
       </c>
       <c r="E397" s="38"/>
       <c r="F397" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G397" s="44"/>
     </row>
@@ -15560,7 +15564,7 @@
       </c>
       <c r="E398" s="38"/>
       <c r="F398" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G398" s="44"/>
     </row>
@@ -15579,7 +15583,7 @@
       </c>
       <c r="E399" s="38"/>
       <c r="F399" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G399" s="44"/>
     </row>
@@ -15598,7 +15602,7 @@
       </c>
       <c r="E400" s="38"/>
       <c r="F400" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G400" s="44"/>
     </row>
@@ -15632,10 +15636,10 @@
       </c>
       <c r="E402" s="38"/>
       <c r="F402" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G402" s="44" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="403" spans="1:7">
@@ -15649,13 +15653,13 @@
         <v>624</v>
       </c>
       <c r="D403" s="40" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E403" s="40" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="F403" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G403" s="38"/>
     </row>
@@ -15689,10 +15693,10 @@
       </c>
       <c r="E405" s="38"/>
       <c r="F405" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G405" s="44" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="406" spans="1:7">
@@ -15706,11 +15710,11 @@
         <v>666</v>
       </c>
       <c r="D406" s="38" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E406" s="46"/>
       <c r="F406" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G406" s="44"/>
     </row>
@@ -15729,7 +15733,7 @@
       </c>
       <c r="E407" s="38"/>
       <c r="F407" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G407" s="44"/>
     </row>
@@ -15744,11 +15748,11 @@
         <v>633</v>
       </c>
       <c r="D408" s="38" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E408" s="38"/>
       <c r="F408" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G408" s="38"/>
     </row>
@@ -15763,13 +15767,13 @@
         <v>635</v>
       </c>
       <c r="D409" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E409" s="38" t="s">
         <v>636</v>
       </c>
       <c r="F409" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G409" s="38"/>
     </row>
@@ -15817,10 +15821,10 @@
         <v>78.3</v>
       </c>
       <c r="E412" s="3" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="F412" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G412" s="44" t="s">
         <v>568</v>
@@ -15840,10 +15844,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E413" s="38" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F413" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G413" s="44"/>
     </row>
@@ -15861,10 +15865,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E414" s="38" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F414" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G414" s="44"/>
     </row>
@@ -15913,7 +15917,7 @@
       </c>
       <c r="E417" s="38"/>
       <c r="F417" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G417" s="38" t="s">
         <v>709</v>
@@ -15934,7 +15938,7 @@
       </c>
       <c r="E418" s="38"/>
       <c r="F418" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G418" s="44"/>
     </row>
@@ -15953,7 +15957,7 @@
       </c>
       <c r="E419" s="38"/>
       <c r="F419" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G419" s="44"/>
     </row>
@@ -15972,7 +15976,7 @@
       </c>
       <c r="E420" s="38"/>
       <c r="F420" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G420" s="38"/>
     </row>
@@ -15999,14 +16003,14 @@
         <v>718</v>
       </c>
       <c r="C422" s="38" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="D422" s="38" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E422" s="38"/>
       <c r="F422" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G422" s="38" t="s">
         <v>720</v>
@@ -16020,14 +16024,14 @@
         <v>722</v>
       </c>
       <c r="C423" s="38" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="D423" s="40" t="s">
         <v>721</v>
       </c>
       <c r="E423" s="40"/>
       <c r="F423" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G423" s="38"/>
     </row>
@@ -16046,7 +16050,7 @@
       </c>
       <c r="E424" s="40"/>
       <c r="F424" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G424" s="38"/>
     </row>
@@ -16080,7 +16084,7 @@
       </c>
       <c r="E426" s="40"/>
       <c r="F426" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G426" s="44" t="s">
         <v>729</v>
@@ -16101,7 +16105,7 @@
       </c>
       <c r="E427" s="40"/>
       <c r="F427" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G427" s="44"/>
     </row>
@@ -16120,7 +16124,7 @@
       </c>
       <c r="E428" s="40"/>
       <c r="F428" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G428" s="44"/>
     </row>
@@ -16139,7 +16143,7 @@
       </c>
       <c r="E429" s="40"/>
       <c r="F429" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G429" s="38"/>
     </row>
@@ -16158,7 +16162,7 @@
       </c>
       <c r="E430" s="40"/>
       <c r="F430" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G430" s="44"/>
     </row>
@@ -16177,7 +16181,7 @@
       </c>
       <c r="E431" s="40"/>
       <c r="F431" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G431" s="44"/>
     </row>
@@ -16194,7 +16198,7 @@
       <c r="D432" s="41"/>
       <c r="E432" s="41"/>
       <c r="F432" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G432" s="41"/>
     </row>
@@ -16213,7 +16217,7 @@
       </c>
       <c r="E433" s="40"/>
       <c r="F433" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G433" s="44" t="s">
         <v>738</v>
@@ -16234,7 +16238,7 @@
       </c>
       <c r="E434" s="40"/>
       <c r="F434" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G434" s="44"/>
     </row>
@@ -16253,7 +16257,7 @@
       </c>
       <c r="E435" s="40"/>
       <c r="F435" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G435" s="44" t="s">
         <v>606</v>
@@ -16274,7 +16278,7 @@
       </c>
       <c r="E436" s="40"/>
       <c r="F436" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G436" s="44"/>
     </row>
@@ -16291,7 +16295,7 @@
       <c r="D437" s="41"/>
       <c r="E437" s="41"/>
       <c r="F437" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G437" s="41"/>
     </row>
@@ -16310,10 +16314,10 @@
       </c>
       <c r="E438" s="40"/>
       <c r="F438" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G438" s="44" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -16327,13 +16331,13 @@
         <v>624</v>
       </c>
       <c r="D439" s="40" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E439" s="40" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="F439" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G439" s="38"/>
     </row>
@@ -16345,12 +16349,12 @@
         <v>746</v>
       </c>
       <c r="C440" s="41" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="D440" s="41"/>
       <c r="E440" s="41"/>
       <c r="F440" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G440" s="41"/>
     </row>
@@ -16365,13 +16369,13 @@
         <v>635</v>
       </c>
       <c r="D441" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E441" s="38" t="s">
         <v>636</v>
       </c>
       <c r="F441" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G441" s="38"/>
     </row>
@@ -16388,7 +16392,7 @@
       <c r="D442" s="41"/>
       <c r="E442" s="41"/>
       <c r="F442" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G442" s="37"/>
     </row>
@@ -16407,7 +16411,7 @@
         <v>279</v>
       </c>
       <c r="F443" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G443" s="44"/>
     </row>
@@ -16426,7 +16430,7 @@
         <v>279</v>
       </c>
       <c r="F444" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G444" s="44"/>
     </row>
@@ -16445,7 +16449,7 @@
         <v>279</v>
       </c>
       <c r="F445" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G445" s="44"/>
     </row>
@@ -16462,7 +16466,7 @@
       <c r="D446" s="41"/>
       <c r="E446" s="37"/>
       <c r="F446" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G446" s="37"/>
     </row>
@@ -16481,7 +16485,7 @@
         <v>279</v>
       </c>
       <c r="F447" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G447" s="44"/>
     </row>
@@ -16500,7 +16504,7 @@
         <v>279</v>
       </c>
       <c r="F448" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G448" s="44"/>
     </row>
@@ -16517,7 +16521,7 @@
       <c r="D449" s="41"/>
       <c r="E449" s="41"/>
       <c r="F449" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G449" s="37"/>
     </row>
@@ -16534,7 +16538,7 @@
       <c r="D450" s="41"/>
       <c r="E450" s="41"/>
       <c r="F450" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G450" s="41"/>
     </row>
@@ -16553,7 +16557,7 @@
       </c>
       <c r="E451" s="38"/>
       <c r="F451" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G451" s="44" t="s">
         <v>568</v>
@@ -16574,7 +16578,7 @@
       </c>
       <c r="E452" s="38"/>
       <c r="F452" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G452" s="44"/>
     </row>
@@ -16593,7 +16597,7 @@
       </c>
       <c r="E453" s="38"/>
       <c r="F453" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G453" s="44"/>
     </row>
@@ -16610,7 +16614,7 @@
       <c r="D454" s="41"/>
       <c r="E454" s="41"/>
       <c r="F454" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G454" s="41"/>
     </row>
@@ -16627,7 +16631,7 @@
       <c r="D455" s="41"/>
       <c r="E455" s="41"/>
       <c r="F455" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G455" s="41"/>
     </row>
@@ -16646,10 +16650,10 @@
       </c>
       <c r="E456" s="38"/>
       <c r="F456" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G456" s="44" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="457" spans="1:7">
@@ -16667,7 +16671,7 @@
       </c>
       <c r="E457" s="38"/>
       <c r="F457" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G457" s="44"/>
     </row>
@@ -16682,11 +16686,11 @@
         <v>767</v>
       </c>
       <c r="D458" s="38" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E458" s="38"/>
       <c r="F458" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G458" s="38"/>
     </row>
@@ -16705,7 +16709,7 @@
       </c>
       <c r="E459" s="38"/>
       <c r="F459" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G459" s="38"/>
     </row>
@@ -16717,12 +16721,12 @@
         <v>770</v>
       </c>
       <c r="C460" s="38" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D460" s="38"/>
       <c r="E460" s="38"/>
       <c r="F460" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G460" s="38"/>
     </row>
@@ -16731,7 +16735,7 @@
         <v>58</v>
       </c>
       <c r="B461" s="38" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C461" s="38" t="s">
         <v>771</v>
@@ -16741,7 +16745,7 @@
       </c>
       <c r="E461" s="38"/>
       <c r="F461" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G461" s="38"/>
     </row>
@@ -16750,17 +16754,17 @@
         <v>58</v>
       </c>
       <c r="B462" s="38" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C462" s="38" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D462" s="38" t="s">
         <v>724</v>
       </c>
       <c r="E462" s="38"/>
       <c r="F462" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G462" s="38"/>
     </row>
@@ -16777,7 +16781,7 @@
       <c r="D463" s="41"/>
       <c r="E463" s="41"/>
       <c r="F463" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G463" s="41"/>
     </row>
@@ -16796,10 +16800,10 @@
       </c>
       <c r="E464" s="38"/>
       <c r="F464" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G464" s="44" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="465" spans="1:7">
@@ -16813,11 +16817,11 @@
         <v>624</v>
       </c>
       <c r="D465" s="40" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E465" s="40"/>
       <c r="F465" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G465" s="38"/>
     </row>
@@ -16834,7 +16838,7 @@
       <c r="D466" s="41"/>
       <c r="E466" s="41"/>
       <c r="F466" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G466" s="41"/>
     </row>
@@ -16853,10 +16857,10 @@
       </c>
       <c r="E467" s="38"/>
       <c r="F467" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G467" s="44" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="468" spans="1:7">
@@ -16874,7 +16878,7 @@
       </c>
       <c r="E468" s="38"/>
       <c r="F468" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G468" s="44"/>
     </row>
@@ -16893,7 +16897,7 @@
       </c>
       <c r="E469" s="38"/>
       <c r="F469" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G469" s="44"/>
     </row>
@@ -16908,11 +16912,11 @@
         <v>633</v>
       </c>
       <c r="D470" s="38" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E470" s="38"/>
       <c r="F470" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G470" s="38"/>
     </row>
@@ -16927,11 +16931,11 @@
         <v>635</v>
       </c>
       <c r="D471" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E471" s="38"/>
       <c r="F471" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G471" s="38"/>
     </row>
@@ -16946,9 +16950,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AMK6"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:G6"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
@@ -16989,7 +16991,7 @@
         <v>62</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>789</v>
@@ -17008,7 +17010,7 @@
         <v>65</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>791</v>
@@ -17027,7 +17029,7 @@
         <v>68</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>792</v>
@@ -17046,7 +17048,7 @@
         <v>71</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>793</v>
@@ -17065,7 +17067,7 @@
         <v>796</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>797</v>
@@ -17093,9 +17095,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AMK55"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
@@ -18863,7 +18863,7 @@
         <v>278</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>855</v>
@@ -18882,13 +18882,13 @@
         <v>269</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C40" s="28" t="s">
         <v>856</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3" t="s">
@@ -18901,13 +18901,13 @@
         <v>266</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>857</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
@@ -18920,7 +18920,7 @@
         <v>274</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>858</v>
@@ -18936,16 +18936,16 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="32" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B43" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C43" s="32" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D43" s="32" t="s">
         <v>1172</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>1173</v>
       </c>
       <c r="E43" s="32"/>
       <c r="F43" s="32" t="s">
@@ -18955,16 +18955,16 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="32" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B44" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="E44" s="32"/>
       <c r="F44" s="32" t="s">
@@ -18974,16 +18974,16 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="32" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B45" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E45" s="32"/>
       <c r="F45" s="32" t="s">
@@ -18993,16 +18993,16 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="32" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B46" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="E46" s="32"/>
       <c r="F46" s="32" t="s">
@@ -19012,16 +19012,16 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="32" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B47" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="E47" s="32"/>
       <c r="F47" s="32" t="s">
@@ -19031,16 +19031,16 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="32" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B48" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E48" s="32"/>
       <c r="F48" s="32" t="s">
@@ -19050,16 +19050,16 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="32" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B49" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E49" s="32"/>
       <c r="F49" s="32" t="s">
@@ -19069,16 +19069,16 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="32" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B50" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="E50" s="32"/>
       <c r="F50" s="32" t="s">
@@ -19088,16 +19088,16 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="32" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B51" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="32" t="s">
@@ -19107,16 +19107,16 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="32" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B52" s="32" t="s">
         <v>840</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="E52" s="32"/>
       <c r="F52" s="32" t="s">
@@ -19126,16 +19126,16 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="32" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B53" s="32" t="s">
         <v>840</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="E53" s="32"/>
       <c r="F53" s="32" t="s">
@@ -19145,16 +19145,16 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="32" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B54" s="32" t="s">
         <v>848</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="E54" s="32"/>
       <c r="F54" s="32" t="s">
@@ -19164,16 +19164,16 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="32" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="E55" s="32"/>
       <c r="F55" s="32" t="s">
@@ -19195,9 +19195,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:IV49"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
@@ -19751,16 +19749,16 @@
     </row>
     <row r="16" spans="1:256" ht="31.5" customHeight="1">
       <c r="A16" s="31" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B16" s="30" t="s">
         <v>861</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30" t="s">
@@ -19770,16 +19768,16 @@
     </row>
     <row r="17" spans="1:7" ht="31.5" customHeight="1">
       <c r="A17" s="31" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B17" s="30" t="s">
         <v>861</v>
       </c>
       <c r="C17" s="31" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D17" s="31" t="s">
         <v>1093</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>1094</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="30" t="s">
@@ -19798,7 +19796,7 @@
         <v>895</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="30" t="s">
@@ -20377,7 +20375,7 @@
         <v>982</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E49" s="30"/>
       <c r="F49" s="30"/>
@@ -20939,7 +20937,7 @@
         <v>435</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>983</v>
@@ -20958,7 +20956,7 @@
         <v>438</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>985</v>
@@ -20977,7 +20975,7 @@
         <v>441</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>987</v>
@@ -20996,7 +20994,7 @@
         <v>456</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>989</v>
@@ -21015,7 +21013,7 @@
         <v>444</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>991</v>
@@ -21034,7 +21032,7 @@
         <v>447</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>993</v>
@@ -21053,7 +21051,7 @@
         <v>450</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>995</v>
@@ -21072,7 +21070,7 @@
         <v>453</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>997</v>
@@ -21091,7 +21089,7 @@
         <v>459</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>999</v>
@@ -21110,7 +21108,7 @@
         <v>1001</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>1002</v>
@@ -21129,7 +21127,7 @@
         <v>462</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>1004</v>
@@ -21148,7 +21146,7 @@
         <v>465</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>1006</v>
@@ -21156,14 +21154,12 @@
       <c r="D13" s="5" t="s">
         <v>1007</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>1008</v>
-      </c>
+      <c r="E13" s="63"/>
       <c r="F13" s="5" t="s">
         <v>790</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="31.5" customHeight="1">
@@ -21171,13 +21167,13 @@
         <v>468</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>1010</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>1011</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
@@ -21190,22 +21186,22 @@
         <v>502</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>1012</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>1013</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>1014</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>790</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="16" spans="1:256" ht="47.25" customHeight="1">
@@ -21213,13 +21209,13 @@
         <v>493</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>1015</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>1016</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
@@ -21232,22 +21228,22 @@
         <v>505</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>1017</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>1018</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>1019</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>790</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.5" customHeight="1">
@@ -21255,10 +21251,10 @@
         <v>533</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>532</v>
@@ -21274,10 +21270,10 @@
         <v>536</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>535</v>
@@ -21293,13 +21289,13 @@
         <v>539</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>1023</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>1024</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
@@ -21312,13 +21308,13 @@
         <v>542</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>1025</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>1026</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
@@ -21331,13 +21327,13 @@
         <v>547</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>1027</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>1028</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
@@ -21350,10 +21346,10 @@
         <v>488</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>544</v>
@@ -21364,16 +21360,16 @@
     </row>
     <row r="24" spans="1:7" ht="31.5">
       <c r="A24" s="32" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B24" s="32" t="s">
         <v>1151</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="C24" s="32" t="s">
         <v>1152</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="D24" s="32" t="s">
         <v>1153</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>1154</v>
       </c>
       <c r="E24" s="32"/>
       <c r="F24" s="32"/>
@@ -21381,16 +21377,16 @@
     </row>
     <row r="25" spans="1:7" ht="47.25">
       <c r="A25" s="32" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C25" s="32" t="s">
         <v>1155</v>
       </c>
-      <c r="B25" s="32" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>1156</v>
-      </c>
       <c r="D25" s="32" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
@@ -21398,16 +21394,16 @@
     </row>
     <row r="26" spans="1:7" ht="31.5">
       <c r="A26" s="32" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C26" s="32" t="s">
         <v>1157</v>
       </c>
-      <c r="B26" s="32" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C26" s="32" t="s">
+      <c r="D26" s="32" t="s">
         <v>1158</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>1159</v>
       </c>
       <c r="E26" s="32"/>
       <c r="F26" s="32"/>
@@ -21415,16 +21411,16 @@
     </row>
     <row r="27" spans="1:7" ht="47.25">
       <c r="A27" s="32" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C27" s="32" t="s">
         <v>1160</v>
       </c>
-      <c r="B27" s="32" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C27" s="32" t="s">
+      <c r="D27" s="32" t="s">
         <v>1161</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>1162</v>
       </c>
       <c r="E27" s="32"/>
       <c r="F27" s="32"/>
@@ -21432,16 +21428,16 @@
     </row>
     <row r="28" spans="1:7" ht="47.25">
       <c r="A28" s="32" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C28" s="32" t="s">
         <v>1163</v>
       </c>
-      <c r="B28" s="32" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C28" s="32" t="s">
+      <c r="D28" s="32" t="s">
         <v>1164</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>1165</v>
       </c>
       <c r="E28" s="32"/>
       <c r="F28" s="32"/>
@@ -21449,16 +21445,16 @@
     </row>
     <row r="29" spans="1:7" ht="31.5">
       <c r="A29" s="32" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C29" s="32" t="s">
         <v>1166</v>
       </c>
-      <c r="B29" s="32" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C29" s="32" t="s">
+      <c r="D29" s="32" t="s">
         <v>1167</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>1168</v>
       </c>
       <c r="E29" s="32"/>
       <c r="F29" s="32"/>
@@ -21466,16 +21462,16 @@
     </row>
     <row r="30" spans="1:7" ht="47.25">
       <c r="A30" s="32" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C30" s="32" t="s">
         <v>1169</v>
       </c>
-      <c r="B30" s="32" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C30" s="32" t="s">
+      <c r="D30" s="32" t="s">
         <v>1170</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>1171</v>
       </c>
       <c r="E30" s="32"/>
       <c r="F30" s="32"/>
@@ -21496,7 +21492,7 @@
   <dimension ref="A1:IV4"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -21535,22 +21531,20 @@
         <v>788</v>
       </c>
     </row>
-    <row r="2" spans="1:256" s="61" customFormat="1" ht="63">
+    <row r="2" spans="1:256" s="61" customFormat="1">
       <c r="A2" s="8" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>1030</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>1031</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>1032</v>
-      </c>
       <c r="D2" s="8" t="s">
-        <v>1279</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>1294</v>
-      </c>
+        <v>1278</v>
+      </c>
+      <c r="E2" s="63"/>
       <c r="F2" s="28" t="s">
         <v>790</v>
       </c>
@@ -21805,22 +21799,20 @@
       <c r="IU2" s="60"/>
       <c r="IV2" s="60"/>
     </row>
-    <row r="3" spans="1:256" ht="31.5">
+    <row r="3" spans="1:256">
       <c r="A3" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>1033</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>1034</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>1280</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>1281</v>
-      </c>
+        <v>1279</v>
+      </c>
+      <c r="E3" s="64"/>
       <c r="F3" s="3" t="s">
         <v>790</v>
       </c>
@@ -21828,20 +21820,18 @@
     </row>
     <row r="4" spans="1:256" ht="63">
       <c r="A4" s="5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>1035</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>1036</v>
-      </c>
       <c r="D4" s="8" t="s">
-        <v>1282</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>1283</v>
-      </c>
+        <v>1280</v>
+      </c>
+      <c r="E4" s="63"/>
       <c r="F4" s="3" t="s">
         <v>790</v>
       </c>
@@ -21861,9 +21851,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
@@ -22153,23 +22141,23 @@
     </row>
     <row r="2" spans="1:256" ht="31.5" customHeight="1">
       <c r="A2" s="30" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>1037</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="C2" s="30" t="s">
         <v>1038</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="D2" s="30" t="s">
         <v>1039</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>1040</v>
       </c>
       <c r="E2" s="30"/>
       <c r="F2" s="30" t="s">
         <v>790</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1">
@@ -22177,13 +22165,13 @@
         <v>648</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C3" s="30" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>1042</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>1043</v>
       </c>
       <c r="E3" s="30"/>
       <c r="F3" s="30" t="s">
@@ -22196,13 +22184,13 @@
         <v>577</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C4" s="30" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D4" s="30" t="s">
         <v>1044</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>1045</v>
       </c>
       <c r="E4" s="30"/>
       <c r="F4" s="30" t="s">
@@ -22215,13 +22203,13 @@
         <v>580</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C5" s="30" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D5" s="30" t="s">
         <v>1046</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>1047</v>
       </c>
       <c r="E5" s="30"/>
       <c r="F5" s="30" t="s">
@@ -22234,13 +22222,13 @@
         <v>583</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C6" s="30" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D6" s="30" t="s">
         <v>1048</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>1049</v>
       </c>
       <c r="E6" s="30"/>
       <c r="F6" s="30" t="s">
@@ -22253,22 +22241,22 @@
         <v>586</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C7" s="30" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D7" s="30" t="s">
         <v>1050</v>
       </c>
-      <c r="D7" s="30" t="s">
-        <v>1051</v>
-      </c>
       <c r="E7" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="F7" s="30" t="s">
         <v>790</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="8" spans="1:256" ht="31.5" customHeight="1">
@@ -22276,13 +22264,13 @@
         <v>591</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C8" s="30" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D8" s="30" t="s">
         <v>1052</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>1053</v>
       </c>
       <c r="E8" s="30"/>
       <c r="F8" s="30" t="s">
@@ -22295,13 +22283,13 @@
         <v>594</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C9" s="30" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D9" s="30" t="s">
         <v>1054</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>1055</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="30" t="s">
@@ -22314,13 +22302,13 @@
         <v>597</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C10" s="30" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D10" s="30" t="s">
         <v>1056</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>1057</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="30" t="s">
@@ -22333,13 +22321,13 @@
         <v>600</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C11" s="30" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D11" s="30" t="s">
         <v>1058</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>1059</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="30" t="s">
@@ -22352,10 +22340,10 @@
         <v>603</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>602</v>
@@ -22371,22 +22359,22 @@
         <v>606</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C13" s="30" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D13" s="30" t="s">
         <v>1061</v>
       </c>
-      <c r="D13" s="30" t="s">
-        <v>1062</v>
-      </c>
       <c r="E13" s="30" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F13" s="30" t="s">
         <v>790</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="31.5" customHeight="1">
@@ -22394,22 +22382,22 @@
         <v>615</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C14" s="30" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D14" s="30" t="s">
         <v>1064</v>
       </c>
-      <c r="D14" s="30" t="s">
-        <v>1065</v>
-      </c>
       <c r="E14" s="30" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="F14" s="30" t="s">
         <v>790</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="15" spans="1:256" ht="31.5" customHeight="1">
@@ -22417,13 +22405,13 @@
         <v>618</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C15" s="30" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D15" s="30" t="s">
         <v>1067</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>1068</v>
       </c>
       <c r="E15" s="30"/>
       <c r="F15" s="30" t="s">
@@ -22436,13 +22424,13 @@
         <v>651</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C16" s="30" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D16" s="30" t="s">
         <v>1069</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>1070</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30" t="s">
@@ -22452,16 +22440,16 @@
     </row>
     <row r="17" spans="1:7" ht="31.5" customHeight="1">
       <c r="A17" s="30" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C17" s="30" t="s">
         <v>1071</v>
       </c>
-      <c r="B17" s="30" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C17" s="30" t="s">
+      <c r="D17" s="30" t="s">
         <v>1072</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>1073</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="30" t="s">
@@ -22474,13 +22462,13 @@
         <v>684</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C18" s="30" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D18" s="30" t="s">
         <v>1074</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>1075</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="30" t="s">
@@ -22490,25 +22478,25 @@
     </row>
     <row r="19" spans="1:7" ht="31.5" customHeight="1">
       <c r="A19" s="30" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C19" s="30" t="s">
         <v>1076</v>
       </c>
-      <c r="B19" s="30" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>1077</v>
-      </c>
       <c r="D19" s="30" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="E19" s="62" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>790</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="31.5">
@@ -22516,16 +22504,16 @@
         <v>721</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="E20" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F20" s="30" t="s">
         <v>790</v>
@@ -22537,56 +22525,56 @@
         <v>724</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C21" s="30" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D21" s="30" t="s">
         <v>1079</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="E21" s="30" t="s">
         <v>1080</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>1081</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>790</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="31.5" customHeight="1">
       <c r="A22" s="30" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C22" s="30" t="s">
         <v>1083</v>
       </c>
-      <c r="B22" s="30" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C22" s="30" t="s">
+      <c r="D22" s="30" t="s">
         <v>1084</v>
       </c>
-      <c r="D22" s="30" t="s">
-        <v>1085</v>
-      </c>
       <c r="E22" s="62" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>809</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="31.5">
       <c r="A23" s="30" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>629</v>
@@ -22597,13 +22585,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="30" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>633</v>
@@ -22614,32 +22602,32 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="30" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>624</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
     </row>
     <row r="26" spans="1:7" ht="31.5">
       <c r="A26" s="30" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>635</v>
@@ -22650,13 +22638,13 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="58" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D27" s="30" t="s">
         <v>767</v>
@@ -22968,40 +22956,40 @@
     </row>
     <row r="2" spans="1:256">
       <c r="A2" s="7" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
         <v>790</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="3" spans="1:256">
       <c r="A3" s="7" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>1132</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>1133</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>809</v>
@@ -23010,19 +22998,19 @@
     </row>
     <row r="4" spans="1:256">
       <c r="A4" s="6" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>1137</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>1138</v>
-      </c>
       <c r="C4" s="6" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>1135</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>1136</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>809</v>

--- a/conformancelib/testdata/85b_test_definitions_PIV_Production_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV_Production_Cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\python_den\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC87F0DC-0D8E-4B90-B50F-F08CB018791E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7E3BE9-6ADF-49AC-84B6-0C519956D85E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6705" yWindow="960" windowWidth="28755" windowHeight="17760" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2145" yWindow="1725" windowWidth="26190" windowHeight="12315" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3763" uniqueCount="1302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3771" uniqueCount="1307">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -3823,9 +3823,6 @@
   </si>
   <si>
     <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
   </si>
   <si>
     <t>10</t>
@@ -3936,6 +3933,24 @@
   </si>
   <si>
     <t>Extended key usage (extKeyUsage) extension is present and maked critical</t>
+  </si>
+  <si>
+    <t>Recorded length matches actual BDB length</t>
+  </si>
+  <si>
+    <t>Recorded length matches actual SB length</t>
+  </si>
+  <si>
+    <t>76.48</t>
+  </si>
+  <si>
+    <t>sp800_76Test_48</t>
+  </si>
+  <si>
+    <t>9.1.1.5</t>
+  </si>
+  <si>
+    <t>The Patron Header Version field has a value of 0x03.</t>
   </si>
 </sst>
 </file>
@@ -4099,7 +4114,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -4151,6 +4166,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1">
@@ -4158,7 +4201,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4352,6 +4395,42 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8439,7 +8518,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D164" sqref="D164"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -9226,7 +9307,7 @@
         <v>131</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C42" s="38" t="s">
         <v>133</v>
@@ -10095,7 +10176,7 @@
         <v>131</v>
       </c>
       <c r="B89" s="38" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C89" s="38" t="s">
         <v>133</v>
@@ -10317,7 +10398,7 @@
         <v>131</v>
       </c>
       <c r="B101" s="38" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C101" s="38" t="s">
         <v>133</v>
@@ -10539,7 +10620,7 @@
         <v>131</v>
       </c>
       <c r="B113" s="38" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C113" s="38" t="s">
         <v>133</v>
@@ -10761,7 +10842,7 @@
         <v>131</v>
       </c>
       <c r="B125" s="38" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C125" s="38" t="s">
         <v>133</v>
@@ -11136,7 +11217,7 @@
       </c>
       <c r="G144" s="38"/>
     </row>
-    <row r="145" spans="1:7" ht="19.5" customHeight="1">
+    <row r="145" spans="1:8" ht="19.5" customHeight="1">
       <c r="A145" s="39" t="s">
         <v>58</v>
       </c>
@@ -11155,7 +11236,7 @@
       </c>
       <c r="G145" s="39"/>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:8">
       <c r="A146" s="38" t="s">
         <v>58</v>
       </c>
@@ -11176,7 +11257,7 @@
       </c>
       <c r="G146" s="38"/>
     </row>
-    <row r="147" spans="1:7" ht="45">
+    <row r="147" spans="1:8" ht="45">
       <c r="A147" s="38" t="s">
         <v>58</v>
       </c>
@@ -11197,7 +11278,7 @@
       </c>
       <c r="G147" s="38"/>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:8">
       <c r="A148" s="38" t="s">
         <v>131</v>
       </c>
@@ -11218,7 +11299,7 @@
       </c>
       <c r="G148" s="38"/>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:8">
       <c r="A149" s="38" t="s">
         <v>131</v>
       </c>
@@ -11237,7 +11318,7 @@
       </c>
       <c r="G149" s="38"/>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:8">
       <c r="A150" s="38" t="s">
         <v>58</v>
       </c>
@@ -11254,7 +11335,7 @@
       <c r="F150" s="37"/>
       <c r="G150" s="37"/>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:8">
       <c r="A151" s="38" t="s">
         <v>58</v>
       </c>
@@ -11271,7 +11352,7 @@
       <c r="F151" s="37"/>
       <c r="G151" s="37"/>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:8">
       <c r="A152" s="38" t="s">
         <v>58</v>
       </c>
@@ -11292,7 +11373,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:8">
       <c r="A153" s="38" t="s">
         <v>58</v>
       </c>
@@ -11313,7 +11394,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:8">
       <c r="A154" s="38" t="s">
         <v>58</v>
       </c>
@@ -11334,7 +11415,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:8">
       <c r="A155" s="38" t="s">
         <v>58</v>
       </c>
@@ -11351,7 +11432,7 @@
       <c r="F155" s="37"/>
       <c r="G155" s="41"/>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:8">
       <c r="A156" s="38" t="s">
         <v>58</v>
       </c>
@@ -11368,7 +11449,7 @@
       <c r="F156" s="37"/>
       <c r="G156" s="41"/>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:8">
       <c r="A157" s="38" t="s">
         <v>58</v>
       </c>
@@ -11385,63 +11466,66 @@
       <c r="F157" s="37"/>
       <c r="G157" s="41"/>
     </row>
-    <row r="158" spans="1:7" ht="15.75">
-      <c r="A158" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="B158" s="35" t="s">
-        <v>1265</v>
-      </c>
-      <c r="C158" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="D158" s="37"/>
+    <row r="158" spans="1:8" ht="15.75">
+      <c r="A158" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="B158" s="65">
+        <v>9.1</v>
+      </c>
+      <c r="C158" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="D158" s="66"/>
       <c r="E158" s="37"/>
       <c r="F158" s="37"/>
       <c r="G158" s="36"/>
     </row>
-    <row r="159" spans="1:7">
-      <c r="A159" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B159" s="38">
-        <v>9.1</v>
-      </c>
-      <c r="C159" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="D159" s="37"/>
+    <row r="159" spans="1:8">
+      <c r="A159" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="B159" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="C159" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="D159" s="66"/>
       <c r="E159" s="37"/>
       <c r="F159" s="37"/>
       <c r="G159" s="37"/>
     </row>
-    <row r="160" spans="1:7">
-      <c r="A160" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B160" s="38" t="s">
-        <v>285</v>
-      </c>
-      <c r="C160" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="D160" s="37"/>
-      <c r="E160" s="37"/>
-      <c r="F160" s="37"/>
-      <c r="G160" s="41"/>
+    <row r="160" spans="1:8" s="76" customFormat="1">
+      <c r="A160" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="B160" s="73" t="s">
+        <v>286</v>
+      </c>
+      <c r="C160" s="73" t="s">
+        <v>290</v>
+      </c>
+      <c r="D160" s="73">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="E160" s="74"/>
+      <c r="F160" s="74"/>
+      <c r="G160" s="40"/>
+      <c r="H160" s="75"/>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B161" s="38" t="s">
-        <v>286</v>
-      </c>
-      <c r="C161" s="38" t="s">
-        <v>287</v>
-      </c>
-      <c r="D161" s="38">
-        <v>76.099999999999994</v>
+      <c r="A161" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="B161" s="65" t="s">
+        <v>289</v>
+      </c>
+      <c r="C161" s="65" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D161" s="65">
+        <v>76.2</v>
       </c>
       <c r="E161" s="38"/>
       <c r="F161" s="38"/>
@@ -11450,34 +11534,34 @@
       </c>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B162" s="38" t="s">
-        <v>289</v>
-      </c>
-      <c r="C162" s="38" t="s">
-        <v>290</v>
-      </c>
-      <c r="D162" s="38">
-        <v>76.2</v>
+      <c r="A162" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="B162" s="65" t="s">
+        <v>291</v>
+      </c>
+      <c r="C162" s="65" t="s">
+        <v>294</v>
+      </c>
+      <c r="D162" s="65" t="s">
+        <v>865</v>
       </c>
       <c r="E162" s="38"/>
       <c r="F162" s="38"/>
       <c r="G162" s="38"/>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B163" s="38" t="s">
-        <v>291</v>
-      </c>
-      <c r="C163" s="38" t="s">
-        <v>292</v>
-      </c>
-      <c r="D163" s="38">
-        <v>76.3</v>
+      <c r="A163" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="B163" s="65" t="s">
+        <v>293</v>
+      </c>
+      <c r="C163" s="65" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D163" s="65" t="s">
+        <v>1303</v>
       </c>
       <c r="E163" s="38"/>
       <c r="F163" s="38"/>
@@ -11488,17 +11572,19 @@
         <v>58</v>
       </c>
       <c r="B164" s="38" t="s">
-        <v>293</v>
+        <v>1305</v>
       </c>
       <c r="C164" s="38" t="s">
-        <v>294</v>
-      </c>
-      <c r="D164" s="38">
-        <v>76.400000000000006</v>
+        <v>297</v>
+      </c>
+      <c r="D164" s="38" t="s">
+        <v>867</v>
       </c>
       <c r="E164" s="38"/>
       <c r="F164" s="38"/>
-      <c r="G164" s="38"/>
+      <c r="G164" s="38" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="38" t="s">
@@ -11515,24 +11601,22 @@
       <c r="F165" s="41"/>
       <c r="G165" s="41"/>
     </row>
-    <row r="166" spans="1:7">
-      <c r="A166" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B166" s="38" t="s">
+    <row r="166" spans="1:7" s="51" customFormat="1">
+      <c r="A166" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="B166" s="65" t="s">
         <v>296</v>
       </c>
-      <c r="C166" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="D166" s="38">
-        <v>76.5</v>
-      </c>
-      <c r="E166" s="38"/>
-      <c r="F166" s="38"/>
-      <c r="G166" s="38" t="s">
-        <v>298</v>
-      </c>
+      <c r="C166" s="65" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D166" s="65" t="s">
+        <v>869</v>
+      </c>
+      <c r="E166" s="65"/>
+      <c r="F166" s="65"/>
+      <c r="G166" s="65"/>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="38" t="s">
@@ -12995,7 +13079,7 @@
         <v>58</v>
       </c>
       <c r="B253" s="35" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C253" s="36" t="s">
         <v>35</v>
@@ -13085,7 +13169,7 @@
         <v>441</v>
       </c>
       <c r="E258" s="59" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F258" s="38"/>
       <c r="G258" s="44"/>
@@ -13166,13 +13250,13 @@
         <v>454</v>
       </c>
       <c r="C263" s="44" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D263" s="38" t="s">
         <v>456</v>
       </c>
       <c r="E263" s="59" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F263" s="38"/>
       <c r="G263" s="44"/>
@@ -13182,10 +13266,10 @@
         <v>58</v>
       </c>
       <c r="B264" s="38" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C264" s="44" t="s">
         <v>1283</v>
-      </c>
-      <c r="C264" s="44" t="s">
-        <v>1284</v>
       </c>
       <c r="D264" s="38" t="s">
         <v>1154</v>
@@ -13242,7 +13326,7 @@
         <v>465</v>
       </c>
       <c r="E267" s="59" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F267" s="38"/>
       <c r="G267" s="44"/>
@@ -13252,7 +13336,7 @@
         <v>58</v>
       </c>
       <c r="B268" s="38" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C268" s="44" t="s">
         <v>467</v>
@@ -14194,7 +14278,7 @@
         <v>58</v>
       </c>
       <c r="B324" s="38" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C324" s="38" t="s">
         <v>483</v>
@@ -14211,7 +14295,7 @@
         <v>58</v>
       </c>
       <c r="B325" s="38" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C325" s="38" t="s">
         <v>485</v>
@@ -14330,7 +14414,7 @@
         <v>58</v>
       </c>
       <c r="B332" s="38" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C332" s="38" t="s">
         <v>501</v>
@@ -14347,7 +14431,7 @@
         <v>58</v>
       </c>
       <c r="B333" s="38" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C333" s="38" t="s">
         <v>504</v>
@@ -14364,7 +14448,7 @@
         <v>58</v>
       </c>
       <c r="B334" s="35" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C334" s="49" t="s">
         <v>40</v>
@@ -14418,7 +14502,7 @@
         <v>78.3</v>
       </c>
       <c r="E337" s="38" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F337" s="38" t="s">
         <v>1141</v>
@@ -14441,7 +14525,7 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E338" s="38" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="F338" s="38" t="s">
         <v>1141</v>
@@ -14456,7 +14540,7 @@
         <v>571</v>
       </c>
       <c r="C339" s="44" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D339" s="38">
         <v>78.099999999999994</v>
@@ -14997,7 +15081,7 @@
         <v>1034</v>
       </c>
       <c r="E368" s="40" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F368" s="38" t="s">
         <v>1145</v>
@@ -15020,7 +15104,7 @@
         <v>1029</v>
       </c>
       <c r="E369" s="40" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="F369" s="38" t="s">
         <v>1145</v>
@@ -15041,7 +15125,7 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E370" s="38" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F370" s="38" t="s">
         <v>1145</v>
@@ -15409,7 +15493,7 @@
         <v>78.3</v>
       </c>
       <c r="E390" s="38" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F390" s="38" t="s">
         <v>1146</v>
@@ -15432,7 +15516,7 @@
         <v>1029</v>
       </c>
       <c r="E391" s="40" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="F391" s="38" t="s">
         <v>1146</v>
@@ -15453,7 +15537,7 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E392" s="38" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F392" s="38" t="s">
         <v>1146</v>
@@ -15821,7 +15905,7 @@
         <v>78.3</v>
       </c>
       <c r="E412" s="3" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="F412" s="38" t="s">
         <v>1147</v>
@@ -15844,7 +15928,7 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E413" s="38" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="F413" s="38" t="s">
         <v>1147</v>
@@ -15865,7 +15949,7 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E414" s="38" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F414" s="38" t="s">
         <v>1147</v>
@@ -16003,7 +16087,7 @@
         <v>718</v>
       </c>
       <c r="C422" s="38" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D422" s="38" t="s">
         <v>1075</v>
@@ -16024,7 +16108,7 @@
         <v>722</v>
       </c>
       <c r="C423" s="38" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="D423" s="40" t="s">
         <v>721</v>
@@ -19193,9 +19277,11 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:IV49"/>
+  <dimension ref="A1:IV50"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
@@ -19210,16 +19296,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" s="24" customFormat="1" ht="30.95" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="69" t="s">
         <v>782</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="69" t="s">
         <v>783</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="69" t="s">
         <v>784</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="69" t="s">
         <v>785</v>
       </c>
       <c r="E1" s="30" t="s">
@@ -19482,16 +19568,16 @@
       <c r="IV1" s="23"/>
     </row>
     <row r="2" spans="1:256" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="69" t="s">
         <v>860</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="69" t="s">
         <v>862</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="69" t="s">
         <v>290</v>
       </c>
       <c r="E2" s="30"/>
@@ -19501,17 +19587,17 @@
       <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="69" t="s">
         <v>863</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="69" t="s">
         <v>864</v>
       </c>
-      <c r="D3" s="30" t="s">
-        <v>292</v>
+      <c r="D3" s="69" t="s">
+        <v>1301</v>
       </c>
       <c r="E3" s="30"/>
       <c r="F3" s="30" t="s">
@@ -19520,16 +19606,16 @@
       <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="69" t="s">
         <v>865</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="69" t="s">
         <v>866</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="69" t="s">
         <v>294</v>
       </c>
       <c r="E4" s="30"/>
@@ -19539,16 +19625,16 @@
       <c r="G4" s="30"/>
     </row>
     <row r="5" spans="1:256" ht="31.5" customHeight="1">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="69" t="s">
         <v>867</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="69" t="s">
         <v>868</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="69" t="s">
         <v>297</v>
       </c>
       <c r="E5" s="30"/>
@@ -19558,16 +19644,16 @@
       <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="69" t="s">
         <v>869</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="69" t="s">
         <v>870</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="69" t="s">
         <v>871</v>
       </c>
       <c r="E6" s="30"/>
@@ -19577,16 +19663,16 @@
       <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:256" ht="17.100000000000001" customHeight="1">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="69" t="s">
         <v>872</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="69" t="s">
         <v>873</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="69" t="s">
         <v>874</v>
       </c>
       <c r="E7" s="30"/>
@@ -19596,16 +19682,16 @@
       <c r="G7" s="30"/>
     </row>
     <row r="8" spans="1:256" ht="17.100000000000001" customHeight="1">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="69" t="s">
         <v>875</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="69" t="s">
         <v>876</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="69" t="s">
         <v>877</v>
       </c>
       <c r="E8" s="30"/>
@@ -19615,16 +19701,16 @@
       <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:256" ht="31.5" customHeight="1">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="69" t="s">
         <v>878</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="69" t="s">
         <v>879</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="69" t="s">
         <v>880</v>
       </c>
       <c r="E9" s="30"/>
@@ -19634,16 +19720,16 @@
       <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:256" ht="17.100000000000001" customHeight="1">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="69" t="s">
         <v>881</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="69" t="s">
         <v>882</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="69" t="s">
         <v>370</v>
       </c>
       <c r="E10" s="30"/>
@@ -19653,16 +19739,16 @@
       <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="69" t="s">
         <v>883</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="69" t="s">
         <v>884</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="69" t="s">
         <v>372</v>
       </c>
       <c r="E11" s="30"/>
@@ -19672,16 +19758,16 @@
       <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:256" ht="17.100000000000001" customHeight="1">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="69" t="s">
         <v>885</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="69" t="s">
         <v>886</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="69" t="s">
         <v>887</v>
       </c>
       <c r="E12" s="30"/>
@@ -19691,16 +19777,16 @@
       <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:256" ht="31.5" customHeight="1">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="69" t="s">
         <v>888</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="69" t="s">
         <v>889</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="69" t="s">
         <v>376</v>
       </c>
       <c r="E13" s="30"/>
@@ -19710,16 +19796,16 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:256" ht="17.100000000000001" customHeight="1">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="69" t="s">
         <v>890</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="69" t="s">
         <v>891</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="69" t="s">
         <v>379</v>
       </c>
       <c r="E14" s="30"/>
@@ -19729,16 +19815,16 @@
       <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:256" ht="17.100000000000001" customHeight="1">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="69" t="s">
         <v>892</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="69" t="s">
         <v>893</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="69" t="s">
         <v>381</v>
       </c>
       <c r="E15" s="30"/>
@@ -19748,16 +19834,16 @@
       <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:256" ht="31.5" customHeight="1">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="68" t="s">
         <v>1095</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="68" t="s">
         <v>1094</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="68" t="s">
         <v>1089</v>
       </c>
       <c r="E16" s="30"/>
@@ -19767,16 +19853,16 @@
       <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="68" t="s">
         <v>1088</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="68" t="s">
         <v>1092</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="68" t="s">
         <v>1093</v>
       </c>
       <c r="E17" s="30"/>
@@ -19786,16 +19872,16 @@
       <c r="G17" s="30"/>
     </row>
     <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="69" t="s">
         <v>894</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="69" t="s">
         <v>895</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="68" t="s">
         <v>1097</v>
       </c>
       <c r="E18" s="30"/>
@@ -19805,16 +19891,16 @@
       <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="69" t="s">
         <v>896</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="69" t="s">
         <v>897</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="69" t="s">
         <v>390</v>
       </c>
       <c r="E19" s="30"/>
@@ -19824,16 +19910,16 @@
       <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="69" t="s">
         <v>898</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="69" t="s">
         <v>899</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="69" t="s">
         <v>392</v>
       </c>
       <c r="E20" s="30"/>
@@ -19843,16 +19929,16 @@
       <c r="G20" s="30"/>
     </row>
     <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="69" t="s">
         <v>900</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="69" t="s">
         <v>901</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="69" t="s">
         <v>902</v>
       </c>
       <c r="E21" s="30"/>
@@ -19862,16 +19948,16 @@
       <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="69" t="s">
         <v>903</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="69" t="s">
         <v>904</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="69" t="s">
         <v>398</v>
       </c>
       <c r="E22" s="30"/>
@@ -19881,16 +19967,16 @@
       <c r="G22" s="30"/>
     </row>
     <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="69" t="s">
         <v>905</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="69" t="s">
         <v>906</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="69" t="s">
         <v>400</v>
       </c>
       <c r="E23" s="30"/>
@@ -19900,16 +19986,16 @@
       <c r="G23" s="30"/>
     </row>
     <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="69" t="s">
         <v>907</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="69" t="s">
         <v>908</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="69" t="s">
         <v>402</v>
       </c>
       <c r="E24" s="30"/>
@@ -19919,16 +20005,16 @@
       <c r="G24" s="30"/>
     </row>
     <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="69" t="s">
         <v>909</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="69" t="s">
         <v>910</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="69" t="s">
         <v>911</v>
       </c>
       <c r="E25" s="30"/>
@@ -19938,16 +20024,16 @@
       <c r="G25" s="30"/>
     </row>
     <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="69" t="s">
         <v>912</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="69" t="s">
         <v>913</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="69" t="s">
         <v>408</v>
       </c>
       <c r="E26" s="30"/>
@@ -19957,16 +20043,16 @@
       <c r="G26" s="30"/>
     </row>
     <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="69" t="s">
         <v>914</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="69" t="s">
         <v>915</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="69" t="s">
         <v>916</v>
       </c>
       <c r="E27" s="30"/>
@@ -19976,16 +20062,16 @@
       <c r="G27" s="30"/>
     </row>
     <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="69" t="s">
         <v>917</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="69" t="s">
         <v>918</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="69" t="s">
         <v>412</v>
       </c>
       <c r="E28" s="30"/>
@@ -19995,16 +20081,16 @@
       <c r="G28" s="30"/>
     </row>
     <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="69" t="s">
         <v>919</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="69" t="s">
         <v>920</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="69" t="s">
         <v>414</v>
       </c>
       <c r="E29" s="30"/>
@@ -20014,16 +20100,16 @@
       <c r="G29" s="30"/>
     </row>
     <row r="30" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="69" t="s">
         <v>921</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="69" t="s">
         <v>922</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="69" t="s">
         <v>416</v>
       </c>
       <c r="E30" s="30"/>
@@ -20033,16 +20119,16 @@
       <c r="G30" s="30"/>
     </row>
     <row r="31" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="69" t="s">
         <v>923</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="69" t="s">
         <v>924</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="69" t="s">
         <v>925</v>
       </c>
       <c r="E31" s="30"/>
@@ -20052,16 +20138,16 @@
       <c r="G31" s="30"/>
     </row>
     <row r="32" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="69" t="s">
         <v>926</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="69" t="s">
         <v>927</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="69" t="s">
         <v>928</v>
       </c>
       <c r="E32" s="30"/>
@@ -20071,16 +20157,16 @@
       <c r="G32" s="30"/>
     </row>
     <row r="33" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="69" t="s">
         <v>929</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="69" t="s">
         <v>930</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="69" t="s">
         <v>931</v>
       </c>
       <c r="E33" s="30"/>
@@ -20090,16 +20176,16 @@
       <c r="G33" s="30"/>
     </row>
     <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="69" t="s">
         <v>932</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="69" t="s">
         <v>933</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="69" t="s">
         <v>934</v>
       </c>
       <c r="E34" s="30"/>
@@ -20109,16 +20195,16 @@
       <c r="G34" s="30"/>
     </row>
     <row r="35" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="69" t="s">
         <v>935</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="69" t="s">
         <v>936</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="69" t="s">
         <v>937</v>
       </c>
       <c r="E35" s="30"/>
@@ -20128,16 +20214,16 @@
       <c r="G35" s="30"/>
     </row>
     <row r="36" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="69" t="s">
         <v>938</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="69" t="s">
         <v>939</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="69" t="s">
         <v>940</v>
       </c>
       <c r="E36" s="30"/>
@@ -20147,16 +20233,16 @@
       <c r="G36" s="30"/>
     </row>
     <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="69" t="s">
         <v>941</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="69" t="s">
         <v>942</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="69" t="s">
         <v>943</v>
       </c>
       <c r="E37" s="30"/>
@@ -20166,16 +20252,16 @@
       <c r="G37" s="30"/>
     </row>
     <row r="38" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="69" t="s">
         <v>944</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="69" t="s">
         <v>945</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="D38" s="69" t="s">
         <v>946</v>
       </c>
       <c r="E38" s="30"/>
@@ -20185,16 +20271,16 @@
       <c r="G38" s="30"/>
     </row>
     <row r="39" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="69" t="s">
         <v>947</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C39" s="30" t="s">
+      <c r="C39" s="69" t="s">
         <v>948</v>
       </c>
-      <c r="D39" s="30" t="s">
+      <c r="D39" s="69" t="s">
         <v>949</v>
       </c>
       <c r="E39" s="30"/>
@@ -20204,16 +20290,16 @@
       <c r="G39" s="30"/>
     </row>
     <row r="40" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="69" t="s">
         <v>950</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C40" s="30" t="s">
+      <c r="C40" s="69" t="s">
         <v>951</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="69" t="s">
         <v>952</v>
       </c>
       <c r="E40" s="30" t="s">
@@ -20223,16 +20309,16 @@
       <c r="G40" s="30"/>
     </row>
     <row r="41" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="69" t="s">
         <v>954</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="C41" s="69" t="s">
         <v>955</v>
       </c>
-      <c r="D41" s="30" t="s">
+      <c r="D41" s="69" t="s">
         <v>956</v>
       </c>
       <c r="E41" s="30"/>
@@ -20240,16 +20326,16 @@
       <c r="G41" s="30"/>
     </row>
     <row r="42" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="69" t="s">
         <v>957</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="69" t="s">
         <v>958</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D42" s="69" t="s">
         <v>959</v>
       </c>
       <c r="E42" s="30"/>
@@ -20257,16 +20343,16 @@
       <c r="G42" s="30"/>
     </row>
     <row r="43" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A43" s="30" t="s">
+      <c r="A43" s="69" t="s">
         <v>960</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="69" t="s">
         <v>961</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="69" t="s">
         <v>962</v>
       </c>
       <c r="E43" s="30" t="s">
@@ -20276,16 +20362,16 @@
       <c r="G43" s="30"/>
     </row>
     <row r="44" spans="1:7" ht="47.25" customHeight="1">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="69" t="s">
         <v>964</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="69" t="s">
         <v>965</v>
       </c>
-      <c r="D44" s="30" t="s">
+      <c r="D44" s="69" t="s">
         <v>966</v>
       </c>
       <c r="E44" s="30" t="s">
@@ -20295,16 +20381,16 @@
       <c r="G44" s="30"/>
     </row>
     <row r="45" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A45" s="30" t="s">
+      <c r="A45" s="69" t="s">
         <v>968</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="69" t="s">
         <v>969</v>
       </c>
-      <c r="D45" s="30" t="s">
+      <c r="D45" s="69" t="s">
         <v>970</v>
       </c>
       <c r="E45" s="30" t="s">
@@ -20314,16 +20400,16 @@
       <c r="G45" s="30"/>
     </row>
     <row r="46" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="69" t="s">
         <v>972</v>
       </c>
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="C46" s="69" t="s">
         <v>973</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="69" t="s">
         <v>974</v>
       </c>
       <c r="E46" s="30"/>
@@ -20331,16 +20417,16 @@
       <c r="G46" s="30"/>
     </row>
     <row r="47" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A47" s="30" t="s">
+      <c r="A47" s="69" t="s">
         <v>975</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="69" t="s">
         <v>976</v>
       </c>
-      <c r="D47" s="30" t="s">
+      <c r="D47" s="69" t="s">
         <v>977</v>
       </c>
       <c r="E47" s="30"/>
@@ -20348,16 +20434,16 @@
       <c r="G47" s="30"/>
     </row>
     <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A48" s="30" t="s">
+      <c r="A48" s="69" t="s">
         <v>978</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C48" s="30" t="s">
+      <c r="C48" s="69" t="s">
         <v>979</v>
       </c>
-      <c r="D48" s="30" t="s">
+      <c r="D48" s="69" t="s">
         <v>980</v>
       </c>
       <c r="E48" s="30"/>
@@ -20365,16 +20451,16 @@
       <c r="G48" s="30"/>
     </row>
     <row r="49" spans="1:256" s="57" customFormat="1" ht="31.5">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="68" t="s">
         <v>981</v>
       </c>
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="69" t="s">
         <v>861</v>
       </c>
-      <c r="C49" s="31" t="s">
+      <c r="C49" s="72" t="s">
         <v>982</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="D49" s="72" t="s">
         <v>1090</v>
       </c>
       <c r="E49" s="30"/>
@@ -20630,6 +20716,23 @@
       <c r="IU49" s="56"/>
       <c r="IV49" s="56"/>
     </row>
+    <row r="50" spans="1:256" s="71" customFormat="1">
+      <c r="A50" s="68" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B50" s="69" t="s">
+        <v>861</v>
+      </c>
+      <c r="C50" s="69" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D50" s="69" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E50" s="69"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="70"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -21201,7 +21304,7 @@
         <v>790</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="16" spans="1:256" ht="47.25" customHeight="1">
@@ -21386,7 +21489,7 @@
         <v>1155</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
@@ -21542,7 +21645,7 @@
         <v>1031</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="E2" s="63"/>
       <c r="F2" s="28" t="s">
@@ -21810,7 +21913,7 @@
         <v>1033</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="E3" s="64"/>
       <c r="F3" s="3" t="s">
@@ -21829,7 +21932,7 @@
         <v>1035</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="E4" s="63"/>
       <c r="F4" s="3" t="s">
@@ -22250,7 +22353,7 @@
         <v>1050</v>
       </c>
       <c r="E7" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F7" s="30" t="s">
         <v>790</v>
@@ -22391,7 +22494,7 @@
         <v>1064</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="F14" s="30" t="s">
         <v>790</v>
@@ -22487,10 +22590,10 @@
         <v>1076</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="E19" s="62" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>790</v>
@@ -22510,7 +22613,7 @@
         <v>1077</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="E20" t="s">
         <v>1080</v>
@@ -22557,13 +22660,13 @@
         <v>1084</v>
       </c>
       <c r="E22" s="62" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>809</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="31.5">
@@ -22614,7 +22717,7 @@
         <v>624</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>

--- a/conformancelib/testdata/85b_test_definitions_PIV_Production_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV_Production_Cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geoff\gsa-devel\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7E3BE9-6ADF-49AC-84B6-0C519956D85E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67087880-851A-45E3-8C76-6D3D5448D321}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="1725" windowWidth="26190" windowHeight="12315" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3771" uniqueCount="1307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3771" uniqueCount="1308">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -3951,6 +3951,9 @@
   </si>
   <si>
     <t>The Patron Header Version field has a value of 0x03.</t>
+  </si>
+  <si>
+    <t>X509_CERTIFICATE_FOR_PIV_AUTHENTICATION_OID:2.16.840.1.101.3.2.1.48.11,X509_CERTIFICATE_FOR_DIGITAL_SIGNATURE_OID:2.16.840.1.101.3.2.1.48.9|2.16.840.1.101.3.2.1.48.12,X509_CERTIFICATE_FOR_KEY_MANAGEMENT_OID:2.16.840.1.101.3.2.1.48.9|2.16.840.1.101.3.2.1.48.12,X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID:2.16.840.1.101.3.2.1.48.13,CARD_HOLDER_UNIQUE_IDENTIFIER_OID:2.16.840.1.101.3.6.7</t>
   </si>
 </sst>
 </file>
@@ -4824,13 +4827,13 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="57.375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.69921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="57.3984375" style="4" customWidth="1"/>
     <col min="3" max="5" width="10.5" style="4" customWidth="1"/>
-    <col min="6" max="256" width="8.875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="19" customWidth="1"/>
+    <col min="6" max="256" width="8.8984375" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
@@ -5487,7 +5490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="31.5">
+    <row r="74" spans="1:5" ht="31.2">
       <c r="A74" s="3" t="s">
         <v>205</v>
       </c>
@@ -5575,7 +5578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="31.5">
+    <row r="85" spans="1:2" ht="31.2">
       <c r="A85" s="3" t="s">
         <v>217</v>
       </c>
@@ -5663,7 +5666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="31.5">
+    <row r="96" spans="1:2" ht="31.2">
       <c r="A96" s="3" t="s">
         <v>229</v>
       </c>
@@ -5751,7 +5754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" ht="31.2">
       <c r="A107" s="3" t="s">
         <v>240</v>
       </c>
@@ -5807,7 +5810,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="31.5">
+    <row r="114" spans="1:2" ht="31.2">
       <c r="A114" s="3" t="s">
         <v>255</v>
       </c>
@@ -5823,7 +5826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="28.5">
+    <row r="116" spans="1:2" ht="27.6">
       <c r="A116" s="3" t="s">
         <v>258</v>
       </c>
@@ -5863,7 +5866,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="47.25">
+    <row r="121" spans="1:2" ht="46.8">
       <c r="A121" s="3" t="s">
         <v>267</v>
       </c>
@@ -5879,7 +5882,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="63">
+    <row r="123" spans="1:2" ht="62.4">
       <c r="A123" s="3" t="s">
         <v>272</v>
       </c>
@@ -6031,7 +6034,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="31.5">
+    <row r="142" spans="1:2" ht="31.2">
       <c r="A142" s="3" t="s">
         <v>296</v>
       </c>
@@ -6047,7 +6050,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="31.5">
+    <row r="144" spans="1:2" ht="31.2">
       <c r="A144" s="3" t="s">
         <v>301</v>
       </c>
@@ -6055,7 +6058,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="47.25">
+    <row r="145" spans="1:2" ht="46.8">
       <c r="A145" s="3" t="s">
         <v>303</v>
       </c>
@@ -6063,7 +6066,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="47.25">
+    <row r="146" spans="1:2" ht="46.8">
       <c r="A146" s="3" t="s">
         <v>305</v>
       </c>
@@ -6087,7 +6090,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="47.25">
+    <row r="149" spans="1:2" ht="46.8">
       <c r="A149" s="3" t="s">
         <v>311</v>
       </c>
@@ -6103,7 +6106,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="63">
+    <row r="151" spans="1:2" ht="62.4">
       <c r="A151" s="3" t="s">
         <v>315</v>
       </c>
@@ -6111,7 +6114,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="31.5">
+    <row r="152" spans="1:2" ht="31.2">
       <c r="A152" s="3" t="s">
         <v>317</v>
       </c>
@@ -6119,7 +6122,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="31.5">
+    <row r="153" spans="1:2" ht="31.2">
       <c r="A153" s="3" t="s">
         <v>319</v>
       </c>
@@ -6183,7 +6186,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="31.5">
+    <row r="161" spans="1:2" ht="31.2">
       <c r="A161" s="3" t="s">
         <v>327</v>
       </c>
@@ -6199,7 +6202,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="31.5">
+    <row r="163" spans="1:2" ht="31.2">
       <c r="A163" s="3" t="s">
         <v>329</v>
       </c>
@@ -6207,7 +6210,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="31.5">
+    <row r="164" spans="1:2" ht="31.2">
       <c r="A164" s="3" t="s">
         <v>330</v>
       </c>
@@ -6215,7 +6218,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="47.25">
+    <row r="165" spans="1:2" ht="46.8">
       <c r="A165" s="3" t="s">
         <v>332</v>
       </c>
@@ -6239,7 +6242,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="31.5">
+    <row r="168" spans="1:2" ht="31.2">
       <c r="A168" s="3" t="s">
         <v>336</v>
       </c>
@@ -6255,7 +6258,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="63">
+    <row r="170" spans="1:2" ht="62.4">
       <c r="A170" s="3" t="s">
         <v>340</v>
       </c>
@@ -6263,7 +6266,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="31.5">
+    <row r="171" spans="1:2" ht="31.2">
       <c r="A171" s="3" t="s">
         <v>341</v>
       </c>
@@ -6271,7 +6274,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="31.5">
+    <row r="172" spans="1:2" ht="31.2">
       <c r="A172" s="3" t="s">
         <v>342</v>
       </c>
@@ -6367,7 +6370,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="47.25">
+    <row r="184" spans="1:2" ht="46.8">
       <c r="A184" s="3" t="s">
         <v>332</v>
       </c>
@@ -6383,7 +6386,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" ht="31.2">
       <c r="A186" s="3" t="s">
         <v>358</v>
       </c>
@@ -6391,7 +6394,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="31.5">
+    <row r="187" spans="1:2" ht="31.2">
       <c r="A187" s="3" t="s">
         <v>360</v>
       </c>
@@ -6407,7 +6410,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="63">
+    <row r="189" spans="1:2" ht="62.4">
       <c r="A189" s="3" t="s">
         <v>363</v>
       </c>
@@ -6415,7 +6418,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="31.5">
+    <row r="190" spans="1:2" ht="31.2">
       <c r="A190" s="3" t="s">
         <v>364</v>
       </c>
@@ -6423,7 +6426,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="31.5">
+    <row r="191" spans="1:2" ht="31.2">
       <c r="A191" s="3" t="s">
         <v>365</v>
       </c>
@@ -6471,7 +6474,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="47.25">
+    <row r="197" spans="1:2" ht="46.8">
       <c r="A197" s="3" t="s">
         <v>375</v>
       </c>
@@ -6479,7 +6482,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="47.25">
+    <row r="198" spans="1:2" ht="46.8">
       <c r="A198" s="3" t="s">
         <v>377</v>
       </c>
@@ -6503,7 +6506,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="31.5">
+    <row r="201" spans="1:2" ht="31.2">
       <c r="A201" s="3" t="s">
         <v>382</v>
       </c>
@@ -6511,7 +6514,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="31.5">
+    <row r="202" spans="1:2" ht="31.2">
       <c r="A202" s="3" t="s">
         <v>384</v>
       </c>
@@ -6615,7 +6618,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="31.5">
+    <row r="215" spans="1:2" ht="31.2">
       <c r="A215" s="3" t="s">
         <v>409</v>
       </c>
@@ -6759,7 +6762,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="47.25">
+    <row r="233" spans="1:2" ht="46.8">
       <c r="A233" s="3" t="s">
         <v>432</v>
       </c>
@@ -6775,7 +6778,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="31.5">
+    <row r="235" spans="1:2" ht="31.2">
       <c r="A235" s="3" t="s">
         <v>439</v>
       </c>
@@ -6783,7 +6786,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="31.5">
+    <row r="236" spans="1:2" ht="31.2">
       <c r="A236" s="3" t="s">
         <v>442</v>
       </c>
@@ -6799,7 +6802,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" ht="31.2">
       <c r="A238" s="3" t="s">
         <v>448</v>
       </c>
@@ -6807,7 +6810,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="47.25">
+    <row r="239" spans="1:2" ht="62.4">
       <c r="A239" s="3" t="s">
         <v>451</v>
       </c>
@@ -6815,7 +6818,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="47.25">
+    <row r="240" spans="1:2" ht="46.8">
       <c r="A240" s="3" t="s">
         <v>454</v>
       </c>
@@ -6823,7 +6826,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="78.75">
+    <row r="241" spans="1:2" ht="78">
       <c r="A241" s="3" t="s">
         <v>457</v>
       </c>
@@ -6831,7 +6834,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="47.25">
+    <row r="242" spans="1:2" ht="62.4">
       <c r="A242" s="3" t="s">
         <v>460</v>
       </c>
@@ -6839,7 +6842,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="78.75">
+    <row r="243" spans="1:2" ht="78">
       <c r="A243" s="3" t="s">
         <v>463</v>
       </c>
@@ -6847,7 +6850,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="31.5">
+    <row r="244" spans="1:2" ht="31.2">
       <c r="A244" s="3" t="s">
         <v>466</v>
       </c>
@@ -6871,7 +6874,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="47.25">
+    <row r="247" spans="1:2" ht="46.8">
       <c r="A247" s="3" t="s">
         <v>471</v>
       </c>
@@ -6887,7 +6890,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="31.5">
+    <row r="249" spans="1:2" ht="31.2">
       <c r="A249" s="3" t="s">
         <v>476</v>
       </c>
@@ -6895,7 +6898,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="31.5">
+    <row r="250" spans="1:2" ht="31.2">
       <c r="A250" s="3" t="s">
         <v>478</v>
       </c>
@@ -6911,7 +6914,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" ht="31.2">
       <c r="A252" s="3" t="s">
         <v>481</v>
       </c>
@@ -6927,7 +6930,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="31.5">
+    <row r="254" spans="1:2" ht="31.2">
       <c r="A254" s="3" t="s">
         <v>484</v>
       </c>
@@ -6935,7 +6938,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="31.5">
+    <row r="255" spans="1:2" ht="31.2">
       <c r="A255" s="3" t="s">
         <v>486</v>
       </c>
@@ -6943,7 +6946,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="31.5">
+    <row r="256" spans="1:2" ht="31.2">
       <c r="A256" s="3" t="s">
         <v>489</v>
       </c>
@@ -6951,7 +6954,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="47.25">
+    <row r="257" spans="1:2" ht="46.8">
       <c r="A257" s="3" t="s">
         <v>491</v>
       </c>
@@ -6959,7 +6962,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="47.25">
+    <row r="258" spans="1:2" ht="62.4">
       <c r="A258" s="3" t="s">
         <v>494</v>
       </c>
@@ -6967,7 +6970,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="63">
+    <row r="259" spans="1:2" ht="62.4">
       <c r="A259" s="3" t="s">
         <v>496</v>
       </c>
@@ -6975,7 +6978,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="78.75">
+    <row r="260" spans="1:2" ht="78">
       <c r="A260" s="3" t="s">
         <v>498</v>
       </c>
@@ -6983,7 +6986,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="78.75">
+    <row r="261" spans="1:2" ht="78">
       <c r="A261" s="3" t="s">
         <v>500</v>
       </c>
@@ -6991,7 +6994,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="47.25">
+    <row r="262" spans="1:2" ht="46.8">
       <c r="A262" s="3" t="s">
         <v>503</v>
       </c>
@@ -7015,7 +7018,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="47.25">
+    <row r="265" spans="1:2" ht="46.8">
       <c r="A265" s="3" t="s">
         <v>507</v>
       </c>
@@ -7031,7 +7034,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="31.5">
+    <row r="267" spans="1:2" ht="31.2">
       <c r="A267" s="3" t="s">
         <v>509</v>
       </c>
@@ -7039,7 +7042,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="31.5">
+    <row r="268" spans="1:2" ht="31.2">
       <c r="A268" s="3" t="s">
         <v>510</v>
       </c>
@@ -7055,7 +7058,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" ht="31.2">
       <c r="A270" s="3" t="s">
         <v>512</v>
       </c>
@@ -7071,7 +7074,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="31.5">
+    <row r="272" spans="1:2" ht="31.2">
       <c r="A272" s="3" t="s">
         <v>514</v>
       </c>
@@ -7079,7 +7082,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="31.5">
+    <row r="273" spans="1:2" ht="31.2">
       <c r="A273" s="3" t="s">
         <v>515</v>
       </c>
@@ -7087,7 +7090,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="31.5">
+    <row r="274" spans="1:2" ht="31.2">
       <c r="A274" s="3" t="s">
         <v>516</v>
       </c>
@@ -7095,7 +7098,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="47.25">
+    <row r="275" spans="1:2" ht="46.8">
       <c r="A275" s="3" t="s">
         <v>517</v>
       </c>
@@ -7103,7 +7106,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="47.25">
+    <row r="276" spans="1:2" ht="62.4">
       <c r="A276" s="3" t="s">
         <v>518</v>
       </c>
@@ -7111,7 +7114,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="63">
+    <row r="277" spans="1:2" ht="62.4">
       <c r="A277" s="3" t="s">
         <v>519</v>
       </c>
@@ -7119,7 +7122,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="78.75">
+    <row r="278" spans="1:2" ht="78">
       <c r="A278" s="3" t="s">
         <v>520</v>
       </c>
@@ -7127,7 +7130,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="78.75">
+    <row r="279" spans="1:2" ht="78">
       <c r="A279" s="3" t="s">
         <v>521</v>
       </c>
@@ -7135,7 +7138,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="47.25">
+    <row r="280" spans="1:2" ht="46.8">
       <c r="A280" s="3" t="s">
         <v>522</v>
       </c>
@@ -7159,7 +7162,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="31.5">
+    <row r="283" spans="1:2" ht="31.2">
       <c r="A283" s="3" t="s">
         <v>524</v>
       </c>
@@ -7175,7 +7178,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="31.5">
+    <row r="285" spans="1:2" ht="31.2">
       <c r="A285" s="3" t="s">
         <v>528</v>
       </c>
@@ -7199,7 +7202,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="47.25">
+    <row r="288" spans="1:2" ht="46.8">
       <c r="A288" s="3" t="s">
         <v>537</v>
       </c>
@@ -7223,7 +7226,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="78.75">
+    <row r="291" spans="1:2" ht="78">
       <c r="A291" s="3" t="s">
         <v>545</v>
       </c>
@@ -7247,7 +7250,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="47.25">
+    <row r="294" spans="1:2" ht="46.8">
       <c r="A294" s="3" t="s">
         <v>549</v>
       </c>
@@ -7263,7 +7266,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="31.5">
+    <row r="296" spans="1:2" ht="31.2">
       <c r="A296" s="3" t="s">
         <v>551</v>
       </c>
@@ -7271,7 +7274,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="31.5">
+    <row r="297" spans="1:2" ht="31.2">
       <c r="A297" s="3" t="s">
         <v>552</v>
       </c>
@@ -7287,7 +7290,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" ht="31.2">
       <c r="A299" s="3" t="s">
         <v>554</v>
       </c>
@@ -7303,7 +7306,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="31.5">
+    <row r="301" spans="1:2" ht="31.2">
       <c r="A301" s="3" t="s">
         <v>556</v>
       </c>
@@ -7311,7 +7314,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="31.5">
+    <row r="302" spans="1:2" ht="31.2">
       <c r="A302" s="3" t="s">
         <v>557</v>
       </c>
@@ -7319,7 +7322,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="31.5">
+    <row r="303" spans="1:2" ht="31.2">
       <c r="A303" s="3" t="s">
         <v>558</v>
       </c>
@@ -7327,7 +7330,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="47.25">
+    <row r="304" spans="1:2" ht="46.8">
       <c r="A304" s="3" t="s">
         <v>559</v>
       </c>
@@ -7335,7 +7338,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="47.25">
+    <row r="305" spans="1:2" ht="62.4">
       <c r="A305" s="3" t="s">
         <v>560</v>
       </c>
@@ -7343,7 +7346,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="63">
+    <row r="306" spans="1:2" ht="62.4">
       <c r="A306" s="3" t="s">
         <v>561</v>
       </c>
@@ -7351,7 +7354,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="78.75">
+    <row r="307" spans="1:2" ht="78">
       <c r="A307" s="3" t="s">
         <v>562</v>
       </c>
@@ -7359,7 +7362,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="78.75">
+    <row r="308" spans="1:2" ht="78">
       <c r="A308" s="3" t="s">
         <v>563</v>
       </c>
@@ -7367,7 +7370,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="47.25">
+    <row r="309" spans="1:2" ht="46.8">
       <c r="A309" s="3" t="s">
         <v>564</v>
       </c>
@@ -7399,7 +7402,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="94.5">
+    <row r="313" spans="1:2" ht="93.6">
       <c r="A313" s="3" t="s">
         <v>566</v>
       </c>
@@ -7407,7 +7410,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="31.5">
+    <row r="314" spans="1:2" ht="31.2">
       <c r="A314" s="3" t="s">
         <v>569</v>
       </c>
@@ -7455,7 +7458,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="31.5">
+    <row r="320" spans="1:2" ht="31.2">
       <c r="A320" s="3" t="s">
         <v>584</v>
       </c>
@@ -7487,7 +7490,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="31.5">
+    <row r="324" spans="1:2" ht="46.8">
       <c r="A324" s="3" t="s">
         <v>595</v>
       </c>
@@ -7503,7 +7506,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="31.5">
+    <row r="326" spans="1:2" ht="31.2">
       <c r="A326" s="3" t="s">
         <v>601</v>
       </c>
@@ -7519,7 +7522,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="63">
+    <row r="328" spans="1:2" ht="62.4">
       <c r="A328" s="3" t="s">
         <v>607</v>
       </c>
@@ -7527,7 +7530,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="47.25">
+    <row r="329" spans="1:2" ht="46.8">
       <c r="A329" s="3" t="s">
         <v>609</v>
       </c>
@@ -7543,7 +7546,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="31.5">
+    <row r="331" spans="1:2" ht="31.2">
       <c r="A331" s="3" t="s">
         <v>613</v>
       </c>
@@ -7551,7 +7554,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="31.5">
+    <row r="332" spans="1:2" ht="31.2">
       <c r="A332" s="3" t="s">
         <v>616</v>
       </c>
@@ -7607,7 +7610,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="31.5">
+    <row r="339" spans="1:2" ht="31.2">
       <c r="A339" s="3" t="s">
         <v>630</v>
       </c>
@@ -7647,7 +7650,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="94.5">
+    <row r="344" spans="1:2" ht="93.6">
       <c r="A344" s="3" t="s">
         <v>638</v>
       </c>
@@ -7655,7 +7658,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="31.5">
+    <row r="345" spans="1:2" ht="31.2">
       <c r="A345" s="3" t="s">
         <v>639</v>
       </c>
@@ -7703,7 +7706,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="31.5">
+    <row r="351" spans="1:2" ht="31.2">
       <c r="A351" s="3" t="s">
         <v>652</v>
       </c>
@@ -7711,7 +7714,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="31.5">
+    <row r="352" spans="1:2" ht="31.2">
       <c r="A352" s="3" t="s">
         <v>654</v>
       </c>
@@ -7719,7 +7722,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="31.5">
+    <row r="353" spans="1:2" ht="31.2">
       <c r="A353" s="3" t="s">
         <v>656</v>
       </c>
@@ -7727,7 +7730,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="31.5">
+    <row r="354" spans="1:2" ht="46.8">
       <c r="A354" s="3" t="s">
         <v>658</v>
       </c>
@@ -7783,7 +7786,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="31.5">
+    <row r="361" spans="1:2" ht="31.2">
       <c r="A361" s="3" t="s">
         <v>667</v>
       </c>
@@ -7823,7 +7826,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="78.75">
+    <row r="366" spans="1:2" ht="78">
       <c r="A366" s="3" t="s">
         <v>671</v>
       </c>
@@ -7831,7 +7834,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="31.5">
+    <row r="367" spans="1:2" ht="31.2">
       <c r="A367" s="3" t="s">
         <v>673</v>
       </c>
@@ -7863,7 +7866,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="31.5">
+    <row r="371" spans="1:2" ht="31.2">
       <c r="A371" s="3" t="s">
         <v>679</v>
       </c>
@@ -7871,7 +7874,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="31.5">
+    <row r="372" spans="1:2" ht="31.2">
       <c r="A372" s="3" t="s">
         <v>682</v>
       </c>
@@ -7887,7 +7890,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="31.5">
+    <row r="374" spans="1:2" ht="31.2">
       <c r="A374" s="3" t="s">
         <v>687</v>
       </c>
@@ -7895,7 +7898,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="31.5">
+    <row r="375" spans="1:2" ht="31.2">
       <c r="A375" s="3" t="s">
         <v>689</v>
       </c>
@@ -7903,7 +7906,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="31.5">
+    <row r="376" spans="1:2" ht="46.8">
       <c r="A376" s="3" t="s">
         <v>691</v>
       </c>
@@ -7959,7 +7962,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="31.5">
+    <row r="383" spans="1:2" ht="31.2">
       <c r="A383" s="3" t="s">
         <v>698</v>
       </c>
@@ -7999,7 +8002,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="78.75">
+    <row r="388" spans="1:2" ht="78">
       <c r="A388" s="3" t="s">
         <v>702</v>
       </c>
@@ -8007,7 +8010,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="31.5">
+    <row r="389" spans="1:2" ht="31.2">
       <c r="A389" s="3" t="s">
         <v>703</v>
       </c>
@@ -8063,7 +8066,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="396" spans="1:2" ht="31.5">
+    <row r="396" spans="1:2" ht="31.2">
       <c r="A396" s="3" t="s">
         <v>714</v>
       </c>
@@ -8087,7 +8090,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="399" spans="1:2" ht="31.5">
+    <row r="399" spans="1:2" ht="31.2">
       <c r="A399" s="3" t="s">
         <v>722</v>
       </c>
@@ -8127,7 +8130,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="404" spans="1:2" ht="31.5">
+    <row r="404" spans="1:2" ht="31.2">
       <c r="A404" s="3" t="s">
         <v>732</v>
       </c>
@@ -8151,7 +8154,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="407" spans="1:2" ht="31.5">
+    <row r="407" spans="1:2" ht="31.2">
       <c r="A407" s="3" t="s">
         <v>735</v>
       </c>
@@ -8167,7 +8170,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="409" spans="1:2" ht="63">
+    <row r="409" spans="1:2" ht="62.4">
       <c r="A409" s="3" t="s">
         <v>737</v>
       </c>
@@ -8175,7 +8178,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="410" spans="1:2" ht="47.25">
+    <row r="410" spans="1:2" ht="46.8">
       <c r="A410" s="3" t="s">
         <v>739</v>
       </c>
@@ -8191,7 +8194,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="412" spans="1:2" ht="31.5">
+    <row r="412" spans="1:2" ht="31.2">
       <c r="A412" s="3" t="s">
         <v>742</v>
       </c>
@@ -8247,7 +8250,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="419" spans="1:2" ht="31.5">
+    <row r="419" spans="1:2" ht="31.2">
       <c r="A419" s="3" t="s">
         <v>749</v>
       </c>
@@ -8343,7 +8346,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="431" spans="1:2" ht="78.75">
+    <row r="431" spans="1:2" ht="78">
       <c r="A431" s="3" t="s">
         <v>758</v>
       </c>
@@ -8351,7 +8354,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="432" spans="1:2" ht="31.5">
+    <row r="432" spans="1:2" ht="31.2">
       <c r="A432" s="3" t="s">
         <v>759</v>
       </c>
@@ -8407,7 +8410,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="439" spans="1:2" ht="31.5">
+    <row r="439" spans="1:2" ht="31.2">
       <c r="A439" s="3" t="s">
         <v>768</v>
       </c>
@@ -8415,7 +8418,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="440" spans="1:2" ht="47.25">
+    <row r="440" spans="1:2" ht="46.8">
       <c r="A440" s="3" t="s">
         <v>770</v>
       </c>
@@ -8479,7 +8482,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="448" spans="1:2" ht="31.5">
+    <row r="448" spans="1:2" ht="31.2">
       <c r="A448" s="3" t="s">
         <v>779</v>
       </c>
@@ -8518,25 +8521,25 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A154" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="D164" sqref="D164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.875" style="52" customWidth="1"/>
+    <col min="1" max="1" width="17.8984375" style="52" customWidth="1"/>
     <col min="2" max="2" width="12" style="50" customWidth="1"/>
     <col min="3" max="3" width="91.5" style="50" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="50" customWidth="1"/>
-    <col min="5" max="5" width="155.375" style="50" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="62.75" style="50" customWidth="1"/>
-    <col min="7" max="7" width="84.625" style="50" customWidth="1"/>
+    <col min="4" max="4" width="20.3984375" style="50" customWidth="1"/>
+    <col min="5" max="5" width="155.3984375" style="50" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="62.69921875" style="50" customWidth="1"/>
+    <col min="7" max="7" width="84.59765625" style="50" customWidth="1"/>
     <col min="8" max="8" width="9" style="51"/>
     <col min="9" max="1027" width="8.5" style="34" customWidth="1"/>
     <col min="1028" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="54" customFormat="1" ht="15.75">
+    <row r="1" spans="1:8" s="54" customFormat="1" ht="15.6">
       <c r="A1" s="33" t="s">
         <v>52</v>
       </c>
@@ -8560,7 +8563,7 @@
       </c>
       <c r="H1" s="53"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75">
+    <row r="2" spans="1:8" ht="15.6">
       <c r="A2" s="35" t="s">
         <v>58</v>
       </c>
@@ -11466,7 +11469,7 @@
       <c r="F157" s="37"/>
       <c r="G157" s="41"/>
     </row>
-    <row r="158" spans="1:8" ht="15.75">
+    <row r="158" spans="1:8" ht="15.6">
       <c r="A158" s="65" t="s">
         <v>58</v>
       </c>
@@ -11754,7 +11757,7 @@
       <c r="F174" s="40"/>
       <c r="G174" s="38"/>
     </row>
-    <row r="175" spans="1:7" ht="30">
+    <row r="175" spans="1:7" ht="45">
       <c r="A175" s="38" t="s">
         <v>58</v>
       </c>
@@ -12075,7 +12078,7 @@
       <c r="F193" s="40"/>
       <c r="G193" s="38"/>
     </row>
-    <row r="194" spans="1:7" ht="30">
+    <row r="194" spans="1:7" ht="45">
       <c r="A194" s="38" t="s">
         <v>58</v>
       </c>
@@ -12396,7 +12399,7 @@
       <c r="F212" s="40"/>
       <c r="G212" s="38"/>
     </row>
-    <row r="213" spans="1:7" ht="30">
+    <row r="213" spans="1:7" ht="45">
       <c r="A213" s="38" t="s">
         <v>58</v>
       </c>
@@ -13074,7 +13077,7 @@
       <c r="F252" s="38"/>
       <c r="G252" s="38"/>
     </row>
-    <row r="253" spans="1:7" ht="15.75">
+    <row r="253" spans="1:7" ht="15.6">
       <c r="A253" s="38" t="s">
         <v>58</v>
       </c>
@@ -14443,7 +14446,7 @@
       <c r="F333" s="38"/>
       <c r="G333" s="38"/>
     </row>
-    <row r="334" spans="1:7" ht="15.75">
+    <row r="334" spans="1:7" ht="15.6">
       <c r="A334" s="38" t="s">
         <v>58</v>
       </c>
@@ -17036,14 +17039,14 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="10.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="45.125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="81.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="45.09765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" style="4" customWidth="1"/>
+    <col min="4" max="5" width="81.3984375" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="1025" width="8.875" style="4" customWidth="1"/>
+    <col min="8" max="1025" width="8.8984375" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
@@ -17127,7 +17130,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="126">
+    <row r="5" spans="1:7" ht="140.4">
       <c r="A5" s="3" t="s">
         <v>71</v>
       </c>
@@ -17181,20 +17184,20 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="10.5" style="29" customWidth="1"/>
     <col min="2" max="2" width="68.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="23.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.8984375" style="4" customWidth="1"/>
     <col min="4" max="4" width="100" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="22.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6.09765625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="22.8984375" style="4" customWidth="1"/>
     <col min="7" max="7" width="20" style="4" customWidth="1"/>
-    <col min="8" max="1025" width="8.875" style="4" customWidth="1"/>
+    <col min="8" max="1025" width="8.8984375" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" s="24" customFormat="1" ht="31.5">
+    <row r="1" spans="1:1025" s="24" customFormat="1" ht="46.8">
       <c r="A1" s="8" t="s">
         <v>782</v>
       </c>
@@ -18349,7 +18352,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:1025" ht="31.5">
+    <row r="8" spans="1:1025" ht="31.2">
       <c r="A8" s="3" t="s">
         <v>810</v>
       </c>
@@ -18520,7 +18523,7 @@
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="47.25">
+    <row r="17" spans="1:7" ht="46.8">
       <c r="A17" s="3" t="s">
         <v>125</v>
       </c>
@@ -18902,7 +18905,7 @@
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="63">
+    <row r="37" spans="1:7" ht="78">
       <c r="A37" s="3" t="s">
         <v>257</v>
       </c>
@@ -18923,7 +18926,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="31.5">
+    <row r="38" spans="1:7" ht="31.2">
       <c r="A38" s="3" t="s">
         <v>526</v>
       </c>
@@ -18999,7 +19002,7 @@
       </c>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" ht="47.25">
+    <row r="42" spans="1:7" ht="46.8">
       <c r="A42" s="3" t="s">
         <v>274</v>
       </c>
@@ -19283,19 +19286,19 @@
       <selection sqref="A1:D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="29" customWidth="1"/>
-    <col min="2" max="2" width="47.375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="4" customWidth="1"/>
-    <col min="4" max="5" width="80.875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.8984375" style="29" customWidth="1"/>
+    <col min="2" max="2" width="47.3984375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.8984375" style="4" customWidth="1"/>
+    <col min="4" max="5" width="80.8984375" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="19" customWidth="1"/>
+    <col min="8" max="256" width="8.8984375" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="24" customFormat="1" ht="30.95" customHeight="1">
+    <row r="1" spans="1:256" s="24" customFormat="1" ht="30.9" customHeight="1">
       <c r="A1" s="69" t="s">
         <v>782</v>
       </c>
@@ -20289,7 +20292,7 @@
       </c>
       <c r="G39" s="30"/>
     </row>
-    <row r="40" spans="1:7" ht="30.95" customHeight="1">
+    <row r="40" spans="1:7" ht="30.9" customHeight="1">
       <c r="A40" s="69" t="s">
         <v>950</v>
       </c>
@@ -20342,7 +20345,7 @@
       <c r="F42" s="30"/>
       <c r="G42" s="30"/>
     </row>
-    <row r="43" spans="1:7" ht="30.95" customHeight="1">
+    <row r="43" spans="1:7" ht="30.9" customHeight="1">
       <c r="A43" s="69" t="s">
         <v>960</v>
       </c>
@@ -20450,7 +20453,7 @@
       <c r="F48" s="30"/>
       <c r="G48" s="30"/>
     </row>
-    <row r="49" spans="1:256" s="57" customFormat="1" ht="31.5">
+    <row r="49" spans="1:256" s="57" customFormat="1" ht="31.2">
       <c r="A49" s="68" t="s">
         <v>981</v>
       </c>
@@ -20749,17 +20752,17 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="10.5" style="29" customWidth="1"/>
     <col min="2" max="2" width="33.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="44.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="41.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="44.3984375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="41.3984375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.59765625" style="4" customWidth="1"/>
     <col min="7" max="7" width="29" style="4" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="19" customWidth="1"/>
+    <col min="8" max="256" width="8.8984375" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
@@ -21461,7 +21464,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" ht="31.5">
+    <row r="24" spans="1:7" ht="31.2">
       <c r="A24" s="32" t="s">
         <v>1150</v>
       </c>
@@ -21478,7 +21481,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
     </row>
-    <row r="25" spans="1:7" ht="47.25">
+    <row r="25" spans="1:7" ht="46.8">
       <c r="A25" s="32" t="s">
         <v>1154</v>
       </c>
@@ -21495,7 +21498,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
     </row>
-    <row r="26" spans="1:7" ht="31.5">
+    <row r="26" spans="1:7" ht="31.2">
       <c r="A26" s="32" t="s">
         <v>1156</v>
       </c>
@@ -21512,7 +21515,7 @@
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
     </row>
-    <row r="27" spans="1:7" ht="47.25">
+    <row r="27" spans="1:7" ht="46.8">
       <c r="A27" s="32" t="s">
         <v>1159</v>
       </c>
@@ -21529,7 +21532,7 @@
       <c r="F27" s="32"/>
       <c r="G27" s="32"/>
     </row>
-    <row r="28" spans="1:7" ht="47.25">
+    <row r="28" spans="1:7" ht="46.8">
       <c r="A28" s="32" t="s">
         <v>1162</v>
       </c>
@@ -21546,7 +21549,7 @@
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
     </row>
-    <row r="29" spans="1:7" ht="31.5">
+    <row r="29" spans="1:7" ht="46.8">
       <c r="A29" s="32" t="s">
         <v>1165</v>
       </c>
@@ -21563,7 +21566,7 @@
       <c r="F29" s="32"/>
       <c r="G29" s="32"/>
     </row>
-    <row r="30" spans="1:7" ht="47.25">
+    <row r="30" spans="1:7" ht="46.8">
       <c r="A30" s="32" t="s">
         <v>1168</v>
       </c>
@@ -21598,16 +21601,16 @@
       <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="54.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="75.625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="132.375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.8984375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="54.59765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.8984375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="75.59765625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="132.3984375" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="19" customWidth="1"/>
+    <col min="8" max="256" width="8.8984375" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
@@ -21921,7 +21924,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:256" ht="63">
+    <row r="4" spans="1:256" ht="62.4">
       <c r="A4" s="5" t="s">
         <v>1034</v>
       </c>
@@ -21954,19 +21957,21 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="10.5" style="25" customWidth="1"/>
-    <col min="2" max="2" width="53.375" style="20" customWidth="1"/>
+    <col min="2" max="2" width="53.3984375" style="20" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="20" customWidth="1"/>
     <col min="4" max="4" width="44.5" style="20" customWidth="1"/>
-    <col min="5" max="5" width="31.875" style="20" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="31.8984375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" style="20" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="20" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="20" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="21" customWidth="1"/>
+    <col min="8" max="256" width="8.8984375" style="20" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="21" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
@@ -22602,7 +22607,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="31.5">
+    <row r="20" spans="1:7" ht="31.2">
       <c r="A20" s="30" t="s">
         <v>721</v>
       </c>
@@ -22623,7 +22628,7 @@
       </c>
       <c r="G20" s="30"/>
     </row>
-    <row r="21" spans="1:7" ht="47.25">
+    <row r="21" spans="1:7" ht="46.8">
       <c r="A21" s="30" t="s">
         <v>724</v>
       </c>
@@ -22637,7 +22642,7 @@
         <v>1079</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>1080</v>
+        <v>1307</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>790</v>
@@ -22669,7 +22674,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="31.5">
+    <row r="23" spans="1:7" ht="31.2">
       <c r="A23" s="30" t="s">
         <v>1106</v>
       </c>
@@ -22722,7 +22727,7 @@
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
     </row>
-    <row r="26" spans="1:7" ht="31.5">
+    <row r="26" spans="1:7" ht="31.2">
       <c r="A26" s="30" t="s">
         <v>1101</v>
       </c>
@@ -22772,16 +22777,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="19" style="22" customWidth="1"/>
-    <col min="2" max="2" width="53.375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="53.3984375" style="19" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="19" customWidth="1"/>
     <col min="4" max="4" width="25" style="19" customWidth="1"/>
     <col min="5" max="5" width="46" style="19" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="19" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" style="19" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="19" customWidth="1"/>
-    <col min="8" max="1025" width="8.875" style="19" customWidth="1"/>
+    <col min="8" max="1025" width="8.8984375" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>

--- a/conformancelib/testdata/85b_test_definitions_PIV_Production_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV_Production_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geoff\gsa-devel\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67087880-851A-45E3-8C76-6D3D5448D321}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CEAC3F7-CA29-4A8D-BFF7-4BB93944E322}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,9 @@
     <sheet name="PKIX" sheetId="8" r:id="rId8"/>
     <sheet name="Placeholders" sheetId="9" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Steps Overview'!$D$1:$D$471</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -8518,11 +8521,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet2"/>
+  <sheetPr codeName="Sheet2" filterMode="1"/>
   <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D164" sqref="D164"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D423" sqref="D423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -8563,7 +8566,7 @@
       </c>
       <c r="H1" s="53"/>
     </row>
-    <row r="2" spans="1:8" ht="15.6">
+    <row r="2" spans="1:8" ht="15.6" hidden="1">
       <c r="A2" s="35" t="s">
         <v>58</v>
       </c>
@@ -8578,7 +8581,7 @@
       <c r="F2" s="37"/>
       <c r="G2" s="36"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" hidden="1">
       <c r="A3" s="38" t="s">
         <v>58</v>
       </c>
@@ -8593,7 +8596,7 @@
       <c r="F3" s="37"/>
       <c r="G3" s="37"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" hidden="1">
       <c r="A4" s="38" t="s">
         <v>58</v>
       </c>
@@ -8608,7 +8611,7 @@
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
     </row>
-    <row r="5" spans="1:8" ht="30">
+    <row r="5" spans="1:8" ht="30" hidden="1">
       <c r="A5" s="38" t="s">
         <v>58</v>
       </c>
@@ -8629,7 +8632,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" hidden="1">
       <c r="A6" s="38" t="s">
         <v>58</v>
       </c>
@@ -8648,7 +8651,7 @@
       </c>
       <c r="G6" s="38"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" hidden="1">
       <c r="A7" s="38" t="s">
         <v>58</v>
       </c>
@@ -8667,7 +8670,7 @@
       </c>
       <c r="G7" s="38"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" hidden="1">
       <c r="A8" s="38" t="s">
         <v>58</v>
       </c>
@@ -8686,7 +8689,7 @@
       </c>
       <c r="G8" s="38"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" hidden="1">
       <c r="A9" s="38" t="s">
         <v>58</v>
       </c>
@@ -8705,7 +8708,7 @@
       </c>
       <c r="G9" s="38"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" hidden="1">
       <c r="A10" s="38" t="s">
         <v>58</v>
       </c>
@@ -8724,7 +8727,7 @@
       </c>
       <c r="G10" s="38"/>
     </row>
-    <row r="11" spans="1:8" ht="30">
+    <row r="11" spans="1:8" ht="30" hidden="1">
       <c r="A11" s="38" t="s">
         <v>58</v>
       </c>
@@ -8743,7 +8746,7 @@
       </c>
       <c r="G11" s="38"/>
     </row>
-    <row r="12" spans="1:8" ht="30">
+    <row r="12" spans="1:8" ht="30" hidden="1">
       <c r="A12" s="38" t="s">
         <v>58</v>
       </c>
@@ -8762,7 +8765,7 @@
       </c>
       <c r="G12" s="38"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" hidden="1">
       <c r="A13" s="38" t="s">
         <v>58</v>
       </c>
@@ -8781,7 +8784,7 @@
       </c>
       <c r="G13" s="38"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" hidden="1">
       <c r="A14" s="38" t="s">
         <v>58</v>
       </c>
@@ -8800,7 +8803,7 @@
       </c>
       <c r="G14" s="38"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" hidden="1">
       <c r="A15" s="38" t="s">
         <v>58</v>
       </c>
@@ -8819,7 +8822,7 @@
       </c>
       <c r="G15" s="38"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" hidden="1">
       <c r="A16" s="38" t="s">
         <v>58</v>
       </c>
@@ -8834,7 +8837,7 @@
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" hidden="1">
       <c r="A17" s="38" t="s">
         <v>58</v>
       </c>
@@ -8849,7 +8852,7 @@
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
     </row>
-    <row r="18" spans="1:7" ht="30">
+    <row r="18" spans="1:7" ht="30" hidden="1">
       <c r="A18" s="38" t="s">
         <v>58</v>
       </c>
@@ -8870,7 +8873,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" hidden="1">
       <c r="A19" s="38" t="s">
         <v>58</v>
       </c>
@@ -8889,7 +8892,7 @@
       </c>
       <c r="G19" s="38"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" hidden="1">
       <c r="A20" s="38" t="s">
         <v>58</v>
       </c>
@@ -8908,7 +8911,7 @@
       </c>
       <c r="G20" s="38"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" hidden="1">
       <c r="A21" s="38" t="s">
         <v>58</v>
       </c>
@@ -8927,7 +8930,7 @@
       </c>
       <c r="G21" s="38"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" hidden="1">
       <c r="A22" s="38" t="s">
         <v>58</v>
       </c>
@@ -8946,7 +8949,7 @@
       </c>
       <c r="G22" s="38"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" hidden="1">
       <c r="A23" s="38" t="s">
         <v>58</v>
       </c>
@@ -8965,7 +8968,7 @@
       </c>
       <c r="G23" s="38"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" hidden="1">
       <c r="A24" s="39" t="s">
         <v>58</v>
       </c>
@@ -8984,7 +8987,7 @@
       </c>
       <c r="G24" s="39"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" hidden="1">
       <c r="A25" s="38" t="s">
         <v>58</v>
       </c>
@@ -9003,7 +9006,7 @@
       </c>
       <c r="G25" s="38"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" hidden="1">
       <c r="A26" s="38" t="s">
         <v>58</v>
       </c>
@@ -9022,7 +9025,7 @@
       </c>
       <c r="G26" s="38"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" hidden="1">
       <c r="A27" s="39" t="s">
         <v>58</v>
       </c>
@@ -9041,7 +9044,7 @@
       </c>
       <c r="G27" s="39"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" hidden="1">
       <c r="A28" s="39" t="s">
         <v>58</v>
       </c>
@@ -9060,7 +9063,7 @@
       </c>
       <c r="G28" s="39"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" hidden="1">
       <c r="A29" s="39" t="s">
         <v>58</v>
       </c>
@@ -9079,7 +9082,7 @@
       </c>
       <c r="G29" s="39"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" hidden="1">
       <c r="A30" s="39"/>
       <c r="B30" s="39" t="s">
         <v>1214</v>
@@ -9096,7 +9099,7 @@
       </c>
       <c r="G30" s="39"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" hidden="1">
       <c r="A31" s="38" t="s">
         <v>58</v>
       </c>
@@ -9115,7 +9118,7 @@
       </c>
       <c r="G31" s="38"/>
     </row>
-    <row r="32" spans="1:7" ht="30">
+    <row r="32" spans="1:7" ht="30" hidden="1">
       <c r="A32" s="38" t="s">
         <v>58</v>
       </c>
@@ -9134,7 +9137,7 @@
       </c>
       <c r="G32" s="38"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" hidden="1">
       <c r="A33" s="39" t="s">
         <v>58</v>
       </c>
@@ -9153,7 +9156,7 @@
       </c>
       <c r="G33" s="39"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" hidden="1">
       <c r="A34" s="39" t="s">
         <v>58</v>
       </c>
@@ -9172,7 +9175,7 @@
       </c>
       <c r="G34" s="39"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" hidden="1">
       <c r="A35" s="39" t="s">
         <v>58</v>
       </c>
@@ -9191,7 +9194,7 @@
       </c>
       <c r="G35" s="39"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" hidden="1">
       <c r="A36" s="39" t="s">
         <v>58</v>
       </c>
@@ -9210,7 +9213,7 @@
       </c>
       <c r="G36" s="39"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" hidden="1">
       <c r="A37" s="38" t="s">
         <v>58</v>
       </c>
@@ -9229,7 +9232,7 @@
       </c>
       <c r="G37" s="38"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" hidden="1">
       <c r="A38" s="38" t="s">
         <v>58</v>
       </c>
@@ -9248,7 +9251,7 @@
       </c>
       <c r="G38" s="38"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" hidden="1">
       <c r="A39" s="38" t="s">
         <v>58</v>
       </c>
@@ -9267,7 +9270,7 @@
       </c>
       <c r="G39" s="38"/>
     </row>
-    <row r="40" spans="1:7" ht="30">
+    <row r="40" spans="1:7" ht="30" hidden="1">
       <c r="A40" s="38" t="s">
         <v>58</v>
       </c>
@@ -9286,7 +9289,7 @@
       </c>
       <c r="G40" s="38"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" hidden="1">
       <c r="A41" s="38" t="s">
         <v>58</v>
       </c>
@@ -9305,7 +9308,7 @@
       </c>
       <c r="G41" s="38"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" hidden="1">
       <c r="A42" s="38" t="s">
         <v>131</v>
       </c>
@@ -9324,7 +9327,7 @@
       </c>
       <c r="G42" s="38"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" hidden="1">
       <c r="A43" s="38" t="s">
         <v>58</v>
       </c>
@@ -9339,7 +9342,7 @@
       <c r="F43" s="37"/>
       <c r="G43" s="37"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" hidden="1">
       <c r="A44" s="38" t="s">
         <v>58</v>
       </c>
@@ -9354,7 +9357,7 @@
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
     </row>
-    <row r="45" spans="1:7" ht="30">
+    <row r="45" spans="1:7" ht="30" hidden="1">
       <c r="A45" s="38" t="s">
         <v>58</v>
       </c>
@@ -9375,7 +9378,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" hidden="1">
       <c r="A46" s="38" t="s">
         <v>58</v>
       </c>
@@ -9394,7 +9397,7 @@
       </c>
       <c r="G46" s="38"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" hidden="1">
       <c r="A47" s="38" t="s">
         <v>58</v>
       </c>
@@ -9413,7 +9416,7 @@
       </c>
       <c r="G47" s="38"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" hidden="1">
       <c r="A48" s="38" t="s">
         <v>58</v>
       </c>
@@ -9432,7 +9435,7 @@
       </c>
       <c r="G48" s="38"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" hidden="1">
       <c r="A49" s="38" t="s">
         <v>58</v>
       </c>
@@ -9451,7 +9454,7 @@
       </c>
       <c r="G49" s="38"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" hidden="1">
       <c r="A50" s="38" t="s">
         <v>58</v>
       </c>
@@ -9470,7 +9473,7 @@
       </c>
       <c r="G50" s="38"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" hidden="1">
       <c r="A51" s="38" t="s">
         <v>58</v>
       </c>
@@ -9489,7 +9492,7 @@
       </c>
       <c r="G51" s="38"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" hidden="1">
       <c r="A52" s="38" t="s">
         <v>58</v>
       </c>
@@ -9508,7 +9511,7 @@
       </c>
       <c r="G52" s="38"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" hidden="1">
       <c r="A53" s="38" t="s">
         <v>58</v>
       </c>
@@ -9527,7 +9530,7 @@
       </c>
       <c r="G53" s="38"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" hidden="1">
       <c r="A54" s="38" t="s">
         <v>131</v>
       </c>
@@ -9546,7 +9549,7 @@
       </c>
       <c r="G54" s="38"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" hidden="1">
       <c r="A55" s="38" t="s">
         <v>58</v>
       </c>
@@ -9561,7 +9564,7 @@
       <c r="F55" s="37"/>
       <c r="G55" s="37"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" hidden="1">
       <c r="A56" s="38" t="s">
         <v>58</v>
       </c>
@@ -9576,7 +9579,7 @@
       <c r="F56" s="37"/>
       <c r="G56" s="37"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" hidden="1">
       <c r="A57" s="38" t="s">
         <v>58</v>
       </c>
@@ -9597,7 +9600,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" hidden="1">
       <c r="A58" s="38" t="s">
         <v>58</v>
       </c>
@@ -9616,7 +9619,7 @@
       </c>
       <c r="G58" s="38"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" hidden="1">
       <c r="A59" s="38" t="s">
         <v>58</v>
       </c>
@@ -9635,7 +9638,7 @@
       </c>
       <c r="G59" s="38"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" hidden="1">
       <c r="A60" s="38" t="s">
         <v>58</v>
       </c>
@@ -9654,7 +9657,7 @@
       </c>
       <c r="G60" s="38"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" hidden="1">
       <c r="A61" s="38" t="s">
         <v>58</v>
       </c>
@@ -9673,7 +9676,7 @@
       </c>
       <c r="G61" s="38"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" hidden="1">
       <c r="A62" s="38" t="s">
         <v>58</v>
       </c>
@@ -9692,7 +9695,7 @@
       </c>
       <c r="G62" s="38"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" hidden="1">
       <c r="A63" s="38" t="s">
         <v>58</v>
       </c>
@@ -9711,7 +9714,7 @@
       </c>
       <c r="G63" s="38"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" hidden="1">
       <c r="A64" s="38" t="s">
         <v>58</v>
       </c>
@@ -9730,7 +9733,7 @@
       </c>
       <c r="G64" s="38"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" hidden="1">
       <c r="A65" s="38" t="s">
         <v>58</v>
       </c>
@@ -9749,7 +9752,7 @@
       </c>
       <c r="G65" s="38"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" hidden="1">
       <c r="A66" s="38" t="s">
         <v>58</v>
       </c>
@@ -9764,7 +9767,7 @@
       <c r="F66" s="37"/>
       <c r="G66" s="37"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" hidden="1">
       <c r="A67" s="38" t="s">
         <v>58</v>
       </c>
@@ -9779,7 +9782,7 @@
       <c r="F67" s="37"/>
       <c r="G67" s="37"/>
     </row>
-    <row r="68" spans="1:7" ht="30">
+    <row r="68" spans="1:7" ht="30" hidden="1">
       <c r="A68" s="38" t="s">
         <v>58</v>
       </c>
@@ -9800,7 +9803,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" hidden="1">
       <c r="A69" s="38" t="s">
         <v>58</v>
       </c>
@@ -9819,7 +9822,7 @@
       </c>
       <c r="G69" s="38"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" hidden="1">
       <c r="A70" s="38" t="s">
         <v>58</v>
       </c>
@@ -9838,7 +9841,7 @@
       </c>
       <c r="G70" s="38"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" hidden="1">
       <c r="A71" s="38" t="s">
         <v>58</v>
       </c>
@@ -9857,7 +9860,7 @@
       </c>
       <c r="G71" s="38"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" hidden="1">
       <c r="A72" s="38" t="s">
         <v>58</v>
       </c>
@@ -9876,7 +9879,7 @@
       </c>
       <c r="G72" s="38"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" hidden="1">
       <c r="A73" s="38" t="s">
         <v>58</v>
       </c>
@@ -9895,7 +9898,7 @@
       </c>
       <c r="G73" s="38"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" hidden="1">
       <c r="A74" s="39" t="s">
         <v>58</v>
       </c>
@@ -9914,7 +9917,7 @@
       </c>
       <c r="G74" s="39"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" hidden="1">
       <c r="A75" s="39" t="s">
         <v>58</v>
       </c>
@@ -9933,7 +9936,7 @@
       </c>
       <c r="G75" s="39"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" hidden="1">
       <c r="A76" s="38" t="s">
         <v>58</v>
       </c>
@@ -9952,7 +9955,7 @@
       </c>
       <c r="G76" s="38"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" hidden="1">
       <c r="A77" s="38" t="s">
         <v>58</v>
       </c>
@@ -9971,7 +9974,7 @@
       </c>
       <c r="G77" s="38"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" hidden="1">
       <c r="A78" s="38" t="s">
         <v>58</v>
       </c>
@@ -9990,7 +9993,7 @@
       </c>
       <c r="G78" s="38"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" hidden="1">
       <c r="A79" s="38" t="s">
         <v>131</v>
       </c>
@@ -10009,7 +10012,7 @@
       </c>
       <c r="G79" s="38"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" hidden="1">
       <c r="A80" s="38" t="s">
         <v>58</v>
       </c>
@@ -10024,7 +10027,7 @@
       <c r="F80" s="37"/>
       <c r="G80" s="37"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" hidden="1">
       <c r="A81" s="38" t="s">
         <v>58</v>
       </c>
@@ -10039,7 +10042,7 @@
       <c r="F81" s="37"/>
       <c r="G81" s="37"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" hidden="1">
       <c r="A82" s="38" t="s">
         <v>58</v>
       </c>
@@ -10060,7 +10063,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" hidden="1">
       <c r="A83" s="38" t="s">
         <v>58</v>
       </c>
@@ -10079,7 +10082,7 @@
       </c>
       <c r="G83" s="38"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" hidden="1">
       <c r="A84" s="38" t="s">
         <v>58</v>
       </c>
@@ -10098,7 +10101,7 @@
       </c>
       <c r="G84" s="38"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" hidden="1">
       <c r="A85" s="38" t="s">
         <v>58</v>
       </c>
@@ -10117,7 +10120,7 @@
       </c>
       <c r="G85" s="38"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" hidden="1">
       <c r="A86" s="38" t="s">
         <v>58</v>
       </c>
@@ -10136,7 +10139,7 @@
       </c>
       <c r="G86" s="38"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" hidden="1">
       <c r="A87" s="38" t="s">
         <v>58</v>
       </c>
@@ -10155,7 +10158,7 @@
       </c>
       <c r="G87" s="38"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" hidden="1">
       <c r="A88" s="38" t="s">
         <v>58</v>
       </c>
@@ -10174,7 +10177,7 @@
       </c>
       <c r="G88" s="38"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" hidden="1">
       <c r="A89" s="38" t="s">
         <v>131</v>
       </c>
@@ -10193,7 +10196,7 @@
       </c>
       <c r="G89" s="38"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" hidden="1">
       <c r="A90" s="38" t="s">
         <v>58</v>
       </c>
@@ -10208,7 +10211,7 @@
       <c r="F90" s="37"/>
       <c r="G90" s="37"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" hidden="1">
       <c r="A91" s="38" t="s">
         <v>58</v>
       </c>
@@ -10223,7 +10226,7 @@
       <c r="F91" s="37"/>
       <c r="G91" s="37"/>
     </row>
-    <row r="92" spans="1:7" ht="30">
+    <row r="92" spans="1:7" ht="30" hidden="1">
       <c r="A92" s="38" t="s">
         <v>58</v>
       </c>
@@ -10244,7 +10247,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" hidden="1">
       <c r="A93" s="38" t="s">
         <v>58</v>
       </c>
@@ -10263,7 +10266,7 @@
       </c>
       <c r="G93" s="38"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" hidden="1">
       <c r="A94" s="38" t="s">
         <v>58</v>
       </c>
@@ -10282,7 +10285,7 @@
       </c>
       <c r="G94" s="38"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" hidden="1">
       <c r="A95" s="38" t="s">
         <v>58</v>
       </c>
@@ -10301,7 +10304,7 @@
       </c>
       <c r="G95" s="38"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" hidden="1">
       <c r="A96" s="38" t="s">
         <v>58</v>
       </c>
@@ -10320,7 +10323,7 @@
       </c>
       <c r="G96" s="38"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" hidden="1">
       <c r="A97" s="38" t="s">
         <v>58</v>
       </c>
@@ -10339,7 +10342,7 @@
       </c>
       <c r="G97" s="38"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" hidden="1">
       <c r="A98" s="38" t="s">
         <v>58</v>
       </c>
@@ -10358,7 +10361,7 @@
       </c>
       <c r="G98" s="38"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" hidden="1">
       <c r="A99" s="38" t="s">
         <v>58</v>
       </c>
@@ -10377,7 +10380,7 @@
       </c>
       <c r="G99" s="38"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" hidden="1">
       <c r="A100" s="38" t="s">
         <v>58</v>
       </c>
@@ -10396,7 +10399,7 @@
       </c>
       <c r="G100" s="38"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" hidden="1">
       <c r="A101" s="38" t="s">
         <v>131</v>
       </c>
@@ -10415,7 +10418,7 @@
       </c>
       <c r="G101" s="38"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" hidden="1">
       <c r="A102" s="38" t="s">
         <v>58</v>
       </c>
@@ -10430,7 +10433,7 @@
       <c r="F102" s="37"/>
       <c r="G102" s="37"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" hidden="1">
       <c r="A103" s="38" t="s">
         <v>58</v>
       </c>
@@ -10445,7 +10448,7 @@
       <c r="F103" s="37"/>
       <c r="G103" s="37"/>
     </row>
-    <row r="104" spans="1:7" ht="30">
+    <row r="104" spans="1:7" ht="30" hidden="1">
       <c r="A104" s="38" t="s">
         <v>58</v>
       </c>
@@ -10466,7 +10469,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" hidden="1">
       <c r="A105" s="38" t="s">
         <v>58</v>
       </c>
@@ -10485,7 +10488,7 @@
       </c>
       <c r="G105" s="38"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" hidden="1">
       <c r="A106" s="38" t="s">
         <v>58</v>
       </c>
@@ -10504,7 +10507,7 @@
       </c>
       <c r="G106" s="38"/>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" hidden="1">
       <c r="A107" s="38" t="s">
         <v>58</v>
       </c>
@@ -10523,7 +10526,7 @@
       </c>
       <c r="G107" s="38"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" hidden="1">
       <c r="A108" s="38" t="s">
         <v>58</v>
       </c>
@@ -10542,7 +10545,7 @@
       </c>
       <c r="G108" s="38"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" hidden="1">
       <c r="A109" s="38" t="s">
         <v>58</v>
       </c>
@@ -10561,7 +10564,7 @@
       </c>
       <c r="G109" s="38"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" hidden="1">
       <c r="A110" s="38" t="s">
         <v>58</v>
       </c>
@@ -10580,7 +10583,7 @@
       </c>
       <c r="G110" s="38"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" hidden="1">
       <c r="A111" s="38" t="s">
         <v>58</v>
       </c>
@@ -10599,7 +10602,7 @@
       </c>
       <c r="G111" s="38"/>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" hidden="1">
       <c r="A112" s="38" t="s">
         <v>58</v>
       </c>
@@ -10618,7 +10621,7 @@
       </c>
       <c r="G112" s="38"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" hidden="1">
       <c r="A113" s="38" t="s">
         <v>131</v>
       </c>
@@ -10637,7 +10640,7 @@
       </c>
       <c r="G113" s="38"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" hidden="1">
       <c r="A114" s="38" t="s">
         <v>58</v>
       </c>
@@ -10652,7 +10655,7 @@
       <c r="F114" s="37"/>
       <c r="G114" s="37"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" hidden="1">
       <c r="A115" s="38" t="s">
         <v>58</v>
       </c>
@@ -10667,7 +10670,7 @@
       <c r="F115" s="37"/>
       <c r="G115" s="37"/>
     </row>
-    <row r="116" spans="1:7" ht="30">
+    <row r="116" spans="1:7" ht="30" hidden="1">
       <c r="A116" s="38" t="s">
         <v>58</v>
       </c>
@@ -10688,7 +10691,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" hidden="1">
       <c r="A117" s="38" t="s">
         <v>58</v>
       </c>
@@ -10707,7 +10710,7 @@
       </c>
       <c r="G117" s="38"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" hidden="1">
       <c r="A118" s="38" t="s">
         <v>58</v>
       </c>
@@ -10726,7 +10729,7 @@
       </c>
       <c r="G118" s="38"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" hidden="1">
       <c r="A119" s="38" t="s">
         <v>58</v>
       </c>
@@ -10745,7 +10748,7 @@
       </c>
       <c r="G119" s="38"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" hidden="1">
       <c r="A120" s="38" t="s">
         <v>58</v>
       </c>
@@ -10764,7 +10767,7 @@
       </c>
       <c r="G120" s="38"/>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" hidden="1">
       <c r="A121" s="38" t="s">
         <v>58</v>
       </c>
@@ -10783,7 +10786,7 @@
       </c>
       <c r="G121" s="38"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" hidden="1">
       <c r="A122" s="38" t="s">
         <v>58</v>
       </c>
@@ -10802,7 +10805,7 @@
       </c>
       <c r="G122" s="38"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" hidden="1">
       <c r="A123" s="38" t="s">
         <v>58</v>
       </c>
@@ -10821,7 +10824,7 @@
       </c>
       <c r="G123" s="38"/>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" hidden="1">
       <c r="A124" s="38" t="s">
         <v>58</v>
       </c>
@@ -10840,7 +10843,7 @@
       </c>
       <c r="G124" s="38"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" hidden="1">
       <c r="A125" s="38" t="s">
         <v>131</v>
       </c>
@@ -10859,7 +10862,7 @@
       </c>
       <c r="G125" s="38"/>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" hidden="1">
       <c r="A126" s="38" t="s">
         <v>58</v>
       </c>
@@ -10874,7 +10877,7 @@
       <c r="F126" s="37"/>
       <c r="G126" s="37"/>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" hidden="1">
       <c r="A127" s="38" t="s">
         <v>58</v>
       </c>
@@ -10889,7 +10892,7 @@
       <c r="F127" s="37"/>
       <c r="G127" s="37"/>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" hidden="1">
       <c r="A128" s="38" t="s">
         <v>58</v>
       </c>
@@ -10910,7 +10913,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" hidden="1">
       <c r="A129" s="38" t="s">
         <v>58</v>
       </c>
@@ -10929,7 +10932,7 @@
       </c>
       <c r="G129" s="38"/>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" hidden="1">
       <c r="A130" s="38" t="s">
         <v>58</v>
       </c>
@@ -10948,7 +10951,7 @@
       </c>
       <c r="G130" s="38"/>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" hidden="1">
       <c r="A131" s="38" t="s">
         <v>58</v>
       </c>
@@ -10967,7 +10970,7 @@
       </c>
       <c r="G131" s="38"/>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" hidden="1">
       <c r="A132" s="38" t="s">
         <v>58</v>
       </c>
@@ -10986,7 +10989,7 @@
       </c>
       <c r="G132" s="38"/>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" hidden="1">
       <c r="A133" s="38" t="s">
         <v>58</v>
       </c>
@@ -11005,7 +11008,7 @@
       </c>
       <c r="G133" s="38"/>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" hidden="1">
       <c r="A134" s="39" t="s">
         <v>58</v>
       </c>
@@ -11024,7 +11027,7 @@
       </c>
       <c r="G134" s="39"/>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" hidden="1">
       <c r="A135" s="38" t="s">
         <v>58</v>
       </c>
@@ -11043,7 +11046,7 @@
       </c>
       <c r="G135" s="38"/>
     </row>
-    <row r="136" spans="1:7" ht="30">
+    <row r="136" spans="1:7" ht="30" hidden="1">
       <c r="A136" s="38" t="s">
         <v>58</v>
       </c>
@@ -11062,7 +11065,7 @@
       </c>
       <c r="G136" s="38"/>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" hidden="1">
       <c r="A137" s="38" t="s">
         <v>58</v>
       </c>
@@ -11077,7 +11080,7 @@
       <c r="F137" s="37"/>
       <c r="G137" s="37"/>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" hidden="1">
       <c r="A138" s="38" t="s">
         <v>58</v>
       </c>
@@ -11092,7 +11095,7 @@
       <c r="F138" s="37"/>
       <c r="G138" s="37"/>
     </row>
-    <row r="139" spans="1:7" ht="30">
+    <row r="139" spans="1:7" ht="30" hidden="1">
       <c r="A139" s="38" t="s">
         <v>58</v>
       </c>
@@ -11115,7 +11118,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" hidden="1">
       <c r="A140" s="38" t="s">
         <v>58</v>
       </c>
@@ -11136,7 +11139,7 @@
       </c>
       <c r="G140" s="38"/>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" hidden="1">
       <c r="A141" s="38" t="s">
         <v>58</v>
       </c>
@@ -11157,7 +11160,7 @@
       </c>
       <c r="G141" s="38"/>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" hidden="1">
       <c r="A142" s="38" t="s">
         <v>58</v>
       </c>
@@ -11178,7 +11181,7 @@
       </c>
       <c r="G142" s="38"/>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" hidden="1">
       <c r="A143" s="38" t="s">
         <v>58</v>
       </c>
@@ -11199,7 +11202,7 @@
       </c>
       <c r="G143" s="38"/>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" hidden="1">
       <c r="A144" s="38" t="s">
         <v>58</v>
       </c>
@@ -11220,7 +11223,7 @@
       </c>
       <c r="G144" s="38"/>
     </row>
-    <row r="145" spans="1:8" ht="19.5" customHeight="1">
+    <row r="145" spans="1:8" ht="19.5" hidden="1" customHeight="1">
       <c r="A145" s="39" t="s">
         <v>58</v>
       </c>
@@ -11239,7 +11242,7 @@
       </c>
       <c r="G145" s="39"/>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" hidden="1">
       <c r="A146" s="38" t="s">
         <v>58</v>
       </c>
@@ -11260,7 +11263,7 @@
       </c>
       <c r="G146" s="38"/>
     </row>
-    <row r="147" spans="1:8" ht="45">
+    <row r="147" spans="1:8" ht="45" hidden="1">
       <c r="A147" s="38" t="s">
         <v>58</v>
       </c>
@@ -11281,7 +11284,7 @@
       </c>
       <c r="G147" s="38"/>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" hidden="1">
       <c r="A148" s="38" t="s">
         <v>131</v>
       </c>
@@ -11302,7 +11305,7 @@
       </c>
       <c r="G148" s="38"/>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" hidden="1">
       <c r="A149" s="38" t="s">
         <v>131</v>
       </c>
@@ -11321,7 +11324,7 @@
       </c>
       <c r="G149" s="38"/>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" hidden="1">
       <c r="A150" s="38" t="s">
         <v>58</v>
       </c>
@@ -11338,7 +11341,7 @@
       <c r="F150" s="37"/>
       <c r="G150" s="37"/>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" hidden="1">
       <c r="A151" s="38" t="s">
         <v>58</v>
       </c>
@@ -11355,7 +11358,7 @@
       <c r="F151" s="37"/>
       <c r="G151" s="37"/>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" hidden="1">
       <c r="A152" s="38" t="s">
         <v>58</v>
       </c>
@@ -11376,7 +11379,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" hidden="1">
       <c r="A153" s="38" t="s">
         <v>58</v>
       </c>
@@ -11397,7 +11400,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" hidden="1">
       <c r="A154" s="38" t="s">
         <v>58</v>
       </c>
@@ -11418,7 +11421,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" hidden="1">
       <c r="A155" s="38" t="s">
         <v>58</v>
       </c>
@@ -11435,7 +11438,7 @@
       <c r="F155" s="37"/>
       <c r="G155" s="41"/>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" hidden="1">
       <c r="A156" s="38" t="s">
         <v>58</v>
       </c>
@@ -11452,7 +11455,7 @@
       <c r="F156" s="37"/>
       <c r="G156" s="41"/>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" hidden="1">
       <c r="A157" s="38" t="s">
         <v>58</v>
       </c>
@@ -11469,7 +11472,7 @@
       <c r="F157" s="37"/>
       <c r="G157" s="41"/>
     </row>
-    <row r="158" spans="1:8" ht="15.6">
+    <row r="158" spans="1:8" ht="15.6" hidden="1">
       <c r="A158" s="65" t="s">
         <v>58</v>
       </c>
@@ -11484,7 +11487,7 @@
       <c r="F158" s="37"/>
       <c r="G158" s="36"/>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" hidden="1">
       <c r="A159" s="65" t="s">
         <v>58</v>
       </c>
@@ -11499,7 +11502,7 @@
       <c r="F159" s="37"/>
       <c r="G159" s="37"/>
     </row>
-    <row r="160" spans="1:8" s="76" customFormat="1">
+    <row r="160" spans="1:8" s="76" customFormat="1" hidden="1">
       <c r="A160" s="73" t="s">
         <v>58</v>
       </c>
@@ -11517,7 +11520,7 @@
       <c r="G160" s="40"/>
       <c r="H160" s="75"/>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" hidden="1">
       <c r="A161" s="65" t="s">
         <v>58</v>
       </c>
@@ -11536,7 +11539,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" hidden="1">
       <c r="A162" s="65" t="s">
         <v>58</v>
       </c>
@@ -11553,7 +11556,7 @@
       <c r="F162" s="38"/>
       <c r="G162" s="38"/>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" hidden="1">
       <c r="A163" s="65" t="s">
         <v>58</v>
       </c>
@@ -11570,7 +11573,7 @@
       <c r="F163" s="38"/>
       <c r="G163" s="38"/>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" hidden="1">
       <c r="A164" s="38" t="s">
         <v>58</v>
       </c>
@@ -11589,7 +11592,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" hidden="1">
       <c r="A165" s="38" t="s">
         <v>58</v>
       </c>
@@ -11604,7 +11607,7 @@
       <c r="F165" s="41"/>
       <c r="G165" s="41"/>
     </row>
-    <row r="166" spans="1:7" s="51" customFormat="1">
+    <row r="166" spans="1:7" s="51" customFormat="1" hidden="1">
       <c r="A166" s="65" t="s">
         <v>58</v>
       </c>
@@ -11621,7 +11624,7 @@
       <c r="F166" s="65"/>
       <c r="G166" s="65"/>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" hidden="1">
       <c r="A167" s="38" t="s">
         <v>58</v>
       </c>
@@ -11638,7 +11641,7 @@
       <c r="F167" s="38"/>
       <c r="G167" s="38"/>
     </row>
-    <row r="168" spans="1:7" ht="30">
+    <row r="168" spans="1:7" ht="30" hidden="1">
       <c r="A168" s="38" t="s">
         <v>58</v>
       </c>
@@ -11655,7 +11658,7 @@
       <c r="F168" s="38"/>
       <c r="G168" s="38"/>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" hidden="1">
       <c r="A169" s="38" t="s">
         <v>58</v>
       </c>
@@ -11672,7 +11675,7 @@
       <c r="F169" s="40"/>
       <c r="G169" s="38"/>
     </row>
-    <row r="170" spans="1:7" ht="30">
+    <row r="170" spans="1:7" ht="30" hidden="1">
       <c r="A170" s="38" t="s">
         <v>58</v>
       </c>
@@ -11689,7 +11692,7 @@
       <c r="F170" s="40"/>
       <c r="G170" s="38"/>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" hidden="1">
       <c r="A171" s="38" t="s">
         <v>58</v>
       </c>
@@ -11706,7 +11709,7 @@
       <c r="F171" s="40"/>
       <c r="G171" s="38"/>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" hidden="1">
       <c r="A172" s="38" t="s">
         <v>58</v>
       </c>
@@ -11723,7 +11726,7 @@
       <c r="F172" s="40"/>
       <c r="G172" s="38"/>
     </row>
-    <row r="173" spans="1:7" ht="30">
+    <row r="173" spans="1:7" ht="30" hidden="1">
       <c r="A173" s="38" t="s">
         <v>58</v>
       </c>
@@ -11740,7 +11743,7 @@
       <c r="F173" s="40"/>
       <c r="G173" s="38"/>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" hidden="1">
       <c r="A174" s="38" t="s">
         <v>58</v>
       </c>
@@ -11757,7 +11760,7 @@
       <c r="F174" s="40"/>
       <c r="G174" s="38"/>
     </row>
-    <row r="175" spans="1:7" ht="45">
+    <row r="175" spans="1:7" ht="45" hidden="1">
       <c r="A175" s="38" t="s">
         <v>58</v>
       </c>
@@ -11774,7 +11777,7 @@
       <c r="F175" s="38"/>
       <c r="G175" s="38"/>
     </row>
-    <row r="176" spans="1:7" ht="30">
+    <row r="176" spans="1:7" ht="30" hidden="1">
       <c r="A176" s="38" t="s">
         <v>58</v>
       </c>
@@ -11791,7 +11794,7 @@
       <c r="F176" s="38"/>
       <c r="G176" s="38"/>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" hidden="1">
       <c r="A177" s="38" t="s">
         <v>58</v>
       </c>
@@ -11808,7 +11811,7 @@
       <c r="F177" s="38"/>
       <c r="G177" s="38"/>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" hidden="1">
       <c r="A178" s="38" t="s">
         <v>58</v>
       </c>
@@ -11823,7 +11826,7 @@
       <c r="F178" s="41"/>
       <c r="G178" s="42"/>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" hidden="1">
       <c r="A179" s="38" t="s">
         <v>58</v>
       </c>
@@ -11838,7 +11841,7 @@
       <c r="F179" s="41"/>
       <c r="G179" s="41"/>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" hidden="1">
       <c r="A180" s="38" t="s">
         <v>58</v>
       </c>
@@ -11857,7 +11860,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" hidden="1">
       <c r="A181" s="38" t="s">
         <v>58</v>
       </c>
@@ -11874,7 +11877,7 @@
       <c r="F181" s="38"/>
       <c r="G181" s="38"/>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" hidden="1">
       <c r="A182" s="38" t="s">
         <v>58</v>
       </c>
@@ -11891,7 +11894,7 @@
       <c r="F182" s="38"/>
       <c r="G182" s="38"/>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" hidden="1">
       <c r="A183" s="38" t="s">
         <v>58</v>
       </c>
@@ -11908,7 +11911,7 @@
       <c r="F183" s="38"/>
       <c r="G183" s="38"/>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" hidden="1">
       <c r="A184" s="38" t="s">
         <v>58</v>
       </c>
@@ -11923,7 +11926,7 @@
       <c r="F184" s="41"/>
       <c r="G184" s="41"/>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" hidden="1">
       <c r="A185" s="38" t="s">
         <v>58</v>
       </c>
@@ -11942,7 +11945,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" hidden="1">
       <c r="A186" s="38" t="s">
         <v>58</v>
       </c>
@@ -11959,7 +11962,7 @@
       <c r="F186" s="38"/>
       <c r="G186" s="38"/>
     </row>
-    <row r="187" spans="1:7" ht="30">
+    <row r="187" spans="1:7" ht="30" hidden="1">
       <c r="A187" s="38" t="s">
         <v>58</v>
       </c>
@@ -11976,7 +11979,7 @@
       <c r="F187" s="38"/>
       <c r="G187" s="38"/>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" hidden="1">
       <c r="A188" s="38" t="s">
         <v>58</v>
       </c>
@@ -11993,7 +11996,7 @@
       <c r="F188" s="40"/>
       <c r="G188" s="38"/>
     </row>
-    <row r="189" spans="1:7" ht="30">
+    <row r="189" spans="1:7" ht="30" hidden="1">
       <c r="A189" s="38" t="s">
         <v>58</v>
       </c>
@@ -12010,7 +12013,7 @@
       <c r="F189" s="40"/>
       <c r="G189" s="38"/>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" hidden="1">
       <c r="A190" s="38" t="s">
         <v>58</v>
       </c>
@@ -12027,7 +12030,7 @@
       <c r="F190" s="40"/>
       <c r="G190" s="38"/>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" hidden="1">
       <c r="A191" s="38" t="s">
         <v>58</v>
       </c>
@@ -12044,7 +12047,7 @@
       <c r="F191" s="40"/>
       <c r="G191" s="38"/>
     </row>
-    <row r="192" spans="1:7" ht="30">
+    <row r="192" spans="1:7" ht="30" hidden="1">
       <c r="A192" s="38" t="s">
         <v>58</v>
       </c>
@@ -12061,7 +12064,7 @@
       <c r="F192" s="40"/>
       <c r="G192" s="38"/>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" hidden="1">
       <c r="A193" s="38" t="s">
         <v>58</v>
       </c>
@@ -12078,7 +12081,7 @@
       <c r="F193" s="40"/>
       <c r="G193" s="38"/>
     </row>
-    <row r="194" spans="1:7" ht="45">
+    <row r="194" spans="1:7" ht="45" hidden="1">
       <c r="A194" s="38" t="s">
         <v>58</v>
       </c>
@@ -12095,7 +12098,7 @@
       <c r="F194" s="38"/>
       <c r="G194" s="38"/>
     </row>
-    <row r="195" spans="1:7" ht="30">
+    <row r="195" spans="1:7" ht="30" hidden="1">
       <c r="A195" s="38" t="s">
         <v>58</v>
       </c>
@@ -12112,7 +12115,7 @@
       <c r="F195" s="38"/>
       <c r="G195" s="38"/>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" hidden="1">
       <c r="A196" s="38" t="s">
         <v>58</v>
       </c>
@@ -12129,7 +12132,7 @@
       <c r="F196" s="38"/>
       <c r="G196" s="38"/>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" hidden="1">
       <c r="A197" s="38" t="s">
         <v>58</v>
       </c>
@@ -12144,7 +12147,7 @@
       <c r="F197" s="41"/>
       <c r="G197" s="41"/>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" hidden="1">
       <c r="A198" s="38" t="s">
         <v>58</v>
       </c>
@@ -12159,7 +12162,7 @@
       <c r="F198" s="41"/>
       <c r="G198" s="41"/>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" hidden="1">
       <c r="A199" s="38" t="s">
         <v>58</v>
       </c>
@@ -12178,7 +12181,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" hidden="1">
       <c r="A200" s="38" t="s">
         <v>58</v>
       </c>
@@ -12195,7 +12198,7 @@
       <c r="F200" s="38"/>
       <c r="G200" s="38"/>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" hidden="1">
       <c r="A201" s="38" t="s">
         <v>58</v>
       </c>
@@ -12212,7 +12215,7 @@
       <c r="F201" s="38"/>
       <c r="G201" s="38"/>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" hidden="1">
       <c r="A202" s="38" t="s">
         <v>58</v>
       </c>
@@ -12229,7 +12232,7 @@
       <c r="F202" s="38"/>
       <c r="G202" s="38"/>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" hidden="1">
       <c r="A203" s="38" t="s">
         <v>58</v>
       </c>
@@ -12244,7 +12247,7 @@
       <c r="F203" s="41"/>
       <c r="G203" s="41"/>
     </row>
-    <row r="204" spans="1:7" ht="42" customHeight="1">
+    <row r="204" spans="1:7" ht="42" hidden="1" customHeight="1">
       <c r="A204" s="38" t="s">
         <v>58</v>
       </c>
@@ -12263,7 +12266,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" hidden="1">
       <c r="A205" s="38" t="s">
         <v>58</v>
       </c>
@@ -12280,7 +12283,7 @@
       <c r="F205" s="38"/>
       <c r="G205" s="38"/>
     </row>
-    <row r="206" spans="1:7" ht="36.75" customHeight="1">
+    <row r="206" spans="1:7" ht="36.75" hidden="1" customHeight="1">
       <c r="A206" s="38" t="s">
         <v>58</v>
       </c>
@@ -12297,7 +12300,7 @@
       <c r="F206" s="38"/>
       <c r="G206" s="38"/>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" hidden="1">
       <c r="A207" s="38" t="s">
         <v>58</v>
       </c>
@@ -12314,7 +12317,7 @@
       <c r="F207" s="40"/>
       <c r="G207" s="38"/>
     </row>
-    <row r="208" spans="1:7" ht="30">
+    <row r="208" spans="1:7" ht="30" hidden="1">
       <c r="A208" s="38" t="s">
         <v>58</v>
       </c>
@@ -12331,7 +12334,7 @@
       <c r="F208" s="40"/>
       <c r="G208" s="38"/>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" hidden="1">
       <c r="A209" s="38" t="s">
         <v>58</v>
       </c>
@@ -12348,7 +12351,7 @@
       <c r="F209" s="40"/>
       <c r="G209" s="38"/>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" hidden="1">
       <c r="A210" s="38" t="s">
         <v>58</v>
       </c>
@@ -12365,7 +12368,7 @@
       <c r="F210" s="40"/>
       <c r="G210" s="38"/>
     </row>
-    <row r="211" spans="1:7" ht="30">
+    <row r="211" spans="1:7" ht="30" hidden="1">
       <c r="A211" s="38" t="s">
         <v>58</v>
       </c>
@@ -12382,7 +12385,7 @@
       <c r="F211" s="40"/>
       <c r="G211" s="38"/>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" hidden="1">
       <c r="A212" s="38" t="s">
         <v>58</v>
       </c>
@@ -12399,7 +12402,7 @@
       <c r="F212" s="40"/>
       <c r="G212" s="38"/>
     </row>
-    <row r="213" spans="1:7" ht="45">
+    <row r="213" spans="1:7" ht="45" hidden="1">
       <c r="A213" s="38" t="s">
         <v>58</v>
       </c>
@@ -12416,7 +12419,7 @@
       <c r="F213" s="38"/>
       <c r="G213" s="38"/>
     </row>
-    <row r="214" spans="1:7" ht="30">
+    <row r="214" spans="1:7" ht="30" hidden="1">
       <c r="A214" s="38" t="s">
         <v>58</v>
       </c>
@@ -12433,7 +12436,7 @@
       <c r="F214" s="38"/>
       <c r="G214" s="38"/>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" hidden="1">
       <c r="A215" s="38" t="s">
         <v>58</v>
       </c>
@@ -12450,7 +12453,7 @@
       <c r="F215" s="38"/>
       <c r="G215" s="38"/>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" hidden="1">
       <c r="A216" s="38" t="s">
         <v>58</v>
       </c>
@@ -12465,7 +12468,7 @@
       <c r="F216" s="41"/>
       <c r="G216" s="43"/>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" hidden="1">
       <c r="A217" s="38" t="s">
         <v>58</v>
       </c>
@@ -12480,7 +12483,7 @@
       <c r="F217" s="41"/>
       <c r="G217" s="41"/>
     </row>
-    <row r="218" spans="1:7" ht="30">
+    <row r="218" spans="1:7" ht="30" hidden="1">
       <c r="A218" s="38" t="s">
         <v>58</v>
       </c>
@@ -12499,7 +12502,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" hidden="1">
       <c r="A219" s="38" t="s">
         <v>58</v>
       </c>
@@ -12516,7 +12519,7 @@
       <c r="F219" s="38"/>
       <c r="G219" s="38"/>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" hidden="1">
       <c r="A220" s="38" t="s">
         <v>58</v>
       </c>
@@ -12533,7 +12536,7 @@
       <c r="F220" s="38"/>
       <c r="G220" s="38"/>
     </row>
-    <row r="221" spans="1:7" ht="30">
+    <row r="221" spans="1:7" ht="30" hidden="1">
       <c r="A221" s="38" t="s">
         <v>58</v>
       </c>
@@ -12550,7 +12553,7 @@
       <c r="F221" s="38"/>
       <c r="G221" s="38"/>
     </row>
-    <row r="222" spans="1:7" ht="30">
+    <row r="222" spans="1:7" ht="30" hidden="1">
       <c r="A222" s="38" t="s">
         <v>58</v>
       </c>
@@ -12567,7 +12570,7 @@
       <c r="F222" s="38"/>
       <c r="G222" s="38"/>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" hidden="1">
       <c r="A223" s="38" t="s">
         <v>58</v>
       </c>
@@ -12584,7 +12587,7 @@
       <c r="F223" s="40"/>
       <c r="G223" s="38"/>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" hidden="1">
       <c r="A224" s="38" t="s">
         <v>58</v>
       </c>
@@ -12601,7 +12604,7 @@
       <c r="F224" s="38"/>
       <c r="G224" s="38"/>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" hidden="1">
       <c r="A225" s="38" t="s">
         <v>58</v>
       </c>
@@ -12620,7 +12623,7 @@
       <c r="F225" s="38"/>
       <c r="G225" s="38"/>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" ht="30" hidden="1">
       <c r="A226" s="38" t="s">
         <v>58</v>
       </c>
@@ -12639,7 +12642,7 @@
       <c r="F226" s="38"/>
       <c r="G226" s="38"/>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" hidden="1">
       <c r="A227" s="38" t="s">
         <v>58</v>
       </c>
@@ -12656,7 +12659,7 @@
       <c r="F227" s="38"/>
       <c r="G227" s="38"/>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" hidden="1">
       <c r="A228" s="38" t="s">
         <v>58</v>
       </c>
@@ -12673,7 +12676,7 @@
       <c r="F228" s="38"/>
       <c r="G228" s="38"/>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" hidden="1">
       <c r="A229" s="38" t="s">
         <v>58</v>
       </c>
@@ -12690,7 +12693,7 @@
       <c r="F229" s="38"/>
       <c r="G229" s="38"/>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" hidden="1">
       <c r="A230" s="38" t="s">
         <v>58</v>
       </c>
@@ -12705,7 +12708,7 @@
       <c r="F230" s="41"/>
       <c r="G230" s="41"/>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" hidden="1">
       <c r="A231" s="38" t="s">
         <v>58</v>
       </c>
@@ -12724,7 +12727,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" hidden="1">
       <c r="A232" s="38" t="s">
         <v>58</v>
       </c>
@@ -12741,7 +12744,7 @@
       <c r="F232" s="38"/>
       <c r="G232" s="38"/>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" hidden="1">
       <c r="A233" s="38" t="s">
         <v>58</v>
       </c>
@@ -12758,7 +12761,7 @@
       <c r="F233" s="38"/>
       <c r="G233" s="38"/>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" hidden="1">
       <c r="A234" s="38" t="s">
         <v>58</v>
       </c>
@@ -12775,7 +12778,7 @@
       <c r="F234" s="38"/>
       <c r="G234" s="38"/>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" hidden="1">
       <c r="A235" s="38" t="s">
         <v>58</v>
       </c>
@@ -12794,7 +12797,7 @@
       <c r="F235" s="40"/>
       <c r="G235" s="38"/>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" hidden="1">
       <c r="A236" s="38" t="s">
         <v>58</v>
       </c>
@@ -12811,7 +12814,7 @@
       <c r="F236" s="38"/>
       <c r="G236" s="38"/>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" hidden="1">
       <c r="A237" s="38" t="s">
         <v>58</v>
       </c>
@@ -12828,7 +12831,7 @@
       <c r="F237" s="38"/>
       <c r="G237" s="38"/>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" hidden="1">
       <c r="A238" s="38" t="s">
         <v>58</v>
       </c>
@@ -12845,7 +12848,7 @@
       <c r="F238" s="38"/>
       <c r="G238" s="38"/>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" hidden="1">
       <c r="A239" s="38" t="s">
         <v>58</v>
       </c>
@@ -12862,7 +12865,7 @@
       <c r="F239" s="38"/>
       <c r="G239" s="38"/>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" hidden="1">
       <c r="A240" s="38" t="s">
         <v>58</v>
       </c>
@@ -12879,7 +12882,7 @@
       <c r="F240" s="38"/>
       <c r="G240" s="38"/>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" hidden="1">
       <c r="A241" s="38" t="s">
         <v>58</v>
       </c>
@@ -12896,7 +12899,7 @@
       <c r="F241" s="38"/>
       <c r="G241" s="38"/>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" hidden="1">
       <c r="A242" s="38" t="s">
         <v>58</v>
       </c>
@@ -12911,7 +12914,7 @@
       <c r="F242" s="41"/>
       <c r="G242" s="41"/>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" hidden="1">
       <c r="A243" s="38" t="s">
         <v>58</v>
       </c>
@@ -12930,7 +12933,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" hidden="1">
       <c r="A244" s="38" t="s">
         <v>58</v>
       </c>
@@ -12947,7 +12950,7 @@
       <c r="F244" s="38"/>
       <c r="G244" s="38"/>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" hidden="1">
       <c r="A245" s="38" t="s">
         <v>58</v>
       </c>
@@ -12962,7 +12965,7 @@
       <c r="F245" s="41"/>
       <c r="G245" s="41"/>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" hidden="1">
       <c r="A246" s="38" t="s">
         <v>58</v>
       </c>
@@ -12979,7 +12982,7 @@
       <c r="F246" s="38"/>
       <c r="G246" s="38"/>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" hidden="1">
       <c r="A247" s="38" t="s">
         <v>58</v>
       </c>
@@ -12994,7 +12997,7 @@
       <c r="F247" s="38"/>
       <c r="G247" s="43"/>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" hidden="1">
       <c r="A248" s="38" t="s">
         <v>58</v>
       </c>
@@ -13011,7 +13014,7 @@
       <c r="F248" s="38"/>
       <c r="G248" s="38"/>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" hidden="1">
       <c r="A249" s="38" t="s">
         <v>58</v>
       </c>
@@ -13028,7 +13031,7 @@
       <c r="F249" s="38"/>
       <c r="G249" s="38"/>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" hidden="1">
       <c r="A250" s="38" t="s">
         <v>58</v>
       </c>
@@ -13043,7 +13046,7 @@
       <c r="F250" s="41"/>
       <c r="G250" s="41"/>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" hidden="1">
       <c r="A251" s="38" t="s">
         <v>58</v>
       </c>
@@ -13060,7 +13063,7 @@
       <c r="F251" s="38"/>
       <c r="G251" s="38"/>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" hidden="1">
       <c r="A252" s="38" t="s">
         <v>58</v>
       </c>
@@ -13077,7 +13080,7 @@
       <c r="F252" s="38"/>
       <c r="G252" s="38"/>
     </row>
-    <row r="253" spans="1:7" ht="15.6">
+    <row r="253" spans="1:7" ht="15.6" hidden="1">
       <c r="A253" s="38" t="s">
         <v>58</v>
       </c>
@@ -13092,7 +13095,7 @@
       <c r="F253" s="41"/>
       <c r="G253" s="45"/>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" hidden="1">
       <c r="A254" s="38" t="s">
         <v>58</v>
       </c>
@@ -13107,7 +13110,7 @@
       <c r="F254" s="41"/>
       <c r="G254" s="41"/>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" hidden="1">
       <c r="A255" s="38" t="s">
         <v>58</v>
       </c>
@@ -13122,7 +13125,7 @@
       <c r="F255" s="41"/>
       <c r="G255" s="41"/>
     </row>
-    <row r="256" spans="1:7" ht="30">
+    <row r="256" spans="1:7" ht="30" hidden="1">
       <c r="A256" s="38" t="s">
         <v>58</v>
       </c>
@@ -13141,7 +13144,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" hidden="1">
       <c r="A257" s="38" t="s">
         <v>58</v>
       </c>
@@ -13158,7 +13161,7 @@
       <c r="F257" s="38"/>
       <c r="G257" s="44"/>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" hidden="1">
       <c r="A258" s="38" t="s">
         <v>58</v>
       </c>
@@ -13177,7 +13180,7 @@
       <c r="F258" s="38"/>
       <c r="G258" s="44"/>
     </row>
-    <row r="259" spans="1:7" ht="30">
+    <row r="259" spans="1:7" ht="30" hidden="1">
       <c r="A259" s="38" t="s">
         <v>58</v>
       </c>
@@ -13194,7 +13197,7 @@
       <c r="F259" s="38"/>
       <c r="G259" s="44"/>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" hidden="1">
       <c r="A260" s="38" t="s">
         <v>58</v>
       </c>
@@ -13211,7 +13214,7 @@
       <c r="F260" s="38"/>
       <c r="G260" s="44"/>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" hidden="1">
       <c r="A261" s="38" t="s">
         <v>58</v>
       </c>
@@ -13228,7 +13231,7 @@
       <c r="F261" s="38"/>
       <c r="G261" s="44"/>
     </row>
-    <row r="262" spans="1:7" ht="30">
+    <row r="262" spans="1:7" ht="30" hidden="1">
       <c r="A262" s="38" t="s">
         <v>58</v>
       </c>
@@ -13245,7 +13248,7 @@
       <c r="F262" s="38"/>
       <c r="G262" s="44"/>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" hidden="1">
       <c r="A263" s="38" t="s">
         <v>58</v>
       </c>
@@ -13264,7 +13267,7 @@
       <c r="F263" s="38"/>
       <c r="G263" s="44"/>
     </row>
-    <row r="264" spans="1:7" ht="30">
+    <row r="264" spans="1:7" ht="30" hidden="1">
       <c r="A264" s="38" t="s">
         <v>58</v>
       </c>
@@ -13281,7 +13284,7 @@
       <c r="F264" s="38"/>
       <c r="G264" s="44"/>
     </row>
-    <row r="265" spans="1:7" ht="45">
+    <row r="265" spans="1:7" ht="45" hidden="1">
       <c r="A265" s="38" t="s">
         <v>58</v>
       </c>
@@ -13298,7 +13301,7 @@
       <c r="F265" s="38"/>
       <c r="G265" s="44"/>
     </row>
-    <row r="266" spans="1:7" ht="30">
+    <row r="266" spans="1:7" ht="30" hidden="1">
       <c r="A266" s="38" t="s">
         <v>58</v>
       </c>
@@ -13315,7 +13318,7 @@
       <c r="F266" s="38"/>
       <c r="G266" s="44"/>
     </row>
-    <row r="267" spans="1:7" ht="45">
+    <row r="267" spans="1:7" ht="45" hidden="1">
       <c r="A267" s="38" t="s">
         <v>58</v>
       </c>
@@ -13334,7 +13337,7 @@
       <c r="F267" s="38"/>
       <c r="G267" s="44"/>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" hidden="1">
       <c r="A268" s="38" t="s">
         <v>58</v>
       </c>
@@ -13351,7 +13354,7 @@
       <c r="F268" s="38"/>
       <c r="G268" s="44"/>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" hidden="1">
       <c r="A269" s="38" t="s">
         <v>58</v>
       </c>
@@ -13366,7 +13369,7 @@
       <c r="F269" s="41"/>
       <c r="G269" s="41"/>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" hidden="1">
       <c r="A270" s="38" t="s">
         <v>58</v>
       </c>
@@ -13381,7 +13384,7 @@
       <c r="F270" s="41"/>
       <c r="G270" s="41"/>
     </row>
-    <row r="271" spans="1:7" ht="30">
+    <row r="271" spans="1:7" ht="30" hidden="1">
       <c r="A271" s="38" t="s">
         <v>58</v>
       </c>
@@ -13400,7 +13403,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" hidden="1">
       <c r="A272" s="38" t="s">
         <v>58</v>
       </c>
@@ -13417,7 +13420,7 @@
       <c r="F272" s="38"/>
       <c r="G272" s="44"/>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" hidden="1">
       <c r="A273" s="38" t="s">
         <v>58</v>
       </c>
@@ -13434,7 +13437,7 @@
       <c r="F273" s="38"/>
       <c r="G273" s="44"/>
     </row>
-    <row r="274" spans="1:7" ht="30">
+    <row r="274" spans="1:7" ht="30" hidden="1">
       <c r="A274" s="38" t="s">
         <v>58</v>
       </c>
@@ -13451,7 +13454,7 @@
       <c r="F274" s="38"/>
       <c r="G274" s="44"/>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" hidden="1">
       <c r="A275" s="38" t="s">
         <v>58</v>
       </c>
@@ -13468,7 +13471,7 @@
       <c r="F275" s="38"/>
       <c r="G275" s="44"/>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" hidden="1">
       <c r="A276" s="38" t="s">
         <v>58</v>
       </c>
@@ -13485,7 +13488,7 @@
       <c r="F276" s="38"/>
       <c r="G276" s="44"/>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" hidden="1">
       <c r="A277" s="38" t="s">
         <v>58</v>
       </c>
@@ -13502,7 +13505,7 @@
       <c r="F277" s="38"/>
       <c r="G277" s="44"/>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" ht="30" hidden="1">
       <c r="A278" s="38" t="s">
         <v>58</v>
       </c>
@@ -13519,7 +13522,7 @@
       <c r="F278" s="38"/>
       <c r="G278" s="44"/>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" hidden="1">
       <c r="A279" s="38" t="s">
         <v>58</v>
       </c>
@@ -13536,7 +13539,7 @@
       <c r="F279" s="38"/>
       <c r="G279" s="44"/>
     </row>
-    <row r="280" spans="1:7" ht="30">
+    <row r="280" spans="1:7" ht="30" hidden="1">
       <c r="A280" s="38" t="s">
         <v>58</v>
       </c>
@@ -13553,7 +13556,7 @@
       <c r="F280" s="38"/>
       <c r="G280" s="44"/>
     </row>
-    <row r="281" spans="1:7" ht="30">
+    <row r="281" spans="1:7" ht="30" hidden="1">
       <c r="A281" s="38" t="s">
         <v>58</v>
       </c>
@@ -13570,7 +13573,7 @@
       <c r="F281" s="38"/>
       <c r="G281" s="44"/>
     </row>
-    <row r="282" spans="1:7" ht="30">
+    <row r="282" spans="1:7" ht="30" hidden="1">
       <c r="A282" s="38" t="s">
         <v>58</v>
       </c>
@@ -13587,7 +13590,7 @@
       <c r="F282" s="38"/>
       <c r="G282" s="38"/>
     </row>
-    <row r="283" spans="1:7" ht="45">
+    <row r="283" spans="1:7" ht="45" hidden="1">
       <c r="A283" s="38" t="s">
         <v>58</v>
       </c>
@@ -13604,7 +13607,7 @@
       <c r="F283" s="38"/>
       <c r="G283" s="44"/>
     </row>
-    <row r="284" spans="1:7" ht="45">
+    <row r="284" spans="1:7" ht="45" hidden="1">
       <c r="A284" s="38" t="s">
         <v>58</v>
       </c>
@@ -13621,7 +13624,7 @@
       <c r="F284" s="38"/>
       <c r="G284" s="38"/>
     </row>
-    <row r="285" spans="1:7" ht="45">
+    <row r="285" spans="1:7" ht="45" hidden="1">
       <c r="A285" s="38" t="s">
         <v>58</v>
       </c>
@@ -13638,7 +13641,7 @@
       <c r="F285" s="38"/>
       <c r="G285" s="44"/>
     </row>
-    <row r="286" spans="1:7" ht="30">
+    <row r="286" spans="1:7" ht="30" hidden="1">
       <c r="A286" s="38" t="s">
         <v>58</v>
       </c>
@@ -13655,7 +13658,7 @@
       <c r="F286" s="38"/>
       <c r="G286" s="44"/>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" hidden="1">
       <c r="A287" s="38" t="s">
         <v>58</v>
       </c>
@@ -13670,7 +13673,7 @@
       <c r="F287" s="41"/>
       <c r="G287" s="41"/>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" hidden="1">
       <c r="A288" s="38" t="s">
         <v>58</v>
       </c>
@@ -13685,7 +13688,7 @@
       <c r="F288" s="41"/>
       <c r="G288" s="41"/>
     </row>
-    <row r="289" spans="1:7" ht="30">
+    <row r="289" spans="1:7" ht="30" hidden="1">
       <c r="A289" s="38" t="s">
         <v>58</v>
       </c>
@@ -13704,7 +13707,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" hidden="1">
       <c r="A290" s="38" t="s">
         <v>58</v>
       </c>
@@ -13721,7 +13724,7 @@
       <c r="F290" s="38"/>
       <c r="G290" s="44"/>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" hidden="1">
       <c r="A291" s="38" t="s">
         <v>58</v>
       </c>
@@ -13738,7 +13741,7 @@
       <c r="F291" s="38"/>
       <c r="G291" s="44"/>
     </row>
-    <row r="292" spans="1:7" ht="30">
+    <row r="292" spans="1:7" ht="30" hidden="1">
       <c r="A292" s="38" t="s">
         <v>58</v>
       </c>
@@ -13755,7 +13758,7 @@
       <c r="F292" s="38"/>
       <c r="G292" s="44"/>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" hidden="1">
       <c r="A293" s="38" t="s">
         <v>58</v>
       </c>
@@ -13772,7 +13775,7 @@
       <c r="F293" s="38"/>
       <c r="G293" s="44"/>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" hidden="1">
       <c r="A294" s="38" t="s">
         <v>58</v>
       </c>
@@ -13789,7 +13792,7 @@
       <c r="F294" s="38"/>
       <c r="G294" s="44"/>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" hidden="1">
       <c r="A295" s="38" t="s">
         <v>58</v>
       </c>
@@ -13806,7 +13809,7 @@
       <c r="F295" s="38"/>
       <c r="G295" s="44"/>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" ht="30" hidden="1">
       <c r="A296" s="38" t="s">
         <v>58</v>
       </c>
@@ -13823,7 +13826,7 @@
       <c r="F296" s="38"/>
       <c r="G296" s="44"/>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" hidden="1">
       <c r="A297" s="38" t="s">
         <v>58</v>
       </c>
@@ -13840,7 +13843,7 @@
       <c r="F297" s="38"/>
       <c r="G297" s="44"/>
     </row>
-    <row r="298" spans="1:7" ht="30">
+    <row r="298" spans="1:7" ht="30" hidden="1">
       <c r="A298" s="38" t="s">
         <v>58</v>
       </c>
@@ -13857,7 +13860,7 @@
       <c r="F298" s="38"/>
       <c r="G298" s="44"/>
     </row>
-    <row r="299" spans="1:7" ht="30">
+    <row r="299" spans="1:7" ht="30" hidden="1">
       <c r="A299" s="38" t="s">
         <v>58</v>
       </c>
@@ -13874,7 +13877,7 @@
       <c r="F299" s="38"/>
       <c r="G299" s="44"/>
     </row>
-    <row r="300" spans="1:7" ht="30">
+    <row r="300" spans="1:7" ht="30" hidden="1">
       <c r="A300" s="38" t="s">
         <v>58</v>
       </c>
@@ -13891,7 +13894,7 @@
       <c r="F300" s="38"/>
       <c r="G300" s="38"/>
     </row>
-    <row r="301" spans="1:7" ht="45">
+    <row r="301" spans="1:7" ht="45" hidden="1">
       <c r="A301" s="38" t="s">
         <v>58</v>
       </c>
@@ -13908,7 +13911,7 @@
       <c r="F301" s="38"/>
       <c r="G301" s="44"/>
     </row>
-    <row r="302" spans="1:7" ht="45">
+    <row r="302" spans="1:7" ht="45" hidden="1">
       <c r="A302" s="38" t="s">
         <v>58</v>
       </c>
@@ -13925,7 +13928,7 @@
       <c r="F302" s="38"/>
       <c r="G302" s="38"/>
     </row>
-    <row r="303" spans="1:7" ht="45">
+    <row r="303" spans="1:7" ht="45" hidden="1">
       <c r="A303" s="38" t="s">
         <v>58</v>
       </c>
@@ -13942,7 +13945,7 @@
       <c r="F303" s="38"/>
       <c r="G303" s="44"/>
     </row>
-    <row r="304" spans="1:7" ht="30">
+    <row r="304" spans="1:7" ht="30" hidden="1">
       <c r="A304" s="38" t="s">
         <v>58</v>
       </c>
@@ -13959,7 +13962,7 @@
       <c r="F304" s="38"/>
       <c r="G304" s="44"/>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" hidden="1">
       <c r="A305" s="38" t="s">
         <v>58</v>
       </c>
@@ -13974,7 +13977,7 @@
       <c r="F305" s="41"/>
       <c r="G305" s="41"/>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" hidden="1">
       <c r="A306" s="38" t="s">
         <v>58</v>
       </c>
@@ -13989,7 +13992,7 @@
       <c r="F306" s="41"/>
       <c r="G306" s="41"/>
     </row>
-    <row r="307" spans="1:7" ht="30">
+    <row r="307" spans="1:7" ht="30" hidden="1">
       <c r="A307" s="38" t="s">
         <v>58</v>
       </c>
@@ -14006,7 +14009,7 @@
       <c r="F307" s="38"/>
       <c r="G307" s="44"/>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" hidden="1">
       <c r="A308" s="38" t="s">
         <v>58</v>
       </c>
@@ -14021,7 +14024,7 @@
       <c r="F308" s="41"/>
       <c r="G308" s="41"/>
     </row>
-    <row r="309" spans="1:7" ht="30">
+    <row r="309" spans="1:7" ht="30" hidden="1">
       <c r="A309" s="38" t="s">
         <v>58</v>
       </c>
@@ -14040,7 +14043,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" hidden="1">
       <c r="A310" s="38" t="s">
         <v>58</v>
       </c>
@@ -14057,7 +14060,7 @@
       <c r="F310" s="38"/>
       <c r="G310" s="44"/>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" hidden="1">
       <c r="A311" s="38" t="s">
         <v>58</v>
       </c>
@@ -14074,7 +14077,7 @@
       <c r="F311" s="38"/>
       <c r="G311" s="44"/>
     </row>
-    <row r="312" spans="1:7" ht="30">
+    <row r="312" spans="1:7" ht="30" hidden="1">
       <c r="A312" s="38" t="s">
         <v>58</v>
       </c>
@@ -14091,7 +14094,7 @@
       <c r="F312" s="38"/>
       <c r="G312" s="44"/>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" hidden="1">
       <c r="A313" s="38" t="s">
         <v>58</v>
       </c>
@@ -14108,7 +14111,7 @@
       <c r="F313" s="38"/>
       <c r="G313" s="44"/>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" hidden="1">
       <c r="A314" s="38" t="s">
         <v>58</v>
       </c>
@@ -14125,7 +14128,7 @@
       <c r="F314" s="38"/>
       <c r="G314" s="44"/>
     </row>
-    <row r="315" spans="1:7" ht="45">
+    <row r="315" spans="1:7" ht="45" hidden="1">
       <c r="A315" s="38" t="s">
         <v>58</v>
       </c>
@@ -14142,7 +14145,7 @@
       <c r="F315" s="38"/>
       <c r="G315" s="44"/>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" hidden="1">
       <c r="A316" s="38" t="s">
         <v>58</v>
       </c>
@@ -14157,7 +14160,7 @@
       <c r="F316" s="41"/>
       <c r="G316" s="48"/>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" hidden="1">
       <c r="A317" s="38" t="s">
         <v>58</v>
       </c>
@@ -14172,7 +14175,7 @@
       <c r="F317" s="41"/>
       <c r="G317" s="48"/>
     </row>
-    <row r="318" spans="1:7" ht="30">
+    <row r="318" spans="1:7" ht="30" hidden="1">
       <c r="A318" s="38" t="s">
         <v>58</v>
       </c>
@@ -14191,7 +14194,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" hidden="1">
       <c r="A319" s="38" t="s">
         <v>58</v>
       </c>
@@ -14208,7 +14211,7 @@
       <c r="F319" s="38"/>
       <c r="G319" s="38"/>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" hidden="1">
       <c r="A320" s="38" t="s">
         <v>58</v>
       </c>
@@ -14225,7 +14228,7 @@
       <c r="F320" s="38"/>
       <c r="G320" s="38"/>
     </row>
-    <row r="321" spans="1:7" ht="30">
+    <row r="321" spans="1:7" ht="30" hidden="1">
       <c r="A321" s="38" t="s">
         <v>58</v>
       </c>
@@ -14242,7 +14245,7 @@
       <c r="F321" s="38"/>
       <c r="G321" s="38"/>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" hidden="1">
       <c r="A322" s="38" t="s">
         <v>58</v>
       </c>
@@ -14259,7 +14262,7 @@
       <c r="F322" s="38"/>
       <c r="G322" s="38"/>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" hidden="1">
       <c r="A323" s="38" t="s">
         <v>58</v>
       </c>
@@ -14276,7 +14279,7 @@
       <c r="F323" s="38"/>
       <c r="G323" s="38"/>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" hidden="1">
       <c r="A324" s="38" t="s">
         <v>58</v>
       </c>
@@ -14293,7 +14296,7 @@
       <c r="F324" s="38"/>
       <c r="G324" s="38"/>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:7" ht="30" hidden="1">
       <c r="A325" s="38" t="s">
         <v>58</v>
       </c>
@@ -14310,7 +14313,7 @@
       <c r="F325" s="38"/>
       <c r="G325" s="38"/>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" hidden="1">
       <c r="A326" s="38" t="s">
         <v>58</v>
       </c>
@@ -14327,7 +14330,7 @@
       <c r="F326" s="38"/>
       <c r="G326" s="38"/>
     </row>
-    <row r="327" spans="1:7" ht="30">
+    <row r="327" spans="1:7" ht="30" hidden="1">
       <c r="A327" s="38" t="s">
         <v>58</v>
       </c>
@@ -14344,7 +14347,7 @@
       <c r="F327" s="38"/>
       <c r="G327" s="38"/>
     </row>
-    <row r="328" spans="1:7" ht="30">
+    <row r="328" spans="1:7" ht="30" hidden="1">
       <c r="A328" s="38" t="s">
         <v>58</v>
       </c>
@@ -14361,7 +14364,7 @@
       <c r="F328" s="38"/>
       <c r="G328" s="38"/>
     </row>
-    <row r="329" spans="1:7" ht="30">
+    <row r="329" spans="1:7" ht="30" hidden="1">
       <c r="A329" s="38" t="s">
         <v>58</v>
       </c>
@@ -14378,7 +14381,7 @@
       <c r="F329" s="38"/>
       <c r="G329" s="38"/>
     </row>
-    <row r="330" spans="1:7" ht="45">
+    <row r="330" spans="1:7" ht="45" hidden="1">
       <c r="A330" s="38" t="s">
         <v>58</v>
       </c>
@@ -14395,7 +14398,7 @@
       <c r="F330" s="38"/>
       <c r="G330" s="38"/>
     </row>
-    <row r="331" spans="1:7" ht="45">
+    <row r="331" spans="1:7" ht="45" hidden="1">
       <c r="A331" s="38" t="s">
         <v>58</v>
       </c>
@@ -14412,7 +14415,7 @@
       <c r="F331" s="38"/>
       <c r="G331" s="38"/>
     </row>
-    <row r="332" spans="1:7" ht="45">
+    <row r="332" spans="1:7" ht="45" hidden="1">
       <c r="A332" s="38" t="s">
         <v>58</v>
       </c>
@@ -14429,7 +14432,7 @@
       <c r="F332" s="38"/>
       <c r="G332" s="38"/>
     </row>
-    <row r="333" spans="1:7" ht="30">
+    <row r="333" spans="1:7" ht="30" hidden="1">
       <c r="A333" s="38" t="s">
         <v>58</v>
       </c>
@@ -14446,7 +14449,7 @@
       <c r="F333" s="38"/>
       <c r="G333" s="38"/>
     </row>
-    <row r="334" spans="1:7" ht="15.6">
+    <row r="334" spans="1:7" ht="15.6" hidden="1">
       <c r="A334" s="38" t="s">
         <v>58</v>
       </c>
@@ -14461,7 +14464,7 @@
       <c r="F334" s="41"/>
       <c r="G334" s="49"/>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:7" hidden="1">
       <c r="A335" s="38" t="s">
         <v>58</v>
       </c>
@@ -14476,7 +14479,7 @@
       <c r="F335" s="41"/>
       <c r="G335" s="48"/>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" hidden="1">
       <c r="A336" s="38" t="s">
         <v>58</v>
       </c>
@@ -14491,7 +14494,7 @@
       <c r="F336" s="41"/>
       <c r="G336" s="48"/>
     </row>
-    <row r="337" spans="1:7" ht="60">
+    <row r="337" spans="1:7" ht="60" hidden="1">
       <c r="A337" s="38" t="s">
         <v>58</v>
       </c>
@@ -14514,7 +14517,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" hidden="1">
       <c r="A338" s="38" t="s">
         <v>58</v>
       </c>
@@ -14535,7 +14538,7 @@
       </c>
       <c r="G338" s="44"/>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" hidden="1">
       <c r="A339" s="38" t="s">
         <v>58</v>
       </c>
@@ -14554,7 +14557,7 @@
       </c>
       <c r="G339" s="44"/>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:7" hidden="1">
       <c r="A340" s="38" t="s">
         <v>58</v>
       </c>
@@ -14569,7 +14572,7 @@
       <c r="F340" s="41"/>
       <c r="G340" s="41"/>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" hidden="1">
       <c r="A341" s="38" t="s">
         <v>58</v>
       </c>
@@ -14590,7 +14593,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" hidden="1">
       <c r="A342" s="38" t="s">
         <v>58</v>
       </c>
@@ -14609,7 +14612,7 @@
       </c>
       <c r="G342" s="44"/>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:7" hidden="1">
       <c r="A343" s="38" t="s">
         <v>58</v>
       </c>
@@ -14628,7 +14631,7 @@
       </c>
       <c r="G343" s="38"/>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:7" hidden="1">
       <c r="A344" s="38" t="s">
         <v>58</v>
       </c>
@@ -14647,7 +14650,7 @@
       </c>
       <c r="G344" s="44"/>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" hidden="1">
       <c r="A345" s="38" t="s">
         <v>58</v>
       </c>
@@ -14662,7 +14665,7 @@
       <c r="F345" s="41"/>
       <c r="G345" s="41"/>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" spans="1:7" hidden="1">
       <c r="A346" s="38" t="s">
         <v>58</v>
       </c>
@@ -14683,7 +14686,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:7" hidden="1">
       <c r="A347" s="38" t="s">
         <v>58</v>
       </c>
@@ -14702,7 +14705,7 @@
       </c>
       <c r="G347" s="44"/>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" hidden="1">
       <c r="A348" s="38" t="s">
         <v>58</v>
       </c>
@@ -14759,7 +14762,7 @@
       </c>
       <c r="G350" s="44"/>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" hidden="1">
       <c r="A351" s="38" t="s">
         <v>58</v>
       </c>
@@ -14814,7 +14817,7 @@
       </c>
       <c r="G353" s="44"/>
     </row>
-    <row r="354" spans="1:7" ht="37.5" customHeight="1">
+    <row r="354" spans="1:7" ht="37.5" hidden="1" customHeight="1">
       <c r="A354" s="38" t="s">
         <v>58</v>
       </c>
@@ -14871,7 +14874,7 @@
       </c>
       <c r="G356" s="44"/>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" hidden="1">
       <c r="A357" s="38" t="s">
         <v>58</v>
       </c>
@@ -14886,7 +14889,7 @@
       <c r="F357" s="41"/>
       <c r="G357" s="41"/>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:7" hidden="1">
       <c r="A358" s="38" t="s">
         <v>58</v>
       </c>
@@ -14907,7 +14910,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:7" hidden="1">
       <c r="A359" s="38" t="s">
         <v>58</v>
       </c>
@@ -14926,7 +14929,7 @@
       </c>
       <c r="G359" s="38"/>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" hidden="1">
       <c r="A360" s="38" t="s">
         <v>58</v>
       </c>
@@ -14941,7 +14944,7 @@
       <c r="F360" s="41"/>
       <c r="G360" s="41"/>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:7" hidden="1">
       <c r="A361" s="38" t="s">
         <v>58</v>
       </c>
@@ -14962,7 +14965,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" hidden="1">
       <c r="A362" s="38" t="s">
         <v>58</v>
       </c>
@@ -14981,7 +14984,7 @@
       </c>
       <c r="G362" s="44"/>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" hidden="1">
       <c r="A363" s="38" t="s">
         <v>58</v>
       </c>
@@ -15000,7 +15003,7 @@
       </c>
       <c r="G363" s="44"/>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:7" hidden="1">
       <c r="A364" s="38" t="s">
         <v>58</v>
       </c>
@@ -15019,7 +15022,7 @@
       </c>
       <c r="G364" s="44"/>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:7" hidden="1">
       <c r="A365" s="38" t="s">
         <v>58</v>
       </c>
@@ -15040,7 +15043,7 @@
       </c>
       <c r="G365" s="38"/>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:7" hidden="1">
       <c r="A366" s="38" t="s">
         <v>58</v>
       </c>
@@ -15055,7 +15058,7 @@
       <c r="F366" s="41"/>
       <c r="G366" s="41"/>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:7" hidden="1">
       <c r="A367" s="38" t="s">
         <v>58</v>
       </c>
@@ -15070,7 +15073,7 @@
       <c r="F367" s="41"/>
       <c r="G367" s="41"/>
     </row>
-    <row r="368" spans="1:7" ht="60">
+    <row r="368" spans="1:7" ht="60" hidden="1">
       <c r="A368" s="38" t="s">
         <v>58</v>
       </c>
@@ -15093,7 +15096,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="369" spans="1:7" ht="30">
+    <row r="369" spans="1:7" ht="30" hidden="1">
       <c r="A369" s="38" t="s">
         <v>58</v>
       </c>
@@ -15114,7 +15117,7 @@
       </c>
       <c r="G369" s="44"/>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:7" hidden="1">
       <c r="A370" s="38" t="s">
         <v>58</v>
       </c>
@@ -15135,7 +15138,7 @@
       </c>
       <c r="G370" s="44"/>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:7" hidden="1">
       <c r="A371" s="38" t="s">
         <v>58</v>
       </c>
@@ -15150,7 +15153,7 @@
       <c r="F371" s="41"/>
       <c r="G371" s="41"/>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:7" hidden="1">
       <c r="A372" s="38" t="s">
         <v>58</v>
       </c>
@@ -15165,7 +15168,7 @@
       <c r="F372" s="41"/>
       <c r="G372" s="41"/>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" hidden="1">
       <c r="A373" s="38" t="s">
         <v>58</v>
       </c>
@@ -15262,7 +15265,7 @@
       </c>
       <c r="G377" s="44"/>
     </row>
-    <row r="378" spans="1:7" ht="30">
+    <row r="378" spans="1:7" ht="30" hidden="1">
       <c r="A378" s="38" t="s">
         <v>58</v>
       </c>
@@ -15281,7 +15284,7 @@
       </c>
       <c r="G378" s="44"/>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" hidden="1">
       <c r="A379" s="38" t="s">
         <v>58</v>
       </c>
@@ -15296,7 +15299,7 @@
       <c r="F379" s="41"/>
       <c r="G379" s="41"/>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:7" hidden="1">
       <c r="A380" s="38" t="s">
         <v>58</v>
       </c>
@@ -15317,7 +15320,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" spans="1:7" hidden="1">
       <c r="A381" s="38" t="s">
         <v>58</v>
       </c>
@@ -15338,7 +15341,7 @@
       </c>
       <c r="G381" s="38"/>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" spans="1:7" hidden="1">
       <c r="A382" s="38" t="s">
         <v>58</v>
       </c>
@@ -15353,7 +15356,7 @@
       <c r="F382" s="41"/>
       <c r="G382" s="41"/>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" spans="1:7" hidden="1">
       <c r="A383" s="38" t="s">
         <v>58</v>
       </c>
@@ -15374,7 +15377,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:7" hidden="1">
       <c r="A384" s="38" t="s">
         <v>58</v>
       </c>
@@ -15393,7 +15396,7 @@
       </c>
       <c r="G384" s="44"/>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" hidden="1">
       <c r="A385" s="38" t="s">
         <v>58</v>
       </c>
@@ -15412,7 +15415,7 @@
       </c>
       <c r="G385" s="44"/>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" hidden="1">
       <c r="A386" s="38" t="s">
         <v>58</v>
       </c>
@@ -15431,7 +15434,7 @@
       </c>
       <c r="G386" s="38"/>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" hidden="1">
       <c r="A387" s="38" t="s">
         <v>58</v>
       </c>
@@ -15452,7 +15455,7 @@
       </c>
       <c r="G387" s="38"/>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" hidden="1">
       <c r="A388" s="38" t="s">
         <v>58</v>
       </c>
@@ -15467,7 +15470,7 @@
       <c r="F388" s="41"/>
       <c r="G388" s="41"/>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" hidden="1">
       <c r="A389" s="38" t="s">
         <v>58</v>
       </c>
@@ -15482,7 +15485,7 @@
       <c r="F389" s="41"/>
       <c r="G389" s="41"/>
     </row>
-    <row r="390" spans="1:7" ht="45">
+    <row r="390" spans="1:7" ht="45" hidden="1">
       <c r="A390" s="38" t="s">
         <v>58</v>
       </c>
@@ -15505,7 +15508,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="391" spans="1:7" ht="30">
+    <row r="391" spans="1:7" ht="30" hidden="1">
       <c r="A391" s="38" t="s">
         <v>58</v>
       </c>
@@ -15526,7 +15529,7 @@
       </c>
       <c r="G391" s="38"/>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:7" hidden="1">
       <c r="A392" s="38" t="s">
         <v>58</v>
       </c>
@@ -15547,7 +15550,7 @@
       </c>
       <c r="G392" s="44"/>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" hidden="1">
       <c r="A393" s="38" t="s">
         <v>58</v>
       </c>
@@ -15562,7 +15565,7 @@
       <c r="F393" s="41"/>
       <c r="G393" s="41"/>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:7" hidden="1">
       <c r="A394" s="38" t="s">
         <v>58</v>
       </c>
@@ -15617,7 +15620,7 @@
       </c>
       <c r="G396" s="44"/>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" hidden="1">
       <c r="A397" s="38" t="s">
         <v>58</v>
       </c>
@@ -15674,7 +15677,7 @@
       </c>
       <c r="G399" s="44"/>
     </row>
-    <row r="400" spans="1:7" ht="30">
+    <row r="400" spans="1:7" ht="30" hidden="1">
       <c r="A400" s="38" t="s">
         <v>58</v>
       </c>
@@ -15693,7 +15696,7 @@
       </c>
       <c r="G400" s="44"/>
     </row>
-    <row r="401" spans="1:7">
+    <row r="401" spans="1:7" hidden="1">
       <c r="A401" s="38" t="s">
         <v>58</v>
       </c>
@@ -15708,7 +15711,7 @@
       <c r="F401" s="41"/>
       <c r="G401" s="41"/>
     </row>
-    <row r="402" spans="1:7">
+    <row r="402" spans="1:7" hidden="1">
       <c r="A402" s="38" t="s">
         <v>58</v>
       </c>
@@ -15729,7 +15732,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" spans="1:7" hidden="1">
       <c r="A403" s="38" t="s">
         <v>58</v>
       </c>
@@ -15750,7 +15753,7 @@
       </c>
       <c r="G403" s="38"/>
     </row>
-    <row r="404" spans="1:7">
+    <row r="404" spans="1:7" hidden="1">
       <c r="A404" s="38" t="s">
         <v>58</v>
       </c>
@@ -15765,7 +15768,7 @@
       <c r="F404" s="41"/>
       <c r="G404" s="41"/>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" spans="1:7" hidden="1">
       <c r="A405" s="38" t="s">
         <v>58</v>
       </c>
@@ -15786,7 +15789,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" spans="1:7" hidden="1">
       <c r="A406" s="38" t="s">
         <v>58</v>
       </c>
@@ -15805,7 +15808,7 @@
       </c>
       <c r="G406" s="44"/>
     </row>
-    <row r="407" spans="1:7">
+    <row r="407" spans="1:7" hidden="1">
       <c r="A407" s="38" t="s">
         <v>58</v>
       </c>
@@ -15824,7 +15827,7 @@
       </c>
       <c r="G407" s="44"/>
     </row>
-    <row r="408" spans="1:7">
+    <row r="408" spans="1:7" hidden="1">
       <c r="A408" s="38" t="s">
         <v>58</v>
       </c>
@@ -15843,7 +15846,7 @@
       </c>
       <c r="G408" s="38"/>
     </row>
-    <row r="409" spans="1:7">
+    <row r="409" spans="1:7" hidden="1">
       <c r="A409" s="38" t="s">
         <v>58</v>
       </c>
@@ -15864,7 +15867,7 @@
       </c>
       <c r="G409" s="38"/>
     </row>
-    <row r="410" spans="1:7">
+    <row r="410" spans="1:7" hidden="1">
       <c r="A410" s="38" t="s">
         <v>58</v>
       </c>
@@ -15879,7 +15882,7 @@
       <c r="F410" s="41"/>
       <c r="G410" s="41"/>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" spans="1:7" hidden="1">
       <c r="A411" s="38" t="s">
         <v>58</v>
       </c>
@@ -15894,7 +15897,7 @@
       <c r="F411" s="41"/>
       <c r="G411" s="41"/>
     </row>
-    <row r="412" spans="1:7" ht="45">
+    <row r="412" spans="1:7" ht="45" hidden="1">
       <c r="A412" s="38" t="s">
         <v>58</v>
       </c>
@@ -15917,7 +15920,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="413" spans="1:7">
+    <row r="413" spans="1:7" hidden="1">
       <c r="A413" s="38" t="s">
         <v>58</v>
       </c>
@@ -15938,7 +15941,7 @@
       </c>
       <c r="G413" s="44"/>
     </row>
-    <row r="414" spans="1:7">
+    <row r="414" spans="1:7" hidden="1">
       <c r="A414" s="38" t="s">
         <v>58</v>
       </c>
@@ -15959,7 +15962,7 @@
       </c>
       <c r="G414" s="44"/>
     </row>
-    <row r="415" spans="1:7">
+    <row r="415" spans="1:7" hidden="1">
       <c r="A415" s="38" t="s">
         <v>58</v>
       </c>
@@ -15974,7 +15977,7 @@
       <c r="F415" s="41"/>
       <c r="G415" s="41"/>
     </row>
-    <row r="416" spans="1:7">
+    <row r="416" spans="1:7" hidden="1">
       <c r="A416" s="38" t="s">
         <v>58</v>
       </c>
@@ -15989,7 +15992,7 @@
       <c r="F416" s="41"/>
       <c r="G416" s="41"/>
     </row>
-    <row r="417" spans="1:7">
+    <row r="417" spans="1:7" hidden="1">
       <c r="A417" s="38" t="s">
         <v>58</v>
       </c>
@@ -16010,7 +16013,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="418" spans="1:7">
+    <row r="418" spans="1:7" hidden="1">
       <c r="A418" s="38" t="s">
         <v>58</v>
       </c>
@@ -16029,7 +16032,7 @@
       </c>
       <c r="G418" s="44"/>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" spans="1:7" hidden="1">
       <c r="A419" s="38" t="s">
         <v>58</v>
       </c>
@@ -16048,7 +16051,7 @@
       </c>
       <c r="G419" s="44"/>
     </row>
-    <row r="420" spans="1:7">
+    <row r="420" spans="1:7" hidden="1">
       <c r="A420" s="38" t="s">
         <v>58</v>
       </c>
@@ -16067,7 +16070,7 @@
       </c>
       <c r="G420" s="38"/>
     </row>
-    <row r="421" spans="1:7">
+    <row r="421" spans="1:7" hidden="1">
       <c r="A421" s="38" t="s">
         <v>58</v>
       </c>
@@ -16093,7 +16096,7 @@
         <v>1300</v>
       </c>
       <c r="D422" s="38" t="s">
-        <v>1075</v>
+        <v>721</v>
       </c>
       <c r="E422" s="38"/>
       <c r="F422" s="38" t="s">
@@ -16114,7 +16117,7 @@
         <v>1298</v>
       </c>
       <c r="D423" s="40" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="E423" s="40"/>
       <c r="F423" s="38" t="s">
@@ -16122,7 +16125,7 @@
       </c>
       <c r="G423" s="38"/>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" spans="1:7" hidden="1">
       <c r="A424" s="38" t="s">
         <v>58</v>
       </c>
@@ -16141,7 +16144,7 @@
       </c>
       <c r="G424" s="38"/>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" spans="1:7" hidden="1">
       <c r="A425" s="38" t="s">
         <v>58</v>
       </c>
@@ -16156,7 +16159,7 @@
       <c r="F425" s="41"/>
       <c r="G425" s="41"/>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" spans="1:7" hidden="1">
       <c r="A426" s="38" t="s">
         <v>58</v>
       </c>
@@ -16177,7 +16180,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" spans="1:7" hidden="1">
       <c r="A427" s="38" t="s">
         <v>58</v>
       </c>
@@ -16196,7 +16199,7 @@
       </c>
       <c r="G427" s="44"/>
     </row>
-    <row r="428" spans="1:7">
+    <row r="428" spans="1:7" hidden="1">
       <c r="A428" s="38" t="s">
         <v>58</v>
       </c>
@@ -16215,7 +16218,7 @@
       </c>
       <c r="G428" s="44"/>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" hidden="1">
       <c r="A429" s="38" t="s">
         <v>58</v>
       </c>
@@ -16272,7 +16275,7 @@
       </c>
       <c r="G431" s="44"/>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" spans="1:7" hidden="1">
       <c r="A432" s="38" t="s">
         <v>58</v>
       </c>
@@ -16369,7 +16372,7 @@
       </c>
       <c r="G436" s="44"/>
     </row>
-    <row r="437" spans="1:7">
+    <row r="437" spans="1:7" hidden="1">
       <c r="A437" s="38" t="s">
         <v>58</v>
       </c>
@@ -16386,7 +16389,7 @@
       </c>
       <c r="G437" s="41"/>
     </row>
-    <row r="438" spans="1:7">
+    <row r="438" spans="1:7" hidden="1">
       <c r="A438" s="38" t="s">
         <v>58</v>
       </c>
@@ -16407,7 +16410,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="439" spans="1:7">
+    <row r="439" spans="1:7" hidden="1">
       <c r="A439" s="38" t="s">
         <v>58</v>
       </c>
@@ -16428,7 +16431,7 @@
       </c>
       <c r="G439" s="38"/>
     </row>
-    <row r="440" spans="1:7">
+    <row r="440" spans="1:7" hidden="1">
       <c r="A440" s="38" t="s">
         <v>58</v>
       </c>
@@ -16445,7 +16448,7 @@
       </c>
       <c r="G440" s="41"/>
     </row>
-    <row r="441" spans="1:7">
+    <row r="441" spans="1:7" hidden="1">
       <c r="A441" s="38" t="s">
         <v>58</v>
       </c>
@@ -16466,7 +16469,7 @@
       </c>
       <c r="G441" s="38"/>
     </row>
-    <row r="442" spans="1:7">
+    <row r="442" spans="1:7" hidden="1">
       <c r="A442" s="38" t="s">
         <v>58</v>
       </c>
@@ -16483,7 +16486,7 @@
       </c>
       <c r="G442" s="37"/>
     </row>
-    <row r="443" spans="1:7">
+    <row r="443" spans="1:7" hidden="1">
       <c r="A443" s="38" t="s">
         <v>58</v>
       </c>
@@ -16502,7 +16505,7 @@
       </c>
       <c r="G443" s="44"/>
     </row>
-    <row r="444" spans="1:7">
+    <row r="444" spans="1:7" hidden="1">
       <c r="A444" s="38" t="s">
         <v>58</v>
       </c>
@@ -16521,7 +16524,7 @@
       </c>
       <c r="G444" s="44"/>
     </row>
-    <row r="445" spans="1:7">
+    <row r="445" spans="1:7" hidden="1">
       <c r="A445" s="38" t="s">
         <v>58</v>
       </c>
@@ -16540,7 +16543,7 @@
       </c>
       <c r="G445" s="44"/>
     </row>
-    <row r="446" spans="1:7">
+    <row r="446" spans="1:7" hidden="1">
       <c r="A446" s="38" t="s">
         <v>58</v>
       </c>
@@ -16557,7 +16560,7 @@
       </c>
       <c r="G446" s="37"/>
     </row>
-    <row r="447" spans="1:7">
+    <row r="447" spans="1:7" hidden="1">
       <c r="A447" s="38" t="s">
         <v>58</v>
       </c>
@@ -16576,7 +16579,7 @@
       </c>
       <c r="G447" s="44"/>
     </row>
-    <row r="448" spans="1:7">
+    <row r="448" spans="1:7" hidden="1">
       <c r="A448" s="38" t="s">
         <v>58</v>
       </c>
@@ -16595,7 +16598,7 @@
       </c>
       <c r="G448" s="44"/>
     </row>
-    <row r="449" spans="1:7">
+    <row r="449" spans="1:7" hidden="1">
       <c r="A449" s="38" t="s">
         <v>58</v>
       </c>
@@ -16612,7 +16615,7 @@
       </c>
       <c r="G449" s="37"/>
     </row>
-    <row r="450" spans="1:7">
+    <row r="450" spans="1:7" hidden="1">
       <c r="A450" s="38" t="s">
         <v>58</v>
       </c>
@@ -16629,7 +16632,7 @@
       </c>
       <c r="G450" s="41"/>
     </row>
-    <row r="451" spans="1:7" ht="45">
+    <row r="451" spans="1:7" ht="45" hidden="1">
       <c r="A451" s="38" t="s">
         <v>58</v>
       </c>
@@ -16650,7 +16653,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="452" spans="1:7">
+    <row r="452" spans="1:7" hidden="1">
       <c r="A452" s="38" t="s">
         <v>58</v>
       </c>
@@ -16669,7 +16672,7 @@
       </c>
       <c r="G452" s="44"/>
     </row>
-    <row r="453" spans="1:7">
+    <row r="453" spans="1:7" hidden="1">
       <c r="A453" s="38" t="s">
         <v>58</v>
       </c>
@@ -16688,7 +16691,7 @@
       </c>
       <c r="G453" s="44"/>
     </row>
-    <row r="454" spans="1:7">
+    <row r="454" spans="1:7" hidden="1">
       <c r="A454" s="38" t="s">
         <v>58</v>
       </c>
@@ -16705,7 +16708,7 @@
       </c>
       <c r="G454" s="41"/>
     </row>
-    <row r="455" spans="1:7">
+    <row r="455" spans="1:7" hidden="1">
       <c r="A455" s="38" t="s">
         <v>58</v>
       </c>
@@ -16722,7 +16725,7 @@
       </c>
       <c r="G455" s="41"/>
     </row>
-    <row r="456" spans="1:7">
+    <row r="456" spans="1:7" hidden="1">
       <c r="A456" s="38" t="s">
         <v>58</v>
       </c>
@@ -16743,7 +16746,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="457" spans="1:7">
+    <row r="457" spans="1:7" hidden="1">
       <c r="A457" s="38" t="s">
         <v>58</v>
       </c>
@@ -16762,7 +16765,7 @@
       </c>
       <c r="G457" s="44"/>
     </row>
-    <row r="458" spans="1:7">
+    <row r="458" spans="1:7" hidden="1">
       <c r="A458" s="38" t="s">
         <v>58</v>
       </c>
@@ -16800,7 +16803,7 @@
       </c>
       <c r="G459" s="38"/>
     </row>
-    <row r="460" spans="1:7">
+    <row r="460" spans="1:7" hidden="1">
       <c r="A460" s="38" t="s">
         <v>58</v>
       </c>
@@ -16817,7 +16820,7 @@
       </c>
       <c r="G460" s="38"/>
     </row>
-    <row r="461" spans="1:7" ht="30">
+    <row r="461" spans="1:7" ht="30" hidden="1">
       <c r="A461" s="38" t="s">
         <v>58</v>
       </c>
@@ -16836,7 +16839,7 @@
       </c>
       <c r="G461" s="38"/>
     </row>
-    <row r="462" spans="1:7">
+    <row r="462" spans="1:7" hidden="1">
       <c r="A462" s="38" t="s">
         <v>58</v>
       </c>
@@ -16855,7 +16858,7 @@
       </c>
       <c r="G462" s="38"/>
     </row>
-    <row r="463" spans="1:7">
+    <row r="463" spans="1:7" hidden="1">
       <c r="A463" s="38" t="s">
         <v>58</v>
       </c>
@@ -16872,7 +16875,7 @@
       </c>
       <c r="G463" s="41"/>
     </row>
-    <row r="464" spans="1:7">
+    <row r="464" spans="1:7" hidden="1">
       <c r="A464" s="38" t="s">
         <v>58</v>
       </c>
@@ -16893,7 +16896,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="465" spans="1:7">
+    <row r="465" spans="1:7" hidden="1">
       <c r="A465" s="38" t="s">
         <v>58</v>
       </c>
@@ -16912,7 +16915,7 @@
       </c>
       <c r="G465" s="38"/>
     </row>
-    <row r="466" spans="1:7">
+    <row r="466" spans="1:7" hidden="1">
       <c r="A466" s="38" t="s">
         <v>58</v>
       </c>
@@ -16929,7 +16932,7 @@
       </c>
       <c r="G466" s="41"/>
     </row>
-    <row r="467" spans="1:7">
+    <row r="467" spans="1:7" hidden="1">
       <c r="A467" s="38" t="s">
         <v>58</v>
       </c>
@@ -16950,7 +16953,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="468" spans="1:7">
+    <row r="468" spans="1:7" hidden="1">
       <c r="A468" s="38" t="s">
         <v>58</v>
       </c>
@@ -16969,7 +16972,7 @@
       </c>
       <c r="G468" s="44"/>
     </row>
-    <row r="469" spans="1:7">
+    <row r="469" spans="1:7" hidden="1">
       <c r="A469" s="38" t="s">
         <v>58</v>
       </c>
@@ -16988,7 +16991,7 @@
       </c>
       <c r="G469" s="44"/>
     </row>
-    <row r="470" spans="1:7">
+    <row r="470" spans="1:7" hidden="1">
       <c r="A470" s="38" t="s">
         <v>58</v>
       </c>
@@ -17007,7 +17010,7 @@
       </c>
       <c r="G470" s="38"/>
     </row>
-    <row r="471" spans="1:7">
+    <row r="471" spans="1:7" hidden="1">
       <c r="A471" s="38" t="s">
         <v>58</v>
       </c>
@@ -17027,6 +17030,22 @@
       <c r="G471" s="38"/>
     </row>
   </sheetData>
+  <autoFilter ref="D1:D471" xr:uid="{F86B094C-E294-46A2-88B4-721C8724DCD9}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="PKIX.10"/>
+        <filter val="PKIX.11"/>
+        <filter val="PKIX.12"/>
+        <filter val="PKIX.13"/>
+        <filter val="PKIX.14"/>
+        <filter val="PKIX.15"/>
+        <filter val="PKIX.16"/>
+        <filter val="PKIX.17"/>
+        <filter val="PKIX.18"/>
+        <filter val="PKIX.19"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -21957,8 +21976,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -22628,7 +22647,7 @@
       </c>
       <c r="G20" s="30"/>
     </row>
-    <row r="21" spans="1:7" ht="46.8">
+    <row r="21" spans="1:7" ht="187.2">
       <c r="A21" s="30" t="s">
         <v>724</v>
       </c>

--- a/conformancelib/testdata/85b_test_definitions_PIV_Production_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV_Production_Cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geoff\gsa-devel\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CEAC3F7-CA29-4A8D-BFF7-4BB93944E322}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DF974F-0A4A-482B-90FE-2DD44FE39D46}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <sheet name="Placeholders" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Steps Overview'!$D$1:$D$471</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Steps Overview'!$B$1:$B$471</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -8521,11 +8521,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet2" filterMode="1"/>
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D423" sqref="D423"/>
+    <sheetView tabSelected="1" topLeftCell="A415" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A422" sqref="A422:XFD422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -8566,7 +8566,7 @@
       </c>
       <c r="H1" s="53"/>
     </row>
-    <row r="2" spans="1:8" ht="15.6" hidden="1">
+    <row r="2" spans="1:8" ht="15.6">
       <c r="A2" s="35" t="s">
         <v>58</v>
       </c>
@@ -8581,7 +8581,7 @@
       <c r="F2" s="37"/>
       <c r="G2" s="36"/>
     </row>
-    <row r="3" spans="1:8" hidden="1">
+    <row r="3" spans="1:8">
       <c r="A3" s="38" t="s">
         <v>58</v>
       </c>
@@ -8596,7 +8596,7 @@
       <c r="F3" s="37"/>
       <c r="G3" s="37"/>
     </row>
-    <row r="4" spans="1:8" hidden="1">
+    <row r="4" spans="1:8">
       <c r="A4" s="38" t="s">
         <v>58</v>
       </c>
@@ -8611,7 +8611,7 @@
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
     </row>
-    <row r="5" spans="1:8" ht="30" hidden="1">
+    <row r="5" spans="1:8" ht="30">
       <c r="A5" s="38" t="s">
         <v>58</v>
       </c>
@@ -8632,7 +8632,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1">
+    <row r="6" spans="1:8">
       <c r="A6" s="38" t="s">
         <v>58</v>
       </c>
@@ -8651,7 +8651,7 @@
       </c>
       <c r="G6" s="38"/>
     </row>
-    <row r="7" spans="1:8" hidden="1">
+    <row r="7" spans="1:8">
       <c r="A7" s="38" t="s">
         <v>58</v>
       </c>
@@ -8670,7 +8670,7 @@
       </c>
       <c r="G7" s="38"/>
     </row>
-    <row r="8" spans="1:8" hidden="1">
+    <row r="8" spans="1:8">
       <c r="A8" s="38" t="s">
         <v>58</v>
       </c>
@@ -8689,7 +8689,7 @@
       </c>
       <c r="G8" s="38"/>
     </row>
-    <row r="9" spans="1:8" hidden="1">
+    <row r="9" spans="1:8">
       <c r="A9" s="38" t="s">
         <v>58</v>
       </c>
@@ -8708,7 +8708,7 @@
       </c>
       <c r="G9" s="38"/>
     </row>
-    <row r="10" spans="1:8" hidden="1">
+    <row r="10" spans="1:8">
       <c r="A10" s="38" t="s">
         <v>58</v>
       </c>
@@ -8727,7 +8727,7 @@
       </c>
       <c r="G10" s="38"/>
     </row>
-    <row r="11" spans="1:8" ht="30" hidden="1">
+    <row r="11" spans="1:8" ht="30">
       <c r="A11" s="38" t="s">
         <v>58</v>
       </c>
@@ -8746,7 +8746,7 @@
       </c>
       <c r="G11" s="38"/>
     </row>
-    <row r="12" spans="1:8" ht="30" hidden="1">
+    <row r="12" spans="1:8" ht="30">
       <c r="A12" s="38" t="s">
         <v>58</v>
       </c>
@@ -8765,7 +8765,7 @@
       </c>
       <c r="G12" s="38"/>
     </row>
-    <row r="13" spans="1:8" hidden="1">
+    <row r="13" spans="1:8">
       <c r="A13" s="38" t="s">
         <v>58</v>
       </c>
@@ -8784,7 +8784,7 @@
       </c>
       <c r="G13" s="38"/>
     </row>
-    <row r="14" spans="1:8" hidden="1">
+    <row r="14" spans="1:8">
       <c r="A14" s="38" t="s">
         <v>58</v>
       </c>
@@ -8803,7 +8803,7 @@
       </c>
       <c r="G14" s="38"/>
     </row>
-    <row r="15" spans="1:8" hidden="1">
+    <row r="15" spans="1:8">
       <c r="A15" s="38" t="s">
         <v>58</v>
       </c>
@@ -8822,7 +8822,7 @@
       </c>
       <c r="G15" s="38"/>
     </row>
-    <row r="16" spans="1:8" hidden="1">
+    <row r="16" spans="1:8">
       <c r="A16" s="38" t="s">
         <v>58</v>
       </c>
@@ -8837,7 +8837,7 @@
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
     </row>
-    <row r="17" spans="1:7" hidden="1">
+    <row r="17" spans="1:7">
       <c r="A17" s="38" t="s">
         <v>58</v>
       </c>
@@ -8852,7 +8852,7 @@
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
     </row>
-    <row r="18" spans="1:7" ht="30" hidden="1">
+    <row r="18" spans="1:7" ht="30">
       <c r="A18" s="38" t="s">
         <v>58</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1">
+    <row r="19" spans="1:7">
       <c r="A19" s="38" t="s">
         <v>58</v>
       </c>
@@ -8892,7 +8892,7 @@
       </c>
       <c r="G19" s="38"/>
     </row>
-    <row r="20" spans="1:7" hidden="1">
+    <row r="20" spans="1:7">
       <c r="A20" s="38" t="s">
         <v>58</v>
       </c>
@@ -8911,7 +8911,7 @@
       </c>
       <c r="G20" s="38"/>
     </row>
-    <row r="21" spans="1:7" hidden="1">
+    <row r="21" spans="1:7">
       <c r="A21" s="38" t="s">
         <v>58</v>
       </c>
@@ -8930,7 +8930,7 @@
       </c>
       <c r="G21" s="38"/>
     </row>
-    <row r="22" spans="1:7" hidden="1">
+    <row r="22" spans="1:7">
       <c r="A22" s="38" t="s">
         <v>58</v>
       </c>
@@ -8949,7 +8949,7 @@
       </c>
       <c r="G22" s="38"/>
     </row>
-    <row r="23" spans="1:7" hidden="1">
+    <row r="23" spans="1:7">
       <c r="A23" s="38" t="s">
         <v>58</v>
       </c>
@@ -8968,7 +8968,7 @@
       </c>
       <c r="G23" s="38"/>
     </row>
-    <row r="24" spans="1:7" hidden="1">
+    <row r="24" spans="1:7">
       <c r="A24" s="39" t="s">
         <v>58</v>
       </c>
@@ -8987,7 +8987,7 @@
       </c>
       <c r="G24" s="39"/>
     </row>
-    <row r="25" spans="1:7" hidden="1">
+    <row r="25" spans="1:7">
       <c r="A25" s="38" t="s">
         <v>58</v>
       </c>
@@ -9006,7 +9006,7 @@
       </c>
       <c r="G25" s="38"/>
     </row>
-    <row r="26" spans="1:7" hidden="1">
+    <row r="26" spans="1:7">
       <c r="A26" s="38" t="s">
         <v>58</v>
       </c>
@@ -9025,7 +9025,7 @@
       </c>
       <c r="G26" s="38"/>
     </row>
-    <row r="27" spans="1:7" hidden="1">
+    <row r="27" spans="1:7">
       <c r="A27" s="39" t="s">
         <v>58</v>
       </c>
@@ -9044,7 +9044,7 @@
       </c>
       <c r="G27" s="39"/>
     </row>
-    <row r="28" spans="1:7" hidden="1">
+    <row r="28" spans="1:7">
       <c r="A28" s="39" t="s">
         <v>58</v>
       </c>
@@ -9063,7 +9063,7 @@
       </c>
       <c r="G28" s="39"/>
     </row>
-    <row r="29" spans="1:7" hidden="1">
+    <row r="29" spans="1:7">
       <c r="A29" s="39" t="s">
         <v>58</v>
       </c>
@@ -9082,7 +9082,7 @@
       </c>
       <c r="G29" s="39"/>
     </row>
-    <row r="30" spans="1:7" hidden="1">
+    <row r="30" spans="1:7">
       <c r="A30" s="39"/>
       <c r="B30" s="39" t="s">
         <v>1214</v>
@@ -9099,7 +9099,7 @@
       </c>
       <c r="G30" s="39"/>
     </row>
-    <row r="31" spans="1:7" hidden="1">
+    <row r="31" spans="1:7">
       <c r="A31" s="38" t="s">
         <v>58</v>
       </c>
@@ -9118,7 +9118,7 @@
       </c>
       <c r="G31" s="38"/>
     </row>
-    <row r="32" spans="1:7" ht="30" hidden="1">
+    <row r="32" spans="1:7" ht="30">
       <c r="A32" s="38" t="s">
         <v>58</v>
       </c>
@@ -9137,7 +9137,7 @@
       </c>
       <c r="G32" s="38"/>
     </row>
-    <row r="33" spans="1:7" hidden="1">
+    <row r="33" spans="1:7">
       <c r="A33" s="39" t="s">
         <v>58</v>
       </c>
@@ -9156,7 +9156,7 @@
       </c>
       <c r="G33" s="39"/>
     </row>
-    <row r="34" spans="1:7" hidden="1">
+    <row r="34" spans="1:7">
       <c r="A34" s="39" t="s">
         <v>58</v>
       </c>
@@ -9175,7 +9175,7 @@
       </c>
       <c r="G34" s="39"/>
     </row>
-    <row r="35" spans="1:7" hidden="1">
+    <row r="35" spans="1:7">
       <c r="A35" s="39" t="s">
         <v>58</v>
       </c>
@@ -9194,7 +9194,7 @@
       </c>
       <c r="G35" s="39"/>
     </row>
-    <row r="36" spans="1:7" hidden="1">
+    <row r="36" spans="1:7">
       <c r="A36" s="39" t="s">
         <v>58</v>
       </c>
@@ -9213,7 +9213,7 @@
       </c>
       <c r="G36" s="39"/>
     </row>
-    <row r="37" spans="1:7" hidden="1">
+    <row r="37" spans="1:7">
       <c r="A37" s="38" t="s">
         <v>58</v>
       </c>
@@ -9232,7 +9232,7 @@
       </c>
       <c r="G37" s="38"/>
     </row>
-    <row r="38" spans="1:7" hidden="1">
+    <row r="38" spans="1:7">
       <c r="A38" s="38" t="s">
         <v>58</v>
       </c>
@@ -9251,7 +9251,7 @@
       </c>
       <c r="G38" s="38"/>
     </row>
-    <row r="39" spans="1:7" hidden="1">
+    <row r="39" spans="1:7">
       <c r="A39" s="38" t="s">
         <v>58</v>
       </c>
@@ -9270,7 +9270,7 @@
       </c>
       <c r="G39" s="38"/>
     </row>
-    <row r="40" spans="1:7" ht="30" hidden="1">
+    <row r="40" spans="1:7" ht="30">
       <c r="A40" s="38" t="s">
         <v>58</v>
       </c>
@@ -9289,7 +9289,7 @@
       </c>
       <c r="G40" s="38"/>
     </row>
-    <row r="41" spans="1:7" hidden="1">
+    <row r="41" spans="1:7">
       <c r="A41" s="38" t="s">
         <v>58</v>
       </c>
@@ -9308,7 +9308,7 @@
       </c>
       <c r="G41" s="38"/>
     </row>
-    <row r="42" spans="1:7" hidden="1">
+    <row r="42" spans="1:7">
       <c r="A42" s="38" t="s">
         <v>131</v>
       </c>
@@ -9327,7 +9327,7 @@
       </c>
       <c r="G42" s="38"/>
     </row>
-    <row r="43" spans="1:7" hidden="1">
+    <row r="43" spans="1:7">
       <c r="A43" s="38" t="s">
         <v>58</v>
       </c>
@@ -9342,7 +9342,7 @@
       <c r="F43" s="37"/>
       <c r="G43" s="37"/>
     </row>
-    <row r="44" spans="1:7" hidden="1">
+    <row r="44" spans="1:7">
       <c r="A44" s="38" t="s">
         <v>58</v>
       </c>
@@ -9357,7 +9357,7 @@
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
     </row>
-    <row r="45" spans="1:7" ht="30" hidden="1">
+    <row r="45" spans="1:7" ht="30">
       <c r="A45" s="38" t="s">
         <v>58</v>
       </c>
@@ -9378,7 +9378,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1">
+    <row r="46" spans="1:7">
       <c r="A46" s="38" t="s">
         <v>58</v>
       </c>
@@ -9397,7 +9397,7 @@
       </c>
       <c r="G46" s="38"/>
     </row>
-    <row r="47" spans="1:7" hidden="1">
+    <row r="47" spans="1:7">
       <c r="A47" s="38" t="s">
         <v>58</v>
       </c>
@@ -9416,7 +9416,7 @@
       </c>
       <c r="G47" s="38"/>
     </row>
-    <row r="48" spans="1:7" hidden="1">
+    <row r="48" spans="1:7">
       <c r="A48" s="38" t="s">
         <v>58</v>
       </c>
@@ -9435,7 +9435,7 @@
       </c>
       <c r="G48" s="38"/>
     </row>
-    <row r="49" spans="1:7" hidden="1">
+    <row r="49" spans="1:7">
       <c r="A49" s="38" t="s">
         <v>58</v>
       </c>
@@ -9454,7 +9454,7 @@
       </c>
       <c r="G49" s="38"/>
     </row>
-    <row r="50" spans="1:7" hidden="1">
+    <row r="50" spans="1:7">
       <c r="A50" s="38" t="s">
         <v>58</v>
       </c>
@@ -9473,7 +9473,7 @@
       </c>
       <c r="G50" s="38"/>
     </row>
-    <row r="51" spans="1:7" hidden="1">
+    <row r="51" spans="1:7">
       <c r="A51" s="38" t="s">
         <v>58</v>
       </c>
@@ -9492,7 +9492,7 @@
       </c>
       <c r="G51" s="38"/>
     </row>
-    <row r="52" spans="1:7" hidden="1">
+    <row r="52" spans="1:7">
       <c r="A52" s="38" t="s">
         <v>58</v>
       </c>
@@ -9511,7 +9511,7 @@
       </c>
       <c r="G52" s="38"/>
     </row>
-    <row r="53" spans="1:7" hidden="1">
+    <row r="53" spans="1:7">
       <c r="A53" s="38" t="s">
         <v>58</v>
       </c>
@@ -9530,7 +9530,7 @@
       </c>
       <c r="G53" s="38"/>
     </row>
-    <row r="54" spans="1:7" hidden="1">
+    <row r="54" spans="1:7">
       <c r="A54" s="38" t="s">
         <v>131</v>
       </c>
@@ -9549,7 +9549,7 @@
       </c>
       <c r="G54" s="38"/>
     </row>
-    <row r="55" spans="1:7" hidden="1">
+    <row r="55" spans="1:7">
       <c r="A55" s="38" t="s">
         <v>58</v>
       </c>
@@ -9564,7 +9564,7 @@
       <c r="F55" s="37"/>
       <c r="G55" s="37"/>
     </row>
-    <row r="56" spans="1:7" hidden="1">
+    <row r="56" spans="1:7">
       <c r="A56" s="38" t="s">
         <v>58</v>
       </c>
@@ -9579,7 +9579,7 @@
       <c r="F56" s="37"/>
       <c r="G56" s="37"/>
     </row>
-    <row r="57" spans="1:7" hidden="1">
+    <row r="57" spans="1:7">
       <c r="A57" s="38" t="s">
         <v>58</v>
       </c>
@@ -9600,7 +9600,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1">
+    <row r="58" spans="1:7">
       <c r="A58" s="38" t="s">
         <v>58</v>
       </c>
@@ -9619,7 +9619,7 @@
       </c>
       <c r="G58" s="38"/>
     </row>
-    <row r="59" spans="1:7" hidden="1">
+    <row r="59" spans="1:7">
       <c r="A59" s="38" t="s">
         <v>58</v>
       </c>
@@ -9638,7 +9638,7 @@
       </c>
       <c r="G59" s="38"/>
     </row>
-    <row r="60" spans="1:7" hidden="1">
+    <row r="60" spans="1:7">
       <c r="A60" s="38" t="s">
         <v>58</v>
       </c>
@@ -9657,7 +9657,7 @@
       </c>
       <c r="G60" s="38"/>
     </row>
-    <row r="61" spans="1:7" hidden="1">
+    <row r="61" spans="1:7">
       <c r="A61" s="38" t="s">
         <v>58</v>
       </c>
@@ -9676,7 +9676,7 @@
       </c>
       <c r="G61" s="38"/>
     </row>
-    <row r="62" spans="1:7" hidden="1">
+    <row r="62" spans="1:7">
       <c r="A62" s="38" t="s">
         <v>58</v>
       </c>
@@ -9695,7 +9695,7 @@
       </c>
       <c r="G62" s="38"/>
     </row>
-    <row r="63" spans="1:7" hidden="1">
+    <row r="63" spans="1:7">
       <c r="A63" s="38" t="s">
         <v>58</v>
       </c>
@@ -9714,7 +9714,7 @@
       </c>
       <c r="G63" s="38"/>
     </row>
-    <row r="64" spans="1:7" hidden="1">
+    <row r="64" spans="1:7">
       <c r="A64" s="38" t="s">
         <v>58</v>
       </c>
@@ -9733,7 +9733,7 @@
       </c>
       <c r="G64" s="38"/>
     </row>
-    <row r="65" spans="1:7" hidden="1">
+    <row r="65" spans="1:7">
       <c r="A65" s="38" t="s">
         <v>58</v>
       </c>
@@ -9752,7 +9752,7 @@
       </c>
       <c r="G65" s="38"/>
     </row>
-    <row r="66" spans="1:7" hidden="1">
+    <row r="66" spans="1:7">
       <c r="A66" s="38" t="s">
         <v>58</v>
       </c>
@@ -9767,7 +9767,7 @@
       <c r="F66" s="37"/>
       <c r="G66" s="37"/>
     </row>
-    <row r="67" spans="1:7" hidden="1">
+    <row r="67" spans="1:7">
       <c r="A67" s="38" t="s">
         <v>58</v>
       </c>
@@ -9782,7 +9782,7 @@
       <c r="F67" s="37"/>
       <c r="G67" s="37"/>
     </row>
-    <row r="68" spans="1:7" ht="30" hidden="1">
+    <row r="68" spans="1:7" ht="30">
       <c r="A68" s="38" t="s">
         <v>58</v>
       </c>
@@ -9803,7 +9803,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1">
+    <row r="69" spans="1:7">
       <c r="A69" s="38" t="s">
         <v>58</v>
       </c>
@@ -9822,7 +9822,7 @@
       </c>
       <c r="G69" s="38"/>
     </row>
-    <row r="70" spans="1:7" hidden="1">
+    <row r="70" spans="1:7">
       <c r="A70" s="38" t="s">
         <v>58</v>
       </c>
@@ -9841,7 +9841,7 @@
       </c>
       <c r="G70" s="38"/>
     </row>
-    <row r="71" spans="1:7" hidden="1">
+    <row r="71" spans="1:7">
       <c r="A71" s="38" t="s">
         <v>58</v>
       </c>
@@ -9860,7 +9860,7 @@
       </c>
       <c r="G71" s="38"/>
     </row>
-    <row r="72" spans="1:7" hidden="1">
+    <row r="72" spans="1:7">
       <c r="A72" s="38" t="s">
         <v>58</v>
       </c>
@@ -9879,7 +9879,7 @@
       </c>
       <c r="G72" s="38"/>
     </row>
-    <row r="73" spans="1:7" hidden="1">
+    <row r="73" spans="1:7">
       <c r="A73" s="38" t="s">
         <v>58</v>
       </c>
@@ -9898,7 +9898,7 @@
       </c>
       <c r="G73" s="38"/>
     </row>
-    <row r="74" spans="1:7" hidden="1">
+    <row r="74" spans="1:7">
       <c r="A74" s="39" t="s">
         <v>58</v>
       </c>
@@ -9917,7 +9917,7 @@
       </c>
       <c r="G74" s="39"/>
     </row>
-    <row r="75" spans="1:7" hidden="1">
+    <row r="75" spans="1:7">
       <c r="A75" s="39" t="s">
         <v>58</v>
       </c>
@@ -9936,7 +9936,7 @@
       </c>
       <c r="G75" s="39"/>
     </row>
-    <row r="76" spans="1:7" hidden="1">
+    <row r="76" spans="1:7">
       <c r="A76" s="38" t="s">
         <v>58</v>
       </c>
@@ -9955,7 +9955,7 @@
       </c>
       <c r="G76" s="38"/>
     </row>
-    <row r="77" spans="1:7" hidden="1">
+    <row r="77" spans="1:7">
       <c r="A77" s="38" t="s">
         <v>58</v>
       </c>
@@ -9974,7 +9974,7 @@
       </c>
       <c r="G77" s="38"/>
     </row>
-    <row r="78" spans="1:7" hidden="1">
+    <row r="78" spans="1:7">
       <c r="A78" s="38" t="s">
         <v>58</v>
       </c>
@@ -9993,7 +9993,7 @@
       </c>
       <c r="G78" s="38"/>
     </row>
-    <row r="79" spans="1:7" hidden="1">
+    <row r="79" spans="1:7">
       <c r="A79" s="38" t="s">
         <v>131</v>
       </c>
@@ -10012,7 +10012,7 @@
       </c>
       <c r="G79" s="38"/>
     </row>
-    <row r="80" spans="1:7" hidden="1">
+    <row r="80" spans="1:7">
       <c r="A80" s="38" t="s">
         <v>58</v>
       </c>
@@ -10027,7 +10027,7 @@
       <c r="F80" s="37"/>
       <c r="G80" s="37"/>
     </row>
-    <row r="81" spans="1:7" hidden="1">
+    <row r="81" spans="1:7">
       <c r="A81" s="38" t="s">
         <v>58</v>
       </c>
@@ -10042,7 +10042,7 @@
       <c r="F81" s="37"/>
       <c r="G81" s="37"/>
     </row>
-    <row r="82" spans="1:7" hidden="1">
+    <row r="82" spans="1:7">
       <c r="A82" s="38" t="s">
         <v>58</v>
       </c>
@@ -10063,7 +10063,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1">
+    <row r="83" spans="1:7">
       <c r="A83" s="38" t="s">
         <v>58</v>
       </c>
@@ -10082,7 +10082,7 @@
       </c>
       <c r="G83" s="38"/>
     </row>
-    <row r="84" spans="1:7" hidden="1">
+    <row r="84" spans="1:7">
       <c r="A84" s="38" t="s">
         <v>58</v>
       </c>
@@ -10101,7 +10101,7 @@
       </c>
       <c r="G84" s="38"/>
     </row>
-    <row r="85" spans="1:7" hidden="1">
+    <row r="85" spans="1:7">
       <c r="A85" s="38" t="s">
         <v>58</v>
       </c>
@@ -10120,7 +10120,7 @@
       </c>
       <c r="G85" s="38"/>
     </row>
-    <row r="86" spans="1:7" hidden="1">
+    <row r="86" spans="1:7">
       <c r="A86" s="38" t="s">
         <v>58</v>
       </c>
@@ -10139,7 +10139,7 @@
       </c>
       <c r="G86" s="38"/>
     </row>
-    <row r="87" spans="1:7" hidden="1">
+    <row r="87" spans="1:7">
       <c r="A87" s="38" t="s">
         <v>58</v>
       </c>
@@ -10158,7 +10158,7 @@
       </c>
       <c r="G87" s="38"/>
     </row>
-    <row r="88" spans="1:7" hidden="1">
+    <row r="88" spans="1:7">
       <c r="A88" s="38" t="s">
         <v>58</v>
       </c>
@@ -10177,7 +10177,7 @@
       </c>
       <c r="G88" s="38"/>
     </row>
-    <row r="89" spans="1:7" hidden="1">
+    <row r="89" spans="1:7">
       <c r="A89" s="38" t="s">
         <v>131</v>
       </c>
@@ -10196,7 +10196,7 @@
       </c>
       <c r="G89" s="38"/>
     </row>
-    <row r="90" spans="1:7" hidden="1">
+    <row r="90" spans="1:7">
       <c r="A90" s="38" t="s">
         <v>58</v>
       </c>
@@ -10211,7 +10211,7 @@
       <c r="F90" s="37"/>
       <c r="G90" s="37"/>
     </row>
-    <row r="91" spans="1:7" hidden="1">
+    <row r="91" spans="1:7">
       <c r="A91" s="38" t="s">
         <v>58</v>
       </c>
@@ -10226,7 +10226,7 @@
       <c r="F91" s="37"/>
       <c r="G91" s="37"/>
     </row>
-    <row r="92" spans="1:7" ht="30" hidden="1">
+    <row r="92" spans="1:7" ht="30">
       <c r="A92" s="38" t="s">
         <v>58</v>
       </c>
@@ -10247,7 +10247,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1">
+    <row r="93" spans="1:7">
       <c r="A93" s="38" t="s">
         <v>58</v>
       </c>
@@ -10266,7 +10266,7 @@
       </c>
       <c r="G93" s="38"/>
     </row>
-    <row r="94" spans="1:7" hidden="1">
+    <row r="94" spans="1:7">
       <c r="A94" s="38" t="s">
         <v>58</v>
       </c>
@@ -10285,7 +10285,7 @@
       </c>
       <c r="G94" s="38"/>
     </row>
-    <row r="95" spans="1:7" hidden="1">
+    <row r="95" spans="1:7">
       <c r="A95" s="38" t="s">
         <v>58</v>
       </c>
@@ -10304,7 +10304,7 @@
       </c>
       <c r="G95" s="38"/>
     </row>
-    <row r="96" spans="1:7" hidden="1">
+    <row r="96" spans="1:7">
       <c r="A96" s="38" t="s">
         <v>58</v>
       </c>
@@ -10323,7 +10323,7 @@
       </c>
       <c r="G96" s="38"/>
     </row>
-    <row r="97" spans="1:7" hidden="1">
+    <row r="97" spans="1:7">
       <c r="A97" s="38" t="s">
         <v>58</v>
       </c>
@@ -10342,7 +10342,7 @@
       </c>
       <c r="G97" s="38"/>
     </row>
-    <row r="98" spans="1:7" hidden="1">
+    <row r="98" spans="1:7">
       <c r="A98" s="38" t="s">
         <v>58</v>
       </c>
@@ -10361,7 +10361,7 @@
       </c>
       <c r="G98" s="38"/>
     </row>
-    <row r="99" spans="1:7" hidden="1">
+    <row r="99" spans="1:7">
       <c r="A99" s="38" t="s">
         <v>58</v>
       </c>
@@ -10380,7 +10380,7 @@
       </c>
       <c r="G99" s="38"/>
     </row>
-    <row r="100" spans="1:7" hidden="1">
+    <row r="100" spans="1:7">
       <c r="A100" s="38" t="s">
         <v>58</v>
       </c>
@@ -10399,7 +10399,7 @@
       </c>
       <c r="G100" s="38"/>
     </row>
-    <row r="101" spans="1:7" hidden="1">
+    <row r="101" spans="1:7">
       <c r="A101" s="38" t="s">
         <v>131</v>
       </c>
@@ -10418,7 +10418,7 @@
       </c>
       <c r="G101" s="38"/>
     </row>
-    <row r="102" spans="1:7" hidden="1">
+    <row r="102" spans="1:7">
       <c r="A102" s="38" t="s">
         <v>58</v>
       </c>
@@ -10433,7 +10433,7 @@
       <c r="F102" s="37"/>
       <c r="G102" s="37"/>
     </row>
-    <row r="103" spans="1:7" hidden="1">
+    <row r="103" spans="1:7">
       <c r="A103" s="38" t="s">
         <v>58</v>
       </c>
@@ -10448,7 +10448,7 @@
       <c r="F103" s="37"/>
       <c r="G103" s="37"/>
     </row>
-    <row r="104" spans="1:7" ht="30" hidden="1">
+    <row r="104" spans="1:7" ht="30">
       <c r="A104" s="38" t="s">
         <v>58</v>
       </c>
@@ -10469,7 +10469,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1">
+    <row r="105" spans="1:7">
       <c r="A105" s="38" t="s">
         <v>58</v>
       </c>
@@ -10488,7 +10488,7 @@
       </c>
       <c r="G105" s="38"/>
     </row>
-    <row r="106" spans="1:7" hidden="1">
+    <row r="106" spans="1:7">
       <c r="A106" s="38" t="s">
         <v>58</v>
       </c>
@@ -10507,7 +10507,7 @@
       </c>
       <c r="G106" s="38"/>
     </row>
-    <row r="107" spans="1:7" hidden="1">
+    <row r="107" spans="1:7">
       <c r="A107" s="38" t="s">
         <v>58</v>
       </c>
@@ -10526,7 +10526,7 @@
       </c>
       <c r="G107" s="38"/>
     </row>
-    <row r="108" spans="1:7" hidden="1">
+    <row r="108" spans="1:7">
       <c r="A108" s="38" t="s">
         <v>58</v>
       </c>
@@ -10545,7 +10545,7 @@
       </c>
       <c r="G108" s="38"/>
     </row>
-    <row r="109" spans="1:7" hidden="1">
+    <row r="109" spans="1:7">
       <c r="A109" s="38" t="s">
         <v>58</v>
       </c>
@@ -10564,7 +10564,7 @@
       </c>
       <c r="G109" s="38"/>
     </row>
-    <row r="110" spans="1:7" hidden="1">
+    <row r="110" spans="1:7">
       <c r="A110" s="38" t="s">
         <v>58</v>
       </c>
@@ -10583,7 +10583,7 @@
       </c>
       <c r="G110" s="38"/>
     </row>
-    <row r="111" spans="1:7" hidden="1">
+    <row r="111" spans="1:7">
       <c r="A111" s="38" t="s">
         <v>58</v>
       </c>
@@ -10602,7 +10602,7 @@
       </c>
       <c r="G111" s="38"/>
     </row>
-    <row r="112" spans="1:7" hidden="1">
+    <row r="112" spans="1:7">
       <c r="A112" s="38" t="s">
         <v>58</v>
       </c>
@@ -10621,7 +10621,7 @@
       </c>
       <c r="G112" s="38"/>
     </row>
-    <row r="113" spans="1:7" hidden="1">
+    <row r="113" spans="1:7">
       <c r="A113" s="38" t="s">
         <v>131</v>
       </c>
@@ -10640,7 +10640,7 @@
       </c>
       <c r="G113" s="38"/>
     </row>
-    <row r="114" spans="1:7" hidden="1">
+    <row r="114" spans="1:7">
       <c r="A114" s="38" t="s">
         <v>58</v>
       </c>
@@ -10655,7 +10655,7 @@
       <c r="F114" s="37"/>
       <c r="G114" s="37"/>
     </row>
-    <row r="115" spans="1:7" hidden="1">
+    <row r="115" spans="1:7">
       <c r="A115" s="38" t="s">
         <v>58</v>
       </c>
@@ -10670,7 +10670,7 @@
       <c r="F115" s="37"/>
       <c r="G115" s="37"/>
     </row>
-    <row r="116" spans="1:7" ht="30" hidden="1">
+    <row r="116" spans="1:7" ht="30">
       <c r="A116" s="38" t="s">
         <v>58</v>
       </c>
@@ -10691,7 +10691,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1">
+    <row r="117" spans="1:7">
       <c r="A117" s="38" t="s">
         <v>58</v>
       </c>
@@ -10710,7 +10710,7 @@
       </c>
       <c r="G117" s="38"/>
     </row>
-    <row r="118" spans="1:7" hidden="1">
+    <row r="118" spans="1:7">
       <c r="A118" s="38" t="s">
         <v>58</v>
       </c>
@@ -10729,7 +10729,7 @@
       </c>
       <c r="G118" s="38"/>
     </row>
-    <row r="119" spans="1:7" hidden="1">
+    <row r="119" spans="1:7">
       <c r="A119" s="38" t="s">
         <v>58</v>
       </c>
@@ -10748,7 +10748,7 @@
       </c>
       <c r="G119" s="38"/>
     </row>
-    <row r="120" spans="1:7" hidden="1">
+    <row r="120" spans="1:7">
       <c r="A120" s="38" t="s">
         <v>58</v>
       </c>
@@ -10767,7 +10767,7 @@
       </c>
       <c r="G120" s="38"/>
     </row>
-    <row r="121" spans="1:7" hidden="1">
+    <row r="121" spans="1:7">
       <c r="A121" s="38" t="s">
         <v>58</v>
       </c>
@@ -10786,7 +10786,7 @@
       </c>
       <c r="G121" s="38"/>
     </row>
-    <row r="122" spans="1:7" hidden="1">
+    <row r="122" spans="1:7">
       <c r="A122" s="38" t="s">
         <v>58</v>
       </c>
@@ -10805,7 +10805,7 @@
       </c>
       <c r="G122" s="38"/>
     </row>
-    <row r="123" spans="1:7" hidden="1">
+    <row r="123" spans="1:7">
       <c r="A123" s="38" t="s">
         <v>58</v>
       </c>
@@ -10824,7 +10824,7 @@
       </c>
       <c r="G123" s="38"/>
     </row>
-    <row r="124" spans="1:7" hidden="1">
+    <row r="124" spans="1:7">
       <c r="A124" s="38" t="s">
         <v>58</v>
       </c>
@@ -10843,7 +10843,7 @@
       </c>
       <c r="G124" s="38"/>
     </row>
-    <row r="125" spans="1:7" hidden="1">
+    <row r="125" spans="1:7">
       <c r="A125" s="38" t="s">
         <v>131</v>
       </c>
@@ -10862,7 +10862,7 @@
       </c>
       <c r="G125" s="38"/>
     </row>
-    <row r="126" spans="1:7" hidden="1">
+    <row r="126" spans="1:7">
       <c r="A126" s="38" t="s">
         <v>58</v>
       </c>
@@ -10877,7 +10877,7 @@
       <c r="F126" s="37"/>
       <c r="G126" s="37"/>
     </row>
-    <row r="127" spans="1:7" hidden="1">
+    <row r="127" spans="1:7">
       <c r="A127" s="38" t="s">
         <v>58</v>
       </c>
@@ -10892,7 +10892,7 @@
       <c r="F127" s="37"/>
       <c r="G127" s="37"/>
     </row>
-    <row r="128" spans="1:7" hidden="1">
+    <row r="128" spans="1:7">
       <c r="A128" s="38" t="s">
         <v>58</v>
       </c>
@@ -10913,7 +10913,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1">
+    <row r="129" spans="1:7">
       <c r="A129" s="38" t="s">
         <v>58</v>
       </c>
@@ -10932,7 +10932,7 @@
       </c>
       <c r="G129" s="38"/>
     </row>
-    <row r="130" spans="1:7" hidden="1">
+    <row r="130" spans="1:7">
       <c r="A130" s="38" t="s">
         <v>58</v>
       </c>
@@ -10951,7 +10951,7 @@
       </c>
       <c r="G130" s="38"/>
     </row>
-    <row r="131" spans="1:7" hidden="1">
+    <row r="131" spans="1:7">
       <c r="A131" s="38" t="s">
         <v>58</v>
       </c>
@@ -10970,7 +10970,7 @@
       </c>
       <c r="G131" s="38"/>
     </row>
-    <row r="132" spans="1:7" hidden="1">
+    <row r="132" spans="1:7">
       <c r="A132" s="38" t="s">
         <v>58</v>
       </c>
@@ -10989,7 +10989,7 @@
       </c>
       <c r="G132" s="38"/>
     </row>
-    <row r="133" spans="1:7" hidden="1">
+    <row r="133" spans="1:7">
       <c r="A133" s="38" t="s">
         <v>58</v>
       </c>
@@ -11008,7 +11008,7 @@
       </c>
       <c r="G133" s="38"/>
     </row>
-    <row r="134" spans="1:7" hidden="1">
+    <row r="134" spans="1:7">
       <c r="A134" s="39" t="s">
         <v>58</v>
       </c>
@@ -11027,7 +11027,7 @@
       </c>
       <c r="G134" s="39"/>
     </row>
-    <row r="135" spans="1:7" hidden="1">
+    <row r="135" spans="1:7">
       <c r="A135" s="38" t="s">
         <v>58</v>
       </c>
@@ -11046,7 +11046,7 @@
       </c>
       <c r="G135" s="38"/>
     </row>
-    <row r="136" spans="1:7" ht="30" hidden="1">
+    <row r="136" spans="1:7" ht="30">
       <c r="A136" s="38" t="s">
         <v>58</v>
       </c>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="G136" s="38"/>
     </row>
-    <row r="137" spans="1:7" hidden="1">
+    <row r="137" spans="1:7">
       <c r="A137" s="38" t="s">
         <v>58</v>
       </c>
@@ -11080,7 +11080,7 @@
       <c r="F137" s="37"/>
       <c r="G137" s="37"/>
     </row>
-    <row r="138" spans="1:7" hidden="1">
+    <row r="138" spans="1:7">
       <c r="A138" s="38" t="s">
         <v>58</v>
       </c>
@@ -11095,7 +11095,7 @@
       <c r="F138" s="37"/>
       <c r="G138" s="37"/>
     </row>
-    <row r="139" spans="1:7" ht="30" hidden="1">
+    <row r="139" spans="1:7" ht="30">
       <c r="A139" s="38" t="s">
         <v>58</v>
       </c>
@@ -11118,7 +11118,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1">
+    <row r="140" spans="1:7">
       <c r="A140" s="38" t="s">
         <v>58</v>
       </c>
@@ -11139,7 +11139,7 @@
       </c>
       <c r="G140" s="38"/>
     </row>
-    <row r="141" spans="1:7" hidden="1">
+    <row r="141" spans="1:7">
       <c r="A141" s="38" t="s">
         <v>58</v>
       </c>
@@ -11160,7 +11160,7 @@
       </c>
       <c r="G141" s="38"/>
     </row>
-    <row r="142" spans="1:7" hidden="1">
+    <row r="142" spans="1:7">
       <c r="A142" s="38" t="s">
         <v>58</v>
       </c>
@@ -11181,7 +11181,7 @@
       </c>
       <c r="G142" s="38"/>
     </row>
-    <row r="143" spans="1:7" hidden="1">
+    <row r="143" spans="1:7">
       <c r="A143" s="38" t="s">
         <v>58</v>
       </c>
@@ -11202,7 +11202,7 @@
       </c>
       <c r="G143" s="38"/>
     </row>
-    <row r="144" spans="1:7" hidden="1">
+    <row r="144" spans="1:7">
       <c r="A144" s="38" t="s">
         <v>58</v>
       </c>
@@ -11223,7 +11223,7 @@
       </c>
       <c r="G144" s="38"/>
     </row>
-    <row r="145" spans="1:8" ht="19.5" hidden="1" customHeight="1">
+    <row r="145" spans="1:8" ht="19.5" customHeight="1">
       <c r="A145" s="39" t="s">
         <v>58</v>
       </c>
@@ -11242,7 +11242,7 @@
       </c>
       <c r="G145" s="39"/>
     </row>
-    <row r="146" spans="1:8" hidden="1">
+    <row r="146" spans="1:8">
       <c r="A146" s="38" t="s">
         <v>58</v>
       </c>
@@ -11263,7 +11263,7 @@
       </c>
       <c r="G146" s="38"/>
     </row>
-    <row r="147" spans="1:8" ht="45" hidden="1">
+    <row r="147" spans="1:8" ht="45">
       <c r="A147" s="38" t="s">
         <v>58</v>
       </c>
@@ -11284,7 +11284,7 @@
       </c>
       <c r="G147" s="38"/>
     </row>
-    <row r="148" spans="1:8" hidden="1">
+    <row r="148" spans="1:8">
       <c r="A148" s="38" t="s">
         <v>131</v>
       </c>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="G148" s="38"/>
     </row>
-    <row r="149" spans="1:8" hidden="1">
+    <row r="149" spans="1:8">
       <c r="A149" s="38" t="s">
         <v>131</v>
       </c>
@@ -11324,7 +11324,7 @@
       </c>
       <c r="G149" s="38"/>
     </row>
-    <row r="150" spans="1:8" hidden="1">
+    <row r="150" spans="1:8">
       <c r="A150" s="38" t="s">
         <v>58</v>
       </c>
@@ -11341,7 +11341,7 @@
       <c r="F150" s="37"/>
       <c r="G150" s="37"/>
     </row>
-    <row r="151" spans="1:8" hidden="1">
+    <row r="151" spans="1:8">
       <c r="A151" s="38" t="s">
         <v>58</v>
       </c>
@@ -11358,7 +11358,7 @@
       <c r="F151" s="37"/>
       <c r="G151" s="37"/>
     </row>
-    <row r="152" spans="1:8" hidden="1">
+    <row r="152" spans="1:8">
       <c r="A152" s="38" t="s">
         <v>58</v>
       </c>
@@ -11379,7 +11379,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="153" spans="1:8" hidden="1">
+    <row r="153" spans="1:8">
       <c r="A153" s="38" t="s">
         <v>58</v>
       </c>
@@ -11400,7 +11400,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="154" spans="1:8" hidden="1">
+    <row r="154" spans="1:8">
       <c r="A154" s="38" t="s">
         <v>58</v>
       </c>
@@ -11421,7 +11421,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="155" spans="1:8" hidden="1">
+    <row r="155" spans="1:8">
       <c r="A155" s="38" t="s">
         <v>58</v>
       </c>
@@ -11438,7 +11438,7 @@
       <c r="F155" s="37"/>
       <c r="G155" s="41"/>
     </row>
-    <row r="156" spans="1:8" hidden="1">
+    <row r="156" spans="1:8">
       <c r="A156" s="38" t="s">
         <v>58</v>
       </c>
@@ -11455,7 +11455,7 @@
       <c r="F156" s="37"/>
       <c r="G156" s="41"/>
     </row>
-    <row r="157" spans="1:8" hidden="1">
+    <row r="157" spans="1:8">
       <c r="A157" s="38" t="s">
         <v>58</v>
       </c>
@@ -11472,7 +11472,7 @@
       <c r="F157" s="37"/>
       <c r="G157" s="41"/>
     </row>
-    <row r="158" spans="1:8" ht="15.6" hidden="1">
+    <row r="158" spans="1:8" ht="15.6">
       <c r="A158" s="65" t="s">
         <v>58</v>
       </c>
@@ -11487,7 +11487,7 @@
       <c r="F158" s="37"/>
       <c r="G158" s="36"/>
     </row>
-    <row r="159" spans="1:8" hidden="1">
+    <row r="159" spans="1:8">
       <c r="A159" s="65" t="s">
         <v>58</v>
       </c>
@@ -11502,7 +11502,7 @@
       <c r="F159" s="37"/>
       <c r="G159" s="37"/>
     </row>
-    <row r="160" spans="1:8" s="76" customFormat="1" hidden="1">
+    <row r="160" spans="1:8" s="76" customFormat="1">
       <c r="A160" s="73" t="s">
         <v>58</v>
       </c>
@@ -11520,7 +11520,7 @@
       <c r="G160" s="40"/>
       <c r="H160" s="75"/>
     </row>
-    <row r="161" spans="1:7" hidden="1">
+    <row r="161" spans="1:7">
       <c r="A161" s="65" t="s">
         <v>58</v>
       </c>
@@ -11539,7 +11539,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1">
+    <row r="162" spans="1:7">
       <c r="A162" s="65" t="s">
         <v>58</v>
       </c>
@@ -11556,7 +11556,7 @@
       <c r="F162" s="38"/>
       <c r="G162" s="38"/>
     </row>
-    <row r="163" spans="1:7" hidden="1">
+    <row r="163" spans="1:7">
       <c r="A163" s="65" t="s">
         <v>58</v>
       </c>
@@ -11573,7 +11573,7 @@
       <c r="F163" s="38"/>
       <c r="G163" s="38"/>
     </row>
-    <row r="164" spans="1:7" hidden="1">
+    <row r="164" spans="1:7">
       <c r="A164" s="38" t="s">
         <v>58</v>
       </c>
@@ -11592,7 +11592,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1">
+    <row r="165" spans="1:7">
       <c r="A165" s="38" t="s">
         <v>58</v>
       </c>
@@ -11607,7 +11607,7 @@
       <c r="F165" s="41"/>
       <c r="G165" s="41"/>
     </row>
-    <row r="166" spans="1:7" s="51" customFormat="1" hidden="1">
+    <row r="166" spans="1:7" s="51" customFormat="1">
       <c r="A166" s="65" t="s">
         <v>58</v>
       </c>
@@ -11624,7 +11624,7 @@
       <c r="F166" s="65"/>
       <c r="G166" s="65"/>
     </row>
-    <row r="167" spans="1:7" hidden="1">
+    <row r="167" spans="1:7">
       <c r="A167" s="38" t="s">
         <v>58</v>
       </c>
@@ -11641,7 +11641,7 @@
       <c r="F167" s="38"/>
       <c r="G167" s="38"/>
     </row>
-    <row r="168" spans="1:7" ht="30" hidden="1">
+    <row r="168" spans="1:7" ht="30">
       <c r="A168" s="38" t="s">
         <v>58</v>
       </c>
@@ -11658,7 +11658,7 @@
       <c r="F168" s="38"/>
       <c r="G168" s="38"/>
     </row>
-    <row r="169" spans="1:7" hidden="1">
+    <row r="169" spans="1:7">
       <c r="A169" s="38" t="s">
         <v>58</v>
       </c>
@@ -11675,7 +11675,7 @@
       <c r="F169" s="40"/>
       <c r="G169" s="38"/>
     </row>
-    <row r="170" spans="1:7" ht="30" hidden="1">
+    <row r="170" spans="1:7" ht="30">
       <c r="A170" s="38" t="s">
         <v>58</v>
       </c>
@@ -11692,7 +11692,7 @@
       <c r="F170" s="40"/>
       <c r="G170" s="38"/>
     </row>
-    <row r="171" spans="1:7" hidden="1">
+    <row r="171" spans="1:7">
       <c r="A171" s="38" t="s">
         <v>58</v>
       </c>
@@ -11709,7 +11709,7 @@
       <c r="F171" s="40"/>
       <c r="G171" s="38"/>
     </row>
-    <row r="172" spans="1:7" hidden="1">
+    <row r="172" spans="1:7">
       <c r="A172" s="38" t="s">
         <v>58</v>
       </c>
@@ -11726,7 +11726,7 @@
       <c r="F172" s="40"/>
       <c r="G172" s="38"/>
     </row>
-    <row r="173" spans="1:7" ht="30" hidden="1">
+    <row r="173" spans="1:7" ht="30">
       <c r="A173" s="38" t="s">
         <v>58</v>
       </c>
@@ -11743,7 +11743,7 @@
       <c r="F173" s="40"/>
       <c r="G173" s="38"/>
     </row>
-    <row r="174" spans="1:7" hidden="1">
+    <row r="174" spans="1:7">
       <c r="A174" s="38" t="s">
         <v>58</v>
       </c>
@@ -11760,7 +11760,7 @@
       <c r="F174" s="40"/>
       <c r="G174" s="38"/>
     </row>
-    <row r="175" spans="1:7" ht="45" hidden="1">
+    <row r="175" spans="1:7" ht="45">
       <c r="A175" s="38" t="s">
         <v>58</v>
       </c>
@@ -11777,7 +11777,7 @@
       <c r="F175" s="38"/>
       <c r="G175" s="38"/>
     </row>
-    <row r="176" spans="1:7" ht="30" hidden="1">
+    <row r="176" spans="1:7" ht="30">
       <c r="A176" s="38" t="s">
         <v>58</v>
       </c>
@@ -11794,7 +11794,7 @@
       <c r="F176" s="38"/>
       <c r="G176" s="38"/>
     </row>
-    <row r="177" spans="1:7" hidden="1">
+    <row r="177" spans="1:7">
       <c r="A177" s="38" t="s">
         <v>58</v>
       </c>
@@ -11811,7 +11811,7 @@
       <c r="F177" s="38"/>
       <c r="G177" s="38"/>
     </row>
-    <row r="178" spans="1:7" hidden="1">
+    <row r="178" spans="1:7">
       <c r="A178" s="38" t="s">
         <v>58</v>
       </c>
@@ -11826,7 +11826,7 @@
       <c r="F178" s="41"/>
       <c r="G178" s="42"/>
     </row>
-    <row r="179" spans="1:7" hidden="1">
+    <row r="179" spans="1:7">
       <c r="A179" s="38" t="s">
         <v>58</v>
       </c>
@@ -11841,7 +11841,7 @@
       <c r="F179" s="41"/>
       <c r="G179" s="41"/>
     </row>
-    <row r="180" spans="1:7" hidden="1">
+    <row r="180" spans="1:7">
       <c r="A180" s="38" t="s">
         <v>58</v>
       </c>
@@ -11860,7 +11860,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="181" spans="1:7" hidden="1">
+    <row r="181" spans="1:7">
       <c r="A181" s="38" t="s">
         <v>58</v>
       </c>
@@ -11877,7 +11877,7 @@
       <c r="F181" s="38"/>
       <c r="G181" s="38"/>
     </row>
-    <row r="182" spans="1:7" hidden="1">
+    <row r="182" spans="1:7">
       <c r="A182" s="38" t="s">
         <v>58</v>
       </c>
@@ -11894,7 +11894,7 @@
       <c r="F182" s="38"/>
       <c r="G182" s="38"/>
     </row>
-    <row r="183" spans="1:7" hidden="1">
+    <row r="183" spans="1:7">
       <c r="A183" s="38" t="s">
         <v>58</v>
       </c>
@@ -11911,7 +11911,7 @@
       <c r="F183" s="38"/>
       <c r="G183" s="38"/>
     </row>
-    <row r="184" spans="1:7" hidden="1">
+    <row r="184" spans="1:7">
       <c r="A184" s="38" t="s">
         <v>58</v>
       </c>
@@ -11926,7 +11926,7 @@
       <c r="F184" s="41"/>
       <c r="G184" s="41"/>
     </row>
-    <row r="185" spans="1:7" hidden="1">
+    <row r="185" spans="1:7">
       <c r="A185" s="38" t="s">
         <v>58</v>
       </c>
@@ -11945,7 +11945,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="186" spans="1:7" hidden="1">
+    <row r="186" spans="1:7">
       <c r="A186" s="38" t="s">
         <v>58</v>
       </c>
@@ -11962,7 +11962,7 @@
       <c r="F186" s="38"/>
       <c r="G186" s="38"/>
     </row>
-    <row r="187" spans="1:7" ht="30" hidden="1">
+    <row r="187" spans="1:7" ht="30">
       <c r="A187" s="38" t="s">
         <v>58</v>
       </c>
@@ -11979,7 +11979,7 @@
       <c r="F187" s="38"/>
       <c r="G187" s="38"/>
     </row>
-    <row r="188" spans="1:7" hidden="1">
+    <row r="188" spans="1:7">
       <c r="A188" s="38" t="s">
         <v>58</v>
       </c>
@@ -11996,7 +11996,7 @@
       <c r="F188" s="40"/>
       <c r="G188" s="38"/>
     </row>
-    <row r="189" spans="1:7" ht="30" hidden="1">
+    <row r="189" spans="1:7" ht="30">
       <c r="A189" s="38" t="s">
         <v>58</v>
       </c>
@@ -12013,7 +12013,7 @@
       <c r="F189" s="40"/>
       <c r="G189" s="38"/>
     </row>
-    <row r="190" spans="1:7" hidden="1">
+    <row r="190" spans="1:7">
       <c r="A190" s="38" t="s">
         <v>58</v>
       </c>
@@ -12030,7 +12030,7 @@
       <c r="F190" s="40"/>
       <c r="G190" s="38"/>
     </row>
-    <row r="191" spans="1:7" hidden="1">
+    <row r="191" spans="1:7">
       <c r="A191" s="38" t="s">
         <v>58</v>
       </c>
@@ -12047,7 +12047,7 @@
       <c r="F191" s="40"/>
       <c r="G191" s="38"/>
     </row>
-    <row r="192" spans="1:7" ht="30" hidden="1">
+    <row r="192" spans="1:7" ht="30">
       <c r="A192" s="38" t="s">
         <v>58</v>
       </c>
@@ -12064,7 +12064,7 @@
       <c r="F192" s="40"/>
       <c r="G192" s="38"/>
     </row>
-    <row r="193" spans="1:7" hidden="1">
+    <row r="193" spans="1:7">
       <c r="A193" s="38" t="s">
         <v>58</v>
       </c>
@@ -12081,7 +12081,7 @@
       <c r="F193" s="40"/>
       <c r="G193" s="38"/>
     </row>
-    <row r="194" spans="1:7" ht="45" hidden="1">
+    <row r="194" spans="1:7" ht="45">
       <c r="A194" s="38" t="s">
         <v>58</v>
       </c>
@@ -12098,7 +12098,7 @@
       <c r="F194" s="38"/>
       <c r="G194" s="38"/>
     </row>
-    <row r="195" spans="1:7" ht="30" hidden="1">
+    <row r="195" spans="1:7" ht="30">
       <c r="A195" s="38" t="s">
         <v>58</v>
       </c>
@@ -12115,7 +12115,7 @@
       <c r="F195" s="38"/>
       <c r="G195" s="38"/>
     </row>
-    <row r="196" spans="1:7" hidden="1">
+    <row r="196" spans="1:7">
       <c r="A196" s="38" t="s">
         <v>58</v>
       </c>
@@ -12132,7 +12132,7 @@
       <c r="F196" s="38"/>
       <c r="G196" s="38"/>
     </row>
-    <row r="197" spans="1:7" hidden="1">
+    <row r="197" spans="1:7">
       <c r="A197" s="38" t="s">
         <v>58</v>
       </c>
@@ -12147,7 +12147,7 @@
       <c r="F197" s="41"/>
       <c r="G197" s="41"/>
     </row>
-    <row r="198" spans="1:7" hidden="1">
+    <row r="198" spans="1:7">
       <c r="A198" s="38" t="s">
         <v>58</v>
       </c>
@@ -12162,7 +12162,7 @@
       <c r="F198" s="41"/>
       <c r="G198" s="41"/>
     </row>
-    <row r="199" spans="1:7" hidden="1">
+    <row r="199" spans="1:7">
       <c r="A199" s="38" t="s">
         <v>58</v>
       </c>
@@ -12181,7 +12181,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="200" spans="1:7" hidden="1">
+    <row r="200" spans="1:7">
       <c r="A200" s="38" t="s">
         <v>58</v>
       </c>
@@ -12198,7 +12198,7 @@
       <c r="F200" s="38"/>
       <c r="G200" s="38"/>
     </row>
-    <row r="201" spans="1:7" hidden="1">
+    <row r="201" spans="1:7">
       <c r="A201" s="38" t="s">
         <v>58</v>
       </c>
@@ -12215,7 +12215,7 @@
       <c r="F201" s="38"/>
       <c r="G201" s="38"/>
     </row>
-    <row r="202" spans="1:7" hidden="1">
+    <row r="202" spans="1:7">
       <c r="A202" s="38" t="s">
         <v>58</v>
       </c>
@@ -12232,7 +12232,7 @@
       <c r="F202" s="38"/>
       <c r="G202" s="38"/>
     </row>
-    <row r="203" spans="1:7" hidden="1">
+    <row r="203" spans="1:7">
       <c r="A203" s="38" t="s">
         <v>58</v>
       </c>
@@ -12247,7 +12247,7 @@
       <c r="F203" s="41"/>
       <c r="G203" s="41"/>
     </row>
-    <row r="204" spans="1:7" ht="42" hidden="1" customHeight="1">
+    <row r="204" spans="1:7" ht="42" customHeight="1">
       <c r="A204" s="38" t="s">
         <v>58</v>
       </c>
@@ -12266,7 +12266,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="205" spans="1:7" hidden="1">
+    <row r="205" spans="1:7">
       <c r="A205" s="38" t="s">
         <v>58</v>
       </c>
@@ -12283,7 +12283,7 @@
       <c r="F205" s="38"/>
       <c r="G205" s="38"/>
     </row>
-    <row r="206" spans="1:7" ht="36.75" hidden="1" customHeight="1">
+    <row r="206" spans="1:7" ht="36.75" customHeight="1">
       <c r="A206" s="38" t="s">
         <v>58</v>
       </c>
@@ -12300,7 +12300,7 @@
       <c r="F206" s="38"/>
       <c r="G206" s="38"/>
     </row>
-    <row r="207" spans="1:7" hidden="1">
+    <row r="207" spans="1:7">
       <c r="A207" s="38" t="s">
         <v>58</v>
       </c>
@@ -12317,7 +12317,7 @@
       <c r="F207" s="40"/>
       <c r="G207" s="38"/>
     </row>
-    <row r="208" spans="1:7" ht="30" hidden="1">
+    <row r="208" spans="1:7" ht="30">
       <c r="A208" s="38" t="s">
         <v>58</v>
       </c>
@@ -12334,7 +12334,7 @@
       <c r="F208" s="40"/>
       <c r="G208" s="38"/>
     </row>
-    <row r="209" spans="1:7" hidden="1">
+    <row r="209" spans="1:7">
       <c r="A209" s="38" t="s">
         <v>58</v>
       </c>
@@ -12351,7 +12351,7 @@
       <c r="F209" s="40"/>
       <c r="G209" s="38"/>
     </row>
-    <row r="210" spans="1:7" hidden="1">
+    <row r="210" spans="1:7">
       <c r="A210" s="38" t="s">
         <v>58</v>
       </c>
@@ -12368,7 +12368,7 @@
       <c r="F210" s="40"/>
       <c r="G210" s="38"/>
     </row>
-    <row r="211" spans="1:7" ht="30" hidden="1">
+    <row r="211" spans="1:7" ht="30">
       <c r="A211" s="38" t="s">
         <v>58</v>
       </c>
@@ -12385,7 +12385,7 @@
       <c r="F211" s="40"/>
       <c r="G211" s="38"/>
     </row>
-    <row r="212" spans="1:7" hidden="1">
+    <row r="212" spans="1:7">
       <c r="A212" s="38" t="s">
         <v>58</v>
       </c>
@@ -12402,7 +12402,7 @@
       <c r="F212" s="40"/>
       <c r="G212" s="38"/>
     </row>
-    <row r="213" spans="1:7" ht="45" hidden="1">
+    <row r="213" spans="1:7" ht="45">
       <c r="A213" s="38" t="s">
         <v>58</v>
       </c>
@@ -12419,7 +12419,7 @@
       <c r="F213" s="38"/>
       <c r="G213" s="38"/>
     </row>
-    <row r="214" spans="1:7" ht="30" hidden="1">
+    <row r="214" spans="1:7" ht="30">
       <c r="A214" s="38" t="s">
         <v>58</v>
       </c>
@@ -12436,7 +12436,7 @@
       <c r="F214" s="38"/>
       <c r="G214" s="38"/>
     </row>
-    <row r="215" spans="1:7" hidden="1">
+    <row r="215" spans="1:7">
       <c r="A215" s="38" t="s">
         <v>58</v>
       </c>
@@ -12453,7 +12453,7 @@
       <c r="F215" s="38"/>
       <c r="G215" s="38"/>
     </row>
-    <row r="216" spans="1:7" hidden="1">
+    <row r="216" spans="1:7">
       <c r="A216" s="38" t="s">
         <v>58</v>
       </c>
@@ -12468,7 +12468,7 @@
       <c r="F216" s="41"/>
       <c r="G216" s="43"/>
     </row>
-    <row r="217" spans="1:7" hidden="1">
+    <row r="217" spans="1:7">
       <c r="A217" s="38" t="s">
         <v>58</v>
       </c>
@@ -12483,7 +12483,7 @@
       <c r="F217" s="41"/>
       <c r="G217" s="41"/>
     </row>
-    <row r="218" spans="1:7" ht="30" hidden="1">
+    <row r="218" spans="1:7" ht="30">
       <c r="A218" s="38" t="s">
         <v>58</v>
       </c>
@@ -12502,7 +12502,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="219" spans="1:7" hidden="1">
+    <row r="219" spans="1:7">
       <c r="A219" s="38" t="s">
         <v>58</v>
       </c>
@@ -12519,7 +12519,7 @@
       <c r="F219" s="38"/>
       <c r="G219" s="38"/>
     </row>
-    <row r="220" spans="1:7" hidden="1">
+    <row r="220" spans="1:7">
       <c r="A220" s="38" t="s">
         <v>58</v>
       </c>
@@ -12536,7 +12536,7 @@
       <c r="F220" s="38"/>
       <c r="G220" s="38"/>
     </row>
-    <row r="221" spans="1:7" ht="30" hidden="1">
+    <row r="221" spans="1:7" ht="30">
       <c r="A221" s="38" t="s">
         <v>58</v>
       </c>
@@ -12553,7 +12553,7 @@
       <c r="F221" s="38"/>
       <c r="G221" s="38"/>
     </row>
-    <row r="222" spans="1:7" ht="30" hidden="1">
+    <row r="222" spans="1:7" ht="30">
       <c r="A222" s="38" t="s">
         <v>58</v>
       </c>
@@ -12570,7 +12570,7 @@
       <c r="F222" s="38"/>
       <c r="G222" s="38"/>
     </row>
-    <row r="223" spans="1:7" hidden="1">
+    <row r="223" spans="1:7">
       <c r="A223" s="38" t="s">
         <v>58</v>
       </c>
@@ -12587,7 +12587,7 @@
       <c r="F223" s="40"/>
       <c r="G223" s="38"/>
     </row>
-    <row r="224" spans="1:7" hidden="1">
+    <row r="224" spans="1:7">
       <c r="A224" s="38" t="s">
         <v>58</v>
       </c>
@@ -12604,7 +12604,7 @@
       <c r="F224" s="38"/>
       <c r="G224" s="38"/>
     </row>
-    <row r="225" spans="1:7" hidden="1">
+    <row r="225" spans="1:7">
       <c r="A225" s="38" t="s">
         <v>58</v>
       </c>
@@ -12623,7 +12623,7 @@
       <c r="F225" s="38"/>
       <c r="G225" s="38"/>
     </row>
-    <row r="226" spans="1:7" ht="30" hidden="1">
+    <row r="226" spans="1:7" ht="30">
       <c r="A226" s="38" t="s">
         <v>58</v>
       </c>
@@ -12642,7 +12642,7 @@
       <c r="F226" s="38"/>
       <c r="G226" s="38"/>
     </row>
-    <row r="227" spans="1:7" hidden="1">
+    <row r="227" spans="1:7">
       <c r="A227" s="38" t="s">
         <v>58</v>
       </c>
@@ -12659,7 +12659,7 @@
       <c r="F227" s="38"/>
       <c r="G227" s="38"/>
     </row>
-    <row r="228" spans="1:7" hidden="1">
+    <row r="228" spans="1:7">
       <c r="A228" s="38" t="s">
         <v>58</v>
       </c>
@@ -12676,7 +12676,7 @@
       <c r="F228" s="38"/>
       <c r="G228" s="38"/>
     </row>
-    <row r="229" spans="1:7" hidden="1">
+    <row r="229" spans="1:7">
       <c r="A229" s="38" t="s">
         <v>58</v>
       </c>
@@ -12693,7 +12693,7 @@
       <c r="F229" s="38"/>
       <c r="G229" s="38"/>
     </row>
-    <row r="230" spans="1:7" hidden="1">
+    <row r="230" spans="1:7">
       <c r="A230" s="38" t="s">
         <v>58</v>
       </c>
@@ -12708,7 +12708,7 @@
       <c r="F230" s="41"/>
       <c r="G230" s="41"/>
     </row>
-    <row r="231" spans="1:7" hidden="1">
+    <row r="231" spans="1:7">
       <c r="A231" s="38" t="s">
         <v>58</v>
       </c>
@@ -12727,7 +12727,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="232" spans="1:7" hidden="1">
+    <row r="232" spans="1:7">
       <c r="A232" s="38" t="s">
         <v>58</v>
       </c>
@@ -12744,7 +12744,7 @@
       <c r="F232" s="38"/>
       <c r="G232" s="38"/>
     </row>
-    <row r="233" spans="1:7" hidden="1">
+    <row r="233" spans="1:7">
       <c r="A233" s="38" t="s">
         <v>58</v>
       </c>
@@ -12761,7 +12761,7 @@
       <c r="F233" s="38"/>
       <c r="G233" s="38"/>
     </row>
-    <row r="234" spans="1:7" hidden="1">
+    <row r="234" spans="1:7">
       <c r="A234" s="38" t="s">
         <v>58</v>
       </c>
@@ -12778,7 +12778,7 @@
       <c r="F234" s="38"/>
       <c r="G234" s="38"/>
     </row>
-    <row r="235" spans="1:7" hidden="1">
+    <row r="235" spans="1:7">
       <c r="A235" s="38" t="s">
         <v>58</v>
       </c>
@@ -12797,7 +12797,7 @@
       <c r="F235" s="40"/>
       <c r="G235" s="38"/>
     </row>
-    <row r="236" spans="1:7" hidden="1">
+    <row r="236" spans="1:7">
       <c r="A236" s="38" t="s">
         <v>58</v>
       </c>
@@ -12814,7 +12814,7 @@
       <c r="F236" s="38"/>
       <c r="G236" s="38"/>
     </row>
-    <row r="237" spans="1:7" hidden="1">
+    <row r="237" spans="1:7">
       <c r="A237" s="38" t="s">
         <v>58</v>
       </c>
@@ -12831,7 +12831,7 @@
       <c r="F237" s="38"/>
       <c r="G237" s="38"/>
     </row>
-    <row r="238" spans="1:7" hidden="1">
+    <row r="238" spans="1:7">
       <c r="A238" s="38" t="s">
         <v>58</v>
       </c>
@@ -12848,7 +12848,7 @@
       <c r="F238" s="38"/>
       <c r="G238" s="38"/>
     </row>
-    <row r="239" spans="1:7" hidden="1">
+    <row r="239" spans="1:7">
       <c r="A239" s="38" t="s">
         <v>58</v>
       </c>
@@ -12865,7 +12865,7 @@
       <c r="F239" s="38"/>
       <c r="G239" s="38"/>
     </row>
-    <row r="240" spans="1:7" hidden="1">
+    <row r="240" spans="1:7">
       <c r="A240" s="38" t="s">
         <v>58</v>
       </c>
@@ -12882,7 +12882,7 @@
       <c r="F240" s="38"/>
       <c r="G240" s="38"/>
     </row>
-    <row r="241" spans="1:7" hidden="1">
+    <row r="241" spans="1:7">
       <c r="A241" s="38" t="s">
         <v>58</v>
       </c>
@@ -12899,7 +12899,7 @@
       <c r="F241" s="38"/>
       <c r="G241" s="38"/>
     </row>
-    <row r="242" spans="1:7" hidden="1">
+    <row r="242" spans="1:7">
       <c r="A242" s="38" t="s">
         <v>58</v>
       </c>
@@ -12914,7 +12914,7 @@
       <c r="F242" s="41"/>
       <c r="G242" s="41"/>
     </row>
-    <row r="243" spans="1:7" hidden="1">
+    <row r="243" spans="1:7">
       <c r="A243" s="38" t="s">
         <v>58</v>
       </c>
@@ -12933,7 +12933,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="244" spans="1:7" hidden="1">
+    <row r="244" spans="1:7">
       <c r="A244" s="38" t="s">
         <v>58</v>
       </c>
@@ -12950,7 +12950,7 @@
       <c r="F244" s="38"/>
       <c r="G244" s="38"/>
     </row>
-    <row r="245" spans="1:7" hidden="1">
+    <row r="245" spans="1:7">
       <c r="A245" s="38" t="s">
         <v>58</v>
       </c>
@@ -12965,7 +12965,7 @@
       <c r="F245" s="41"/>
       <c r="G245" s="41"/>
     </row>
-    <row r="246" spans="1:7" hidden="1">
+    <row r="246" spans="1:7">
       <c r="A246" s="38" t="s">
         <v>58</v>
       </c>
@@ -12982,7 +12982,7 @@
       <c r="F246" s="38"/>
       <c r="G246" s="38"/>
     </row>
-    <row r="247" spans="1:7" hidden="1">
+    <row r="247" spans="1:7">
       <c r="A247" s="38" t="s">
         <v>58</v>
       </c>
@@ -12997,7 +12997,7 @@
       <c r="F247" s="38"/>
       <c r="G247" s="43"/>
     </row>
-    <row r="248" spans="1:7" hidden="1">
+    <row r="248" spans="1:7">
       <c r="A248" s="38" t="s">
         <v>58</v>
       </c>
@@ -13014,7 +13014,7 @@
       <c r="F248" s="38"/>
       <c r="G248" s="38"/>
     </row>
-    <row r="249" spans="1:7" hidden="1">
+    <row r="249" spans="1:7">
       <c r="A249" s="38" t="s">
         <v>58</v>
       </c>
@@ -13031,7 +13031,7 @@
       <c r="F249" s="38"/>
       <c r="G249" s="38"/>
     </row>
-    <row r="250" spans="1:7" hidden="1">
+    <row r="250" spans="1:7">
       <c r="A250" s="38" t="s">
         <v>58</v>
       </c>
@@ -13046,7 +13046,7 @@
       <c r="F250" s="41"/>
       <c r="G250" s="41"/>
     </row>
-    <row r="251" spans="1:7" hidden="1">
+    <row r="251" spans="1:7">
       <c r="A251" s="38" t="s">
         <v>58</v>
       </c>
@@ -13063,7 +13063,7 @@
       <c r="F251" s="38"/>
       <c r="G251" s="38"/>
     </row>
-    <row r="252" spans="1:7" hidden="1">
+    <row r="252" spans="1:7">
       <c r="A252" s="38" t="s">
         <v>58</v>
       </c>
@@ -13080,7 +13080,7 @@
       <c r="F252" s="38"/>
       <c r="G252" s="38"/>
     </row>
-    <row r="253" spans="1:7" ht="15.6" hidden="1">
+    <row r="253" spans="1:7" ht="15.6">
       <c r="A253" s="38" t="s">
         <v>58</v>
       </c>
@@ -13095,7 +13095,7 @@
       <c r="F253" s="41"/>
       <c r="G253" s="45"/>
     </row>
-    <row r="254" spans="1:7" hidden="1">
+    <row r="254" spans="1:7">
       <c r="A254" s="38" t="s">
         <v>58</v>
       </c>
@@ -13110,7 +13110,7 @@
       <c r="F254" s="41"/>
       <c r="G254" s="41"/>
     </row>
-    <row r="255" spans="1:7" hidden="1">
+    <row r="255" spans="1:7">
       <c r="A255" s="38" t="s">
         <v>58</v>
       </c>
@@ -13125,7 +13125,7 @@
       <c r="F255" s="41"/>
       <c r="G255" s="41"/>
     </row>
-    <row r="256" spans="1:7" ht="30" hidden="1">
+    <row r="256" spans="1:7" ht="30">
       <c r="A256" s="38" t="s">
         <v>58</v>
       </c>
@@ -13144,7 +13144,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="257" spans="1:7" hidden="1">
+    <row r="257" spans="1:7">
       <c r="A257" s="38" t="s">
         <v>58</v>
       </c>
@@ -13161,7 +13161,7 @@
       <c r="F257" s="38"/>
       <c r="G257" s="44"/>
     </row>
-    <row r="258" spans="1:7" hidden="1">
+    <row r="258" spans="1:7">
       <c r="A258" s="38" t="s">
         <v>58</v>
       </c>
@@ -13180,7 +13180,7 @@
       <c r="F258" s="38"/>
       <c r="G258" s="44"/>
     </row>
-    <row r="259" spans="1:7" ht="30" hidden="1">
+    <row r="259" spans="1:7" ht="30">
       <c r="A259" s="38" t="s">
         <v>58</v>
       </c>
@@ -13197,7 +13197,7 @@
       <c r="F259" s="38"/>
       <c r="G259" s="44"/>
     </row>
-    <row r="260" spans="1:7" hidden="1">
+    <row r="260" spans="1:7">
       <c r="A260" s="38" t="s">
         <v>58</v>
       </c>
@@ -13214,7 +13214,7 @@
       <c r="F260" s="38"/>
       <c r="G260" s="44"/>
     </row>
-    <row r="261" spans="1:7" hidden="1">
+    <row r="261" spans="1:7">
       <c r="A261" s="38" t="s">
         <v>58</v>
       </c>
@@ -13231,7 +13231,7 @@
       <c r="F261" s="38"/>
       <c r="G261" s="44"/>
     </row>
-    <row r="262" spans="1:7" ht="30" hidden="1">
+    <row r="262" spans="1:7" ht="30">
       <c r="A262" s="38" t="s">
         <v>58</v>
       </c>
@@ -13248,7 +13248,7 @@
       <c r="F262" s="38"/>
       <c r="G262" s="44"/>
     </row>
-    <row r="263" spans="1:7" hidden="1">
+    <row r="263" spans="1:7">
       <c r="A263" s="38" t="s">
         <v>58</v>
       </c>
@@ -13267,7 +13267,7 @@
       <c r="F263" s="38"/>
       <c r="G263" s="44"/>
     </row>
-    <row r="264" spans="1:7" ht="30" hidden="1">
+    <row r="264" spans="1:7" ht="30">
       <c r="A264" s="38" t="s">
         <v>58</v>
       </c>
@@ -13284,7 +13284,7 @@
       <c r="F264" s="38"/>
       <c r="G264" s="44"/>
     </row>
-    <row r="265" spans="1:7" ht="45" hidden="1">
+    <row r="265" spans="1:7" ht="45">
       <c r="A265" s="38" t="s">
         <v>58</v>
       </c>
@@ -13301,7 +13301,7 @@
       <c r="F265" s="38"/>
       <c r="G265" s="44"/>
     </row>
-    <row r="266" spans="1:7" ht="30" hidden="1">
+    <row r="266" spans="1:7" ht="30">
       <c r="A266" s="38" t="s">
         <v>58</v>
       </c>
@@ -13318,7 +13318,7 @@
       <c r="F266" s="38"/>
       <c r="G266" s="44"/>
     </row>
-    <row r="267" spans="1:7" ht="45" hidden="1">
+    <row r="267" spans="1:7" ht="45">
       <c r="A267" s="38" t="s">
         <v>58</v>
       </c>
@@ -13337,7 +13337,7 @@
       <c r="F267" s="38"/>
       <c r="G267" s="44"/>
     </row>
-    <row r="268" spans="1:7" hidden="1">
+    <row r="268" spans="1:7">
       <c r="A268" s="38" t="s">
         <v>58</v>
       </c>
@@ -13354,7 +13354,7 @@
       <c r="F268" s="38"/>
       <c r="G268" s="44"/>
     </row>
-    <row r="269" spans="1:7" hidden="1">
+    <row r="269" spans="1:7">
       <c r="A269" s="38" t="s">
         <v>58</v>
       </c>
@@ -13369,7 +13369,7 @@
       <c r="F269" s="41"/>
       <c r="G269" s="41"/>
     </row>
-    <row r="270" spans="1:7" hidden="1">
+    <row r="270" spans="1:7">
       <c r="A270" s="38" t="s">
         <v>58</v>
       </c>
@@ -13384,7 +13384,7 @@
       <c r="F270" s="41"/>
       <c r="G270" s="41"/>
     </row>
-    <row r="271" spans="1:7" ht="30" hidden="1">
+    <row r="271" spans="1:7" ht="30">
       <c r="A271" s="38" t="s">
         <v>58</v>
       </c>
@@ -13403,7 +13403,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="272" spans="1:7" hidden="1">
+    <row r="272" spans="1:7">
       <c r="A272" s="38" t="s">
         <v>58</v>
       </c>
@@ -13420,7 +13420,7 @@
       <c r="F272" s="38"/>
       <c r="G272" s="44"/>
     </row>
-    <row r="273" spans="1:7" hidden="1">
+    <row r="273" spans="1:7">
       <c r="A273" s="38" t="s">
         <v>58</v>
       </c>
@@ -13437,7 +13437,7 @@
       <c r="F273" s="38"/>
       <c r="G273" s="44"/>
     </row>
-    <row r="274" spans="1:7" ht="30" hidden="1">
+    <row r="274" spans="1:7" ht="30">
       <c r="A274" s="38" t="s">
         <v>58</v>
       </c>
@@ -13454,7 +13454,7 @@
       <c r="F274" s="38"/>
       <c r="G274" s="44"/>
     </row>
-    <row r="275" spans="1:7" hidden="1">
+    <row r="275" spans="1:7">
       <c r="A275" s="38" t="s">
         <v>58</v>
       </c>
@@ -13471,7 +13471,7 @@
       <c r="F275" s="38"/>
       <c r="G275" s="44"/>
     </row>
-    <row r="276" spans="1:7" hidden="1">
+    <row r="276" spans="1:7">
       <c r="A276" s="38" t="s">
         <v>58</v>
       </c>
@@ -13488,7 +13488,7 @@
       <c r="F276" s="38"/>
       <c r="G276" s="44"/>
     </row>
-    <row r="277" spans="1:7" hidden="1">
+    <row r="277" spans="1:7">
       <c r="A277" s="38" t="s">
         <v>58</v>
       </c>
@@ -13505,7 +13505,7 @@
       <c r="F277" s="38"/>
       <c r="G277" s="44"/>
     </row>
-    <row r="278" spans="1:7" ht="30" hidden="1">
+    <row r="278" spans="1:7" ht="30">
       <c r="A278" s="38" t="s">
         <v>58</v>
       </c>
@@ -13522,7 +13522,7 @@
       <c r="F278" s="38"/>
       <c r="G278" s="44"/>
     </row>
-    <row r="279" spans="1:7" hidden="1">
+    <row r="279" spans="1:7">
       <c r="A279" s="38" t="s">
         <v>58</v>
       </c>
@@ -13539,7 +13539,7 @@
       <c r="F279" s="38"/>
       <c r="G279" s="44"/>
     </row>
-    <row r="280" spans="1:7" ht="30" hidden="1">
+    <row r="280" spans="1:7" ht="30">
       <c r="A280" s="38" t="s">
         <v>58</v>
       </c>
@@ -13556,7 +13556,7 @@
       <c r="F280" s="38"/>
       <c r="G280" s="44"/>
     </row>
-    <row r="281" spans="1:7" ht="30" hidden="1">
+    <row r="281" spans="1:7" ht="30">
       <c r="A281" s="38" t="s">
         <v>58</v>
       </c>
@@ -13573,7 +13573,7 @@
       <c r="F281" s="38"/>
       <c r="G281" s="44"/>
     </row>
-    <row r="282" spans="1:7" ht="30" hidden="1">
+    <row r="282" spans="1:7" ht="30">
       <c r="A282" s="38" t="s">
         <v>58</v>
       </c>
@@ -13590,7 +13590,7 @@
       <c r="F282" s="38"/>
       <c r="G282" s="38"/>
     </row>
-    <row r="283" spans="1:7" ht="45" hidden="1">
+    <row r="283" spans="1:7" ht="45">
       <c r="A283" s="38" t="s">
         <v>58</v>
       </c>
@@ -13607,7 +13607,7 @@
       <c r="F283" s="38"/>
       <c r="G283" s="44"/>
     </row>
-    <row r="284" spans="1:7" ht="45" hidden="1">
+    <row r="284" spans="1:7" ht="45">
       <c r="A284" s="38" t="s">
         <v>58</v>
       </c>
@@ -13624,7 +13624,7 @@
       <c r="F284" s="38"/>
       <c r="G284" s="38"/>
     </row>
-    <row r="285" spans="1:7" ht="45" hidden="1">
+    <row r="285" spans="1:7" ht="45">
       <c r="A285" s="38" t="s">
         <v>58</v>
       </c>
@@ -13641,7 +13641,7 @@
       <c r="F285" s="38"/>
       <c r="G285" s="44"/>
     </row>
-    <row r="286" spans="1:7" ht="30" hidden="1">
+    <row r="286" spans="1:7" ht="30">
       <c r="A286" s="38" t="s">
         <v>58</v>
       </c>
@@ -13658,7 +13658,7 @@
       <c r="F286" s="38"/>
       <c r="G286" s="44"/>
     </row>
-    <row r="287" spans="1:7" hidden="1">
+    <row r="287" spans="1:7">
       <c r="A287" s="38" t="s">
         <v>58</v>
       </c>
@@ -13673,7 +13673,7 @@
       <c r="F287" s="41"/>
       <c r="G287" s="41"/>
     </row>
-    <row r="288" spans="1:7" hidden="1">
+    <row r="288" spans="1:7">
       <c r="A288" s="38" t="s">
         <v>58</v>
       </c>
@@ -13688,7 +13688,7 @@
       <c r="F288" s="41"/>
       <c r="G288" s="41"/>
     </row>
-    <row r="289" spans="1:7" ht="30" hidden="1">
+    <row r="289" spans="1:7" ht="30">
       <c r="A289" s="38" t="s">
         <v>58</v>
       </c>
@@ -13707,7 +13707,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="290" spans="1:7" hidden="1">
+    <row r="290" spans="1:7">
       <c r="A290" s="38" t="s">
         <v>58</v>
       </c>
@@ -13724,7 +13724,7 @@
       <c r="F290" s="38"/>
       <c r="G290" s="44"/>
     </row>
-    <row r="291" spans="1:7" hidden="1">
+    <row r="291" spans="1:7">
       <c r="A291" s="38" t="s">
         <v>58</v>
       </c>
@@ -13741,7 +13741,7 @@
       <c r="F291" s="38"/>
       <c r="G291" s="44"/>
     </row>
-    <row r="292" spans="1:7" ht="30" hidden="1">
+    <row r="292" spans="1:7" ht="30">
       <c r="A292" s="38" t="s">
         <v>58</v>
       </c>
@@ -13758,7 +13758,7 @@
       <c r="F292" s="38"/>
       <c r="G292" s="44"/>
     </row>
-    <row r="293" spans="1:7" hidden="1">
+    <row r="293" spans="1:7">
       <c r="A293" s="38" t="s">
         <v>58</v>
       </c>
@@ -13775,7 +13775,7 @@
       <c r="F293" s="38"/>
       <c r="G293" s="44"/>
     </row>
-    <row r="294" spans="1:7" hidden="1">
+    <row r="294" spans="1:7">
       <c r="A294" s="38" t="s">
         <v>58</v>
       </c>
@@ -13792,7 +13792,7 @@
       <c r="F294" s="38"/>
       <c r="G294" s="44"/>
     </row>
-    <row r="295" spans="1:7" hidden="1">
+    <row r="295" spans="1:7">
       <c r="A295" s="38" t="s">
         <v>58</v>
       </c>
@@ -13809,7 +13809,7 @@
       <c r="F295" s="38"/>
       <c r="G295" s="44"/>
     </row>
-    <row r="296" spans="1:7" ht="30" hidden="1">
+    <row r="296" spans="1:7" ht="30">
       <c r="A296" s="38" t="s">
         <v>58</v>
       </c>
@@ -13826,7 +13826,7 @@
       <c r="F296" s="38"/>
       <c r="G296" s="44"/>
     </row>
-    <row r="297" spans="1:7" hidden="1">
+    <row r="297" spans="1:7">
       <c r="A297" s="38" t="s">
         <v>58</v>
       </c>
@@ -13843,7 +13843,7 @@
       <c r="F297" s="38"/>
       <c r="G297" s="44"/>
     </row>
-    <row r="298" spans="1:7" ht="30" hidden="1">
+    <row r="298" spans="1:7" ht="30">
       <c r="A298" s="38" t="s">
         <v>58</v>
       </c>
@@ -13860,7 +13860,7 @@
       <c r="F298" s="38"/>
       <c r="G298" s="44"/>
     </row>
-    <row r="299" spans="1:7" ht="30" hidden="1">
+    <row r="299" spans="1:7" ht="30">
       <c r="A299" s="38" t="s">
         <v>58</v>
       </c>
@@ -13877,7 +13877,7 @@
       <c r="F299" s="38"/>
       <c r="G299" s="44"/>
     </row>
-    <row r="300" spans="1:7" ht="30" hidden="1">
+    <row r="300" spans="1:7" ht="30">
       <c r="A300" s="38" t="s">
         <v>58</v>
       </c>
@@ -13894,7 +13894,7 @@
       <c r="F300" s="38"/>
       <c r="G300" s="38"/>
     </row>
-    <row r="301" spans="1:7" ht="45" hidden="1">
+    <row r="301" spans="1:7" ht="45">
       <c r="A301" s="38" t="s">
         <v>58</v>
       </c>
@@ -13911,7 +13911,7 @@
       <c r="F301" s="38"/>
       <c r="G301" s="44"/>
     </row>
-    <row r="302" spans="1:7" ht="45" hidden="1">
+    <row r="302" spans="1:7" ht="45">
       <c r="A302" s="38" t="s">
         <v>58</v>
       </c>
@@ -13928,7 +13928,7 @@
       <c r="F302" s="38"/>
       <c r="G302" s="38"/>
     </row>
-    <row r="303" spans="1:7" ht="45" hidden="1">
+    <row r="303" spans="1:7" ht="45">
       <c r="A303" s="38" t="s">
         <v>58</v>
       </c>
@@ -13945,7 +13945,7 @@
       <c r="F303" s="38"/>
       <c r="G303" s="44"/>
     </row>
-    <row r="304" spans="1:7" ht="30" hidden="1">
+    <row r="304" spans="1:7" ht="30">
       <c r="A304" s="38" t="s">
         <v>58</v>
       </c>
@@ -13962,7 +13962,7 @@
       <c r="F304" s="38"/>
       <c r="G304" s="44"/>
     </row>
-    <row r="305" spans="1:7" hidden="1">
+    <row r="305" spans="1:7">
       <c r="A305" s="38" t="s">
         <v>58</v>
       </c>
@@ -13977,7 +13977,7 @@
       <c r="F305" s="41"/>
       <c r="G305" s="41"/>
     </row>
-    <row r="306" spans="1:7" hidden="1">
+    <row r="306" spans="1:7">
       <c r="A306" s="38" t="s">
         <v>58</v>
       </c>
@@ -13992,7 +13992,7 @@
       <c r="F306" s="41"/>
       <c r="G306" s="41"/>
     </row>
-    <row r="307" spans="1:7" ht="30" hidden="1">
+    <row r="307" spans="1:7" ht="30">
       <c r="A307" s="38" t="s">
         <v>58</v>
       </c>
@@ -14009,7 +14009,7 @@
       <c r="F307" s="38"/>
       <c r="G307" s="44"/>
     </row>
-    <row r="308" spans="1:7" hidden="1">
+    <row r="308" spans="1:7">
       <c r="A308" s="38" t="s">
         <v>58</v>
       </c>
@@ -14024,7 +14024,7 @@
       <c r="F308" s="41"/>
       <c r="G308" s="41"/>
     </row>
-    <row r="309" spans="1:7" ht="30" hidden="1">
+    <row r="309" spans="1:7" ht="30">
       <c r="A309" s="38" t="s">
         <v>58</v>
       </c>
@@ -14043,7 +14043,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="310" spans="1:7" hidden="1">
+    <row r="310" spans="1:7">
       <c r="A310" s="38" t="s">
         <v>58</v>
       </c>
@@ -14060,7 +14060,7 @@
       <c r="F310" s="38"/>
       <c r="G310" s="44"/>
     </row>
-    <row r="311" spans="1:7" hidden="1">
+    <row r="311" spans="1:7">
       <c r="A311" s="38" t="s">
         <v>58</v>
       </c>
@@ -14077,7 +14077,7 @@
       <c r="F311" s="38"/>
       <c r="G311" s="44"/>
     </row>
-    <row r="312" spans="1:7" ht="30" hidden="1">
+    <row r="312" spans="1:7" ht="30">
       <c r="A312" s="38" t="s">
         <v>58</v>
       </c>
@@ -14094,7 +14094,7 @@
       <c r="F312" s="38"/>
       <c r="G312" s="44"/>
     </row>
-    <row r="313" spans="1:7" hidden="1">
+    <row r="313" spans="1:7">
       <c r="A313" s="38" t="s">
         <v>58</v>
       </c>
@@ -14111,7 +14111,7 @@
       <c r="F313" s="38"/>
       <c r="G313" s="44"/>
     </row>
-    <row r="314" spans="1:7" hidden="1">
+    <row r="314" spans="1:7">
       <c r="A314" s="38" t="s">
         <v>58</v>
       </c>
@@ -14128,7 +14128,7 @@
       <c r="F314" s="38"/>
       <c r="G314" s="44"/>
     </row>
-    <row r="315" spans="1:7" ht="45" hidden="1">
+    <row r="315" spans="1:7" ht="45">
       <c r="A315" s="38" t="s">
         <v>58</v>
       </c>
@@ -14145,7 +14145,7 @@
       <c r="F315" s="38"/>
       <c r="G315" s="44"/>
     </row>
-    <row r="316" spans="1:7" hidden="1">
+    <row r="316" spans="1:7">
       <c r="A316" s="38" t="s">
         <v>58</v>
       </c>
@@ -14160,7 +14160,7 @@
       <c r="F316" s="41"/>
       <c r="G316" s="48"/>
     </row>
-    <row r="317" spans="1:7" hidden="1">
+    <row r="317" spans="1:7">
       <c r="A317" s="38" t="s">
         <v>58</v>
       </c>
@@ -14175,7 +14175,7 @@
       <c r="F317" s="41"/>
       <c r="G317" s="48"/>
     </row>
-    <row r="318" spans="1:7" ht="30" hidden="1">
+    <row r="318" spans="1:7" ht="30">
       <c r="A318" s="38" t="s">
         <v>58</v>
       </c>
@@ -14194,7 +14194,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="319" spans="1:7" hidden="1">
+    <row r="319" spans="1:7">
       <c r="A319" s="38" t="s">
         <v>58</v>
       </c>
@@ -14211,7 +14211,7 @@
       <c r="F319" s="38"/>
       <c r="G319" s="38"/>
     </row>
-    <row r="320" spans="1:7" hidden="1">
+    <row r="320" spans="1:7">
       <c r="A320" s="38" t="s">
         <v>58</v>
       </c>
@@ -14228,7 +14228,7 @@
       <c r="F320" s="38"/>
       <c r="G320" s="38"/>
     </row>
-    <row r="321" spans="1:7" ht="30" hidden="1">
+    <row r="321" spans="1:7" ht="30">
       <c r="A321" s="38" t="s">
         <v>58</v>
       </c>
@@ -14245,7 +14245,7 @@
       <c r="F321" s="38"/>
       <c r="G321" s="38"/>
     </row>
-    <row r="322" spans="1:7" hidden="1">
+    <row r="322" spans="1:7">
       <c r="A322" s="38" t="s">
         <v>58</v>
       </c>
@@ -14262,7 +14262,7 @@
       <c r="F322" s="38"/>
       <c r="G322" s="38"/>
     </row>
-    <row r="323" spans="1:7" hidden="1">
+    <row r="323" spans="1:7">
       <c r="A323" s="38" t="s">
         <v>58</v>
       </c>
@@ -14279,7 +14279,7 @@
       <c r="F323" s="38"/>
       <c r="G323" s="38"/>
     </row>
-    <row r="324" spans="1:7" hidden="1">
+    <row r="324" spans="1:7">
       <c r="A324" s="38" t="s">
         <v>58</v>
       </c>
@@ -14296,7 +14296,7 @@
       <c r="F324" s="38"/>
       <c r="G324" s="38"/>
     </row>
-    <row r="325" spans="1:7" ht="30" hidden="1">
+    <row r="325" spans="1:7" ht="30">
       <c r="A325" s="38" t="s">
         <v>58</v>
       </c>
@@ -14313,7 +14313,7 @@
       <c r="F325" s="38"/>
       <c r="G325" s="38"/>
     </row>
-    <row r="326" spans="1:7" hidden="1">
+    <row r="326" spans="1:7">
       <c r="A326" s="38" t="s">
         <v>58</v>
       </c>
@@ -14330,7 +14330,7 @@
       <c r="F326" s="38"/>
       <c r="G326" s="38"/>
     </row>
-    <row r="327" spans="1:7" ht="30" hidden="1">
+    <row r="327" spans="1:7" ht="30">
       <c r="A327" s="38" t="s">
         <v>58</v>
       </c>
@@ -14347,7 +14347,7 @@
       <c r="F327" s="38"/>
       <c r="G327" s="38"/>
     </row>
-    <row r="328" spans="1:7" ht="30" hidden="1">
+    <row r="328" spans="1:7" ht="30">
       <c r="A328" s="38" t="s">
         <v>58</v>
       </c>
@@ -14364,7 +14364,7 @@
       <c r="F328" s="38"/>
       <c r="G328" s="38"/>
     </row>
-    <row r="329" spans="1:7" ht="30" hidden="1">
+    <row r="329" spans="1:7" ht="30">
       <c r="A329" s="38" t="s">
         <v>58</v>
       </c>
@@ -14381,7 +14381,7 @@
       <c r="F329" s="38"/>
       <c r="G329" s="38"/>
     </row>
-    <row r="330" spans="1:7" ht="45" hidden="1">
+    <row r="330" spans="1:7" ht="45">
       <c r="A330" s="38" t="s">
         <v>58</v>
       </c>
@@ -14398,7 +14398,7 @@
       <c r="F330" s="38"/>
       <c r="G330" s="38"/>
     </row>
-    <row r="331" spans="1:7" ht="45" hidden="1">
+    <row r="331" spans="1:7" ht="45">
       <c r="A331" s="38" t="s">
         <v>58</v>
       </c>
@@ -14415,7 +14415,7 @@
       <c r="F331" s="38"/>
       <c r="G331" s="38"/>
     </row>
-    <row r="332" spans="1:7" ht="45" hidden="1">
+    <row r="332" spans="1:7" ht="45">
       <c r="A332" s="38" t="s">
         <v>58</v>
       </c>
@@ -14432,7 +14432,7 @@
       <c r="F332" s="38"/>
       <c r="G332" s="38"/>
     </row>
-    <row r="333" spans="1:7" ht="30" hidden="1">
+    <row r="333" spans="1:7" ht="30">
       <c r="A333" s="38" t="s">
         <v>58</v>
       </c>
@@ -14449,7 +14449,7 @@
       <c r="F333" s="38"/>
       <c r="G333" s="38"/>
     </row>
-    <row r="334" spans="1:7" ht="15.6" hidden="1">
+    <row r="334" spans="1:7" ht="15.6">
       <c r="A334" s="38" t="s">
         <v>58</v>
       </c>
@@ -14464,7 +14464,7 @@
       <c r="F334" s="41"/>
       <c r="G334" s="49"/>
     </row>
-    <row r="335" spans="1:7" hidden="1">
+    <row r="335" spans="1:7">
       <c r="A335" s="38" t="s">
         <v>58</v>
       </c>
@@ -14479,7 +14479,7 @@
       <c r="F335" s="41"/>
       <c r="G335" s="48"/>
     </row>
-    <row r="336" spans="1:7" hidden="1">
+    <row r="336" spans="1:7">
       <c r="A336" s="38" t="s">
         <v>58</v>
       </c>
@@ -14494,7 +14494,7 @@
       <c r="F336" s="41"/>
       <c r="G336" s="48"/>
     </row>
-    <row r="337" spans="1:7" ht="60" hidden="1">
+    <row r="337" spans="1:7" ht="60">
       <c r="A337" s="38" t="s">
         <v>58</v>
       </c>
@@ -14517,7 +14517,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="338" spans="1:7" hidden="1">
+    <row r="338" spans="1:7">
       <c r="A338" s="38" t="s">
         <v>58</v>
       </c>
@@ -14538,7 +14538,7 @@
       </c>
       <c r="G338" s="44"/>
     </row>
-    <row r="339" spans="1:7" hidden="1">
+    <row r="339" spans="1:7">
       <c r="A339" s="38" t="s">
         <v>58</v>
       </c>
@@ -14557,7 +14557,7 @@
       </c>
       <c r="G339" s="44"/>
     </row>
-    <row r="340" spans="1:7" hidden="1">
+    <row r="340" spans="1:7">
       <c r="A340" s="38" t="s">
         <v>58</v>
       </c>
@@ -14572,7 +14572,7 @@
       <c r="F340" s="41"/>
       <c r="G340" s="41"/>
     </row>
-    <row r="341" spans="1:7" hidden="1">
+    <row r="341" spans="1:7">
       <c r="A341" s="38" t="s">
         <v>58</v>
       </c>
@@ -14593,7 +14593,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="342" spans="1:7" hidden="1">
+    <row r="342" spans="1:7">
       <c r="A342" s="38" t="s">
         <v>58</v>
       </c>
@@ -14612,7 +14612,7 @@
       </c>
       <c r="G342" s="44"/>
     </row>
-    <row r="343" spans="1:7" hidden="1">
+    <row r="343" spans="1:7">
       <c r="A343" s="38" t="s">
         <v>58</v>
       </c>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="G343" s="38"/>
     </row>
-    <row r="344" spans="1:7" hidden="1">
+    <row r="344" spans="1:7">
       <c r="A344" s="38" t="s">
         <v>58</v>
       </c>
@@ -14650,7 +14650,7 @@
       </c>
       <c r="G344" s="44"/>
     </row>
-    <row r="345" spans="1:7" hidden="1">
+    <row r="345" spans="1:7">
       <c r="A345" s="38" t="s">
         <v>58</v>
       </c>
@@ -14665,7 +14665,7 @@
       <c r="F345" s="41"/>
       <c r="G345" s="41"/>
     </row>
-    <row r="346" spans="1:7" hidden="1">
+    <row r="346" spans="1:7">
       <c r="A346" s="38" t="s">
         <v>58</v>
       </c>
@@ -14686,7 +14686,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="347" spans="1:7" hidden="1">
+    <row r="347" spans="1:7">
       <c r="A347" s="38" t="s">
         <v>58</v>
       </c>
@@ -14705,7 +14705,7 @@
       </c>
       <c r="G347" s="44"/>
     </row>
-    <row r="348" spans="1:7" hidden="1">
+    <row r="348" spans="1:7">
       <c r="A348" s="38" t="s">
         <v>58</v>
       </c>
@@ -14762,7 +14762,7 @@
       </c>
       <c r="G350" s="44"/>
     </row>
-    <row r="351" spans="1:7" hidden="1">
+    <row r="351" spans="1:7">
       <c r="A351" s="38" t="s">
         <v>58</v>
       </c>
@@ -14817,7 +14817,7 @@
       </c>
       <c r="G353" s="44"/>
     </row>
-    <row r="354" spans="1:7" ht="37.5" hidden="1" customHeight="1">
+    <row r="354" spans="1:7" ht="37.5" customHeight="1">
       <c r="A354" s="38" t="s">
         <v>58</v>
       </c>
@@ -14874,7 +14874,7 @@
       </c>
       <c r="G356" s="44"/>
     </row>
-    <row r="357" spans="1:7" hidden="1">
+    <row r="357" spans="1:7">
       <c r="A357" s="38" t="s">
         <v>58</v>
       </c>
@@ -14889,7 +14889,7 @@
       <c r="F357" s="41"/>
       <c r="G357" s="41"/>
     </row>
-    <row r="358" spans="1:7" hidden="1">
+    <row r="358" spans="1:7">
       <c r="A358" s="38" t="s">
         <v>58</v>
       </c>
@@ -14910,7 +14910,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="359" spans="1:7" hidden="1">
+    <row r="359" spans="1:7">
       <c r="A359" s="38" t="s">
         <v>58</v>
       </c>
@@ -14929,7 +14929,7 @@
       </c>
       <c r="G359" s="38"/>
     </row>
-    <row r="360" spans="1:7" hidden="1">
+    <row r="360" spans="1:7">
       <c r="A360" s="38" t="s">
         <v>58</v>
       </c>
@@ -14944,7 +14944,7 @@
       <c r="F360" s="41"/>
       <c r="G360" s="41"/>
     </row>
-    <row r="361" spans="1:7" hidden="1">
+    <row r="361" spans="1:7">
       <c r="A361" s="38" t="s">
         <v>58</v>
       </c>
@@ -14965,7 +14965,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="362" spans="1:7" hidden="1">
+    <row r="362" spans="1:7">
       <c r="A362" s="38" t="s">
         <v>58</v>
       </c>
@@ -14984,7 +14984,7 @@
       </c>
       <c r="G362" s="44"/>
     </row>
-    <row r="363" spans="1:7" hidden="1">
+    <row r="363" spans="1:7">
       <c r="A363" s="38" t="s">
         <v>58</v>
       </c>
@@ -15003,7 +15003,7 @@
       </c>
       <c r="G363" s="44"/>
     </row>
-    <row r="364" spans="1:7" hidden="1">
+    <row r="364" spans="1:7">
       <c r="A364" s="38" t="s">
         <v>58</v>
       </c>
@@ -15022,7 +15022,7 @@
       </c>
       <c r="G364" s="44"/>
     </row>
-    <row r="365" spans="1:7" hidden="1">
+    <row r="365" spans="1:7">
       <c r="A365" s="38" t="s">
         <v>58</v>
       </c>
@@ -15043,7 +15043,7 @@
       </c>
       <c r="G365" s="38"/>
     </row>
-    <row r="366" spans="1:7" hidden="1">
+    <row r="366" spans="1:7">
       <c r="A366" s="38" t="s">
         <v>58</v>
       </c>
@@ -15058,7 +15058,7 @@
       <c r="F366" s="41"/>
       <c r="G366" s="41"/>
     </row>
-    <row r="367" spans="1:7" hidden="1">
+    <row r="367" spans="1:7">
       <c r="A367" s="38" t="s">
         <v>58</v>
       </c>
@@ -15073,7 +15073,7 @@
       <c r="F367" s="41"/>
       <c r="G367" s="41"/>
     </row>
-    <row r="368" spans="1:7" ht="60" hidden="1">
+    <row r="368" spans="1:7" ht="60">
       <c r="A368" s="38" t="s">
         <v>58</v>
       </c>
@@ -15096,7 +15096,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="369" spans="1:7" ht="30" hidden="1">
+    <row r="369" spans="1:7" ht="30">
       <c r="A369" s="38" t="s">
         <v>58</v>
       </c>
@@ -15117,7 +15117,7 @@
       </c>
       <c r="G369" s="44"/>
     </row>
-    <row r="370" spans="1:7" hidden="1">
+    <row r="370" spans="1:7">
       <c r="A370" s="38" t="s">
         <v>58</v>
       </c>
@@ -15138,7 +15138,7 @@
       </c>
       <c r="G370" s="44"/>
     </row>
-    <row r="371" spans="1:7" hidden="1">
+    <row r="371" spans="1:7">
       <c r="A371" s="38" t="s">
         <v>58</v>
       </c>
@@ -15153,7 +15153,7 @@
       <c r="F371" s="41"/>
       <c r="G371" s="41"/>
     </row>
-    <row r="372" spans="1:7" hidden="1">
+    <row r="372" spans="1:7">
       <c r="A372" s="38" t="s">
         <v>58</v>
       </c>
@@ -15168,7 +15168,7 @@
       <c r="F372" s="41"/>
       <c r="G372" s="41"/>
     </row>
-    <row r="373" spans="1:7" hidden="1">
+    <row r="373" spans="1:7">
       <c r="A373" s="38" t="s">
         <v>58</v>
       </c>
@@ -15265,7 +15265,7 @@
       </c>
       <c r="G377" s="44"/>
     </row>
-    <row r="378" spans="1:7" ht="30" hidden="1">
+    <row r="378" spans="1:7" ht="30">
       <c r="A378" s="38" t="s">
         <v>58</v>
       </c>
@@ -15284,7 +15284,7 @@
       </c>
       <c r="G378" s="44"/>
     </row>
-    <row r="379" spans="1:7" hidden="1">
+    <row r="379" spans="1:7">
       <c r="A379" s="38" t="s">
         <v>58</v>
       </c>
@@ -15299,7 +15299,7 @@
       <c r="F379" s="41"/>
       <c r="G379" s="41"/>
     </row>
-    <row r="380" spans="1:7" hidden="1">
+    <row r="380" spans="1:7">
       <c r="A380" s="38" t="s">
         <v>58</v>
       </c>
@@ -15320,7 +15320,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="381" spans="1:7" hidden="1">
+    <row r="381" spans="1:7">
       <c r="A381" s="38" t="s">
         <v>58</v>
       </c>
@@ -15341,7 +15341,7 @@
       </c>
       <c r="G381" s="38"/>
     </row>
-    <row r="382" spans="1:7" hidden="1">
+    <row r="382" spans="1:7">
       <c r="A382" s="38" t="s">
         <v>58</v>
       </c>
@@ -15356,7 +15356,7 @@
       <c r="F382" s="41"/>
       <c r="G382" s="41"/>
     </row>
-    <row r="383" spans="1:7" hidden="1">
+    <row r="383" spans="1:7">
       <c r="A383" s="38" t="s">
         <v>58</v>
       </c>
@@ -15377,7 +15377,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="384" spans="1:7" hidden="1">
+    <row r="384" spans="1:7">
       <c r="A384" s="38" t="s">
         <v>58</v>
       </c>
@@ -15396,7 +15396,7 @@
       </c>
       <c r="G384" s="44"/>
     </row>
-    <row r="385" spans="1:7" hidden="1">
+    <row r="385" spans="1:7">
       <c r="A385" s="38" t="s">
         <v>58</v>
       </c>
@@ -15415,7 +15415,7 @@
       </c>
       <c r="G385" s="44"/>
     </row>
-    <row r="386" spans="1:7" hidden="1">
+    <row r="386" spans="1:7">
       <c r="A386" s="38" t="s">
         <v>58</v>
       </c>
@@ -15434,7 +15434,7 @@
       </c>
       <c r="G386" s="38"/>
     </row>
-    <row r="387" spans="1:7" hidden="1">
+    <row r="387" spans="1:7">
       <c r="A387" s="38" t="s">
         <v>58</v>
       </c>
@@ -15455,7 +15455,7 @@
       </c>
       <c r="G387" s="38"/>
     </row>
-    <row r="388" spans="1:7" hidden="1">
+    <row r="388" spans="1:7">
       <c r="A388" s="38" t="s">
         <v>58</v>
       </c>
@@ -15470,7 +15470,7 @@
       <c r="F388" s="41"/>
       <c r="G388" s="41"/>
     </row>
-    <row r="389" spans="1:7" hidden="1">
+    <row r="389" spans="1:7">
       <c r="A389" s="38" t="s">
         <v>58</v>
       </c>
@@ -15485,7 +15485,7 @@
       <c r="F389" s="41"/>
       <c r="G389" s="41"/>
     </row>
-    <row r="390" spans="1:7" ht="45" hidden="1">
+    <row r="390" spans="1:7" ht="45">
       <c r="A390" s="38" t="s">
         <v>58</v>
       </c>
@@ -15508,7 +15508,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="391" spans="1:7" ht="30" hidden="1">
+    <row r="391" spans="1:7" ht="30">
       <c r="A391" s="38" t="s">
         <v>58</v>
       </c>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="G391" s="38"/>
     </row>
-    <row r="392" spans="1:7" hidden="1">
+    <row r="392" spans="1:7">
       <c r="A392" s="38" t="s">
         <v>58</v>
       </c>
@@ -15550,7 +15550,7 @@
       </c>
       <c r="G392" s="44"/>
     </row>
-    <row r="393" spans="1:7" hidden="1">
+    <row r="393" spans="1:7">
       <c r="A393" s="38" t="s">
         <v>58</v>
       </c>
@@ -15565,7 +15565,7 @@
       <c r="F393" s="41"/>
       <c r="G393" s="41"/>
     </row>
-    <row r="394" spans="1:7" hidden="1">
+    <row r="394" spans="1:7">
       <c r="A394" s="38" t="s">
         <v>58</v>
       </c>
@@ -15620,7 +15620,7 @@
       </c>
       <c r="G396" s="44"/>
     </row>
-    <row r="397" spans="1:7" hidden="1">
+    <row r="397" spans="1:7">
       <c r="A397" s="38" t="s">
         <v>58</v>
       </c>
@@ -15677,7 +15677,7 @@
       </c>
       <c r="G399" s="44"/>
     </row>
-    <row r="400" spans="1:7" ht="30" hidden="1">
+    <row r="400" spans="1:7" ht="30">
       <c r="A400" s="38" t="s">
         <v>58</v>
       </c>
@@ -15696,7 +15696,7 @@
       </c>
       <c r="G400" s="44"/>
     </row>
-    <row r="401" spans="1:7" hidden="1">
+    <row r="401" spans="1:7">
       <c r="A401" s="38" t="s">
         <v>58</v>
       </c>
@@ -15711,7 +15711,7 @@
       <c r="F401" s="41"/>
       <c r="G401" s="41"/>
     </row>
-    <row r="402" spans="1:7" hidden="1">
+    <row r="402" spans="1:7">
       <c r="A402" s="38" t="s">
         <v>58</v>
       </c>
@@ -15732,7 +15732,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="403" spans="1:7" hidden="1">
+    <row r="403" spans="1:7">
       <c r="A403" s="38" t="s">
         <v>58</v>
       </c>
@@ -15753,7 +15753,7 @@
       </c>
       <c r="G403" s="38"/>
     </row>
-    <row r="404" spans="1:7" hidden="1">
+    <row r="404" spans="1:7">
       <c r="A404" s="38" t="s">
         <v>58</v>
       </c>
@@ -15768,7 +15768,7 @@
       <c r="F404" s="41"/>
       <c r="G404" s="41"/>
     </row>
-    <row r="405" spans="1:7" hidden="1">
+    <row r="405" spans="1:7">
       <c r="A405" s="38" t="s">
         <v>58</v>
       </c>
@@ -15789,7 +15789,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="406" spans="1:7" hidden="1">
+    <row r="406" spans="1:7">
       <c r="A406" s="38" t="s">
         <v>58</v>
       </c>
@@ -15808,7 +15808,7 @@
       </c>
       <c r="G406" s="44"/>
     </row>
-    <row r="407" spans="1:7" hidden="1">
+    <row r="407" spans="1:7">
       <c r="A407" s="38" t="s">
         <v>58</v>
       </c>
@@ -15827,7 +15827,7 @@
       </c>
       <c r="G407" s="44"/>
     </row>
-    <row r="408" spans="1:7" hidden="1">
+    <row r="408" spans="1:7">
       <c r="A408" s="38" t="s">
         <v>58</v>
       </c>
@@ -15846,7 +15846,7 @@
       </c>
       <c r="G408" s="38"/>
     </row>
-    <row r="409" spans="1:7" hidden="1">
+    <row r="409" spans="1:7">
       <c r="A409" s="38" t="s">
         <v>58</v>
       </c>
@@ -15867,7 +15867,7 @@
       </c>
       <c r="G409" s="38"/>
     </row>
-    <row r="410" spans="1:7" hidden="1">
+    <row r="410" spans="1:7">
       <c r="A410" s="38" t="s">
         <v>58</v>
       </c>
@@ -15882,7 +15882,7 @@
       <c r="F410" s="41"/>
       <c r="G410" s="41"/>
     </row>
-    <row r="411" spans="1:7" hidden="1">
+    <row r="411" spans="1:7">
       <c r="A411" s="38" t="s">
         <v>58</v>
       </c>
@@ -15897,7 +15897,7 @@
       <c r="F411" s="41"/>
       <c r="G411" s="41"/>
     </row>
-    <row r="412" spans="1:7" ht="45" hidden="1">
+    <row r="412" spans="1:7" ht="45">
       <c r="A412" s="38" t="s">
         <v>58</v>
       </c>
@@ -15920,7 +15920,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="413" spans="1:7" hidden="1">
+    <row r="413" spans="1:7">
       <c r="A413" s="38" t="s">
         <v>58</v>
       </c>
@@ -15941,7 +15941,7 @@
       </c>
       <c r="G413" s="44"/>
     </row>
-    <row r="414" spans="1:7" hidden="1">
+    <row r="414" spans="1:7">
       <c r="A414" s="38" t="s">
         <v>58</v>
       </c>
@@ -15962,7 +15962,7 @@
       </c>
       <c r="G414" s="44"/>
     </row>
-    <row r="415" spans="1:7" hidden="1">
+    <row r="415" spans="1:7">
       <c r="A415" s="38" t="s">
         <v>58</v>
       </c>
@@ -15977,7 +15977,7 @@
       <c r="F415" s="41"/>
       <c r="G415" s="41"/>
     </row>
-    <row r="416" spans="1:7" hidden="1">
+    <row r="416" spans="1:7">
       <c r="A416" s="38" t="s">
         <v>58</v>
       </c>
@@ -15992,7 +15992,7 @@
       <c r="F416" s="41"/>
       <c r="G416" s="41"/>
     </row>
-    <row r="417" spans="1:7" hidden="1">
+    <row r="417" spans="1:7">
       <c r="A417" s="38" t="s">
         <v>58</v>
       </c>
@@ -16013,7 +16013,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="418" spans="1:7" hidden="1">
+    <row r="418" spans="1:7">
       <c r="A418" s="38" t="s">
         <v>58</v>
       </c>
@@ -16032,7 +16032,7 @@
       </c>
       <c r="G418" s="44"/>
     </row>
-    <row r="419" spans="1:7" hidden="1">
+    <row r="419" spans="1:7">
       <c r="A419" s="38" t="s">
         <v>58</v>
       </c>
@@ -16051,7 +16051,7 @@
       </c>
       <c r="G419" s="44"/>
     </row>
-    <row r="420" spans="1:7" hidden="1">
+    <row r="420" spans="1:7">
       <c r="A420" s="38" t="s">
         <v>58</v>
       </c>
@@ -16070,7 +16070,7 @@
       </c>
       <c r="G420" s="38"/>
     </row>
-    <row r="421" spans="1:7" hidden="1">
+    <row r="421" spans="1:7">
       <c r="A421" s="38" t="s">
         <v>58</v>
       </c>
@@ -16125,7 +16125,7 @@
       </c>
       <c r="G423" s="38"/>
     </row>
-    <row r="424" spans="1:7" hidden="1">
+    <row r="424" spans="1:7">
       <c r="A424" s="38" t="s">
         <v>58</v>
       </c>
@@ -16144,7 +16144,7 @@
       </c>
       <c r="G424" s="38"/>
     </row>
-    <row r="425" spans="1:7" hidden="1">
+    <row r="425" spans="1:7">
       <c r="A425" s="38" t="s">
         <v>58</v>
       </c>
@@ -16159,7 +16159,7 @@
       <c r="F425" s="41"/>
       <c r="G425" s="41"/>
     </row>
-    <row r="426" spans="1:7" hidden="1">
+    <row r="426" spans="1:7">
       <c r="A426" s="38" t="s">
         <v>58</v>
       </c>
@@ -16180,7 +16180,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="427" spans="1:7" hidden="1">
+    <row r="427" spans="1:7">
       <c r="A427" s="38" t="s">
         <v>58</v>
       </c>
@@ -16199,7 +16199,7 @@
       </c>
       <c r="G427" s="44"/>
     </row>
-    <row r="428" spans="1:7" hidden="1">
+    <row r="428" spans="1:7">
       <c r="A428" s="38" t="s">
         <v>58</v>
       </c>
@@ -16218,7 +16218,7 @@
       </c>
       <c r="G428" s="44"/>
     </row>
-    <row r="429" spans="1:7" hidden="1">
+    <row r="429" spans="1:7">
       <c r="A429" s="38" t="s">
         <v>58</v>
       </c>
@@ -16275,7 +16275,7 @@
       </c>
       <c r="G431" s="44"/>
     </row>
-    <row r="432" spans="1:7" hidden="1">
+    <row r="432" spans="1:7">
       <c r="A432" s="38" t="s">
         <v>58</v>
       </c>
@@ -16372,7 +16372,7 @@
       </c>
       <c r="G436" s="44"/>
     </row>
-    <row r="437" spans="1:7" hidden="1">
+    <row r="437" spans="1:7">
       <c r="A437" s="38" t="s">
         <v>58</v>
       </c>
@@ -16389,7 +16389,7 @@
       </c>
       <c r="G437" s="41"/>
     </row>
-    <row r="438" spans="1:7" hidden="1">
+    <row r="438" spans="1:7">
       <c r="A438" s="38" t="s">
         <v>58</v>
       </c>
@@ -16410,7 +16410,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="439" spans="1:7" hidden="1">
+    <row r="439" spans="1:7">
       <c r="A439" s="38" t="s">
         <v>58</v>
       </c>
@@ -16431,7 +16431,7 @@
       </c>
       <c r="G439" s="38"/>
     </row>
-    <row r="440" spans="1:7" hidden="1">
+    <row r="440" spans="1:7">
       <c r="A440" s="38" t="s">
         <v>58</v>
       </c>
@@ -16448,7 +16448,7 @@
       </c>
       <c r="G440" s="41"/>
     </row>
-    <row r="441" spans="1:7" hidden="1">
+    <row r="441" spans="1:7">
       <c r="A441" s="38" t="s">
         <v>58</v>
       </c>
@@ -16469,7 +16469,7 @@
       </c>
       <c r="G441" s="38"/>
     </row>
-    <row r="442" spans="1:7" hidden="1">
+    <row r="442" spans="1:7">
       <c r="A442" s="38" t="s">
         <v>58</v>
       </c>
@@ -16486,7 +16486,7 @@
       </c>
       <c r="G442" s="37"/>
     </row>
-    <row r="443" spans="1:7" hidden="1">
+    <row r="443" spans="1:7">
       <c r="A443" s="38" t="s">
         <v>58</v>
       </c>
@@ -16505,7 +16505,7 @@
       </c>
       <c r="G443" s="44"/>
     </row>
-    <row r="444" spans="1:7" hidden="1">
+    <row r="444" spans="1:7">
       <c r="A444" s="38" t="s">
         <v>58</v>
       </c>
@@ -16524,7 +16524,7 @@
       </c>
       <c r="G444" s="44"/>
     </row>
-    <row r="445" spans="1:7" hidden="1">
+    <row r="445" spans="1:7">
       <c r="A445" s="38" t="s">
         <v>58</v>
       </c>
@@ -16543,7 +16543,7 @@
       </c>
       <c r="G445" s="44"/>
     </row>
-    <row r="446" spans="1:7" hidden="1">
+    <row r="446" spans="1:7">
       <c r="A446" s="38" t="s">
         <v>58</v>
       </c>
@@ -16560,7 +16560,7 @@
       </c>
       <c r="G446" s="37"/>
     </row>
-    <row r="447" spans="1:7" hidden="1">
+    <row r="447" spans="1:7">
       <c r="A447" s="38" t="s">
         <v>58</v>
       </c>
@@ -16579,7 +16579,7 @@
       </c>
       <c r="G447" s="44"/>
     </row>
-    <row r="448" spans="1:7" hidden="1">
+    <row r="448" spans="1:7">
       <c r="A448" s="38" t="s">
         <v>58</v>
       </c>
@@ -16598,7 +16598,7 @@
       </c>
       <c r="G448" s="44"/>
     </row>
-    <row r="449" spans="1:7" hidden="1">
+    <row r="449" spans="1:7">
       <c r="A449" s="38" t="s">
         <v>58</v>
       </c>
@@ -16615,7 +16615,7 @@
       </c>
       <c r="G449" s="37"/>
     </row>
-    <row r="450" spans="1:7" hidden="1">
+    <row r="450" spans="1:7">
       <c r="A450" s="38" t="s">
         <v>58</v>
       </c>
@@ -16632,7 +16632,7 @@
       </c>
       <c r="G450" s="41"/>
     </row>
-    <row r="451" spans="1:7" ht="45" hidden="1">
+    <row r="451" spans="1:7" ht="45">
       <c r="A451" s="38" t="s">
         <v>58</v>
       </c>
@@ -16653,7 +16653,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="452" spans="1:7" hidden="1">
+    <row r="452" spans="1:7">
       <c r="A452" s="38" t="s">
         <v>58</v>
       </c>
@@ -16672,7 +16672,7 @@
       </c>
       <c r="G452" s="44"/>
     </row>
-    <row r="453" spans="1:7" hidden="1">
+    <row r="453" spans="1:7">
       <c r="A453" s="38" t="s">
         <v>58</v>
       </c>
@@ -16691,7 +16691,7 @@
       </c>
       <c r="G453" s="44"/>
     </row>
-    <row r="454" spans="1:7" hidden="1">
+    <row r="454" spans="1:7">
       <c r="A454" s="38" t="s">
         <v>58</v>
       </c>
@@ -16708,7 +16708,7 @@
       </c>
       <c r="G454" s="41"/>
     </row>
-    <row r="455" spans="1:7" hidden="1">
+    <row r="455" spans="1:7">
       <c r="A455" s="38" t="s">
         <v>58</v>
       </c>
@@ -16725,7 +16725,7 @@
       </c>
       <c r="G455" s="41"/>
     </row>
-    <row r="456" spans="1:7" hidden="1">
+    <row r="456" spans="1:7">
       <c r="A456" s="38" t="s">
         <v>58</v>
       </c>
@@ -16746,7 +16746,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="457" spans="1:7" hidden="1">
+    <row r="457" spans="1:7">
       <c r="A457" s="38" t="s">
         <v>58</v>
       </c>
@@ -16765,7 +16765,7 @@
       </c>
       <c r="G457" s="44"/>
     </row>
-    <row r="458" spans="1:7" hidden="1">
+    <row r="458" spans="1:7">
       <c r="A458" s="38" t="s">
         <v>58</v>
       </c>
@@ -16784,7 +16784,7 @@
       </c>
       <c r="G458" s="38"/>
     </row>
-    <row r="459" spans="1:7">
+    <row r="459" spans="1:7" ht="30">
       <c r="A459" s="38" t="s">
         <v>58</v>
       </c>
@@ -16803,7 +16803,7 @@
       </c>
       <c r="G459" s="38"/>
     </row>
-    <row r="460" spans="1:7" hidden="1">
+    <row r="460" spans="1:7">
       <c r="A460" s="38" t="s">
         <v>58</v>
       </c>
@@ -16820,7 +16820,7 @@
       </c>
       <c r="G460" s="38"/>
     </row>
-    <row r="461" spans="1:7" ht="30" hidden="1">
+    <row r="461" spans="1:7" ht="30">
       <c r="A461" s="38" t="s">
         <v>58</v>
       </c>
@@ -16839,7 +16839,7 @@
       </c>
       <c r="G461" s="38"/>
     </row>
-    <row r="462" spans="1:7" hidden="1">
+    <row r="462" spans="1:7">
       <c r="A462" s="38" t="s">
         <v>58</v>
       </c>
@@ -16858,7 +16858,7 @@
       </c>
       <c r="G462" s="38"/>
     </row>
-    <row r="463" spans="1:7" hidden="1">
+    <row r="463" spans="1:7">
       <c r="A463" s="38" t="s">
         <v>58</v>
       </c>
@@ -16875,7 +16875,7 @@
       </c>
       <c r="G463" s="41"/>
     </row>
-    <row r="464" spans="1:7" hidden="1">
+    <row r="464" spans="1:7">
       <c r="A464" s="38" t="s">
         <v>58</v>
       </c>
@@ -16896,7 +16896,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="465" spans="1:7" hidden="1">
+    <row r="465" spans="1:7">
       <c r="A465" s="38" t="s">
         <v>58</v>
       </c>
@@ -16915,7 +16915,7 @@
       </c>
       <c r="G465" s="38"/>
     </row>
-    <row r="466" spans="1:7" hidden="1">
+    <row r="466" spans="1:7">
       <c r="A466" s="38" t="s">
         <v>58</v>
       </c>
@@ -16932,7 +16932,7 @@
       </c>
       <c r="G466" s="41"/>
     </row>
-    <row r="467" spans="1:7" hidden="1">
+    <row r="467" spans="1:7">
       <c r="A467" s="38" t="s">
         <v>58</v>
       </c>
@@ -16953,7 +16953,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="468" spans="1:7" hidden="1">
+    <row r="468" spans="1:7">
       <c r="A468" s="38" t="s">
         <v>58</v>
       </c>
@@ -16972,7 +16972,7 @@
       </c>
       <c r="G468" s="44"/>
     </row>
-    <row r="469" spans="1:7" hidden="1">
+    <row r="469" spans="1:7">
       <c r="A469" s="38" t="s">
         <v>58</v>
       </c>
@@ -16991,7 +16991,7 @@
       </c>
       <c r="G469" s="44"/>
     </row>
-    <row r="470" spans="1:7" hidden="1">
+    <row r="470" spans="1:7">
       <c r="A470" s="38" t="s">
         <v>58</v>
       </c>
@@ -17010,7 +17010,7 @@
       </c>
       <c r="G470" s="38"/>
     </row>
-    <row r="471" spans="1:7" hidden="1">
+    <row r="471" spans="1:7">
       <c r="A471" s="38" t="s">
         <v>58</v>
       </c>
@@ -17030,22 +17030,6 @@
       <c r="G471" s="38"/>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D471" xr:uid="{F86B094C-E294-46A2-88B4-721C8724DCD9}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="PKIX.10"/>
-        <filter val="PKIX.11"/>
-        <filter val="PKIX.12"/>
-        <filter val="PKIX.13"/>
-        <filter val="PKIX.14"/>
-        <filter val="PKIX.15"/>
-        <filter val="PKIX.16"/>
-        <filter val="PKIX.17"/>
-        <filter val="PKIX.18"/>
-        <filter val="PKIX.19"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/conformancelib/testdata/85b_test_definitions_PIV_Production_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV_Production_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geoff\gsa-devel\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DF974F-0A4A-482B-90FE-2DD44FE39D46}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14186B6C-9804-4D3A-B328-35E497126376}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -3926,9 +3926,6 @@
     <t>5</t>
   </si>
   <si>
-    <t>2.16.840.1.101.3.2.1.3.13</t>
-  </si>
-  <si>
     <t>Extended key usage (extKeyUsage) extension asserts id-PIV-cardAuth</t>
   </si>
   <si>
@@ -3957,6 +3954,9 @@
   </si>
   <si>
     <t>X509_CERTIFICATE_FOR_PIV_AUTHENTICATION_OID:2.16.840.1.101.3.2.1.48.11,X509_CERTIFICATE_FOR_DIGITAL_SIGNATURE_OID:2.16.840.1.101.3.2.1.48.9|2.16.840.1.101.3.2.1.48.12,X509_CERTIFICATE_FOR_KEY_MANAGEMENT_OID:2.16.840.1.101.3.2.1.48.9|2.16.840.1.101.3.2.1.48.12,X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID:2.16.840.1.101.3.2.1.48.13,CARD_HOLDER_UNIQUE_IDENTIFIER_OID:2.16.840.1.101.3.6.7</t>
+  </si>
+  <si>
+    <t>X509_CERTIFICATE_FOR_PIV_AUTHENTICATION_OID;2.16.840.1.101.3.2.1.3.13,X509_CERTIFICATE_FOR_DIGITAL_SIGNATURE_OID;2.16.840.1.101.3.2.1.3.7:2.16.840.1.101.3.2.1.3.16,X509_CERTIFICATE_FOR_KEY_MANAGEMENT_OID;2.16.840.1.101.3.2.1.3.7:2.16.840.1.101.3.2.1.3.16,X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID;2.16.840.1.101.3.2.1.3.17,CARD_HOLDER_UNIQUE_IDENTIFIER_OID;2.16.840.1.101.3.2.1.48.86</t>
   </si>
 </sst>
 </file>
@@ -8524,7 +8524,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A415" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A415" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="A422" sqref="A422:XFD422"/>
     </sheetView>
   </sheetViews>
@@ -11528,7 +11528,7 @@
         <v>289</v>
       </c>
       <c r="C161" s="65" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D161" s="65">
         <v>76.2</v>
@@ -11564,10 +11564,10 @@
         <v>293</v>
       </c>
       <c r="C163" s="65" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D163" s="65" t="s">
         <v>1302</v>
-      </c>
-      <c r="D163" s="65" t="s">
-        <v>1303</v>
       </c>
       <c r="E163" s="38"/>
       <c r="F163" s="38"/>
@@ -11578,7 +11578,7 @@
         <v>58</v>
       </c>
       <c r="B164" s="38" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C164" s="38" t="s">
         <v>297</v>
@@ -11615,7 +11615,7 @@
         <v>296</v>
       </c>
       <c r="C166" s="65" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="D166" s="65" t="s">
         <v>869</v>
@@ -16093,7 +16093,7 @@
         <v>718</v>
       </c>
       <c r="C422" s="38" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="D422" s="38" t="s">
         <v>721</v>
@@ -16114,7 +16114,7 @@
         <v>722</v>
       </c>
       <c r="C423" s="38" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D423" s="40" t="s">
         <v>724</v>
@@ -19603,7 +19603,7 @@
         <v>864</v>
       </c>
       <c r="D3" s="69" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E3" s="30"/>
       <c r="F3" s="30" t="s">
@@ -20724,16 +20724,16 @@
     </row>
     <row r="50" spans="1:256" s="71" customFormat="1">
       <c r="A50" s="68" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B50" s="69" t="s">
         <v>861</v>
       </c>
       <c r="C50" s="69" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="D50" s="69" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="E50" s="69"/>
       <c r="F50" s="69"/>
@@ -21960,8 +21960,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -22360,8 +22360,8 @@
       <c r="D7" s="30" t="s">
         <v>1050</v>
       </c>
-      <c r="E7" t="s">
-        <v>1297</v>
+      <c r="E7" s="69" t="s">
+        <v>1307</v>
       </c>
       <c r="F7" s="30" t="s">
         <v>790</v>
@@ -22598,7 +22598,7 @@
         <v>1076</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="E19" s="62" t="s">
         <v>1291</v>
@@ -22621,7 +22621,7 @@
         <v>1077</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E20" t="s">
         <v>1080</v>
@@ -22645,7 +22645,7 @@
         <v>1079</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>790</v>

--- a/conformancelib/testdata/85b_test_definitions_PIV_Production_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV_Production_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geoff\gsa-devel\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14186B6C-9804-4D3A-B328-35E497126376}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526D610D-9CFA-4DD6-A44E-607F889F32F1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3771" uniqueCount="1308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3771" uniqueCount="1309">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -3957,6 +3957,9 @@
   </si>
   <si>
     <t>X509_CERTIFICATE_FOR_PIV_AUTHENTICATION_OID;2.16.840.1.101.3.2.1.3.13,X509_CERTIFICATE_FOR_DIGITAL_SIGNATURE_OID;2.16.840.1.101.3.2.1.3.7:2.16.840.1.101.3.2.1.3.16,X509_CERTIFICATE_FOR_KEY_MANAGEMENT_OID;2.16.840.1.101.3.2.1.3.7:2.16.840.1.101.3.2.1.3.16,X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID;2.16.840.1.101.3.2.1.3.17,CARD_HOLDER_UNIQUE_IDENTIFIER_OID;2.16.840.1.101.3.2.1.48.86</t>
+  </si>
+  <si>
+    <t>eliminate cms.17 atom as it does not apply</t>
   </si>
 </sst>
 </file>
@@ -8521,11 +8524,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet2"/>
+  <sheetPr codeName="Sheet2" filterMode="1"/>
   <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView topLeftCell="A415" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A422" sqref="A422:XFD422"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G286" sqref="G286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -8566,7 +8569,7 @@
       </c>
       <c r="H1" s="53"/>
     </row>
-    <row r="2" spans="1:8" ht="15.6">
+    <row r="2" spans="1:8" ht="15.6" hidden="1">
       <c r="A2" s="35" t="s">
         <v>58</v>
       </c>
@@ -8581,7 +8584,7 @@
       <c r="F2" s="37"/>
       <c r="G2" s="36"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" hidden="1">
       <c r="A3" s="38" t="s">
         <v>58</v>
       </c>
@@ -8596,7 +8599,7 @@
       <c r="F3" s="37"/>
       <c r="G3" s="37"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" hidden="1">
       <c r="A4" s="38" t="s">
         <v>58</v>
       </c>
@@ -8611,7 +8614,7 @@
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
     </row>
-    <row r="5" spans="1:8" ht="30">
+    <row r="5" spans="1:8" ht="30" hidden="1">
       <c r="A5" s="38" t="s">
         <v>58</v>
       </c>
@@ -8632,7 +8635,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" hidden="1">
       <c r="A6" s="38" t="s">
         <v>58</v>
       </c>
@@ -8651,7 +8654,7 @@
       </c>
       <c r="G6" s="38"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" hidden="1">
       <c r="A7" s="38" t="s">
         <v>58</v>
       </c>
@@ -8670,7 +8673,7 @@
       </c>
       <c r="G7" s="38"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" hidden="1">
       <c r="A8" s="38" t="s">
         <v>58</v>
       </c>
@@ -8689,7 +8692,7 @@
       </c>
       <c r="G8" s="38"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" hidden="1">
       <c r="A9" s="38" t="s">
         <v>58</v>
       </c>
@@ -8708,7 +8711,7 @@
       </c>
       <c r="G9" s="38"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" hidden="1">
       <c r="A10" s="38" t="s">
         <v>58</v>
       </c>
@@ -8727,7 +8730,7 @@
       </c>
       <c r="G10" s="38"/>
     </row>
-    <row r="11" spans="1:8" ht="30">
+    <row r="11" spans="1:8" ht="30" hidden="1">
       <c r="A11" s="38" t="s">
         <v>58</v>
       </c>
@@ -8746,7 +8749,7 @@
       </c>
       <c r="G11" s="38"/>
     </row>
-    <row r="12" spans="1:8" ht="30">
+    <row r="12" spans="1:8" ht="30" hidden="1">
       <c r="A12" s="38" t="s">
         <v>58</v>
       </c>
@@ -8765,7 +8768,7 @@
       </c>
       <c r="G12" s="38"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" hidden="1">
       <c r="A13" s="38" t="s">
         <v>58</v>
       </c>
@@ -8784,7 +8787,7 @@
       </c>
       <c r="G13" s="38"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" hidden="1">
       <c r="A14" s="38" t="s">
         <v>58</v>
       </c>
@@ -8803,7 +8806,7 @@
       </c>
       <c r="G14" s="38"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" hidden="1">
       <c r="A15" s="38" t="s">
         <v>58</v>
       </c>
@@ -8822,7 +8825,7 @@
       </c>
       <c r="G15" s="38"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" hidden="1">
       <c r="A16" s="38" t="s">
         <v>58</v>
       </c>
@@ -8837,7 +8840,7 @@
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" hidden="1">
       <c r="A17" s="38" t="s">
         <v>58</v>
       </c>
@@ -8852,7 +8855,7 @@
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
     </row>
-    <row r="18" spans="1:7" ht="30">
+    <row r="18" spans="1:7" ht="30" hidden="1">
       <c r="A18" s="38" t="s">
         <v>58</v>
       </c>
@@ -8873,7 +8876,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" hidden="1">
       <c r="A19" s="38" t="s">
         <v>58</v>
       </c>
@@ -8892,7 +8895,7 @@
       </c>
       <c r="G19" s="38"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" hidden="1">
       <c r="A20" s="38" t="s">
         <v>58</v>
       </c>
@@ -8911,7 +8914,7 @@
       </c>
       <c r="G20" s="38"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" hidden="1">
       <c r="A21" s="38" t="s">
         <v>58</v>
       </c>
@@ -8930,7 +8933,7 @@
       </c>
       <c r="G21" s="38"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" hidden="1">
       <c r="A22" s="38" t="s">
         <v>58</v>
       </c>
@@ -8949,7 +8952,7 @@
       </c>
       <c r="G22" s="38"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" hidden="1">
       <c r="A23" s="38" t="s">
         <v>58</v>
       </c>
@@ -8968,7 +8971,7 @@
       </c>
       <c r="G23" s="38"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" hidden="1">
       <c r="A24" s="39" t="s">
         <v>58</v>
       </c>
@@ -8987,7 +8990,7 @@
       </c>
       <c r="G24" s="39"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" hidden="1">
       <c r="A25" s="38" t="s">
         <v>58</v>
       </c>
@@ -9006,7 +9009,7 @@
       </c>
       <c r="G25" s="38"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" hidden="1">
       <c r="A26" s="38" t="s">
         <v>58</v>
       </c>
@@ -9025,7 +9028,7 @@
       </c>
       <c r="G26" s="38"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" hidden="1">
       <c r="A27" s="39" t="s">
         <v>58</v>
       </c>
@@ -9044,7 +9047,7 @@
       </c>
       <c r="G27" s="39"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" hidden="1">
       <c r="A28" s="39" t="s">
         <v>58</v>
       </c>
@@ -9063,7 +9066,7 @@
       </c>
       <c r="G28" s="39"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" hidden="1">
       <c r="A29" s="39" t="s">
         <v>58</v>
       </c>
@@ -9082,7 +9085,7 @@
       </c>
       <c r="G29" s="39"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" hidden="1">
       <c r="A30" s="39"/>
       <c r="B30" s="39" t="s">
         <v>1214</v>
@@ -9099,7 +9102,7 @@
       </c>
       <c r="G30" s="39"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" hidden="1">
       <c r="A31" s="38" t="s">
         <v>58</v>
       </c>
@@ -9118,7 +9121,7 @@
       </c>
       <c r="G31" s="38"/>
     </row>
-    <row r="32" spans="1:7" ht="30">
+    <row r="32" spans="1:7" ht="30" hidden="1">
       <c r="A32" s="38" t="s">
         <v>58</v>
       </c>
@@ -9137,7 +9140,7 @@
       </c>
       <c r="G32" s="38"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" hidden="1">
       <c r="A33" s="39" t="s">
         <v>58</v>
       </c>
@@ -9156,7 +9159,7 @@
       </c>
       <c r="G33" s="39"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" hidden="1">
       <c r="A34" s="39" t="s">
         <v>58</v>
       </c>
@@ -9175,7 +9178,7 @@
       </c>
       <c r="G34" s="39"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" hidden="1">
       <c r="A35" s="39" t="s">
         <v>58</v>
       </c>
@@ -9194,7 +9197,7 @@
       </c>
       <c r="G35" s="39"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" hidden="1">
       <c r="A36" s="39" t="s">
         <v>58</v>
       </c>
@@ -9213,7 +9216,7 @@
       </c>
       <c r="G36" s="39"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" hidden="1">
       <c r="A37" s="38" t="s">
         <v>58</v>
       </c>
@@ -9232,7 +9235,7 @@
       </c>
       <c r="G37" s="38"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" hidden="1">
       <c r="A38" s="38" t="s">
         <v>58</v>
       </c>
@@ -9251,7 +9254,7 @@
       </c>
       <c r="G38" s="38"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" hidden="1">
       <c r="A39" s="38" t="s">
         <v>58</v>
       </c>
@@ -9270,7 +9273,7 @@
       </c>
       <c r="G39" s="38"/>
     </row>
-    <row r="40" spans="1:7" ht="30">
+    <row r="40" spans="1:7" ht="30" hidden="1">
       <c r="A40" s="38" t="s">
         <v>58</v>
       </c>
@@ -9289,7 +9292,7 @@
       </c>
       <c r="G40" s="38"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" hidden="1">
       <c r="A41" s="38" t="s">
         <v>58</v>
       </c>
@@ -9308,7 +9311,7 @@
       </c>
       <c r="G41" s="38"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" hidden="1">
       <c r="A42" s="38" t="s">
         <v>131</v>
       </c>
@@ -9327,7 +9330,7 @@
       </c>
       <c r="G42" s="38"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" hidden="1">
       <c r="A43" s="38" t="s">
         <v>58</v>
       </c>
@@ -9342,7 +9345,7 @@
       <c r="F43" s="37"/>
       <c r="G43" s="37"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" hidden="1">
       <c r="A44" s="38" t="s">
         <v>58</v>
       </c>
@@ -9357,7 +9360,7 @@
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
     </row>
-    <row r="45" spans="1:7" ht="30">
+    <row r="45" spans="1:7" ht="30" hidden="1">
       <c r="A45" s="38" t="s">
         <v>58</v>
       </c>
@@ -9378,7 +9381,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" hidden="1">
       <c r="A46" s="38" t="s">
         <v>58</v>
       </c>
@@ -9397,7 +9400,7 @@
       </c>
       <c r="G46" s="38"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" hidden="1">
       <c r="A47" s="38" t="s">
         <v>58</v>
       </c>
@@ -9416,7 +9419,7 @@
       </c>
       <c r="G47" s="38"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" hidden="1">
       <c r="A48" s="38" t="s">
         <v>58</v>
       </c>
@@ -9435,7 +9438,7 @@
       </c>
       <c r="G48" s="38"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" hidden="1">
       <c r="A49" s="38" t="s">
         <v>58</v>
       </c>
@@ -9454,7 +9457,7 @@
       </c>
       <c r="G49" s="38"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" hidden="1">
       <c r="A50" s="38" t="s">
         <v>58</v>
       </c>
@@ -9473,7 +9476,7 @@
       </c>
       <c r="G50" s="38"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" hidden="1">
       <c r="A51" s="38" t="s">
         <v>58</v>
       </c>
@@ -9492,7 +9495,7 @@
       </c>
       <c r="G51" s="38"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" hidden="1">
       <c r="A52" s="38" t="s">
         <v>58</v>
       </c>
@@ -9511,7 +9514,7 @@
       </c>
       <c r="G52" s="38"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" hidden="1">
       <c r="A53" s="38" t="s">
         <v>58</v>
       </c>
@@ -9530,7 +9533,7 @@
       </c>
       <c r="G53" s="38"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" hidden="1">
       <c r="A54" s="38" t="s">
         <v>131</v>
       </c>
@@ -9549,7 +9552,7 @@
       </c>
       <c r="G54" s="38"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" hidden="1">
       <c r="A55" s="38" t="s">
         <v>58</v>
       </c>
@@ -9564,7 +9567,7 @@
       <c r="F55" s="37"/>
       <c r="G55" s="37"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" hidden="1">
       <c r="A56" s="38" t="s">
         <v>58</v>
       </c>
@@ -9579,7 +9582,7 @@
       <c r="F56" s="37"/>
       <c r="G56" s="37"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" hidden="1">
       <c r="A57" s="38" t="s">
         <v>58</v>
       </c>
@@ -9600,7 +9603,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" hidden="1">
       <c r="A58" s="38" t="s">
         <v>58</v>
       </c>
@@ -9619,7 +9622,7 @@
       </c>
       <c r="G58" s="38"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" hidden="1">
       <c r="A59" s="38" t="s">
         <v>58</v>
       </c>
@@ -9638,7 +9641,7 @@
       </c>
       <c r="G59" s="38"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" hidden="1">
       <c r="A60" s="38" t="s">
         <v>58</v>
       </c>
@@ -9657,7 +9660,7 @@
       </c>
       <c r="G60" s="38"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" hidden="1">
       <c r="A61" s="38" t="s">
         <v>58</v>
       </c>
@@ -9676,7 +9679,7 @@
       </c>
       <c r="G61" s="38"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" hidden="1">
       <c r="A62" s="38" t="s">
         <v>58</v>
       </c>
@@ -9695,7 +9698,7 @@
       </c>
       <c r="G62" s="38"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" hidden="1">
       <c r="A63" s="38" t="s">
         <v>58</v>
       </c>
@@ -9714,7 +9717,7 @@
       </c>
       <c r="G63" s="38"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" hidden="1">
       <c r="A64" s="38" t="s">
         <v>58</v>
       </c>
@@ -9733,7 +9736,7 @@
       </c>
       <c r="G64" s="38"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" hidden="1">
       <c r="A65" s="38" t="s">
         <v>58</v>
       </c>
@@ -9752,7 +9755,7 @@
       </c>
       <c r="G65" s="38"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" hidden="1">
       <c r="A66" s="38" t="s">
         <v>58</v>
       </c>
@@ -9767,7 +9770,7 @@
       <c r="F66" s="37"/>
       <c r="G66" s="37"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" hidden="1">
       <c r="A67" s="38" t="s">
         <v>58</v>
       </c>
@@ -9782,7 +9785,7 @@
       <c r="F67" s="37"/>
       <c r="G67" s="37"/>
     </row>
-    <row r="68" spans="1:7" ht="30">
+    <row r="68" spans="1:7" ht="30" hidden="1">
       <c r="A68" s="38" t="s">
         <v>58</v>
       </c>
@@ -9803,7 +9806,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" hidden="1">
       <c r="A69" s="38" t="s">
         <v>58</v>
       </c>
@@ -9822,7 +9825,7 @@
       </c>
       <c r="G69" s="38"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" hidden="1">
       <c r="A70" s="38" t="s">
         <v>58</v>
       </c>
@@ -9841,7 +9844,7 @@
       </c>
       <c r="G70" s="38"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" hidden="1">
       <c r="A71" s="38" t="s">
         <v>58</v>
       </c>
@@ -9860,7 +9863,7 @@
       </c>
       <c r="G71" s="38"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" hidden="1">
       <c r="A72" s="38" t="s">
         <v>58</v>
       </c>
@@ -9879,7 +9882,7 @@
       </c>
       <c r="G72" s="38"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" hidden="1">
       <c r="A73" s="38" t="s">
         <v>58</v>
       </c>
@@ -9898,7 +9901,7 @@
       </c>
       <c r="G73" s="38"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" hidden="1">
       <c r="A74" s="39" t="s">
         <v>58</v>
       </c>
@@ -9917,7 +9920,7 @@
       </c>
       <c r="G74" s="39"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" hidden="1">
       <c r="A75" s="39" t="s">
         <v>58</v>
       </c>
@@ -9936,7 +9939,7 @@
       </c>
       <c r="G75" s="39"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" hidden="1">
       <c r="A76" s="38" t="s">
         <v>58</v>
       </c>
@@ -9955,7 +9958,7 @@
       </c>
       <c r="G76" s="38"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" hidden="1">
       <c r="A77" s="38" t="s">
         <v>58</v>
       </c>
@@ -9974,7 +9977,7 @@
       </c>
       <c r="G77" s="38"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" hidden="1">
       <c r="A78" s="38" t="s">
         <v>58</v>
       </c>
@@ -9993,7 +9996,7 @@
       </c>
       <c r="G78" s="38"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" hidden="1">
       <c r="A79" s="38" t="s">
         <v>131</v>
       </c>
@@ -10012,7 +10015,7 @@
       </c>
       <c r="G79" s="38"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" hidden="1">
       <c r="A80" s="38" t="s">
         <v>58</v>
       </c>
@@ -10027,7 +10030,7 @@
       <c r="F80" s="37"/>
       <c r="G80" s="37"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" hidden="1">
       <c r="A81" s="38" t="s">
         <v>58</v>
       </c>
@@ -10042,7 +10045,7 @@
       <c r="F81" s="37"/>
       <c r="G81" s="37"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" hidden="1">
       <c r="A82" s="38" t="s">
         <v>58</v>
       </c>
@@ -10063,7 +10066,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" hidden="1">
       <c r="A83" s="38" t="s">
         <v>58</v>
       </c>
@@ -10082,7 +10085,7 @@
       </c>
       <c r="G83" s="38"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" hidden="1">
       <c r="A84" s="38" t="s">
         <v>58</v>
       </c>
@@ -10101,7 +10104,7 @@
       </c>
       <c r="G84" s="38"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" hidden="1">
       <c r="A85" s="38" t="s">
         <v>58</v>
       </c>
@@ -10120,7 +10123,7 @@
       </c>
       <c r="G85" s="38"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" hidden="1">
       <c r="A86" s="38" t="s">
         <v>58</v>
       </c>
@@ -10139,7 +10142,7 @@
       </c>
       <c r="G86" s="38"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" hidden="1">
       <c r="A87" s="38" t="s">
         <v>58</v>
       </c>
@@ -10158,7 +10161,7 @@
       </c>
       <c r="G87" s="38"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" hidden="1">
       <c r="A88" s="38" t="s">
         <v>58</v>
       </c>
@@ -10177,7 +10180,7 @@
       </c>
       <c r="G88" s="38"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" hidden="1">
       <c r="A89" s="38" t="s">
         <v>131</v>
       </c>
@@ -10196,7 +10199,7 @@
       </c>
       <c r="G89" s="38"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" hidden="1">
       <c r="A90" s="38" t="s">
         <v>58</v>
       </c>
@@ -10211,7 +10214,7 @@
       <c r="F90" s="37"/>
       <c r="G90" s="37"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" hidden="1">
       <c r="A91" s="38" t="s">
         <v>58</v>
       </c>
@@ -10226,7 +10229,7 @@
       <c r="F91" s="37"/>
       <c r="G91" s="37"/>
     </row>
-    <row r="92" spans="1:7" ht="30">
+    <row r="92" spans="1:7" ht="30" hidden="1">
       <c r="A92" s="38" t="s">
         <v>58</v>
       </c>
@@ -10247,7 +10250,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" hidden="1">
       <c r="A93" s="38" t="s">
         <v>58</v>
       </c>
@@ -10266,7 +10269,7 @@
       </c>
       <c r="G93" s="38"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" hidden="1">
       <c r="A94" s="38" t="s">
         <v>58</v>
       </c>
@@ -10285,7 +10288,7 @@
       </c>
       <c r="G94" s="38"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" hidden="1">
       <c r="A95" s="38" t="s">
         <v>58</v>
       </c>
@@ -10304,7 +10307,7 @@
       </c>
       <c r="G95" s="38"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" hidden="1">
       <c r="A96" s="38" t="s">
         <v>58</v>
       </c>
@@ -10323,7 +10326,7 @@
       </c>
       <c r="G96" s="38"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" hidden="1">
       <c r="A97" s="38" t="s">
         <v>58</v>
       </c>
@@ -10342,7 +10345,7 @@
       </c>
       <c r="G97" s="38"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" hidden="1">
       <c r="A98" s="38" t="s">
         <v>58</v>
       </c>
@@ -10361,7 +10364,7 @@
       </c>
       <c r="G98" s="38"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" hidden="1">
       <c r="A99" s="38" t="s">
         <v>58</v>
       </c>
@@ -10380,7 +10383,7 @@
       </c>
       <c r="G99" s="38"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" hidden="1">
       <c r="A100" s="38" t="s">
         <v>58</v>
       </c>
@@ -10399,7 +10402,7 @@
       </c>
       <c r="G100" s="38"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" hidden="1">
       <c r="A101" s="38" t="s">
         <v>131</v>
       </c>
@@ -10418,7 +10421,7 @@
       </c>
       <c r="G101" s="38"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" hidden="1">
       <c r="A102" s="38" t="s">
         <v>58</v>
       </c>
@@ -10433,7 +10436,7 @@
       <c r="F102" s="37"/>
       <c r="G102" s="37"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" hidden="1">
       <c r="A103" s="38" t="s">
         <v>58</v>
       </c>
@@ -10448,7 +10451,7 @@
       <c r="F103" s="37"/>
       <c r="G103" s="37"/>
     </row>
-    <row r="104" spans="1:7" ht="30">
+    <row r="104" spans="1:7" ht="30" hidden="1">
       <c r="A104" s="38" t="s">
         <v>58</v>
       </c>
@@ -10469,7 +10472,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" hidden="1">
       <c r="A105" s="38" t="s">
         <v>58</v>
       </c>
@@ -10488,7 +10491,7 @@
       </c>
       <c r="G105" s="38"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" hidden="1">
       <c r="A106" s="38" t="s">
         <v>58</v>
       </c>
@@ -10507,7 +10510,7 @@
       </c>
       <c r="G106" s="38"/>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" hidden="1">
       <c r="A107" s="38" t="s">
         <v>58</v>
       </c>
@@ -10526,7 +10529,7 @@
       </c>
       <c r="G107" s="38"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" hidden="1">
       <c r="A108" s="38" t="s">
         <v>58</v>
       </c>
@@ -10545,7 +10548,7 @@
       </c>
       <c r="G108" s="38"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" hidden="1">
       <c r="A109" s="38" t="s">
         <v>58</v>
       </c>
@@ -10564,7 +10567,7 @@
       </c>
       <c r="G109" s="38"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" hidden="1">
       <c r="A110" s="38" t="s">
         <v>58</v>
       </c>
@@ -10583,7 +10586,7 @@
       </c>
       <c r="G110" s="38"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" hidden="1">
       <c r="A111" s="38" t="s">
         <v>58</v>
       </c>
@@ -10602,7 +10605,7 @@
       </c>
       <c r="G111" s="38"/>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" hidden="1">
       <c r="A112" s="38" t="s">
         <v>58</v>
       </c>
@@ -10621,7 +10624,7 @@
       </c>
       <c r="G112" s="38"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" hidden="1">
       <c r="A113" s="38" t="s">
         <v>131</v>
       </c>
@@ -10640,7 +10643,7 @@
       </c>
       <c r="G113" s="38"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" hidden="1">
       <c r="A114" s="38" t="s">
         <v>58</v>
       </c>
@@ -10655,7 +10658,7 @@
       <c r="F114" s="37"/>
       <c r="G114" s="37"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" hidden="1">
       <c r="A115" s="38" t="s">
         <v>58</v>
       </c>
@@ -10670,7 +10673,7 @@
       <c r="F115" s="37"/>
       <c r="G115" s="37"/>
     </row>
-    <row r="116" spans="1:7" ht="30">
+    <row r="116" spans="1:7" ht="30" hidden="1">
       <c r="A116" s="38" t="s">
         <v>58</v>
       </c>
@@ -10691,7 +10694,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" hidden="1">
       <c r="A117" s="38" t="s">
         <v>58</v>
       </c>
@@ -10710,7 +10713,7 @@
       </c>
       <c r="G117" s="38"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" hidden="1">
       <c r="A118" s="38" t="s">
         <v>58</v>
       </c>
@@ -10729,7 +10732,7 @@
       </c>
       <c r="G118" s="38"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" hidden="1">
       <c r="A119" s="38" t="s">
         <v>58</v>
       </c>
@@ -10748,7 +10751,7 @@
       </c>
       <c r="G119" s="38"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" hidden="1">
       <c r="A120" s="38" t="s">
         <v>58</v>
       </c>
@@ -10767,7 +10770,7 @@
       </c>
       <c r="G120" s="38"/>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" hidden="1">
       <c r="A121" s="38" t="s">
         <v>58</v>
       </c>
@@ -10786,7 +10789,7 @@
       </c>
       <c r="G121" s="38"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" hidden="1">
       <c r="A122" s="38" t="s">
         <v>58</v>
       </c>
@@ -10805,7 +10808,7 @@
       </c>
       <c r="G122" s="38"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" hidden="1">
       <c r="A123" s="38" t="s">
         <v>58</v>
       </c>
@@ -10824,7 +10827,7 @@
       </c>
       <c r="G123" s="38"/>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" hidden="1">
       <c r="A124" s="38" t="s">
         <v>58</v>
       </c>
@@ -10843,7 +10846,7 @@
       </c>
       <c r="G124" s="38"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" hidden="1">
       <c r="A125" s="38" t="s">
         <v>131</v>
       </c>
@@ -10862,7 +10865,7 @@
       </c>
       <c r="G125" s="38"/>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" hidden="1">
       <c r="A126" s="38" t="s">
         <v>58</v>
       </c>
@@ -10877,7 +10880,7 @@
       <c r="F126" s="37"/>
       <c r="G126" s="37"/>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" hidden="1">
       <c r="A127" s="38" t="s">
         <v>58</v>
       </c>
@@ -10892,7 +10895,7 @@
       <c r="F127" s="37"/>
       <c r="G127" s="37"/>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" hidden="1">
       <c r="A128" s="38" t="s">
         <v>58</v>
       </c>
@@ -10913,7 +10916,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" hidden="1">
       <c r="A129" s="38" t="s">
         <v>58</v>
       </c>
@@ -10932,7 +10935,7 @@
       </c>
       <c r="G129" s="38"/>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" hidden="1">
       <c r="A130" s="38" t="s">
         <v>58</v>
       </c>
@@ -10951,7 +10954,7 @@
       </c>
       <c r="G130" s="38"/>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" hidden="1">
       <c r="A131" s="38" t="s">
         <v>58</v>
       </c>
@@ -10970,7 +10973,7 @@
       </c>
       <c r="G131" s="38"/>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" hidden="1">
       <c r="A132" s="38" t="s">
         <v>58</v>
       </c>
@@ -10989,7 +10992,7 @@
       </c>
       <c r="G132" s="38"/>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" hidden="1">
       <c r="A133" s="38" t="s">
         <v>58</v>
       </c>
@@ -11008,7 +11011,7 @@
       </c>
       <c r="G133" s="38"/>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" hidden="1">
       <c r="A134" s="39" t="s">
         <v>58</v>
       </c>
@@ -11027,7 +11030,7 @@
       </c>
       <c r="G134" s="39"/>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" hidden="1">
       <c r="A135" s="38" t="s">
         <v>58</v>
       </c>
@@ -11046,7 +11049,7 @@
       </c>
       <c r="G135" s="38"/>
     </row>
-    <row r="136" spans="1:7" ht="30">
+    <row r="136" spans="1:7" ht="30" hidden="1">
       <c r="A136" s="38" t="s">
         <v>58</v>
       </c>
@@ -11065,7 +11068,7 @@
       </c>
       <c r="G136" s="38"/>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" hidden="1">
       <c r="A137" s="38" t="s">
         <v>58</v>
       </c>
@@ -11080,7 +11083,7 @@
       <c r="F137" s="37"/>
       <c r="G137" s="37"/>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" hidden="1">
       <c r="A138" s="38" t="s">
         <v>58</v>
       </c>
@@ -11095,7 +11098,7 @@
       <c r="F138" s="37"/>
       <c r="G138" s="37"/>
     </row>
-    <row r="139" spans="1:7" ht="30">
+    <row r="139" spans="1:7" ht="30" hidden="1">
       <c r="A139" s="38" t="s">
         <v>58</v>
       </c>
@@ -11118,7 +11121,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" hidden="1">
       <c r="A140" s="38" t="s">
         <v>58</v>
       </c>
@@ -11139,7 +11142,7 @@
       </c>
       <c r="G140" s="38"/>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" hidden="1">
       <c r="A141" s="38" t="s">
         <v>58</v>
       </c>
@@ -11160,7 +11163,7 @@
       </c>
       <c r="G141" s="38"/>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" hidden="1">
       <c r="A142" s="38" t="s">
         <v>58</v>
       </c>
@@ -11181,7 +11184,7 @@
       </c>
       <c r="G142" s="38"/>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" hidden="1">
       <c r="A143" s="38" t="s">
         <v>58</v>
       </c>
@@ -11202,7 +11205,7 @@
       </c>
       <c r="G143" s="38"/>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" hidden="1">
       <c r="A144" s="38" t="s">
         <v>58</v>
       </c>
@@ -11223,7 +11226,7 @@
       </c>
       <c r="G144" s="38"/>
     </row>
-    <row r="145" spans="1:8" ht="19.5" customHeight="1">
+    <row r="145" spans="1:8" ht="19.5" hidden="1" customHeight="1">
       <c r="A145" s="39" t="s">
         <v>58</v>
       </c>
@@ -11242,7 +11245,7 @@
       </c>
       <c r="G145" s="39"/>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" hidden="1">
       <c r="A146" s="38" t="s">
         <v>58</v>
       </c>
@@ -11263,7 +11266,7 @@
       </c>
       <c r="G146" s="38"/>
     </row>
-    <row r="147" spans="1:8" ht="45">
+    <row r="147" spans="1:8" ht="45" hidden="1">
       <c r="A147" s="38" t="s">
         <v>58</v>
       </c>
@@ -11284,7 +11287,7 @@
       </c>
       <c r="G147" s="38"/>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" hidden="1">
       <c r="A148" s="38" t="s">
         <v>131</v>
       </c>
@@ -11305,7 +11308,7 @@
       </c>
       <c r="G148" s="38"/>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" hidden="1">
       <c r="A149" s="38" t="s">
         <v>131</v>
       </c>
@@ -11324,7 +11327,7 @@
       </c>
       <c r="G149" s="38"/>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" hidden="1">
       <c r="A150" s="38" t="s">
         <v>58</v>
       </c>
@@ -11341,7 +11344,7 @@
       <c r="F150" s="37"/>
       <c r="G150" s="37"/>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" hidden="1">
       <c r="A151" s="38" t="s">
         <v>58</v>
       </c>
@@ -11358,7 +11361,7 @@
       <c r="F151" s="37"/>
       <c r="G151" s="37"/>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" hidden="1">
       <c r="A152" s="38" t="s">
         <v>58</v>
       </c>
@@ -11379,7 +11382,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" hidden="1">
       <c r="A153" s="38" t="s">
         <v>58</v>
       </c>
@@ -11400,7 +11403,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" hidden="1">
       <c r="A154" s="38" t="s">
         <v>58</v>
       </c>
@@ -11421,7 +11424,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" hidden="1">
       <c r="A155" s="38" t="s">
         <v>58</v>
       </c>
@@ -11438,7 +11441,7 @@
       <c r="F155" s="37"/>
       <c r="G155" s="41"/>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" hidden="1">
       <c r="A156" s="38" t="s">
         <v>58</v>
       </c>
@@ -11455,7 +11458,7 @@
       <c r="F156" s="37"/>
       <c r="G156" s="41"/>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" hidden="1">
       <c r="A157" s="38" t="s">
         <v>58</v>
       </c>
@@ -11472,7 +11475,7 @@
       <c r="F157" s="37"/>
       <c r="G157" s="41"/>
     </row>
-    <row r="158" spans="1:8" ht="15.6">
+    <row r="158" spans="1:8" ht="15.6" hidden="1">
       <c r="A158" s="65" t="s">
         <v>58</v>
       </c>
@@ -11487,7 +11490,7 @@
       <c r="F158" s="37"/>
       <c r="G158" s="36"/>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" hidden="1">
       <c r="A159" s="65" t="s">
         <v>58</v>
       </c>
@@ -11502,7 +11505,7 @@
       <c r="F159" s="37"/>
       <c r="G159" s="37"/>
     </row>
-    <row r="160" spans="1:8" s="76" customFormat="1">
+    <row r="160" spans="1:8" s="76" customFormat="1" hidden="1">
       <c r="A160" s="73" t="s">
         <v>58</v>
       </c>
@@ -11520,7 +11523,7 @@
       <c r="G160" s="40"/>
       <c r="H160" s="75"/>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" hidden="1">
       <c r="A161" s="65" t="s">
         <v>58</v>
       </c>
@@ -11539,7 +11542,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" hidden="1">
       <c r="A162" s="65" t="s">
         <v>58</v>
       </c>
@@ -11556,7 +11559,7 @@
       <c r="F162" s="38"/>
       <c r="G162" s="38"/>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" hidden="1">
       <c r="A163" s="65" t="s">
         <v>58</v>
       </c>
@@ -11573,7 +11576,7 @@
       <c r="F163" s="38"/>
       <c r="G163" s="38"/>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" hidden="1">
       <c r="A164" s="38" t="s">
         <v>58</v>
       </c>
@@ -11592,7 +11595,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" hidden="1">
       <c r="A165" s="38" t="s">
         <v>58</v>
       </c>
@@ -11607,7 +11610,7 @@
       <c r="F165" s="41"/>
       <c r="G165" s="41"/>
     </row>
-    <row r="166" spans="1:7" s="51" customFormat="1">
+    <row r="166" spans="1:7" s="51" customFormat="1" hidden="1">
       <c r="A166" s="65" t="s">
         <v>58</v>
       </c>
@@ -11624,7 +11627,7 @@
       <c r="F166" s="65"/>
       <c r="G166" s="65"/>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" hidden="1">
       <c r="A167" s="38" t="s">
         <v>58</v>
       </c>
@@ -11641,7 +11644,7 @@
       <c r="F167" s="38"/>
       <c r="G167" s="38"/>
     </row>
-    <row r="168" spans="1:7" ht="30">
+    <row r="168" spans="1:7" ht="30" hidden="1">
       <c r="A168" s="38" t="s">
         <v>58</v>
       </c>
@@ -11658,7 +11661,7 @@
       <c r="F168" s="38"/>
       <c r="G168" s="38"/>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" hidden="1">
       <c r="A169" s="38" t="s">
         <v>58</v>
       </c>
@@ -11675,7 +11678,7 @@
       <c r="F169" s="40"/>
       <c r="G169" s="38"/>
     </row>
-    <row r="170" spans="1:7" ht="30">
+    <row r="170" spans="1:7" ht="30" hidden="1">
       <c r="A170" s="38" t="s">
         <v>58</v>
       </c>
@@ -11692,7 +11695,7 @@
       <c r="F170" s="40"/>
       <c r="G170" s="38"/>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" hidden="1">
       <c r="A171" s="38" t="s">
         <v>58</v>
       </c>
@@ -11709,7 +11712,7 @@
       <c r="F171" s="40"/>
       <c r="G171" s="38"/>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" hidden="1">
       <c r="A172" s="38" t="s">
         <v>58</v>
       </c>
@@ -11726,7 +11729,7 @@
       <c r="F172" s="40"/>
       <c r="G172" s="38"/>
     </row>
-    <row r="173" spans="1:7" ht="30">
+    <row r="173" spans="1:7" ht="30" hidden="1">
       <c r="A173" s="38" t="s">
         <v>58</v>
       </c>
@@ -11743,7 +11746,7 @@
       <c r="F173" s="40"/>
       <c r="G173" s="38"/>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" hidden="1">
       <c r="A174" s="38" t="s">
         <v>58</v>
       </c>
@@ -11760,7 +11763,7 @@
       <c r="F174" s="40"/>
       <c r="G174" s="38"/>
     </row>
-    <row r="175" spans="1:7" ht="45">
+    <row r="175" spans="1:7" ht="45" hidden="1">
       <c r="A175" s="38" t="s">
         <v>58</v>
       </c>
@@ -11777,7 +11780,7 @@
       <c r="F175" s="38"/>
       <c r="G175" s="38"/>
     </row>
-    <row r="176" spans="1:7" ht="30">
+    <row r="176" spans="1:7" ht="30" hidden="1">
       <c r="A176" s="38" t="s">
         <v>58</v>
       </c>
@@ -11794,7 +11797,7 @@
       <c r="F176" s="38"/>
       <c r="G176" s="38"/>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" hidden="1">
       <c r="A177" s="38" t="s">
         <v>58</v>
       </c>
@@ -11811,7 +11814,7 @@
       <c r="F177" s="38"/>
       <c r="G177" s="38"/>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" hidden="1">
       <c r="A178" s="38" t="s">
         <v>58</v>
       </c>
@@ -11826,7 +11829,7 @@
       <c r="F178" s="41"/>
       <c r="G178" s="42"/>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" hidden="1">
       <c r="A179" s="38" t="s">
         <v>58</v>
       </c>
@@ -11841,7 +11844,7 @@
       <c r="F179" s="41"/>
       <c r="G179" s="41"/>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" hidden="1">
       <c r="A180" s="38" t="s">
         <v>58</v>
       </c>
@@ -11860,7 +11863,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" hidden="1">
       <c r="A181" s="38" t="s">
         <v>58</v>
       </c>
@@ -11877,7 +11880,7 @@
       <c r="F181" s="38"/>
       <c r="G181" s="38"/>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" hidden="1">
       <c r="A182" s="38" t="s">
         <v>58</v>
       </c>
@@ -11894,7 +11897,7 @@
       <c r="F182" s="38"/>
       <c r="G182" s="38"/>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" hidden="1">
       <c r="A183" s="38" t="s">
         <v>58</v>
       </c>
@@ -11911,7 +11914,7 @@
       <c r="F183" s="38"/>
       <c r="G183" s="38"/>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" hidden="1">
       <c r="A184" s="38" t="s">
         <v>58</v>
       </c>
@@ -11926,7 +11929,7 @@
       <c r="F184" s="41"/>
       <c r="G184" s="41"/>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" hidden="1">
       <c r="A185" s="38" t="s">
         <v>58</v>
       </c>
@@ -11945,7 +11948,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" hidden="1">
       <c r="A186" s="38" t="s">
         <v>58</v>
       </c>
@@ -11962,7 +11965,7 @@
       <c r="F186" s="38"/>
       <c r="G186" s="38"/>
     </row>
-    <row r="187" spans="1:7" ht="30">
+    <row r="187" spans="1:7" ht="30" hidden="1">
       <c r="A187" s="38" t="s">
         <v>58</v>
       </c>
@@ -11979,7 +11982,7 @@
       <c r="F187" s="38"/>
       <c r="G187" s="38"/>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" hidden="1">
       <c r="A188" s="38" t="s">
         <v>58</v>
       </c>
@@ -11996,7 +11999,7 @@
       <c r="F188" s="40"/>
       <c r="G188" s="38"/>
     </row>
-    <row r="189" spans="1:7" ht="30">
+    <row r="189" spans="1:7" ht="30" hidden="1">
       <c r="A189" s="38" t="s">
         <v>58</v>
       </c>
@@ -12013,7 +12016,7 @@
       <c r="F189" s="40"/>
       <c r="G189" s="38"/>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" hidden="1">
       <c r="A190" s="38" t="s">
         <v>58</v>
       </c>
@@ -12030,7 +12033,7 @@
       <c r="F190" s="40"/>
       <c r="G190" s="38"/>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" hidden="1">
       <c r="A191" s="38" t="s">
         <v>58</v>
       </c>
@@ -12047,7 +12050,7 @@
       <c r="F191" s="40"/>
       <c r="G191" s="38"/>
     </row>
-    <row r="192" spans="1:7" ht="30">
+    <row r="192" spans="1:7" ht="30" hidden="1">
       <c r="A192" s="38" t="s">
         <v>58</v>
       </c>
@@ -12064,7 +12067,7 @@
       <c r="F192" s="40"/>
       <c r="G192" s="38"/>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" hidden="1">
       <c r="A193" s="38" t="s">
         <v>58</v>
       </c>
@@ -12081,7 +12084,7 @@
       <c r="F193" s="40"/>
       <c r="G193" s="38"/>
     </row>
-    <row r="194" spans="1:7" ht="45">
+    <row r="194" spans="1:7" ht="45" hidden="1">
       <c r="A194" s="38" t="s">
         <v>58</v>
       </c>
@@ -12098,7 +12101,7 @@
       <c r="F194" s="38"/>
       <c r="G194" s="38"/>
     </row>
-    <row r="195" spans="1:7" ht="30">
+    <row r="195" spans="1:7" ht="30" hidden="1">
       <c r="A195" s="38" t="s">
         <v>58</v>
       </c>
@@ -12115,7 +12118,7 @@
       <c r="F195" s="38"/>
       <c r="G195" s="38"/>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" hidden="1">
       <c r="A196" s="38" t="s">
         <v>58</v>
       </c>
@@ -12132,7 +12135,7 @@
       <c r="F196" s="38"/>
       <c r="G196" s="38"/>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" hidden="1">
       <c r="A197" s="38" t="s">
         <v>58</v>
       </c>
@@ -12147,7 +12150,7 @@
       <c r="F197" s="41"/>
       <c r="G197" s="41"/>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" hidden="1">
       <c r="A198" s="38" t="s">
         <v>58</v>
       </c>
@@ -12162,7 +12165,7 @@
       <c r="F198" s="41"/>
       <c r="G198" s="41"/>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" hidden="1">
       <c r="A199" s="38" t="s">
         <v>58</v>
       </c>
@@ -12181,7 +12184,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" hidden="1">
       <c r="A200" s="38" t="s">
         <v>58</v>
       </c>
@@ -12198,7 +12201,7 @@
       <c r="F200" s="38"/>
       <c r="G200" s="38"/>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" hidden="1">
       <c r="A201" s="38" t="s">
         <v>58</v>
       </c>
@@ -12215,7 +12218,7 @@
       <c r="F201" s="38"/>
       <c r="G201" s="38"/>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" hidden="1">
       <c r="A202" s="38" t="s">
         <v>58</v>
       </c>
@@ -12232,7 +12235,7 @@
       <c r="F202" s="38"/>
       <c r="G202" s="38"/>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" hidden="1">
       <c r="A203" s="38" t="s">
         <v>58</v>
       </c>
@@ -12247,7 +12250,7 @@
       <c r="F203" s="41"/>
       <c r="G203" s="41"/>
     </row>
-    <row r="204" spans="1:7" ht="42" customHeight="1">
+    <row r="204" spans="1:7" ht="42" hidden="1" customHeight="1">
       <c r="A204" s="38" t="s">
         <v>58</v>
       </c>
@@ -12266,7 +12269,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" hidden="1">
       <c r="A205" s="38" t="s">
         <v>58</v>
       </c>
@@ -12283,7 +12286,7 @@
       <c r="F205" s="38"/>
       <c r="G205" s="38"/>
     </row>
-    <row r="206" spans="1:7" ht="36.75" customHeight="1">
+    <row r="206" spans="1:7" ht="36.75" hidden="1" customHeight="1">
       <c r="A206" s="38" t="s">
         <v>58</v>
       </c>
@@ -12300,7 +12303,7 @@
       <c r="F206" s="38"/>
       <c r="G206" s="38"/>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" hidden="1">
       <c r="A207" s="38" t="s">
         <v>58</v>
       </c>
@@ -12317,7 +12320,7 @@
       <c r="F207" s="40"/>
       <c r="G207" s="38"/>
     </row>
-    <row r="208" spans="1:7" ht="30">
+    <row r="208" spans="1:7" ht="30" hidden="1">
       <c r="A208" s="38" t="s">
         <v>58</v>
       </c>
@@ -12334,7 +12337,7 @@
       <c r="F208" s="40"/>
       <c r="G208" s="38"/>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" hidden="1">
       <c r="A209" s="38" t="s">
         <v>58</v>
       </c>
@@ -12351,7 +12354,7 @@
       <c r="F209" s="40"/>
       <c r="G209" s="38"/>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" hidden="1">
       <c r="A210" s="38" t="s">
         <v>58</v>
       </c>
@@ -12368,7 +12371,7 @@
       <c r="F210" s="40"/>
       <c r="G210" s="38"/>
     </row>
-    <row r="211" spans="1:7" ht="30">
+    <row r="211" spans="1:7" ht="30" hidden="1">
       <c r="A211" s="38" t="s">
         <v>58</v>
       </c>
@@ -12385,7 +12388,7 @@
       <c r="F211" s="40"/>
       <c r="G211" s="38"/>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" hidden="1">
       <c r="A212" s="38" t="s">
         <v>58</v>
       </c>
@@ -12402,7 +12405,7 @@
       <c r="F212" s="40"/>
       <c r="G212" s="38"/>
     </row>
-    <row r="213" spans="1:7" ht="45">
+    <row r="213" spans="1:7" ht="45" hidden="1">
       <c r="A213" s="38" t="s">
         <v>58</v>
       </c>
@@ -12419,7 +12422,7 @@
       <c r="F213" s="38"/>
       <c r="G213" s="38"/>
     </row>
-    <row r="214" spans="1:7" ht="30">
+    <row r="214" spans="1:7" ht="30" hidden="1">
       <c r="A214" s="38" t="s">
         <v>58</v>
       </c>
@@ -12436,7 +12439,7 @@
       <c r="F214" s="38"/>
       <c r="G214" s="38"/>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" hidden="1">
       <c r="A215" s="38" t="s">
         <v>58</v>
       </c>
@@ -12453,7 +12456,7 @@
       <c r="F215" s="38"/>
       <c r="G215" s="38"/>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" hidden="1">
       <c r="A216" s="38" t="s">
         <v>58</v>
       </c>
@@ -12468,7 +12471,7 @@
       <c r="F216" s="41"/>
       <c r="G216" s="43"/>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" hidden="1">
       <c r="A217" s="38" t="s">
         <v>58</v>
       </c>
@@ -12483,7 +12486,7 @@
       <c r="F217" s="41"/>
       <c r="G217" s="41"/>
     </row>
-    <row r="218" spans="1:7" ht="30">
+    <row r="218" spans="1:7" ht="30" hidden="1">
       <c r="A218" s="38" t="s">
         <v>58</v>
       </c>
@@ -12502,7 +12505,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" hidden="1">
       <c r="A219" s="38" t="s">
         <v>58</v>
       </c>
@@ -12519,7 +12522,7 @@
       <c r="F219" s="38"/>
       <c r="G219" s="38"/>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" hidden="1">
       <c r="A220" s="38" t="s">
         <v>58</v>
       </c>
@@ -12536,7 +12539,7 @@
       <c r="F220" s="38"/>
       <c r="G220" s="38"/>
     </row>
-    <row r="221" spans="1:7" ht="30">
+    <row r="221" spans="1:7" ht="30" hidden="1">
       <c r="A221" s="38" t="s">
         <v>58</v>
       </c>
@@ -12553,7 +12556,7 @@
       <c r="F221" s="38"/>
       <c r="G221" s="38"/>
     </row>
-    <row r="222" spans="1:7" ht="30">
+    <row r="222" spans="1:7" ht="30" hidden="1">
       <c r="A222" s="38" t="s">
         <v>58</v>
       </c>
@@ -12570,7 +12573,7 @@
       <c r="F222" s="38"/>
       <c r="G222" s="38"/>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" hidden="1">
       <c r="A223" s="38" t="s">
         <v>58</v>
       </c>
@@ -12587,7 +12590,7 @@
       <c r="F223" s="40"/>
       <c r="G223" s="38"/>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" hidden="1">
       <c r="A224" s="38" t="s">
         <v>58</v>
       </c>
@@ -12604,7 +12607,7 @@
       <c r="F224" s="38"/>
       <c r="G224" s="38"/>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" hidden="1">
       <c r="A225" s="38" t="s">
         <v>58</v>
       </c>
@@ -12623,7 +12626,7 @@
       <c r="F225" s="38"/>
       <c r="G225" s="38"/>
     </row>
-    <row r="226" spans="1:7" ht="30">
+    <row r="226" spans="1:7" ht="30" hidden="1">
       <c r="A226" s="38" t="s">
         <v>58</v>
       </c>
@@ -12642,7 +12645,7 @@
       <c r="F226" s="38"/>
       <c r="G226" s="38"/>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" hidden="1">
       <c r="A227" s="38" t="s">
         <v>58</v>
       </c>
@@ -12659,7 +12662,7 @@
       <c r="F227" s="38"/>
       <c r="G227" s="38"/>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" hidden="1">
       <c r="A228" s="38" t="s">
         <v>58</v>
       </c>
@@ -12676,7 +12679,7 @@
       <c r="F228" s="38"/>
       <c r="G228" s="38"/>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" hidden="1">
       <c r="A229" s="38" t="s">
         <v>58</v>
       </c>
@@ -12693,7 +12696,7 @@
       <c r="F229" s="38"/>
       <c r="G229" s="38"/>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" hidden="1">
       <c r="A230" s="38" t="s">
         <v>58</v>
       </c>
@@ -12708,7 +12711,7 @@
       <c r="F230" s="41"/>
       <c r="G230" s="41"/>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" hidden="1">
       <c r="A231" s="38" t="s">
         <v>58</v>
       </c>
@@ -12727,7 +12730,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" hidden="1">
       <c r="A232" s="38" t="s">
         <v>58</v>
       </c>
@@ -12744,7 +12747,7 @@
       <c r="F232" s="38"/>
       <c r="G232" s="38"/>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" hidden="1">
       <c r="A233" s="38" t="s">
         <v>58</v>
       </c>
@@ -12761,7 +12764,7 @@
       <c r="F233" s="38"/>
       <c r="G233" s="38"/>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" hidden="1">
       <c r="A234" s="38" t="s">
         <v>58</v>
       </c>
@@ -12778,7 +12781,7 @@
       <c r="F234" s="38"/>
       <c r="G234" s="38"/>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" hidden="1">
       <c r="A235" s="38" t="s">
         <v>58</v>
       </c>
@@ -12797,7 +12800,7 @@
       <c r="F235" s="40"/>
       <c r="G235" s="38"/>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" hidden="1">
       <c r="A236" s="38" t="s">
         <v>58</v>
       </c>
@@ -12814,7 +12817,7 @@
       <c r="F236" s="38"/>
       <c r="G236" s="38"/>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" hidden="1">
       <c r="A237" s="38" t="s">
         <v>58</v>
       </c>
@@ -12831,7 +12834,7 @@
       <c r="F237" s="38"/>
       <c r="G237" s="38"/>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" hidden="1">
       <c r="A238" s="38" t="s">
         <v>58</v>
       </c>
@@ -12848,7 +12851,7 @@
       <c r="F238" s="38"/>
       <c r="G238" s="38"/>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" hidden="1">
       <c r="A239" s="38" t="s">
         <v>58</v>
       </c>
@@ -12865,7 +12868,7 @@
       <c r="F239" s="38"/>
       <c r="G239" s="38"/>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" hidden="1">
       <c r="A240" s="38" t="s">
         <v>58</v>
       </c>
@@ -12882,7 +12885,7 @@
       <c r="F240" s="38"/>
       <c r="G240" s="38"/>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" hidden="1">
       <c r="A241" s="38" t="s">
         <v>58</v>
       </c>
@@ -12899,7 +12902,7 @@
       <c r="F241" s="38"/>
       <c r="G241" s="38"/>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" hidden="1">
       <c r="A242" s="38" t="s">
         <v>58</v>
       </c>
@@ -12914,7 +12917,7 @@
       <c r="F242" s="41"/>
       <c r="G242" s="41"/>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" hidden="1">
       <c r="A243" s="38" t="s">
         <v>58</v>
       </c>
@@ -12933,7 +12936,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" hidden="1">
       <c r="A244" s="38" t="s">
         <v>58</v>
       </c>
@@ -12950,7 +12953,7 @@
       <c r="F244" s="38"/>
       <c r="G244" s="38"/>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" hidden="1">
       <c r="A245" s="38" t="s">
         <v>58</v>
       </c>
@@ -12965,7 +12968,7 @@
       <c r="F245" s="41"/>
       <c r="G245" s="41"/>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" hidden="1">
       <c r="A246" s="38" t="s">
         <v>58</v>
       </c>
@@ -12982,7 +12985,7 @@
       <c r="F246" s="38"/>
       <c r="G246" s="38"/>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" hidden="1">
       <c r="A247" s="38" t="s">
         <v>58</v>
       </c>
@@ -12997,7 +13000,7 @@
       <c r="F247" s="38"/>
       <c r="G247" s="43"/>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" hidden="1">
       <c r="A248" s="38" t="s">
         <v>58</v>
       </c>
@@ -13014,7 +13017,7 @@
       <c r="F248" s="38"/>
       <c r="G248" s="38"/>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" hidden="1">
       <c r="A249" s="38" t="s">
         <v>58</v>
       </c>
@@ -13031,7 +13034,7 @@
       <c r="F249" s="38"/>
       <c r="G249" s="38"/>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" hidden="1">
       <c r="A250" s="38" t="s">
         <v>58</v>
       </c>
@@ -13046,7 +13049,7 @@
       <c r="F250" s="41"/>
       <c r="G250" s="41"/>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" hidden="1">
       <c r="A251" s="38" t="s">
         <v>58</v>
       </c>
@@ -13063,7 +13066,7 @@
       <c r="F251" s="38"/>
       <c r="G251" s="38"/>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" hidden="1">
       <c r="A252" s="38" t="s">
         <v>58</v>
       </c>
@@ -13080,7 +13083,7 @@
       <c r="F252" s="38"/>
       <c r="G252" s="38"/>
     </row>
-    <row r="253" spans="1:7" ht="15.6">
+    <row r="253" spans="1:7" ht="15.6" hidden="1">
       <c r="A253" s="38" t="s">
         <v>58</v>
       </c>
@@ -13095,7 +13098,7 @@
       <c r="F253" s="41"/>
       <c r="G253" s="45"/>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" hidden="1">
       <c r="A254" s="38" t="s">
         <v>58</v>
       </c>
@@ -13110,7 +13113,7 @@
       <c r="F254" s="41"/>
       <c r="G254" s="41"/>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" hidden="1">
       <c r="A255" s="38" t="s">
         <v>58</v>
       </c>
@@ -13125,7 +13128,7 @@
       <c r="F255" s="41"/>
       <c r="G255" s="41"/>
     </row>
-    <row r="256" spans="1:7" ht="30">
+    <row r="256" spans="1:7" ht="30" hidden="1">
       <c r="A256" s="38" t="s">
         <v>58</v>
       </c>
@@ -13144,7 +13147,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" hidden="1">
       <c r="A257" s="38" t="s">
         <v>58</v>
       </c>
@@ -13161,7 +13164,7 @@
       <c r="F257" s="38"/>
       <c r="G257" s="44"/>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" hidden="1">
       <c r="A258" s="38" t="s">
         <v>58</v>
       </c>
@@ -13180,7 +13183,7 @@
       <c r="F258" s="38"/>
       <c r="G258" s="44"/>
     </row>
-    <row r="259" spans="1:7" ht="30">
+    <row r="259" spans="1:7" ht="30" hidden="1">
       <c r="A259" s="38" t="s">
         <v>58</v>
       </c>
@@ -13197,7 +13200,7 @@
       <c r="F259" s="38"/>
       <c r="G259" s="44"/>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" hidden="1">
       <c r="A260" s="38" t="s">
         <v>58</v>
       </c>
@@ -13214,7 +13217,7 @@
       <c r="F260" s="38"/>
       <c r="G260" s="44"/>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" hidden="1">
       <c r="A261" s="38" t="s">
         <v>58</v>
       </c>
@@ -13231,7 +13234,7 @@
       <c r="F261" s="38"/>
       <c r="G261" s="44"/>
     </row>
-    <row r="262" spans="1:7" ht="30">
+    <row r="262" spans="1:7" ht="30" hidden="1">
       <c r="A262" s="38" t="s">
         <v>58</v>
       </c>
@@ -13248,7 +13251,7 @@
       <c r="F262" s="38"/>
       <c r="G262" s="44"/>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" hidden="1">
       <c r="A263" s="38" t="s">
         <v>58</v>
       </c>
@@ -13267,7 +13270,7 @@
       <c r="F263" s="38"/>
       <c r="G263" s="44"/>
     </row>
-    <row r="264" spans="1:7" ht="30">
+    <row r="264" spans="1:7" ht="30" hidden="1">
       <c r="A264" s="38" t="s">
         <v>58</v>
       </c>
@@ -13284,7 +13287,7 @@
       <c r="F264" s="38"/>
       <c r="G264" s="44"/>
     </row>
-    <row r="265" spans="1:7" ht="45">
+    <row r="265" spans="1:7" ht="45" hidden="1">
       <c r="A265" s="38" t="s">
         <v>58</v>
       </c>
@@ -13301,7 +13304,7 @@
       <c r="F265" s="38"/>
       <c r="G265" s="44"/>
     </row>
-    <row r="266" spans="1:7" ht="30">
+    <row r="266" spans="1:7" ht="30" hidden="1">
       <c r="A266" s="38" t="s">
         <v>58</v>
       </c>
@@ -13318,7 +13321,7 @@
       <c r="F266" s="38"/>
       <c r="G266" s="44"/>
     </row>
-    <row r="267" spans="1:7" ht="45">
+    <row r="267" spans="1:7" ht="45" hidden="1">
       <c r="A267" s="38" t="s">
         <v>58</v>
       </c>
@@ -13337,7 +13340,7 @@
       <c r="F267" s="38"/>
       <c r="G267" s="44"/>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" hidden="1">
       <c r="A268" s="38" t="s">
         <v>58</v>
       </c>
@@ -13354,7 +13357,7 @@
       <c r="F268" s="38"/>
       <c r="G268" s="44"/>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" hidden="1">
       <c r="A269" s="38" t="s">
         <v>58</v>
       </c>
@@ -13369,7 +13372,7 @@
       <c r="F269" s="41"/>
       <c r="G269" s="41"/>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" hidden="1">
       <c r="A270" s="38" t="s">
         <v>58</v>
       </c>
@@ -13384,7 +13387,7 @@
       <c r="F270" s="41"/>
       <c r="G270" s="41"/>
     </row>
-    <row r="271" spans="1:7" ht="30">
+    <row r="271" spans="1:7" ht="30" hidden="1">
       <c r="A271" s="38" t="s">
         <v>58</v>
       </c>
@@ -13403,7 +13406,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" hidden="1">
       <c r="A272" s="38" t="s">
         <v>58</v>
       </c>
@@ -13420,7 +13423,7 @@
       <c r="F272" s="38"/>
       <c r="G272" s="44"/>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" hidden="1">
       <c r="A273" s="38" t="s">
         <v>58</v>
       </c>
@@ -13437,7 +13440,7 @@
       <c r="F273" s="38"/>
       <c r="G273" s="44"/>
     </row>
-    <row r="274" spans="1:7" ht="30">
+    <row r="274" spans="1:7" ht="30" hidden="1">
       <c r="A274" s="38" t="s">
         <v>58</v>
       </c>
@@ -13454,7 +13457,7 @@
       <c r="F274" s="38"/>
       <c r="G274" s="44"/>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" hidden="1">
       <c r="A275" s="38" t="s">
         <v>58</v>
       </c>
@@ -13471,7 +13474,7 @@
       <c r="F275" s="38"/>
       <c r="G275" s="44"/>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" hidden="1">
       <c r="A276" s="38" t="s">
         <v>58</v>
       </c>
@@ -13488,7 +13491,7 @@
       <c r="F276" s="38"/>
       <c r="G276" s="44"/>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" hidden="1">
       <c r="A277" s="38" t="s">
         <v>58</v>
       </c>
@@ -13505,7 +13508,7 @@
       <c r="F277" s="38"/>
       <c r="G277" s="44"/>
     </row>
-    <row r="278" spans="1:7" ht="30">
+    <row r="278" spans="1:7" ht="30" hidden="1">
       <c r="A278" s="38" t="s">
         <v>58</v>
       </c>
@@ -13522,7 +13525,7 @@
       <c r="F278" s="38"/>
       <c r="G278" s="44"/>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" hidden="1">
       <c r="A279" s="38" t="s">
         <v>58</v>
       </c>
@@ -13539,7 +13542,7 @@
       <c r="F279" s="38"/>
       <c r="G279" s="44"/>
     </row>
-    <row r="280" spans="1:7" ht="30">
+    <row r="280" spans="1:7" ht="30" hidden="1">
       <c r="A280" s="38" t="s">
         <v>58</v>
       </c>
@@ -13556,7 +13559,7 @@
       <c r="F280" s="38"/>
       <c r="G280" s="44"/>
     </row>
-    <row r="281" spans="1:7" ht="30">
+    <row r="281" spans="1:7" ht="30" hidden="1">
       <c r="A281" s="38" t="s">
         <v>58</v>
       </c>
@@ -13573,7 +13576,7 @@
       <c r="F281" s="38"/>
       <c r="G281" s="44"/>
     </row>
-    <row r="282" spans="1:7" ht="30">
+    <row r="282" spans="1:7" ht="30" hidden="1">
       <c r="A282" s="38" t="s">
         <v>58</v>
       </c>
@@ -13590,7 +13593,7 @@
       <c r="F282" s="38"/>
       <c r="G282" s="38"/>
     </row>
-    <row r="283" spans="1:7" ht="45">
+    <row r="283" spans="1:7" ht="45" hidden="1">
       <c r="A283" s="38" t="s">
         <v>58</v>
       </c>
@@ -13607,7 +13610,7 @@
       <c r="F283" s="38"/>
       <c r="G283" s="44"/>
     </row>
-    <row r="284" spans="1:7" ht="45">
+    <row r="284" spans="1:7" ht="45" hidden="1">
       <c r="A284" s="38" t="s">
         <v>58</v>
       </c>
@@ -13624,7 +13627,7 @@
       <c r="F284" s="38"/>
       <c r="G284" s="38"/>
     </row>
-    <row r="285" spans="1:7" ht="45">
+    <row r="285" spans="1:7" ht="45" hidden="1">
       <c r="A285" s="38" t="s">
         <v>58</v>
       </c>
@@ -13651,14 +13654,14 @@
       <c r="C286" s="44" t="s">
         <v>504</v>
       </c>
-      <c r="D286" s="38" t="s">
-        <v>505</v>
-      </c>
+      <c r="D286" s="38"/>
       <c r="E286" s="38"/>
       <c r="F286" s="38"/>
-      <c r="G286" s="44"/>
-    </row>
-    <row r="287" spans="1:7">
+      <c r="G286" s="44" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" hidden="1">
       <c r="A287" s="38" t="s">
         <v>58</v>
       </c>
@@ -13673,7 +13676,7 @@
       <c r="F287" s="41"/>
       <c r="G287" s="41"/>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" hidden="1">
       <c r="A288" s="38" t="s">
         <v>58</v>
       </c>
@@ -13688,7 +13691,7 @@
       <c r="F288" s="41"/>
       <c r="G288" s="41"/>
     </row>
-    <row r="289" spans="1:7" ht="30">
+    <row r="289" spans="1:7" ht="30" hidden="1">
       <c r="A289" s="38" t="s">
         <v>58</v>
       </c>
@@ -13707,7 +13710,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" hidden="1">
       <c r="A290" s="38" t="s">
         <v>58</v>
       </c>
@@ -13724,7 +13727,7 @@
       <c r="F290" s="38"/>
       <c r="G290" s="44"/>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" hidden="1">
       <c r="A291" s="38" t="s">
         <v>58</v>
       </c>
@@ -13741,7 +13744,7 @@
       <c r="F291" s="38"/>
       <c r="G291" s="44"/>
     </row>
-    <row r="292" spans="1:7" ht="30">
+    <row r="292" spans="1:7" ht="30" hidden="1">
       <c r="A292" s="38" t="s">
         <v>58</v>
       </c>
@@ -13758,7 +13761,7 @@
       <c r="F292" s="38"/>
       <c r="G292" s="44"/>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" hidden="1">
       <c r="A293" s="38" t="s">
         <v>58</v>
       </c>
@@ -13775,7 +13778,7 @@
       <c r="F293" s="38"/>
       <c r="G293" s="44"/>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" hidden="1">
       <c r="A294" s="38" t="s">
         <v>58</v>
       </c>
@@ -13792,7 +13795,7 @@
       <c r="F294" s="38"/>
       <c r="G294" s="44"/>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" hidden="1">
       <c r="A295" s="38" t="s">
         <v>58</v>
       </c>
@@ -13809,7 +13812,7 @@
       <c r="F295" s="38"/>
       <c r="G295" s="44"/>
     </row>
-    <row r="296" spans="1:7" ht="30">
+    <row r="296" spans="1:7" ht="30" hidden="1">
       <c r="A296" s="38" t="s">
         <v>58</v>
       </c>
@@ -13826,7 +13829,7 @@
       <c r="F296" s="38"/>
       <c r="G296" s="44"/>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" hidden="1">
       <c r="A297" s="38" t="s">
         <v>58</v>
       </c>
@@ -13843,7 +13846,7 @@
       <c r="F297" s="38"/>
       <c r="G297" s="44"/>
     </row>
-    <row r="298" spans="1:7" ht="30">
+    <row r="298" spans="1:7" ht="30" hidden="1">
       <c r="A298" s="38" t="s">
         <v>58</v>
       </c>
@@ -13860,7 +13863,7 @@
       <c r="F298" s="38"/>
       <c r="G298" s="44"/>
     </row>
-    <row r="299" spans="1:7" ht="30">
+    <row r="299" spans="1:7" ht="30" hidden="1">
       <c r="A299" s="38" t="s">
         <v>58</v>
       </c>
@@ -13877,7 +13880,7 @@
       <c r="F299" s="38"/>
       <c r="G299" s="44"/>
     </row>
-    <row r="300" spans="1:7" ht="30">
+    <row r="300" spans="1:7" ht="30" hidden="1">
       <c r="A300" s="38" t="s">
         <v>58</v>
       </c>
@@ -13894,7 +13897,7 @@
       <c r="F300" s="38"/>
       <c r="G300" s="38"/>
     </row>
-    <row r="301" spans="1:7" ht="45">
+    <row r="301" spans="1:7" ht="45" hidden="1">
       <c r="A301" s="38" t="s">
         <v>58</v>
       </c>
@@ -13911,7 +13914,7 @@
       <c r="F301" s="38"/>
       <c r="G301" s="44"/>
     </row>
-    <row r="302" spans="1:7" ht="45">
+    <row r="302" spans="1:7" ht="45" hidden="1">
       <c r="A302" s="38" t="s">
         <v>58</v>
       </c>
@@ -13928,7 +13931,7 @@
       <c r="F302" s="38"/>
       <c r="G302" s="38"/>
     </row>
-    <row r="303" spans="1:7" ht="45">
+    <row r="303" spans="1:7" ht="45" hidden="1">
       <c r="A303" s="38" t="s">
         <v>58</v>
       </c>
@@ -13945,7 +13948,7 @@
       <c r="F303" s="38"/>
       <c r="G303" s="44"/>
     </row>
-    <row r="304" spans="1:7" ht="30">
+    <row r="304" spans="1:7" ht="30" hidden="1">
       <c r="A304" s="38" t="s">
         <v>58</v>
       </c>
@@ -13962,7 +13965,7 @@
       <c r="F304" s="38"/>
       <c r="G304" s="44"/>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" hidden="1">
       <c r="A305" s="38" t="s">
         <v>58</v>
       </c>
@@ -13977,7 +13980,7 @@
       <c r="F305" s="41"/>
       <c r="G305" s="41"/>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" hidden="1">
       <c r="A306" s="38" t="s">
         <v>58</v>
       </c>
@@ -13992,7 +13995,7 @@
       <c r="F306" s="41"/>
       <c r="G306" s="41"/>
     </row>
-    <row r="307" spans="1:7" ht="30">
+    <row r="307" spans="1:7" ht="30" hidden="1">
       <c r="A307" s="38" t="s">
         <v>58</v>
       </c>
@@ -14009,7 +14012,7 @@
       <c r="F307" s="38"/>
       <c r="G307" s="44"/>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" hidden="1">
       <c r="A308" s="38" t="s">
         <v>58</v>
       </c>
@@ -14024,7 +14027,7 @@
       <c r="F308" s="41"/>
       <c r="G308" s="41"/>
     </row>
-    <row r="309" spans="1:7" ht="30">
+    <row r="309" spans="1:7" ht="30" hidden="1">
       <c r="A309" s="38" t="s">
         <v>58</v>
       </c>
@@ -14043,7 +14046,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" hidden="1">
       <c r="A310" s="38" t="s">
         <v>58</v>
       </c>
@@ -14060,7 +14063,7 @@
       <c r="F310" s="38"/>
       <c r="G310" s="44"/>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" hidden="1">
       <c r="A311" s="38" t="s">
         <v>58</v>
       </c>
@@ -14077,7 +14080,7 @@
       <c r="F311" s="38"/>
       <c r="G311" s="44"/>
     </row>
-    <row r="312" spans="1:7" ht="30">
+    <row r="312" spans="1:7" ht="30" hidden="1">
       <c r="A312" s="38" t="s">
         <v>58</v>
       </c>
@@ -14094,7 +14097,7 @@
       <c r="F312" s="38"/>
       <c r="G312" s="44"/>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" hidden="1">
       <c r="A313" s="38" t="s">
         <v>58</v>
       </c>
@@ -14111,7 +14114,7 @@
       <c r="F313" s="38"/>
       <c r="G313" s="44"/>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" hidden="1">
       <c r="A314" s="38" t="s">
         <v>58</v>
       </c>
@@ -14128,7 +14131,7 @@
       <c r="F314" s="38"/>
       <c r="G314" s="44"/>
     </row>
-    <row r="315" spans="1:7" ht="45">
+    <row r="315" spans="1:7" ht="45" hidden="1">
       <c r="A315" s="38" t="s">
         <v>58</v>
       </c>
@@ -14145,7 +14148,7 @@
       <c r="F315" s="38"/>
       <c r="G315" s="44"/>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" hidden="1">
       <c r="A316" s="38" t="s">
         <v>58</v>
       </c>
@@ -14160,7 +14163,7 @@
       <c r="F316" s="41"/>
       <c r="G316" s="48"/>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" hidden="1">
       <c r="A317" s="38" t="s">
         <v>58</v>
       </c>
@@ -14175,7 +14178,7 @@
       <c r="F317" s="41"/>
       <c r="G317" s="48"/>
     </row>
-    <row r="318" spans="1:7" ht="30">
+    <row r="318" spans="1:7" ht="30" hidden="1">
       <c r="A318" s="38" t="s">
         <v>58</v>
       </c>
@@ -14194,7 +14197,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" hidden="1">
       <c r="A319" s="38" t="s">
         <v>58</v>
       </c>
@@ -14211,7 +14214,7 @@
       <c r="F319" s="38"/>
       <c r="G319" s="38"/>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" hidden="1">
       <c r="A320" s="38" t="s">
         <v>58</v>
       </c>
@@ -14228,7 +14231,7 @@
       <c r="F320" s="38"/>
       <c r="G320" s="38"/>
     </row>
-    <row r="321" spans="1:7" ht="30">
+    <row r="321" spans="1:7" ht="30" hidden="1">
       <c r="A321" s="38" t="s">
         <v>58</v>
       </c>
@@ -14245,7 +14248,7 @@
       <c r="F321" s="38"/>
       <c r="G321" s="38"/>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" hidden="1">
       <c r="A322" s="38" t="s">
         <v>58</v>
       </c>
@@ -14262,7 +14265,7 @@
       <c r="F322" s="38"/>
       <c r="G322" s="38"/>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" hidden="1">
       <c r="A323" s="38" t="s">
         <v>58</v>
       </c>
@@ -14279,7 +14282,7 @@
       <c r="F323" s="38"/>
       <c r="G323" s="38"/>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" hidden="1">
       <c r="A324" s="38" t="s">
         <v>58</v>
       </c>
@@ -14296,7 +14299,7 @@
       <c r="F324" s="38"/>
       <c r="G324" s="38"/>
     </row>
-    <row r="325" spans="1:7" ht="30">
+    <row r="325" spans="1:7" ht="30" hidden="1">
       <c r="A325" s="38" t="s">
         <v>58</v>
       </c>
@@ -14313,7 +14316,7 @@
       <c r="F325" s="38"/>
       <c r="G325" s="38"/>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" hidden="1">
       <c r="A326" s="38" t="s">
         <v>58</v>
       </c>
@@ -14330,7 +14333,7 @@
       <c r="F326" s="38"/>
       <c r="G326" s="38"/>
     </row>
-    <row r="327" spans="1:7" ht="30">
+    <row r="327" spans="1:7" ht="30" hidden="1">
       <c r="A327" s="38" t="s">
         <v>58</v>
       </c>
@@ -14347,7 +14350,7 @@
       <c r="F327" s="38"/>
       <c r="G327" s="38"/>
     </row>
-    <row r="328" spans="1:7" ht="30">
+    <row r="328" spans="1:7" ht="30" hidden="1">
       <c r="A328" s="38" t="s">
         <v>58</v>
       </c>
@@ -14364,7 +14367,7 @@
       <c r="F328" s="38"/>
       <c r="G328" s="38"/>
     </row>
-    <row r="329" spans="1:7" ht="30">
+    <row r="329" spans="1:7" ht="30" hidden="1">
       <c r="A329" s="38" t="s">
         <v>58</v>
       </c>
@@ -14381,7 +14384,7 @@
       <c r="F329" s="38"/>
       <c r="G329" s="38"/>
     </row>
-    <row r="330" spans="1:7" ht="45">
+    <row r="330" spans="1:7" ht="45" hidden="1">
       <c r="A330" s="38" t="s">
         <v>58</v>
       </c>
@@ -14398,7 +14401,7 @@
       <c r="F330" s="38"/>
       <c r="G330" s="38"/>
     </row>
-    <row r="331" spans="1:7" ht="45">
+    <row r="331" spans="1:7" ht="45" hidden="1">
       <c r="A331" s="38" t="s">
         <v>58</v>
       </c>
@@ -14415,7 +14418,7 @@
       <c r="F331" s="38"/>
       <c r="G331" s="38"/>
     </row>
-    <row r="332" spans="1:7" ht="45">
+    <row r="332" spans="1:7" ht="45" hidden="1">
       <c r="A332" s="38" t="s">
         <v>58</v>
       </c>
@@ -14432,7 +14435,7 @@
       <c r="F332" s="38"/>
       <c r="G332" s="38"/>
     </row>
-    <row r="333" spans="1:7" ht="30">
+    <row r="333" spans="1:7" ht="30" hidden="1">
       <c r="A333" s="38" t="s">
         <v>58</v>
       </c>
@@ -14449,7 +14452,7 @@
       <c r="F333" s="38"/>
       <c r="G333" s="38"/>
     </row>
-    <row r="334" spans="1:7" ht="15.6">
+    <row r="334" spans="1:7" ht="15.6" hidden="1">
       <c r="A334" s="38" t="s">
         <v>58</v>
       </c>
@@ -14464,7 +14467,7 @@
       <c r="F334" s="41"/>
       <c r="G334" s="49"/>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:7" hidden="1">
       <c r="A335" s="38" t="s">
         <v>58</v>
       </c>
@@ -14479,7 +14482,7 @@
       <c r="F335" s="41"/>
       <c r="G335" s="48"/>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" hidden="1">
       <c r="A336" s="38" t="s">
         <v>58</v>
       </c>
@@ -14494,7 +14497,7 @@
       <c r="F336" s="41"/>
       <c r="G336" s="48"/>
     </row>
-    <row r="337" spans="1:7" ht="60">
+    <row r="337" spans="1:7" ht="60" hidden="1">
       <c r="A337" s="38" t="s">
         <v>58</v>
       </c>
@@ -14517,7 +14520,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" hidden="1">
       <c r="A338" s="38" t="s">
         <v>58</v>
       </c>
@@ -14538,7 +14541,7 @@
       </c>
       <c r="G338" s="44"/>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" hidden="1">
       <c r="A339" s="38" t="s">
         <v>58</v>
       </c>
@@ -14557,7 +14560,7 @@
       </c>
       <c r="G339" s="44"/>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:7" hidden="1">
       <c r="A340" s="38" t="s">
         <v>58</v>
       </c>
@@ -14572,7 +14575,7 @@
       <c r="F340" s="41"/>
       <c r="G340" s="41"/>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" hidden="1">
       <c r="A341" s="38" t="s">
         <v>58</v>
       </c>
@@ -14593,7 +14596,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" hidden="1">
       <c r="A342" s="38" t="s">
         <v>58</v>
       </c>
@@ -14612,7 +14615,7 @@
       </c>
       <c r="G342" s="44"/>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:7" hidden="1">
       <c r="A343" s="38" t="s">
         <v>58</v>
       </c>
@@ -14631,7 +14634,7 @@
       </c>
       <c r="G343" s="38"/>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:7" hidden="1">
       <c r="A344" s="38" t="s">
         <v>58</v>
       </c>
@@ -14650,7 +14653,7 @@
       </c>
       <c r="G344" s="44"/>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" hidden="1">
       <c r="A345" s="38" t="s">
         <v>58</v>
       </c>
@@ -14665,7 +14668,7 @@
       <c r="F345" s="41"/>
       <c r="G345" s="41"/>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" spans="1:7" hidden="1">
       <c r="A346" s="38" t="s">
         <v>58</v>
       </c>
@@ -14686,7 +14689,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:7" hidden="1">
       <c r="A347" s="38" t="s">
         <v>58</v>
       </c>
@@ -14705,7 +14708,7 @@
       </c>
       <c r="G347" s="44"/>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" hidden="1">
       <c r="A348" s="38" t="s">
         <v>58</v>
       </c>
@@ -14724,7 +14727,7 @@
       </c>
       <c r="G348" s="44"/>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" hidden="1">
       <c r="A349" s="38" t="s">
         <v>58</v>
       </c>
@@ -14743,7 +14746,7 @@
       </c>
       <c r="G349" s="44"/>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:7" hidden="1">
       <c r="A350" s="38" t="s">
         <v>58</v>
       </c>
@@ -14762,7 +14765,7 @@
       </c>
       <c r="G350" s="44"/>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" hidden="1">
       <c r="A351" s="38" t="s">
         <v>58</v>
       </c>
@@ -14777,7 +14780,7 @@
       <c r="F351" s="41"/>
       <c r="G351" s="41"/>
     </row>
-    <row r="352" spans="1:7" ht="45">
+    <row r="352" spans="1:7" ht="45" hidden="1">
       <c r="A352" s="38" t="s">
         <v>58</v>
       </c>
@@ -14798,7 +14801,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="353" spans="1:7" ht="30">
+    <row r="353" spans="1:7" ht="30" hidden="1">
       <c r="A353" s="38" t="s">
         <v>58</v>
       </c>
@@ -14817,7 +14820,7 @@
       </c>
       <c r="G353" s="44"/>
     </row>
-    <row r="354" spans="1:7" ht="37.5" customHeight="1">
+    <row r="354" spans="1:7" ht="37.5" hidden="1" customHeight="1">
       <c r="A354" s="38" t="s">
         <v>58</v>
       </c>
@@ -14836,7 +14839,7 @@
       </c>
       <c r="G354" s="38"/>
     </row>
-    <row r="355" spans="1:7" ht="30">
+    <row r="355" spans="1:7" ht="30" hidden="1">
       <c r="A355" s="38" t="s">
         <v>58</v>
       </c>
@@ -14855,7 +14858,7 @@
       </c>
       <c r="G355" s="44"/>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:7" hidden="1">
       <c r="A356" s="38" t="s">
         <v>58</v>
       </c>
@@ -14874,7 +14877,7 @@
       </c>
       <c r="G356" s="44"/>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" hidden="1">
       <c r="A357" s="38" t="s">
         <v>58</v>
       </c>
@@ -14889,7 +14892,7 @@
       <c r="F357" s="41"/>
       <c r="G357" s="41"/>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:7" hidden="1">
       <c r="A358" s="38" t="s">
         <v>58</v>
       </c>
@@ -14910,7 +14913,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:7" hidden="1">
       <c r="A359" s="38" t="s">
         <v>58</v>
       </c>
@@ -14929,7 +14932,7 @@
       </c>
       <c r="G359" s="38"/>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" hidden="1">
       <c r="A360" s="38" t="s">
         <v>58</v>
       </c>
@@ -14944,7 +14947,7 @@
       <c r="F360" s="41"/>
       <c r="G360" s="41"/>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:7" hidden="1">
       <c r="A361" s="38" t="s">
         <v>58</v>
       </c>
@@ -14965,7 +14968,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" hidden="1">
       <c r="A362" s="38" t="s">
         <v>58</v>
       </c>
@@ -14984,7 +14987,7 @@
       </c>
       <c r="G362" s="44"/>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" hidden="1">
       <c r="A363" s="38" t="s">
         <v>58</v>
       </c>
@@ -15003,7 +15006,7 @@
       </c>
       <c r="G363" s="44"/>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:7" hidden="1">
       <c r="A364" s="38" t="s">
         <v>58</v>
       </c>
@@ -15022,7 +15025,7 @@
       </c>
       <c r="G364" s="44"/>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:7" hidden="1">
       <c r="A365" s="38" t="s">
         <v>58</v>
       </c>
@@ -15043,7 +15046,7 @@
       </c>
       <c r="G365" s="38"/>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:7" hidden="1">
       <c r="A366" s="38" t="s">
         <v>58</v>
       </c>
@@ -15058,7 +15061,7 @@
       <c r="F366" s="41"/>
       <c r="G366" s="41"/>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:7" hidden="1">
       <c r="A367" s="38" t="s">
         <v>58</v>
       </c>
@@ -15073,7 +15076,7 @@
       <c r="F367" s="41"/>
       <c r="G367" s="41"/>
     </row>
-    <row r="368" spans="1:7" ht="60">
+    <row r="368" spans="1:7" ht="60" hidden="1">
       <c r="A368" s="38" t="s">
         <v>58</v>
       </c>
@@ -15096,7 +15099,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="369" spans="1:7" ht="30">
+    <row r="369" spans="1:7" ht="30" hidden="1">
       <c r="A369" s="38" t="s">
         <v>58</v>
       </c>
@@ -15117,7 +15120,7 @@
       </c>
       <c r="G369" s="44"/>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:7" hidden="1">
       <c r="A370" s="38" t="s">
         <v>58</v>
       </c>
@@ -15138,7 +15141,7 @@
       </c>
       <c r="G370" s="44"/>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:7" hidden="1">
       <c r="A371" s="38" t="s">
         <v>58</v>
       </c>
@@ -15153,7 +15156,7 @@
       <c r="F371" s="41"/>
       <c r="G371" s="41"/>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:7" hidden="1">
       <c r="A372" s="38" t="s">
         <v>58</v>
       </c>
@@ -15168,7 +15171,7 @@
       <c r="F372" s="41"/>
       <c r="G372" s="41"/>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" hidden="1">
       <c r="A373" s="38" t="s">
         <v>58</v>
       </c>
@@ -15189,7 +15192,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" spans="1:7" hidden="1">
       <c r="A374" s="38" t="s">
         <v>58</v>
       </c>
@@ -15208,7 +15211,7 @@
       </c>
       <c r="G374" s="44"/>
     </row>
-    <row r="375" spans="1:7" ht="30">
+    <row r="375" spans="1:7" ht="30" hidden="1">
       <c r="A375" s="38" t="s">
         <v>58</v>
       </c>
@@ -15227,7 +15230,7 @@
       </c>
       <c r="G375" s="44"/>
     </row>
-    <row r="376" spans="1:7" ht="30">
+    <row r="376" spans="1:7" ht="30" hidden="1">
       <c r="A376" s="38" t="s">
         <v>58</v>
       </c>
@@ -15246,7 +15249,7 @@
       </c>
       <c r="G376" s="44"/>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:7" hidden="1">
       <c r="A377" s="38" t="s">
         <v>58</v>
       </c>
@@ -15265,7 +15268,7 @@
       </c>
       <c r="G377" s="44"/>
     </row>
-    <row r="378" spans="1:7" ht="30">
+    <row r="378" spans="1:7" ht="30" hidden="1">
       <c r="A378" s="38" t="s">
         <v>58</v>
       </c>
@@ -15284,7 +15287,7 @@
       </c>
       <c r="G378" s="44"/>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" hidden="1">
       <c r="A379" s="38" t="s">
         <v>58</v>
       </c>
@@ -15299,7 +15302,7 @@
       <c r="F379" s="41"/>
       <c r="G379" s="41"/>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:7" hidden="1">
       <c r="A380" s="38" t="s">
         <v>58</v>
       </c>
@@ -15320,7 +15323,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" spans="1:7" hidden="1">
       <c r="A381" s="38" t="s">
         <v>58</v>
       </c>
@@ -15341,7 +15344,7 @@
       </c>
       <c r="G381" s="38"/>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" spans="1:7" hidden="1">
       <c r="A382" s="38" t="s">
         <v>58</v>
       </c>
@@ -15356,7 +15359,7 @@
       <c r="F382" s="41"/>
       <c r="G382" s="41"/>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" spans="1:7" hidden="1">
       <c r="A383" s="38" t="s">
         <v>58</v>
       </c>
@@ -15377,7 +15380,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:7" hidden="1">
       <c r="A384" s="38" t="s">
         <v>58</v>
       </c>
@@ -15396,7 +15399,7 @@
       </c>
       <c r="G384" s="44"/>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" hidden="1">
       <c r="A385" s="38" t="s">
         <v>58</v>
       </c>
@@ -15415,7 +15418,7 @@
       </c>
       <c r="G385" s="44"/>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" hidden="1">
       <c r="A386" s="38" t="s">
         <v>58</v>
       </c>
@@ -15434,7 +15437,7 @@
       </c>
       <c r="G386" s="38"/>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" hidden="1">
       <c r="A387" s="38" t="s">
         <v>58</v>
       </c>
@@ -15455,7 +15458,7 @@
       </c>
       <c r="G387" s="38"/>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" hidden="1">
       <c r="A388" s="38" t="s">
         <v>58</v>
       </c>
@@ -15470,7 +15473,7 @@
       <c r="F388" s="41"/>
       <c r="G388" s="41"/>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" hidden="1">
       <c r="A389" s="38" t="s">
         <v>58</v>
       </c>
@@ -15485,7 +15488,7 @@
       <c r="F389" s="41"/>
       <c r="G389" s="41"/>
     </row>
-    <row r="390" spans="1:7" ht="45">
+    <row r="390" spans="1:7" ht="45" hidden="1">
       <c r="A390" s="38" t="s">
         <v>58</v>
       </c>
@@ -15508,7 +15511,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="391" spans="1:7" ht="30">
+    <row r="391" spans="1:7" ht="30" hidden="1">
       <c r="A391" s="38" t="s">
         <v>58</v>
       </c>
@@ -15529,7 +15532,7 @@
       </c>
       <c r="G391" s="38"/>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:7" hidden="1">
       <c r="A392" s="38" t="s">
         <v>58</v>
       </c>
@@ -15550,7 +15553,7 @@
       </c>
       <c r="G392" s="44"/>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" hidden="1">
       <c r="A393" s="38" t="s">
         <v>58</v>
       </c>
@@ -15565,7 +15568,7 @@
       <c r="F393" s="41"/>
       <c r="G393" s="41"/>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:7" hidden="1">
       <c r="A394" s="38" t="s">
         <v>58</v>
       </c>
@@ -15580,7 +15583,7 @@
       <c r="F394" s="41"/>
       <c r="G394" s="41"/>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:7" hidden="1">
       <c r="A395" s="38" t="s">
         <v>58</v>
       </c>
@@ -15601,7 +15604,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:7" hidden="1">
       <c r="A396" s="38" t="s">
         <v>58</v>
       </c>
@@ -15620,7 +15623,7 @@
       </c>
       <c r="G396" s="44"/>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" hidden="1">
       <c r="A397" s="38" t="s">
         <v>58</v>
       </c>
@@ -15639,7 +15642,7 @@
       </c>
       <c r="G397" s="44"/>
     </row>
-    <row r="398" spans="1:7" ht="30">
+    <row r="398" spans="1:7" ht="30" hidden="1">
       <c r="A398" s="38" t="s">
         <v>58</v>
       </c>
@@ -15658,7 +15661,7 @@
       </c>
       <c r="G398" s="44"/>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" hidden="1">
       <c r="A399" s="38" t="s">
         <v>58</v>
       </c>
@@ -15677,7 +15680,7 @@
       </c>
       <c r="G399" s="44"/>
     </row>
-    <row r="400" spans="1:7" ht="30">
+    <row r="400" spans="1:7" ht="30" hidden="1">
       <c r="A400" s="38" t="s">
         <v>58</v>
       </c>
@@ -15696,7 +15699,7 @@
       </c>
       <c r="G400" s="44"/>
     </row>
-    <row r="401" spans="1:7">
+    <row r="401" spans="1:7" hidden="1">
       <c r="A401" s="38" t="s">
         <v>58</v>
       </c>
@@ -15711,7 +15714,7 @@
       <c r="F401" s="41"/>
       <c r="G401" s="41"/>
     </row>
-    <row r="402" spans="1:7">
+    <row r="402" spans="1:7" hidden="1">
       <c r="A402" s="38" t="s">
         <v>58</v>
       </c>
@@ -15732,7 +15735,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" spans="1:7" hidden="1">
       <c r="A403" s="38" t="s">
         <v>58</v>
       </c>
@@ -15753,7 +15756,7 @@
       </c>
       <c r="G403" s="38"/>
     </row>
-    <row r="404" spans="1:7">
+    <row r="404" spans="1:7" hidden="1">
       <c r="A404" s="38" t="s">
         <v>58</v>
       </c>
@@ -15768,7 +15771,7 @@
       <c r="F404" s="41"/>
       <c r="G404" s="41"/>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" spans="1:7" hidden="1">
       <c r="A405" s="38" t="s">
         <v>58</v>
       </c>
@@ -15789,7 +15792,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" spans="1:7" hidden="1">
       <c r="A406" s="38" t="s">
         <v>58</v>
       </c>
@@ -15808,7 +15811,7 @@
       </c>
       <c r="G406" s="44"/>
     </row>
-    <row r="407" spans="1:7">
+    <row r="407" spans="1:7" hidden="1">
       <c r="A407" s="38" t="s">
         <v>58</v>
       </c>
@@ -15827,7 +15830,7 @@
       </c>
       <c r="G407" s="44"/>
     </row>
-    <row r="408" spans="1:7">
+    <row r="408" spans="1:7" hidden="1">
       <c r="A408" s="38" t="s">
         <v>58</v>
       </c>
@@ -15846,7 +15849,7 @@
       </c>
       <c r="G408" s="38"/>
     </row>
-    <row r="409" spans="1:7">
+    <row r="409" spans="1:7" hidden="1">
       <c r="A409" s="38" t="s">
         <v>58</v>
       </c>
@@ -15867,7 +15870,7 @@
       </c>
       <c r="G409" s="38"/>
     </row>
-    <row r="410" spans="1:7">
+    <row r="410" spans="1:7" hidden="1">
       <c r="A410" s="38" t="s">
         <v>58</v>
       </c>
@@ -15882,7 +15885,7 @@
       <c r="F410" s="41"/>
       <c r="G410" s="41"/>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" spans="1:7" hidden="1">
       <c r="A411" s="38" t="s">
         <v>58</v>
       </c>
@@ -15897,7 +15900,7 @@
       <c r="F411" s="41"/>
       <c r="G411" s="41"/>
     </row>
-    <row r="412" spans="1:7" ht="45">
+    <row r="412" spans="1:7" ht="45" hidden="1">
       <c r="A412" s="38" t="s">
         <v>58</v>
       </c>
@@ -15920,7 +15923,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="413" spans="1:7">
+    <row r="413" spans="1:7" hidden="1">
       <c r="A413" s="38" t="s">
         <v>58</v>
       </c>
@@ -15941,7 +15944,7 @@
       </c>
       <c r="G413" s="44"/>
     </row>
-    <row r="414" spans="1:7">
+    <row r="414" spans="1:7" hidden="1">
       <c r="A414" s="38" t="s">
         <v>58</v>
       </c>
@@ -15962,7 +15965,7 @@
       </c>
       <c r="G414" s="44"/>
     </row>
-    <row r="415" spans="1:7">
+    <row r="415" spans="1:7" hidden="1">
       <c r="A415" s="38" t="s">
         <v>58</v>
       </c>
@@ -15977,7 +15980,7 @@
       <c r="F415" s="41"/>
       <c r="G415" s="41"/>
     </row>
-    <row r="416" spans="1:7">
+    <row r="416" spans="1:7" hidden="1">
       <c r="A416" s="38" t="s">
         <v>58</v>
       </c>
@@ -15992,7 +15995,7 @@
       <c r="F416" s="41"/>
       <c r="G416" s="41"/>
     </row>
-    <row r="417" spans="1:7">
+    <row r="417" spans="1:7" hidden="1">
       <c r="A417" s="38" t="s">
         <v>58</v>
       </c>
@@ -16013,7 +16016,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="418" spans="1:7">
+    <row r="418" spans="1:7" hidden="1">
       <c r="A418" s="38" t="s">
         <v>58</v>
       </c>
@@ -16032,7 +16035,7 @@
       </c>
       <c r="G418" s="44"/>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" spans="1:7" hidden="1">
       <c r="A419" s="38" t="s">
         <v>58</v>
       </c>
@@ -16051,7 +16054,7 @@
       </c>
       <c r="G419" s="44"/>
     </row>
-    <row r="420" spans="1:7">
+    <row r="420" spans="1:7" hidden="1">
       <c r="A420" s="38" t="s">
         <v>58</v>
       </c>
@@ -16070,7 +16073,7 @@
       </c>
       <c r="G420" s="38"/>
     </row>
-    <row r="421" spans="1:7">
+    <row r="421" spans="1:7" hidden="1">
       <c r="A421" s="38" t="s">
         <v>58</v>
       </c>
@@ -16085,7 +16088,7 @@
       <c r="F421" s="41"/>
       <c r="G421" s="41"/>
     </row>
-    <row r="422" spans="1:7">
+    <row r="422" spans="1:7" hidden="1">
       <c r="A422" s="38" t="s">
         <v>58</v>
       </c>
@@ -16106,7 +16109,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="423" spans="1:7">
+    <row r="423" spans="1:7" hidden="1">
       <c r="A423" s="38" t="s">
         <v>58</v>
       </c>
@@ -16125,7 +16128,7 @@
       </c>
       <c r="G423" s="38"/>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" spans="1:7" hidden="1">
       <c r="A424" s="38" t="s">
         <v>58</v>
       </c>
@@ -16144,7 +16147,7 @@
       </c>
       <c r="G424" s="38"/>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" spans="1:7" hidden="1">
       <c r="A425" s="38" t="s">
         <v>58</v>
       </c>
@@ -16159,7 +16162,7 @@
       <c r="F425" s="41"/>
       <c r="G425" s="41"/>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" spans="1:7" hidden="1">
       <c r="A426" s="38" t="s">
         <v>58</v>
       </c>
@@ -16180,7 +16183,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" spans="1:7" hidden="1">
       <c r="A427" s="38" t="s">
         <v>58</v>
       </c>
@@ -16199,7 +16202,7 @@
       </c>
       <c r="G427" s="44"/>
     </row>
-    <row r="428" spans="1:7">
+    <row r="428" spans="1:7" hidden="1">
       <c r="A428" s="38" t="s">
         <v>58</v>
       </c>
@@ -16218,7 +16221,7 @@
       </c>
       <c r="G428" s="44"/>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" hidden="1">
       <c r="A429" s="38" t="s">
         <v>58</v>
       </c>
@@ -16237,7 +16240,7 @@
       </c>
       <c r="G429" s="38"/>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" spans="1:7" hidden="1">
       <c r="A430" s="38" t="s">
         <v>58</v>
       </c>
@@ -16256,7 +16259,7 @@
       </c>
       <c r="G430" s="44"/>
     </row>
-    <row r="431" spans="1:7" ht="30">
+    <row r="431" spans="1:7" ht="30" hidden="1">
       <c r="A431" s="38" t="s">
         <v>58</v>
       </c>
@@ -16275,7 +16278,7 @@
       </c>
       <c r="G431" s="44"/>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" spans="1:7" hidden="1">
       <c r="A432" s="38" t="s">
         <v>58</v>
       </c>
@@ -16292,7 +16295,7 @@
       </c>
       <c r="G432" s="41"/>
     </row>
-    <row r="433" spans="1:7" ht="45">
+    <row r="433" spans="1:7" ht="45" hidden="1">
       <c r="A433" s="38" t="s">
         <v>58</v>
       </c>
@@ -16313,7 +16316,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="434" spans="1:7" ht="30">
+    <row r="434" spans="1:7" ht="30" hidden="1">
       <c r="A434" s="38" t="s">
         <v>58</v>
       </c>
@@ -16332,7 +16335,7 @@
       </c>
       <c r="G434" s="44"/>
     </row>
-    <row r="435" spans="1:7">
+    <row r="435" spans="1:7" hidden="1">
       <c r="A435" s="38" t="s">
         <v>58</v>
       </c>
@@ -16353,7 +16356,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="436" spans="1:7">
+    <row r="436" spans="1:7" hidden="1">
       <c r="A436" s="38" t="s">
         <v>58</v>
       </c>
@@ -16372,7 +16375,7 @@
       </c>
       <c r="G436" s="44"/>
     </row>
-    <row r="437" spans="1:7">
+    <row r="437" spans="1:7" hidden="1">
       <c r="A437" s="38" t="s">
         <v>58</v>
       </c>
@@ -16389,7 +16392,7 @@
       </c>
       <c r="G437" s="41"/>
     </row>
-    <row r="438" spans="1:7">
+    <row r="438" spans="1:7" hidden="1">
       <c r="A438" s="38" t="s">
         <v>58</v>
       </c>
@@ -16410,7 +16413,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="439" spans="1:7">
+    <row r="439" spans="1:7" hidden="1">
       <c r="A439" s="38" t="s">
         <v>58</v>
       </c>
@@ -16431,7 +16434,7 @@
       </c>
       <c r="G439" s="38"/>
     </row>
-    <row r="440" spans="1:7">
+    <row r="440" spans="1:7" hidden="1">
       <c r="A440" s="38" t="s">
         <v>58</v>
       </c>
@@ -16448,7 +16451,7 @@
       </c>
       <c r="G440" s="41"/>
     </row>
-    <row r="441" spans="1:7">
+    <row r="441" spans="1:7" hidden="1">
       <c r="A441" s="38" t="s">
         <v>58</v>
       </c>
@@ -16469,7 +16472,7 @@
       </c>
       <c r="G441" s="38"/>
     </row>
-    <row r="442" spans="1:7">
+    <row r="442" spans="1:7" hidden="1">
       <c r="A442" s="38" t="s">
         <v>58</v>
       </c>
@@ -16486,7 +16489,7 @@
       </c>
       <c r="G442" s="37"/>
     </row>
-    <row r="443" spans="1:7">
+    <row r="443" spans="1:7" hidden="1">
       <c r="A443" s="38" t="s">
         <v>58</v>
       </c>
@@ -16505,7 +16508,7 @@
       </c>
       <c r="G443" s="44"/>
     </row>
-    <row r="444" spans="1:7">
+    <row r="444" spans="1:7" hidden="1">
       <c r="A444" s="38" t="s">
         <v>58</v>
       </c>
@@ -16524,7 +16527,7 @@
       </c>
       <c r="G444" s="44"/>
     </row>
-    <row r="445" spans="1:7">
+    <row r="445" spans="1:7" hidden="1">
       <c r="A445" s="38" t="s">
         <v>58</v>
       </c>
@@ -16543,7 +16546,7 @@
       </c>
       <c r="G445" s="44"/>
     </row>
-    <row r="446" spans="1:7">
+    <row r="446" spans="1:7" hidden="1">
       <c r="A446" s="38" t="s">
         <v>58</v>
       </c>
@@ -16560,7 +16563,7 @@
       </c>
       <c r="G446" s="37"/>
     </row>
-    <row r="447" spans="1:7">
+    <row r="447" spans="1:7" hidden="1">
       <c r="A447" s="38" t="s">
         <v>58</v>
       </c>
@@ -16579,7 +16582,7 @@
       </c>
       <c r="G447" s="44"/>
     </row>
-    <row r="448" spans="1:7">
+    <row r="448" spans="1:7" hidden="1">
       <c r="A448" s="38" t="s">
         <v>58</v>
       </c>
@@ -16598,7 +16601,7 @@
       </c>
       <c r="G448" s="44"/>
     </row>
-    <row r="449" spans="1:7">
+    <row r="449" spans="1:7" hidden="1">
       <c r="A449" s="38" t="s">
         <v>58</v>
       </c>
@@ -16615,7 +16618,7 @@
       </c>
       <c r="G449" s="37"/>
     </row>
-    <row r="450" spans="1:7">
+    <row r="450" spans="1:7" hidden="1">
       <c r="A450" s="38" t="s">
         <v>58</v>
       </c>
@@ -16632,7 +16635,7 @@
       </c>
       <c r="G450" s="41"/>
     </row>
-    <row r="451" spans="1:7" ht="45">
+    <row r="451" spans="1:7" ht="45" hidden="1">
       <c r="A451" s="38" t="s">
         <v>58</v>
       </c>
@@ -16653,7 +16656,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="452" spans="1:7">
+    <row r="452" spans="1:7" hidden="1">
       <c r="A452" s="38" t="s">
         <v>58</v>
       </c>
@@ -16672,7 +16675,7 @@
       </c>
       <c r="G452" s="44"/>
     </row>
-    <row r="453" spans="1:7">
+    <row r="453" spans="1:7" hidden="1">
       <c r="A453" s="38" t="s">
         <v>58</v>
       </c>
@@ -16691,7 +16694,7 @@
       </c>
       <c r="G453" s="44"/>
     </row>
-    <row r="454" spans="1:7">
+    <row r="454" spans="1:7" hidden="1">
       <c r="A454" s="38" t="s">
         <v>58</v>
       </c>
@@ -16708,7 +16711,7 @@
       </c>
       <c r="G454" s="41"/>
     </row>
-    <row r="455" spans="1:7">
+    <row r="455" spans="1:7" hidden="1">
       <c r="A455" s="38" t="s">
         <v>58</v>
       </c>
@@ -16725,7 +16728,7 @@
       </c>
       <c r="G455" s="41"/>
     </row>
-    <row r="456" spans="1:7">
+    <row r="456" spans="1:7" hidden="1">
       <c r="A456" s="38" t="s">
         <v>58</v>
       </c>
@@ -16746,7 +16749,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="457" spans="1:7">
+    <row r="457" spans="1:7" hidden="1">
       <c r="A457" s="38" t="s">
         <v>58</v>
       </c>
@@ -16765,7 +16768,7 @@
       </c>
       <c r="G457" s="44"/>
     </row>
-    <row r="458" spans="1:7">
+    <row r="458" spans="1:7" hidden="1">
       <c r="A458" s="38" t="s">
         <v>58</v>
       </c>
@@ -16784,7 +16787,7 @@
       </c>
       <c r="G458" s="38"/>
     </row>
-    <row r="459" spans="1:7" ht="30">
+    <row r="459" spans="1:7" ht="30" hidden="1">
       <c r="A459" s="38" t="s">
         <v>58</v>
       </c>
@@ -16803,7 +16806,7 @@
       </c>
       <c r="G459" s="38"/>
     </row>
-    <row r="460" spans="1:7">
+    <row r="460" spans="1:7" hidden="1">
       <c r="A460" s="38" t="s">
         <v>58</v>
       </c>
@@ -16820,7 +16823,7 @@
       </c>
       <c r="G460" s="38"/>
     </row>
-    <row r="461" spans="1:7" ht="30">
+    <row r="461" spans="1:7" ht="30" hidden="1">
       <c r="A461" s="38" t="s">
         <v>58</v>
       </c>
@@ -16839,7 +16842,7 @@
       </c>
       <c r="G461" s="38"/>
     </row>
-    <row r="462" spans="1:7">
+    <row r="462" spans="1:7" hidden="1">
       <c r="A462" s="38" t="s">
         <v>58</v>
       </c>
@@ -16858,7 +16861,7 @@
       </c>
       <c r="G462" s="38"/>
     </row>
-    <row r="463" spans="1:7">
+    <row r="463" spans="1:7" hidden="1">
       <c r="A463" s="38" t="s">
         <v>58</v>
       </c>
@@ -16875,7 +16878,7 @@
       </c>
       <c r="G463" s="41"/>
     </row>
-    <row r="464" spans="1:7">
+    <row r="464" spans="1:7" hidden="1">
       <c r="A464" s="38" t="s">
         <v>58</v>
       </c>
@@ -16896,7 +16899,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="465" spans="1:7">
+    <row r="465" spans="1:7" hidden="1">
       <c r="A465" s="38" t="s">
         <v>58</v>
       </c>
@@ -16915,7 +16918,7 @@
       </c>
       <c r="G465" s="38"/>
     </row>
-    <row r="466" spans="1:7">
+    <row r="466" spans="1:7" hidden="1">
       <c r="A466" s="38" t="s">
         <v>58</v>
       </c>
@@ -16932,7 +16935,7 @@
       </c>
       <c r="G466" s="41"/>
     </row>
-    <row r="467" spans="1:7">
+    <row r="467" spans="1:7" hidden="1">
       <c r="A467" s="38" t="s">
         <v>58</v>
       </c>
@@ -16953,7 +16956,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="468" spans="1:7">
+    <row r="468" spans="1:7" hidden="1">
       <c r="A468" s="38" t="s">
         <v>58</v>
       </c>
@@ -16972,7 +16975,7 @@
       </c>
       <c r="G468" s="44"/>
     </row>
-    <row r="469" spans="1:7">
+    <row r="469" spans="1:7" hidden="1">
       <c r="A469" s="38" t="s">
         <v>58</v>
       </c>
@@ -16991,7 +16994,7 @@
       </c>
       <c r="G469" s="44"/>
     </row>
-    <row r="470" spans="1:7">
+    <row r="470" spans="1:7" hidden="1">
       <c r="A470" s="38" t="s">
         <v>58</v>
       </c>
@@ -17010,7 +17013,7 @@
       </c>
       <c r="G470" s="38"/>
     </row>
-    <row r="471" spans="1:7">
+    <row r="471" spans="1:7" hidden="1">
       <c r="A471" s="38" t="s">
         <v>58</v>
       </c>
@@ -17030,6 +17033,13 @@
       <c r="G471" s="38"/>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B471" xr:uid="{F5B8AE39-BAB2-4849-9040-0FCE2842B6A7}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="10.2.1.14"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -21960,8 +21970,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>

--- a/conformancelib/testdata/85b_test_definitions_PIV_Production_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV_Production_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geoff\gsa-devel\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526D610D-9CFA-4DD6-A44E-607F889F32F1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956F52CF-E587-48DD-B5E8-23411AE90DE3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -3956,10 +3956,10 @@
     <t>X509_CERTIFICATE_FOR_PIV_AUTHENTICATION_OID:2.16.840.1.101.3.2.1.48.11,X509_CERTIFICATE_FOR_DIGITAL_SIGNATURE_OID:2.16.840.1.101.3.2.1.48.9|2.16.840.1.101.3.2.1.48.12,X509_CERTIFICATE_FOR_KEY_MANAGEMENT_OID:2.16.840.1.101.3.2.1.48.9|2.16.840.1.101.3.2.1.48.12,X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID:2.16.840.1.101.3.2.1.48.13,CARD_HOLDER_UNIQUE_IDENTIFIER_OID:2.16.840.1.101.3.6.7</t>
   </si>
   <si>
-    <t>X509_CERTIFICATE_FOR_PIV_AUTHENTICATION_OID;2.16.840.1.101.3.2.1.3.13,X509_CERTIFICATE_FOR_DIGITAL_SIGNATURE_OID;2.16.840.1.101.3.2.1.3.7:2.16.840.1.101.3.2.1.3.16,X509_CERTIFICATE_FOR_KEY_MANAGEMENT_OID;2.16.840.1.101.3.2.1.3.7:2.16.840.1.101.3.2.1.3.16,X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID;2.16.840.1.101.3.2.1.3.17,CARD_HOLDER_UNIQUE_IDENTIFIER_OID;2.16.840.1.101.3.2.1.48.86</t>
-  </si>
-  <si>
     <t>eliminate cms.17 atom as it does not apply</t>
+  </si>
+  <si>
+    <t>X509_CERTIFICATE_FOR_PIV_AUTHENTICATION_OID;2.16.840.1.101.3.2.1.3.13,X509_CERTIFICATE_FOR_DIGITAL_SIGNATURE_OID;2.16.840.1.101.3.2.1.3.7:2.16.840.1.101.3.2.1.3.16:2.16.840.1.101.3.2.1.3.6,X509_CERTIFICATE_FOR_KEY_MANAGEMENT_OID;2.16.840.1.101.3.2.1.3.7:2.16.840.1.101.3.2.1.3.16:2.16.840.1.101.3.2.1.3.6,X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID;2.16.840.1.101.3.2.1.3.17,CARD_HOLDER_UNIQUE_IDENTIFIER_OID;2.16.840.1.101.3.2.1.48.86</t>
   </si>
 </sst>
 </file>
@@ -8527,8 +8527,8 @@
   <sheetPr codeName="Sheet2" filterMode="1"/>
   <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G286" sqref="G286"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F307" sqref="F307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -13644,7 +13644,7 @@
       <c r="F285" s="38"/>
       <c r="G285" s="44"/>
     </row>
-    <row r="286" spans="1:7" ht="30">
+    <row r="286" spans="1:7" ht="30" hidden="1">
       <c r="A286" s="38" t="s">
         <v>58</v>
       </c>
@@ -13658,7 +13658,7 @@
       <c r="E286" s="38"/>
       <c r="F286" s="38"/>
       <c r="G286" s="44" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="287" spans="1:7" hidden="1">
@@ -13995,7 +13995,7 @@
       <c r="F306" s="41"/>
       <c r="G306" s="41"/>
     </row>
-    <row r="307" spans="1:7" ht="30" hidden="1">
+    <row r="307" spans="1:7" ht="30">
       <c r="A307" s="38" t="s">
         <v>58</v>
       </c>
@@ -16787,7 +16787,7 @@
       </c>
       <c r="G458" s="38"/>
     </row>
-    <row r="459" spans="1:7" ht="30" hidden="1">
+    <row r="459" spans="1:7" hidden="1">
       <c r="A459" s="38" t="s">
         <v>58</v>
       </c>
@@ -17036,7 +17036,7 @@
   <autoFilter ref="B1:B471" xr:uid="{F5B8AE39-BAB2-4849-9040-0FCE2842B6A7}">
     <filterColumn colId="0">
       <filters>
-        <filter val="10.2.1.14"/>
+        <filter val="10.4.1.1"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -21970,8 +21970,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -22371,7 +22371,7 @@
         <v>1050</v>
       </c>
       <c r="E7" s="69" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="F7" s="30" t="s">
         <v>790</v>

--- a/conformancelib/testdata/85b_test_definitions_PIV_Production_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV_Production_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geoff\gsa-devel\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956F52CF-E587-48DD-B5E8-23411AE90DE3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957A6972-9486-43E5-8289-F2278C03D7BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3771" uniqueCount="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3773" uniqueCount="1310">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -3960,6 +3960,9 @@
   </si>
   <si>
     <t>X509_CERTIFICATE_FOR_PIV_AUTHENTICATION_OID;2.16.840.1.101.3.2.1.3.13,X509_CERTIFICATE_FOR_DIGITAL_SIGNATURE_OID;2.16.840.1.101.3.2.1.3.7:2.16.840.1.101.3.2.1.3.16:2.16.840.1.101.3.2.1.3.6,X509_CERTIFICATE_FOR_KEY_MANAGEMENT_OID;2.16.840.1.101.3.2.1.3.7:2.16.840.1.101.3.2.1.3.16:2.16.840.1.101.3.2.1.3.6,X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID;2.16.840.1.101.3.2.1.3.17,CARD_HOLDER_UNIQUE_IDENTIFIER_OID;2.16.840.1.101.3.2.1.48.86</t>
+  </si>
+  <si>
+    <t>CARDHOLDER_IRIS_IMAGES_OID</t>
   </si>
 </sst>
 </file>
@@ -8527,8 +8530,8 @@
   <sheetPr codeName="Sheet2" filterMode="1"/>
   <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F307" sqref="F307"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F333" sqref="F333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -13962,7 +13965,9 @@
         <v>505</v>
       </c>
       <c r="E304" s="38"/>
-      <c r="F304" s="38"/>
+      <c r="F304" s="65" t="s">
+        <v>1144</v>
+      </c>
       <c r="G304" s="44"/>
     </row>
     <row r="305" spans="1:7" hidden="1">
@@ -13995,7 +14000,7 @@
       <c r="F306" s="41"/>
       <c r="G306" s="41"/>
     </row>
-    <row r="307" spans="1:7" ht="30">
+    <row r="307" spans="1:7" ht="30" hidden="1">
       <c r="A307" s="38" t="s">
         <v>58</v>
       </c>
@@ -14435,7 +14440,7 @@
       <c r="F332" s="38"/>
       <c r="G332" s="38"/>
     </row>
-    <row r="333" spans="1:7" ht="30" hidden="1">
+    <row r="333" spans="1:7" ht="30">
       <c r="A333" s="38" t="s">
         <v>58</v>
       </c>
@@ -14449,7 +14454,9 @@
         <v>505</v>
       </c>
       <c r="E333" s="38"/>
-      <c r="F333" s="38"/>
+      <c r="F333" s="65" t="s">
+        <v>1309</v>
+      </c>
       <c r="G333" s="38"/>
     </row>
     <row r="334" spans="1:7" ht="15.6" hidden="1">
@@ -17036,7 +17043,7 @@
   <autoFilter ref="B1:B471" xr:uid="{F5B8AE39-BAB2-4849-9040-0FCE2842B6A7}">
     <filterColumn colId="0">
       <filters>
-        <filter val="10.4.1.1"/>
+        <filter val="10.5.1.16"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -21970,7 +21977,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>

--- a/conformancelib/testdata/85b_test_definitions_PIV_Production_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV_Production_Cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geoff\gsa-devel\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957A6972-9486-43E5-8289-F2278C03D7BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DC3A2D-EDD0-401E-98D2-E301C8506691}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3773" uniqueCount="1310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3773" uniqueCount="1311">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -3963,6 +3963,9 @@
   </si>
   <si>
     <t>CARDHOLDER_IRIS_IMAGES_OID</t>
+  </si>
+  <si>
+    <t>9.3.2.5</t>
   </si>
 </sst>
 </file>
@@ -8527,11 +8530,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet2" filterMode="1"/>
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F333" sqref="F333"/>
+    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B208" sqref="B208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -8572,7 +8575,7 @@
       </c>
       <c r="H1" s="53"/>
     </row>
-    <row r="2" spans="1:8" ht="15.6" hidden="1">
+    <row r="2" spans="1:8" ht="15.6">
       <c r="A2" s="35" t="s">
         <v>58</v>
       </c>
@@ -8587,7 +8590,7 @@
       <c r="F2" s="37"/>
       <c r="G2" s="36"/>
     </row>
-    <row r="3" spans="1:8" hidden="1">
+    <row r="3" spans="1:8">
       <c r="A3" s="38" t="s">
         <v>58</v>
       </c>
@@ -8602,7 +8605,7 @@
       <c r="F3" s="37"/>
       <c r="G3" s="37"/>
     </row>
-    <row r="4" spans="1:8" hidden="1">
+    <row r="4" spans="1:8">
       <c r="A4" s="38" t="s">
         <v>58</v>
       </c>
@@ -8617,7 +8620,7 @@
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
     </row>
-    <row r="5" spans="1:8" ht="30" hidden="1">
+    <row r="5" spans="1:8" ht="30">
       <c r="A5" s="38" t="s">
         <v>58</v>
       </c>
@@ -8638,7 +8641,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1">
+    <row r="6" spans="1:8">
       <c r="A6" s="38" t="s">
         <v>58</v>
       </c>
@@ -8657,7 +8660,7 @@
       </c>
       <c r="G6" s="38"/>
     </row>
-    <row r="7" spans="1:8" hidden="1">
+    <row r="7" spans="1:8">
       <c r="A7" s="38" t="s">
         <v>58</v>
       </c>
@@ -8676,7 +8679,7 @@
       </c>
       <c r="G7" s="38"/>
     </row>
-    <row r="8" spans="1:8" hidden="1">
+    <row r="8" spans="1:8">
       <c r="A8" s="38" t="s">
         <v>58</v>
       </c>
@@ -8695,7 +8698,7 @@
       </c>
       <c r="G8" s="38"/>
     </row>
-    <row r="9" spans="1:8" hidden="1">
+    <row r="9" spans="1:8">
       <c r="A9" s="38" t="s">
         <v>58</v>
       </c>
@@ -8714,7 +8717,7 @@
       </c>
       <c r="G9" s="38"/>
     </row>
-    <row r="10" spans="1:8" hidden="1">
+    <row r="10" spans="1:8">
       <c r="A10" s="38" t="s">
         <v>58</v>
       </c>
@@ -8733,7 +8736,7 @@
       </c>
       <c r="G10" s="38"/>
     </row>
-    <row r="11" spans="1:8" ht="30" hidden="1">
+    <row r="11" spans="1:8" ht="30">
       <c r="A11" s="38" t="s">
         <v>58</v>
       </c>
@@ -8752,7 +8755,7 @@
       </c>
       <c r="G11" s="38"/>
     </row>
-    <row r="12" spans="1:8" ht="30" hidden="1">
+    <row r="12" spans="1:8" ht="30">
       <c r="A12" s="38" t="s">
         <v>58</v>
       </c>
@@ -8771,7 +8774,7 @@
       </c>
       <c r="G12" s="38"/>
     </row>
-    <row r="13" spans="1:8" hidden="1">
+    <row r="13" spans="1:8">
       <c r="A13" s="38" t="s">
         <v>58</v>
       </c>
@@ -8790,7 +8793,7 @@
       </c>
       <c r="G13" s="38"/>
     </row>
-    <row r="14" spans="1:8" hidden="1">
+    <row r="14" spans="1:8">
       <c r="A14" s="38" t="s">
         <v>58</v>
       </c>
@@ -8809,7 +8812,7 @@
       </c>
       <c r="G14" s="38"/>
     </row>
-    <row r="15" spans="1:8" hidden="1">
+    <row r="15" spans="1:8">
       <c r="A15" s="38" t="s">
         <v>58</v>
       </c>
@@ -8828,7 +8831,7 @@
       </c>
       <c r="G15" s="38"/>
     </row>
-    <row r="16" spans="1:8" hidden="1">
+    <row r="16" spans="1:8">
       <c r="A16" s="38" t="s">
         <v>58</v>
       </c>
@@ -8843,7 +8846,7 @@
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
     </row>
-    <row r="17" spans="1:7" hidden="1">
+    <row r="17" spans="1:7">
       <c r="A17" s="38" t="s">
         <v>58</v>
       </c>
@@ -8858,7 +8861,7 @@
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
     </row>
-    <row r="18" spans="1:7" ht="30" hidden="1">
+    <row r="18" spans="1:7" ht="30">
       <c r="A18" s="38" t="s">
         <v>58</v>
       </c>
@@ -8879,7 +8882,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1">
+    <row r="19" spans="1:7">
       <c r="A19" s="38" t="s">
         <v>58</v>
       </c>
@@ -8898,7 +8901,7 @@
       </c>
       <c r="G19" s="38"/>
     </row>
-    <row r="20" spans="1:7" hidden="1">
+    <row r="20" spans="1:7">
       <c r="A20" s="38" t="s">
         <v>58</v>
       </c>
@@ -8917,7 +8920,7 @@
       </c>
       <c r="G20" s="38"/>
     </row>
-    <row r="21" spans="1:7" hidden="1">
+    <row r="21" spans="1:7">
       <c r="A21" s="38" t="s">
         <v>58</v>
       </c>
@@ -8936,7 +8939,7 @@
       </c>
       <c r="G21" s="38"/>
     </row>
-    <row r="22" spans="1:7" hidden="1">
+    <row r="22" spans="1:7">
       <c r="A22" s="38" t="s">
         <v>58</v>
       </c>
@@ -8955,7 +8958,7 @@
       </c>
       <c r="G22" s="38"/>
     </row>
-    <row r="23" spans="1:7" hidden="1">
+    <row r="23" spans="1:7">
       <c r="A23" s="38" t="s">
         <v>58</v>
       </c>
@@ -8974,7 +8977,7 @@
       </c>
       <c r="G23" s="38"/>
     </row>
-    <row r="24" spans="1:7" hidden="1">
+    <row r="24" spans="1:7">
       <c r="A24" s="39" t="s">
         <v>58</v>
       </c>
@@ -8993,7 +8996,7 @@
       </c>
       <c r="G24" s="39"/>
     </row>
-    <row r="25" spans="1:7" hidden="1">
+    <row r="25" spans="1:7">
       <c r="A25" s="38" t="s">
         <v>58</v>
       </c>
@@ -9012,7 +9015,7 @@
       </c>
       <c r="G25" s="38"/>
     </row>
-    <row r="26" spans="1:7" hidden="1">
+    <row r="26" spans="1:7">
       <c r="A26" s="38" t="s">
         <v>58</v>
       </c>
@@ -9031,7 +9034,7 @@
       </c>
       <c r="G26" s="38"/>
     </row>
-    <row r="27" spans="1:7" hidden="1">
+    <row r="27" spans="1:7">
       <c r="A27" s="39" t="s">
         <v>58</v>
       </c>
@@ -9050,7 +9053,7 @@
       </c>
       <c r="G27" s="39"/>
     </row>
-    <row r="28" spans="1:7" hidden="1">
+    <row r="28" spans="1:7">
       <c r="A28" s="39" t="s">
         <v>58</v>
       </c>
@@ -9069,7 +9072,7 @@
       </c>
       <c r="G28" s="39"/>
     </row>
-    <row r="29" spans="1:7" hidden="1">
+    <row r="29" spans="1:7">
       <c r="A29" s="39" t="s">
         <v>58</v>
       </c>
@@ -9088,7 +9091,7 @@
       </c>
       <c r="G29" s="39"/>
     </row>
-    <row r="30" spans="1:7" hidden="1">
+    <row r="30" spans="1:7">
       <c r="A30" s="39"/>
       <c r="B30" s="39" t="s">
         <v>1214</v>
@@ -9105,7 +9108,7 @@
       </c>
       <c r="G30" s="39"/>
     </row>
-    <row r="31" spans="1:7" hidden="1">
+    <row r="31" spans="1:7">
       <c r="A31" s="38" t="s">
         <v>58</v>
       </c>
@@ -9124,7 +9127,7 @@
       </c>
       <c r="G31" s="38"/>
     </row>
-    <row r="32" spans="1:7" ht="30" hidden="1">
+    <row r="32" spans="1:7" ht="30">
       <c r="A32" s="38" t="s">
         <v>58</v>
       </c>
@@ -9143,7 +9146,7 @@
       </c>
       <c r="G32" s="38"/>
     </row>
-    <row r="33" spans="1:7" hidden="1">
+    <row r="33" spans="1:7">
       <c r="A33" s="39" t="s">
         <v>58</v>
       </c>
@@ -9162,7 +9165,7 @@
       </c>
       <c r="G33" s="39"/>
     </row>
-    <row r="34" spans="1:7" hidden="1">
+    <row r="34" spans="1:7">
       <c r="A34" s="39" t="s">
         <v>58</v>
       </c>
@@ -9181,7 +9184,7 @@
       </c>
       <c r="G34" s="39"/>
     </row>
-    <row r="35" spans="1:7" hidden="1">
+    <row r="35" spans="1:7">
       <c r="A35" s="39" t="s">
         <v>58</v>
       </c>
@@ -9200,7 +9203,7 @@
       </c>
       <c r="G35" s="39"/>
     </row>
-    <row r="36" spans="1:7" hidden="1">
+    <row r="36" spans="1:7">
       <c r="A36" s="39" t="s">
         <v>58</v>
       </c>
@@ -9219,7 +9222,7 @@
       </c>
       <c r="G36" s="39"/>
     </row>
-    <row r="37" spans="1:7" hidden="1">
+    <row r="37" spans="1:7">
       <c r="A37" s="38" t="s">
         <v>58</v>
       </c>
@@ -9238,7 +9241,7 @@
       </c>
       <c r="G37" s="38"/>
     </row>
-    <row r="38" spans="1:7" hidden="1">
+    <row r="38" spans="1:7">
       <c r="A38" s="38" t="s">
         <v>58</v>
       </c>
@@ -9257,7 +9260,7 @@
       </c>
       <c r="G38" s="38"/>
     </row>
-    <row r="39" spans="1:7" hidden="1">
+    <row r="39" spans="1:7">
       <c r="A39" s="38" t="s">
         <v>58</v>
       </c>
@@ -9276,7 +9279,7 @@
       </c>
       <c r="G39" s="38"/>
     </row>
-    <row r="40" spans="1:7" ht="30" hidden="1">
+    <row r="40" spans="1:7" ht="30">
       <c r="A40" s="38" t="s">
         <v>58</v>
       </c>
@@ -9295,7 +9298,7 @@
       </c>
       <c r="G40" s="38"/>
     </row>
-    <row r="41" spans="1:7" hidden="1">
+    <row r="41" spans="1:7">
       <c r="A41" s="38" t="s">
         <v>58</v>
       </c>
@@ -9314,7 +9317,7 @@
       </c>
       <c r="G41" s="38"/>
     </row>
-    <row r="42" spans="1:7" hidden="1">
+    <row r="42" spans="1:7">
       <c r="A42" s="38" t="s">
         <v>131</v>
       </c>
@@ -9333,7 +9336,7 @@
       </c>
       <c r="G42" s="38"/>
     </row>
-    <row r="43" spans="1:7" hidden="1">
+    <row r="43" spans="1:7">
       <c r="A43" s="38" t="s">
         <v>58</v>
       </c>
@@ -9348,7 +9351,7 @@
       <c r="F43" s="37"/>
       <c r="G43" s="37"/>
     </row>
-    <row r="44" spans="1:7" hidden="1">
+    <row r="44" spans="1:7">
       <c r="A44" s="38" t="s">
         <v>58</v>
       </c>
@@ -9363,7 +9366,7 @@
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
     </row>
-    <row r="45" spans="1:7" ht="30" hidden="1">
+    <row r="45" spans="1:7" ht="30">
       <c r="A45" s="38" t="s">
         <v>58</v>
       </c>
@@ -9384,7 +9387,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1">
+    <row r="46" spans="1:7">
       <c r="A46" s="38" t="s">
         <v>58</v>
       </c>
@@ -9403,7 +9406,7 @@
       </c>
       <c r="G46" s="38"/>
     </row>
-    <row r="47" spans="1:7" hidden="1">
+    <row r="47" spans="1:7">
       <c r="A47" s="38" t="s">
         <v>58</v>
       </c>
@@ -9422,7 +9425,7 @@
       </c>
       <c r="G47" s="38"/>
     </row>
-    <row r="48" spans="1:7" hidden="1">
+    <row r="48" spans="1:7">
       <c r="A48" s="38" t="s">
         <v>58</v>
       </c>
@@ -9441,7 +9444,7 @@
       </c>
       <c r="G48" s="38"/>
     </row>
-    <row r="49" spans="1:7" hidden="1">
+    <row r="49" spans="1:7">
       <c r="A49" s="38" t="s">
         <v>58</v>
       </c>
@@ -9460,7 +9463,7 @@
       </c>
       <c r="G49" s="38"/>
     </row>
-    <row r="50" spans="1:7" hidden="1">
+    <row r="50" spans="1:7">
       <c r="A50" s="38" t="s">
         <v>58</v>
       </c>
@@ -9479,7 +9482,7 @@
       </c>
       <c r="G50" s="38"/>
     </row>
-    <row r="51" spans="1:7" hidden="1">
+    <row r="51" spans="1:7">
       <c r="A51" s="38" t="s">
         <v>58</v>
       </c>
@@ -9498,7 +9501,7 @@
       </c>
       <c r="G51" s="38"/>
     </row>
-    <row r="52" spans="1:7" hidden="1">
+    <row r="52" spans="1:7">
       <c r="A52" s="38" t="s">
         <v>58</v>
       </c>
@@ -9517,7 +9520,7 @@
       </c>
       <c r="G52" s="38"/>
     </row>
-    <row r="53" spans="1:7" hidden="1">
+    <row r="53" spans="1:7">
       <c r="A53" s="38" t="s">
         <v>58</v>
       </c>
@@ -9536,7 +9539,7 @@
       </c>
       <c r="G53" s="38"/>
     </row>
-    <row r="54" spans="1:7" hidden="1">
+    <row r="54" spans="1:7">
       <c r="A54" s="38" t="s">
         <v>131</v>
       </c>
@@ -9555,7 +9558,7 @@
       </c>
       <c r="G54" s="38"/>
     </row>
-    <row r="55" spans="1:7" hidden="1">
+    <row r="55" spans="1:7">
       <c r="A55" s="38" t="s">
         <v>58</v>
       </c>
@@ -9570,7 +9573,7 @@
       <c r="F55" s="37"/>
       <c r="G55" s="37"/>
     </row>
-    <row r="56" spans="1:7" hidden="1">
+    <row r="56" spans="1:7">
       <c r="A56" s="38" t="s">
         <v>58</v>
       </c>
@@ -9585,7 +9588,7 @@
       <c r="F56" s="37"/>
       <c r="G56" s="37"/>
     </row>
-    <row r="57" spans="1:7" hidden="1">
+    <row r="57" spans="1:7">
       <c r="A57" s="38" t="s">
         <v>58</v>
       </c>
@@ -9606,7 +9609,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1">
+    <row r="58" spans="1:7">
       <c r="A58" s="38" t="s">
         <v>58</v>
       </c>
@@ -9625,7 +9628,7 @@
       </c>
       <c r="G58" s="38"/>
     </row>
-    <row r="59" spans="1:7" hidden="1">
+    <row r="59" spans="1:7">
       <c r="A59" s="38" t="s">
         <v>58</v>
       </c>
@@ -9644,7 +9647,7 @@
       </c>
       <c r="G59" s="38"/>
     </row>
-    <row r="60" spans="1:7" hidden="1">
+    <row r="60" spans="1:7">
       <c r="A60" s="38" t="s">
         <v>58</v>
       </c>
@@ -9663,7 +9666,7 @@
       </c>
       <c r="G60" s="38"/>
     </row>
-    <row r="61" spans="1:7" hidden="1">
+    <row r="61" spans="1:7">
       <c r="A61" s="38" t="s">
         <v>58</v>
       </c>
@@ -9682,7 +9685,7 @@
       </c>
       <c r="G61" s="38"/>
     </row>
-    <row r="62" spans="1:7" hidden="1">
+    <row r="62" spans="1:7">
       <c r="A62" s="38" t="s">
         <v>58</v>
       </c>
@@ -9701,7 +9704,7 @@
       </c>
       <c r="G62" s="38"/>
     </row>
-    <row r="63" spans="1:7" hidden="1">
+    <row r="63" spans="1:7">
       <c r="A63" s="38" t="s">
         <v>58</v>
       </c>
@@ -9720,7 +9723,7 @@
       </c>
       <c r="G63" s="38"/>
     </row>
-    <row r="64" spans="1:7" hidden="1">
+    <row r="64" spans="1:7">
       <c r="A64" s="38" t="s">
         <v>58</v>
       </c>
@@ -9739,7 +9742,7 @@
       </c>
       <c r="G64" s="38"/>
     </row>
-    <row r="65" spans="1:7" hidden="1">
+    <row r="65" spans="1:7">
       <c r="A65" s="38" t="s">
         <v>58</v>
       </c>
@@ -9758,7 +9761,7 @@
       </c>
       <c r="G65" s="38"/>
     </row>
-    <row r="66" spans="1:7" hidden="1">
+    <row r="66" spans="1:7">
       <c r="A66" s="38" t="s">
         <v>58</v>
       </c>
@@ -9773,7 +9776,7 @@
       <c r="F66" s="37"/>
       <c r="G66" s="37"/>
     </row>
-    <row r="67" spans="1:7" hidden="1">
+    <row r="67" spans="1:7">
       <c r="A67" s="38" t="s">
         <v>58</v>
       </c>
@@ -9788,7 +9791,7 @@
       <c r="F67" s="37"/>
       <c r="G67" s="37"/>
     </row>
-    <row r="68" spans="1:7" ht="30" hidden="1">
+    <row r="68" spans="1:7" ht="30">
       <c r="A68" s="38" t="s">
         <v>58</v>
       </c>
@@ -9809,7 +9812,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1">
+    <row r="69" spans="1:7">
       <c r="A69" s="38" t="s">
         <v>58</v>
       </c>
@@ -9828,7 +9831,7 @@
       </c>
       <c r="G69" s="38"/>
     </row>
-    <row r="70" spans="1:7" hidden="1">
+    <row r="70" spans="1:7">
       <c r="A70" s="38" t="s">
         <v>58</v>
       </c>
@@ -9847,7 +9850,7 @@
       </c>
       <c r="G70" s="38"/>
     </row>
-    <row r="71" spans="1:7" hidden="1">
+    <row r="71" spans="1:7">
       <c r="A71" s="38" t="s">
         <v>58</v>
       </c>
@@ -9866,7 +9869,7 @@
       </c>
       <c r="G71" s="38"/>
     </row>
-    <row r="72" spans="1:7" hidden="1">
+    <row r="72" spans="1:7">
       <c r="A72" s="38" t="s">
         <v>58</v>
       </c>
@@ -9885,7 +9888,7 @@
       </c>
       <c r="G72" s="38"/>
     </row>
-    <row r="73" spans="1:7" hidden="1">
+    <row r="73" spans="1:7">
       <c r="A73" s="38" t="s">
         <v>58</v>
       </c>
@@ -9904,7 +9907,7 @@
       </c>
       <c r="G73" s="38"/>
     </row>
-    <row r="74" spans="1:7" hidden="1">
+    <row r="74" spans="1:7">
       <c r="A74" s="39" t="s">
         <v>58</v>
       </c>
@@ -9923,7 +9926,7 @@
       </c>
       <c r="G74" s="39"/>
     </row>
-    <row r="75" spans="1:7" hidden="1">
+    <row r="75" spans="1:7">
       <c r="A75" s="39" t="s">
         <v>58</v>
       </c>
@@ -9942,7 +9945,7 @@
       </c>
       <c r="G75" s="39"/>
     </row>
-    <row r="76" spans="1:7" hidden="1">
+    <row r="76" spans="1:7">
       <c r="A76" s="38" t="s">
         <v>58</v>
       </c>
@@ -9961,7 +9964,7 @@
       </c>
       <c r="G76" s="38"/>
     </row>
-    <row r="77" spans="1:7" hidden="1">
+    <row r="77" spans="1:7">
       <c r="A77" s="38" t="s">
         <v>58</v>
       </c>
@@ -9980,7 +9983,7 @@
       </c>
       <c r="G77" s="38"/>
     </row>
-    <row r="78" spans="1:7" hidden="1">
+    <row r="78" spans="1:7">
       <c r="A78" s="38" t="s">
         <v>58</v>
       </c>
@@ -9999,7 +10002,7 @@
       </c>
       <c r="G78" s="38"/>
     </row>
-    <row r="79" spans="1:7" hidden="1">
+    <row r="79" spans="1:7">
       <c r="A79" s="38" t="s">
         <v>131</v>
       </c>
@@ -10018,7 +10021,7 @@
       </c>
       <c r="G79" s="38"/>
     </row>
-    <row r="80" spans="1:7" hidden="1">
+    <row r="80" spans="1:7">
       <c r="A80" s="38" t="s">
         <v>58</v>
       </c>
@@ -10033,7 +10036,7 @@
       <c r="F80" s="37"/>
       <c r="G80" s="37"/>
     </row>
-    <row r="81" spans="1:7" hidden="1">
+    <row r="81" spans="1:7">
       <c r="A81" s="38" t="s">
         <v>58</v>
       </c>
@@ -10048,7 +10051,7 @@
       <c r="F81" s="37"/>
       <c r="G81" s="37"/>
     </row>
-    <row r="82" spans="1:7" hidden="1">
+    <row r="82" spans="1:7">
       <c r="A82" s="38" t="s">
         <v>58</v>
       </c>
@@ -10069,7 +10072,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1">
+    <row r="83" spans="1:7">
       <c r="A83" s="38" t="s">
         <v>58</v>
       </c>
@@ -10088,7 +10091,7 @@
       </c>
       <c r="G83" s="38"/>
     </row>
-    <row r="84" spans="1:7" hidden="1">
+    <row r="84" spans="1:7">
       <c r="A84" s="38" t="s">
         <v>58</v>
       </c>
@@ -10107,7 +10110,7 @@
       </c>
       <c r="G84" s="38"/>
     </row>
-    <row r="85" spans="1:7" hidden="1">
+    <row r="85" spans="1:7">
       <c r="A85" s="38" t="s">
         <v>58</v>
       </c>
@@ -10126,7 +10129,7 @@
       </c>
       <c r="G85" s="38"/>
     </row>
-    <row r="86" spans="1:7" hidden="1">
+    <row r="86" spans="1:7">
       <c r="A86" s="38" t="s">
         <v>58</v>
       </c>
@@ -10145,7 +10148,7 @@
       </c>
       <c r="G86" s="38"/>
     </row>
-    <row r="87" spans="1:7" hidden="1">
+    <row r="87" spans="1:7">
       <c r="A87" s="38" t="s">
         <v>58</v>
       </c>
@@ -10164,7 +10167,7 @@
       </c>
       <c r="G87" s="38"/>
     </row>
-    <row r="88" spans="1:7" hidden="1">
+    <row r="88" spans="1:7">
       <c r="A88" s="38" t="s">
         <v>58</v>
       </c>
@@ -10183,7 +10186,7 @@
       </c>
       <c r="G88" s="38"/>
     </row>
-    <row r="89" spans="1:7" hidden="1">
+    <row r="89" spans="1:7">
       <c r="A89" s="38" t="s">
         <v>131</v>
       </c>
@@ -10202,7 +10205,7 @@
       </c>
       <c r="G89" s="38"/>
     </row>
-    <row r="90" spans="1:7" hidden="1">
+    <row r="90" spans="1:7">
       <c r="A90" s="38" t="s">
         <v>58</v>
       </c>
@@ -10217,7 +10220,7 @@
       <c r="F90" s="37"/>
       <c r="G90" s="37"/>
     </row>
-    <row r="91" spans="1:7" hidden="1">
+    <row r="91" spans="1:7">
       <c r="A91" s="38" t="s">
         <v>58</v>
       </c>
@@ -10232,7 +10235,7 @@
       <c r="F91" s="37"/>
       <c r="G91" s="37"/>
     </row>
-    <row r="92" spans="1:7" ht="30" hidden="1">
+    <row r="92" spans="1:7" ht="30">
       <c r="A92" s="38" t="s">
         <v>58</v>
       </c>
@@ -10253,7 +10256,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1">
+    <row r="93" spans="1:7">
       <c r="A93" s="38" t="s">
         <v>58</v>
       </c>
@@ -10272,7 +10275,7 @@
       </c>
       <c r="G93" s="38"/>
     </row>
-    <row r="94" spans="1:7" hidden="1">
+    <row r="94" spans="1:7">
       <c r="A94" s="38" t="s">
         <v>58</v>
       </c>
@@ -10291,7 +10294,7 @@
       </c>
       <c r="G94" s="38"/>
     </row>
-    <row r="95" spans="1:7" hidden="1">
+    <row r="95" spans="1:7">
       <c r="A95" s="38" t="s">
         <v>58</v>
       </c>
@@ -10310,7 +10313,7 @@
       </c>
       <c r="G95" s="38"/>
     </row>
-    <row r="96" spans="1:7" hidden="1">
+    <row r="96" spans="1:7">
       <c r="A96" s="38" t="s">
         <v>58</v>
       </c>
@@ -10329,7 +10332,7 @@
       </c>
       <c r="G96" s="38"/>
     </row>
-    <row r="97" spans="1:7" hidden="1">
+    <row r="97" spans="1:7">
       <c r="A97" s="38" t="s">
         <v>58</v>
       </c>
@@ -10348,7 +10351,7 @@
       </c>
       <c r="G97" s="38"/>
     </row>
-    <row r="98" spans="1:7" hidden="1">
+    <row r="98" spans="1:7">
       <c r="A98" s="38" t="s">
         <v>58</v>
       </c>
@@ -10367,7 +10370,7 @@
       </c>
       <c r="G98" s="38"/>
     </row>
-    <row r="99" spans="1:7" hidden="1">
+    <row r="99" spans="1:7">
       <c r="A99" s="38" t="s">
         <v>58</v>
       </c>
@@ -10386,7 +10389,7 @@
       </c>
       <c r="G99" s="38"/>
     </row>
-    <row r="100" spans="1:7" hidden="1">
+    <row r="100" spans="1:7">
       <c r="A100" s="38" t="s">
         <v>58</v>
       </c>
@@ -10405,7 +10408,7 @@
       </c>
       <c r="G100" s="38"/>
     </row>
-    <row r="101" spans="1:7" hidden="1">
+    <row r="101" spans="1:7">
       <c r="A101" s="38" t="s">
         <v>131</v>
       </c>
@@ -10424,7 +10427,7 @@
       </c>
       <c r="G101" s="38"/>
     </row>
-    <row r="102" spans="1:7" hidden="1">
+    <row r="102" spans="1:7">
       <c r="A102" s="38" t="s">
         <v>58</v>
       </c>
@@ -10439,7 +10442,7 @@
       <c r="F102" s="37"/>
       <c r="G102" s="37"/>
     </row>
-    <row r="103" spans="1:7" hidden="1">
+    <row r="103" spans="1:7">
       <c r="A103" s="38" t="s">
         <v>58</v>
       </c>
@@ -10454,7 +10457,7 @@
       <c r="F103" s="37"/>
       <c r="G103" s="37"/>
     </row>
-    <row r="104" spans="1:7" ht="30" hidden="1">
+    <row r="104" spans="1:7" ht="30">
       <c r="A104" s="38" t="s">
         <v>58</v>
       </c>
@@ -10475,7 +10478,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1">
+    <row r="105" spans="1:7">
       <c r="A105" s="38" t="s">
         <v>58</v>
       </c>
@@ -10494,7 +10497,7 @@
       </c>
       <c r="G105" s="38"/>
     </row>
-    <row r="106" spans="1:7" hidden="1">
+    <row r="106" spans="1:7">
       <c r="A106" s="38" t="s">
         <v>58</v>
       </c>
@@ -10513,7 +10516,7 @@
       </c>
       <c r="G106" s="38"/>
     </row>
-    <row r="107" spans="1:7" hidden="1">
+    <row r="107" spans="1:7">
       <c r="A107" s="38" t="s">
         <v>58</v>
       </c>
@@ -10532,7 +10535,7 @@
       </c>
       <c r="G107" s="38"/>
     </row>
-    <row r="108" spans="1:7" hidden="1">
+    <row r="108" spans="1:7">
       <c r="A108" s="38" t="s">
         <v>58</v>
       </c>
@@ -10551,7 +10554,7 @@
       </c>
       <c r="G108" s="38"/>
     </row>
-    <row r="109" spans="1:7" hidden="1">
+    <row r="109" spans="1:7">
       <c r="A109" s="38" t="s">
         <v>58</v>
       </c>
@@ -10570,7 +10573,7 @@
       </c>
       <c r="G109" s="38"/>
     </row>
-    <row r="110" spans="1:7" hidden="1">
+    <row r="110" spans="1:7">
       <c r="A110" s="38" t="s">
         <v>58</v>
       </c>
@@ -10589,7 +10592,7 @@
       </c>
       <c r="G110" s="38"/>
     </row>
-    <row r="111" spans="1:7" hidden="1">
+    <row r="111" spans="1:7">
       <c r="A111" s="38" t="s">
         <v>58</v>
       </c>
@@ -10608,7 +10611,7 @@
       </c>
       <c r="G111" s="38"/>
     </row>
-    <row r="112" spans="1:7" hidden="1">
+    <row r="112" spans="1:7">
       <c r="A112" s="38" t="s">
         <v>58</v>
       </c>
@@ -10627,7 +10630,7 @@
       </c>
       <c r="G112" s="38"/>
     </row>
-    <row r="113" spans="1:7" hidden="1">
+    <row r="113" spans="1:7">
       <c r="A113" s="38" t="s">
         <v>131</v>
       </c>
@@ -10646,7 +10649,7 @@
       </c>
       <c r="G113" s="38"/>
     </row>
-    <row r="114" spans="1:7" hidden="1">
+    <row r="114" spans="1:7">
       <c r="A114" s="38" t="s">
         <v>58</v>
       </c>
@@ -10661,7 +10664,7 @@
       <c r="F114" s="37"/>
       <c r="G114" s="37"/>
     </row>
-    <row r="115" spans="1:7" hidden="1">
+    <row r="115" spans="1:7">
       <c r="A115" s="38" t="s">
         <v>58</v>
       </c>
@@ -10676,7 +10679,7 @@
       <c r="F115" s="37"/>
       <c r="G115" s="37"/>
     </row>
-    <row r="116" spans="1:7" ht="30" hidden="1">
+    <row r="116" spans="1:7" ht="30">
       <c r="A116" s="38" t="s">
         <v>58</v>
       </c>
@@ -10697,7 +10700,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1">
+    <row r="117" spans="1:7">
       <c r="A117" s="38" t="s">
         <v>58</v>
       </c>
@@ -10716,7 +10719,7 @@
       </c>
       <c r="G117" s="38"/>
     </row>
-    <row r="118" spans="1:7" hidden="1">
+    <row r="118" spans="1:7">
       <c r="A118" s="38" t="s">
         <v>58</v>
       </c>
@@ -10735,7 +10738,7 @@
       </c>
       <c r="G118" s="38"/>
     </row>
-    <row r="119" spans="1:7" hidden="1">
+    <row r="119" spans="1:7">
       <c r="A119" s="38" t="s">
         <v>58</v>
       </c>
@@ -10754,7 +10757,7 @@
       </c>
       <c r="G119" s="38"/>
     </row>
-    <row r="120" spans="1:7" hidden="1">
+    <row r="120" spans="1:7">
       <c r="A120" s="38" t="s">
         <v>58</v>
       </c>
@@ -10773,7 +10776,7 @@
       </c>
       <c r="G120" s="38"/>
     </row>
-    <row r="121" spans="1:7" hidden="1">
+    <row r="121" spans="1:7">
       <c r="A121" s="38" t="s">
         <v>58</v>
       </c>
@@ -10792,7 +10795,7 @@
       </c>
       <c r="G121" s="38"/>
     </row>
-    <row r="122" spans="1:7" hidden="1">
+    <row r="122" spans="1:7">
       <c r="A122" s="38" t="s">
         <v>58</v>
       </c>
@@ -10811,7 +10814,7 @@
       </c>
       <c r="G122" s="38"/>
     </row>
-    <row r="123" spans="1:7" hidden="1">
+    <row r="123" spans="1:7">
       <c r="A123" s="38" t="s">
         <v>58</v>
       </c>
@@ -10830,7 +10833,7 @@
       </c>
       <c r="G123" s="38"/>
     </row>
-    <row r="124" spans="1:7" hidden="1">
+    <row r="124" spans="1:7">
       <c r="A124" s="38" t="s">
         <v>58</v>
       </c>
@@ -10849,7 +10852,7 @@
       </c>
       <c r="G124" s="38"/>
     </row>
-    <row r="125" spans="1:7" hidden="1">
+    <row r="125" spans="1:7">
       <c r="A125" s="38" t="s">
         <v>131</v>
       </c>
@@ -10868,7 +10871,7 @@
       </c>
       <c r="G125" s="38"/>
     </row>
-    <row r="126" spans="1:7" hidden="1">
+    <row r="126" spans="1:7">
       <c r="A126" s="38" t="s">
         <v>58</v>
       </c>
@@ -10883,7 +10886,7 @@
       <c r="F126" s="37"/>
       <c r="G126" s="37"/>
     </row>
-    <row r="127" spans="1:7" hidden="1">
+    <row r="127" spans="1:7">
       <c r="A127" s="38" t="s">
         <v>58</v>
       </c>
@@ -10898,7 +10901,7 @@
       <c r="F127" s="37"/>
       <c r="G127" s="37"/>
     </row>
-    <row r="128" spans="1:7" hidden="1">
+    <row r="128" spans="1:7">
       <c r="A128" s="38" t="s">
         <v>58</v>
       </c>
@@ -10919,7 +10922,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1">
+    <row r="129" spans="1:7">
       <c r="A129" s="38" t="s">
         <v>58</v>
       </c>
@@ -10938,7 +10941,7 @@
       </c>
       <c r="G129" s="38"/>
     </row>
-    <row r="130" spans="1:7" hidden="1">
+    <row r="130" spans="1:7">
       <c r="A130" s="38" t="s">
         <v>58</v>
       </c>
@@ -10957,7 +10960,7 @@
       </c>
       <c r="G130" s="38"/>
     </row>
-    <row r="131" spans="1:7" hidden="1">
+    <row r="131" spans="1:7">
       <c r="A131" s="38" t="s">
         <v>58</v>
       </c>
@@ -10976,7 +10979,7 @@
       </c>
       <c r="G131" s="38"/>
     </row>
-    <row r="132" spans="1:7" hidden="1">
+    <row r="132" spans="1:7">
       <c r="A132" s="38" t="s">
         <v>58</v>
       </c>
@@ -10995,7 +10998,7 @@
       </c>
       <c r="G132" s="38"/>
     </row>
-    <row r="133" spans="1:7" hidden="1">
+    <row r="133" spans="1:7">
       <c r="A133" s="38" t="s">
         <v>58</v>
       </c>
@@ -11014,7 +11017,7 @@
       </c>
       <c r="G133" s="38"/>
     </row>
-    <row r="134" spans="1:7" hidden="1">
+    <row r="134" spans="1:7">
       <c r="A134" s="39" t="s">
         <v>58</v>
       </c>
@@ -11033,7 +11036,7 @@
       </c>
       <c r="G134" s="39"/>
     </row>
-    <row r="135" spans="1:7" hidden="1">
+    <row r="135" spans="1:7">
       <c r="A135" s="38" t="s">
         <v>58</v>
       </c>
@@ -11052,7 +11055,7 @@
       </c>
       <c r="G135" s="38"/>
     </row>
-    <row r="136" spans="1:7" ht="30" hidden="1">
+    <row r="136" spans="1:7" ht="30">
       <c r="A136" s="38" t="s">
         <v>58</v>
       </c>
@@ -11071,7 +11074,7 @@
       </c>
       <c r="G136" s="38"/>
     </row>
-    <row r="137" spans="1:7" hidden="1">
+    <row r="137" spans="1:7">
       <c r="A137" s="38" t="s">
         <v>58</v>
       </c>
@@ -11086,7 +11089,7 @@
       <c r="F137" s="37"/>
       <c r="G137" s="37"/>
     </row>
-    <row r="138" spans="1:7" hidden="1">
+    <row r="138" spans="1:7">
       <c r="A138" s="38" t="s">
         <v>58</v>
       </c>
@@ -11101,7 +11104,7 @@
       <c r="F138" s="37"/>
       <c r="G138" s="37"/>
     </row>
-    <row r="139" spans="1:7" ht="30" hidden="1">
+    <row r="139" spans="1:7" ht="30">
       <c r="A139" s="38" t="s">
         <v>58</v>
       </c>
@@ -11124,7 +11127,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1">
+    <row r="140" spans="1:7">
       <c r="A140" s="38" t="s">
         <v>58</v>
       </c>
@@ -11145,7 +11148,7 @@
       </c>
       <c r="G140" s="38"/>
     </row>
-    <row r="141" spans="1:7" hidden="1">
+    <row r="141" spans="1:7">
       <c r="A141" s="38" t="s">
         <v>58</v>
       </c>
@@ -11166,7 +11169,7 @@
       </c>
       <c r="G141" s="38"/>
     </row>
-    <row r="142" spans="1:7" hidden="1">
+    <row r="142" spans="1:7">
       <c r="A142" s="38" t="s">
         <v>58</v>
       </c>
@@ -11187,7 +11190,7 @@
       </c>
       <c r="G142" s="38"/>
     </row>
-    <row r="143" spans="1:7" hidden="1">
+    <row r="143" spans="1:7">
       <c r="A143" s="38" t="s">
         <v>58</v>
       </c>
@@ -11208,7 +11211,7 @@
       </c>
       <c r="G143" s="38"/>
     </row>
-    <row r="144" spans="1:7" hidden="1">
+    <row r="144" spans="1:7">
       <c r="A144" s="38" t="s">
         <v>58</v>
       </c>
@@ -11229,7 +11232,7 @@
       </c>
       <c r="G144" s="38"/>
     </row>
-    <row r="145" spans="1:8" ht="19.5" hidden="1" customHeight="1">
+    <row r="145" spans="1:8" ht="19.5" customHeight="1">
       <c r="A145" s="39" t="s">
         <v>58</v>
       </c>
@@ -11248,7 +11251,7 @@
       </c>
       <c r="G145" s="39"/>
     </row>
-    <row r="146" spans="1:8" hidden="1">
+    <row r="146" spans="1:8">
       <c r="A146" s="38" t="s">
         <v>58</v>
       </c>
@@ -11269,7 +11272,7 @@
       </c>
       <c r="G146" s="38"/>
     </row>
-    <row r="147" spans="1:8" ht="45" hidden="1">
+    <row r="147" spans="1:8" ht="45">
       <c r="A147" s="38" t="s">
         <v>58</v>
       </c>
@@ -11290,7 +11293,7 @@
       </c>
       <c r="G147" s="38"/>
     </row>
-    <row r="148" spans="1:8" hidden="1">
+    <row r="148" spans="1:8">
       <c r="A148" s="38" t="s">
         <v>131</v>
       </c>
@@ -11311,7 +11314,7 @@
       </c>
       <c r="G148" s="38"/>
     </row>
-    <row r="149" spans="1:8" hidden="1">
+    <row r="149" spans="1:8">
       <c r="A149" s="38" t="s">
         <v>131</v>
       </c>
@@ -11330,7 +11333,7 @@
       </c>
       <c r="G149" s="38"/>
     </row>
-    <row r="150" spans="1:8" hidden="1">
+    <row r="150" spans="1:8">
       <c r="A150" s="38" t="s">
         <v>58</v>
       </c>
@@ -11347,7 +11350,7 @@
       <c r="F150" s="37"/>
       <c r="G150" s="37"/>
     </row>
-    <row r="151" spans="1:8" hidden="1">
+    <row r="151" spans="1:8">
       <c r="A151" s="38" t="s">
         <v>58</v>
       </c>
@@ -11364,7 +11367,7 @@
       <c r="F151" s="37"/>
       <c r="G151" s="37"/>
     </row>
-    <row r="152" spans="1:8" hidden="1">
+    <row r="152" spans="1:8">
       <c r="A152" s="38" t="s">
         <v>58</v>
       </c>
@@ -11385,7 +11388,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="153" spans="1:8" hidden="1">
+    <row r="153" spans="1:8">
       <c r="A153" s="38" t="s">
         <v>58</v>
       </c>
@@ -11406,7 +11409,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="154" spans="1:8" hidden="1">
+    <row r="154" spans="1:8">
       <c r="A154" s="38" t="s">
         <v>58</v>
       </c>
@@ -11427,7 +11430,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="155" spans="1:8" hidden="1">
+    <row r="155" spans="1:8">
       <c r="A155" s="38" t="s">
         <v>58</v>
       </c>
@@ -11444,7 +11447,7 @@
       <c r="F155" s="37"/>
       <c r="G155" s="41"/>
     </row>
-    <row r="156" spans="1:8" hidden="1">
+    <row r="156" spans="1:8">
       <c r="A156" s="38" t="s">
         <v>58</v>
       </c>
@@ -11461,7 +11464,7 @@
       <c r="F156" s="37"/>
       <c r="G156" s="41"/>
     </row>
-    <row r="157" spans="1:8" hidden="1">
+    <row r="157" spans="1:8">
       <c r="A157" s="38" t="s">
         <v>58</v>
       </c>
@@ -11478,7 +11481,7 @@
       <c r="F157" s="37"/>
       <c r="G157" s="41"/>
     </row>
-    <row r="158" spans="1:8" ht="15.6" hidden="1">
+    <row r="158" spans="1:8" ht="15.6">
       <c r="A158" s="65" t="s">
         <v>58</v>
       </c>
@@ -11493,7 +11496,7 @@
       <c r="F158" s="37"/>
       <c r="G158" s="36"/>
     </row>
-    <row r="159" spans="1:8" hidden="1">
+    <row r="159" spans="1:8">
       <c r="A159" s="65" t="s">
         <v>58</v>
       </c>
@@ -11508,7 +11511,7 @@
       <c r="F159" s="37"/>
       <c r="G159" s="37"/>
     </row>
-    <row r="160" spans="1:8" s="76" customFormat="1" hidden="1">
+    <row r="160" spans="1:8" s="76" customFormat="1">
       <c r="A160" s="73" t="s">
         <v>58</v>
       </c>
@@ -11526,7 +11529,7 @@
       <c r="G160" s="40"/>
       <c r="H160" s="75"/>
     </row>
-    <row r="161" spans="1:7" hidden="1">
+    <row r="161" spans="1:7">
       <c r="A161" s="65" t="s">
         <v>58</v>
       </c>
@@ -11545,7 +11548,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1">
+    <row r="162" spans="1:7">
       <c r="A162" s="65" t="s">
         <v>58</v>
       </c>
@@ -11562,7 +11565,7 @@
       <c r="F162" s="38"/>
       <c r="G162" s="38"/>
     </row>
-    <row r="163" spans="1:7" hidden="1">
+    <row r="163" spans="1:7">
       <c r="A163" s="65" t="s">
         <v>58</v>
       </c>
@@ -11579,7 +11582,7 @@
       <c r="F163" s="38"/>
       <c r="G163" s="38"/>
     </row>
-    <row r="164" spans="1:7" hidden="1">
+    <row r="164" spans="1:7">
       <c r="A164" s="38" t="s">
         <v>58</v>
       </c>
@@ -11598,7 +11601,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1">
+    <row r="165" spans="1:7">
       <c r="A165" s="38" t="s">
         <v>58</v>
       </c>
@@ -11613,7 +11616,7 @@
       <c r="F165" s="41"/>
       <c r="G165" s="41"/>
     </row>
-    <row r="166" spans="1:7" s="51" customFormat="1" hidden="1">
+    <row r="166" spans="1:7" s="51" customFormat="1">
       <c r="A166" s="65" t="s">
         <v>58</v>
       </c>
@@ -11630,7 +11633,7 @@
       <c r="F166" s="65"/>
       <c r="G166" s="65"/>
     </row>
-    <row r="167" spans="1:7" hidden="1">
+    <row r="167" spans="1:7">
       <c r="A167" s="38" t="s">
         <v>58</v>
       </c>
@@ -11647,7 +11650,7 @@
       <c r="F167" s="38"/>
       <c r="G167" s="38"/>
     </row>
-    <row r="168" spans="1:7" ht="30" hidden="1">
+    <row r="168" spans="1:7" ht="30">
       <c r="A168" s="38" t="s">
         <v>58</v>
       </c>
@@ -11664,7 +11667,7 @@
       <c r="F168" s="38"/>
       <c r="G168" s="38"/>
     </row>
-    <row r="169" spans="1:7" hidden="1">
+    <row r="169" spans="1:7">
       <c r="A169" s="38" t="s">
         <v>58</v>
       </c>
@@ -11681,7 +11684,7 @@
       <c r="F169" s="40"/>
       <c r="G169" s="38"/>
     </row>
-    <row r="170" spans="1:7" ht="30" hidden="1">
+    <row r="170" spans="1:7" ht="30">
       <c r="A170" s="38" t="s">
         <v>58</v>
       </c>
@@ -11698,7 +11701,7 @@
       <c r="F170" s="40"/>
       <c r="G170" s="38"/>
     </row>
-    <row r="171" spans="1:7" hidden="1">
+    <row r="171" spans="1:7">
       <c r="A171" s="38" t="s">
         <v>58</v>
       </c>
@@ -11715,7 +11718,7 @@
       <c r="F171" s="40"/>
       <c r="G171" s="38"/>
     </row>
-    <row r="172" spans="1:7" hidden="1">
+    <row r="172" spans="1:7">
       <c r="A172" s="38" t="s">
         <v>58</v>
       </c>
@@ -11732,7 +11735,7 @@
       <c r="F172" s="40"/>
       <c r="G172" s="38"/>
     </row>
-    <row r="173" spans="1:7" ht="30" hidden="1">
+    <row r="173" spans="1:7" ht="30">
       <c r="A173" s="38" t="s">
         <v>58</v>
       </c>
@@ -11749,7 +11752,7 @@
       <c r="F173" s="40"/>
       <c r="G173" s="38"/>
     </row>
-    <row r="174" spans="1:7" hidden="1">
+    <row r="174" spans="1:7">
       <c r="A174" s="38" t="s">
         <v>58</v>
       </c>
@@ -11766,7 +11769,7 @@
       <c r="F174" s="40"/>
       <c r="G174" s="38"/>
     </row>
-    <row r="175" spans="1:7" ht="45" hidden="1">
+    <row r="175" spans="1:7" ht="45">
       <c r="A175" s="38" t="s">
         <v>58</v>
       </c>
@@ -11783,7 +11786,7 @@
       <c r="F175" s="38"/>
       <c r="G175" s="38"/>
     </row>
-    <row r="176" spans="1:7" ht="30" hidden="1">
+    <row r="176" spans="1:7" ht="30">
       <c r="A176" s="38" t="s">
         <v>58</v>
       </c>
@@ -11800,7 +11803,7 @@
       <c r="F176" s="38"/>
       <c r="G176" s="38"/>
     </row>
-    <row r="177" spans="1:7" hidden="1">
+    <row r="177" spans="1:7">
       <c r="A177" s="38" t="s">
         <v>58</v>
       </c>
@@ -11817,7 +11820,7 @@
       <c r="F177" s="38"/>
       <c r="G177" s="38"/>
     </row>
-    <row r="178" spans="1:7" hidden="1">
+    <row r="178" spans="1:7">
       <c r="A178" s="38" t="s">
         <v>58</v>
       </c>
@@ -11832,7 +11835,7 @@
       <c r="F178" s="41"/>
       <c r="G178" s="42"/>
     </row>
-    <row r="179" spans="1:7" hidden="1">
+    <row r="179" spans="1:7">
       <c r="A179" s="38" t="s">
         <v>58</v>
       </c>
@@ -11847,7 +11850,7 @@
       <c r="F179" s="41"/>
       <c r="G179" s="41"/>
     </row>
-    <row r="180" spans="1:7" hidden="1">
+    <row r="180" spans="1:7">
       <c r="A180" s="38" t="s">
         <v>58</v>
       </c>
@@ -11866,7 +11869,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="181" spans="1:7" hidden="1">
+    <row r="181" spans="1:7">
       <c r="A181" s="38" t="s">
         <v>58</v>
       </c>
@@ -11883,7 +11886,7 @@
       <c r="F181" s="38"/>
       <c r="G181" s="38"/>
     </row>
-    <row r="182" spans="1:7" hidden="1">
+    <row r="182" spans="1:7">
       <c r="A182" s="38" t="s">
         <v>58</v>
       </c>
@@ -11900,7 +11903,7 @@
       <c r="F182" s="38"/>
       <c r="G182" s="38"/>
     </row>
-    <row r="183" spans="1:7" hidden="1">
+    <row r="183" spans="1:7">
       <c r="A183" s="38" t="s">
         <v>58</v>
       </c>
@@ -11917,7 +11920,7 @@
       <c r="F183" s="38"/>
       <c r="G183" s="38"/>
     </row>
-    <row r="184" spans="1:7" hidden="1">
+    <row r="184" spans="1:7">
       <c r="A184" s="38" t="s">
         <v>58</v>
       </c>
@@ -11932,7 +11935,7 @@
       <c r="F184" s="41"/>
       <c r="G184" s="41"/>
     </row>
-    <row r="185" spans="1:7" hidden="1">
+    <row r="185" spans="1:7">
       <c r="A185" s="38" t="s">
         <v>58</v>
       </c>
@@ -11951,7 +11954,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="186" spans="1:7" hidden="1">
+    <row r="186" spans="1:7">
       <c r="A186" s="38" t="s">
         <v>58</v>
       </c>
@@ -11968,7 +11971,7 @@
       <c r="F186" s="38"/>
       <c r="G186" s="38"/>
     </row>
-    <row r="187" spans="1:7" ht="30" hidden="1">
+    <row r="187" spans="1:7" ht="30">
       <c r="A187" s="38" t="s">
         <v>58</v>
       </c>
@@ -11985,7 +11988,7 @@
       <c r="F187" s="38"/>
       <c r="G187" s="38"/>
     </row>
-    <row r="188" spans="1:7" hidden="1">
+    <row r="188" spans="1:7">
       <c r="A188" s="38" t="s">
         <v>58</v>
       </c>
@@ -12002,7 +12005,7 @@
       <c r="F188" s="40"/>
       <c r="G188" s="38"/>
     </row>
-    <row r="189" spans="1:7" ht="30" hidden="1">
+    <row r="189" spans="1:7" ht="30">
       <c r="A189" s="38" t="s">
         <v>58</v>
       </c>
@@ -12019,7 +12022,7 @@
       <c r="F189" s="40"/>
       <c r="G189" s="38"/>
     </row>
-    <row r="190" spans="1:7" hidden="1">
+    <row r="190" spans="1:7">
       <c r="A190" s="38" t="s">
         <v>58</v>
       </c>
@@ -12036,7 +12039,7 @@
       <c r="F190" s="40"/>
       <c r="G190" s="38"/>
     </row>
-    <row r="191" spans="1:7" hidden="1">
+    <row r="191" spans="1:7">
       <c r="A191" s="38" t="s">
         <v>58</v>
       </c>
@@ -12053,7 +12056,7 @@
       <c r="F191" s="40"/>
       <c r="G191" s="38"/>
     </row>
-    <row r="192" spans="1:7" ht="30" hidden="1">
+    <row r="192" spans="1:7" ht="30">
       <c r="A192" s="38" t="s">
         <v>58</v>
       </c>
@@ -12070,7 +12073,7 @@
       <c r="F192" s="40"/>
       <c r="G192" s="38"/>
     </row>
-    <row r="193" spans="1:7" hidden="1">
+    <row r="193" spans="1:7">
       <c r="A193" s="38" t="s">
         <v>58</v>
       </c>
@@ -12087,7 +12090,7 @@
       <c r="F193" s="40"/>
       <c r="G193" s="38"/>
     </row>
-    <row r="194" spans="1:7" ht="45" hidden="1">
+    <row r="194" spans="1:7" ht="45">
       <c r="A194" s="38" t="s">
         <v>58</v>
       </c>
@@ -12104,7 +12107,7 @@
       <c r="F194" s="38"/>
       <c r="G194" s="38"/>
     </row>
-    <row r="195" spans="1:7" ht="30" hidden="1">
+    <row r="195" spans="1:7" ht="30">
       <c r="A195" s="38" t="s">
         <v>58</v>
       </c>
@@ -12121,7 +12124,7 @@
       <c r="F195" s="38"/>
       <c r="G195" s="38"/>
     </row>
-    <row r="196" spans="1:7" hidden="1">
+    <row r="196" spans="1:7">
       <c r="A196" s="38" t="s">
         <v>58</v>
       </c>
@@ -12138,7 +12141,7 @@
       <c r="F196" s="38"/>
       <c r="G196" s="38"/>
     </row>
-    <row r="197" spans="1:7" hidden="1">
+    <row r="197" spans="1:7">
       <c r="A197" s="38" t="s">
         <v>58</v>
       </c>
@@ -12153,7 +12156,7 @@
       <c r="F197" s="41"/>
       <c r="G197" s="41"/>
     </row>
-    <row r="198" spans="1:7" hidden="1">
+    <row r="198" spans="1:7">
       <c r="A198" s="38" t="s">
         <v>58</v>
       </c>
@@ -12168,7 +12171,7 @@
       <c r="F198" s="41"/>
       <c r="G198" s="41"/>
     </row>
-    <row r="199" spans="1:7" hidden="1">
+    <row r="199" spans="1:7">
       <c r="A199" s="38" t="s">
         <v>58</v>
       </c>
@@ -12187,7 +12190,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="200" spans="1:7" hidden="1">
+    <row r="200" spans="1:7">
       <c r="A200" s="38" t="s">
         <v>58</v>
       </c>
@@ -12204,7 +12207,7 @@
       <c r="F200" s="38"/>
       <c r="G200" s="38"/>
     </row>
-    <row r="201" spans="1:7" hidden="1">
+    <row r="201" spans="1:7">
       <c r="A201" s="38" t="s">
         <v>58</v>
       </c>
@@ -12221,7 +12224,7 @@
       <c r="F201" s="38"/>
       <c r="G201" s="38"/>
     </row>
-    <row r="202" spans="1:7" hidden="1">
+    <row r="202" spans="1:7">
       <c r="A202" s="38" t="s">
         <v>58</v>
       </c>
@@ -12238,7 +12241,7 @@
       <c r="F202" s="38"/>
       <c r="G202" s="38"/>
     </row>
-    <row r="203" spans="1:7" hidden="1">
+    <row r="203" spans="1:7">
       <c r="A203" s="38" t="s">
         <v>58</v>
       </c>
@@ -12253,7 +12256,7 @@
       <c r="F203" s="41"/>
       <c r="G203" s="41"/>
     </row>
-    <row r="204" spans="1:7" ht="42" hidden="1" customHeight="1">
+    <row r="204" spans="1:7" ht="42" customHeight="1">
       <c r="A204" s="38" t="s">
         <v>58</v>
       </c>
@@ -12272,7 +12275,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="205" spans="1:7" hidden="1">
+    <row r="205" spans="1:7">
       <c r="A205" s="38" t="s">
         <v>58</v>
       </c>
@@ -12289,7 +12292,7 @@
       <c r="F205" s="38"/>
       <c r="G205" s="38"/>
     </row>
-    <row r="206" spans="1:7" ht="36.75" hidden="1" customHeight="1">
+    <row r="206" spans="1:7" ht="36.75" customHeight="1">
       <c r="A206" s="38" t="s">
         <v>58</v>
       </c>
@@ -12306,7 +12309,7 @@
       <c r="F206" s="38"/>
       <c r="G206" s="38"/>
     </row>
-    <row r="207" spans="1:7" hidden="1">
+    <row r="207" spans="1:7">
       <c r="A207" s="38" t="s">
         <v>58</v>
       </c>
@@ -12323,12 +12326,12 @@
       <c r="F207" s="40"/>
       <c r="G207" s="38"/>
     </row>
-    <row r="208" spans="1:7" ht="30" hidden="1">
+    <row r="208" spans="1:7" ht="30">
       <c r="A208" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B208" s="38" t="s">
-        <v>332</v>
+        <v>1310</v>
       </c>
       <c r="C208" s="38" t="s">
         <v>306</v>
@@ -12340,7 +12343,7 @@
       <c r="F208" s="40"/>
       <c r="G208" s="38"/>
     </row>
-    <row r="209" spans="1:7" hidden="1">
+    <row r="209" spans="1:7">
       <c r="A209" s="38" t="s">
         <v>58</v>
       </c>
@@ -12357,7 +12360,7 @@
       <c r="F209" s="40"/>
       <c r="G209" s="38"/>
     </row>
-    <row r="210" spans="1:7" hidden="1">
+    <row r="210" spans="1:7">
       <c r="A210" s="38" t="s">
         <v>58</v>
       </c>
@@ -12374,7 +12377,7 @@
       <c r="F210" s="40"/>
       <c r="G210" s="38"/>
     </row>
-    <row r="211" spans="1:7" ht="30" hidden="1">
+    <row r="211" spans="1:7" ht="30">
       <c r="A211" s="38" t="s">
         <v>58</v>
       </c>
@@ -12391,7 +12394,7 @@
       <c r="F211" s="40"/>
       <c r="G211" s="38"/>
     </row>
-    <row r="212" spans="1:7" hidden="1">
+    <row r="212" spans="1:7">
       <c r="A212" s="38" t="s">
         <v>58</v>
       </c>
@@ -12408,7 +12411,7 @@
       <c r="F212" s="40"/>
       <c r="G212" s="38"/>
     </row>
-    <row r="213" spans="1:7" ht="45" hidden="1">
+    <row r="213" spans="1:7" ht="45">
       <c r="A213" s="38" t="s">
         <v>58</v>
       </c>
@@ -12425,7 +12428,7 @@
       <c r="F213" s="38"/>
       <c r="G213" s="38"/>
     </row>
-    <row r="214" spans="1:7" ht="30" hidden="1">
+    <row r="214" spans="1:7" ht="30">
       <c r="A214" s="38" t="s">
         <v>58</v>
       </c>
@@ -12442,7 +12445,7 @@
       <c r="F214" s="38"/>
       <c r="G214" s="38"/>
     </row>
-    <row r="215" spans="1:7" hidden="1">
+    <row r="215" spans="1:7">
       <c r="A215" s="38" t="s">
         <v>58</v>
       </c>
@@ -12459,7 +12462,7 @@
       <c r="F215" s="38"/>
       <c r="G215" s="38"/>
     </row>
-    <row r="216" spans="1:7" hidden="1">
+    <row r="216" spans="1:7">
       <c r="A216" s="38" t="s">
         <v>58</v>
       </c>
@@ -12474,7 +12477,7 @@
       <c r="F216" s="41"/>
       <c r="G216" s="43"/>
     </row>
-    <row r="217" spans="1:7" hidden="1">
+    <row r="217" spans="1:7">
       <c r="A217" s="38" t="s">
         <v>58</v>
       </c>
@@ -12489,7 +12492,7 @@
       <c r="F217" s="41"/>
       <c r="G217" s="41"/>
     </row>
-    <row r="218" spans="1:7" ht="30" hidden="1">
+    <row r="218" spans="1:7" ht="30">
       <c r="A218" s="38" t="s">
         <v>58</v>
       </c>
@@ -12508,7 +12511,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="219" spans="1:7" hidden="1">
+    <row r="219" spans="1:7">
       <c r="A219" s="38" t="s">
         <v>58</v>
       </c>
@@ -12525,7 +12528,7 @@
       <c r="F219" s="38"/>
       <c r="G219" s="38"/>
     </row>
-    <row r="220" spans="1:7" hidden="1">
+    <row r="220" spans="1:7">
       <c r="A220" s="38" t="s">
         <v>58</v>
       </c>
@@ -12542,7 +12545,7 @@
       <c r="F220" s="38"/>
       <c r="G220" s="38"/>
     </row>
-    <row r="221" spans="1:7" ht="30" hidden="1">
+    <row r="221" spans="1:7" ht="30">
       <c r="A221" s="38" t="s">
         <v>58</v>
       </c>
@@ -12559,7 +12562,7 @@
       <c r="F221" s="38"/>
       <c r="G221" s="38"/>
     </row>
-    <row r="222" spans="1:7" ht="30" hidden="1">
+    <row r="222" spans="1:7" ht="30">
       <c r="A222" s="38" t="s">
         <v>58</v>
       </c>
@@ -12576,7 +12579,7 @@
       <c r="F222" s="38"/>
       <c r="G222" s="38"/>
     </row>
-    <row r="223" spans="1:7" hidden="1">
+    <row r="223" spans="1:7">
       <c r="A223" s="38" t="s">
         <v>58</v>
       </c>
@@ -12593,7 +12596,7 @@
       <c r="F223" s="40"/>
       <c r="G223" s="38"/>
     </row>
-    <row r="224" spans="1:7" hidden="1">
+    <row r="224" spans="1:7">
       <c r="A224" s="38" t="s">
         <v>58</v>
       </c>
@@ -12610,7 +12613,7 @@
       <c r="F224" s="38"/>
       <c r="G224" s="38"/>
     </row>
-    <row r="225" spans="1:7" hidden="1">
+    <row r="225" spans="1:7">
       <c r="A225" s="38" t="s">
         <v>58</v>
       </c>
@@ -12629,7 +12632,7 @@
       <c r="F225" s="38"/>
       <c r="G225" s="38"/>
     </row>
-    <row r="226" spans="1:7" ht="30" hidden="1">
+    <row r="226" spans="1:7" ht="30">
       <c r="A226" s="38" t="s">
         <v>58</v>
       </c>
@@ -12648,7 +12651,7 @@
       <c r="F226" s="38"/>
       <c r="G226" s="38"/>
     </row>
-    <row r="227" spans="1:7" hidden="1">
+    <row r="227" spans="1:7">
       <c r="A227" s="38" t="s">
         <v>58</v>
       </c>
@@ -12665,7 +12668,7 @@
       <c r="F227" s="38"/>
       <c r="G227" s="38"/>
     </row>
-    <row r="228" spans="1:7" hidden="1">
+    <row r="228" spans="1:7">
       <c r="A228" s="38" t="s">
         <v>58</v>
       </c>
@@ -12682,7 +12685,7 @@
       <c r="F228" s="38"/>
       <c r="G228" s="38"/>
     </row>
-    <row r="229" spans="1:7" hidden="1">
+    <row r="229" spans="1:7">
       <c r="A229" s="38" t="s">
         <v>58</v>
       </c>
@@ -12699,7 +12702,7 @@
       <c r="F229" s="38"/>
       <c r="G229" s="38"/>
     </row>
-    <row r="230" spans="1:7" hidden="1">
+    <row r="230" spans="1:7">
       <c r="A230" s="38" t="s">
         <v>58</v>
       </c>
@@ -12714,7 +12717,7 @@
       <c r="F230" s="41"/>
       <c r="G230" s="41"/>
     </row>
-    <row r="231" spans="1:7" hidden="1">
+    <row r="231" spans="1:7">
       <c r="A231" s="38" t="s">
         <v>58</v>
       </c>
@@ -12733,7 +12736,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="232" spans="1:7" hidden="1">
+    <row r="232" spans="1:7">
       <c r="A232" s="38" t="s">
         <v>58</v>
       </c>
@@ -12750,7 +12753,7 @@
       <c r="F232" s="38"/>
       <c r="G232" s="38"/>
     </row>
-    <row r="233" spans="1:7" hidden="1">
+    <row r="233" spans="1:7">
       <c r="A233" s="38" t="s">
         <v>58</v>
       </c>
@@ -12767,7 +12770,7 @@
       <c r="F233" s="38"/>
       <c r="G233" s="38"/>
     </row>
-    <row r="234" spans="1:7" hidden="1">
+    <row r="234" spans="1:7">
       <c r="A234" s="38" t="s">
         <v>58</v>
       </c>
@@ -12784,7 +12787,7 @@
       <c r="F234" s="38"/>
       <c r="G234" s="38"/>
     </row>
-    <row r="235" spans="1:7" hidden="1">
+    <row r="235" spans="1:7">
       <c r="A235" s="38" t="s">
         <v>58</v>
       </c>
@@ -12803,7 +12806,7 @@
       <c r="F235" s="40"/>
       <c r="G235" s="38"/>
     </row>
-    <row r="236" spans="1:7" hidden="1">
+    <row r="236" spans="1:7">
       <c r="A236" s="38" t="s">
         <v>58</v>
       </c>
@@ -12820,7 +12823,7 @@
       <c r="F236" s="38"/>
       <c r="G236" s="38"/>
     </row>
-    <row r="237" spans="1:7" hidden="1">
+    <row r="237" spans="1:7">
       <c r="A237" s="38" t="s">
         <v>58</v>
       </c>
@@ -12837,7 +12840,7 @@
       <c r="F237" s="38"/>
       <c r="G237" s="38"/>
     </row>
-    <row r="238" spans="1:7" hidden="1">
+    <row r="238" spans="1:7">
       <c r="A238" s="38" t="s">
         <v>58</v>
       </c>
@@ -12854,7 +12857,7 @@
       <c r="F238" s="38"/>
       <c r="G238" s="38"/>
     </row>
-    <row r="239" spans="1:7" hidden="1">
+    <row r="239" spans="1:7">
       <c r="A239" s="38" t="s">
         <v>58</v>
       </c>
@@ -12871,7 +12874,7 @@
       <c r="F239" s="38"/>
       <c r="G239" s="38"/>
     </row>
-    <row r="240" spans="1:7" hidden="1">
+    <row r="240" spans="1:7">
       <c r="A240" s="38" t="s">
         <v>58</v>
       </c>
@@ -12888,7 +12891,7 @@
       <c r="F240" s="38"/>
       <c r="G240" s="38"/>
     </row>
-    <row r="241" spans="1:7" hidden="1">
+    <row r="241" spans="1:7">
       <c r="A241" s="38" t="s">
         <v>58</v>
       </c>
@@ -12905,7 +12908,7 @@
       <c r="F241" s="38"/>
       <c r="G241" s="38"/>
     </row>
-    <row r="242" spans="1:7" hidden="1">
+    <row r="242" spans="1:7">
       <c r="A242" s="38" t="s">
         <v>58</v>
       </c>
@@ -12920,7 +12923,7 @@
       <c r="F242" s="41"/>
       <c r="G242" s="41"/>
     </row>
-    <row r="243" spans="1:7" hidden="1">
+    <row r="243" spans="1:7">
       <c r="A243" s="38" t="s">
         <v>58</v>
       </c>
@@ -12939,7 +12942,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="244" spans="1:7" hidden="1">
+    <row r="244" spans="1:7">
       <c r="A244" s="38" t="s">
         <v>58</v>
       </c>
@@ -12956,7 +12959,7 @@
       <c r="F244" s="38"/>
       <c r="G244" s="38"/>
     </row>
-    <row r="245" spans="1:7" hidden="1">
+    <row r="245" spans="1:7">
       <c r="A245" s="38" t="s">
         <v>58</v>
       </c>
@@ -12971,7 +12974,7 @@
       <c r="F245" s="41"/>
       <c r="G245" s="41"/>
     </row>
-    <row r="246" spans="1:7" hidden="1">
+    <row r="246" spans="1:7">
       <c r="A246" s="38" t="s">
         <v>58</v>
       </c>
@@ -12988,7 +12991,7 @@
       <c r="F246" s="38"/>
       <c r="G246" s="38"/>
     </row>
-    <row r="247" spans="1:7" hidden="1">
+    <row r="247" spans="1:7">
       <c r="A247" s="38" t="s">
         <v>58</v>
       </c>
@@ -13003,7 +13006,7 @@
       <c r="F247" s="38"/>
       <c r="G247" s="43"/>
     </row>
-    <row r="248" spans="1:7" hidden="1">
+    <row r="248" spans="1:7">
       <c r="A248" s="38" t="s">
         <v>58</v>
       </c>
@@ -13020,7 +13023,7 @@
       <c r="F248" s="38"/>
       <c r="G248" s="38"/>
     </row>
-    <row r="249" spans="1:7" hidden="1">
+    <row r="249" spans="1:7">
       <c r="A249" s="38" t="s">
         <v>58</v>
       </c>
@@ -13037,7 +13040,7 @@
       <c r="F249" s="38"/>
       <c r="G249" s="38"/>
     </row>
-    <row r="250" spans="1:7" hidden="1">
+    <row r="250" spans="1:7">
       <c r="A250" s="38" t="s">
         <v>58</v>
       </c>
@@ -13052,7 +13055,7 @@
       <c r="F250" s="41"/>
       <c r="G250" s="41"/>
     </row>
-    <row r="251" spans="1:7" hidden="1">
+    <row r="251" spans="1:7">
       <c r="A251" s="38" t="s">
         <v>58</v>
       </c>
@@ -13069,7 +13072,7 @@
       <c r="F251" s="38"/>
       <c r="G251" s="38"/>
     </row>
-    <row r="252" spans="1:7" hidden="1">
+    <row r="252" spans="1:7">
       <c r="A252" s="38" t="s">
         <v>58</v>
       </c>
@@ -13086,7 +13089,7 @@
       <c r="F252" s="38"/>
       <c r="G252" s="38"/>
     </row>
-    <row r="253" spans="1:7" ht="15.6" hidden="1">
+    <row r="253" spans="1:7" ht="15.6">
       <c r="A253" s="38" t="s">
         <v>58</v>
       </c>
@@ -13101,7 +13104,7 @@
       <c r="F253" s="41"/>
       <c r="G253" s="45"/>
     </row>
-    <row r="254" spans="1:7" hidden="1">
+    <row r="254" spans="1:7">
       <c r="A254" s="38" t="s">
         <v>58</v>
       </c>
@@ -13116,7 +13119,7 @@
       <c r="F254" s="41"/>
       <c r="G254" s="41"/>
     </row>
-    <row r="255" spans="1:7" hidden="1">
+    <row r="255" spans="1:7">
       <c r="A255" s="38" t="s">
         <v>58</v>
       </c>
@@ -13131,7 +13134,7 @@
       <c r="F255" s="41"/>
       <c r="G255" s="41"/>
     </row>
-    <row r="256" spans="1:7" ht="30" hidden="1">
+    <row r="256" spans="1:7" ht="30">
       <c r="A256" s="38" t="s">
         <v>58</v>
       </c>
@@ -13150,7 +13153,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="257" spans="1:7" hidden="1">
+    <row r="257" spans="1:7">
       <c r="A257" s="38" t="s">
         <v>58</v>
       </c>
@@ -13167,7 +13170,7 @@
       <c r="F257" s="38"/>
       <c r="G257" s="44"/>
     </row>
-    <row r="258" spans="1:7" hidden="1">
+    <row r="258" spans="1:7">
       <c r="A258" s="38" t="s">
         <v>58</v>
       </c>
@@ -13186,7 +13189,7 @@
       <c r="F258" s="38"/>
       <c r="G258" s="44"/>
     </row>
-    <row r="259" spans="1:7" ht="30" hidden="1">
+    <row r="259" spans="1:7" ht="30">
       <c r="A259" s="38" t="s">
         <v>58</v>
       </c>
@@ -13203,7 +13206,7 @@
       <c r="F259" s="38"/>
       <c r="G259" s="44"/>
     </row>
-    <row r="260" spans="1:7" hidden="1">
+    <row r="260" spans="1:7">
       <c r="A260" s="38" t="s">
         <v>58</v>
       </c>
@@ -13220,7 +13223,7 @@
       <c r="F260" s="38"/>
       <c r="G260" s="44"/>
     </row>
-    <row r="261" spans="1:7" hidden="1">
+    <row r="261" spans="1:7">
       <c r="A261" s="38" t="s">
         <v>58</v>
       </c>
@@ -13237,7 +13240,7 @@
       <c r="F261" s="38"/>
       <c r="G261" s="44"/>
     </row>
-    <row r="262" spans="1:7" ht="30" hidden="1">
+    <row r="262" spans="1:7" ht="30">
       <c r="A262" s="38" t="s">
         <v>58</v>
       </c>
@@ -13254,7 +13257,7 @@
       <c r="F262" s="38"/>
       <c r="G262" s="44"/>
     </row>
-    <row r="263" spans="1:7" hidden="1">
+    <row r="263" spans="1:7">
       <c r="A263" s="38" t="s">
         <v>58</v>
       </c>
@@ -13273,7 +13276,7 @@
       <c r="F263" s="38"/>
       <c r="G263" s="44"/>
     </row>
-    <row r="264" spans="1:7" ht="30" hidden="1">
+    <row r="264" spans="1:7" ht="30">
       <c r="A264" s="38" t="s">
         <v>58</v>
       </c>
@@ -13290,7 +13293,7 @@
       <c r="F264" s="38"/>
       <c r="G264" s="44"/>
     </row>
-    <row r="265" spans="1:7" ht="45" hidden="1">
+    <row r="265" spans="1:7" ht="45">
       <c r="A265" s="38" t="s">
         <v>58</v>
       </c>
@@ -13307,7 +13310,7 @@
       <c r="F265" s="38"/>
       <c r="G265" s="44"/>
     </row>
-    <row r="266" spans="1:7" ht="30" hidden="1">
+    <row r="266" spans="1:7" ht="30">
       <c r="A266" s="38" t="s">
         <v>58</v>
       </c>
@@ -13324,7 +13327,7 @@
       <c r="F266" s="38"/>
       <c r="G266" s="44"/>
     </row>
-    <row r="267" spans="1:7" ht="45" hidden="1">
+    <row r="267" spans="1:7" ht="45">
       <c r="A267" s="38" t="s">
         <v>58</v>
       </c>
@@ -13343,7 +13346,7 @@
       <c r="F267" s="38"/>
       <c r="G267" s="44"/>
     </row>
-    <row r="268" spans="1:7" hidden="1">
+    <row r="268" spans="1:7">
       <c r="A268" s="38" t="s">
         <v>58</v>
       </c>
@@ -13360,7 +13363,7 @@
       <c r="F268" s="38"/>
       <c r="G268" s="44"/>
     </row>
-    <row r="269" spans="1:7" hidden="1">
+    <row r="269" spans="1:7">
       <c r="A269" s="38" t="s">
         <v>58</v>
       </c>
@@ -13375,7 +13378,7 @@
       <c r="F269" s="41"/>
       <c r="G269" s="41"/>
     </row>
-    <row r="270" spans="1:7" hidden="1">
+    <row r="270" spans="1:7">
       <c r="A270" s="38" t="s">
         <v>58</v>
       </c>
@@ -13390,7 +13393,7 @@
       <c r="F270" s="41"/>
       <c r="G270" s="41"/>
     </row>
-    <row r="271" spans="1:7" ht="30" hidden="1">
+    <row r="271" spans="1:7" ht="30">
       <c r="A271" s="38" t="s">
         <v>58</v>
       </c>
@@ -13409,7 +13412,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="272" spans="1:7" hidden="1">
+    <row r="272" spans="1:7">
       <c r="A272" s="38" t="s">
         <v>58</v>
       </c>
@@ -13426,7 +13429,7 @@
       <c r="F272" s="38"/>
       <c r="G272" s="44"/>
     </row>
-    <row r="273" spans="1:7" hidden="1">
+    <row r="273" spans="1:7">
       <c r="A273" s="38" t="s">
         <v>58</v>
       </c>
@@ -13443,7 +13446,7 @@
       <c r="F273" s="38"/>
       <c r="G273" s="44"/>
     </row>
-    <row r="274" spans="1:7" ht="30" hidden="1">
+    <row r="274" spans="1:7" ht="30">
       <c r="A274" s="38" t="s">
         <v>58</v>
       </c>
@@ -13460,7 +13463,7 @@
       <c r="F274" s="38"/>
       <c r="G274" s="44"/>
     </row>
-    <row r="275" spans="1:7" hidden="1">
+    <row r="275" spans="1:7">
       <c r="A275" s="38" t="s">
         <v>58</v>
       </c>
@@ -13477,7 +13480,7 @@
       <c r="F275" s="38"/>
       <c r="G275" s="44"/>
     </row>
-    <row r="276" spans="1:7" hidden="1">
+    <row r="276" spans="1:7">
       <c r="A276" s="38" t="s">
         <v>58</v>
       </c>
@@ -13494,7 +13497,7 @@
       <c r="F276" s="38"/>
       <c r="G276" s="44"/>
     </row>
-    <row r="277" spans="1:7" hidden="1">
+    <row r="277" spans="1:7">
       <c r="A277" s="38" t="s">
         <v>58</v>
       </c>
@@ -13511,7 +13514,7 @@
       <c r="F277" s="38"/>
       <c r="G277" s="44"/>
     </row>
-    <row r="278" spans="1:7" ht="30" hidden="1">
+    <row r="278" spans="1:7" ht="30">
       <c r="A278" s="38" t="s">
         <v>58</v>
       </c>
@@ -13528,7 +13531,7 @@
       <c r="F278" s="38"/>
       <c r="G278" s="44"/>
     </row>
-    <row r="279" spans="1:7" hidden="1">
+    <row r="279" spans="1:7">
       <c r="A279" s="38" t="s">
         <v>58</v>
       </c>
@@ -13545,7 +13548,7 @@
       <c r="F279" s="38"/>
       <c r="G279" s="44"/>
     </row>
-    <row r="280" spans="1:7" ht="30" hidden="1">
+    <row r="280" spans="1:7" ht="30">
       <c r="A280" s="38" t="s">
         <v>58</v>
       </c>
@@ -13562,7 +13565,7 @@
       <c r="F280" s="38"/>
       <c r="G280" s="44"/>
     </row>
-    <row r="281" spans="1:7" ht="30" hidden="1">
+    <row r="281" spans="1:7" ht="30">
       <c r="A281" s="38" t="s">
         <v>58</v>
       </c>
@@ -13579,7 +13582,7 @@
       <c r="F281" s="38"/>
       <c r="G281" s="44"/>
     </row>
-    <row r="282" spans="1:7" ht="30" hidden="1">
+    <row r="282" spans="1:7" ht="30">
       <c r="A282" s="38" t="s">
         <v>58</v>
       </c>
@@ -13596,7 +13599,7 @@
       <c r="F282" s="38"/>
       <c r="G282" s="38"/>
     </row>
-    <row r="283" spans="1:7" ht="45" hidden="1">
+    <row r="283" spans="1:7" ht="45">
       <c r="A283" s="38" t="s">
         <v>58</v>
       </c>
@@ -13613,7 +13616,7 @@
       <c r="F283" s="38"/>
       <c r="G283" s="44"/>
     </row>
-    <row r="284" spans="1:7" ht="45" hidden="1">
+    <row r="284" spans="1:7" ht="45">
       <c r="A284" s="38" t="s">
         <v>58</v>
       </c>
@@ -13630,7 +13633,7 @@
       <c r="F284" s="38"/>
       <c r="G284" s="38"/>
     </row>
-    <row r="285" spans="1:7" ht="45" hidden="1">
+    <row r="285" spans="1:7" ht="45">
       <c r="A285" s="38" t="s">
         <v>58</v>
       </c>
@@ -13647,7 +13650,7 @@
       <c r="F285" s="38"/>
       <c r="G285" s="44"/>
     </row>
-    <row r="286" spans="1:7" ht="30" hidden="1">
+    <row r="286" spans="1:7" ht="30">
       <c r="A286" s="38" t="s">
         <v>58</v>
       </c>
@@ -13664,7 +13667,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="287" spans="1:7" hidden="1">
+    <row r="287" spans="1:7">
       <c r="A287" s="38" t="s">
         <v>58</v>
       </c>
@@ -13679,7 +13682,7 @@
       <c r="F287" s="41"/>
       <c r="G287" s="41"/>
     </row>
-    <row r="288" spans="1:7" hidden="1">
+    <row r="288" spans="1:7">
       <c r="A288" s="38" t="s">
         <v>58</v>
       </c>
@@ -13694,7 +13697,7 @@
       <c r="F288" s="41"/>
       <c r="G288" s="41"/>
     </row>
-    <row r="289" spans="1:7" ht="30" hidden="1">
+    <row r="289" spans="1:7" ht="30">
       <c r="A289" s="38" t="s">
         <v>58</v>
       </c>
@@ -13713,7 +13716,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="290" spans="1:7" hidden="1">
+    <row r="290" spans="1:7">
       <c r="A290" s="38" t="s">
         <v>58</v>
       </c>
@@ -13730,7 +13733,7 @@
       <c r="F290" s="38"/>
       <c r="G290" s="44"/>
     </row>
-    <row r="291" spans="1:7" hidden="1">
+    <row r="291" spans="1:7">
       <c r="A291" s="38" t="s">
         <v>58</v>
       </c>
@@ -13747,7 +13750,7 @@
       <c r="F291" s="38"/>
       <c r="G291" s="44"/>
     </row>
-    <row r="292" spans="1:7" ht="30" hidden="1">
+    <row r="292" spans="1:7" ht="30">
       <c r="A292" s="38" t="s">
         <v>58</v>
       </c>
@@ -13764,7 +13767,7 @@
       <c r="F292" s="38"/>
       <c r="G292" s="44"/>
     </row>
-    <row r="293" spans="1:7" hidden="1">
+    <row r="293" spans="1:7">
       <c r="A293" s="38" t="s">
         <v>58</v>
       </c>
@@ -13781,7 +13784,7 @@
       <c r="F293" s="38"/>
       <c r="G293" s="44"/>
     </row>
-    <row r="294" spans="1:7" hidden="1">
+    <row r="294" spans="1:7">
       <c r="A294" s="38" t="s">
         <v>58</v>
       </c>
@@ -13798,7 +13801,7 @@
       <c r="F294" s="38"/>
       <c r="G294" s="44"/>
     </row>
-    <row r="295" spans="1:7" hidden="1">
+    <row r="295" spans="1:7">
       <c r="A295" s="38" t="s">
         <v>58</v>
       </c>
@@ -13815,7 +13818,7 @@
       <c r="F295" s="38"/>
       <c r="G295" s="44"/>
     </row>
-    <row r="296" spans="1:7" ht="30" hidden="1">
+    <row r="296" spans="1:7" ht="30">
       <c r="A296" s="38" t="s">
         <v>58</v>
       </c>
@@ -13832,7 +13835,7 @@
       <c r="F296" s="38"/>
       <c r="G296" s="44"/>
     </row>
-    <row r="297" spans="1:7" hidden="1">
+    <row r="297" spans="1:7">
       <c r="A297" s="38" t="s">
         <v>58</v>
       </c>
@@ -13849,7 +13852,7 @@
       <c r="F297" s="38"/>
       <c r="G297" s="44"/>
     </row>
-    <row r="298" spans="1:7" ht="30" hidden="1">
+    <row r="298" spans="1:7" ht="30">
       <c r="A298" s="38" t="s">
         <v>58</v>
       </c>
@@ -13866,7 +13869,7 @@
       <c r="F298" s="38"/>
       <c r="G298" s="44"/>
     </row>
-    <row r="299" spans="1:7" ht="30" hidden="1">
+    <row r="299" spans="1:7" ht="30">
       <c r="A299" s="38" t="s">
         <v>58</v>
       </c>
@@ -13883,7 +13886,7 @@
       <c r="F299" s="38"/>
       <c r="G299" s="44"/>
     </row>
-    <row r="300" spans="1:7" ht="30" hidden="1">
+    <row r="300" spans="1:7" ht="30">
       <c r="A300" s="38" t="s">
         <v>58</v>
       </c>
@@ -13900,7 +13903,7 @@
       <c r="F300" s="38"/>
       <c r="G300" s="38"/>
     </row>
-    <row r="301" spans="1:7" ht="45" hidden="1">
+    <row r="301" spans="1:7" ht="45">
       <c r="A301" s="38" t="s">
         <v>58</v>
       </c>
@@ -13917,7 +13920,7 @@
       <c r="F301" s="38"/>
       <c r="G301" s="44"/>
     </row>
-    <row r="302" spans="1:7" ht="45" hidden="1">
+    <row r="302" spans="1:7" ht="45">
       <c r="A302" s="38" t="s">
         <v>58</v>
       </c>
@@ -13934,7 +13937,7 @@
       <c r="F302" s="38"/>
       <c r="G302" s="38"/>
     </row>
-    <row r="303" spans="1:7" ht="45" hidden="1">
+    <row r="303" spans="1:7" ht="45">
       <c r="A303" s="38" t="s">
         <v>58</v>
       </c>
@@ -13951,7 +13954,7 @@
       <c r="F303" s="38"/>
       <c r="G303" s="44"/>
     </row>
-    <row r="304" spans="1:7" ht="30" hidden="1">
+    <row r="304" spans="1:7" ht="30">
       <c r="A304" s="38" t="s">
         <v>58</v>
       </c>
@@ -13970,7 +13973,7 @@
       </c>
       <c r="G304" s="44"/>
     </row>
-    <row r="305" spans="1:7" hidden="1">
+    <row r="305" spans="1:7">
       <c r="A305" s="38" t="s">
         <v>58</v>
       </c>
@@ -13985,7 +13988,7 @@
       <c r="F305" s="41"/>
       <c r="G305" s="41"/>
     </row>
-    <row r="306" spans="1:7" hidden="1">
+    <row r="306" spans="1:7">
       <c r="A306" s="38" t="s">
         <v>58</v>
       </c>
@@ -14000,7 +14003,7 @@
       <c r="F306" s="41"/>
       <c r="G306" s="41"/>
     </row>
-    <row r="307" spans="1:7" ht="30" hidden="1">
+    <row r="307" spans="1:7" ht="30">
       <c r="A307" s="38" t="s">
         <v>58</v>
       </c>
@@ -14017,7 +14020,7 @@
       <c r="F307" s="38"/>
       <c r="G307" s="44"/>
     </row>
-    <row r="308" spans="1:7" hidden="1">
+    <row r="308" spans="1:7">
       <c r="A308" s="38" t="s">
         <v>58</v>
       </c>
@@ -14032,7 +14035,7 @@
       <c r="F308" s="41"/>
       <c r="G308" s="41"/>
     </row>
-    <row r="309" spans="1:7" ht="30" hidden="1">
+    <row r="309" spans="1:7" ht="30">
       <c r="A309" s="38" t="s">
         <v>58</v>
       </c>
@@ -14051,7 +14054,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="310" spans="1:7" hidden="1">
+    <row r="310" spans="1:7">
       <c r="A310" s="38" t="s">
         <v>58</v>
       </c>
@@ -14068,7 +14071,7 @@
       <c r="F310" s="38"/>
       <c r="G310" s="44"/>
     </row>
-    <row r="311" spans="1:7" hidden="1">
+    <row r="311" spans="1:7">
       <c r="A311" s="38" t="s">
         <v>58</v>
       </c>
@@ -14085,7 +14088,7 @@
       <c r="F311" s="38"/>
       <c r="G311" s="44"/>
     </row>
-    <row r="312" spans="1:7" ht="30" hidden="1">
+    <row r="312" spans="1:7" ht="30">
       <c r="A312" s="38" t="s">
         <v>58</v>
       </c>
@@ -14102,7 +14105,7 @@
       <c r="F312" s="38"/>
       <c r="G312" s="44"/>
     </row>
-    <row r="313" spans="1:7" hidden="1">
+    <row r="313" spans="1:7">
       <c r="A313" s="38" t="s">
         <v>58</v>
       </c>
@@ -14119,7 +14122,7 @@
       <c r="F313" s="38"/>
       <c r="G313" s="44"/>
     </row>
-    <row r="314" spans="1:7" hidden="1">
+    <row r="314" spans="1:7">
       <c r="A314" s="38" t="s">
         <v>58</v>
       </c>
@@ -14136,7 +14139,7 @@
       <c r="F314" s="38"/>
       <c r="G314" s="44"/>
     </row>
-    <row r="315" spans="1:7" ht="45" hidden="1">
+    <row r="315" spans="1:7" ht="45">
       <c r="A315" s="38" t="s">
         <v>58</v>
       </c>
@@ -14153,7 +14156,7 @@
       <c r="F315" s="38"/>
       <c r="G315" s="44"/>
     </row>
-    <row r="316" spans="1:7" hidden="1">
+    <row r="316" spans="1:7">
       <c r="A316" s="38" t="s">
         <v>58</v>
       </c>
@@ -14168,7 +14171,7 @@
       <c r="F316" s="41"/>
       <c r="G316" s="48"/>
     </row>
-    <row r="317" spans="1:7" hidden="1">
+    <row r="317" spans="1:7">
       <c r="A317" s="38" t="s">
         <v>58</v>
       </c>
@@ -14183,7 +14186,7 @@
       <c r="F317" s="41"/>
       <c r="G317" s="48"/>
     </row>
-    <row r="318" spans="1:7" ht="30" hidden="1">
+    <row r="318" spans="1:7" ht="30">
       <c r="A318" s="38" t="s">
         <v>58</v>
       </c>
@@ -14202,7 +14205,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="319" spans="1:7" hidden="1">
+    <row r="319" spans="1:7">
       <c r="A319" s="38" t="s">
         <v>58</v>
       </c>
@@ -14219,7 +14222,7 @@
       <c r="F319" s="38"/>
       <c r="G319" s="38"/>
     </row>
-    <row r="320" spans="1:7" hidden="1">
+    <row r="320" spans="1:7">
       <c r="A320" s="38" t="s">
         <v>58</v>
       </c>
@@ -14236,7 +14239,7 @@
       <c r="F320" s="38"/>
       <c r="G320" s="38"/>
     </row>
-    <row r="321" spans="1:7" ht="30" hidden="1">
+    <row r="321" spans="1:7" ht="30">
       <c r="A321" s="38" t="s">
         <v>58</v>
       </c>
@@ -14253,7 +14256,7 @@
       <c r="F321" s="38"/>
       <c r="G321" s="38"/>
     </row>
-    <row r="322" spans="1:7" hidden="1">
+    <row r="322" spans="1:7">
       <c r="A322" s="38" t="s">
         <v>58</v>
       </c>
@@ -14270,7 +14273,7 @@
       <c r="F322" s="38"/>
       <c r="G322" s="38"/>
     </row>
-    <row r="323" spans="1:7" hidden="1">
+    <row r="323" spans="1:7">
       <c r="A323" s="38" t="s">
         <v>58</v>
       </c>
@@ -14287,7 +14290,7 @@
       <c r="F323" s="38"/>
       <c r="G323" s="38"/>
     </row>
-    <row r="324" spans="1:7" hidden="1">
+    <row r="324" spans="1:7">
       <c r="A324" s="38" t="s">
         <v>58</v>
       </c>
@@ -14304,7 +14307,7 @@
       <c r="F324" s="38"/>
       <c r="G324" s="38"/>
     </row>
-    <row r="325" spans="1:7" ht="30" hidden="1">
+    <row r="325" spans="1:7" ht="30">
       <c r="A325" s="38" t="s">
         <v>58</v>
       </c>
@@ -14321,7 +14324,7 @@
       <c r="F325" s="38"/>
       <c r="G325" s="38"/>
     </row>
-    <row r="326" spans="1:7" hidden="1">
+    <row r="326" spans="1:7">
       <c r="A326" s="38" t="s">
         <v>58</v>
       </c>
@@ -14338,7 +14341,7 @@
       <c r="F326" s="38"/>
       <c r="G326" s="38"/>
     </row>
-    <row r="327" spans="1:7" ht="30" hidden="1">
+    <row r="327" spans="1:7" ht="30">
       <c r="A327" s="38" t="s">
         <v>58</v>
       </c>
@@ -14355,7 +14358,7 @@
       <c r="F327" s="38"/>
       <c r="G327" s="38"/>
     </row>
-    <row r="328" spans="1:7" ht="30" hidden="1">
+    <row r="328" spans="1:7" ht="30">
       <c r="A328" s="38" t="s">
         <v>58</v>
       </c>
@@ -14372,7 +14375,7 @@
       <c r="F328" s="38"/>
       <c r="G328" s="38"/>
     </row>
-    <row r="329" spans="1:7" ht="30" hidden="1">
+    <row r="329" spans="1:7" ht="30">
       <c r="A329" s="38" t="s">
         <v>58</v>
       </c>
@@ -14389,7 +14392,7 @@
       <c r="F329" s="38"/>
       <c r="G329" s="38"/>
     </row>
-    <row r="330" spans="1:7" ht="45" hidden="1">
+    <row r="330" spans="1:7" ht="45">
       <c r="A330" s="38" t="s">
         <v>58</v>
       </c>
@@ -14406,7 +14409,7 @@
       <c r="F330" s="38"/>
       <c r="G330" s="38"/>
     </row>
-    <row r="331" spans="1:7" ht="45" hidden="1">
+    <row r="331" spans="1:7" ht="45">
       <c r="A331" s="38" t="s">
         <v>58</v>
       </c>
@@ -14423,7 +14426,7 @@
       <c r="F331" s="38"/>
       <c r="G331" s="38"/>
     </row>
-    <row r="332" spans="1:7" ht="45" hidden="1">
+    <row r="332" spans="1:7" ht="45">
       <c r="A332" s="38" t="s">
         <v>58</v>
       </c>
@@ -14459,7 +14462,7 @@
       </c>
       <c r="G333" s="38"/>
     </row>
-    <row r="334" spans="1:7" ht="15.6" hidden="1">
+    <row r="334" spans="1:7" ht="15.6">
       <c r="A334" s="38" t="s">
         <v>58</v>
       </c>
@@ -14474,7 +14477,7 @@
       <c r="F334" s="41"/>
       <c r="G334" s="49"/>
     </row>
-    <row r="335" spans="1:7" hidden="1">
+    <row r="335" spans="1:7">
       <c r="A335" s="38" t="s">
         <v>58</v>
       </c>
@@ -14489,7 +14492,7 @@
       <c r="F335" s="41"/>
       <c r="G335" s="48"/>
     </row>
-    <row r="336" spans="1:7" hidden="1">
+    <row r="336" spans="1:7">
       <c r="A336" s="38" t="s">
         <v>58</v>
       </c>
@@ -14504,7 +14507,7 @@
       <c r="F336" s="41"/>
       <c r="G336" s="48"/>
     </row>
-    <row r="337" spans="1:7" ht="60" hidden="1">
+    <row r="337" spans="1:7" ht="60">
       <c r="A337" s="38" t="s">
         <v>58</v>
       </c>
@@ -14527,7 +14530,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="338" spans="1:7" hidden="1">
+    <row r="338" spans="1:7">
       <c r="A338" s="38" t="s">
         <v>58</v>
       </c>
@@ -14548,7 +14551,7 @@
       </c>
       <c r="G338" s="44"/>
     </row>
-    <row r="339" spans="1:7" hidden="1">
+    <row r="339" spans="1:7">
       <c r="A339" s="38" t="s">
         <v>58</v>
       </c>
@@ -14567,7 +14570,7 @@
       </c>
       <c r="G339" s="44"/>
     </row>
-    <row r="340" spans="1:7" hidden="1">
+    <row r="340" spans="1:7">
       <c r="A340" s="38" t="s">
         <v>58</v>
       </c>
@@ -14582,7 +14585,7 @@
       <c r="F340" s="41"/>
       <c r="G340" s="41"/>
     </row>
-    <row r="341" spans="1:7" hidden="1">
+    <row r="341" spans="1:7">
       <c r="A341" s="38" t="s">
         <v>58</v>
       </c>
@@ -14603,7 +14606,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="342" spans="1:7" hidden="1">
+    <row r="342" spans="1:7">
       <c r="A342" s="38" t="s">
         <v>58</v>
       </c>
@@ -14622,7 +14625,7 @@
       </c>
       <c r="G342" s="44"/>
     </row>
-    <row r="343" spans="1:7" hidden="1">
+    <row r="343" spans="1:7">
       <c r="A343" s="38" t="s">
         <v>58</v>
       </c>
@@ -14641,7 +14644,7 @@
       </c>
       <c r="G343" s="38"/>
     </row>
-    <row r="344" spans="1:7" hidden="1">
+    <row r="344" spans="1:7">
       <c r="A344" s="38" t="s">
         <v>58</v>
       </c>
@@ -14660,7 +14663,7 @@
       </c>
       <c r="G344" s="44"/>
     </row>
-    <row r="345" spans="1:7" hidden="1">
+    <row r="345" spans="1:7">
       <c r="A345" s="38" t="s">
         <v>58</v>
       </c>
@@ -14675,7 +14678,7 @@
       <c r="F345" s="41"/>
       <c r="G345" s="41"/>
     </row>
-    <row r="346" spans="1:7" hidden="1">
+    <row r="346" spans="1:7">
       <c r="A346" s="38" t="s">
         <v>58</v>
       </c>
@@ -14696,7 +14699,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="347" spans="1:7" hidden="1">
+    <row r="347" spans="1:7">
       <c r="A347" s="38" t="s">
         <v>58</v>
       </c>
@@ -14715,7 +14718,7 @@
       </c>
       <c r="G347" s="44"/>
     </row>
-    <row r="348" spans="1:7" hidden="1">
+    <row r="348" spans="1:7">
       <c r="A348" s="38" t="s">
         <v>58</v>
       </c>
@@ -14734,7 +14737,7 @@
       </c>
       <c r="G348" s="44"/>
     </row>
-    <row r="349" spans="1:7" hidden="1">
+    <row r="349" spans="1:7">
       <c r="A349" s="38" t="s">
         <v>58</v>
       </c>
@@ -14753,7 +14756,7 @@
       </c>
       <c r="G349" s="44"/>
     </row>
-    <row r="350" spans="1:7" hidden="1">
+    <row r="350" spans="1:7">
       <c r="A350" s="38" t="s">
         <v>58</v>
       </c>
@@ -14772,7 +14775,7 @@
       </c>
       <c r="G350" s="44"/>
     </row>
-    <row r="351" spans="1:7" hidden="1">
+    <row r="351" spans="1:7">
       <c r="A351" s="38" t="s">
         <v>58</v>
       </c>
@@ -14787,7 +14790,7 @@
       <c r="F351" s="41"/>
       <c r="G351" s="41"/>
     </row>
-    <row r="352" spans="1:7" ht="45" hidden="1">
+    <row r="352" spans="1:7" ht="45">
       <c r="A352" s="38" t="s">
         <v>58</v>
       </c>
@@ -14808,7 +14811,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="353" spans="1:7" ht="30" hidden="1">
+    <row r="353" spans="1:7" ht="30">
       <c r="A353" s="38" t="s">
         <v>58</v>
       </c>
@@ -14827,7 +14830,7 @@
       </c>
       <c r="G353" s="44"/>
     </row>
-    <row r="354" spans="1:7" ht="37.5" hidden="1" customHeight="1">
+    <row r="354" spans="1:7" ht="37.5" customHeight="1">
       <c r="A354" s="38" t="s">
         <v>58</v>
       </c>
@@ -14846,7 +14849,7 @@
       </c>
       <c r="G354" s="38"/>
     </row>
-    <row r="355" spans="1:7" ht="30" hidden="1">
+    <row r="355" spans="1:7" ht="30">
       <c r="A355" s="38" t="s">
         <v>58</v>
       </c>
@@ -14865,7 +14868,7 @@
       </c>
       <c r="G355" s="44"/>
     </row>
-    <row r="356" spans="1:7" hidden="1">
+    <row r="356" spans="1:7">
       <c r="A356" s="38" t="s">
         <v>58</v>
       </c>
@@ -14884,7 +14887,7 @@
       </c>
       <c r="G356" s="44"/>
     </row>
-    <row r="357" spans="1:7" hidden="1">
+    <row r="357" spans="1:7">
       <c r="A357" s="38" t="s">
         <v>58</v>
       </c>
@@ -14899,7 +14902,7 @@
       <c r="F357" s="41"/>
       <c r="G357" s="41"/>
     </row>
-    <row r="358" spans="1:7" hidden="1">
+    <row r="358" spans="1:7">
       <c r="A358" s="38" t="s">
         <v>58</v>
       </c>
@@ -14920,7 +14923,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="359" spans="1:7" hidden="1">
+    <row r="359" spans="1:7">
       <c r="A359" s="38" t="s">
         <v>58</v>
       </c>
@@ -14939,7 +14942,7 @@
       </c>
       <c r="G359" s="38"/>
     </row>
-    <row r="360" spans="1:7" hidden="1">
+    <row r="360" spans="1:7">
       <c r="A360" s="38" t="s">
         <v>58</v>
       </c>
@@ -14954,7 +14957,7 @@
       <c r="F360" s="41"/>
       <c r="G360" s="41"/>
     </row>
-    <row r="361" spans="1:7" hidden="1">
+    <row r="361" spans="1:7">
       <c r="A361" s="38" t="s">
         <v>58</v>
       </c>
@@ -14975,7 +14978,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="362" spans="1:7" hidden="1">
+    <row r="362" spans="1:7">
       <c r="A362" s="38" t="s">
         <v>58</v>
       </c>
@@ -14994,7 +14997,7 @@
       </c>
       <c r="G362" s="44"/>
     </row>
-    <row r="363" spans="1:7" hidden="1">
+    <row r="363" spans="1:7">
       <c r="A363" s="38" t="s">
         <v>58</v>
       </c>
@@ -15013,7 +15016,7 @@
       </c>
       <c r="G363" s="44"/>
     </row>
-    <row r="364" spans="1:7" hidden="1">
+    <row r="364" spans="1:7">
       <c r="A364" s="38" t="s">
         <v>58</v>
       </c>
@@ -15032,7 +15035,7 @@
       </c>
       <c r="G364" s="44"/>
     </row>
-    <row r="365" spans="1:7" hidden="1">
+    <row r="365" spans="1:7">
       <c r="A365" s="38" t="s">
         <v>58</v>
       </c>
@@ -15053,7 +15056,7 @@
       </c>
       <c r="G365" s="38"/>
     </row>
-    <row r="366" spans="1:7" hidden="1">
+    <row r="366" spans="1:7">
       <c r="A366" s="38" t="s">
         <v>58</v>
       </c>
@@ -15068,7 +15071,7 @@
       <c r="F366" s="41"/>
       <c r="G366" s="41"/>
     </row>
-    <row r="367" spans="1:7" hidden="1">
+    <row r="367" spans="1:7">
       <c r="A367" s="38" t="s">
         <v>58</v>
       </c>
@@ -15083,7 +15086,7 @@
       <c r="F367" s="41"/>
       <c r="G367" s="41"/>
     </row>
-    <row r="368" spans="1:7" ht="60" hidden="1">
+    <row r="368" spans="1:7" ht="60">
       <c r="A368" s="38" t="s">
         <v>58</v>
       </c>
@@ -15106,7 +15109,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="369" spans="1:7" ht="30" hidden="1">
+    <row r="369" spans="1:7" ht="30">
       <c r="A369" s="38" t="s">
         <v>58</v>
       </c>
@@ -15127,7 +15130,7 @@
       </c>
       <c r="G369" s="44"/>
     </row>
-    <row r="370" spans="1:7" hidden="1">
+    <row r="370" spans="1:7">
       <c r="A370" s="38" t="s">
         <v>58</v>
       </c>
@@ -15148,7 +15151,7 @@
       </c>
       <c r="G370" s="44"/>
     </row>
-    <row r="371" spans="1:7" hidden="1">
+    <row r="371" spans="1:7">
       <c r="A371" s="38" t="s">
         <v>58</v>
       </c>
@@ -15163,7 +15166,7 @@
       <c r="F371" s="41"/>
       <c r="G371" s="41"/>
     </row>
-    <row r="372" spans="1:7" hidden="1">
+    <row r="372" spans="1:7">
       <c r="A372" s="38" t="s">
         <v>58</v>
       </c>
@@ -15178,7 +15181,7 @@
       <c r="F372" s="41"/>
       <c r="G372" s="41"/>
     </row>
-    <row r="373" spans="1:7" hidden="1">
+    <row r="373" spans="1:7">
       <c r="A373" s="38" t="s">
         <v>58</v>
       </c>
@@ -15199,7 +15202,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="374" spans="1:7" hidden="1">
+    <row r="374" spans="1:7">
       <c r="A374" s="38" t="s">
         <v>58</v>
       </c>
@@ -15218,7 +15221,7 @@
       </c>
       <c r="G374" s="44"/>
     </row>
-    <row r="375" spans="1:7" ht="30" hidden="1">
+    <row r="375" spans="1:7" ht="30">
       <c r="A375" s="38" t="s">
         <v>58</v>
       </c>
@@ -15237,7 +15240,7 @@
       </c>
       <c r="G375" s="44"/>
     </row>
-    <row r="376" spans="1:7" ht="30" hidden="1">
+    <row r="376" spans="1:7" ht="30">
       <c r="A376" s="38" t="s">
         <v>58</v>
       </c>
@@ -15256,7 +15259,7 @@
       </c>
       <c r="G376" s="44"/>
     </row>
-    <row r="377" spans="1:7" hidden="1">
+    <row r="377" spans="1:7">
       <c r="A377" s="38" t="s">
         <v>58</v>
       </c>
@@ -15275,7 +15278,7 @@
       </c>
       <c r="G377" s="44"/>
     </row>
-    <row r="378" spans="1:7" ht="30" hidden="1">
+    <row r="378" spans="1:7" ht="30">
       <c r="A378" s="38" t="s">
         <v>58</v>
       </c>
@@ -15294,7 +15297,7 @@
       </c>
       <c r="G378" s="44"/>
     </row>
-    <row r="379" spans="1:7" hidden="1">
+    <row r="379" spans="1:7">
       <c r="A379" s="38" t="s">
         <v>58</v>
       </c>
@@ -15309,7 +15312,7 @@
       <c r="F379" s="41"/>
       <c r="G379" s="41"/>
     </row>
-    <row r="380" spans="1:7" hidden="1">
+    <row r="380" spans="1:7">
       <c r="A380" s="38" t="s">
         <v>58</v>
       </c>
@@ -15330,7 +15333,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="381" spans="1:7" hidden="1">
+    <row r="381" spans="1:7">
       <c r="A381" s="38" t="s">
         <v>58</v>
       </c>
@@ -15351,7 +15354,7 @@
       </c>
       <c r="G381" s="38"/>
     </row>
-    <row r="382" spans="1:7" hidden="1">
+    <row r="382" spans="1:7">
       <c r="A382" s="38" t="s">
         <v>58</v>
       </c>
@@ -15366,7 +15369,7 @@
       <c r="F382" s="41"/>
       <c r="G382" s="41"/>
     </row>
-    <row r="383" spans="1:7" hidden="1">
+    <row r="383" spans="1:7">
       <c r="A383" s="38" t="s">
         <v>58</v>
       </c>
@@ -15387,7 +15390,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="384" spans="1:7" hidden="1">
+    <row r="384" spans="1:7">
       <c r="A384" s="38" t="s">
         <v>58</v>
       </c>
@@ -15406,7 +15409,7 @@
       </c>
       <c r="G384" s="44"/>
     </row>
-    <row r="385" spans="1:7" hidden="1">
+    <row r="385" spans="1:7">
       <c r="A385" s="38" t="s">
         <v>58</v>
       </c>
@@ -15425,7 +15428,7 @@
       </c>
       <c r="G385" s="44"/>
     </row>
-    <row r="386" spans="1:7" hidden="1">
+    <row r="386" spans="1:7">
       <c r="A386" s="38" t="s">
         <v>58</v>
       </c>
@@ -15444,7 +15447,7 @@
       </c>
       <c r="G386" s="38"/>
     </row>
-    <row r="387" spans="1:7" hidden="1">
+    <row r="387" spans="1:7">
       <c r="A387" s="38" t="s">
         <v>58</v>
       </c>
@@ -15465,7 +15468,7 @@
       </c>
       <c r="G387" s="38"/>
     </row>
-    <row r="388" spans="1:7" hidden="1">
+    <row r="388" spans="1:7">
       <c r="A388" s="38" t="s">
         <v>58</v>
       </c>
@@ -15480,7 +15483,7 @@
       <c r="F388" s="41"/>
       <c r="G388" s="41"/>
     </row>
-    <row r="389" spans="1:7" hidden="1">
+    <row r="389" spans="1:7">
       <c r="A389" s="38" t="s">
         <v>58</v>
       </c>
@@ -15495,7 +15498,7 @@
       <c r="F389" s="41"/>
       <c r="G389" s="41"/>
     </row>
-    <row r="390" spans="1:7" ht="45" hidden="1">
+    <row r="390" spans="1:7" ht="45">
       <c r="A390" s="38" t="s">
         <v>58</v>
       </c>
@@ -15518,7 +15521,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="391" spans="1:7" ht="30" hidden="1">
+    <row r="391" spans="1:7" ht="30">
       <c r="A391" s="38" t="s">
         <v>58</v>
       </c>
@@ -15539,7 +15542,7 @@
       </c>
       <c r="G391" s="38"/>
     </row>
-    <row r="392" spans="1:7" hidden="1">
+    <row r="392" spans="1:7">
       <c r="A392" s="38" t="s">
         <v>58</v>
       </c>
@@ -15560,7 +15563,7 @@
       </c>
       <c r="G392" s="44"/>
     </row>
-    <row r="393" spans="1:7" hidden="1">
+    <row r="393" spans="1:7">
       <c r="A393" s="38" t="s">
         <v>58</v>
       </c>
@@ -15575,7 +15578,7 @@
       <c r="F393" s="41"/>
       <c r="G393" s="41"/>
     </row>
-    <row r="394" spans="1:7" hidden="1">
+    <row r="394" spans="1:7">
       <c r="A394" s="38" t="s">
         <v>58</v>
       </c>
@@ -15590,7 +15593,7 @@
       <c r="F394" s="41"/>
       <c r="G394" s="41"/>
     </row>
-    <row r="395" spans="1:7" hidden="1">
+    <row r="395" spans="1:7">
       <c r="A395" s="38" t="s">
         <v>58</v>
       </c>
@@ -15611,7 +15614,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="396" spans="1:7" hidden="1">
+    <row r="396" spans="1:7">
       <c r="A396" s="38" t="s">
         <v>58</v>
       </c>
@@ -15630,7 +15633,7 @@
       </c>
       <c r="G396" s="44"/>
     </row>
-    <row r="397" spans="1:7" hidden="1">
+    <row r="397" spans="1:7">
       <c r="A397" s="38" t="s">
         <v>58</v>
       </c>
@@ -15649,7 +15652,7 @@
       </c>
       <c r="G397" s="44"/>
     </row>
-    <row r="398" spans="1:7" ht="30" hidden="1">
+    <row r="398" spans="1:7" ht="30">
       <c r="A398" s="38" t="s">
         <v>58</v>
       </c>
@@ -15668,7 +15671,7 @@
       </c>
       <c r="G398" s="44"/>
     </row>
-    <row r="399" spans="1:7" hidden="1">
+    <row r="399" spans="1:7">
       <c r="A399" s="38" t="s">
         <v>58</v>
       </c>
@@ -15687,7 +15690,7 @@
       </c>
       <c r="G399" s="44"/>
     </row>
-    <row r="400" spans="1:7" ht="30" hidden="1">
+    <row r="400" spans="1:7" ht="30">
       <c r="A400" s="38" t="s">
         <v>58</v>
       </c>
@@ -15706,7 +15709,7 @@
       </c>
       <c r="G400" s="44"/>
     </row>
-    <row r="401" spans="1:7" hidden="1">
+    <row r="401" spans="1:7">
       <c r="A401" s="38" t="s">
         <v>58</v>
       </c>
@@ -15721,7 +15724,7 @@
       <c r="F401" s="41"/>
       <c r="G401" s="41"/>
     </row>
-    <row r="402" spans="1:7" hidden="1">
+    <row r="402" spans="1:7">
       <c r="A402" s="38" t="s">
         <v>58</v>
       </c>
@@ -15742,7 +15745,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="403" spans="1:7" hidden="1">
+    <row r="403" spans="1:7">
       <c r="A403" s="38" t="s">
         <v>58</v>
       </c>
@@ -15763,7 +15766,7 @@
       </c>
       <c r="G403" s="38"/>
     </row>
-    <row r="404" spans="1:7" hidden="1">
+    <row r="404" spans="1:7">
       <c r="A404" s="38" t="s">
         <v>58</v>
       </c>
@@ -15778,7 +15781,7 @@
       <c r="F404" s="41"/>
       <c r="G404" s="41"/>
     </row>
-    <row r="405" spans="1:7" hidden="1">
+    <row r="405" spans="1:7">
       <c r="A405" s="38" t="s">
         <v>58</v>
       </c>
@@ -15799,7 +15802,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="406" spans="1:7" hidden="1">
+    <row r="406" spans="1:7">
       <c r="A406" s="38" t="s">
         <v>58</v>
       </c>
@@ -15818,7 +15821,7 @@
       </c>
       <c r="G406" s="44"/>
     </row>
-    <row r="407" spans="1:7" hidden="1">
+    <row r="407" spans="1:7">
       <c r="A407" s="38" t="s">
         <v>58</v>
       </c>
@@ -15837,7 +15840,7 @@
       </c>
       <c r="G407" s="44"/>
     </row>
-    <row r="408" spans="1:7" hidden="1">
+    <row r="408" spans="1:7">
       <c r="A408" s="38" t="s">
         <v>58</v>
       </c>
@@ -15856,7 +15859,7 @@
       </c>
       <c r="G408" s="38"/>
     </row>
-    <row r="409" spans="1:7" hidden="1">
+    <row r="409" spans="1:7">
       <c r="A409" s="38" t="s">
         <v>58</v>
       </c>
@@ -15877,7 +15880,7 @@
       </c>
       <c r="G409" s="38"/>
     </row>
-    <row r="410" spans="1:7" hidden="1">
+    <row r="410" spans="1:7">
       <c r="A410" s="38" t="s">
         <v>58</v>
       </c>
@@ -15892,7 +15895,7 @@
       <c r="F410" s="41"/>
       <c r="G410" s="41"/>
     </row>
-    <row r="411" spans="1:7" hidden="1">
+    <row r="411" spans="1:7">
       <c r="A411" s="38" t="s">
         <v>58</v>
       </c>
@@ -15907,7 +15910,7 @@
       <c r="F411" s="41"/>
       <c r="G411" s="41"/>
     </row>
-    <row r="412" spans="1:7" ht="45" hidden="1">
+    <row r="412" spans="1:7" ht="45">
       <c r="A412" s="38" t="s">
         <v>58</v>
       </c>
@@ -15930,7 +15933,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="413" spans="1:7" hidden="1">
+    <row r="413" spans="1:7">
       <c r="A413" s="38" t="s">
         <v>58</v>
       </c>
@@ -15951,7 +15954,7 @@
       </c>
       <c r="G413" s="44"/>
     </row>
-    <row r="414" spans="1:7" hidden="1">
+    <row r="414" spans="1:7">
       <c r="A414" s="38" t="s">
         <v>58</v>
       </c>
@@ -15972,7 +15975,7 @@
       </c>
       <c r="G414" s="44"/>
     </row>
-    <row r="415" spans="1:7" hidden="1">
+    <row r="415" spans="1:7">
       <c r="A415" s="38" t="s">
         <v>58</v>
       </c>
@@ -15987,7 +15990,7 @@
       <c r="F415" s="41"/>
       <c r="G415" s="41"/>
     </row>
-    <row r="416" spans="1:7" hidden="1">
+    <row r="416" spans="1:7">
       <c r="A416" s="38" t="s">
         <v>58</v>
       </c>
@@ -16002,7 +16005,7 @@
       <c r="F416" s="41"/>
       <c r="G416" s="41"/>
     </row>
-    <row r="417" spans="1:7" hidden="1">
+    <row r="417" spans="1:7">
       <c r="A417" s="38" t="s">
         <v>58</v>
       </c>
@@ -16023,7 +16026,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="418" spans="1:7" hidden="1">
+    <row r="418" spans="1:7">
       <c r="A418" s="38" t="s">
         <v>58</v>
       </c>
@@ -16042,7 +16045,7 @@
       </c>
       <c r="G418" s="44"/>
     </row>
-    <row r="419" spans="1:7" hidden="1">
+    <row r="419" spans="1:7">
       <c r="A419" s="38" t="s">
         <v>58</v>
       </c>
@@ -16061,7 +16064,7 @@
       </c>
       <c r="G419" s="44"/>
     </row>
-    <row r="420" spans="1:7" hidden="1">
+    <row r="420" spans="1:7">
       <c r="A420" s="38" t="s">
         <v>58</v>
       </c>
@@ -16080,7 +16083,7 @@
       </c>
       <c r="G420" s="38"/>
     </row>
-    <row r="421" spans="1:7" hidden="1">
+    <row r="421" spans="1:7">
       <c r="A421" s="38" t="s">
         <v>58</v>
       </c>
@@ -16095,7 +16098,7 @@
       <c r="F421" s="41"/>
       <c r="G421" s="41"/>
     </row>
-    <row r="422" spans="1:7" hidden="1">
+    <row r="422" spans="1:7">
       <c r="A422" s="38" t="s">
         <v>58</v>
       </c>
@@ -16116,7 +16119,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="423" spans="1:7" hidden="1">
+    <row r="423" spans="1:7">
       <c r="A423" s="38" t="s">
         <v>58</v>
       </c>
@@ -16135,7 +16138,7 @@
       </c>
       <c r="G423" s="38"/>
     </row>
-    <row r="424" spans="1:7" hidden="1">
+    <row r="424" spans="1:7">
       <c r="A424" s="38" t="s">
         <v>58</v>
       </c>
@@ -16154,7 +16157,7 @@
       </c>
       <c r="G424" s="38"/>
     </row>
-    <row r="425" spans="1:7" hidden="1">
+    <row r="425" spans="1:7">
       <c r="A425" s="38" t="s">
         <v>58</v>
       </c>
@@ -16169,7 +16172,7 @@
       <c r="F425" s="41"/>
       <c r="G425" s="41"/>
     </row>
-    <row r="426" spans="1:7" hidden="1">
+    <row r="426" spans="1:7">
       <c r="A426" s="38" t="s">
         <v>58</v>
       </c>
@@ -16190,7 +16193,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="427" spans="1:7" hidden="1">
+    <row r="427" spans="1:7">
       <c r="A427" s="38" t="s">
         <v>58</v>
       </c>
@@ -16209,7 +16212,7 @@
       </c>
       <c r="G427" s="44"/>
     </row>
-    <row r="428" spans="1:7" hidden="1">
+    <row r="428" spans="1:7">
       <c r="A428" s="38" t="s">
         <v>58</v>
       </c>
@@ -16228,7 +16231,7 @@
       </c>
       <c r="G428" s="44"/>
     </row>
-    <row r="429" spans="1:7" hidden="1">
+    <row r="429" spans="1:7">
       <c r="A429" s="38" t="s">
         <v>58</v>
       </c>
@@ -16247,7 +16250,7 @@
       </c>
       <c r="G429" s="38"/>
     </row>
-    <row r="430" spans="1:7" hidden="1">
+    <row r="430" spans="1:7">
       <c r="A430" s="38" t="s">
         <v>58</v>
       </c>
@@ -16266,7 +16269,7 @@
       </c>
       <c r="G430" s="44"/>
     </row>
-    <row r="431" spans="1:7" ht="30" hidden="1">
+    <row r="431" spans="1:7" ht="30">
       <c r="A431" s="38" t="s">
         <v>58</v>
       </c>
@@ -16285,7 +16288,7 @@
       </c>
       <c r="G431" s="44"/>
     </row>
-    <row r="432" spans="1:7" hidden="1">
+    <row r="432" spans="1:7">
       <c r="A432" s="38" t="s">
         <v>58</v>
       </c>
@@ -16302,7 +16305,7 @@
       </c>
       <c r="G432" s="41"/>
     </row>
-    <row r="433" spans="1:7" ht="45" hidden="1">
+    <row r="433" spans="1:7" ht="45">
       <c r="A433" s="38" t="s">
         <v>58</v>
       </c>
@@ -16323,7 +16326,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="434" spans="1:7" ht="30" hidden="1">
+    <row r="434" spans="1:7" ht="30">
       <c r="A434" s="38" t="s">
         <v>58</v>
       </c>
@@ -16342,7 +16345,7 @@
       </c>
       <c r="G434" s="44"/>
     </row>
-    <row r="435" spans="1:7" hidden="1">
+    <row r="435" spans="1:7">
       <c r="A435" s="38" t="s">
         <v>58</v>
       </c>
@@ -16363,7 +16366,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="436" spans="1:7" hidden="1">
+    <row r="436" spans="1:7">
       <c r="A436" s="38" t="s">
         <v>58</v>
       </c>
@@ -16382,7 +16385,7 @@
       </c>
       <c r="G436" s="44"/>
     </row>
-    <row r="437" spans="1:7" hidden="1">
+    <row r="437" spans="1:7">
       <c r="A437" s="38" t="s">
         <v>58</v>
       </c>
@@ -16399,7 +16402,7 @@
       </c>
       <c r="G437" s="41"/>
     </row>
-    <row r="438" spans="1:7" hidden="1">
+    <row r="438" spans="1:7">
       <c r="A438" s="38" t="s">
         <v>58</v>
       </c>
@@ -16420,7 +16423,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="439" spans="1:7" hidden="1">
+    <row r="439" spans="1:7">
       <c r="A439" s="38" t="s">
         <v>58</v>
       </c>
@@ -16441,7 +16444,7 @@
       </c>
       <c r="G439" s="38"/>
     </row>
-    <row r="440" spans="1:7" hidden="1">
+    <row r="440" spans="1:7">
       <c r="A440" s="38" t="s">
         <v>58</v>
       </c>
@@ -16458,7 +16461,7 @@
       </c>
       <c r="G440" s="41"/>
     </row>
-    <row r="441" spans="1:7" hidden="1">
+    <row r="441" spans="1:7">
       <c r="A441" s="38" t="s">
         <v>58</v>
       </c>
@@ -16479,7 +16482,7 @@
       </c>
       <c r="G441" s="38"/>
     </row>
-    <row r="442" spans="1:7" hidden="1">
+    <row r="442" spans="1:7">
       <c r="A442" s="38" t="s">
         <v>58</v>
       </c>
@@ -16496,7 +16499,7 @@
       </c>
       <c r="G442" s="37"/>
     </row>
-    <row r="443" spans="1:7" hidden="1">
+    <row r="443" spans="1:7">
       <c r="A443" s="38" t="s">
         <v>58</v>
       </c>
@@ -16515,7 +16518,7 @@
       </c>
       <c r="G443" s="44"/>
     </row>
-    <row r="444" spans="1:7" hidden="1">
+    <row r="444" spans="1:7">
       <c r="A444" s="38" t="s">
         <v>58</v>
       </c>
@@ -16534,7 +16537,7 @@
       </c>
       <c r="G444" s="44"/>
     </row>
-    <row r="445" spans="1:7" hidden="1">
+    <row r="445" spans="1:7">
       <c r="A445" s="38" t="s">
         <v>58</v>
       </c>
@@ -16553,7 +16556,7 @@
       </c>
       <c r="G445" s="44"/>
     </row>
-    <row r="446" spans="1:7" hidden="1">
+    <row r="446" spans="1:7">
       <c r="A446" s="38" t="s">
         <v>58</v>
       </c>
@@ -16570,7 +16573,7 @@
       </c>
       <c r="G446" s="37"/>
     </row>
-    <row r="447" spans="1:7" hidden="1">
+    <row r="447" spans="1:7">
       <c r="A447" s="38" t="s">
         <v>58</v>
       </c>
@@ -16589,7 +16592,7 @@
       </c>
       <c r="G447" s="44"/>
     </row>
-    <row r="448" spans="1:7" hidden="1">
+    <row r="448" spans="1:7">
       <c r="A448" s="38" t="s">
         <v>58</v>
       </c>
@@ -16608,7 +16611,7 @@
       </c>
       <c r="G448" s="44"/>
     </row>
-    <row r="449" spans="1:7" hidden="1">
+    <row r="449" spans="1:7">
       <c r="A449" s="38" t="s">
         <v>58</v>
       </c>
@@ -16625,7 +16628,7 @@
       </c>
       <c r="G449" s="37"/>
     </row>
-    <row r="450" spans="1:7" hidden="1">
+    <row r="450" spans="1:7">
       <c r="A450" s="38" t="s">
         <v>58</v>
       </c>
@@ -16642,7 +16645,7 @@
       </c>
       <c r="G450" s="41"/>
     </row>
-    <row r="451" spans="1:7" ht="45" hidden="1">
+    <row r="451" spans="1:7" ht="45">
       <c r="A451" s="38" t="s">
         <v>58</v>
       </c>
@@ -16663,7 +16666,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="452" spans="1:7" hidden="1">
+    <row r="452" spans="1:7">
       <c r="A452" s="38" t="s">
         <v>58</v>
       </c>
@@ -16682,7 +16685,7 @@
       </c>
       <c r="G452" s="44"/>
     </row>
-    <row r="453" spans="1:7" hidden="1">
+    <row r="453" spans="1:7">
       <c r="A453" s="38" t="s">
         <v>58</v>
       </c>
@@ -16701,7 +16704,7 @@
       </c>
       <c r="G453" s="44"/>
     </row>
-    <row r="454" spans="1:7" hidden="1">
+    <row r="454" spans="1:7">
       <c r="A454" s="38" t="s">
         <v>58</v>
       </c>
@@ -16718,7 +16721,7 @@
       </c>
       <c r="G454" s="41"/>
     </row>
-    <row r="455" spans="1:7" hidden="1">
+    <row r="455" spans="1:7">
       <c r="A455" s="38" t="s">
         <v>58</v>
       </c>
@@ -16735,7 +16738,7 @@
       </c>
       <c r="G455" s="41"/>
     </row>
-    <row r="456" spans="1:7" hidden="1">
+    <row r="456" spans="1:7">
       <c r="A456" s="38" t="s">
         <v>58</v>
       </c>
@@ -16756,7 +16759,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="457" spans="1:7" hidden="1">
+    <row r="457" spans="1:7">
       <c r="A457" s="38" t="s">
         <v>58</v>
       </c>
@@ -16775,7 +16778,7 @@
       </c>
       <c r="G457" s="44"/>
     </row>
-    <row r="458" spans="1:7" hidden="1">
+    <row r="458" spans="1:7">
       <c r="A458" s="38" t="s">
         <v>58</v>
       </c>
@@ -16794,7 +16797,7 @@
       </c>
       <c r="G458" s="38"/>
     </row>
-    <row r="459" spans="1:7" hidden="1">
+    <row r="459" spans="1:7">
       <c r="A459" s="38" t="s">
         <v>58</v>
       </c>
@@ -16813,7 +16816,7 @@
       </c>
       <c r="G459" s="38"/>
     </row>
-    <row r="460" spans="1:7" hidden="1">
+    <row r="460" spans="1:7">
       <c r="A460" s="38" t="s">
         <v>58</v>
       </c>
@@ -16830,7 +16833,7 @@
       </c>
       <c r="G460" s="38"/>
     </row>
-    <row r="461" spans="1:7" ht="30" hidden="1">
+    <row r="461" spans="1:7" ht="30">
       <c r="A461" s="38" t="s">
         <v>58</v>
       </c>
@@ -16849,7 +16852,7 @@
       </c>
       <c r="G461" s="38"/>
     </row>
-    <row r="462" spans="1:7" hidden="1">
+    <row r="462" spans="1:7">
       <c r="A462" s="38" t="s">
         <v>58</v>
       </c>
@@ -16868,7 +16871,7 @@
       </c>
       <c r="G462" s="38"/>
     </row>
-    <row r="463" spans="1:7" hidden="1">
+    <row r="463" spans="1:7">
       <c r="A463" s="38" t="s">
         <v>58</v>
       </c>
@@ -16885,7 +16888,7 @@
       </c>
       <c r="G463" s="41"/>
     </row>
-    <row r="464" spans="1:7" hidden="1">
+    <row r="464" spans="1:7">
       <c r="A464" s="38" t="s">
         <v>58</v>
       </c>
@@ -16906,7 +16909,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="465" spans="1:7" hidden="1">
+    <row r="465" spans="1:7">
       <c r="A465" s="38" t="s">
         <v>58</v>
       </c>
@@ -16925,7 +16928,7 @@
       </c>
       <c r="G465" s="38"/>
     </row>
-    <row r="466" spans="1:7" hidden="1">
+    <row r="466" spans="1:7">
       <c r="A466" s="38" t="s">
         <v>58</v>
       </c>
@@ -16942,7 +16945,7 @@
       </c>
       <c r="G466" s="41"/>
     </row>
-    <row r="467" spans="1:7" hidden="1">
+    <row r="467" spans="1:7">
       <c r="A467" s="38" t="s">
         <v>58</v>
       </c>
@@ -16963,7 +16966,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="468" spans="1:7" hidden="1">
+    <row r="468" spans="1:7">
       <c r="A468" s="38" t="s">
         <v>58</v>
       </c>
@@ -16982,7 +16985,7 @@
       </c>
       <c r="G468" s="44"/>
     </row>
-    <row r="469" spans="1:7" hidden="1">
+    <row r="469" spans="1:7">
       <c r="A469" s="38" t="s">
         <v>58</v>
       </c>
@@ -17001,7 +17004,7 @@
       </c>
       <c r="G469" s="44"/>
     </row>
-    <row r="470" spans="1:7" hidden="1">
+    <row r="470" spans="1:7">
       <c r="A470" s="38" t="s">
         <v>58</v>
       </c>
@@ -17020,7 +17023,7 @@
       </c>
       <c r="G470" s="38"/>
     </row>
-    <row r="471" spans="1:7" hidden="1">
+    <row r="471" spans="1:7">
       <c r="A471" s="38" t="s">
         <v>58</v>
       </c>
@@ -17040,13 +17043,7 @@
       <c r="G471" s="38"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B471" xr:uid="{F5B8AE39-BAB2-4849-9040-0FCE2842B6A7}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="10.5.1.16"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:B471" xr:uid="{F5B8AE39-BAB2-4849-9040-0FCE2842B6A7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/conformancelib/testdata/85b_test_definitions_PIV_Production_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV_Production_Cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geoff\gsa-devel\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DC3A2D-EDD0-401E-98D2-E301C8506691}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E2E77D-DF5B-461F-AE09-261FB5D1F310}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <sheet name="Placeholders" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Steps Overview'!$B$1:$B$471</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Steps Overview'!$D$1:$D$471</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -8530,11 +8530,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet2"/>
+  <sheetPr codeName="Sheet2" filterMode="1"/>
   <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B208" sqref="B208"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F472" sqref="F472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -8575,7 +8575,7 @@
       </c>
       <c r="H1" s="53"/>
     </row>
-    <row r="2" spans="1:8" ht="15.6">
+    <row r="2" spans="1:8" ht="15.6" hidden="1">
       <c r="A2" s="35" t="s">
         <v>58</v>
       </c>
@@ -8590,7 +8590,7 @@
       <c r="F2" s="37"/>
       <c r="G2" s="36"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" hidden="1">
       <c r="A3" s="38" t="s">
         <v>58</v>
       </c>
@@ -8605,7 +8605,7 @@
       <c r="F3" s="37"/>
       <c r="G3" s="37"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" hidden="1">
       <c r="A4" s="38" t="s">
         <v>58</v>
       </c>
@@ -8620,7 +8620,7 @@
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
     </row>
-    <row r="5" spans="1:8" ht="30">
+    <row r="5" spans="1:8" ht="30" hidden="1">
       <c r="A5" s="38" t="s">
         <v>58</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" hidden="1">
       <c r="A6" s="38" t="s">
         <v>58</v>
       </c>
@@ -8660,7 +8660,7 @@
       </c>
       <c r="G6" s="38"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" hidden="1">
       <c r="A7" s="38" t="s">
         <v>58</v>
       </c>
@@ -8679,7 +8679,7 @@
       </c>
       <c r="G7" s="38"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" hidden="1">
       <c r="A8" s="38" t="s">
         <v>58</v>
       </c>
@@ -8698,7 +8698,7 @@
       </c>
       <c r="G8" s="38"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" hidden="1">
       <c r="A9" s="38" t="s">
         <v>58</v>
       </c>
@@ -8717,7 +8717,7 @@
       </c>
       <c r="G9" s="38"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" hidden="1">
       <c r="A10" s="38" t="s">
         <v>58</v>
       </c>
@@ -8736,7 +8736,7 @@
       </c>
       <c r="G10" s="38"/>
     </row>
-    <row r="11" spans="1:8" ht="30">
+    <row r="11" spans="1:8" ht="30" hidden="1">
       <c r="A11" s="38" t="s">
         <v>58</v>
       </c>
@@ -8755,7 +8755,7 @@
       </c>
       <c r="G11" s="38"/>
     </row>
-    <row r="12" spans="1:8" ht="30">
+    <row r="12" spans="1:8" ht="30" hidden="1">
       <c r="A12" s="38" t="s">
         <v>58</v>
       </c>
@@ -8774,7 +8774,7 @@
       </c>
       <c r="G12" s="38"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" hidden="1">
       <c r="A13" s="38" t="s">
         <v>58</v>
       </c>
@@ -8793,7 +8793,7 @@
       </c>
       <c r="G13" s="38"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" hidden="1">
       <c r="A14" s="38" t="s">
         <v>58</v>
       </c>
@@ -8812,7 +8812,7 @@
       </c>
       <c r="G14" s="38"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" hidden="1">
       <c r="A15" s="38" t="s">
         <v>58</v>
       </c>
@@ -8831,7 +8831,7 @@
       </c>
       <c r="G15" s="38"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" hidden="1">
       <c r="A16" s="38" t="s">
         <v>58</v>
       </c>
@@ -8846,7 +8846,7 @@
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" hidden="1">
       <c r="A17" s="38" t="s">
         <v>58</v>
       </c>
@@ -8861,7 +8861,7 @@
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
     </row>
-    <row r="18" spans="1:7" ht="30">
+    <row r="18" spans="1:7" ht="30" hidden="1">
       <c r="A18" s="38" t="s">
         <v>58</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" hidden="1">
       <c r="A19" s="38" t="s">
         <v>58</v>
       </c>
@@ -8901,7 +8901,7 @@
       </c>
       <c r="G19" s="38"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" hidden="1">
       <c r="A20" s="38" t="s">
         <v>58</v>
       </c>
@@ -8920,7 +8920,7 @@
       </c>
       <c r="G20" s="38"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" hidden="1">
       <c r="A21" s="38" t="s">
         <v>58</v>
       </c>
@@ -8939,7 +8939,7 @@
       </c>
       <c r="G21" s="38"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" hidden="1">
       <c r="A22" s="38" t="s">
         <v>58</v>
       </c>
@@ -8958,7 +8958,7 @@
       </c>
       <c r="G22" s="38"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" hidden="1">
       <c r="A23" s="38" t="s">
         <v>58</v>
       </c>
@@ -8977,7 +8977,7 @@
       </c>
       <c r="G23" s="38"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" hidden="1">
       <c r="A24" s="39" t="s">
         <v>58</v>
       </c>
@@ -8996,7 +8996,7 @@
       </c>
       <c r="G24" s="39"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" hidden="1">
       <c r="A25" s="38" t="s">
         <v>58</v>
       </c>
@@ -9015,7 +9015,7 @@
       </c>
       <c r="G25" s="38"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" hidden="1">
       <c r="A26" s="38" t="s">
         <v>58</v>
       </c>
@@ -9034,7 +9034,7 @@
       </c>
       <c r="G26" s="38"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" hidden="1">
       <c r="A27" s="39" t="s">
         <v>58</v>
       </c>
@@ -9053,7 +9053,7 @@
       </c>
       <c r="G27" s="39"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" hidden="1">
       <c r="A28" s="39" t="s">
         <v>58</v>
       </c>
@@ -9072,7 +9072,7 @@
       </c>
       <c r="G28" s="39"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" hidden="1">
       <c r="A29" s="39" t="s">
         <v>58</v>
       </c>
@@ -9091,7 +9091,7 @@
       </c>
       <c r="G29" s="39"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" hidden="1">
       <c r="A30" s="39"/>
       <c r="B30" s="39" t="s">
         <v>1214</v>
@@ -9108,7 +9108,7 @@
       </c>
       <c r="G30" s="39"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" hidden="1">
       <c r="A31" s="38" t="s">
         <v>58</v>
       </c>
@@ -9127,7 +9127,7 @@
       </c>
       <c r="G31" s="38"/>
     </row>
-    <row r="32" spans="1:7" ht="30">
+    <row r="32" spans="1:7" ht="30" hidden="1">
       <c r="A32" s="38" t="s">
         <v>58</v>
       </c>
@@ -9146,7 +9146,7 @@
       </c>
       <c r="G32" s="38"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" hidden="1">
       <c r="A33" s="39" t="s">
         <v>58</v>
       </c>
@@ -9165,7 +9165,7 @@
       </c>
       <c r="G33" s="39"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" hidden="1">
       <c r="A34" s="39" t="s">
         <v>58</v>
       </c>
@@ -9184,7 +9184,7 @@
       </c>
       <c r="G34" s="39"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" hidden="1">
       <c r="A35" s="39" t="s">
         <v>58</v>
       </c>
@@ -9203,7 +9203,7 @@
       </c>
       <c r="G35" s="39"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" hidden="1">
       <c r="A36" s="39" t="s">
         <v>58</v>
       </c>
@@ -9222,7 +9222,7 @@
       </c>
       <c r="G36" s="39"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" hidden="1">
       <c r="A37" s="38" t="s">
         <v>58</v>
       </c>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="G37" s="38"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" hidden="1">
       <c r="A38" s="38" t="s">
         <v>58</v>
       </c>
@@ -9260,7 +9260,7 @@
       </c>
       <c r="G38" s="38"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" hidden="1">
       <c r="A39" s="38" t="s">
         <v>58</v>
       </c>
@@ -9279,7 +9279,7 @@
       </c>
       <c r="G39" s="38"/>
     </row>
-    <row r="40" spans="1:7" ht="30">
+    <row r="40" spans="1:7" ht="30" hidden="1">
       <c r="A40" s="38" t="s">
         <v>58</v>
       </c>
@@ -9298,7 +9298,7 @@
       </c>
       <c r="G40" s="38"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" hidden="1">
       <c r="A41" s="38" t="s">
         <v>58</v>
       </c>
@@ -9317,7 +9317,7 @@
       </c>
       <c r="G41" s="38"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" hidden="1">
       <c r="A42" s="38" t="s">
         <v>131</v>
       </c>
@@ -9336,7 +9336,7 @@
       </c>
       <c r="G42" s="38"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" hidden="1">
       <c r="A43" s="38" t="s">
         <v>58</v>
       </c>
@@ -9351,7 +9351,7 @@
       <c r="F43" s="37"/>
       <c r="G43" s="37"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" hidden="1">
       <c r="A44" s="38" t="s">
         <v>58</v>
       </c>
@@ -9366,7 +9366,7 @@
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
     </row>
-    <row r="45" spans="1:7" ht="30">
+    <row r="45" spans="1:7" ht="30" hidden="1">
       <c r="A45" s="38" t="s">
         <v>58</v>
       </c>
@@ -9387,7 +9387,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" hidden="1">
       <c r="A46" s="38" t="s">
         <v>58</v>
       </c>
@@ -9406,7 +9406,7 @@
       </c>
       <c r="G46" s="38"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" hidden="1">
       <c r="A47" s="38" t="s">
         <v>58</v>
       </c>
@@ -9425,7 +9425,7 @@
       </c>
       <c r="G47" s="38"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" hidden="1">
       <c r="A48" s="38" t="s">
         <v>58</v>
       </c>
@@ -9444,7 +9444,7 @@
       </c>
       <c r="G48" s="38"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" hidden="1">
       <c r="A49" s="38" t="s">
         <v>58</v>
       </c>
@@ -9463,7 +9463,7 @@
       </c>
       <c r="G49" s="38"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" hidden="1">
       <c r="A50" s="38" t="s">
         <v>58</v>
       </c>
@@ -9482,7 +9482,7 @@
       </c>
       <c r="G50" s="38"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" hidden="1">
       <c r="A51" s="38" t="s">
         <v>58</v>
       </c>
@@ -9501,7 +9501,7 @@
       </c>
       <c r="G51" s="38"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" hidden="1">
       <c r="A52" s="38" t="s">
         <v>58</v>
       </c>
@@ -9520,7 +9520,7 @@
       </c>
       <c r="G52" s="38"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" hidden="1">
       <c r="A53" s="38" t="s">
         <v>58</v>
       </c>
@@ -9539,7 +9539,7 @@
       </c>
       <c r="G53" s="38"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" hidden="1">
       <c r="A54" s="38" t="s">
         <v>131</v>
       </c>
@@ -9558,7 +9558,7 @@
       </c>
       <c r="G54" s="38"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" hidden="1">
       <c r="A55" s="38" t="s">
         <v>58</v>
       </c>
@@ -9573,7 +9573,7 @@
       <c r="F55" s="37"/>
       <c r="G55" s="37"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" hidden="1">
       <c r="A56" s="38" t="s">
         <v>58</v>
       </c>
@@ -9588,7 +9588,7 @@
       <c r="F56" s="37"/>
       <c r="G56" s="37"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" hidden="1">
       <c r="A57" s="38" t="s">
         <v>58</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" hidden="1">
       <c r="A58" s="38" t="s">
         <v>58</v>
       </c>
@@ -9628,7 +9628,7 @@
       </c>
       <c r="G58" s="38"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" hidden="1">
       <c r="A59" s="38" t="s">
         <v>58</v>
       </c>
@@ -9647,7 +9647,7 @@
       </c>
       <c r="G59" s="38"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" hidden="1">
       <c r="A60" s="38" t="s">
         <v>58</v>
       </c>
@@ -9666,7 +9666,7 @@
       </c>
       <c r="G60" s="38"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" hidden="1">
       <c r="A61" s="38" t="s">
         <v>58</v>
       </c>
@@ -9685,7 +9685,7 @@
       </c>
       <c r="G61" s="38"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" hidden="1">
       <c r="A62" s="38" t="s">
         <v>58</v>
       </c>
@@ -9704,7 +9704,7 @@
       </c>
       <c r="G62" s="38"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" hidden="1">
       <c r="A63" s="38" t="s">
         <v>58</v>
       </c>
@@ -9723,7 +9723,7 @@
       </c>
       <c r="G63" s="38"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" hidden="1">
       <c r="A64" s="38" t="s">
         <v>58</v>
       </c>
@@ -9742,7 +9742,7 @@
       </c>
       <c r="G64" s="38"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" hidden="1">
       <c r="A65" s="38" t="s">
         <v>58</v>
       </c>
@@ -9761,7 +9761,7 @@
       </c>
       <c r="G65" s="38"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" hidden="1">
       <c r="A66" s="38" t="s">
         <v>58</v>
       </c>
@@ -9776,7 +9776,7 @@
       <c r="F66" s="37"/>
       <c r="G66" s="37"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" hidden="1">
       <c r="A67" s="38" t="s">
         <v>58</v>
       </c>
@@ -9791,7 +9791,7 @@
       <c r="F67" s="37"/>
       <c r="G67" s="37"/>
     </row>
-    <row r="68" spans="1:7" ht="30">
+    <row r="68" spans="1:7" ht="30" hidden="1">
       <c r="A68" s="38" t="s">
         <v>58</v>
       </c>
@@ -9812,7 +9812,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" hidden="1">
       <c r="A69" s="38" t="s">
         <v>58</v>
       </c>
@@ -9831,7 +9831,7 @@
       </c>
       <c r="G69" s="38"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" hidden="1">
       <c r="A70" s="38" t="s">
         <v>58</v>
       </c>
@@ -9850,7 +9850,7 @@
       </c>
       <c r="G70" s="38"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" hidden="1">
       <c r="A71" s="38" t="s">
         <v>58</v>
       </c>
@@ -9869,7 +9869,7 @@
       </c>
       <c r="G71" s="38"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" hidden="1">
       <c r="A72" s="38" t="s">
         <v>58</v>
       </c>
@@ -9888,7 +9888,7 @@
       </c>
       <c r="G72" s="38"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" hidden="1">
       <c r="A73" s="38" t="s">
         <v>58</v>
       </c>
@@ -9907,7 +9907,7 @@
       </c>
       <c r="G73" s="38"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" hidden="1">
       <c r="A74" s="39" t="s">
         <v>58</v>
       </c>
@@ -9926,7 +9926,7 @@
       </c>
       <c r="G74" s="39"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" hidden="1">
       <c r="A75" s="39" t="s">
         <v>58</v>
       </c>
@@ -9945,7 +9945,7 @@
       </c>
       <c r="G75" s="39"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" hidden="1">
       <c r="A76" s="38" t="s">
         <v>58</v>
       </c>
@@ -9964,7 +9964,7 @@
       </c>
       <c r="G76" s="38"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" hidden="1">
       <c r="A77" s="38" t="s">
         <v>58</v>
       </c>
@@ -9983,7 +9983,7 @@
       </c>
       <c r="G77" s="38"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" hidden="1">
       <c r="A78" s="38" t="s">
         <v>58</v>
       </c>
@@ -10002,7 +10002,7 @@
       </c>
       <c r="G78" s="38"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" hidden="1">
       <c r="A79" s="38" t="s">
         <v>131</v>
       </c>
@@ -10021,7 +10021,7 @@
       </c>
       <c r="G79" s="38"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" hidden="1">
       <c r="A80" s="38" t="s">
         <v>58</v>
       </c>
@@ -10036,7 +10036,7 @@
       <c r="F80" s="37"/>
       <c r="G80" s="37"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" hidden="1">
       <c r="A81" s="38" t="s">
         <v>58</v>
       </c>
@@ -10051,7 +10051,7 @@
       <c r="F81" s="37"/>
       <c r="G81" s="37"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" hidden="1">
       <c r="A82" s="38" t="s">
         <v>58</v>
       </c>
@@ -10072,7 +10072,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" hidden="1">
       <c r="A83" s="38" t="s">
         <v>58</v>
       </c>
@@ -10091,7 +10091,7 @@
       </c>
       <c r="G83" s="38"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" hidden="1">
       <c r="A84" s="38" t="s">
         <v>58</v>
       </c>
@@ -10110,7 +10110,7 @@
       </c>
       <c r="G84" s="38"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" hidden="1">
       <c r="A85" s="38" t="s">
         <v>58</v>
       </c>
@@ -10129,7 +10129,7 @@
       </c>
       <c r="G85" s="38"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" hidden="1">
       <c r="A86" s="38" t="s">
         <v>58</v>
       </c>
@@ -10148,7 +10148,7 @@
       </c>
       <c r="G86" s="38"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" hidden="1">
       <c r="A87" s="38" t="s">
         <v>58</v>
       </c>
@@ -10167,7 +10167,7 @@
       </c>
       <c r="G87" s="38"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" hidden="1">
       <c r="A88" s="38" t="s">
         <v>58</v>
       </c>
@@ -10186,7 +10186,7 @@
       </c>
       <c r="G88" s="38"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" hidden="1">
       <c r="A89" s="38" t="s">
         <v>131</v>
       </c>
@@ -10205,7 +10205,7 @@
       </c>
       <c r="G89" s="38"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" hidden="1">
       <c r="A90" s="38" t="s">
         <v>58</v>
       </c>
@@ -10220,7 +10220,7 @@
       <c r="F90" s="37"/>
       <c r="G90" s="37"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" hidden="1">
       <c r="A91" s="38" t="s">
         <v>58</v>
       </c>
@@ -10235,7 +10235,7 @@
       <c r="F91" s="37"/>
       <c r="G91" s="37"/>
     </row>
-    <row r="92" spans="1:7" ht="30">
+    <row r="92" spans="1:7" ht="30" hidden="1">
       <c r="A92" s="38" t="s">
         <v>58</v>
       </c>
@@ -10256,7 +10256,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" hidden="1">
       <c r="A93" s="38" t="s">
         <v>58</v>
       </c>
@@ -10275,7 +10275,7 @@
       </c>
       <c r="G93" s="38"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" hidden="1">
       <c r="A94" s="38" t="s">
         <v>58</v>
       </c>
@@ -10294,7 +10294,7 @@
       </c>
       <c r="G94" s="38"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" hidden="1">
       <c r="A95" s="38" t="s">
         <v>58</v>
       </c>
@@ -10313,7 +10313,7 @@
       </c>
       <c r="G95" s="38"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" hidden="1">
       <c r="A96" s="38" t="s">
         <v>58</v>
       </c>
@@ -10332,7 +10332,7 @@
       </c>
       <c r="G96" s="38"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" hidden="1">
       <c r="A97" s="38" t="s">
         <v>58</v>
       </c>
@@ -10351,7 +10351,7 @@
       </c>
       <c r="G97" s="38"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" hidden="1">
       <c r="A98" s="38" t="s">
         <v>58</v>
       </c>
@@ -10370,7 +10370,7 @@
       </c>
       <c r="G98" s="38"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" hidden="1">
       <c r="A99" s="38" t="s">
         <v>58</v>
       </c>
@@ -10389,7 +10389,7 @@
       </c>
       <c r="G99" s="38"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" hidden="1">
       <c r="A100" s="38" t="s">
         <v>58</v>
       </c>
@@ -10408,7 +10408,7 @@
       </c>
       <c r="G100" s="38"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" hidden="1">
       <c r="A101" s="38" t="s">
         <v>131</v>
       </c>
@@ -10427,7 +10427,7 @@
       </c>
       <c r="G101" s="38"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" hidden="1">
       <c r="A102" s="38" t="s">
         <v>58</v>
       </c>
@@ -10442,7 +10442,7 @@
       <c r="F102" s="37"/>
       <c r="G102" s="37"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" hidden="1">
       <c r="A103" s="38" t="s">
         <v>58</v>
       </c>
@@ -10457,7 +10457,7 @@
       <c r="F103" s="37"/>
       <c r="G103" s="37"/>
     </row>
-    <row r="104" spans="1:7" ht="30">
+    <row r="104" spans="1:7" ht="30" hidden="1">
       <c r="A104" s="38" t="s">
         <v>58</v>
       </c>
@@ -10478,7 +10478,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" hidden="1">
       <c r="A105" s="38" t="s">
         <v>58</v>
       </c>
@@ -10497,7 +10497,7 @@
       </c>
       <c r="G105" s="38"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" hidden="1">
       <c r="A106" s="38" t="s">
         <v>58</v>
       </c>
@@ -10516,7 +10516,7 @@
       </c>
       <c r="G106" s="38"/>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" hidden="1">
       <c r="A107" s="38" t="s">
         <v>58</v>
       </c>
@@ -10535,7 +10535,7 @@
       </c>
       <c r="G107" s="38"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" hidden="1">
       <c r="A108" s="38" t="s">
         <v>58</v>
       </c>
@@ -10554,7 +10554,7 @@
       </c>
       <c r="G108" s="38"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" hidden="1">
       <c r="A109" s="38" t="s">
         <v>58</v>
       </c>
@@ -10573,7 +10573,7 @@
       </c>
       <c r="G109" s="38"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" hidden="1">
       <c r="A110" s="38" t="s">
         <v>58</v>
       </c>
@@ -10592,7 +10592,7 @@
       </c>
       <c r="G110" s="38"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" hidden="1">
       <c r="A111" s="38" t="s">
         <v>58</v>
       </c>
@@ -10611,7 +10611,7 @@
       </c>
       <c r="G111" s="38"/>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" hidden="1">
       <c r="A112" s="38" t="s">
         <v>58</v>
       </c>
@@ -10630,7 +10630,7 @@
       </c>
       <c r="G112" s="38"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" hidden="1">
       <c r="A113" s="38" t="s">
         <v>131</v>
       </c>
@@ -10649,7 +10649,7 @@
       </c>
       <c r="G113" s="38"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" hidden="1">
       <c r="A114" s="38" t="s">
         <v>58</v>
       </c>
@@ -10664,7 +10664,7 @@
       <c r="F114" s="37"/>
       <c r="G114" s="37"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" hidden="1">
       <c r="A115" s="38" t="s">
         <v>58</v>
       </c>
@@ -10679,7 +10679,7 @@
       <c r="F115" s="37"/>
       <c r="G115" s="37"/>
     </row>
-    <row r="116" spans="1:7" ht="30">
+    <row r="116" spans="1:7" ht="30" hidden="1">
       <c r="A116" s="38" t="s">
         <v>58</v>
       </c>
@@ -10700,7 +10700,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" hidden="1">
       <c r="A117" s="38" t="s">
         <v>58</v>
       </c>
@@ -10719,7 +10719,7 @@
       </c>
       <c r="G117" s="38"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" hidden="1">
       <c r="A118" s="38" t="s">
         <v>58</v>
       </c>
@@ -10738,7 +10738,7 @@
       </c>
       <c r="G118" s="38"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" hidden="1">
       <c r="A119" s="38" t="s">
         <v>58</v>
       </c>
@@ -10757,7 +10757,7 @@
       </c>
       <c r="G119" s="38"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" hidden="1">
       <c r="A120" s="38" t="s">
         <v>58</v>
       </c>
@@ -10776,7 +10776,7 @@
       </c>
       <c r="G120" s="38"/>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" hidden="1">
       <c r="A121" s="38" t="s">
         <v>58</v>
       </c>
@@ -10795,7 +10795,7 @@
       </c>
       <c r="G121" s="38"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" hidden="1">
       <c r="A122" s="38" t="s">
         <v>58</v>
       </c>
@@ -10814,7 +10814,7 @@
       </c>
       <c r="G122" s="38"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" hidden="1">
       <c r="A123" s="38" t="s">
         <v>58</v>
       </c>
@@ -10833,7 +10833,7 @@
       </c>
       <c r="G123" s="38"/>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" hidden="1">
       <c r="A124" s="38" t="s">
         <v>58</v>
       </c>
@@ -10852,7 +10852,7 @@
       </c>
       <c r="G124" s="38"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" hidden="1">
       <c r="A125" s="38" t="s">
         <v>131</v>
       </c>
@@ -10871,7 +10871,7 @@
       </c>
       <c r="G125" s="38"/>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" hidden="1">
       <c r="A126" s="38" t="s">
         <v>58</v>
       </c>
@@ -10886,7 +10886,7 @@
       <c r="F126" s="37"/>
       <c r="G126" s="37"/>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" hidden="1">
       <c r="A127" s="38" t="s">
         <v>58</v>
       </c>
@@ -10901,7 +10901,7 @@
       <c r="F127" s="37"/>
       <c r="G127" s="37"/>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" hidden="1">
       <c r="A128" s="38" t="s">
         <v>58</v>
       </c>
@@ -10922,7 +10922,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" hidden="1">
       <c r="A129" s="38" t="s">
         <v>58</v>
       </c>
@@ -10941,7 +10941,7 @@
       </c>
       <c r="G129" s="38"/>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" hidden="1">
       <c r="A130" s="38" t="s">
         <v>58</v>
       </c>
@@ -10960,7 +10960,7 @@
       </c>
       <c r="G130" s="38"/>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" hidden="1">
       <c r="A131" s="38" t="s">
         <v>58</v>
       </c>
@@ -10979,7 +10979,7 @@
       </c>
       <c r="G131" s="38"/>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" hidden="1">
       <c r="A132" s="38" t="s">
         <v>58</v>
       </c>
@@ -10998,7 +10998,7 @@
       </c>
       <c r="G132" s="38"/>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" hidden="1">
       <c r="A133" s="38" t="s">
         <v>58</v>
       </c>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="G133" s="38"/>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" hidden="1">
       <c r="A134" s="39" t="s">
         <v>58</v>
       </c>
@@ -11036,7 +11036,7 @@
       </c>
       <c r="G134" s="39"/>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" hidden="1">
       <c r="A135" s="38" t="s">
         <v>58</v>
       </c>
@@ -11055,7 +11055,7 @@
       </c>
       <c r="G135" s="38"/>
     </row>
-    <row r="136" spans="1:7" ht="30">
+    <row r="136" spans="1:7" ht="30" hidden="1">
       <c r="A136" s="38" t="s">
         <v>58</v>
       </c>
@@ -11074,7 +11074,7 @@
       </c>
       <c r="G136" s="38"/>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" hidden="1">
       <c r="A137" s="38" t="s">
         <v>58</v>
       </c>
@@ -11089,7 +11089,7 @@
       <c r="F137" s="37"/>
       <c r="G137" s="37"/>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" hidden="1">
       <c r="A138" s="38" t="s">
         <v>58</v>
       </c>
@@ -11104,7 +11104,7 @@
       <c r="F138" s="37"/>
       <c r="G138" s="37"/>
     </row>
-    <row r="139" spans="1:7" ht="30">
+    <row r="139" spans="1:7" ht="30" hidden="1">
       <c r="A139" s="38" t="s">
         <v>58</v>
       </c>
@@ -11127,7 +11127,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" hidden="1">
       <c r="A140" s="38" t="s">
         <v>58</v>
       </c>
@@ -11148,7 +11148,7 @@
       </c>
       <c r="G140" s="38"/>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" hidden="1">
       <c r="A141" s="38" t="s">
         <v>58</v>
       </c>
@@ -11169,7 +11169,7 @@
       </c>
       <c r="G141" s="38"/>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" hidden="1">
       <c r="A142" s="38" t="s">
         <v>58</v>
       </c>
@@ -11190,7 +11190,7 @@
       </c>
       <c r="G142" s="38"/>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" hidden="1">
       <c r="A143" s="38" t="s">
         <v>58</v>
       </c>
@@ -11211,7 +11211,7 @@
       </c>
       <c r="G143" s="38"/>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" hidden="1">
       <c r="A144" s="38" t="s">
         <v>58</v>
       </c>
@@ -11232,7 +11232,7 @@
       </c>
       <c r="G144" s="38"/>
     </row>
-    <row r="145" spans="1:8" ht="19.5" customHeight="1">
+    <row r="145" spans="1:8" ht="19.5" hidden="1" customHeight="1">
       <c r="A145" s="39" t="s">
         <v>58</v>
       </c>
@@ -11251,7 +11251,7 @@
       </c>
       <c r="G145" s="39"/>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" hidden="1">
       <c r="A146" s="38" t="s">
         <v>58</v>
       </c>
@@ -11272,7 +11272,7 @@
       </c>
       <c r="G146" s="38"/>
     </row>
-    <row r="147" spans="1:8" ht="45">
+    <row r="147" spans="1:8" ht="45" hidden="1">
       <c r="A147" s="38" t="s">
         <v>58</v>
       </c>
@@ -11293,7 +11293,7 @@
       </c>
       <c r="G147" s="38"/>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" hidden="1">
       <c r="A148" s="38" t="s">
         <v>131</v>
       </c>
@@ -11314,7 +11314,7 @@
       </c>
       <c r="G148" s="38"/>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" hidden="1">
       <c r="A149" s="38" t="s">
         <v>131</v>
       </c>
@@ -11333,7 +11333,7 @@
       </c>
       <c r="G149" s="38"/>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" hidden="1">
       <c r="A150" s="38" t="s">
         <v>58</v>
       </c>
@@ -11350,7 +11350,7 @@
       <c r="F150" s="37"/>
       <c r="G150" s="37"/>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" hidden="1">
       <c r="A151" s="38" t="s">
         <v>58</v>
       </c>
@@ -11367,7 +11367,7 @@
       <c r="F151" s="37"/>
       <c r="G151" s="37"/>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" hidden="1">
       <c r="A152" s="38" t="s">
         <v>58</v>
       </c>
@@ -11388,7 +11388,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" hidden="1">
       <c r="A153" s="38" t="s">
         <v>58</v>
       </c>
@@ -11409,7 +11409,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" hidden="1">
       <c r="A154" s="38" t="s">
         <v>58</v>
       </c>
@@ -11430,7 +11430,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" hidden="1">
       <c r="A155" s="38" t="s">
         <v>58</v>
       </c>
@@ -11447,7 +11447,7 @@
       <c r="F155" s="37"/>
       <c r="G155" s="41"/>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" hidden="1">
       <c r="A156" s="38" t="s">
         <v>58</v>
       </c>
@@ -11464,7 +11464,7 @@
       <c r="F156" s="37"/>
       <c r="G156" s="41"/>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" hidden="1">
       <c r="A157" s="38" t="s">
         <v>58</v>
       </c>
@@ -11481,7 +11481,7 @@
       <c r="F157" s="37"/>
       <c r="G157" s="41"/>
     </row>
-    <row r="158" spans="1:8" ht="15.6">
+    <row r="158" spans="1:8" ht="15.6" hidden="1">
       <c r="A158" s="65" t="s">
         <v>58</v>
       </c>
@@ -11496,7 +11496,7 @@
       <c r="F158" s="37"/>
       <c r="G158" s="36"/>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" hidden="1">
       <c r="A159" s="65" t="s">
         <v>58</v>
       </c>
@@ -11511,7 +11511,7 @@
       <c r="F159" s="37"/>
       <c r="G159" s="37"/>
     </row>
-    <row r="160" spans="1:8" s="76" customFormat="1">
+    <row r="160" spans="1:8" s="76" customFormat="1" hidden="1">
       <c r="A160" s="73" t="s">
         <v>58</v>
       </c>
@@ -11529,7 +11529,7 @@
       <c r="G160" s="40"/>
       <c r="H160" s="75"/>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" hidden="1">
       <c r="A161" s="65" t="s">
         <v>58</v>
       </c>
@@ -11548,7 +11548,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" hidden="1">
       <c r="A162" s="65" t="s">
         <v>58</v>
       </c>
@@ -11565,7 +11565,7 @@
       <c r="F162" s="38"/>
       <c r="G162" s="38"/>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" hidden="1">
       <c r="A163" s="65" t="s">
         <v>58</v>
       </c>
@@ -11582,7 +11582,7 @@
       <c r="F163" s="38"/>
       <c r="G163" s="38"/>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" hidden="1">
       <c r="A164" s="38" t="s">
         <v>58</v>
       </c>
@@ -11601,7 +11601,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" hidden="1">
       <c r="A165" s="38" t="s">
         <v>58</v>
       </c>
@@ -11616,7 +11616,7 @@
       <c r="F165" s="41"/>
       <c r="G165" s="41"/>
     </row>
-    <row r="166" spans="1:7" s="51" customFormat="1">
+    <row r="166" spans="1:7" s="51" customFormat="1" hidden="1">
       <c r="A166" s="65" t="s">
         <v>58</v>
       </c>
@@ -11633,7 +11633,7 @@
       <c r="F166" s="65"/>
       <c r="G166" s="65"/>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" hidden="1">
       <c r="A167" s="38" t="s">
         <v>58</v>
       </c>
@@ -11650,7 +11650,7 @@
       <c r="F167" s="38"/>
       <c r="G167" s="38"/>
     </row>
-    <row r="168" spans="1:7" ht="30">
+    <row r="168" spans="1:7" ht="30" hidden="1">
       <c r="A168" s="38" t="s">
         <v>58</v>
       </c>
@@ -11667,7 +11667,7 @@
       <c r="F168" s="38"/>
       <c r="G168" s="38"/>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" hidden="1">
       <c r="A169" s="38" t="s">
         <v>58</v>
       </c>
@@ -11684,7 +11684,7 @@
       <c r="F169" s="40"/>
       <c r="G169" s="38"/>
     </row>
-    <row r="170" spans="1:7" ht="30">
+    <row r="170" spans="1:7" ht="30" hidden="1">
       <c r="A170" s="38" t="s">
         <v>58</v>
       </c>
@@ -11701,7 +11701,7 @@
       <c r="F170" s="40"/>
       <c r="G170" s="38"/>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" hidden="1">
       <c r="A171" s="38" t="s">
         <v>58</v>
       </c>
@@ -11718,7 +11718,7 @@
       <c r="F171" s="40"/>
       <c r="G171" s="38"/>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" hidden="1">
       <c r="A172" s="38" t="s">
         <v>58</v>
       </c>
@@ -11735,7 +11735,7 @@
       <c r="F172" s="40"/>
       <c r="G172" s="38"/>
     </row>
-    <row r="173" spans="1:7" ht="30">
+    <row r="173" spans="1:7" ht="30" hidden="1">
       <c r="A173" s="38" t="s">
         <v>58</v>
       </c>
@@ -11752,7 +11752,7 @@
       <c r="F173" s="40"/>
       <c r="G173" s="38"/>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" hidden="1">
       <c r="A174" s="38" t="s">
         <v>58</v>
       </c>
@@ -11769,7 +11769,7 @@
       <c r="F174" s="40"/>
       <c r="G174" s="38"/>
     </row>
-    <row r="175" spans="1:7" ht="45">
+    <row r="175" spans="1:7" ht="45" hidden="1">
       <c r="A175" s="38" t="s">
         <v>58</v>
       </c>
@@ -11786,7 +11786,7 @@
       <c r="F175" s="38"/>
       <c r="G175" s="38"/>
     </row>
-    <row r="176" spans="1:7" ht="30">
+    <row r="176" spans="1:7" ht="30" hidden="1">
       <c r="A176" s="38" t="s">
         <v>58</v>
       </c>
@@ -11803,7 +11803,7 @@
       <c r="F176" s="38"/>
       <c r="G176" s="38"/>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" hidden="1">
       <c r="A177" s="38" t="s">
         <v>58</v>
       </c>
@@ -11820,7 +11820,7 @@
       <c r="F177" s="38"/>
       <c r="G177" s="38"/>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" hidden="1">
       <c r="A178" s="38" t="s">
         <v>58</v>
       </c>
@@ -11835,7 +11835,7 @@
       <c r="F178" s="41"/>
       <c r="G178" s="42"/>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" hidden="1">
       <c r="A179" s="38" t="s">
         <v>58</v>
       </c>
@@ -11850,7 +11850,7 @@
       <c r="F179" s="41"/>
       <c r="G179" s="41"/>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" hidden="1">
       <c r="A180" s="38" t="s">
         <v>58</v>
       </c>
@@ -11869,7 +11869,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" hidden="1">
       <c r="A181" s="38" t="s">
         <v>58</v>
       </c>
@@ -11886,7 +11886,7 @@
       <c r="F181" s="38"/>
       <c r="G181" s="38"/>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" hidden="1">
       <c r="A182" s="38" t="s">
         <v>58</v>
       </c>
@@ -11903,7 +11903,7 @@
       <c r="F182" s="38"/>
       <c r="G182" s="38"/>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" hidden="1">
       <c r="A183" s="38" t="s">
         <v>58</v>
       </c>
@@ -11920,7 +11920,7 @@
       <c r="F183" s="38"/>
       <c r="G183" s="38"/>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" hidden="1">
       <c r="A184" s="38" t="s">
         <v>58</v>
       </c>
@@ -11935,7 +11935,7 @@
       <c r="F184" s="41"/>
       <c r="G184" s="41"/>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" hidden="1">
       <c r="A185" s="38" t="s">
         <v>58</v>
       </c>
@@ -11954,7 +11954,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" hidden="1">
       <c r="A186" s="38" t="s">
         <v>58</v>
       </c>
@@ -11971,7 +11971,7 @@
       <c r="F186" s="38"/>
       <c r="G186" s="38"/>
     </row>
-    <row r="187" spans="1:7" ht="30">
+    <row r="187" spans="1:7" ht="30" hidden="1">
       <c r="A187" s="38" t="s">
         <v>58</v>
       </c>
@@ -11988,7 +11988,7 @@
       <c r="F187" s="38"/>
       <c r="G187" s="38"/>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" hidden="1">
       <c r="A188" s="38" t="s">
         <v>58</v>
       </c>
@@ -12005,7 +12005,7 @@
       <c r="F188" s="40"/>
       <c r="G188" s="38"/>
     </row>
-    <row r="189" spans="1:7" ht="30">
+    <row r="189" spans="1:7" ht="30" hidden="1">
       <c r="A189" s="38" t="s">
         <v>58</v>
       </c>
@@ -12022,7 +12022,7 @@
       <c r="F189" s="40"/>
       <c r="G189" s="38"/>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" hidden="1">
       <c r="A190" s="38" t="s">
         <v>58</v>
       </c>
@@ -12039,7 +12039,7 @@
       <c r="F190" s="40"/>
       <c r="G190" s="38"/>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" hidden="1">
       <c r="A191" s="38" t="s">
         <v>58</v>
       </c>
@@ -12056,7 +12056,7 @@
       <c r="F191" s="40"/>
       <c r="G191" s="38"/>
     </row>
-    <row r="192" spans="1:7" ht="30">
+    <row r="192" spans="1:7" ht="30" hidden="1">
       <c r="A192" s="38" t="s">
         <v>58</v>
       </c>
@@ -12073,7 +12073,7 @@
       <c r="F192" s="40"/>
       <c r="G192" s="38"/>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" hidden="1">
       <c r="A193" s="38" t="s">
         <v>58</v>
       </c>
@@ -12090,7 +12090,7 @@
       <c r="F193" s="40"/>
       <c r="G193" s="38"/>
     </row>
-    <row r="194" spans="1:7" ht="45">
+    <row r="194" spans="1:7" ht="45" hidden="1">
       <c r="A194" s="38" t="s">
         <v>58</v>
       </c>
@@ -12107,7 +12107,7 @@
       <c r="F194" s="38"/>
       <c r="G194" s="38"/>
     </row>
-    <row r="195" spans="1:7" ht="30">
+    <row r="195" spans="1:7" ht="30" hidden="1">
       <c r="A195" s="38" t="s">
         <v>58</v>
       </c>
@@ -12124,7 +12124,7 @@
       <c r="F195" s="38"/>
       <c r="G195" s="38"/>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" hidden="1">
       <c r="A196" s="38" t="s">
         <v>58</v>
       </c>
@@ -12141,7 +12141,7 @@
       <c r="F196" s="38"/>
       <c r="G196" s="38"/>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" hidden="1">
       <c r="A197" s="38" t="s">
         <v>58</v>
       </c>
@@ -12156,7 +12156,7 @@
       <c r="F197" s="41"/>
       <c r="G197" s="41"/>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" hidden="1">
       <c r="A198" s="38" t="s">
         <v>58</v>
       </c>
@@ -12171,7 +12171,7 @@
       <c r="F198" s="41"/>
       <c r="G198" s="41"/>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" hidden="1">
       <c r="A199" s="38" t="s">
         <v>58</v>
       </c>
@@ -12190,7 +12190,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" hidden="1">
       <c r="A200" s="38" t="s">
         <v>58</v>
       </c>
@@ -12207,7 +12207,7 @@
       <c r="F200" s="38"/>
       <c r="G200" s="38"/>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" hidden="1">
       <c r="A201" s="38" t="s">
         <v>58</v>
       </c>
@@ -12224,7 +12224,7 @@
       <c r="F201" s="38"/>
       <c r="G201" s="38"/>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" hidden="1">
       <c r="A202" s="38" t="s">
         <v>58</v>
       </c>
@@ -12241,7 +12241,7 @@
       <c r="F202" s="38"/>
       <c r="G202" s="38"/>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" hidden="1">
       <c r="A203" s="38" t="s">
         <v>58</v>
       </c>
@@ -12256,7 +12256,7 @@
       <c r="F203" s="41"/>
       <c r="G203" s="41"/>
     </row>
-    <row r="204" spans="1:7" ht="42" customHeight="1">
+    <row r="204" spans="1:7" ht="42" hidden="1" customHeight="1">
       <c r="A204" s="38" t="s">
         <v>58</v>
       </c>
@@ -12275,7 +12275,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" hidden="1">
       <c r="A205" s="38" t="s">
         <v>58</v>
       </c>
@@ -12292,7 +12292,7 @@
       <c r="F205" s="38"/>
       <c r="G205" s="38"/>
     </row>
-    <row r="206" spans="1:7" ht="36.75" customHeight="1">
+    <row r="206" spans="1:7" ht="36.75" hidden="1" customHeight="1">
       <c r="A206" s="38" t="s">
         <v>58</v>
       </c>
@@ -12309,7 +12309,7 @@
       <c r="F206" s="38"/>
       <c r="G206" s="38"/>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" hidden="1">
       <c r="A207" s="38" t="s">
         <v>58</v>
       </c>
@@ -12326,7 +12326,7 @@
       <c r="F207" s="40"/>
       <c r="G207" s="38"/>
     </row>
-    <row r="208" spans="1:7" ht="30">
+    <row r="208" spans="1:7" ht="30" hidden="1">
       <c r="A208" s="38" t="s">
         <v>58</v>
       </c>
@@ -12343,7 +12343,7 @@
       <c r="F208" s="40"/>
       <c r="G208" s="38"/>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" hidden="1">
       <c r="A209" s="38" t="s">
         <v>58</v>
       </c>
@@ -12360,7 +12360,7 @@
       <c r="F209" s="40"/>
       <c r="G209" s="38"/>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" hidden="1">
       <c r="A210" s="38" t="s">
         <v>58</v>
       </c>
@@ -12377,7 +12377,7 @@
       <c r="F210" s="40"/>
       <c r="G210" s="38"/>
     </row>
-    <row r="211" spans="1:7" ht="30">
+    <row r="211" spans="1:7" ht="30" hidden="1">
       <c r="A211" s="38" t="s">
         <v>58</v>
       </c>
@@ -12394,7 +12394,7 @@
       <c r="F211" s="40"/>
       <c r="G211" s="38"/>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" hidden="1">
       <c r="A212" s="38" t="s">
         <v>58</v>
       </c>
@@ -12411,7 +12411,7 @@
       <c r="F212" s="40"/>
       <c r="G212" s="38"/>
     </row>
-    <row r="213" spans="1:7" ht="45">
+    <row r="213" spans="1:7" ht="45" hidden="1">
       <c r="A213" s="38" t="s">
         <v>58</v>
       </c>
@@ -12428,7 +12428,7 @@
       <c r="F213" s="38"/>
       <c r="G213" s="38"/>
     </row>
-    <row r="214" spans="1:7" ht="30">
+    <row r="214" spans="1:7" ht="30" hidden="1">
       <c r="A214" s="38" t="s">
         <v>58</v>
       </c>
@@ -12445,7 +12445,7 @@
       <c r="F214" s="38"/>
       <c r="G214" s="38"/>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" hidden="1">
       <c r="A215" s="38" t="s">
         <v>58</v>
       </c>
@@ -12462,7 +12462,7 @@
       <c r="F215" s="38"/>
       <c r="G215" s="38"/>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" hidden="1">
       <c r="A216" s="38" t="s">
         <v>58</v>
       </c>
@@ -12477,7 +12477,7 @@
       <c r="F216" s="41"/>
       <c r="G216" s="43"/>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" hidden="1">
       <c r="A217" s="38" t="s">
         <v>58</v>
       </c>
@@ -12492,7 +12492,7 @@
       <c r="F217" s="41"/>
       <c r="G217" s="41"/>
     </row>
-    <row r="218" spans="1:7" ht="30">
+    <row r="218" spans="1:7" ht="30" hidden="1">
       <c r="A218" s="38" t="s">
         <v>58</v>
       </c>
@@ -12511,7 +12511,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" hidden="1">
       <c r="A219" s="38" t="s">
         <v>58</v>
       </c>
@@ -12528,7 +12528,7 @@
       <c r="F219" s="38"/>
       <c r="G219" s="38"/>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" hidden="1">
       <c r="A220" s="38" t="s">
         <v>58</v>
       </c>
@@ -12545,7 +12545,7 @@
       <c r="F220" s="38"/>
       <c r="G220" s="38"/>
     </row>
-    <row r="221" spans="1:7" ht="30">
+    <row r="221" spans="1:7" ht="30" hidden="1">
       <c r="A221" s="38" t="s">
         <v>58</v>
       </c>
@@ -12562,7 +12562,7 @@
       <c r="F221" s="38"/>
       <c r="G221" s="38"/>
     </row>
-    <row r="222" spans="1:7" ht="30">
+    <row r="222" spans="1:7" ht="30" hidden="1">
       <c r="A222" s="38" t="s">
         <v>58</v>
       </c>
@@ -12579,7 +12579,7 @@
       <c r="F222" s="38"/>
       <c r="G222" s="38"/>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" hidden="1">
       <c r="A223" s="38" t="s">
         <v>58</v>
       </c>
@@ -12596,7 +12596,7 @@
       <c r="F223" s="40"/>
       <c r="G223" s="38"/>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" hidden="1">
       <c r="A224" s="38" t="s">
         <v>58</v>
       </c>
@@ -12613,7 +12613,7 @@
       <c r="F224" s="38"/>
       <c r="G224" s="38"/>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" hidden="1">
       <c r="A225" s="38" t="s">
         <v>58</v>
       </c>
@@ -12632,7 +12632,7 @@
       <c r="F225" s="38"/>
       <c r="G225" s="38"/>
     </row>
-    <row r="226" spans="1:7" ht="30">
+    <row r="226" spans="1:7" ht="30" hidden="1">
       <c r="A226" s="38" t="s">
         <v>58</v>
       </c>
@@ -12651,7 +12651,7 @@
       <c r="F226" s="38"/>
       <c r="G226" s="38"/>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" hidden="1">
       <c r="A227" s="38" t="s">
         <v>58</v>
       </c>
@@ -12668,7 +12668,7 @@
       <c r="F227" s="38"/>
       <c r="G227" s="38"/>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" hidden="1">
       <c r="A228" s="38" t="s">
         <v>58</v>
       </c>
@@ -12685,7 +12685,7 @@
       <c r="F228" s="38"/>
       <c r="G228" s="38"/>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" hidden="1">
       <c r="A229" s="38" t="s">
         <v>58</v>
       </c>
@@ -12702,7 +12702,7 @@
       <c r="F229" s="38"/>
       <c r="G229" s="38"/>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" hidden="1">
       <c r="A230" s="38" t="s">
         <v>58</v>
       </c>
@@ -12717,7 +12717,7 @@
       <c r="F230" s="41"/>
       <c r="G230" s="41"/>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" hidden="1">
       <c r="A231" s="38" t="s">
         <v>58</v>
       </c>
@@ -12736,7 +12736,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" hidden="1">
       <c r="A232" s="38" t="s">
         <v>58</v>
       </c>
@@ -12753,7 +12753,7 @@
       <c r="F232" s="38"/>
       <c r="G232" s="38"/>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" hidden="1">
       <c r="A233" s="38" t="s">
         <v>58</v>
       </c>
@@ -12770,7 +12770,7 @@
       <c r="F233" s="38"/>
       <c r="G233" s="38"/>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" hidden="1">
       <c r="A234" s="38" t="s">
         <v>58</v>
       </c>
@@ -12787,7 +12787,7 @@
       <c r="F234" s="38"/>
       <c r="G234" s="38"/>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" hidden="1">
       <c r="A235" s="38" t="s">
         <v>58</v>
       </c>
@@ -12806,7 +12806,7 @@
       <c r="F235" s="40"/>
       <c r="G235" s="38"/>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" hidden="1">
       <c r="A236" s="38" t="s">
         <v>58</v>
       </c>
@@ -12823,7 +12823,7 @@
       <c r="F236" s="38"/>
       <c r="G236" s="38"/>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" hidden="1">
       <c r="A237" s="38" t="s">
         <v>58</v>
       </c>
@@ -12840,7 +12840,7 @@
       <c r="F237" s="38"/>
       <c r="G237" s="38"/>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" hidden="1">
       <c r="A238" s="38" t="s">
         <v>58</v>
       </c>
@@ -12857,7 +12857,7 @@
       <c r="F238" s="38"/>
       <c r="G238" s="38"/>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" hidden="1">
       <c r="A239" s="38" t="s">
         <v>58</v>
       </c>
@@ -12874,7 +12874,7 @@
       <c r="F239" s="38"/>
       <c r="G239" s="38"/>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" hidden="1">
       <c r="A240" s="38" t="s">
         <v>58</v>
       </c>
@@ -12891,7 +12891,7 @@
       <c r="F240" s="38"/>
       <c r="G240" s="38"/>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" hidden="1">
       <c r="A241" s="38" t="s">
         <v>58</v>
       </c>
@@ -12908,7 +12908,7 @@
       <c r="F241" s="38"/>
       <c r="G241" s="38"/>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" hidden="1">
       <c r="A242" s="38" t="s">
         <v>58</v>
       </c>
@@ -12923,7 +12923,7 @@
       <c r="F242" s="41"/>
       <c r="G242" s="41"/>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" hidden="1">
       <c r="A243" s="38" t="s">
         <v>58</v>
       </c>
@@ -12942,7 +12942,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" hidden="1">
       <c r="A244" s="38" t="s">
         <v>58</v>
       </c>
@@ -12959,7 +12959,7 @@
       <c r="F244" s="38"/>
       <c r="G244" s="38"/>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" hidden="1">
       <c r="A245" s="38" t="s">
         <v>58</v>
       </c>
@@ -12974,7 +12974,7 @@
       <c r="F245" s="41"/>
       <c r="G245" s="41"/>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" hidden="1">
       <c r="A246" s="38" t="s">
         <v>58</v>
       </c>
@@ -12991,7 +12991,7 @@
       <c r="F246" s="38"/>
       <c r="G246" s="38"/>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" hidden="1">
       <c r="A247" s="38" t="s">
         <v>58</v>
       </c>
@@ -13006,7 +13006,7 @@
       <c r="F247" s="38"/>
       <c r="G247" s="43"/>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" hidden="1">
       <c r="A248" s="38" t="s">
         <v>58</v>
       </c>
@@ -13023,7 +13023,7 @@
       <c r="F248" s="38"/>
       <c r="G248" s="38"/>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" hidden="1">
       <c r="A249" s="38" t="s">
         <v>58</v>
       </c>
@@ -13040,7 +13040,7 @@
       <c r="F249" s="38"/>
       <c r="G249" s="38"/>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" hidden="1">
       <c r="A250" s="38" t="s">
         <v>58</v>
       </c>
@@ -13055,7 +13055,7 @@
       <c r="F250" s="41"/>
       <c r="G250" s="41"/>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" hidden="1">
       <c r="A251" s="38" t="s">
         <v>58</v>
       </c>
@@ -13072,7 +13072,7 @@
       <c r="F251" s="38"/>
       <c r="G251" s="38"/>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" hidden="1">
       <c r="A252" s="38" t="s">
         <v>58</v>
       </c>
@@ -13089,7 +13089,7 @@
       <c r="F252" s="38"/>
       <c r="G252" s="38"/>
     </row>
-    <row r="253" spans="1:7" ht="15.6">
+    <row r="253" spans="1:7" ht="15.6" hidden="1">
       <c r="A253" s="38" t="s">
         <v>58</v>
       </c>
@@ -13104,7 +13104,7 @@
       <c r="F253" s="41"/>
       <c r="G253" s="45"/>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" hidden="1">
       <c r="A254" s="38" t="s">
         <v>58</v>
       </c>
@@ -13119,7 +13119,7 @@
       <c r="F254" s="41"/>
       <c r="G254" s="41"/>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" hidden="1">
       <c r="A255" s="38" t="s">
         <v>58</v>
       </c>
@@ -13134,7 +13134,7 @@
       <c r="F255" s="41"/>
       <c r="G255" s="41"/>
     </row>
-    <row r="256" spans="1:7" ht="30">
+    <row r="256" spans="1:7" ht="30" hidden="1">
       <c r="A256" s="38" t="s">
         <v>58</v>
       </c>
@@ -13153,7 +13153,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" hidden="1">
       <c r="A257" s="38" t="s">
         <v>58</v>
       </c>
@@ -13170,7 +13170,7 @@
       <c r="F257" s="38"/>
       <c r="G257" s="44"/>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" hidden="1">
       <c r="A258" s="38" t="s">
         <v>58</v>
       </c>
@@ -13189,7 +13189,7 @@
       <c r="F258" s="38"/>
       <c r="G258" s="44"/>
     </row>
-    <row r="259" spans="1:7" ht="30">
+    <row r="259" spans="1:7" ht="30" hidden="1">
       <c r="A259" s="38" t="s">
         <v>58</v>
       </c>
@@ -13206,7 +13206,7 @@
       <c r="F259" s="38"/>
       <c r="G259" s="44"/>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" hidden="1">
       <c r="A260" s="38" t="s">
         <v>58</v>
       </c>
@@ -13223,7 +13223,7 @@
       <c r="F260" s="38"/>
       <c r="G260" s="44"/>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" hidden="1">
       <c r="A261" s="38" t="s">
         <v>58</v>
       </c>
@@ -13240,7 +13240,7 @@
       <c r="F261" s="38"/>
       <c r="G261" s="44"/>
     </row>
-    <row r="262" spans="1:7" ht="30">
+    <row r="262" spans="1:7" ht="30" hidden="1">
       <c r="A262" s="38" t="s">
         <v>58</v>
       </c>
@@ -13257,7 +13257,7 @@
       <c r="F262" s="38"/>
       <c r="G262" s="44"/>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" hidden="1">
       <c r="A263" s="38" t="s">
         <v>58</v>
       </c>
@@ -13276,7 +13276,7 @@
       <c r="F263" s="38"/>
       <c r="G263" s="44"/>
     </row>
-    <row r="264" spans="1:7" ht="30">
+    <row r="264" spans="1:7" ht="30" hidden="1">
       <c r="A264" s="38" t="s">
         <v>58</v>
       </c>
@@ -13293,7 +13293,7 @@
       <c r="F264" s="38"/>
       <c r="G264" s="44"/>
     </row>
-    <row r="265" spans="1:7" ht="45">
+    <row r="265" spans="1:7" ht="45" hidden="1">
       <c r="A265" s="38" t="s">
         <v>58</v>
       </c>
@@ -13310,7 +13310,7 @@
       <c r="F265" s="38"/>
       <c r="G265" s="44"/>
     </row>
-    <row r="266" spans="1:7" ht="30">
+    <row r="266" spans="1:7" ht="30" hidden="1">
       <c r="A266" s="38" t="s">
         <v>58</v>
       </c>
@@ -13327,7 +13327,7 @@
       <c r="F266" s="38"/>
       <c r="G266" s="44"/>
     </row>
-    <row r="267" spans="1:7" ht="45">
+    <row r="267" spans="1:7" ht="45" hidden="1">
       <c r="A267" s="38" t="s">
         <v>58</v>
       </c>
@@ -13346,7 +13346,7 @@
       <c r="F267" s="38"/>
       <c r="G267" s="44"/>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" hidden="1">
       <c r="A268" s="38" t="s">
         <v>58</v>
       </c>
@@ -13363,7 +13363,7 @@
       <c r="F268" s="38"/>
       <c r="G268" s="44"/>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" hidden="1">
       <c r="A269" s="38" t="s">
         <v>58</v>
       </c>
@@ -13378,7 +13378,7 @@
       <c r="F269" s="41"/>
       <c r="G269" s="41"/>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" hidden="1">
       <c r="A270" s="38" t="s">
         <v>58</v>
       </c>
@@ -13393,7 +13393,7 @@
       <c r="F270" s="41"/>
       <c r="G270" s="41"/>
     </row>
-    <row r="271" spans="1:7" ht="30">
+    <row r="271" spans="1:7" ht="30" hidden="1">
       <c r="A271" s="38" t="s">
         <v>58</v>
       </c>
@@ -13412,7 +13412,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" hidden="1">
       <c r="A272" s="38" t="s">
         <v>58</v>
       </c>
@@ -13429,7 +13429,7 @@
       <c r="F272" s="38"/>
       <c r="G272" s="44"/>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" hidden="1">
       <c r="A273" s="38" t="s">
         <v>58</v>
       </c>
@@ -13446,7 +13446,7 @@
       <c r="F273" s="38"/>
       <c r="G273" s="44"/>
     </row>
-    <row r="274" spans="1:7" ht="30">
+    <row r="274" spans="1:7" ht="30" hidden="1">
       <c r="A274" s="38" t="s">
         <v>58</v>
       </c>
@@ -13463,7 +13463,7 @@
       <c r="F274" s="38"/>
       <c r="G274" s="44"/>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" hidden="1">
       <c r="A275" s="38" t="s">
         <v>58</v>
       </c>
@@ -13480,7 +13480,7 @@
       <c r="F275" s="38"/>
       <c r="G275" s="44"/>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" hidden="1">
       <c r="A276" s="38" t="s">
         <v>58</v>
       </c>
@@ -13497,7 +13497,7 @@
       <c r="F276" s="38"/>
       <c r="G276" s="44"/>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" hidden="1">
       <c r="A277" s="38" t="s">
         <v>58</v>
       </c>
@@ -13514,7 +13514,7 @@
       <c r="F277" s="38"/>
       <c r="G277" s="44"/>
     </row>
-    <row r="278" spans="1:7" ht="30">
+    <row r="278" spans="1:7" ht="30" hidden="1">
       <c r="A278" s="38" t="s">
         <v>58</v>
       </c>
@@ -13531,7 +13531,7 @@
       <c r="F278" s="38"/>
       <c r="G278" s="44"/>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" hidden="1">
       <c r="A279" s="38" t="s">
         <v>58</v>
       </c>
@@ -13548,7 +13548,7 @@
       <c r="F279" s="38"/>
       <c r="G279" s="44"/>
     </row>
-    <row r="280" spans="1:7" ht="30">
+    <row r="280" spans="1:7" ht="30" hidden="1">
       <c r="A280" s="38" t="s">
         <v>58</v>
       </c>
@@ -13565,7 +13565,7 @@
       <c r="F280" s="38"/>
       <c r="G280" s="44"/>
     </row>
-    <row r="281" spans="1:7" ht="30">
+    <row r="281" spans="1:7" ht="30" hidden="1">
       <c r="A281" s="38" t="s">
         <v>58</v>
       </c>
@@ -13582,7 +13582,7 @@
       <c r="F281" s="38"/>
       <c r="G281" s="44"/>
     </row>
-    <row r="282" spans="1:7" ht="30">
+    <row r="282" spans="1:7" ht="30" hidden="1">
       <c r="A282" s="38" t="s">
         <v>58</v>
       </c>
@@ -13599,7 +13599,7 @@
       <c r="F282" s="38"/>
       <c r="G282" s="38"/>
     </row>
-    <row r="283" spans="1:7" ht="45">
+    <row r="283" spans="1:7" ht="45" hidden="1">
       <c r="A283" s="38" t="s">
         <v>58</v>
       </c>
@@ -13616,7 +13616,7 @@
       <c r="F283" s="38"/>
       <c r="G283" s="44"/>
     </row>
-    <row r="284" spans="1:7" ht="45">
+    <row r="284" spans="1:7" ht="45" hidden="1">
       <c r="A284" s="38" t="s">
         <v>58</v>
       </c>
@@ -13633,7 +13633,7 @@
       <c r="F284" s="38"/>
       <c r="G284" s="38"/>
     </row>
-    <row r="285" spans="1:7" ht="45">
+    <row r="285" spans="1:7" ht="45" hidden="1">
       <c r="A285" s="38" t="s">
         <v>58</v>
       </c>
@@ -13650,7 +13650,7 @@
       <c r="F285" s="38"/>
       <c r="G285" s="44"/>
     </row>
-    <row r="286" spans="1:7" ht="30">
+    <row r="286" spans="1:7" ht="30" hidden="1">
       <c r="A286" s="38" t="s">
         <v>58</v>
       </c>
@@ -13667,7 +13667,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" hidden="1">
       <c r="A287" s="38" t="s">
         <v>58</v>
       </c>
@@ -13682,7 +13682,7 @@
       <c r="F287" s="41"/>
       <c r="G287" s="41"/>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" hidden="1">
       <c r="A288" s="38" t="s">
         <v>58</v>
       </c>
@@ -13697,7 +13697,7 @@
       <c r="F288" s="41"/>
       <c r="G288" s="41"/>
     </row>
-    <row r="289" spans="1:7" ht="30">
+    <row r="289" spans="1:7" ht="30" hidden="1">
       <c r="A289" s="38" t="s">
         <v>58</v>
       </c>
@@ -13716,7 +13716,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" hidden="1">
       <c r="A290" s="38" t="s">
         <v>58</v>
       </c>
@@ -13733,7 +13733,7 @@
       <c r="F290" s="38"/>
       <c r="G290" s="44"/>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" hidden="1">
       <c r="A291" s="38" t="s">
         <v>58</v>
       </c>
@@ -13750,7 +13750,7 @@
       <c r="F291" s="38"/>
       <c r="G291" s="44"/>
     </row>
-    <row r="292" spans="1:7" ht="30">
+    <row r="292" spans="1:7" ht="30" hidden="1">
       <c r="A292" s="38" t="s">
         <v>58</v>
       </c>
@@ -13767,7 +13767,7 @@
       <c r="F292" s="38"/>
       <c r="G292" s="44"/>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" hidden="1">
       <c r="A293" s="38" t="s">
         <v>58</v>
       </c>
@@ -13784,7 +13784,7 @@
       <c r="F293" s="38"/>
       <c r="G293" s="44"/>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" hidden="1">
       <c r="A294" s="38" t="s">
         <v>58</v>
       </c>
@@ -13801,7 +13801,7 @@
       <c r="F294" s="38"/>
       <c r="G294" s="44"/>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" hidden="1">
       <c r="A295" s="38" t="s">
         <v>58</v>
       </c>
@@ -13818,7 +13818,7 @@
       <c r="F295" s="38"/>
       <c r="G295" s="44"/>
     </row>
-    <row r="296" spans="1:7" ht="30">
+    <row r="296" spans="1:7" ht="30" hidden="1">
       <c r="A296" s="38" t="s">
         <v>58</v>
       </c>
@@ -13835,7 +13835,7 @@
       <c r="F296" s="38"/>
       <c r="G296" s="44"/>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" hidden="1">
       <c r="A297" s="38" t="s">
         <v>58</v>
       </c>
@@ -13852,7 +13852,7 @@
       <c r="F297" s="38"/>
       <c r="G297" s="44"/>
     </row>
-    <row r="298" spans="1:7" ht="30">
+    <row r="298" spans="1:7" ht="30" hidden="1">
       <c r="A298" s="38" t="s">
         <v>58</v>
       </c>
@@ -13869,7 +13869,7 @@
       <c r="F298" s="38"/>
       <c r="G298" s="44"/>
     </row>
-    <row r="299" spans="1:7" ht="30">
+    <row r="299" spans="1:7" ht="30" hidden="1">
       <c r="A299" s="38" t="s">
         <v>58</v>
       </c>
@@ -13886,7 +13886,7 @@
       <c r="F299" s="38"/>
       <c r="G299" s="44"/>
     </row>
-    <row r="300" spans="1:7" ht="30">
+    <row r="300" spans="1:7" ht="30" hidden="1">
       <c r="A300" s="38" t="s">
         <v>58</v>
       </c>
@@ -13903,7 +13903,7 @@
       <c r="F300" s="38"/>
       <c r="G300" s="38"/>
     </row>
-    <row r="301" spans="1:7" ht="45">
+    <row r="301" spans="1:7" ht="45" hidden="1">
       <c r="A301" s="38" t="s">
         <v>58</v>
       </c>
@@ -13920,7 +13920,7 @@
       <c r="F301" s="38"/>
       <c r="G301" s="44"/>
     </row>
-    <row r="302" spans="1:7" ht="45">
+    <row r="302" spans="1:7" ht="45" hidden="1">
       <c r="A302" s="38" t="s">
         <v>58</v>
       </c>
@@ -13937,7 +13937,7 @@
       <c r="F302" s="38"/>
       <c r="G302" s="38"/>
     </row>
-    <row r="303" spans="1:7" ht="45">
+    <row r="303" spans="1:7" ht="45" hidden="1">
       <c r="A303" s="38" t="s">
         <v>58</v>
       </c>
@@ -13973,7 +13973,7 @@
       </c>
       <c r="G304" s="44"/>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" hidden="1">
       <c r="A305" s="38" t="s">
         <v>58</v>
       </c>
@@ -13988,7 +13988,7 @@
       <c r="F305" s="41"/>
       <c r="G305" s="41"/>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" hidden="1">
       <c r="A306" s="38" t="s">
         <v>58</v>
       </c>
@@ -14003,7 +14003,7 @@
       <c r="F306" s="41"/>
       <c r="G306" s="41"/>
     </row>
-    <row r="307" spans="1:7" ht="30">
+    <row r="307" spans="1:7" ht="30" hidden="1">
       <c r="A307" s="38" t="s">
         <v>58</v>
       </c>
@@ -14020,7 +14020,7 @@
       <c r="F307" s="38"/>
       <c r="G307" s="44"/>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" hidden="1">
       <c r="A308" s="38" t="s">
         <v>58</v>
       </c>
@@ -14035,7 +14035,7 @@
       <c r="F308" s="41"/>
       <c r="G308" s="41"/>
     </row>
-    <row r="309" spans="1:7" ht="30">
+    <row r="309" spans="1:7" ht="30" hidden="1">
       <c r="A309" s="38" t="s">
         <v>58</v>
       </c>
@@ -14054,7 +14054,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" hidden="1">
       <c r="A310" s="38" t="s">
         <v>58</v>
       </c>
@@ -14071,7 +14071,7 @@
       <c r="F310" s="38"/>
       <c r="G310" s="44"/>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" hidden="1">
       <c r="A311" s="38" t="s">
         <v>58</v>
       </c>
@@ -14088,7 +14088,7 @@
       <c r="F311" s="38"/>
       <c r="G311" s="44"/>
     </row>
-    <row r="312" spans="1:7" ht="30">
+    <row r="312" spans="1:7" ht="30" hidden="1">
       <c r="A312" s="38" t="s">
         <v>58</v>
       </c>
@@ -14105,7 +14105,7 @@
       <c r="F312" s="38"/>
       <c r="G312" s="44"/>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" hidden="1">
       <c r="A313" s="38" t="s">
         <v>58</v>
       </c>
@@ -14122,7 +14122,7 @@
       <c r="F313" s="38"/>
       <c r="G313" s="44"/>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" hidden="1">
       <c r="A314" s="38" t="s">
         <v>58</v>
       </c>
@@ -14139,7 +14139,7 @@
       <c r="F314" s="38"/>
       <c r="G314" s="44"/>
     </row>
-    <row r="315" spans="1:7" ht="45">
+    <row r="315" spans="1:7" ht="45" hidden="1">
       <c r="A315" s="38" t="s">
         <v>58</v>
       </c>
@@ -14156,7 +14156,7 @@
       <c r="F315" s="38"/>
       <c r="G315" s="44"/>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" hidden="1">
       <c r="A316" s="38" t="s">
         <v>58</v>
       </c>
@@ -14171,7 +14171,7 @@
       <c r="F316" s="41"/>
       <c r="G316" s="48"/>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" hidden="1">
       <c r="A317" s="38" t="s">
         <v>58</v>
       </c>
@@ -14186,7 +14186,7 @@
       <c r="F317" s="41"/>
       <c r="G317" s="48"/>
     </row>
-    <row r="318" spans="1:7" ht="30">
+    <row r="318" spans="1:7" ht="30" hidden="1">
       <c r="A318" s="38" t="s">
         <v>58</v>
       </c>
@@ -14205,7 +14205,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" hidden="1">
       <c r="A319" s="38" t="s">
         <v>58</v>
       </c>
@@ -14222,7 +14222,7 @@
       <c r="F319" s="38"/>
       <c r="G319" s="38"/>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" hidden="1">
       <c r="A320" s="38" t="s">
         <v>58</v>
       </c>
@@ -14239,7 +14239,7 @@
       <c r="F320" s="38"/>
       <c r="G320" s="38"/>
     </row>
-    <row r="321" spans="1:7" ht="30">
+    <row r="321" spans="1:7" ht="30" hidden="1">
       <c r="A321" s="38" t="s">
         <v>58</v>
       </c>
@@ -14256,7 +14256,7 @@
       <c r="F321" s="38"/>
       <c r="G321" s="38"/>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" hidden="1">
       <c r="A322" s="38" t="s">
         <v>58</v>
       </c>
@@ -14273,7 +14273,7 @@
       <c r="F322" s="38"/>
       <c r="G322" s="38"/>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" hidden="1">
       <c r="A323" s="38" t="s">
         <v>58</v>
       </c>
@@ -14290,7 +14290,7 @@
       <c r="F323" s="38"/>
       <c r="G323" s="38"/>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" hidden="1">
       <c r="A324" s="38" t="s">
         <v>58</v>
       </c>
@@ -14307,7 +14307,7 @@
       <c r="F324" s="38"/>
       <c r="G324" s="38"/>
     </row>
-    <row r="325" spans="1:7" ht="30">
+    <row r="325" spans="1:7" ht="30" hidden="1">
       <c r="A325" s="38" t="s">
         <v>58</v>
       </c>
@@ -14324,7 +14324,7 @@
       <c r="F325" s="38"/>
       <c r="G325" s="38"/>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" hidden="1">
       <c r="A326" s="38" t="s">
         <v>58</v>
       </c>
@@ -14341,7 +14341,7 @@
       <c r="F326" s="38"/>
       <c r="G326" s="38"/>
     </row>
-    <row r="327" spans="1:7" ht="30">
+    <row r="327" spans="1:7" ht="30" hidden="1">
       <c r="A327" s="38" t="s">
         <v>58</v>
       </c>
@@ -14358,7 +14358,7 @@
       <c r="F327" s="38"/>
       <c r="G327" s="38"/>
     </row>
-    <row r="328" spans="1:7" ht="30">
+    <row r="328" spans="1:7" ht="30" hidden="1">
       <c r="A328" s="38" t="s">
         <v>58</v>
       </c>
@@ -14375,7 +14375,7 @@
       <c r="F328" s="38"/>
       <c r="G328" s="38"/>
     </row>
-    <row r="329" spans="1:7" ht="30">
+    <row r="329" spans="1:7" ht="30" hidden="1">
       <c r="A329" s="38" t="s">
         <v>58</v>
       </c>
@@ -14392,7 +14392,7 @@
       <c r="F329" s="38"/>
       <c r="G329" s="38"/>
     </row>
-    <row r="330" spans="1:7" ht="45">
+    <row r="330" spans="1:7" ht="45" hidden="1">
       <c r="A330" s="38" t="s">
         <v>58</v>
       </c>
@@ -14409,7 +14409,7 @@
       <c r="F330" s="38"/>
       <c r="G330" s="38"/>
     </row>
-    <row r="331" spans="1:7" ht="45">
+    <row r="331" spans="1:7" ht="45" hidden="1">
       <c r="A331" s="38" t="s">
         <v>58</v>
       </c>
@@ -14426,7 +14426,7 @@
       <c r="F331" s="38"/>
       <c r="G331" s="38"/>
     </row>
-    <row r="332" spans="1:7" ht="45">
+    <row r="332" spans="1:7" ht="45" hidden="1">
       <c r="A332" s="38" t="s">
         <v>58</v>
       </c>
@@ -14462,7 +14462,7 @@
       </c>
       <c r="G333" s="38"/>
     </row>
-    <row r="334" spans="1:7" ht="15.6">
+    <row r="334" spans="1:7" ht="15.6" hidden="1">
       <c r="A334" s="38" t="s">
         <v>58</v>
       </c>
@@ -14477,7 +14477,7 @@
       <c r="F334" s="41"/>
       <c r="G334" s="49"/>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:7" hidden="1">
       <c r="A335" s="38" t="s">
         <v>58</v>
       </c>
@@ -14492,7 +14492,7 @@
       <c r="F335" s="41"/>
       <c r="G335" s="48"/>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" hidden="1">
       <c r="A336" s="38" t="s">
         <v>58</v>
       </c>
@@ -14507,7 +14507,7 @@
       <c r="F336" s="41"/>
       <c r="G336" s="48"/>
     </row>
-    <row r="337" spans="1:7" ht="60">
+    <row r="337" spans="1:7" ht="60" hidden="1">
       <c r="A337" s="38" t="s">
         <v>58</v>
       </c>
@@ -14530,7 +14530,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" hidden="1">
       <c r="A338" s="38" t="s">
         <v>58</v>
       </c>
@@ -14551,7 +14551,7 @@
       </c>
       <c r="G338" s="44"/>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" hidden="1">
       <c r="A339" s="38" t="s">
         <v>58</v>
       </c>
@@ -14570,7 +14570,7 @@
       </c>
       <c r="G339" s="44"/>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:7" hidden="1">
       <c r="A340" s="38" t="s">
         <v>58</v>
       </c>
@@ -14585,7 +14585,7 @@
       <c r="F340" s="41"/>
       <c r="G340" s="41"/>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" hidden="1">
       <c r="A341" s="38" t="s">
         <v>58</v>
       </c>
@@ -14606,7 +14606,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" hidden="1">
       <c r="A342" s="38" t="s">
         <v>58</v>
       </c>
@@ -14625,7 +14625,7 @@
       </c>
       <c r="G342" s="44"/>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:7" hidden="1">
       <c r="A343" s="38" t="s">
         <v>58</v>
       </c>
@@ -14644,7 +14644,7 @@
       </c>
       <c r="G343" s="38"/>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:7" hidden="1">
       <c r="A344" s="38" t="s">
         <v>58</v>
       </c>
@@ -14663,7 +14663,7 @@
       </c>
       <c r="G344" s="44"/>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" hidden="1">
       <c r="A345" s="38" t="s">
         <v>58</v>
       </c>
@@ -14678,7 +14678,7 @@
       <c r="F345" s="41"/>
       <c r="G345" s="41"/>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" spans="1:7" hidden="1">
       <c r="A346" s="38" t="s">
         <v>58</v>
       </c>
@@ -14699,7 +14699,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:7" hidden="1">
       <c r="A347" s="38" t="s">
         <v>58</v>
       </c>
@@ -14718,7 +14718,7 @@
       </c>
       <c r="G347" s="44"/>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" hidden="1">
       <c r="A348" s="38" t="s">
         <v>58</v>
       </c>
@@ -14737,7 +14737,7 @@
       </c>
       <c r="G348" s="44"/>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" hidden="1">
       <c r="A349" s="38" t="s">
         <v>58</v>
       </c>
@@ -14756,7 +14756,7 @@
       </c>
       <c r="G349" s="44"/>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:7" hidden="1">
       <c r="A350" s="38" t="s">
         <v>58</v>
       </c>
@@ -14775,7 +14775,7 @@
       </c>
       <c r="G350" s="44"/>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" hidden="1">
       <c r="A351" s="38" t="s">
         <v>58</v>
       </c>
@@ -14790,7 +14790,7 @@
       <c r="F351" s="41"/>
       <c r="G351" s="41"/>
     </row>
-    <row r="352" spans="1:7" ht="45">
+    <row r="352" spans="1:7" ht="45" hidden="1">
       <c r="A352" s="38" t="s">
         <v>58</v>
       </c>
@@ -14811,7 +14811,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="353" spans="1:7" ht="30">
+    <row r="353" spans="1:7" ht="30" hidden="1">
       <c r="A353" s="38" t="s">
         <v>58</v>
       </c>
@@ -14830,7 +14830,7 @@
       </c>
       <c r="G353" s="44"/>
     </row>
-    <row r="354" spans="1:7" ht="37.5" customHeight="1">
+    <row r="354" spans="1:7" ht="37.5" hidden="1" customHeight="1">
       <c r="A354" s="38" t="s">
         <v>58</v>
       </c>
@@ -14849,7 +14849,7 @@
       </c>
       <c r="G354" s="38"/>
     </row>
-    <row r="355" spans="1:7" ht="30">
+    <row r="355" spans="1:7" ht="30" hidden="1">
       <c r="A355" s="38" t="s">
         <v>58</v>
       </c>
@@ -14868,7 +14868,7 @@
       </c>
       <c r="G355" s="44"/>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:7" hidden="1">
       <c r="A356" s="38" t="s">
         <v>58</v>
       </c>
@@ -14887,7 +14887,7 @@
       </c>
       <c r="G356" s="44"/>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" hidden="1">
       <c r="A357" s="38" t="s">
         <v>58</v>
       </c>
@@ -14902,7 +14902,7 @@
       <c r="F357" s="41"/>
       <c r="G357" s="41"/>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:7" hidden="1">
       <c r="A358" s="38" t="s">
         <v>58</v>
       </c>
@@ -14923,7 +14923,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:7" hidden="1">
       <c r="A359" s="38" t="s">
         <v>58</v>
       </c>
@@ -14942,7 +14942,7 @@
       </c>
       <c r="G359" s="38"/>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" hidden="1">
       <c r="A360" s="38" t="s">
         <v>58</v>
       </c>
@@ -14957,7 +14957,7 @@
       <c r="F360" s="41"/>
       <c r="G360" s="41"/>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:7" hidden="1">
       <c r="A361" s="38" t="s">
         <v>58</v>
       </c>
@@ -14978,7 +14978,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" hidden="1">
       <c r="A362" s="38" t="s">
         <v>58</v>
       </c>
@@ -14997,7 +14997,7 @@
       </c>
       <c r="G362" s="44"/>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" hidden="1">
       <c r="A363" s="38" t="s">
         <v>58</v>
       </c>
@@ -15016,7 +15016,7 @@
       </c>
       <c r="G363" s="44"/>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:7" hidden="1">
       <c r="A364" s="38" t="s">
         <v>58</v>
       </c>
@@ -15035,7 +15035,7 @@
       </c>
       <c r="G364" s="44"/>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:7" hidden="1">
       <c r="A365" s="38" t="s">
         <v>58</v>
       </c>
@@ -15056,7 +15056,7 @@
       </c>
       <c r="G365" s="38"/>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:7" hidden="1">
       <c r="A366" s="38" t="s">
         <v>58</v>
       </c>
@@ -15071,7 +15071,7 @@
       <c r="F366" s="41"/>
       <c r="G366" s="41"/>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:7" hidden="1">
       <c r="A367" s="38" t="s">
         <v>58</v>
       </c>
@@ -15086,7 +15086,7 @@
       <c r="F367" s="41"/>
       <c r="G367" s="41"/>
     </row>
-    <row r="368" spans="1:7" ht="60">
+    <row r="368" spans="1:7" ht="60" hidden="1">
       <c r="A368" s="38" t="s">
         <v>58</v>
       </c>
@@ -15109,7 +15109,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="369" spans="1:7" ht="30">
+    <row r="369" spans="1:7" ht="30" hidden="1">
       <c r="A369" s="38" t="s">
         <v>58</v>
       </c>
@@ -15130,7 +15130,7 @@
       </c>
       <c r="G369" s="44"/>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:7" hidden="1">
       <c r="A370" s="38" t="s">
         <v>58</v>
       </c>
@@ -15151,7 +15151,7 @@
       </c>
       <c r="G370" s="44"/>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:7" hidden="1">
       <c r="A371" s="38" t="s">
         <v>58</v>
       </c>
@@ -15166,7 +15166,7 @@
       <c r="F371" s="41"/>
       <c r="G371" s="41"/>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:7" hidden="1">
       <c r="A372" s="38" t="s">
         <v>58</v>
       </c>
@@ -15181,7 +15181,7 @@
       <c r="F372" s="41"/>
       <c r="G372" s="41"/>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" hidden="1">
       <c r="A373" s="38" t="s">
         <v>58</v>
       </c>
@@ -15202,7 +15202,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" spans="1:7" hidden="1">
       <c r="A374" s="38" t="s">
         <v>58</v>
       </c>
@@ -15221,7 +15221,7 @@
       </c>
       <c r="G374" s="44"/>
     </row>
-    <row r="375" spans="1:7" ht="30">
+    <row r="375" spans="1:7" ht="30" hidden="1">
       <c r="A375" s="38" t="s">
         <v>58</v>
       </c>
@@ -15240,7 +15240,7 @@
       </c>
       <c r="G375" s="44"/>
     </row>
-    <row r="376" spans="1:7" ht="30">
+    <row r="376" spans="1:7" ht="30" hidden="1">
       <c r="A376" s="38" t="s">
         <v>58</v>
       </c>
@@ -15259,7 +15259,7 @@
       </c>
       <c r="G376" s="44"/>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:7" hidden="1">
       <c r="A377" s="38" t="s">
         <v>58</v>
       </c>
@@ -15278,7 +15278,7 @@
       </c>
       <c r="G377" s="44"/>
     </row>
-    <row r="378" spans="1:7" ht="30">
+    <row r="378" spans="1:7" ht="30" hidden="1">
       <c r="A378" s="38" t="s">
         <v>58</v>
       </c>
@@ -15297,7 +15297,7 @@
       </c>
       <c r="G378" s="44"/>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" hidden="1">
       <c r="A379" s="38" t="s">
         <v>58</v>
       </c>
@@ -15312,7 +15312,7 @@
       <c r="F379" s="41"/>
       <c r="G379" s="41"/>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:7" hidden="1">
       <c r="A380" s="38" t="s">
         <v>58</v>
       </c>
@@ -15333,7 +15333,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" spans="1:7" hidden="1">
       <c r="A381" s="38" t="s">
         <v>58</v>
       </c>
@@ -15354,7 +15354,7 @@
       </c>
       <c r="G381" s="38"/>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" spans="1:7" hidden="1">
       <c r="A382" s="38" t="s">
         <v>58</v>
       </c>
@@ -15369,7 +15369,7 @@
       <c r="F382" s="41"/>
       <c r="G382" s="41"/>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" spans="1:7" hidden="1">
       <c r="A383" s="38" t="s">
         <v>58</v>
       </c>
@@ -15390,7 +15390,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:7" hidden="1">
       <c r="A384" s="38" t="s">
         <v>58</v>
       </c>
@@ -15409,7 +15409,7 @@
       </c>
       <c r="G384" s="44"/>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" hidden="1">
       <c r="A385" s="38" t="s">
         <v>58</v>
       </c>
@@ -15428,7 +15428,7 @@
       </c>
       <c r="G385" s="44"/>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" hidden="1">
       <c r="A386" s="38" t="s">
         <v>58</v>
       </c>
@@ -15447,7 +15447,7 @@
       </c>
       <c r="G386" s="38"/>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" hidden="1">
       <c r="A387" s="38" t="s">
         <v>58</v>
       </c>
@@ -15468,7 +15468,7 @@
       </c>
       <c r="G387" s="38"/>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" hidden="1">
       <c r="A388" s="38" t="s">
         <v>58</v>
       </c>
@@ -15483,7 +15483,7 @@
       <c r="F388" s="41"/>
       <c r="G388" s="41"/>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" hidden="1">
       <c r="A389" s="38" t="s">
         <v>58</v>
       </c>
@@ -15498,7 +15498,7 @@
       <c r="F389" s="41"/>
       <c r="G389" s="41"/>
     </row>
-    <row r="390" spans="1:7" ht="45">
+    <row r="390" spans="1:7" ht="45" hidden="1">
       <c r="A390" s="38" t="s">
         <v>58</v>
       </c>
@@ -15521,7 +15521,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="391" spans="1:7" ht="30">
+    <row r="391" spans="1:7" ht="30" hidden="1">
       <c r="A391" s="38" t="s">
         <v>58</v>
       </c>
@@ -15542,7 +15542,7 @@
       </c>
       <c r="G391" s="38"/>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:7" hidden="1">
       <c r="A392" s="38" t="s">
         <v>58</v>
       </c>
@@ -15563,7 +15563,7 @@
       </c>
       <c r="G392" s="44"/>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" hidden="1">
       <c r="A393" s="38" t="s">
         <v>58</v>
       </c>
@@ -15578,7 +15578,7 @@
       <c r="F393" s="41"/>
       <c r="G393" s="41"/>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:7" hidden="1">
       <c r="A394" s="38" t="s">
         <v>58</v>
       </c>
@@ -15593,7 +15593,7 @@
       <c r="F394" s="41"/>
       <c r="G394" s="41"/>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:7" hidden="1">
       <c r="A395" s="38" t="s">
         <v>58</v>
       </c>
@@ -15614,7 +15614,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:7" hidden="1">
       <c r="A396" s="38" t="s">
         <v>58</v>
       </c>
@@ -15633,7 +15633,7 @@
       </c>
       <c r="G396" s="44"/>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" hidden="1">
       <c r="A397" s="38" t="s">
         <v>58</v>
       </c>
@@ -15652,7 +15652,7 @@
       </c>
       <c r="G397" s="44"/>
     </row>
-    <row r="398" spans="1:7" ht="30">
+    <row r="398" spans="1:7" ht="30" hidden="1">
       <c r="A398" s="38" t="s">
         <v>58</v>
       </c>
@@ -15671,7 +15671,7 @@
       </c>
       <c r="G398" s="44"/>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" hidden="1">
       <c r="A399" s="38" t="s">
         <v>58</v>
       </c>
@@ -15690,7 +15690,7 @@
       </c>
       <c r="G399" s="44"/>
     </row>
-    <row r="400" spans="1:7" ht="30">
+    <row r="400" spans="1:7" ht="30" hidden="1">
       <c r="A400" s="38" t="s">
         <v>58</v>
       </c>
@@ -15709,7 +15709,7 @@
       </c>
       <c r="G400" s="44"/>
     </row>
-    <row r="401" spans="1:7">
+    <row r="401" spans="1:7" hidden="1">
       <c r="A401" s="38" t="s">
         <v>58</v>
       </c>
@@ -15724,7 +15724,7 @@
       <c r="F401" s="41"/>
       <c r="G401" s="41"/>
     </row>
-    <row r="402" spans="1:7">
+    <row r="402" spans="1:7" hidden="1">
       <c r="A402" s="38" t="s">
         <v>58</v>
       </c>
@@ -15745,7 +15745,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" spans="1:7" hidden="1">
       <c r="A403" s="38" t="s">
         <v>58</v>
       </c>
@@ -15766,7 +15766,7 @@
       </c>
       <c r="G403" s="38"/>
     </row>
-    <row r="404" spans="1:7">
+    <row r="404" spans="1:7" hidden="1">
       <c r="A404" s="38" t="s">
         <v>58</v>
       </c>
@@ -15781,7 +15781,7 @@
       <c r="F404" s="41"/>
       <c r="G404" s="41"/>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" spans="1:7" hidden="1">
       <c r="A405" s="38" t="s">
         <v>58</v>
       </c>
@@ -15802,7 +15802,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" spans="1:7" hidden="1">
       <c r="A406" s="38" t="s">
         <v>58</v>
       </c>
@@ -15821,7 +15821,7 @@
       </c>
       <c r="G406" s="44"/>
     </row>
-    <row r="407" spans="1:7">
+    <row r="407" spans="1:7" hidden="1">
       <c r="A407" s="38" t="s">
         <v>58</v>
       </c>
@@ -15840,7 +15840,7 @@
       </c>
       <c r="G407" s="44"/>
     </row>
-    <row r="408" spans="1:7">
+    <row r="408" spans="1:7" hidden="1">
       <c r="A408" s="38" t="s">
         <v>58</v>
       </c>
@@ -15859,7 +15859,7 @@
       </c>
       <c r="G408" s="38"/>
     </row>
-    <row r="409" spans="1:7">
+    <row r="409" spans="1:7" hidden="1">
       <c r="A409" s="38" t="s">
         <v>58</v>
       </c>
@@ -15880,7 +15880,7 @@
       </c>
       <c r="G409" s="38"/>
     </row>
-    <row r="410" spans="1:7">
+    <row r="410" spans="1:7" hidden="1">
       <c r="A410" s="38" t="s">
         <v>58</v>
       </c>
@@ -15895,7 +15895,7 @@
       <c r="F410" s="41"/>
       <c r="G410" s="41"/>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" spans="1:7" hidden="1">
       <c r="A411" s="38" t="s">
         <v>58</v>
       </c>
@@ -15910,7 +15910,7 @@
       <c r="F411" s="41"/>
       <c r="G411" s="41"/>
     </row>
-    <row r="412" spans="1:7" ht="45">
+    <row r="412" spans="1:7" ht="45" hidden="1">
       <c r="A412" s="38" t="s">
         <v>58</v>
       </c>
@@ -15933,7 +15933,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="413" spans="1:7">
+    <row r="413" spans="1:7" hidden="1">
       <c r="A413" s="38" t="s">
         <v>58</v>
       </c>
@@ -15954,7 +15954,7 @@
       </c>
       <c r="G413" s="44"/>
     </row>
-    <row r="414" spans="1:7">
+    <row r="414" spans="1:7" hidden="1">
       <c r="A414" s="38" t="s">
         <v>58</v>
       </c>
@@ -15975,7 +15975,7 @@
       </c>
       <c r="G414" s="44"/>
     </row>
-    <row r="415" spans="1:7">
+    <row r="415" spans="1:7" hidden="1">
       <c r="A415" s="38" t="s">
         <v>58</v>
       </c>
@@ -15990,7 +15990,7 @@
       <c r="F415" s="41"/>
       <c r="G415" s="41"/>
     </row>
-    <row r="416" spans="1:7">
+    <row r="416" spans="1:7" hidden="1">
       <c r="A416" s="38" t="s">
         <v>58</v>
       </c>
@@ -16005,7 +16005,7 @@
       <c r="F416" s="41"/>
       <c r="G416" s="41"/>
     </row>
-    <row r="417" spans="1:7">
+    <row r="417" spans="1:7" hidden="1">
       <c r="A417" s="38" t="s">
         <v>58</v>
       </c>
@@ -16026,7 +16026,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="418" spans="1:7">
+    <row r="418" spans="1:7" hidden="1">
       <c r="A418" s="38" t="s">
         <v>58</v>
       </c>
@@ -16045,7 +16045,7 @@
       </c>
       <c r="G418" s="44"/>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" spans="1:7" hidden="1">
       <c r="A419" s="38" t="s">
         <v>58</v>
       </c>
@@ -16064,7 +16064,7 @@
       </c>
       <c r="G419" s="44"/>
     </row>
-    <row r="420" spans="1:7">
+    <row r="420" spans="1:7" hidden="1">
       <c r="A420" s="38" t="s">
         <v>58</v>
       </c>
@@ -16083,7 +16083,7 @@
       </c>
       <c r="G420" s="38"/>
     </row>
-    <row r="421" spans="1:7">
+    <row r="421" spans="1:7" hidden="1">
       <c r="A421" s="38" t="s">
         <v>58</v>
       </c>
@@ -16098,7 +16098,7 @@
       <c r="F421" s="41"/>
       <c r="G421" s="41"/>
     </row>
-    <row r="422" spans="1:7">
+    <row r="422" spans="1:7" hidden="1">
       <c r="A422" s="38" t="s">
         <v>58</v>
       </c>
@@ -16119,7 +16119,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="423" spans="1:7">
+    <row r="423" spans="1:7" hidden="1">
       <c r="A423" s="38" t="s">
         <v>58</v>
       </c>
@@ -16138,7 +16138,7 @@
       </c>
       <c r="G423" s="38"/>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" spans="1:7" hidden="1">
       <c r="A424" s="38" t="s">
         <v>58</v>
       </c>
@@ -16157,7 +16157,7 @@
       </c>
       <c r="G424" s="38"/>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" spans="1:7" hidden="1">
       <c r="A425" s="38" t="s">
         <v>58</v>
       </c>
@@ -16172,7 +16172,7 @@
       <c r="F425" s="41"/>
       <c r="G425" s="41"/>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" spans="1:7" hidden="1">
       <c r="A426" s="38" t="s">
         <v>58</v>
       </c>
@@ -16193,7 +16193,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" spans="1:7" hidden="1">
       <c r="A427" s="38" t="s">
         <v>58</v>
       </c>
@@ -16212,7 +16212,7 @@
       </c>
       <c r="G427" s="44"/>
     </row>
-    <row r="428" spans="1:7">
+    <row r="428" spans="1:7" hidden="1">
       <c r="A428" s="38" t="s">
         <v>58</v>
       </c>
@@ -16231,7 +16231,7 @@
       </c>
       <c r="G428" s="44"/>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" hidden="1">
       <c r="A429" s="38" t="s">
         <v>58</v>
       </c>
@@ -16250,7 +16250,7 @@
       </c>
       <c r="G429" s="38"/>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" spans="1:7" hidden="1">
       <c r="A430" s="38" t="s">
         <v>58</v>
       </c>
@@ -16269,7 +16269,7 @@
       </c>
       <c r="G430" s="44"/>
     </row>
-    <row r="431" spans="1:7" ht="30">
+    <row r="431" spans="1:7" ht="30" hidden="1">
       <c r="A431" s="38" t="s">
         <v>58</v>
       </c>
@@ -16288,7 +16288,7 @@
       </c>
       <c r="G431" s="44"/>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" spans="1:7" hidden="1">
       <c r="A432" s="38" t="s">
         <v>58</v>
       </c>
@@ -16305,7 +16305,7 @@
       </c>
       <c r="G432" s="41"/>
     </row>
-    <row r="433" spans="1:7" ht="45">
+    <row r="433" spans="1:7" ht="45" hidden="1">
       <c r="A433" s="38" t="s">
         <v>58</v>
       </c>
@@ -16326,7 +16326,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="434" spans="1:7" ht="30">
+    <row r="434" spans="1:7" ht="30" hidden="1">
       <c r="A434" s="38" t="s">
         <v>58</v>
       </c>
@@ -16345,7 +16345,7 @@
       </c>
       <c r="G434" s="44"/>
     </row>
-    <row r="435" spans="1:7">
+    <row r="435" spans="1:7" hidden="1">
       <c r="A435" s="38" t="s">
         <v>58</v>
       </c>
@@ -16366,7 +16366,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="436" spans="1:7">
+    <row r="436" spans="1:7" hidden="1">
       <c r="A436" s="38" t="s">
         <v>58</v>
       </c>
@@ -16385,7 +16385,7 @@
       </c>
       <c r="G436" s="44"/>
     </row>
-    <row r="437" spans="1:7">
+    <row r="437" spans="1:7" hidden="1">
       <c r="A437" s="38" t="s">
         <v>58</v>
       </c>
@@ -16402,7 +16402,7 @@
       </c>
       <c r="G437" s="41"/>
     </row>
-    <row r="438" spans="1:7">
+    <row r="438" spans="1:7" hidden="1">
       <c r="A438" s="38" t="s">
         <v>58</v>
       </c>
@@ -16423,7 +16423,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="439" spans="1:7">
+    <row r="439" spans="1:7" hidden="1">
       <c r="A439" s="38" t="s">
         <v>58</v>
       </c>
@@ -16444,7 +16444,7 @@
       </c>
       <c r="G439" s="38"/>
     </row>
-    <row r="440" spans="1:7">
+    <row r="440" spans="1:7" hidden="1">
       <c r="A440" s="38" t="s">
         <v>58</v>
       </c>
@@ -16461,7 +16461,7 @@
       </c>
       <c r="G440" s="41"/>
     </row>
-    <row r="441" spans="1:7">
+    <row r="441" spans="1:7" hidden="1">
       <c r="A441" s="38" t="s">
         <v>58</v>
       </c>
@@ -16482,7 +16482,7 @@
       </c>
       <c r="G441" s="38"/>
     </row>
-    <row r="442" spans="1:7">
+    <row r="442" spans="1:7" hidden="1">
       <c r="A442" s="38" t="s">
         <v>58</v>
       </c>
@@ -16499,7 +16499,7 @@
       </c>
       <c r="G442" s="37"/>
     </row>
-    <row r="443" spans="1:7">
+    <row r="443" spans="1:7" hidden="1">
       <c r="A443" s="38" t="s">
         <v>58</v>
       </c>
@@ -16518,7 +16518,7 @@
       </c>
       <c r="G443" s="44"/>
     </row>
-    <row r="444" spans="1:7">
+    <row r="444" spans="1:7" hidden="1">
       <c r="A444" s="38" t="s">
         <v>58</v>
       </c>
@@ -16537,7 +16537,7 @@
       </c>
       <c r="G444" s="44"/>
     </row>
-    <row r="445" spans="1:7">
+    <row r="445" spans="1:7" hidden="1">
       <c r="A445" s="38" t="s">
         <v>58</v>
       </c>
@@ -16556,7 +16556,7 @@
       </c>
       <c r="G445" s="44"/>
     </row>
-    <row r="446" spans="1:7">
+    <row r="446" spans="1:7" hidden="1">
       <c r="A446" s="38" t="s">
         <v>58</v>
       </c>
@@ -16573,7 +16573,7 @@
       </c>
       <c r="G446" s="37"/>
     </row>
-    <row r="447" spans="1:7">
+    <row r="447" spans="1:7" hidden="1">
       <c r="A447" s="38" t="s">
         <v>58</v>
       </c>
@@ -16592,7 +16592,7 @@
       </c>
       <c r="G447" s="44"/>
     </row>
-    <row r="448" spans="1:7">
+    <row r="448" spans="1:7" hidden="1">
       <c r="A448" s="38" t="s">
         <v>58</v>
       </c>
@@ -16611,7 +16611,7 @@
       </c>
       <c r="G448" s="44"/>
     </row>
-    <row r="449" spans="1:7">
+    <row r="449" spans="1:7" hidden="1">
       <c r="A449" s="38" t="s">
         <v>58</v>
       </c>
@@ -16628,7 +16628,7 @@
       </c>
       <c r="G449" s="37"/>
     </row>
-    <row r="450" spans="1:7">
+    <row r="450" spans="1:7" hidden="1">
       <c r="A450" s="38" t="s">
         <v>58</v>
       </c>
@@ -16645,7 +16645,7 @@
       </c>
       <c r="G450" s="41"/>
     </row>
-    <row r="451" spans="1:7" ht="45">
+    <row r="451" spans="1:7" ht="45" hidden="1">
       <c r="A451" s="38" t="s">
         <v>58</v>
       </c>
@@ -16666,7 +16666,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="452" spans="1:7">
+    <row r="452" spans="1:7" hidden="1">
       <c r="A452" s="38" t="s">
         <v>58</v>
       </c>
@@ -16685,7 +16685,7 @@
       </c>
       <c r="G452" s="44"/>
     </row>
-    <row r="453" spans="1:7">
+    <row r="453" spans="1:7" hidden="1">
       <c r="A453" s="38" t="s">
         <v>58</v>
       </c>
@@ -16704,7 +16704,7 @@
       </c>
       <c r="G453" s="44"/>
     </row>
-    <row r="454" spans="1:7">
+    <row r="454" spans="1:7" hidden="1">
       <c r="A454" s="38" t="s">
         <v>58</v>
       </c>
@@ -16721,7 +16721,7 @@
       </c>
       <c r="G454" s="41"/>
     </row>
-    <row r="455" spans="1:7">
+    <row r="455" spans="1:7" hidden="1">
       <c r="A455" s="38" t="s">
         <v>58</v>
       </c>
@@ -16738,7 +16738,7 @@
       </c>
       <c r="G455" s="41"/>
     </row>
-    <row r="456" spans="1:7">
+    <row r="456" spans="1:7" hidden="1">
       <c r="A456" s="38" t="s">
         <v>58</v>
       </c>
@@ -16759,7 +16759,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="457" spans="1:7">
+    <row r="457" spans="1:7" hidden="1">
       <c r="A457" s="38" t="s">
         <v>58</v>
       </c>
@@ -16778,7 +16778,7 @@
       </c>
       <c r="G457" s="44"/>
     </row>
-    <row r="458" spans="1:7">
+    <row r="458" spans="1:7" hidden="1">
       <c r="A458" s="38" t="s">
         <v>58</v>
       </c>
@@ -16797,7 +16797,7 @@
       </c>
       <c r="G458" s="38"/>
     </row>
-    <row r="459" spans="1:7">
+    <row r="459" spans="1:7" hidden="1">
       <c r="A459" s="38" t="s">
         <v>58</v>
       </c>
@@ -16816,7 +16816,7 @@
       </c>
       <c r="G459" s="38"/>
     </row>
-    <row r="460" spans="1:7">
+    <row r="460" spans="1:7" hidden="1">
       <c r="A460" s="38" t="s">
         <v>58</v>
       </c>
@@ -16833,7 +16833,7 @@
       </c>
       <c r="G460" s="38"/>
     </row>
-    <row r="461" spans="1:7" ht="30">
+    <row r="461" spans="1:7" ht="30" hidden="1">
       <c r="A461" s="38" t="s">
         <v>58</v>
       </c>
@@ -16852,7 +16852,7 @@
       </c>
       <c r="G461" s="38"/>
     </row>
-    <row r="462" spans="1:7">
+    <row r="462" spans="1:7" hidden="1">
       <c r="A462" s="38" t="s">
         <v>58</v>
       </c>
@@ -16871,7 +16871,7 @@
       </c>
       <c r="G462" s="38"/>
     </row>
-    <row r="463" spans="1:7">
+    <row r="463" spans="1:7" hidden="1">
       <c r="A463" s="38" t="s">
         <v>58</v>
       </c>
@@ -16888,7 +16888,7 @@
       </c>
       <c r="G463" s="41"/>
     </row>
-    <row r="464" spans="1:7">
+    <row r="464" spans="1:7" hidden="1">
       <c r="A464" s="38" t="s">
         <v>58</v>
       </c>
@@ -16909,7 +16909,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="465" spans="1:7">
+    <row r="465" spans="1:7" hidden="1">
       <c r="A465" s="38" t="s">
         <v>58</v>
       </c>
@@ -16928,7 +16928,7 @@
       </c>
       <c r="G465" s="38"/>
     </row>
-    <row r="466" spans="1:7">
+    <row r="466" spans="1:7" hidden="1">
       <c r="A466" s="38" t="s">
         <v>58</v>
       </c>
@@ -16945,7 +16945,7 @@
       </c>
       <c r="G466" s="41"/>
     </row>
-    <row r="467" spans="1:7">
+    <row r="467" spans="1:7" hidden="1">
       <c r="A467" s="38" t="s">
         <v>58</v>
       </c>
@@ -16966,7 +16966,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="468" spans="1:7">
+    <row r="468" spans="1:7" hidden="1">
       <c r="A468" s="38" t="s">
         <v>58</v>
       </c>
@@ -16985,7 +16985,7 @@
       </c>
       <c r="G468" s="44"/>
     </row>
-    <row r="469" spans="1:7">
+    <row r="469" spans="1:7" hidden="1">
       <c r="A469" s="38" t="s">
         <v>58</v>
       </c>
@@ -17004,7 +17004,7 @@
       </c>
       <c r="G469" s="44"/>
     </row>
-    <row r="470" spans="1:7">
+    <row r="470" spans="1:7" hidden="1">
       <c r="A470" s="38" t="s">
         <v>58</v>
       </c>
@@ -17023,7 +17023,7 @@
       </c>
       <c r="G470" s="38"/>
     </row>
-    <row r="471" spans="1:7">
+    <row r="471" spans="1:7" hidden="1">
       <c r="A471" s="38" t="s">
         <v>58</v>
       </c>
@@ -17043,7 +17043,13 @@
       <c r="G471" s="38"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B471" xr:uid="{F5B8AE39-BAB2-4849-9040-0FCE2842B6A7}"/>
+  <autoFilter ref="D1:D471" xr:uid="{C8044F9B-C0F5-4A9A-9153-DF217C7D796E}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="CMS.17"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -20767,7 +20773,9 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>

--- a/conformancelib/testdata/85b_test_definitions_PIV_Production_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV_Production_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geoff\gsa-devel\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E2E77D-DF5B-461F-AE09-261FB5D1F310}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F879EC9-C9F5-4E00-B20F-BFDF783E51E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -24,14 +24,14 @@
     <sheet name="Placeholders" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Steps Overview'!$D$1:$D$471</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Steps Overview'!$B$1:$B$471</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3773" uniqueCount="1311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3772" uniqueCount="1310">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -3271,9 +3271,6 @@
   </si>
   <si>
     <t>Confirm id-PIV-cardAuth exists in extendedKeyUsage extension and does not assert any other OIDs</t>
-  </si>
-  <si>
-    <t>2.16.840.1.101.3.6.8</t>
   </si>
   <si>
     <t>Card Auth id-PIV-cardAuth EKU keyPurposeID OID</t>
@@ -8533,8 +8530,8 @@
   <sheetPr codeName="Sheet2" filterMode="1"/>
   <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F472" sqref="F472"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -8568,7 +8565,7 @@
         <v>56</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="G1" s="33" t="s">
         <v>55</v>
@@ -8580,7 +8577,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C2" s="36" t="s">
         <v>0</v>
@@ -8610,10 +8607,10 @@
         <v>58</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>1249</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>1250</v>
       </c>
       <c r="D4" s="37"/>
       <c r="E4" s="37"/>
@@ -8635,7 +8632,7 @@
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="38" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="G5" s="38" t="s">
         <v>61</v>
@@ -8656,7 +8653,7 @@
       </c>
       <c r="E6" s="38"/>
       <c r="F6" s="38" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="G6" s="38"/>
     </row>
@@ -8675,7 +8672,7 @@
       </c>
       <c r="E7" s="38"/>
       <c r="F7" s="38" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="G7" s="38"/>
     </row>
@@ -8694,7 +8691,7 @@
       </c>
       <c r="E8" s="38"/>
       <c r="F8" s="38" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="G8" s="38"/>
     </row>
@@ -8713,7 +8710,7 @@
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="38" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="G9" s="38"/>
     </row>
@@ -8732,7 +8729,7 @@
       </c>
       <c r="E10" s="38"/>
       <c r="F10" s="38" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="G10" s="38"/>
     </row>
@@ -8751,7 +8748,7 @@
       </c>
       <c r="E11" s="38"/>
       <c r="F11" s="38" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="G11" s="38"/>
     </row>
@@ -8770,7 +8767,7 @@
       </c>
       <c r="E12" s="38"/>
       <c r="F12" s="38" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="G12" s="38"/>
     </row>
@@ -8789,7 +8786,7 @@
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="38" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="G13" s="38"/>
     </row>
@@ -8808,7 +8805,7 @@
       </c>
       <c r="E14" s="38"/>
       <c r="F14" s="38" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="G14" s="38"/>
     </row>
@@ -8827,7 +8824,7 @@
       </c>
       <c r="E15" s="38"/>
       <c r="F15" s="38" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="G15" s="38"/>
     </row>
@@ -8851,10 +8848,10 @@
         <v>58</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
@@ -8876,7 +8873,7 @@
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="38" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G18" s="38" t="s">
         <v>95</v>
@@ -8897,7 +8894,7 @@
       </c>
       <c r="E19" s="38"/>
       <c r="F19" s="38" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G19" s="38"/>
     </row>
@@ -8916,7 +8913,7 @@
       </c>
       <c r="E20" s="38"/>
       <c r="F20" s="38" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G20" s="38"/>
     </row>
@@ -8935,7 +8932,7 @@
       </c>
       <c r="E21" s="38"/>
       <c r="F21" s="38" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G21" s="38"/>
     </row>
@@ -8954,7 +8951,7 @@
       </c>
       <c r="E22" s="38"/>
       <c r="F22" s="38" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G22" s="38"/>
     </row>
@@ -8966,14 +8963,14 @@
         <v>102</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>104</v>
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="38" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G23" s="38"/>
     </row>
@@ -8985,14 +8982,14 @@
         <v>105</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="39" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G24" s="39"/>
     </row>
@@ -9011,7 +9008,7 @@
       </c>
       <c r="E25" s="38"/>
       <c r="F25" s="38" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G25" s="38"/>
     </row>
@@ -9023,14 +9020,14 @@
         <v>111</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D26" s="38" t="s">
         <v>110</v>
       </c>
       <c r="E26" s="38"/>
       <c r="F26" s="38" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G26" s="38"/>
     </row>
@@ -9042,14 +9039,14 @@
         <v>114</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="39" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G27" s="39"/>
     </row>
@@ -9061,14 +9058,14 @@
         <v>117</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="39" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G28" s="39"/>
     </row>
@@ -9077,34 +9074,34 @@
         <v>58</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="E29" s="39"/>
       <c r="F29" s="39" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G29" s="39"/>
     </row>
     <row r="30" spans="1:7" hidden="1">
       <c r="A30" s="39"/>
       <c r="B30" s="39" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="39" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G30" s="39"/>
     </row>
@@ -9113,17 +9110,17 @@
         <v>58</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D31" s="38" t="s">
         <v>113</v>
       </c>
       <c r="E31" s="38"/>
       <c r="F31" s="38" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G31" s="38"/>
     </row>
@@ -9132,7 +9129,7 @@
         <v>58</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C32" s="38" t="s">
         <v>115</v>
@@ -9142,7 +9139,7 @@
       </c>
       <c r="E32" s="38"/>
       <c r="F32" s="38" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G32" s="38"/>
     </row>
@@ -9151,17 +9148,17 @@
         <v>58</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="E33" s="39"/>
       <c r="F33" s="39" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G33" s="39"/>
     </row>
@@ -9170,17 +9167,17 @@
         <v>58</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="E34" s="39"/>
       <c r="F34" s="39" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G34" s="39"/>
     </row>
@@ -9189,17 +9186,17 @@
         <v>58</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E35" s="39"/>
       <c r="F35" s="39" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G35" s="39"/>
     </row>
@@ -9208,17 +9205,17 @@
         <v>58</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="E36" s="39"/>
       <c r="F36" s="39" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G36" s="39"/>
     </row>
@@ -9227,7 +9224,7 @@
         <v>58</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C37" s="38" t="s">
         <v>118</v>
@@ -9237,7 +9234,7 @@
       </c>
       <c r="E37" s="38"/>
       <c r="F37" s="38" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G37" s="38"/>
     </row>
@@ -9256,7 +9253,7 @@
       </c>
       <c r="E38" s="38"/>
       <c r="F38" s="38" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G38" s="38"/>
     </row>
@@ -9275,7 +9272,7 @@
       </c>
       <c r="E39" s="38"/>
       <c r="F39" s="38" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G39" s="38"/>
     </row>
@@ -9294,7 +9291,7 @@
       </c>
       <c r="E40" s="38"/>
       <c r="F40" s="38" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G40" s="38"/>
     </row>
@@ -9313,7 +9310,7 @@
       </c>
       <c r="E41" s="38"/>
       <c r="F41" s="38" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G41" s="38"/>
     </row>
@@ -9322,7 +9319,7 @@
         <v>131</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C42" s="38" t="s">
         <v>133</v>
@@ -9332,7 +9329,7 @@
       </c>
       <c r="E42" s="38"/>
       <c r="F42" s="38" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G42" s="38"/>
     </row>
@@ -9356,10 +9353,10 @@
         <v>58</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
@@ -9381,7 +9378,7 @@
       </c>
       <c r="E45" s="38"/>
       <c r="F45" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G45" s="38" t="s">
         <v>136</v>
@@ -9402,7 +9399,7 @@
       </c>
       <c r="E46" s="38"/>
       <c r="F46" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G46" s="38"/>
     </row>
@@ -9421,7 +9418,7 @@
       </c>
       <c r="E47" s="38"/>
       <c r="F47" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G47" s="38"/>
     </row>
@@ -9440,7 +9437,7 @@
       </c>
       <c r="E48" s="38"/>
       <c r="F48" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G48" s="38"/>
     </row>
@@ -9459,7 +9456,7 @@
       </c>
       <c r="E49" s="38"/>
       <c r="F49" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G49" s="38"/>
     </row>
@@ -9478,7 +9475,7 @@
       </c>
       <c r="E50" s="38"/>
       <c r="F50" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G50" s="38"/>
     </row>
@@ -9497,7 +9494,7 @@
       </c>
       <c r="E51" s="38"/>
       <c r="F51" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G51" s="38"/>
     </row>
@@ -9516,7 +9513,7 @@
       </c>
       <c r="E52" s="38"/>
       <c r="F52" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G52" s="38"/>
     </row>
@@ -9535,7 +9532,7 @@
       </c>
       <c r="E53" s="38"/>
       <c r="F53" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G53" s="38"/>
     </row>
@@ -9544,7 +9541,7 @@
         <v>131</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C54" s="38" t="s">
         <v>133</v>
@@ -9554,7 +9551,7 @@
       </c>
       <c r="E54" s="38"/>
       <c r="F54" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G54" s="38"/>
     </row>
@@ -9578,10 +9575,10 @@
         <v>58</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D56" s="37"/>
       <c r="E56" s="37"/>
@@ -9603,7 +9600,7 @@
       </c>
       <c r="E57" s="38"/>
       <c r="F57" s="38" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G57" s="38" t="s">
         <v>158</v>
@@ -9624,7 +9621,7 @@
       </c>
       <c r="E58" s="38"/>
       <c r="F58" s="38" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G58" s="38"/>
     </row>
@@ -9643,7 +9640,7 @@
       </c>
       <c r="E59" s="38"/>
       <c r="F59" s="38" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G59" s="38"/>
     </row>
@@ -9662,7 +9659,7 @@
       </c>
       <c r="E60" s="38"/>
       <c r="F60" s="38" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G60" s="38"/>
     </row>
@@ -9681,7 +9678,7 @@
       </c>
       <c r="E61" s="38"/>
       <c r="F61" s="38" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G61" s="38"/>
     </row>
@@ -9700,7 +9697,7 @@
       </c>
       <c r="E62" s="38"/>
       <c r="F62" s="38" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G62" s="38"/>
     </row>
@@ -9719,7 +9716,7 @@
       </c>
       <c r="E63" s="38"/>
       <c r="F63" s="38" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G63" s="38"/>
     </row>
@@ -9738,7 +9735,7 @@
       </c>
       <c r="E64" s="38"/>
       <c r="F64" s="38" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G64" s="38"/>
     </row>
@@ -9757,7 +9754,7 @@
       </c>
       <c r="E65" s="38"/>
       <c r="F65" s="38" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G65" s="38"/>
     </row>
@@ -9781,10 +9778,10 @@
         <v>58</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D67" s="37"/>
       <c r="E67" s="37"/>
@@ -9806,7 +9803,7 @@
       </c>
       <c r="E68" s="38"/>
       <c r="F68" s="38" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G68" s="38" t="s">
         <v>169</v>
@@ -9827,7 +9824,7 @@
       </c>
       <c r="E69" s="38"/>
       <c r="F69" s="38" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G69" s="38"/>
     </row>
@@ -9846,7 +9843,7 @@
       </c>
       <c r="E70" s="38"/>
       <c r="F70" s="38" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G70" s="38"/>
     </row>
@@ -9865,7 +9862,7 @@
       </c>
       <c r="E71" s="38"/>
       <c r="F71" s="38" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G71" s="38"/>
     </row>
@@ -9884,7 +9881,7 @@
       </c>
       <c r="E72" s="40"/>
       <c r="F72" s="38" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G72" s="38"/>
     </row>
@@ -9903,7 +9900,7 @@
       </c>
       <c r="E73" s="38"/>
       <c r="F73" s="38" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G73" s="38"/>
     </row>
@@ -9915,14 +9912,14 @@
         <v>179</v>
       </c>
       <c r="C74" s="39" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D74" s="39" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="E74" s="39"/>
       <c r="F74" s="39" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G74" s="39"/>
     </row>
@@ -9934,14 +9931,14 @@
         <v>182</v>
       </c>
       <c r="C75" s="39" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D75" s="39" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="E75" s="39"/>
       <c r="F75" s="39" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G75" s="39"/>
     </row>
@@ -9960,7 +9957,7 @@
       </c>
       <c r="E76" s="38"/>
       <c r="F76" s="38" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G76" s="38"/>
     </row>
@@ -9969,7 +9966,7 @@
         <v>58</v>
       </c>
       <c r="B77" s="38" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C77" s="38" t="s">
         <v>183</v>
@@ -9979,7 +9976,7 @@
       </c>
       <c r="E77" s="38"/>
       <c r="F77" s="38" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G77" s="38"/>
     </row>
@@ -9988,7 +9985,7 @@
         <v>58</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C78" s="38" t="s">
         <v>186</v>
@@ -9998,7 +9995,7 @@
       </c>
       <c r="E78" s="38"/>
       <c r="F78" s="38" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G78" s="38"/>
     </row>
@@ -10007,7 +10004,7 @@
         <v>131</v>
       </c>
       <c r="B79" s="38" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C79" s="38" t="s">
         <v>133</v>
@@ -10017,7 +10014,7 @@
       </c>
       <c r="E79" s="38"/>
       <c r="F79" s="38" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G79" s="38"/>
     </row>
@@ -10026,7 +10023,7 @@
         <v>58</v>
       </c>
       <c r="B80" s="38" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C80" s="37" t="s">
         <v>6</v>
@@ -10041,10 +10038,10 @@
         <v>58</v>
       </c>
       <c r="B81" s="38" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D81" s="37"/>
       <c r="E81" s="37"/>
@@ -10066,7 +10063,7 @@
       </c>
       <c r="E82" s="38"/>
       <c r="F82" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G82" s="38" t="s">
         <v>191</v>
@@ -10087,7 +10084,7 @@
       </c>
       <c r="E83" s="38"/>
       <c r="F83" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G83" s="38"/>
     </row>
@@ -10106,7 +10103,7 @@
       </c>
       <c r="E84" s="38"/>
       <c r="F84" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G84" s="38"/>
     </row>
@@ -10125,7 +10122,7 @@
       </c>
       <c r="E85" s="38"/>
       <c r="F85" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G85" s="38"/>
     </row>
@@ -10144,7 +10141,7 @@
       </c>
       <c r="E86" s="38"/>
       <c r="F86" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G86" s="38"/>
     </row>
@@ -10163,7 +10160,7 @@
       </c>
       <c r="E87" s="38"/>
       <c r="F87" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G87" s="38"/>
     </row>
@@ -10182,7 +10179,7 @@
       </c>
       <c r="E88" s="38"/>
       <c r="F88" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G88" s="38"/>
     </row>
@@ -10191,7 +10188,7 @@
         <v>131</v>
       </c>
       <c r="B89" s="38" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C89" s="38" t="s">
         <v>133</v>
@@ -10201,7 +10198,7 @@
       </c>
       <c r="E89" s="38"/>
       <c r="F89" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G89" s="38"/>
     </row>
@@ -10225,10 +10222,10 @@
         <v>58</v>
       </c>
       <c r="B91" s="38" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D91" s="37"/>
       <c r="E91" s="37"/>
@@ -10250,7 +10247,7 @@
       </c>
       <c r="E92" s="38"/>
       <c r="F92" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G92" s="38" t="s">
         <v>207</v>
@@ -10271,7 +10268,7 @@
       </c>
       <c r="E93" s="38"/>
       <c r="F93" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G93" s="38"/>
     </row>
@@ -10290,7 +10287,7 @@
       </c>
       <c r="E94" s="38"/>
       <c r="F94" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G94" s="38"/>
     </row>
@@ -10309,7 +10306,7 @@
       </c>
       <c r="E95" s="38"/>
       <c r="F95" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G95" s="38"/>
     </row>
@@ -10328,7 +10325,7 @@
       </c>
       <c r="E96" s="38"/>
       <c r="F96" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G96" s="38"/>
     </row>
@@ -10347,7 +10344,7 @@
       </c>
       <c r="E97" s="38"/>
       <c r="F97" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G97" s="38"/>
     </row>
@@ -10366,7 +10363,7 @@
       </c>
       <c r="E98" s="38"/>
       <c r="F98" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G98" s="38"/>
     </row>
@@ -10385,7 +10382,7 @@
       </c>
       <c r="E99" s="38"/>
       <c r="F99" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G99" s="38"/>
     </row>
@@ -10404,7 +10401,7 @@
       </c>
       <c r="E100" s="38"/>
       <c r="F100" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G100" s="38"/>
     </row>
@@ -10413,7 +10410,7 @@
         <v>131</v>
       </c>
       <c r="B101" s="38" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C101" s="38" t="s">
         <v>133</v>
@@ -10423,7 +10420,7 @@
       </c>
       <c r="E101" s="38"/>
       <c r="F101" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G101" s="38"/>
     </row>
@@ -10447,10 +10444,10 @@
         <v>58</v>
       </c>
       <c r="B103" s="38" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D103" s="37"/>
       <c r="E103" s="37"/>
@@ -10472,7 +10469,7 @@
       </c>
       <c r="E104" s="38"/>
       <c r="F104" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G104" s="38" t="s">
         <v>219</v>
@@ -10493,7 +10490,7 @@
       </c>
       <c r="E105" s="38"/>
       <c r="F105" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G105" s="38"/>
     </row>
@@ -10512,7 +10509,7 @@
       </c>
       <c r="E106" s="38"/>
       <c r="F106" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G106" s="38"/>
     </row>
@@ -10531,7 +10528,7 @@
       </c>
       <c r="E107" s="38"/>
       <c r="F107" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G107" s="38"/>
     </row>
@@ -10550,7 +10547,7 @@
       </c>
       <c r="E108" s="38"/>
       <c r="F108" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G108" s="38"/>
     </row>
@@ -10569,7 +10566,7 @@
       </c>
       <c r="E109" s="38"/>
       <c r="F109" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G109" s="38"/>
     </row>
@@ -10588,7 +10585,7 @@
       </c>
       <c r="E110" s="38"/>
       <c r="F110" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G110" s="38"/>
     </row>
@@ -10607,7 +10604,7 @@
       </c>
       <c r="E111" s="38"/>
       <c r="F111" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G111" s="38"/>
     </row>
@@ -10626,7 +10623,7 @@
       </c>
       <c r="E112" s="38"/>
       <c r="F112" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G112" s="38"/>
     </row>
@@ -10635,7 +10632,7 @@
         <v>131</v>
       </c>
       <c r="B113" s="38" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C113" s="38" t="s">
         <v>133</v>
@@ -10645,7 +10642,7 @@
       </c>
       <c r="E113" s="38"/>
       <c r="F113" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G113" s="38"/>
     </row>
@@ -10669,10 +10666,10 @@
         <v>58</v>
       </c>
       <c r="B115" s="38" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C115" s="37" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D115" s="37"/>
       <c r="E115" s="37"/>
@@ -10694,7 +10691,7 @@
       </c>
       <c r="E116" s="38"/>
       <c r="F116" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G116" s="38" t="s">
         <v>136</v>
@@ -10715,7 +10712,7 @@
       </c>
       <c r="E117" s="38"/>
       <c r="F117" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G117" s="38"/>
     </row>
@@ -10734,7 +10731,7 @@
       </c>
       <c r="E118" s="38"/>
       <c r="F118" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G118" s="38"/>
     </row>
@@ -10753,7 +10750,7 @@
       </c>
       <c r="E119" s="38"/>
       <c r="F119" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G119" s="38"/>
     </row>
@@ -10772,7 +10769,7 @@
       </c>
       <c r="E120" s="38"/>
       <c r="F120" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G120" s="38"/>
     </row>
@@ -10791,7 +10788,7 @@
       </c>
       <c r="E121" s="38"/>
       <c r="F121" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G121" s="38"/>
     </row>
@@ -10810,7 +10807,7 @@
       </c>
       <c r="E122" s="38"/>
       <c r="F122" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G122" s="38"/>
     </row>
@@ -10829,7 +10826,7 @@
       </c>
       <c r="E123" s="38"/>
       <c r="F123" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G123" s="38"/>
     </row>
@@ -10848,7 +10845,7 @@
       </c>
       <c r="E124" s="38"/>
       <c r="F124" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G124" s="38"/>
     </row>
@@ -10857,7 +10854,7 @@
         <v>131</v>
       </c>
       <c r="B125" s="38" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C125" s="38" t="s">
         <v>133</v>
@@ -10867,7 +10864,7 @@
       </c>
       <c r="E125" s="38"/>
       <c r="F125" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G125" s="38"/>
     </row>
@@ -10876,7 +10873,7 @@
         <v>58</v>
       </c>
       <c r="B126" s="38" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C126" s="37" t="s">
         <v>10</v>
@@ -10891,10 +10888,10 @@
         <v>58</v>
       </c>
       <c r="B127" s="38" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C127" s="37" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D127" s="37"/>
       <c r="E127" s="37"/>
@@ -10916,7 +10913,7 @@
       </c>
       <c r="E128" s="38"/>
       <c r="F128" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G128" s="38" t="s">
         <v>242</v>
@@ -10937,7 +10934,7 @@
       </c>
       <c r="E129" s="38"/>
       <c r="F129" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G129" s="38"/>
     </row>
@@ -10956,7 +10953,7 @@
       </c>
       <c r="E130" s="38"/>
       <c r="F130" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G130" s="38"/>
     </row>
@@ -10975,7 +10972,7 @@
       </c>
       <c r="E131" s="38"/>
       <c r="F131" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G131" s="38"/>
     </row>
@@ -10994,7 +10991,7 @@
       </c>
       <c r="E132" s="38"/>
       <c r="F132" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G132" s="38"/>
     </row>
@@ -11006,14 +11003,14 @@
         <v>249</v>
       </c>
       <c r="C133" s="38" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D133" s="38" t="s">
         <v>251</v>
       </c>
       <c r="E133" s="38"/>
       <c r="F133" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G133" s="38"/>
     </row>
@@ -11025,14 +11022,14 @@
         <v>252</v>
       </c>
       <c r="C134" s="39" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D134" s="39" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E134" s="39"/>
       <c r="F134" s="39" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G134" s="39"/>
     </row>
@@ -11051,7 +11048,7 @@
       </c>
       <c r="E135" s="38"/>
       <c r="F135" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G135" s="38"/>
     </row>
@@ -11060,7 +11057,7 @@
         <v>58</v>
       </c>
       <c r="B136" s="38" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C136" s="38" t="s">
         <v>256</v>
@@ -11070,7 +11067,7 @@
       </c>
       <c r="E136" s="38"/>
       <c r="F136" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G136" s="38"/>
     </row>
@@ -11094,10 +11091,10 @@
         <v>58</v>
       </c>
       <c r="B138" s="38" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C138" s="37" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D138" s="37"/>
       <c r="E138" s="37"/>
@@ -11121,10 +11118,10 @@
         <v>260</v>
       </c>
       <c r="F139" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G139" s="38" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="140" spans="1:7" hidden="1">
@@ -11144,7 +11141,7 @@
         <v>260</v>
       </c>
       <c r="F140" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G140" s="38"/>
     </row>
@@ -11165,7 +11162,7 @@
         <v>260</v>
       </c>
       <c r="F141" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G141" s="38"/>
     </row>
@@ -11186,7 +11183,7 @@
         <v>260</v>
       </c>
       <c r="F142" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G142" s="38"/>
     </row>
@@ -11198,7 +11195,7 @@
         <v>267</v>
       </c>
       <c r="C143" s="38" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D143" s="38" t="s">
         <v>269</v>
@@ -11207,7 +11204,7 @@
         <v>260</v>
       </c>
       <c r="F143" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G143" s="38"/>
     </row>
@@ -11219,7 +11216,7 @@
         <v>270</v>
       </c>
       <c r="C144" s="38" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D144" s="38" t="s">
         <v>266</v>
@@ -11228,7 +11225,7 @@
         <v>260</v>
       </c>
       <c r="F144" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G144" s="38"/>
     </row>
@@ -11240,14 +11237,14 @@
         <v>272</v>
       </c>
       <c r="C145" s="39" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D145" s="39" t="s">
         <v>1236</v>
-      </c>
-      <c r="D145" s="39" t="s">
-        <v>1237</v>
       </c>
       <c r="E145" s="39"/>
       <c r="F145" s="39" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G145" s="39"/>
     </row>
@@ -11256,19 +11253,19 @@
         <v>58</v>
       </c>
       <c r="B146" s="38" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C146" s="38" t="s">
         <v>271</v>
       </c>
       <c r="D146" s="38" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E146" s="38" t="s">
         <v>260</v>
       </c>
       <c r="F146" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G146" s="38"/>
     </row>
@@ -11277,7 +11274,7 @@
         <v>58</v>
       </c>
       <c r="B147" s="38" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C147" s="38" t="s">
         <v>273</v>
@@ -11289,7 +11286,7 @@
         <v>260</v>
       </c>
       <c r="F147" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G147" s="38"/>
     </row>
@@ -11298,19 +11295,19 @@
         <v>131</v>
       </c>
       <c r="B148" s="38" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C148" s="38" t="s">
         <v>133</v>
       </c>
       <c r="D148" s="38" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E148" s="38" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="F148" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G148" s="38"/>
     </row>
@@ -11319,7 +11316,7 @@
         <v>131</v>
       </c>
       <c r="B149" s="38" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C149" s="38" t="s">
         <v>277</v>
@@ -11329,7 +11326,7 @@
       </c>
       <c r="E149" s="38"/>
       <c r="F149" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G149" s="38"/>
     </row>
@@ -11378,14 +11375,14 @@
         <v>14</v>
       </c>
       <c r="D152" s="38" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E152" s="38" t="s">
         <v>281</v>
       </c>
       <c r="F152" s="38"/>
       <c r="G152" s="38" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="153" spans="1:8" hidden="1">
@@ -11399,14 +11396,14 @@
         <v>15</v>
       </c>
       <c r="D153" s="38" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E153" s="38" t="s">
         <v>281</v>
       </c>
       <c r="F153" s="38"/>
       <c r="G153" s="38" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="154" spans="1:8" hidden="1">
@@ -11420,14 +11417,14 @@
         <v>283</v>
       </c>
       <c r="D154" s="38" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E154" s="38" t="s">
         <v>284</v>
       </c>
       <c r="F154" s="38"/>
       <c r="G154" s="38" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="155" spans="1:8" hidden="1">
@@ -11537,7 +11534,7 @@
         <v>289</v>
       </c>
       <c r="C161" s="65" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="D161" s="65">
         <v>76.2</v>
@@ -11573,10 +11570,10 @@
         <v>293</v>
       </c>
       <c r="C163" s="65" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D163" s="65" t="s">
         <v>1301</v>
-      </c>
-      <c r="D163" s="65" t="s">
-        <v>1302</v>
       </c>
       <c r="E163" s="38"/>
       <c r="F163" s="38"/>
@@ -11587,7 +11584,7 @@
         <v>58</v>
       </c>
       <c r="B164" s="38" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C164" s="38" t="s">
         <v>297</v>
@@ -11624,7 +11621,7 @@
         <v>296</v>
       </c>
       <c r="C166" s="65" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="D166" s="65" t="s">
         <v>869</v>
@@ -11675,7 +11672,7 @@
         <v>303</v>
       </c>
       <c r="C169" s="38" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="D169" s="40" t="s">
         <v>950</v>
@@ -11996,7 +11993,7 @@
         <v>330</v>
       </c>
       <c r="C188" s="38" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D188" s="40" t="s">
         <v>950</v>
@@ -12331,7 +12328,7 @@
         <v>58</v>
       </c>
       <c r="B208" s="38" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C208" s="38" t="s">
         <v>306</v>
@@ -12508,7 +12505,7 @@
       <c r="E218" s="38"/>
       <c r="F218" s="38"/>
       <c r="G218" s="38" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="219" spans="1:7" hidden="1">
@@ -12621,13 +12618,13 @@
         <v>382</v>
       </c>
       <c r="C225" s="40" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D225" s="40" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E225" s="38" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F225" s="38"/>
       <c r="G225" s="38"/>
@@ -12643,10 +12640,10 @@
         <v>385</v>
       </c>
       <c r="D226" s="40" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E226" s="38" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F226" s="38"/>
       <c r="G226" s="38"/>
@@ -12659,7 +12656,7 @@
         <v>386</v>
       </c>
       <c r="C227" s="38" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D227" s="38">
         <v>76.16</v>
@@ -12733,7 +12730,7 @@
       <c r="E231" s="38"/>
       <c r="F231" s="38"/>
       <c r="G231" s="38" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="232" spans="1:7" hidden="1">
@@ -12801,7 +12798,7 @@
         <v>981</v>
       </c>
       <c r="E235" s="40" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="F235" s="40"/>
       <c r="G235" s="38"/>
@@ -13094,7 +13091,7 @@
         <v>58</v>
       </c>
       <c r="B253" s="35" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C253" s="36" t="s">
         <v>35</v>
@@ -13184,7 +13181,7 @@
         <v>441</v>
       </c>
       <c r="E258" s="59" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="F258" s="38"/>
       <c r="G258" s="44"/>
@@ -13265,13 +13262,13 @@
         <v>454</v>
       </c>
       <c r="C263" s="44" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D263" s="38" t="s">
         <v>456</v>
       </c>
       <c r="E263" s="59" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="F263" s="38"/>
       <c r="G263" s="44"/>
@@ -13281,13 +13278,13 @@
         <v>58</v>
       </c>
       <c r="B264" s="38" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C264" s="44" t="s">
         <v>1282</v>
       </c>
-      <c r="C264" s="44" t="s">
-        <v>1283</v>
-      </c>
       <c r="D264" s="38" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E264" s="38"/>
       <c r="F264" s="38"/>
@@ -13341,7 +13338,7 @@
         <v>465</v>
       </c>
       <c r="E267" s="59" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="F267" s="38"/>
       <c r="G267" s="44"/>
@@ -13351,7 +13348,7 @@
         <v>58</v>
       </c>
       <c r="B268" s="38" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C268" s="44" t="s">
         <v>467</v>
@@ -13559,7 +13556,7 @@
         <v>490</v>
       </c>
       <c r="D280" s="38" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E280" s="38"/>
       <c r="F280" s="38"/>
@@ -13664,7 +13661,7 @@
       <c r="E286" s="38"/>
       <c r="F286" s="38"/>
       <c r="G286" s="44" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="287" spans="1:7" hidden="1">
@@ -13863,7 +13860,7 @@
         <v>490</v>
       </c>
       <c r="D298" s="38" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E298" s="38"/>
       <c r="F298" s="38"/>
@@ -13954,7 +13951,7 @@
       <c r="F303" s="38"/>
       <c r="G303" s="44"/>
     </row>
-    <row r="304" spans="1:7" ht="30">
+    <row r="304" spans="1:7" ht="30" hidden="1">
       <c r="A304" s="38" t="s">
         <v>58</v>
       </c>
@@ -13969,7 +13966,7 @@
       </c>
       <c r="E304" s="38"/>
       <c r="F304" s="65" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G304" s="44"/>
     </row>
@@ -14295,7 +14292,7 @@
         <v>58</v>
       </c>
       <c r="B324" s="38" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C324" s="38" t="s">
         <v>483</v>
@@ -14312,7 +14309,7 @@
         <v>58</v>
       </c>
       <c r="B325" s="38" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C325" s="38" t="s">
         <v>485</v>
@@ -14352,7 +14349,7 @@
         <v>490</v>
       </c>
       <c r="D327" s="38" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E327" s="38"/>
       <c r="F327" s="38"/>
@@ -14431,7 +14428,7 @@
         <v>58</v>
       </c>
       <c r="B332" s="38" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C332" s="38" t="s">
         <v>501</v>
@@ -14443,12 +14440,12 @@
       <c r="F332" s="38"/>
       <c r="G332" s="38"/>
     </row>
-    <row r="333" spans="1:7" ht="30">
+    <row r="333" spans="1:7" ht="30" hidden="1">
       <c r="A333" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B333" s="38" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C333" s="38" t="s">
         <v>504</v>
@@ -14458,7 +14455,7 @@
       </c>
       <c r="E333" s="38"/>
       <c r="F333" s="65" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="G333" s="38"/>
     </row>
@@ -14467,7 +14464,7 @@
         <v>58</v>
       </c>
       <c r="B334" s="35" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C334" s="49" t="s">
         <v>40</v>
@@ -14521,10 +14518,10 @@
         <v>78.3</v>
       </c>
       <c r="E337" s="38" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="F337" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G337" s="44" t="s">
         <v>568</v>
@@ -14544,10 +14541,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E338" s="38" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="F338" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G338" s="44"/>
     </row>
@@ -14559,14 +14556,14 @@
         <v>571</v>
       </c>
       <c r="C339" s="44" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D339" s="38">
         <v>78.099999999999994</v>
       </c>
       <c r="E339" s="38"/>
       <c r="F339" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G339" s="44"/>
     </row>
@@ -14600,7 +14597,7 @@
       </c>
       <c r="E341" s="38"/>
       <c r="F341" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G341" s="44" t="s">
         <v>576</v>
@@ -14621,7 +14618,7 @@
       </c>
       <c r="E342" s="38"/>
       <c r="F342" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G342" s="44"/>
     </row>
@@ -14640,7 +14637,7 @@
       </c>
       <c r="E343" s="38"/>
       <c r="F343" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G343" s="38"/>
     </row>
@@ -14659,7 +14656,7 @@
       </c>
       <c r="E344" s="38"/>
       <c r="F344" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G344" s="44"/>
     </row>
@@ -14693,10 +14690,10 @@
       </c>
       <c r="E346" s="38"/>
       <c r="F346" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G346" s="44" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="347" spans="1:7" hidden="1">
@@ -14714,7 +14711,7 @@
       </c>
       <c r="E347" s="38"/>
       <c r="F347" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G347" s="44"/>
     </row>
@@ -14726,14 +14723,14 @@
         <v>595</v>
       </c>
       <c r="C348" s="44" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="D348" s="38" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E348" s="38"/>
       <c r="F348" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G348" s="44"/>
     </row>
@@ -14752,7 +14749,7 @@
       </c>
       <c r="E349" s="38"/>
       <c r="F349" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G349" s="44"/>
     </row>
@@ -14771,7 +14768,7 @@
       </c>
       <c r="E350" s="38"/>
       <c r="F350" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G350" s="44"/>
     </row>
@@ -14805,10 +14802,10 @@
       </c>
       <c r="E352" s="40"/>
       <c r="F352" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G352" s="44" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="353" spans="1:7" ht="30" hidden="1">
@@ -14826,7 +14823,7 @@
       </c>
       <c r="E353" s="40"/>
       <c r="F353" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G353" s="44"/>
     </row>
@@ -14841,11 +14838,11 @@
         <v>612</v>
       </c>
       <c r="D354" s="40" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E354" s="40"/>
       <c r="F354" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G354" s="38"/>
     </row>
@@ -14864,7 +14861,7 @@
       </c>
       <c r="E355" s="40"/>
       <c r="F355" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G355" s="44"/>
     </row>
@@ -14883,7 +14880,7 @@
       </c>
       <c r="E356" s="38"/>
       <c r="F356" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G356" s="44"/>
     </row>
@@ -14917,10 +14914,10 @@
       </c>
       <c r="E358" s="38"/>
       <c r="F358" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G358" s="38" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="359" spans="1:7" hidden="1">
@@ -14934,11 +14931,11 @@
         <v>624</v>
       </c>
       <c r="D359" s="40" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E359" s="40"/>
       <c r="F359" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G359" s="38"/>
     </row>
@@ -14972,10 +14969,10 @@
       </c>
       <c r="E361" s="38"/>
       <c r="F361" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G361" s="44" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="362" spans="1:7" hidden="1">
@@ -14989,11 +14986,11 @@
         <v>629</v>
       </c>
       <c r="D362" s="38" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E362" s="46"/>
       <c r="F362" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G362" s="44"/>
     </row>
@@ -15012,7 +15009,7 @@
       </c>
       <c r="E363" s="38"/>
       <c r="F363" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G363" s="44"/>
     </row>
@@ -15027,11 +15024,11 @@
         <v>633</v>
       </c>
       <c r="D364" s="38" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E364" s="38"/>
       <c r="F364" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G364" s="44"/>
     </row>
@@ -15046,13 +15043,13 @@
         <v>635</v>
       </c>
       <c r="D365" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E365" s="38" t="s">
         <v>636</v>
       </c>
       <c r="F365" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G365" s="38"/>
     </row>
@@ -15100,10 +15097,10 @@
         <v>1034</v>
       </c>
       <c r="E368" s="40" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="F368" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G368" s="44" t="s">
         <v>568</v>
@@ -15123,10 +15120,10 @@
         <v>1029</v>
       </c>
       <c r="E369" s="40" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="F369" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G369" s="44"/>
     </row>
@@ -15144,10 +15141,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E370" s="38" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="F370" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G370" s="44"/>
     </row>
@@ -15196,7 +15193,7 @@
       </c>
       <c r="E373" s="38"/>
       <c r="F373" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G373" s="44" t="s">
         <v>647</v>
@@ -15217,7 +15214,7 @@
       </c>
       <c r="E374" s="38"/>
       <c r="F374" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G374" s="44"/>
     </row>
@@ -15236,7 +15233,7 @@
       </c>
       <c r="E375" s="38"/>
       <c r="F375" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G375" s="44"/>
     </row>
@@ -15255,7 +15252,7 @@
       </c>
       <c r="E376" s="40"/>
       <c r="F376" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G376" s="44"/>
     </row>
@@ -15274,7 +15271,7 @@
       </c>
       <c r="E377" s="38"/>
       <c r="F377" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G377" s="44"/>
     </row>
@@ -15293,7 +15290,7 @@
       </c>
       <c r="E378" s="38"/>
       <c r="F378" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G378" s="44"/>
     </row>
@@ -15327,10 +15324,10 @@
       </c>
       <c r="E380" s="38"/>
       <c r="F380" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G380" s="44" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="381" spans="1:7" hidden="1">
@@ -15344,13 +15341,13 @@
         <v>624</v>
       </c>
       <c r="D381" s="40" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E381" s="40" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F381" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G381" s="38"/>
     </row>
@@ -15384,10 +15381,10 @@
       </c>
       <c r="E383" s="38"/>
       <c r="F383" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G383" s="44" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="384" spans="1:7" hidden="1">
@@ -15401,11 +15398,11 @@
         <v>666</v>
       </c>
       <c r="D384" s="38" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E384" s="46"/>
       <c r="F384" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G384" s="44"/>
     </row>
@@ -15424,7 +15421,7 @@
       </c>
       <c r="E385" s="38"/>
       <c r="F385" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G385" s="44"/>
     </row>
@@ -15439,11 +15436,11 @@
         <v>633</v>
       </c>
       <c r="D386" s="38" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E386" s="38"/>
       <c r="F386" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G386" s="38"/>
     </row>
@@ -15458,13 +15455,13 @@
         <v>635</v>
       </c>
       <c r="D387" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E387" s="38" t="s">
         <v>636</v>
       </c>
       <c r="F387" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G387" s="38"/>
     </row>
@@ -15512,10 +15509,10 @@
         <v>78.3</v>
       </c>
       <c r="E390" s="38" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="F390" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G390" s="44" t="s">
         <v>568</v>
@@ -15535,10 +15532,10 @@
         <v>1029</v>
       </c>
       <c r="E391" s="40" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="F391" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G391" s="38"/>
     </row>
@@ -15556,10 +15553,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E392" s="38" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="F392" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G392" s="44"/>
     </row>
@@ -15608,7 +15605,7 @@
       </c>
       <c r="E395" s="38"/>
       <c r="F395" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G395" s="44" t="s">
         <v>681</v>
@@ -15629,7 +15626,7 @@
       </c>
       <c r="E396" s="38"/>
       <c r="F396" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G396" s="44"/>
     </row>
@@ -15648,7 +15645,7 @@
       </c>
       <c r="E397" s="38"/>
       <c r="F397" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G397" s="44"/>
     </row>
@@ -15667,7 +15664,7 @@
       </c>
       <c r="E398" s="38"/>
       <c r="F398" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G398" s="44"/>
     </row>
@@ -15686,7 +15683,7 @@
       </c>
       <c r="E399" s="38"/>
       <c r="F399" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G399" s="44"/>
     </row>
@@ -15705,7 +15702,7 @@
       </c>
       <c r="E400" s="38"/>
       <c r="F400" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G400" s="44"/>
     </row>
@@ -15739,10 +15736,10 @@
       </c>
       <c r="E402" s="38"/>
       <c r="F402" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G402" s="44" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="403" spans="1:7" hidden="1">
@@ -15756,13 +15753,13 @@
         <v>624</v>
       </c>
       <c r="D403" s="40" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E403" s="40" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F403" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G403" s="38"/>
     </row>
@@ -15796,10 +15793,10 @@
       </c>
       <c r="E405" s="38"/>
       <c r="F405" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G405" s="44" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="406" spans="1:7" hidden="1">
@@ -15813,11 +15810,11 @@
         <v>666</v>
       </c>
       <c r="D406" s="38" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E406" s="46"/>
       <c r="F406" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G406" s="44"/>
     </row>
@@ -15836,7 +15833,7 @@
       </c>
       <c r="E407" s="38"/>
       <c r="F407" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G407" s="44"/>
     </row>
@@ -15851,11 +15848,11 @@
         <v>633</v>
       </c>
       <c r="D408" s="38" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E408" s="38"/>
       <c r="F408" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G408" s="38"/>
     </row>
@@ -15870,13 +15867,13 @@
         <v>635</v>
       </c>
       <c r="D409" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E409" s="38" t="s">
         <v>636</v>
       </c>
       <c r="F409" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G409" s="38"/>
     </row>
@@ -15924,10 +15921,10 @@
         <v>78.3</v>
       </c>
       <c r="E412" s="3" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="F412" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G412" s="44" t="s">
         <v>568</v>
@@ -15947,10 +15944,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E413" s="38" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="F413" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G413" s="44"/>
     </row>
@@ -15968,10 +15965,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E414" s="38" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="F414" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G414" s="44"/>
     </row>
@@ -16020,7 +16017,7 @@
       </c>
       <c r="E417" s="38"/>
       <c r="F417" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G417" s="38" t="s">
         <v>709</v>
@@ -16041,7 +16038,7 @@
       </c>
       <c r="E418" s="38"/>
       <c r="F418" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G418" s="44"/>
     </row>
@@ -16060,7 +16057,7 @@
       </c>
       <c r="E419" s="38"/>
       <c r="F419" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G419" s="44"/>
     </row>
@@ -16079,11 +16076,11 @@
       </c>
       <c r="E420" s="38"/>
       <c r="F420" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G420" s="38"/>
     </row>
-    <row r="421" spans="1:7" hidden="1">
+    <row r="421" spans="1:7">
       <c r="A421" s="38" t="s">
         <v>58</v>
       </c>
@@ -16098,7 +16095,7 @@
       <c r="F421" s="41"/>
       <c r="G421" s="41"/>
     </row>
-    <row r="422" spans="1:7" hidden="1">
+    <row r="422" spans="1:7">
       <c r="A422" s="38" t="s">
         <v>58</v>
       </c>
@@ -16106,20 +16103,20 @@
         <v>718</v>
       </c>
       <c r="C422" s="38" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="D422" s="38" t="s">
         <v>721</v>
       </c>
       <c r="E422" s="38"/>
       <c r="F422" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G422" s="38" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="423" spans="1:7" hidden="1">
+    <row r="423" spans="1:7">
       <c r="A423" s="38" t="s">
         <v>58</v>
       </c>
@@ -16127,18 +16124,18 @@
         <v>722</v>
       </c>
       <c r="C423" s="38" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D423" s="40" t="s">
         <v>724</v>
       </c>
       <c r="E423" s="40"/>
       <c r="F423" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G423" s="38"/>
     </row>
-    <row r="424" spans="1:7" hidden="1">
+    <row r="424" spans="1:7">
       <c r="A424" s="38" t="s">
         <v>58</v>
       </c>
@@ -16153,7 +16150,7 @@
       </c>
       <c r="E424" s="40"/>
       <c r="F424" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G424" s="38"/>
     </row>
@@ -16187,7 +16184,7 @@
       </c>
       <c r="E426" s="40"/>
       <c r="F426" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G426" s="44" t="s">
         <v>729</v>
@@ -16208,7 +16205,7 @@
       </c>
       <c r="E427" s="40"/>
       <c r="F427" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G427" s="44"/>
     </row>
@@ -16227,7 +16224,7 @@
       </c>
       <c r="E428" s="40"/>
       <c r="F428" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G428" s="44"/>
     </row>
@@ -16246,7 +16243,7 @@
       </c>
       <c r="E429" s="40"/>
       <c r="F429" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G429" s="38"/>
     </row>
@@ -16265,7 +16262,7 @@
       </c>
       <c r="E430" s="40"/>
       <c r="F430" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G430" s="44"/>
     </row>
@@ -16284,7 +16281,7 @@
       </c>
       <c r="E431" s="40"/>
       <c r="F431" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G431" s="44"/>
     </row>
@@ -16301,7 +16298,7 @@
       <c r="D432" s="41"/>
       <c r="E432" s="41"/>
       <c r="F432" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G432" s="41"/>
     </row>
@@ -16320,7 +16317,7 @@
       </c>
       <c r="E433" s="40"/>
       <c r="F433" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G433" s="44" t="s">
         <v>738</v>
@@ -16341,7 +16338,7 @@
       </c>
       <c r="E434" s="40"/>
       <c r="F434" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G434" s="44"/>
     </row>
@@ -16360,7 +16357,7 @@
       </c>
       <c r="E435" s="40"/>
       <c r="F435" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G435" s="44" t="s">
         <v>606</v>
@@ -16381,7 +16378,7 @@
       </c>
       <c r="E436" s="40"/>
       <c r="F436" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G436" s="44"/>
     </row>
@@ -16398,7 +16395,7 @@
       <c r="D437" s="41"/>
       <c r="E437" s="41"/>
       <c r="F437" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G437" s="41"/>
     </row>
@@ -16417,10 +16414,10 @@
       </c>
       <c r="E438" s="40"/>
       <c r="F438" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G438" s="44" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="439" spans="1:7" hidden="1">
@@ -16434,13 +16431,13 @@
         <v>624</v>
       </c>
       <c r="D439" s="40" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E439" s="40" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F439" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G439" s="38"/>
     </row>
@@ -16452,12 +16449,12 @@
         <v>746</v>
       </c>
       <c r="C440" s="41" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D440" s="41"/>
       <c r="E440" s="41"/>
       <c r="F440" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G440" s="41"/>
     </row>
@@ -16472,13 +16469,13 @@
         <v>635</v>
       </c>
       <c r="D441" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E441" s="38" t="s">
         <v>636</v>
       </c>
       <c r="F441" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G441" s="38"/>
     </row>
@@ -16495,7 +16492,7 @@
       <c r="D442" s="41"/>
       <c r="E442" s="41"/>
       <c r="F442" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G442" s="37"/>
     </row>
@@ -16514,7 +16511,7 @@
         <v>279</v>
       </c>
       <c r="F443" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G443" s="44"/>
     </row>
@@ -16533,7 +16530,7 @@
         <v>279</v>
       </c>
       <c r="F444" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G444" s="44"/>
     </row>
@@ -16552,7 +16549,7 @@
         <v>279</v>
       </c>
       <c r="F445" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G445" s="44"/>
     </row>
@@ -16569,7 +16566,7 @@
       <c r="D446" s="41"/>
       <c r="E446" s="37"/>
       <c r="F446" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G446" s="37"/>
     </row>
@@ -16588,7 +16585,7 @@
         <v>279</v>
       </c>
       <c r="F447" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G447" s="44"/>
     </row>
@@ -16607,7 +16604,7 @@
         <v>279</v>
       </c>
       <c r="F448" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G448" s="44"/>
     </row>
@@ -16624,7 +16621,7 @@
       <c r="D449" s="41"/>
       <c r="E449" s="41"/>
       <c r="F449" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G449" s="37"/>
     </row>
@@ -16641,7 +16638,7 @@
       <c r="D450" s="41"/>
       <c r="E450" s="41"/>
       <c r="F450" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G450" s="41"/>
     </row>
@@ -16660,7 +16657,7 @@
       </c>
       <c r="E451" s="38"/>
       <c r="F451" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G451" s="44" t="s">
         <v>568</v>
@@ -16681,7 +16678,7 @@
       </c>
       <c r="E452" s="38"/>
       <c r="F452" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G452" s="44"/>
     </row>
@@ -16700,7 +16697,7 @@
       </c>
       <c r="E453" s="38"/>
       <c r="F453" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G453" s="44"/>
     </row>
@@ -16717,7 +16714,7 @@
       <c r="D454" s="41"/>
       <c r="E454" s="41"/>
       <c r="F454" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G454" s="41"/>
     </row>
@@ -16734,7 +16731,7 @@
       <c r="D455" s="41"/>
       <c r="E455" s="41"/>
       <c r="F455" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G455" s="41"/>
     </row>
@@ -16753,10 +16750,10 @@
       </c>
       <c r="E456" s="38"/>
       <c r="F456" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G456" s="44" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="457" spans="1:7" hidden="1">
@@ -16774,7 +16771,7 @@
       </c>
       <c r="E457" s="38"/>
       <c r="F457" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G457" s="44"/>
     </row>
@@ -16789,11 +16786,11 @@
         <v>767</v>
       </c>
       <c r="D458" s="38" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E458" s="38"/>
       <c r="F458" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G458" s="38"/>
     </row>
@@ -16812,7 +16809,7 @@
       </c>
       <c r="E459" s="38"/>
       <c r="F459" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G459" s="38"/>
     </row>
@@ -16824,12 +16821,12 @@
         <v>770</v>
       </c>
       <c r="C460" s="38" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D460" s="38"/>
       <c r="E460" s="38"/>
       <c r="F460" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G460" s="38"/>
     </row>
@@ -16838,7 +16835,7 @@
         <v>58</v>
       </c>
       <c r="B461" s="38" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C461" s="38" t="s">
         <v>771</v>
@@ -16848,7 +16845,7 @@
       </c>
       <c r="E461" s="38"/>
       <c r="F461" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G461" s="38"/>
     </row>
@@ -16857,17 +16854,17 @@
         <v>58</v>
       </c>
       <c r="B462" s="38" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C462" s="38" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D462" s="38" t="s">
         <v>724</v>
       </c>
       <c r="E462" s="38"/>
       <c r="F462" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G462" s="38"/>
     </row>
@@ -16884,7 +16881,7 @@
       <c r="D463" s="41"/>
       <c r="E463" s="41"/>
       <c r="F463" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G463" s="41"/>
     </row>
@@ -16903,10 +16900,10 @@
       </c>
       <c r="E464" s="38"/>
       <c r="F464" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G464" s="44" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="465" spans="1:7" hidden="1">
@@ -16920,11 +16917,11 @@
         <v>624</v>
       </c>
       <c r="D465" s="40" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E465" s="40"/>
       <c r="F465" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G465" s="38"/>
     </row>
@@ -16941,7 +16938,7 @@
       <c r="D466" s="41"/>
       <c r="E466" s="41"/>
       <c r="F466" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G466" s="41"/>
     </row>
@@ -16960,10 +16957,10 @@
       </c>
       <c r="E467" s="38"/>
       <c r="F467" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G467" s="44" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="468" spans="1:7" hidden="1">
@@ -16981,7 +16978,7 @@
       </c>
       <c r="E468" s="38"/>
       <c r="F468" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G468" s="44"/>
     </row>
@@ -17000,7 +16997,7 @@
       </c>
       <c r="E469" s="38"/>
       <c r="F469" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G469" s="44"/>
     </row>
@@ -17015,11 +17012,11 @@
         <v>633</v>
       </c>
       <c r="D470" s="38" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E470" s="38"/>
       <c r="F470" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G470" s="38"/>
     </row>
@@ -17034,19 +17031,22 @@
         <v>635</v>
       </c>
       <c r="D471" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E471" s="38"/>
       <c r="F471" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G471" s="38"/>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D471" xr:uid="{C8044F9B-C0F5-4A9A-9153-DF217C7D796E}">
+  <autoFilter ref="B1:B471" xr:uid="{64EA6B5D-A0EE-427E-AA67-D2C94857A661}">
     <filterColumn colId="0">
       <filters>
-        <filter val="CMS.17"/>
+        <filter val="11.4.2.3"/>
+        <filter val="11.4.2.3.1"/>
+        <filter val="11.4.2.3.2"/>
+        <filter val="11.4.2.3.3"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -17101,7 +17101,7 @@
         <v>62</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>789</v>
@@ -17120,7 +17120,7 @@
         <v>65</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>791</v>
@@ -17139,7 +17139,7 @@
         <v>68</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>792</v>
@@ -17158,7 +17158,7 @@
         <v>71</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>793</v>
@@ -17177,7 +17177,7 @@
         <v>796</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>797</v>
@@ -18973,7 +18973,7 @@
         <v>278</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>855</v>
@@ -18992,13 +18992,13 @@
         <v>269</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C40" s="28" t="s">
         <v>856</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3" t="s">
@@ -19011,13 +19011,13 @@
         <v>266</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>857</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
@@ -19030,7 +19030,7 @@
         <v>274</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>858</v>
@@ -19046,16 +19046,16 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="32" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B43" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C43" s="32" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D43" s="32" t="s">
         <v>1171</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>1172</v>
       </c>
       <c r="E43" s="32"/>
       <c r="F43" s="32" t="s">
@@ -19065,16 +19065,16 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="32" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B44" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="E44" s="32"/>
       <c r="F44" s="32" t="s">
@@ -19084,16 +19084,16 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="32" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B45" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="E45" s="32"/>
       <c r="F45" s="32" t="s">
@@ -19103,16 +19103,16 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="32" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B46" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E46" s="32"/>
       <c r="F46" s="32" t="s">
@@ -19122,16 +19122,16 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="32" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B47" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E47" s="32"/>
       <c r="F47" s="32" t="s">
@@ -19141,16 +19141,16 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="32" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B48" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E48" s="32"/>
       <c r="F48" s="32" t="s">
@@ -19160,16 +19160,16 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="32" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B49" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E49" s="32"/>
       <c r="F49" s="32" t="s">
@@ -19179,16 +19179,16 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="32" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B50" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="E50" s="32"/>
       <c r="F50" s="32" t="s">
@@ -19198,16 +19198,16 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="32" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B51" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="32" t="s">
@@ -19217,16 +19217,16 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="32" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B52" s="32" t="s">
         <v>840</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="E52" s="32"/>
       <c r="F52" s="32" t="s">
@@ -19236,16 +19236,16 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="32" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B53" s="32" t="s">
         <v>840</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="E53" s="32"/>
       <c r="F53" s="32" t="s">
@@ -19255,16 +19255,16 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="32" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B54" s="32" t="s">
         <v>848</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E54" s="32"/>
       <c r="F54" s="32" t="s">
@@ -19274,16 +19274,16 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="32" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="E55" s="32"/>
       <c r="F55" s="32" t="s">
@@ -19623,7 +19623,7 @@
         <v>864</v>
       </c>
       <c r="D3" s="69" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="E3" s="30"/>
       <c r="F3" s="30" t="s">
@@ -19861,16 +19861,16 @@
     </row>
     <row r="16" spans="1:256" ht="31.5" customHeight="1">
       <c r="A16" s="68" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B16" s="69" t="s">
         <v>861</v>
       </c>
       <c r="C16" s="68" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D16" s="68" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30" t="s">
@@ -19880,16 +19880,16 @@
     </row>
     <row r="17" spans="1:7" ht="31.5" customHeight="1">
       <c r="A17" s="68" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B17" s="69" t="s">
         <v>861</v>
       </c>
       <c r="C17" s="68" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D17" s="68" t="s">
         <v>1092</v>
-      </c>
-      <c r="D17" s="68" t="s">
-        <v>1093</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="30" t="s">
@@ -19908,7 +19908,7 @@
         <v>895</v>
       </c>
       <c r="D18" s="68" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="30" t="s">
@@ -20487,7 +20487,7 @@
         <v>982</v>
       </c>
       <c r="D49" s="72" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E49" s="30"/>
       <c r="F49" s="30"/>
@@ -20744,16 +20744,16 @@
     </row>
     <row r="50" spans="1:256" s="71" customFormat="1">
       <c r="A50" s="68" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B50" s="69" t="s">
         <v>861</v>
       </c>
       <c r="C50" s="69" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D50" s="69" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E50" s="69"/>
       <c r="F50" s="69"/>
@@ -21068,7 +21068,7 @@
         <v>435</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>983</v>
@@ -21087,7 +21087,7 @@
         <v>438</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>985</v>
@@ -21106,7 +21106,7 @@
         <v>441</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>987</v>
@@ -21125,7 +21125,7 @@
         <v>456</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>989</v>
@@ -21144,7 +21144,7 @@
         <v>444</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>991</v>
@@ -21163,7 +21163,7 @@
         <v>447</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>993</v>
@@ -21182,7 +21182,7 @@
         <v>450</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>995</v>
@@ -21201,7 +21201,7 @@
         <v>453</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>997</v>
@@ -21220,7 +21220,7 @@
         <v>459</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>999</v>
@@ -21239,7 +21239,7 @@
         <v>1001</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>1002</v>
@@ -21258,7 +21258,7 @@
         <v>462</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>1004</v>
@@ -21277,7 +21277,7 @@
         <v>465</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>1006</v>
@@ -21298,7 +21298,7 @@
         <v>468</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>1009</v>
@@ -21317,7 +21317,7 @@
         <v>502</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>1011</v>
@@ -21332,7 +21332,7 @@
         <v>790</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="16" spans="1:256" ht="47.25" customHeight="1">
@@ -21340,7 +21340,7 @@
         <v>493</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>1014</v>
@@ -21359,7 +21359,7 @@
         <v>505</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>1016</v>
@@ -21382,7 +21382,7 @@
         <v>533</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>1020</v>
@@ -21401,7 +21401,7 @@
         <v>536</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>1021</v>
@@ -21420,7 +21420,7 @@
         <v>539</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>1022</v>
@@ -21439,7 +21439,7 @@
         <v>542</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>1024</v>
@@ -21458,7 +21458,7 @@
         <v>547</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>1026</v>
@@ -21477,7 +21477,7 @@
         <v>488</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>1028</v>
@@ -21491,16 +21491,16 @@
     </row>
     <row r="24" spans="1:7" ht="31.2">
       <c r="A24" s="32" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B24" s="32" t="s">
         <v>1150</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="C24" s="32" t="s">
         <v>1151</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="D24" s="32" t="s">
         <v>1152</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>1153</v>
       </c>
       <c r="E24" s="32"/>
       <c r="F24" s="32"/>
@@ -21508,16 +21508,16 @@
     </row>
     <row r="25" spans="1:7" ht="46.8">
       <c r="A25" s="32" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C25" s="32" t="s">
         <v>1154</v>
       </c>
-      <c r="B25" s="32" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>1155</v>
-      </c>
       <c r="D25" s="32" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
@@ -21525,16 +21525,16 @@
     </row>
     <row r="26" spans="1:7" ht="31.2">
       <c r="A26" s="32" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C26" s="32" t="s">
         <v>1156</v>
       </c>
-      <c r="B26" s="32" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C26" s="32" t="s">
+      <c r="D26" s="32" t="s">
         <v>1157</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>1158</v>
       </c>
       <c r="E26" s="32"/>
       <c r="F26" s="32"/>
@@ -21542,16 +21542,16 @@
     </row>
     <row r="27" spans="1:7" ht="46.8">
       <c r="A27" s="32" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C27" s="32" t="s">
         <v>1159</v>
       </c>
-      <c r="B27" s="32" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C27" s="32" t="s">
+      <c r="D27" s="32" t="s">
         <v>1160</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>1161</v>
       </c>
       <c r="E27" s="32"/>
       <c r="F27" s="32"/>
@@ -21559,16 +21559,16 @@
     </row>
     <row r="28" spans="1:7" ht="46.8">
       <c r="A28" s="32" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C28" s="32" t="s">
         <v>1162</v>
       </c>
-      <c r="B28" s="32" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C28" s="32" t="s">
+      <c r="D28" s="32" t="s">
         <v>1163</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>1164</v>
       </c>
       <c r="E28" s="32"/>
       <c r="F28" s="32"/>
@@ -21576,16 +21576,16 @@
     </row>
     <row r="29" spans="1:7" ht="46.8">
       <c r="A29" s="32" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C29" s="32" t="s">
         <v>1165</v>
       </c>
-      <c r="B29" s="32" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C29" s="32" t="s">
+      <c r="D29" s="32" t="s">
         <v>1166</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>1167</v>
       </c>
       <c r="E29" s="32"/>
       <c r="F29" s="32"/>
@@ -21593,16 +21593,16 @@
     </row>
     <row r="30" spans="1:7" ht="46.8">
       <c r="A30" s="32" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C30" s="32" t="s">
         <v>1168</v>
       </c>
-      <c r="B30" s="32" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C30" s="32" t="s">
+      <c r="D30" s="32" t="s">
         <v>1169</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>1170</v>
       </c>
       <c r="E30" s="32"/>
       <c r="F30" s="32"/>
@@ -21673,7 +21673,7 @@
         <v>1031</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E2" s="63"/>
       <c r="F2" s="28" t="s">
@@ -21941,7 +21941,7 @@
         <v>1033</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="E3" s="64"/>
       <c r="F3" s="3" t="s">
@@ -21960,7 +21960,7 @@
         <v>1035</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="E4" s="63"/>
       <c r="F4" s="3" t="s">
@@ -21982,8 +21982,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -22383,13 +22383,13 @@
         <v>1050</v>
       </c>
       <c r="E7" s="69" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="F7" s="30" t="s">
         <v>790</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="8" spans="1:256" ht="31.5" customHeight="1">
@@ -22524,7 +22524,7 @@
         <v>1064</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="F14" s="30" t="s">
         <v>790</v>
@@ -22620,16 +22620,16 @@
         <v>1076</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E19" s="62" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>790</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="31.2">
@@ -22643,11 +22643,9 @@
         <v>1077</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>1297</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1080</v>
-      </c>
+        <v>1296</v>
+      </c>
+      <c r="E20"/>
       <c r="F20" s="30" t="s">
         <v>790</v>
       </c>
@@ -22667,47 +22665,47 @@
         <v>1079</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>790</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="31.5" customHeight="1">
       <c r="A22" s="30" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B22" s="30" t="s">
         <v>1037</v>
       </c>
       <c r="C22" s="30" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D22" s="30" t="s">
         <v>1083</v>
       </c>
-      <c r="D22" s="30" t="s">
-        <v>1084</v>
-      </c>
       <c r="E22" s="62" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>809</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="31.2">
       <c r="A23" s="30" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B23" s="30" t="s">
         <v>1037</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>629</v>
@@ -22718,13 +22716,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="30" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B24" s="30" t="s">
         <v>1037</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>633</v>
@@ -22735,32 +22733,32 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="30" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B25" s="30" t="s">
         <v>1037</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>624</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
     </row>
     <row r="26" spans="1:7" ht="31.2">
       <c r="A26" s="30" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B26" s="30" t="s">
         <v>1037</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>635</v>
@@ -22771,13 +22769,13 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="58" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B27" s="30" t="s">
         <v>1037</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="D27" s="30" t="s">
         <v>767</v>
@@ -23089,40 +23087,40 @@
     </row>
     <row r="2" spans="1:256">
       <c r="A2" s="7" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
         <v>790</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="3" spans="1:256">
       <c r="A3" s="7" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>1131</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>1132</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>809</v>
@@ -23131,19 +23129,19 @@
     </row>
     <row r="4" spans="1:256">
       <c r="A4" s="6" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>1136</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>1137</v>
-      </c>
       <c r="C4" s="6" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>1134</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>1135</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>809</v>

--- a/conformancelib/testdata/85b_test_definitions_PIV_Production_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV_Production_Cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geoff\gsa-devel\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F879EC9-C9F5-4E00-B20F-BFDF783E51E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4386D9-660D-46CB-9117-1ED5666AE4BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,14 +24,14 @@
     <sheet name="Placeholders" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Steps Overview'!$B$1:$B$471</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Steps Overview'!$D$1:$D$471</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3772" uniqueCount="1310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3771" uniqueCount="1309">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -3918,9 +3918,6 @@
   </si>
   <si>
     <t>PIV cert policy OID for test content signer cert</t>
-  </si>
-  <si>
-    <t>5</t>
   </si>
   <si>
     <t>Extended key usage (extKeyUsage) extension asserts id-PIV-cardAuth</t>
@@ -8531,7 +8528,7 @@
   <dimension ref="A1:H471"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -11534,7 +11531,7 @@
         <v>289</v>
       </c>
       <c r="C161" s="65" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="D161" s="65">
         <v>76.2</v>
@@ -11570,10 +11567,10 @@
         <v>293</v>
       </c>
       <c r="C163" s="65" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D163" s="65" t="s">
         <v>1300</v>
-      </c>
-      <c r="D163" s="65" t="s">
-        <v>1301</v>
       </c>
       <c r="E163" s="38"/>
       <c r="F163" s="38"/>
@@ -11584,7 +11581,7 @@
         <v>58</v>
       </c>
       <c r="B164" s="38" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="C164" s="38" t="s">
         <v>297</v>
@@ -11621,7 +11618,7 @@
         <v>296</v>
       </c>
       <c r="C166" s="65" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="D166" s="65" t="s">
         <v>869</v>
@@ -12328,7 +12325,7 @@
         <v>58</v>
       </c>
       <c r="B208" s="38" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C208" s="38" t="s">
         <v>306</v>
@@ -13661,7 +13658,7 @@
       <c r="E286" s="38"/>
       <c r="F286" s="38"/>
       <c r="G286" s="44" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="287" spans="1:7" hidden="1">
@@ -14455,7 +14452,7 @@
       </c>
       <c r="E333" s="38"/>
       <c r="F333" s="65" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="G333" s="38"/>
     </row>
@@ -14846,7 +14843,7 @@
       </c>
       <c r="G354" s="38"/>
     </row>
-    <row r="355" spans="1:7" ht="30" hidden="1">
+    <row r="355" spans="1:7" ht="30">
       <c r="A355" s="38" t="s">
         <v>58</v>
       </c>
@@ -15237,7 +15234,7 @@
       </c>
       <c r="G375" s="44"/>
     </row>
-    <row r="376" spans="1:7" ht="30" hidden="1">
+    <row r="376" spans="1:7" ht="30">
       <c r="A376" s="38" t="s">
         <v>58</v>
       </c>
@@ -16080,7 +16077,7 @@
       </c>
       <c r="G420" s="38"/>
     </row>
-    <row r="421" spans="1:7">
+    <row r="421" spans="1:7" hidden="1">
       <c r="A421" s="38" t="s">
         <v>58</v>
       </c>
@@ -16095,7 +16092,7 @@
       <c r="F421" s="41"/>
       <c r="G421" s="41"/>
     </row>
-    <row r="422" spans="1:7">
+    <row r="422" spans="1:7" hidden="1">
       <c r="A422" s="38" t="s">
         <v>58</v>
       </c>
@@ -16103,7 +16100,7 @@
         <v>718</v>
       </c>
       <c r="C422" s="38" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D422" s="38" t="s">
         <v>721</v>
@@ -16116,7 +16113,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="423" spans="1:7">
+    <row r="423" spans="1:7" hidden="1">
       <c r="A423" s="38" t="s">
         <v>58</v>
       </c>
@@ -16124,7 +16121,7 @@
         <v>722</v>
       </c>
       <c r="C423" s="38" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="D423" s="40" t="s">
         <v>724</v>
@@ -16135,7 +16132,7 @@
       </c>
       <c r="G423" s="38"/>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" spans="1:7" hidden="1">
       <c r="A424" s="38" t="s">
         <v>58</v>
       </c>
@@ -17040,13 +17037,10 @@
       <c r="G471" s="38"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B471" xr:uid="{64EA6B5D-A0EE-427E-AA67-D2C94857A661}">
+  <autoFilter ref="D1:D471" xr:uid="{8A21E7FF-AD48-4859-8AB9-1DBEC792FD72}">
     <filterColumn colId="0">
       <filters>
-        <filter val="11.4.2.3"/>
-        <filter val="11.4.2.3.1"/>
-        <filter val="11.4.2.3.2"/>
-        <filter val="11.4.2.3.3"/>
+        <filter val="PKIX.13"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -19623,7 +19617,7 @@
         <v>864</v>
       </c>
       <c r="D3" s="69" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="E3" s="30"/>
       <c r="F3" s="30" t="s">
@@ -20744,16 +20738,16 @@
     </row>
     <row r="50" spans="1:256" s="71" customFormat="1">
       <c r="A50" s="68" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B50" s="69" t="s">
         <v>861</v>
       </c>
       <c r="C50" s="69" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D50" s="69" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="E50" s="69"/>
       <c r="F50" s="69"/>
@@ -21982,8 +21976,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -22383,7 +22377,7 @@
         <v>1050</v>
       </c>
       <c r="E7" s="69" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="F7" s="30" t="s">
         <v>790</v>
@@ -22523,9 +22517,7 @@
       <c r="D14" s="30" t="s">
         <v>1064</v>
       </c>
-      <c r="E14" s="30" t="s">
-        <v>1295</v>
-      </c>
+      <c r="E14" s="30"/>
       <c r="F14" s="30" t="s">
         <v>790</v>
       </c>
@@ -22620,7 +22612,7 @@
         <v>1076</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E19" s="62" t="s">
         <v>1290</v>
@@ -22643,7 +22635,7 @@
         <v>1077</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="E20"/>
       <c r="F20" s="30" t="s">
@@ -22665,7 +22657,7 @@
         <v>1079</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>790</v>

--- a/conformancelib/testdata/85b_test_definitions_PIV_Production_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV_Production_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geoff\gsa-devel\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4386D9-660D-46CB-9117-1ED5666AE4BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E399EF-2267-4F3F-B7F4-B0180FC24CF8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -8524,11 +8524,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet2" filterMode="1"/>
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -8569,7 +8569,7 @@
       </c>
       <c r="H1" s="53"/>
     </row>
-    <row r="2" spans="1:8" ht="15.6" hidden="1">
+    <row r="2" spans="1:8" ht="15.6">
       <c r="A2" s="35" t="s">
         <v>58</v>
       </c>
@@ -8584,7 +8584,7 @@
       <c r="F2" s="37"/>
       <c r="G2" s="36"/>
     </row>
-    <row r="3" spans="1:8" hidden="1">
+    <row r="3" spans="1:8">
       <c r="A3" s="38" t="s">
         <v>58</v>
       </c>
@@ -8599,7 +8599,7 @@
       <c r="F3" s="37"/>
       <c r="G3" s="37"/>
     </row>
-    <row r="4" spans="1:8" hidden="1">
+    <row r="4" spans="1:8">
       <c r="A4" s="38" t="s">
         <v>58</v>
       </c>
@@ -8614,7 +8614,7 @@
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
     </row>
-    <row r="5" spans="1:8" ht="30" hidden="1">
+    <row r="5" spans="1:8" ht="30">
       <c r="A5" s="38" t="s">
         <v>58</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1">
+    <row r="6" spans="1:8">
       <c r="A6" s="38" t="s">
         <v>58</v>
       </c>
@@ -8654,7 +8654,7 @@
       </c>
       <c r="G6" s="38"/>
     </row>
-    <row r="7" spans="1:8" hidden="1">
+    <row r="7" spans="1:8">
       <c r="A7" s="38" t="s">
         <v>58</v>
       </c>
@@ -8673,7 +8673,7 @@
       </c>
       <c r="G7" s="38"/>
     </row>
-    <row r="8" spans="1:8" hidden="1">
+    <row r="8" spans="1:8">
       <c r="A8" s="38" t="s">
         <v>58</v>
       </c>
@@ -8692,7 +8692,7 @@
       </c>
       <c r="G8" s="38"/>
     </row>
-    <row r="9" spans="1:8" hidden="1">
+    <row r="9" spans="1:8">
       <c r="A9" s="38" t="s">
         <v>58</v>
       </c>
@@ -8711,7 +8711,7 @@
       </c>
       <c r="G9" s="38"/>
     </row>
-    <row r="10" spans="1:8" hidden="1">
+    <row r="10" spans="1:8">
       <c r="A10" s="38" t="s">
         <v>58</v>
       </c>
@@ -8730,7 +8730,7 @@
       </c>
       <c r="G10" s="38"/>
     </row>
-    <row r="11" spans="1:8" ht="30" hidden="1">
+    <row r="11" spans="1:8" ht="30">
       <c r="A11" s="38" t="s">
         <v>58</v>
       </c>
@@ -8749,7 +8749,7 @@
       </c>
       <c r="G11" s="38"/>
     </row>
-    <row r="12" spans="1:8" ht="30" hidden="1">
+    <row r="12" spans="1:8" ht="30">
       <c r="A12" s="38" t="s">
         <v>58</v>
       </c>
@@ -8768,7 +8768,7 @@
       </c>
       <c r="G12" s="38"/>
     </row>
-    <row r="13" spans="1:8" hidden="1">
+    <row r="13" spans="1:8">
       <c r="A13" s="38" t="s">
         <v>58</v>
       </c>
@@ -8787,7 +8787,7 @@
       </c>
       <c r="G13" s="38"/>
     </row>
-    <row r="14" spans="1:8" hidden="1">
+    <row r="14" spans="1:8">
       <c r="A14" s="38" t="s">
         <v>58</v>
       </c>
@@ -8806,7 +8806,7 @@
       </c>
       <c r="G14" s="38"/>
     </row>
-    <row r="15" spans="1:8" hidden="1">
+    <row r="15" spans="1:8">
       <c r="A15" s="38" t="s">
         <v>58</v>
       </c>
@@ -8825,7 +8825,7 @@
       </c>
       <c r="G15" s="38"/>
     </row>
-    <row r="16" spans="1:8" hidden="1">
+    <row r="16" spans="1:8">
       <c r="A16" s="38" t="s">
         <v>58</v>
       </c>
@@ -8840,7 +8840,7 @@
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
     </row>
-    <row r="17" spans="1:7" hidden="1">
+    <row r="17" spans="1:7">
       <c r="A17" s="38" t="s">
         <v>58</v>
       </c>
@@ -8855,7 +8855,7 @@
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
     </row>
-    <row r="18" spans="1:7" ht="30" hidden="1">
+    <row r="18" spans="1:7" ht="30">
       <c r="A18" s="38" t="s">
         <v>58</v>
       </c>
@@ -8876,7 +8876,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1">
+    <row r="19" spans="1:7">
       <c r="A19" s="38" t="s">
         <v>58</v>
       </c>
@@ -8895,7 +8895,7 @@
       </c>
       <c r="G19" s="38"/>
     </row>
-    <row r="20" spans="1:7" hidden="1">
+    <row r="20" spans="1:7">
       <c r="A20" s="38" t="s">
         <v>58</v>
       </c>
@@ -8914,7 +8914,7 @@
       </c>
       <c r="G20" s="38"/>
     </row>
-    <row r="21" spans="1:7" hidden="1">
+    <row r="21" spans="1:7">
       <c r="A21" s="38" t="s">
         <v>58</v>
       </c>
@@ -8933,7 +8933,7 @@
       </c>
       <c r="G21" s="38"/>
     </row>
-    <row r="22" spans="1:7" hidden="1">
+    <row r="22" spans="1:7">
       <c r="A22" s="38" t="s">
         <v>58</v>
       </c>
@@ -8952,7 +8952,7 @@
       </c>
       <c r="G22" s="38"/>
     </row>
-    <row r="23" spans="1:7" hidden="1">
+    <row r="23" spans="1:7">
       <c r="A23" s="38" t="s">
         <v>58</v>
       </c>
@@ -8971,7 +8971,7 @@
       </c>
       <c r="G23" s="38"/>
     </row>
-    <row r="24" spans="1:7" hidden="1">
+    <row r="24" spans="1:7">
       <c r="A24" s="39" t="s">
         <v>58</v>
       </c>
@@ -8990,7 +8990,7 @@
       </c>
       <c r="G24" s="39"/>
     </row>
-    <row r="25" spans="1:7" hidden="1">
+    <row r="25" spans="1:7">
       <c r="A25" s="38" t="s">
         <v>58</v>
       </c>
@@ -9009,7 +9009,7 @@
       </c>
       <c r="G25" s="38"/>
     </row>
-    <row r="26" spans="1:7" hidden="1">
+    <row r="26" spans="1:7">
       <c r="A26" s="38" t="s">
         <v>58</v>
       </c>
@@ -9028,7 +9028,7 @@
       </c>
       <c r="G26" s="38"/>
     </row>
-    <row r="27" spans="1:7" hidden="1">
+    <row r="27" spans="1:7">
       <c r="A27" s="39" t="s">
         <v>58</v>
       </c>
@@ -9047,7 +9047,7 @@
       </c>
       <c r="G27" s="39"/>
     </row>
-    <row r="28" spans="1:7" hidden="1">
+    <row r="28" spans="1:7">
       <c r="A28" s="39" t="s">
         <v>58</v>
       </c>
@@ -9066,7 +9066,7 @@
       </c>
       <c r="G28" s="39"/>
     </row>
-    <row r="29" spans="1:7" hidden="1">
+    <row r="29" spans="1:7">
       <c r="A29" s="39" t="s">
         <v>58</v>
       </c>
@@ -9085,7 +9085,7 @@
       </c>
       <c r="G29" s="39"/>
     </row>
-    <row r="30" spans="1:7" hidden="1">
+    <row r="30" spans="1:7">
       <c r="A30" s="39"/>
       <c r="B30" s="39" t="s">
         <v>1213</v>
@@ -9102,7 +9102,7 @@
       </c>
       <c r="G30" s="39"/>
     </row>
-    <row r="31" spans="1:7" hidden="1">
+    <row r="31" spans="1:7">
       <c r="A31" s="38" t="s">
         <v>58</v>
       </c>
@@ -9121,7 +9121,7 @@
       </c>
       <c r="G31" s="38"/>
     </row>
-    <row r="32" spans="1:7" ht="30" hidden="1">
+    <row r="32" spans="1:7" ht="30">
       <c r="A32" s="38" t="s">
         <v>58</v>
       </c>
@@ -9140,7 +9140,7 @@
       </c>
       <c r="G32" s="38"/>
     </row>
-    <row r="33" spans="1:7" hidden="1">
+    <row r="33" spans="1:7">
       <c r="A33" s="39" t="s">
         <v>58</v>
       </c>
@@ -9159,7 +9159,7 @@
       </c>
       <c r="G33" s="39"/>
     </row>
-    <row r="34" spans="1:7" hidden="1">
+    <row r="34" spans="1:7">
       <c r="A34" s="39" t="s">
         <v>58</v>
       </c>
@@ -9178,7 +9178,7 @@
       </c>
       <c r="G34" s="39"/>
     </row>
-    <row r="35" spans="1:7" hidden="1">
+    <row r="35" spans="1:7">
       <c r="A35" s="39" t="s">
         <v>58</v>
       </c>
@@ -9197,7 +9197,7 @@
       </c>
       <c r="G35" s="39"/>
     </row>
-    <row r="36" spans="1:7" hidden="1">
+    <row r="36" spans="1:7">
       <c r="A36" s="39" t="s">
         <v>58</v>
       </c>
@@ -9216,7 +9216,7 @@
       </c>
       <c r="G36" s="39"/>
     </row>
-    <row r="37" spans="1:7" hidden="1">
+    <row r="37" spans="1:7">
       <c r="A37" s="38" t="s">
         <v>58</v>
       </c>
@@ -9235,7 +9235,7 @@
       </c>
       <c r="G37" s="38"/>
     </row>
-    <row r="38" spans="1:7" hidden="1">
+    <row r="38" spans="1:7">
       <c r="A38" s="38" t="s">
         <v>58</v>
       </c>
@@ -9254,7 +9254,7 @@
       </c>
       <c r="G38" s="38"/>
     </row>
-    <row r="39" spans="1:7" hidden="1">
+    <row r="39" spans="1:7">
       <c r="A39" s="38" t="s">
         <v>58</v>
       </c>
@@ -9273,7 +9273,7 @@
       </c>
       <c r="G39" s="38"/>
     </row>
-    <row r="40" spans="1:7" ht="30" hidden="1">
+    <row r="40" spans="1:7" ht="30">
       <c r="A40" s="38" t="s">
         <v>58</v>
       </c>
@@ -9292,7 +9292,7 @@
       </c>
       <c r="G40" s="38"/>
     </row>
-    <row r="41" spans="1:7" hidden="1">
+    <row r="41" spans="1:7">
       <c r="A41" s="38" t="s">
         <v>58</v>
       </c>
@@ -9311,7 +9311,7 @@
       </c>
       <c r="G41" s="38"/>
     </row>
-    <row r="42" spans="1:7" hidden="1">
+    <row r="42" spans="1:7">
       <c r="A42" s="38" t="s">
         <v>131</v>
       </c>
@@ -9330,7 +9330,7 @@
       </c>
       <c r="G42" s="38"/>
     </row>
-    <row r="43" spans="1:7" hidden="1">
+    <row r="43" spans="1:7">
       <c r="A43" s="38" t="s">
         <v>58</v>
       </c>
@@ -9345,7 +9345,7 @@
       <c r="F43" s="37"/>
       <c r="G43" s="37"/>
     </row>
-    <row r="44" spans="1:7" hidden="1">
+    <row r="44" spans="1:7">
       <c r="A44" s="38" t="s">
         <v>58</v>
       </c>
@@ -9360,7 +9360,7 @@
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
     </row>
-    <row r="45" spans="1:7" ht="30" hidden="1">
+    <row r="45" spans="1:7" ht="30">
       <c r="A45" s="38" t="s">
         <v>58</v>
       </c>
@@ -9381,7 +9381,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1">
+    <row r="46" spans="1:7">
       <c r="A46" s="38" t="s">
         <v>58</v>
       </c>
@@ -9400,7 +9400,7 @@
       </c>
       <c r="G46" s="38"/>
     </row>
-    <row r="47" spans="1:7" hidden="1">
+    <row r="47" spans="1:7">
       <c r="A47" s="38" t="s">
         <v>58</v>
       </c>
@@ -9419,7 +9419,7 @@
       </c>
       <c r="G47" s="38"/>
     </row>
-    <row r="48" spans="1:7" hidden="1">
+    <row r="48" spans="1:7">
       <c r="A48" s="38" t="s">
         <v>58</v>
       </c>
@@ -9438,7 +9438,7 @@
       </c>
       <c r="G48" s="38"/>
     </row>
-    <row r="49" spans="1:7" hidden="1">
+    <row r="49" spans="1:7">
       <c r="A49" s="38" t="s">
         <v>58</v>
       </c>
@@ -9457,7 +9457,7 @@
       </c>
       <c r="G49" s="38"/>
     </row>
-    <row r="50" spans="1:7" hidden="1">
+    <row r="50" spans="1:7">
       <c r="A50" s="38" t="s">
         <v>58</v>
       </c>
@@ -9476,7 +9476,7 @@
       </c>
       <c r="G50" s="38"/>
     </row>
-    <row r="51" spans="1:7" hidden="1">
+    <row r="51" spans="1:7">
       <c r="A51" s="38" t="s">
         <v>58</v>
       </c>
@@ -9495,7 +9495,7 @@
       </c>
       <c r="G51" s="38"/>
     </row>
-    <row r="52" spans="1:7" hidden="1">
+    <row r="52" spans="1:7">
       <c r="A52" s="38" t="s">
         <v>58</v>
       </c>
@@ -9514,7 +9514,7 @@
       </c>
       <c r="G52" s="38"/>
     </row>
-    <row r="53" spans="1:7" hidden="1">
+    <row r="53" spans="1:7">
       <c r="A53" s="38" t="s">
         <v>58</v>
       </c>
@@ -9533,7 +9533,7 @@
       </c>
       <c r="G53" s="38"/>
     </row>
-    <row r="54" spans="1:7" hidden="1">
+    <row r="54" spans="1:7">
       <c r="A54" s="38" t="s">
         <v>131</v>
       </c>
@@ -9552,7 +9552,7 @@
       </c>
       <c r="G54" s="38"/>
     </row>
-    <row r="55" spans="1:7" hidden="1">
+    <row r="55" spans="1:7">
       <c r="A55" s="38" t="s">
         <v>58</v>
       </c>
@@ -9567,7 +9567,7 @@
       <c r="F55" s="37"/>
       <c r="G55" s="37"/>
     </row>
-    <row r="56" spans="1:7" hidden="1">
+    <row r="56" spans="1:7">
       <c r="A56" s="38" t="s">
         <v>58</v>
       </c>
@@ -9582,7 +9582,7 @@
       <c r="F56" s="37"/>
       <c r="G56" s="37"/>
     </row>
-    <row r="57" spans="1:7" hidden="1">
+    <row r="57" spans="1:7">
       <c r="A57" s="38" t="s">
         <v>58</v>
       </c>
@@ -9603,7 +9603,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1">
+    <row r="58" spans="1:7">
       <c r="A58" s="38" t="s">
         <v>58</v>
       </c>
@@ -9622,7 +9622,7 @@
       </c>
       <c r="G58" s="38"/>
     </row>
-    <row r="59" spans="1:7" hidden="1">
+    <row r="59" spans="1:7">
       <c r="A59" s="38" t="s">
         <v>58</v>
       </c>
@@ -9641,7 +9641,7 @@
       </c>
       <c r="G59" s="38"/>
     </row>
-    <row r="60" spans="1:7" hidden="1">
+    <row r="60" spans="1:7">
       <c r="A60" s="38" t="s">
         <v>58</v>
       </c>
@@ -9660,7 +9660,7 @@
       </c>
       <c r="G60" s="38"/>
     </row>
-    <row r="61" spans="1:7" hidden="1">
+    <row r="61" spans="1:7">
       <c r="A61" s="38" t="s">
         <v>58</v>
       </c>
@@ -9679,7 +9679,7 @@
       </c>
       <c r="G61" s="38"/>
     </row>
-    <row r="62" spans="1:7" hidden="1">
+    <row r="62" spans="1:7">
       <c r="A62" s="38" t="s">
         <v>58</v>
       </c>
@@ -9698,7 +9698,7 @@
       </c>
       <c r="G62" s="38"/>
     </row>
-    <row r="63" spans="1:7" hidden="1">
+    <row r="63" spans="1:7">
       <c r="A63" s="38" t="s">
         <v>58</v>
       </c>
@@ -9717,7 +9717,7 @@
       </c>
       <c r="G63" s="38"/>
     </row>
-    <row r="64" spans="1:7" hidden="1">
+    <row r="64" spans="1:7">
       <c r="A64" s="38" t="s">
         <v>58</v>
       </c>
@@ -9736,7 +9736,7 @@
       </c>
       <c r="G64" s="38"/>
     </row>
-    <row r="65" spans="1:7" hidden="1">
+    <row r="65" spans="1:7">
       <c r="A65" s="38" t="s">
         <v>58</v>
       </c>
@@ -9755,7 +9755,7 @@
       </c>
       <c r="G65" s="38"/>
     </row>
-    <row r="66" spans="1:7" hidden="1">
+    <row r="66" spans="1:7">
       <c r="A66" s="38" t="s">
         <v>58</v>
       </c>
@@ -9770,7 +9770,7 @@
       <c r="F66" s="37"/>
       <c r="G66" s="37"/>
     </row>
-    <row r="67" spans="1:7" hidden="1">
+    <row r="67" spans="1:7">
       <c r="A67" s="38" t="s">
         <v>58</v>
       </c>
@@ -9785,7 +9785,7 @@
       <c r="F67" s="37"/>
       <c r="G67" s="37"/>
     </row>
-    <row r="68" spans="1:7" ht="30" hidden="1">
+    <row r="68" spans="1:7" ht="30">
       <c r="A68" s="38" t="s">
         <v>58</v>
       </c>
@@ -9806,7 +9806,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1">
+    <row r="69" spans="1:7">
       <c r="A69" s="38" t="s">
         <v>58</v>
       </c>
@@ -9825,7 +9825,7 @@
       </c>
       <c r="G69" s="38"/>
     </row>
-    <row r="70" spans="1:7" hidden="1">
+    <row r="70" spans="1:7">
       <c r="A70" s="38" t="s">
         <v>58</v>
       </c>
@@ -9844,7 +9844,7 @@
       </c>
       <c r="G70" s="38"/>
     </row>
-    <row r="71" spans="1:7" hidden="1">
+    <row r="71" spans="1:7">
       <c r="A71" s="38" t="s">
         <v>58</v>
       </c>
@@ -9863,7 +9863,7 @@
       </c>
       <c r="G71" s="38"/>
     </row>
-    <row r="72" spans="1:7" hidden="1">
+    <row r="72" spans="1:7">
       <c r="A72" s="38" t="s">
         <v>58</v>
       </c>
@@ -9882,7 +9882,7 @@
       </c>
       <c r="G72" s="38"/>
     </row>
-    <row r="73" spans="1:7" hidden="1">
+    <row r="73" spans="1:7">
       <c r="A73" s="38" t="s">
         <v>58</v>
       </c>
@@ -9901,7 +9901,7 @@
       </c>
       <c r="G73" s="38"/>
     </row>
-    <row r="74" spans="1:7" hidden="1">
+    <row r="74" spans="1:7">
       <c r="A74" s="39" t="s">
         <v>58</v>
       </c>
@@ -9920,7 +9920,7 @@
       </c>
       <c r="G74" s="39"/>
     </row>
-    <row r="75" spans="1:7" hidden="1">
+    <row r="75" spans="1:7">
       <c r="A75" s="39" t="s">
         <v>58</v>
       </c>
@@ -9939,7 +9939,7 @@
       </c>
       <c r="G75" s="39"/>
     </row>
-    <row r="76" spans="1:7" hidden="1">
+    <row r="76" spans="1:7">
       <c r="A76" s="38" t="s">
         <v>58</v>
       </c>
@@ -9958,7 +9958,7 @@
       </c>
       <c r="G76" s="38"/>
     </row>
-    <row r="77" spans="1:7" hidden="1">
+    <row r="77" spans="1:7">
       <c r="A77" s="38" t="s">
         <v>58</v>
       </c>
@@ -9977,7 +9977,7 @@
       </c>
       <c r="G77" s="38"/>
     </row>
-    <row r="78" spans="1:7" hidden="1">
+    <row r="78" spans="1:7">
       <c r="A78" s="38" t="s">
         <v>58</v>
       </c>
@@ -9996,7 +9996,7 @@
       </c>
       <c r="G78" s="38"/>
     </row>
-    <row r="79" spans="1:7" hidden="1">
+    <row r="79" spans="1:7">
       <c r="A79" s="38" t="s">
         <v>131</v>
       </c>
@@ -10015,7 +10015,7 @@
       </c>
       <c r="G79" s="38"/>
     </row>
-    <row r="80" spans="1:7" hidden="1">
+    <row r="80" spans="1:7">
       <c r="A80" s="38" t="s">
         <v>58</v>
       </c>
@@ -10030,7 +10030,7 @@
       <c r="F80" s="37"/>
       <c r="G80" s="37"/>
     </row>
-    <row r="81" spans="1:7" hidden="1">
+    <row r="81" spans="1:7">
       <c r="A81" s="38" t="s">
         <v>58</v>
       </c>
@@ -10045,7 +10045,7 @@
       <c r="F81" s="37"/>
       <c r="G81" s="37"/>
     </row>
-    <row r="82" spans="1:7" hidden="1">
+    <row r="82" spans="1:7">
       <c r="A82" s="38" t="s">
         <v>58</v>
       </c>
@@ -10066,7 +10066,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1">
+    <row r="83" spans="1:7">
       <c r="A83" s="38" t="s">
         <v>58</v>
       </c>
@@ -10085,7 +10085,7 @@
       </c>
       <c r="G83" s="38"/>
     </row>
-    <row r="84" spans="1:7" hidden="1">
+    <row r="84" spans="1:7">
       <c r="A84" s="38" t="s">
         <v>58</v>
       </c>
@@ -10104,7 +10104,7 @@
       </c>
       <c r="G84" s="38"/>
     </row>
-    <row r="85" spans="1:7" hidden="1">
+    <row r="85" spans="1:7">
       <c r="A85" s="38" t="s">
         <v>58</v>
       </c>
@@ -10123,7 +10123,7 @@
       </c>
       <c r="G85" s="38"/>
     </row>
-    <row r="86" spans="1:7" hidden="1">
+    <row r="86" spans="1:7">
       <c r="A86" s="38" t="s">
         <v>58</v>
       </c>
@@ -10142,7 +10142,7 @@
       </c>
       <c r="G86" s="38"/>
     </row>
-    <row r="87" spans="1:7" hidden="1">
+    <row r="87" spans="1:7">
       <c r="A87" s="38" t="s">
         <v>58</v>
       </c>
@@ -10161,7 +10161,7 @@
       </c>
       <c r="G87" s="38"/>
     </row>
-    <row r="88" spans="1:7" hidden="1">
+    <row r="88" spans="1:7">
       <c r="A88" s="38" t="s">
         <v>58</v>
       </c>
@@ -10180,7 +10180,7 @@
       </c>
       <c r="G88" s="38"/>
     </row>
-    <row r="89" spans="1:7" hidden="1">
+    <row r="89" spans="1:7">
       <c r="A89" s="38" t="s">
         <v>131</v>
       </c>
@@ -10199,7 +10199,7 @@
       </c>
       <c r="G89" s="38"/>
     </row>
-    <row r="90" spans="1:7" hidden="1">
+    <row r="90" spans="1:7">
       <c r="A90" s="38" t="s">
         <v>58</v>
       </c>
@@ -10214,7 +10214,7 @@
       <c r="F90" s="37"/>
       <c r="G90" s="37"/>
     </row>
-    <row r="91" spans="1:7" hidden="1">
+    <row r="91" spans="1:7">
       <c r="A91" s="38" t="s">
         <v>58</v>
       </c>
@@ -10229,7 +10229,7 @@
       <c r="F91" s="37"/>
       <c r="G91" s="37"/>
     </row>
-    <row r="92" spans="1:7" ht="30" hidden="1">
+    <row r="92" spans="1:7" ht="30">
       <c r="A92" s="38" t="s">
         <v>58</v>
       </c>
@@ -10250,7 +10250,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1">
+    <row r="93" spans="1:7">
       <c r="A93" s="38" t="s">
         <v>58</v>
       </c>
@@ -10269,7 +10269,7 @@
       </c>
       <c r="G93" s="38"/>
     </row>
-    <row r="94" spans="1:7" hidden="1">
+    <row r="94" spans="1:7">
       <c r="A94" s="38" t="s">
         <v>58</v>
       </c>
@@ -10288,7 +10288,7 @@
       </c>
       <c r="G94" s="38"/>
     </row>
-    <row r="95" spans="1:7" hidden="1">
+    <row r="95" spans="1:7">
       <c r="A95" s="38" t="s">
         <v>58</v>
       </c>
@@ -10307,7 +10307,7 @@
       </c>
       <c r="G95" s="38"/>
     </row>
-    <row r="96" spans="1:7" hidden="1">
+    <row r="96" spans="1:7">
       <c r="A96" s="38" t="s">
         <v>58</v>
       </c>
@@ -10326,7 +10326,7 @@
       </c>
       <c r="G96" s="38"/>
     </row>
-    <row r="97" spans="1:7" hidden="1">
+    <row r="97" spans="1:7">
       <c r="A97" s="38" t="s">
         <v>58</v>
       </c>
@@ -10345,7 +10345,7 @@
       </c>
       <c r="G97" s="38"/>
     </row>
-    <row r="98" spans="1:7" hidden="1">
+    <row r="98" spans="1:7">
       <c r="A98" s="38" t="s">
         <v>58</v>
       </c>
@@ -10364,7 +10364,7 @@
       </c>
       <c r="G98" s="38"/>
     </row>
-    <row r="99" spans="1:7" hidden="1">
+    <row r="99" spans="1:7">
       <c r="A99" s="38" t="s">
         <v>58</v>
       </c>
@@ -10383,7 +10383,7 @@
       </c>
       <c r="G99" s="38"/>
     </row>
-    <row r="100" spans="1:7" hidden="1">
+    <row r="100" spans="1:7">
       <c r="A100" s="38" t="s">
         <v>58</v>
       </c>
@@ -10402,7 +10402,7 @@
       </c>
       <c r="G100" s="38"/>
     </row>
-    <row r="101" spans="1:7" hidden="1">
+    <row r="101" spans="1:7">
       <c r="A101" s="38" t="s">
         <v>131</v>
       </c>
@@ -10421,7 +10421,7 @@
       </c>
       <c r="G101" s="38"/>
     </row>
-    <row r="102" spans="1:7" hidden="1">
+    <row r="102" spans="1:7">
       <c r="A102" s="38" t="s">
         <v>58</v>
       </c>
@@ -10436,7 +10436,7 @@
       <c r="F102" s="37"/>
       <c r="G102" s="37"/>
     </row>
-    <row r="103" spans="1:7" hidden="1">
+    <row r="103" spans="1:7">
       <c r="A103" s="38" t="s">
         <v>58</v>
       </c>
@@ -10451,7 +10451,7 @@
       <c r="F103" s="37"/>
       <c r="G103" s="37"/>
     </row>
-    <row r="104" spans="1:7" ht="30" hidden="1">
+    <row r="104" spans="1:7" ht="30">
       <c r="A104" s="38" t="s">
         <v>58</v>
       </c>
@@ -10472,7 +10472,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1">
+    <row r="105" spans="1:7">
       <c r="A105" s="38" t="s">
         <v>58</v>
       </c>
@@ -10491,7 +10491,7 @@
       </c>
       <c r="G105" s="38"/>
     </row>
-    <row r="106" spans="1:7" hidden="1">
+    <row r="106" spans="1:7">
       <c r="A106" s="38" t="s">
         <v>58</v>
       </c>
@@ -10510,7 +10510,7 @@
       </c>
       <c r="G106" s="38"/>
     </row>
-    <row r="107" spans="1:7" hidden="1">
+    <row r="107" spans="1:7">
       <c r="A107" s="38" t="s">
         <v>58</v>
       </c>
@@ -10529,7 +10529,7 @@
       </c>
       <c r="G107" s="38"/>
     </row>
-    <row r="108" spans="1:7" hidden="1">
+    <row r="108" spans="1:7">
       <c r="A108" s="38" t="s">
         <v>58</v>
       </c>
@@ -10548,7 +10548,7 @@
       </c>
       <c r="G108" s="38"/>
     </row>
-    <row r="109" spans="1:7" hidden="1">
+    <row r="109" spans="1:7">
       <c r="A109" s="38" t="s">
         <v>58</v>
       </c>
@@ -10567,7 +10567,7 @@
       </c>
       <c r="G109" s="38"/>
     </row>
-    <row r="110" spans="1:7" hidden="1">
+    <row r="110" spans="1:7">
       <c r="A110" s="38" t="s">
         <v>58</v>
       </c>
@@ -10586,7 +10586,7 @@
       </c>
       <c r="G110" s="38"/>
     </row>
-    <row r="111" spans="1:7" hidden="1">
+    <row r="111" spans="1:7">
       <c r="A111" s="38" t="s">
         <v>58</v>
       </c>
@@ -10605,7 +10605,7 @@
       </c>
       <c r="G111" s="38"/>
     </row>
-    <row r="112" spans="1:7" hidden="1">
+    <row r="112" spans="1:7">
       <c r="A112" s="38" t="s">
         <v>58</v>
       </c>
@@ -10624,7 +10624,7 @@
       </c>
       <c r="G112" s="38"/>
     </row>
-    <row r="113" spans="1:7" hidden="1">
+    <row r="113" spans="1:7">
       <c r="A113" s="38" t="s">
         <v>131</v>
       </c>
@@ -10643,7 +10643,7 @@
       </c>
       <c r="G113" s="38"/>
     </row>
-    <row r="114" spans="1:7" hidden="1">
+    <row r="114" spans="1:7">
       <c r="A114" s="38" t="s">
         <v>58</v>
       </c>
@@ -10658,7 +10658,7 @@
       <c r="F114" s="37"/>
       <c r="G114" s="37"/>
     </row>
-    <row r="115" spans="1:7" hidden="1">
+    <row r="115" spans="1:7">
       <c r="A115" s="38" t="s">
         <v>58</v>
       </c>
@@ -10673,7 +10673,7 @@
       <c r="F115" s="37"/>
       <c r="G115" s="37"/>
     </row>
-    <row r="116" spans="1:7" ht="30" hidden="1">
+    <row r="116" spans="1:7" ht="30">
       <c r="A116" s="38" t="s">
         <v>58</v>
       </c>
@@ -10694,7 +10694,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1">
+    <row r="117" spans="1:7">
       <c r="A117" s="38" t="s">
         <v>58</v>
       </c>
@@ -10713,7 +10713,7 @@
       </c>
       <c r="G117" s="38"/>
     </row>
-    <row r="118" spans="1:7" hidden="1">
+    <row r="118" spans="1:7">
       <c r="A118" s="38" t="s">
         <v>58</v>
       </c>
@@ -10732,7 +10732,7 @@
       </c>
       <c r="G118" s="38"/>
     </row>
-    <row r="119" spans="1:7" hidden="1">
+    <row r="119" spans="1:7">
       <c r="A119" s="38" t="s">
         <v>58</v>
       </c>
@@ -10751,7 +10751,7 @@
       </c>
       <c r="G119" s="38"/>
     </row>
-    <row r="120" spans="1:7" hidden="1">
+    <row r="120" spans="1:7">
       <c r="A120" s="38" t="s">
         <v>58</v>
       </c>
@@ -10770,7 +10770,7 @@
       </c>
       <c r="G120" s="38"/>
     </row>
-    <row r="121" spans="1:7" hidden="1">
+    <row r="121" spans="1:7">
       <c r="A121" s="38" t="s">
         <v>58</v>
       </c>
@@ -10789,7 +10789,7 @@
       </c>
       <c r="G121" s="38"/>
     </row>
-    <row r="122" spans="1:7" hidden="1">
+    <row r="122" spans="1:7">
       <c r="A122" s="38" t="s">
         <v>58</v>
       </c>
@@ -10808,7 +10808,7 @@
       </c>
       <c r="G122" s="38"/>
     </row>
-    <row r="123" spans="1:7" hidden="1">
+    <row r="123" spans="1:7">
       <c r="A123" s="38" t="s">
         <v>58</v>
       </c>
@@ -10827,7 +10827,7 @@
       </c>
       <c r="G123" s="38"/>
     </row>
-    <row r="124" spans="1:7" hidden="1">
+    <row r="124" spans="1:7">
       <c r="A124" s="38" t="s">
         <v>58</v>
       </c>
@@ -10846,7 +10846,7 @@
       </c>
       <c r="G124" s="38"/>
     </row>
-    <row r="125" spans="1:7" hidden="1">
+    <row r="125" spans="1:7">
       <c r="A125" s="38" t="s">
         <v>131</v>
       </c>
@@ -10865,7 +10865,7 @@
       </c>
       <c r="G125" s="38"/>
     </row>
-    <row r="126" spans="1:7" hidden="1">
+    <row r="126" spans="1:7">
       <c r="A126" s="38" t="s">
         <v>58</v>
       </c>
@@ -10880,7 +10880,7 @@
       <c r="F126" s="37"/>
       <c r="G126" s="37"/>
     </row>
-    <row r="127" spans="1:7" hidden="1">
+    <row r="127" spans="1:7">
       <c r="A127" s="38" t="s">
         <v>58</v>
       </c>
@@ -10895,7 +10895,7 @@
       <c r="F127" s="37"/>
       <c r="G127" s="37"/>
     </row>
-    <row r="128" spans="1:7" hidden="1">
+    <row r="128" spans="1:7">
       <c r="A128" s="38" t="s">
         <v>58</v>
       </c>
@@ -10916,7 +10916,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1">
+    <row r="129" spans="1:7">
       <c r="A129" s="38" t="s">
         <v>58</v>
       </c>
@@ -10935,7 +10935,7 @@
       </c>
       <c r="G129" s="38"/>
     </row>
-    <row r="130" spans="1:7" hidden="1">
+    <row r="130" spans="1:7">
       <c r="A130" s="38" t="s">
         <v>58</v>
       </c>
@@ -10954,7 +10954,7 @@
       </c>
       <c r="G130" s="38"/>
     </row>
-    <row r="131" spans="1:7" hidden="1">
+    <row r="131" spans="1:7">
       <c r="A131" s="38" t="s">
         <v>58</v>
       </c>
@@ -10973,7 +10973,7 @@
       </c>
       <c r="G131" s="38"/>
     </row>
-    <row r="132" spans="1:7" hidden="1">
+    <row r="132" spans="1:7">
       <c r="A132" s="38" t="s">
         <v>58</v>
       </c>
@@ -10992,7 +10992,7 @@
       </c>
       <c r="G132" s="38"/>
     </row>
-    <row r="133" spans="1:7" hidden="1">
+    <row r="133" spans="1:7">
       <c r="A133" s="38" t="s">
         <v>58</v>
       </c>
@@ -11011,7 +11011,7 @@
       </c>
       <c r="G133" s="38"/>
     </row>
-    <row r="134" spans="1:7" hidden="1">
+    <row r="134" spans="1:7">
       <c r="A134" s="39" t="s">
         <v>58</v>
       </c>
@@ -11030,7 +11030,7 @@
       </c>
       <c r="G134" s="39"/>
     </row>
-    <row r="135" spans="1:7" hidden="1">
+    <row r="135" spans="1:7">
       <c r="A135" s="38" t="s">
         <v>58</v>
       </c>
@@ -11049,7 +11049,7 @@
       </c>
       <c r="G135" s="38"/>
     </row>
-    <row r="136" spans="1:7" ht="30" hidden="1">
+    <row r="136" spans="1:7" ht="30">
       <c r="A136" s="38" t="s">
         <v>58</v>
       </c>
@@ -11068,7 +11068,7 @@
       </c>
       <c r="G136" s="38"/>
     </row>
-    <row r="137" spans="1:7" hidden="1">
+    <row r="137" spans="1:7">
       <c r="A137" s="38" t="s">
         <v>58</v>
       </c>
@@ -11083,7 +11083,7 @@
       <c r="F137" s="37"/>
       <c r="G137" s="37"/>
     </row>
-    <row r="138" spans="1:7" hidden="1">
+    <row r="138" spans="1:7">
       <c r="A138" s="38" t="s">
         <v>58</v>
       </c>
@@ -11098,7 +11098,7 @@
       <c r="F138" s="37"/>
       <c r="G138" s="37"/>
     </row>
-    <row r="139" spans="1:7" ht="30" hidden="1">
+    <row r="139" spans="1:7" ht="30">
       <c r="A139" s="38" t="s">
         <v>58</v>
       </c>
@@ -11121,7 +11121,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1">
+    <row r="140" spans="1:7">
       <c r="A140" s="38" t="s">
         <v>58</v>
       </c>
@@ -11142,7 +11142,7 @@
       </c>
       <c r="G140" s="38"/>
     </row>
-    <row r="141" spans="1:7" hidden="1">
+    <row r="141" spans="1:7">
       <c r="A141" s="38" t="s">
         <v>58</v>
       </c>
@@ -11163,7 +11163,7 @@
       </c>
       <c r="G141" s="38"/>
     </row>
-    <row r="142" spans="1:7" hidden="1">
+    <row r="142" spans="1:7">
       <c r="A142" s="38" t="s">
         <v>58</v>
       </c>
@@ -11184,7 +11184,7 @@
       </c>
       <c r="G142" s="38"/>
     </row>
-    <row r="143" spans="1:7" hidden="1">
+    <row r="143" spans="1:7">
       <c r="A143" s="38" t="s">
         <v>58</v>
       </c>
@@ -11205,7 +11205,7 @@
       </c>
       <c r="G143" s="38"/>
     </row>
-    <row r="144" spans="1:7" hidden="1">
+    <row r="144" spans="1:7">
       <c r="A144" s="38" t="s">
         <v>58</v>
       </c>
@@ -11226,7 +11226,7 @@
       </c>
       <c r="G144" s="38"/>
     </row>
-    <row r="145" spans="1:8" ht="19.5" hidden="1" customHeight="1">
+    <row r="145" spans="1:8" ht="19.5" customHeight="1">
       <c r="A145" s="39" t="s">
         <v>58</v>
       </c>
@@ -11245,7 +11245,7 @@
       </c>
       <c r="G145" s="39"/>
     </row>
-    <row r="146" spans="1:8" hidden="1">
+    <row r="146" spans="1:8">
       <c r="A146" s="38" t="s">
         <v>58</v>
       </c>
@@ -11266,7 +11266,7 @@
       </c>
       <c r="G146" s="38"/>
     </row>
-    <row r="147" spans="1:8" ht="45" hidden="1">
+    <row r="147" spans="1:8" ht="45">
       <c r="A147" s="38" t="s">
         <v>58</v>
       </c>
@@ -11287,7 +11287,7 @@
       </c>
       <c r="G147" s="38"/>
     </row>
-    <row r="148" spans="1:8" hidden="1">
+    <row r="148" spans="1:8">
       <c r="A148" s="38" t="s">
         <v>131</v>
       </c>
@@ -11308,7 +11308,7 @@
       </c>
       <c r="G148" s="38"/>
     </row>
-    <row r="149" spans="1:8" hidden="1">
+    <row r="149" spans="1:8">
       <c r="A149" s="38" t="s">
         <v>131</v>
       </c>
@@ -11327,7 +11327,7 @@
       </c>
       <c r="G149" s="38"/>
     </row>
-    <row r="150" spans="1:8" hidden="1">
+    <row r="150" spans="1:8">
       <c r="A150" s="38" t="s">
         <v>58</v>
       </c>
@@ -11344,7 +11344,7 @@
       <c r="F150" s="37"/>
       <c r="G150" s="37"/>
     </row>
-    <row r="151" spans="1:8" hidden="1">
+    <row r="151" spans="1:8">
       <c r="A151" s="38" t="s">
         <v>58</v>
       </c>
@@ -11361,7 +11361,7 @@
       <c r="F151" s="37"/>
       <c r="G151" s="37"/>
     </row>
-    <row r="152" spans="1:8" hidden="1">
+    <row r="152" spans="1:8">
       <c r="A152" s="38" t="s">
         <v>58</v>
       </c>
@@ -11382,7 +11382,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="153" spans="1:8" hidden="1">
+    <row r="153" spans="1:8">
       <c r="A153" s="38" t="s">
         <v>58</v>
       </c>
@@ -11403,7 +11403,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="154" spans="1:8" hidden="1">
+    <row r="154" spans="1:8">
       <c r="A154" s="38" t="s">
         <v>58</v>
       </c>
@@ -11424,7 +11424,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="155" spans="1:8" hidden="1">
+    <row r="155" spans="1:8">
       <c r="A155" s="38" t="s">
         <v>58</v>
       </c>
@@ -11441,7 +11441,7 @@
       <c r="F155" s="37"/>
       <c r="G155" s="41"/>
     </row>
-    <row r="156" spans="1:8" hidden="1">
+    <row r="156" spans="1:8">
       <c r="A156" s="38" t="s">
         <v>58</v>
       </c>
@@ -11458,7 +11458,7 @@
       <c r="F156" s="37"/>
       <c r="G156" s="41"/>
     </row>
-    <row r="157" spans="1:8" hidden="1">
+    <row r="157" spans="1:8">
       <c r="A157" s="38" t="s">
         <v>58</v>
       </c>
@@ -11475,7 +11475,7 @@
       <c r="F157" s="37"/>
       <c r="G157" s="41"/>
     </row>
-    <row r="158" spans="1:8" ht="15.6" hidden="1">
+    <row r="158" spans="1:8" ht="15.6">
       <c r="A158" s="65" t="s">
         <v>58</v>
       </c>
@@ -11490,7 +11490,7 @@
       <c r="F158" s="37"/>
       <c r="G158" s="36"/>
     </row>
-    <row r="159" spans="1:8" hidden="1">
+    <row r="159" spans="1:8">
       <c r="A159" s="65" t="s">
         <v>58</v>
       </c>
@@ -11505,7 +11505,7 @@
       <c r="F159" s="37"/>
       <c r="G159" s="37"/>
     </row>
-    <row r="160" spans="1:8" s="76" customFormat="1" hidden="1">
+    <row r="160" spans="1:8" s="76" customFormat="1">
       <c r="A160" s="73" t="s">
         <v>58</v>
       </c>
@@ -11523,7 +11523,7 @@
       <c r="G160" s="40"/>
       <c r="H160" s="75"/>
     </row>
-    <row r="161" spans="1:7" hidden="1">
+    <row r="161" spans="1:7">
       <c r="A161" s="65" t="s">
         <v>58</v>
       </c>
@@ -11542,7 +11542,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1">
+    <row r="162" spans="1:7">
       <c r="A162" s="65" t="s">
         <v>58</v>
       </c>
@@ -11559,7 +11559,7 @@
       <c r="F162" s="38"/>
       <c r="G162" s="38"/>
     </row>
-    <row r="163" spans="1:7" hidden="1">
+    <row r="163" spans="1:7">
       <c r="A163" s="65" t="s">
         <v>58</v>
       </c>
@@ -11576,7 +11576,7 @@
       <c r="F163" s="38"/>
       <c r="G163" s="38"/>
     </row>
-    <row r="164" spans="1:7" hidden="1">
+    <row r="164" spans="1:7">
       <c r="A164" s="38" t="s">
         <v>58</v>
       </c>
@@ -11595,7 +11595,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1">
+    <row r="165" spans="1:7">
       <c r="A165" s="38" t="s">
         <v>58</v>
       </c>
@@ -11610,7 +11610,7 @@
       <c r="F165" s="41"/>
       <c r="G165" s="41"/>
     </row>
-    <row r="166" spans="1:7" s="51" customFormat="1" hidden="1">
+    <row r="166" spans="1:7" s="51" customFormat="1">
       <c r="A166" s="65" t="s">
         <v>58</v>
       </c>
@@ -11627,7 +11627,7 @@
       <c r="F166" s="65"/>
       <c r="G166" s="65"/>
     </row>
-    <row r="167" spans="1:7" hidden="1">
+    <row r="167" spans="1:7">
       <c r="A167" s="38" t="s">
         <v>58</v>
       </c>
@@ -11644,7 +11644,7 @@
       <c r="F167" s="38"/>
       <c r="G167" s="38"/>
     </row>
-    <row r="168" spans="1:7" ht="30" hidden="1">
+    <row r="168" spans="1:7" ht="30">
       <c r="A168" s="38" t="s">
         <v>58</v>
       </c>
@@ -11661,7 +11661,7 @@
       <c r="F168" s="38"/>
       <c r="G168" s="38"/>
     </row>
-    <row r="169" spans="1:7" hidden="1">
+    <row r="169" spans="1:7">
       <c r="A169" s="38" t="s">
         <v>58</v>
       </c>
@@ -11678,7 +11678,7 @@
       <c r="F169" s="40"/>
       <c r="G169" s="38"/>
     </row>
-    <row r="170" spans="1:7" ht="30" hidden="1">
+    <row r="170" spans="1:7" ht="30">
       <c r="A170" s="38" t="s">
         <v>58</v>
       </c>
@@ -11695,7 +11695,7 @@
       <c r="F170" s="40"/>
       <c r="G170" s="38"/>
     </row>
-    <row r="171" spans="1:7" hidden="1">
+    <row r="171" spans="1:7">
       <c r="A171" s="38" t="s">
         <v>58</v>
       </c>
@@ -11712,7 +11712,7 @@
       <c r="F171" s="40"/>
       <c r="G171" s="38"/>
     </row>
-    <row r="172" spans="1:7" hidden="1">
+    <row r="172" spans="1:7">
       <c r="A172" s="38" t="s">
         <v>58</v>
       </c>
@@ -11729,7 +11729,7 @@
       <c r="F172" s="40"/>
       <c r="G172" s="38"/>
     </row>
-    <row r="173" spans="1:7" ht="30" hidden="1">
+    <row r="173" spans="1:7" ht="30">
       <c r="A173" s="38" t="s">
         <v>58</v>
       </c>
@@ -11746,7 +11746,7 @@
       <c r="F173" s="40"/>
       <c r="G173" s="38"/>
     </row>
-    <row r="174" spans="1:7" hidden="1">
+    <row r="174" spans="1:7">
       <c r="A174" s="38" t="s">
         <v>58</v>
       </c>
@@ -11763,7 +11763,7 @@
       <c r="F174" s="40"/>
       <c r="G174" s="38"/>
     </row>
-    <row r="175" spans="1:7" ht="45" hidden="1">
+    <row r="175" spans="1:7" ht="45">
       <c r="A175" s="38" t="s">
         <v>58</v>
       </c>
@@ -11780,7 +11780,7 @@
       <c r="F175" s="38"/>
       <c r="G175" s="38"/>
     </row>
-    <row r="176" spans="1:7" ht="30" hidden="1">
+    <row r="176" spans="1:7" ht="30">
       <c r="A176" s="38" t="s">
         <v>58</v>
       </c>
@@ -11797,7 +11797,7 @@
       <c r="F176" s="38"/>
       <c r="G176" s="38"/>
     </row>
-    <row r="177" spans="1:7" hidden="1">
+    <row r="177" spans="1:7">
       <c r="A177" s="38" t="s">
         <v>58</v>
       </c>
@@ -11814,7 +11814,7 @@
       <c r="F177" s="38"/>
       <c r="G177" s="38"/>
     </row>
-    <row r="178" spans="1:7" hidden="1">
+    <row r="178" spans="1:7">
       <c r="A178" s="38" t="s">
         <v>58</v>
       </c>
@@ -11829,7 +11829,7 @@
       <c r="F178" s="41"/>
       <c r="G178" s="42"/>
     </row>
-    <row r="179" spans="1:7" hidden="1">
+    <row r="179" spans="1:7">
       <c r="A179" s="38" t="s">
         <v>58</v>
       </c>
@@ -11844,7 +11844,7 @@
       <c r="F179" s="41"/>
       <c r="G179" s="41"/>
     </row>
-    <row r="180" spans="1:7" hidden="1">
+    <row r="180" spans="1:7">
       <c r="A180" s="38" t="s">
         <v>58</v>
       </c>
@@ -11863,7 +11863,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="181" spans="1:7" hidden="1">
+    <row r="181" spans="1:7">
       <c r="A181" s="38" t="s">
         <v>58</v>
       </c>
@@ -11880,7 +11880,7 @@
       <c r="F181" s="38"/>
       <c r="G181" s="38"/>
     </row>
-    <row r="182" spans="1:7" hidden="1">
+    <row r="182" spans="1:7">
       <c r="A182" s="38" t="s">
         <v>58</v>
       </c>
@@ -11897,7 +11897,7 @@
       <c r="F182" s="38"/>
       <c r="G182" s="38"/>
     </row>
-    <row r="183" spans="1:7" hidden="1">
+    <row r="183" spans="1:7">
       <c r="A183" s="38" t="s">
         <v>58</v>
       </c>
@@ -11914,7 +11914,7 @@
       <c r="F183" s="38"/>
       <c r="G183" s="38"/>
     </row>
-    <row r="184" spans="1:7" hidden="1">
+    <row r="184" spans="1:7">
       <c r="A184" s="38" t="s">
         <v>58</v>
       </c>
@@ -11929,7 +11929,7 @@
       <c r="F184" s="41"/>
       <c r="G184" s="41"/>
     </row>
-    <row r="185" spans="1:7" hidden="1">
+    <row r="185" spans="1:7">
       <c r="A185" s="38" t="s">
         <v>58</v>
       </c>
@@ -11948,7 +11948,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="186" spans="1:7" hidden="1">
+    <row r="186" spans="1:7">
       <c r="A186" s="38" t="s">
         <v>58</v>
       </c>
@@ -11965,7 +11965,7 @@
       <c r="F186" s="38"/>
       <c r="G186" s="38"/>
     </row>
-    <row r="187" spans="1:7" ht="30" hidden="1">
+    <row r="187" spans="1:7" ht="30">
       <c r="A187" s="38" t="s">
         <v>58</v>
       </c>
@@ -11982,7 +11982,7 @@
       <c r="F187" s="38"/>
       <c r="G187" s="38"/>
     </row>
-    <row r="188" spans="1:7" hidden="1">
+    <row r="188" spans="1:7">
       <c r="A188" s="38" t="s">
         <v>58</v>
       </c>
@@ -11999,7 +11999,7 @@
       <c r="F188" s="40"/>
       <c r="G188" s="38"/>
     </row>
-    <row r="189" spans="1:7" ht="30" hidden="1">
+    <row r="189" spans="1:7" ht="30">
       <c r="A189" s="38" t="s">
         <v>58</v>
       </c>
@@ -12016,7 +12016,7 @@
       <c r="F189" s="40"/>
       <c r="G189" s="38"/>
     </row>
-    <row r="190" spans="1:7" hidden="1">
+    <row r="190" spans="1:7">
       <c r="A190" s="38" t="s">
         <v>58</v>
       </c>
@@ -12033,7 +12033,7 @@
       <c r="F190" s="40"/>
       <c r="G190" s="38"/>
     </row>
-    <row r="191" spans="1:7" hidden="1">
+    <row r="191" spans="1:7">
       <c r="A191" s="38" t="s">
         <v>58</v>
       </c>
@@ -12050,7 +12050,7 @@
       <c r="F191" s="40"/>
       <c r="G191" s="38"/>
     </row>
-    <row r="192" spans="1:7" ht="30" hidden="1">
+    <row r="192" spans="1:7" ht="30">
       <c r="A192" s="38" t="s">
         <v>58</v>
       </c>
@@ -12067,7 +12067,7 @@
       <c r="F192" s="40"/>
       <c r="G192" s="38"/>
     </row>
-    <row r="193" spans="1:7" hidden="1">
+    <row r="193" spans="1:7">
       <c r="A193" s="38" t="s">
         <v>58</v>
       </c>
@@ -12084,7 +12084,7 @@
       <c r="F193" s="40"/>
       <c r="G193" s="38"/>
     </row>
-    <row r="194" spans="1:7" ht="45" hidden="1">
+    <row r="194" spans="1:7" ht="45">
       <c r="A194" s="38" t="s">
         <v>58</v>
       </c>
@@ -12101,7 +12101,7 @@
       <c r="F194" s="38"/>
       <c r="G194" s="38"/>
     </row>
-    <row r="195" spans="1:7" ht="30" hidden="1">
+    <row r="195" spans="1:7" ht="30">
       <c r="A195" s="38" t="s">
         <v>58</v>
       </c>
@@ -12118,7 +12118,7 @@
       <c r="F195" s="38"/>
       <c r="G195" s="38"/>
     </row>
-    <row r="196" spans="1:7" hidden="1">
+    <row r="196" spans="1:7">
       <c r="A196" s="38" t="s">
         <v>58</v>
       </c>
@@ -12135,7 +12135,7 @@
       <c r="F196" s="38"/>
       <c r="G196" s="38"/>
     </row>
-    <row r="197" spans="1:7" hidden="1">
+    <row r="197" spans="1:7">
       <c r="A197" s="38" t="s">
         <v>58</v>
       </c>
@@ -12150,7 +12150,7 @@
       <c r="F197" s="41"/>
       <c r="G197" s="41"/>
     </row>
-    <row r="198" spans="1:7" hidden="1">
+    <row r="198" spans="1:7">
       <c r="A198" s="38" t="s">
         <v>58</v>
       </c>
@@ -12165,7 +12165,7 @@
       <c r="F198" s="41"/>
       <c r="G198" s="41"/>
     </row>
-    <row r="199" spans="1:7" hidden="1">
+    <row r="199" spans="1:7">
       <c r="A199" s="38" t="s">
         <v>58</v>
       </c>
@@ -12184,7 +12184,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="200" spans="1:7" hidden="1">
+    <row r="200" spans="1:7">
       <c r="A200" s="38" t="s">
         <v>58</v>
       </c>
@@ -12201,7 +12201,7 @@
       <c r="F200" s="38"/>
       <c r="G200" s="38"/>
     </row>
-    <row r="201" spans="1:7" hidden="1">
+    <row r="201" spans="1:7">
       <c r="A201" s="38" t="s">
         <v>58</v>
       </c>
@@ -12218,7 +12218,7 @@
       <c r="F201" s="38"/>
       <c r="G201" s="38"/>
     </row>
-    <row r="202" spans="1:7" hidden="1">
+    <row r="202" spans="1:7">
       <c r="A202" s="38" t="s">
         <v>58</v>
       </c>
@@ -12235,7 +12235,7 @@
       <c r="F202" s="38"/>
       <c r="G202" s="38"/>
     </row>
-    <row r="203" spans="1:7" hidden="1">
+    <row r="203" spans="1:7">
       <c r="A203" s="38" t="s">
         <v>58</v>
       </c>
@@ -12250,7 +12250,7 @@
       <c r="F203" s="41"/>
       <c r="G203" s="41"/>
     </row>
-    <row r="204" spans="1:7" ht="42" hidden="1" customHeight="1">
+    <row r="204" spans="1:7" ht="42" customHeight="1">
       <c r="A204" s="38" t="s">
         <v>58</v>
       </c>
@@ -12269,7 +12269,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="205" spans="1:7" hidden="1">
+    <row r="205" spans="1:7">
       <c r="A205" s="38" t="s">
         <v>58</v>
       </c>
@@ -12286,7 +12286,7 @@
       <c r="F205" s="38"/>
       <c r="G205" s="38"/>
     </row>
-    <row r="206" spans="1:7" ht="36.75" hidden="1" customHeight="1">
+    <row r="206" spans="1:7" ht="36.75" customHeight="1">
       <c r="A206" s="38" t="s">
         <v>58</v>
       </c>
@@ -12303,7 +12303,7 @@
       <c r="F206" s="38"/>
       <c r="G206" s="38"/>
     </row>
-    <row r="207" spans="1:7" hidden="1">
+    <row r="207" spans="1:7">
       <c r="A207" s="38" t="s">
         <v>58</v>
       </c>
@@ -12320,7 +12320,7 @@
       <c r="F207" s="40"/>
       <c r="G207" s="38"/>
     </row>
-    <row r="208" spans="1:7" ht="30" hidden="1">
+    <row r="208" spans="1:7" ht="30">
       <c r="A208" s="38" t="s">
         <v>58</v>
       </c>
@@ -12337,7 +12337,7 @@
       <c r="F208" s="40"/>
       <c r="G208" s="38"/>
     </row>
-    <row r="209" spans="1:7" hidden="1">
+    <row r="209" spans="1:7">
       <c r="A209" s="38" t="s">
         <v>58</v>
       </c>
@@ -12354,7 +12354,7 @@
       <c r="F209" s="40"/>
       <c r="G209" s="38"/>
     </row>
-    <row r="210" spans="1:7" hidden="1">
+    <row r="210" spans="1:7">
       <c r="A210" s="38" t="s">
         <v>58</v>
       </c>
@@ -12371,7 +12371,7 @@
       <c r="F210" s="40"/>
       <c r="G210" s="38"/>
     </row>
-    <row r="211" spans="1:7" ht="30" hidden="1">
+    <row r="211" spans="1:7" ht="30">
       <c r="A211" s="38" t="s">
         <v>58</v>
       </c>
@@ -12388,7 +12388,7 @@
       <c r="F211" s="40"/>
       <c r="G211" s="38"/>
     </row>
-    <row r="212" spans="1:7" hidden="1">
+    <row r="212" spans="1:7">
       <c r="A212" s="38" t="s">
         <v>58</v>
       </c>
@@ -12405,7 +12405,7 @@
       <c r="F212" s="40"/>
       <c r="G212" s="38"/>
     </row>
-    <row r="213" spans="1:7" ht="45" hidden="1">
+    <row r="213" spans="1:7" ht="45">
       <c r="A213" s="38" t="s">
         <v>58</v>
       </c>
@@ -12422,7 +12422,7 @@
       <c r="F213" s="38"/>
       <c r="G213" s="38"/>
     </row>
-    <row r="214" spans="1:7" ht="30" hidden="1">
+    <row r="214" spans="1:7" ht="30">
       <c r="A214" s="38" t="s">
         <v>58</v>
       </c>
@@ -12439,7 +12439,7 @@
       <c r="F214" s="38"/>
       <c r="G214" s="38"/>
     </row>
-    <row r="215" spans="1:7" hidden="1">
+    <row r="215" spans="1:7">
       <c r="A215" s="38" t="s">
         <v>58</v>
       </c>
@@ -12456,7 +12456,7 @@
       <c r="F215" s="38"/>
       <c r="G215" s="38"/>
     </row>
-    <row r="216" spans="1:7" hidden="1">
+    <row r="216" spans="1:7">
       <c r="A216" s="38" t="s">
         <v>58</v>
       </c>
@@ -12471,7 +12471,7 @@
       <c r="F216" s="41"/>
       <c r="G216" s="43"/>
     </row>
-    <row r="217" spans="1:7" hidden="1">
+    <row r="217" spans="1:7">
       <c r="A217" s="38" t="s">
         <v>58</v>
       </c>
@@ -12486,7 +12486,7 @@
       <c r="F217" s="41"/>
       <c r="G217" s="41"/>
     </row>
-    <row r="218" spans="1:7" ht="30" hidden="1">
+    <row r="218" spans="1:7" ht="30">
       <c r="A218" s="38" t="s">
         <v>58</v>
       </c>
@@ -12505,7 +12505,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="219" spans="1:7" hidden="1">
+    <row r="219" spans="1:7">
       <c r="A219" s="38" t="s">
         <v>58</v>
       </c>
@@ -12522,7 +12522,7 @@
       <c r="F219" s="38"/>
       <c r="G219" s="38"/>
     </row>
-    <row r="220" spans="1:7" hidden="1">
+    <row r="220" spans="1:7">
       <c r="A220" s="38" t="s">
         <v>58</v>
       </c>
@@ -12539,7 +12539,7 @@
       <c r="F220" s="38"/>
       <c r="G220" s="38"/>
     </row>
-    <row r="221" spans="1:7" ht="30" hidden="1">
+    <row r="221" spans="1:7" ht="30">
       <c r="A221" s="38" t="s">
         <v>58</v>
       </c>
@@ -12556,7 +12556,7 @@
       <c r="F221" s="38"/>
       <c r="G221" s="38"/>
     </row>
-    <row r="222" spans="1:7" ht="30" hidden="1">
+    <row r="222" spans="1:7" ht="30">
       <c r="A222" s="38" t="s">
         <v>58</v>
       </c>
@@ -12573,7 +12573,7 @@
       <c r="F222" s="38"/>
       <c r="G222" s="38"/>
     </row>
-    <row r="223" spans="1:7" hidden="1">
+    <row r="223" spans="1:7">
       <c r="A223" s="38" t="s">
         <v>58</v>
       </c>
@@ -12590,7 +12590,7 @@
       <c r="F223" s="40"/>
       <c r="G223" s="38"/>
     </row>
-    <row r="224" spans="1:7" hidden="1">
+    <row r="224" spans="1:7">
       <c r="A224" s="38" t="s">
         <v>58</v>
       </c>
@@ -12607,7 +12607,7 @@
       <c r="F224" s="38"/>
       <c r="G224" s="38"/>
     </row>
-    <row r="225" spans="1:7" hidden="1">
+    <row r="225" spans="1:7">
       <c r="A225" s="38" t="s">
         <v>58</v>
       </c>
@@ -12626,7 +12626,7 @@
       <c r="F225" s="38"/>
       <c r="G225" s="38"/>
     </row>
-    <row r="226" spans="1:7" ht="30" hidden="1">
+    <row r="226" spans="1:7" ht="30">
       <c r="A226" s="38" t="s">
         <v>58</v>
       </c>
@@ -12645,7 +12645,7 @@
       <c r="F226" s="38"/>
       <c r="G226" s="38"/>
     </row>
-    <row r="227" spans="1:7" hidden="1">
+    <row r="227" spans="1:7">
       <c r="A227" s="38" t="s">
         <v>58</v>
       </c>
@@ -12662,7 +12662,7 @@
       <c r="F227" s="38"/>
       <c r="G227" s="38"/>
     </row>
-    <row r="228" spans="1:7" hidden="1">
+    <row r="228" spans="1:7">
       <c r="A228" s="38" t="s">
         <v>58</v>
       </c>
@@ -12679,7 +12679,7 @@
       <c r="F228" s="38"/>
       <c r="G228" s="38"/>
     </row>
-    <row r="229" spans="1:7" hidden="1">
+    <row r="229" spans="1:7">
       <c r="A229" s="38" t="s">
         <v>58</v>
       </c>
@@ -12696,7 +12696,7 @@
       <c r="F229" s="38"/>
       <c r="G229" s="38"/>
     </row>
-    <row r="230" spans="1:7" hidden="1">
+    <row r="230" spans="1:7">
       <c r="A230" s="38" t="s">
         <v>58</v>
       </c>
@@ -12711,7 +12711,7 @@
       <c r="F230" s="41"/>
       <c r="G230" s="41"/>
     </row>
-    <row r="231" spans="1:7" hidden="1">
+    <row r="231" spans="1:7">
       <c r="A231" s="38" t="s">
         <v>58</v>
       </c>
@@ -12730,7 +12730,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="232" spans="1:7" hidden="1">
+    <row r="232" spans="1:7">
       <c r="A232" s="38" t="s">
         <v>58</v>
       </c>
@@ -12747,7 +12747,7 @@
       <c r="F232" s="38"/>
       <c r="G232" s="38"/>
     </row>
-    <row r="233" spans="1:7" hidden="1">
+    <row r="233" spans="1:7">
       <c r="A233" s="38" t="s">
         <v>58</v>
       </c>
@@ -12764,7 +12764,7 @@
       <c r="F233" s="38"/>
       <c r="G233" s="38"/>
     </row>
-    <row r="234" spans="1:7" hidden="1">
+    <row r="234" spans="1:7">
       <c r="A234" s="38" t="s">
         <v>58</v>
       </c>
@@ -12781,7 +12781,7 @@
       <c r="F234" s="38"/>
       <c r="G234" s="38"/>
     </row>
-    <row r="235" spans="1:7" hidden="1">
+    <row r="235" spans="1:7">
       <c r="A235" s="38" t="s">
         <v>58</v>
       </c>
@@ -12800,7 +12800,7 @@
       <c r="F235" s="40"/>
       <c r="G235" s="38"/>
     </row>
-    <row r="236" spans="1:7" hidden="1">
+    <row r="236" spans="1:7">
       <c r="A236" s="38" t="s">
         <v>58</v>
       </c>
@@ -12817,7 +12817,7 @@
       <c r="F236" s="38"/>
       <c r="G236" s="38"/>
     </row>
-    <row r="237" spans="1:7" hidden="1">
+    <row r="237" spans="1:7">
       <c r="A237" s="38" t="s">
         <v>58</v>
       </c>
@@ -12834,7 +12834,7 @@
       <c r="F237" s="38"/>
       <c r="G237" s="38"/>
     </row>
-    <row r="238" spans="1:7" hidden="1">
+    <row r="238" spans="1:7">
       <c r="A238" s="38" t="s">
         <v>58</v>
       </c>
@@ -12851,7 +12851,7 @@
       <c r="F238" s="38"/>
       <c r="G238" s="38"/>
     </row>
-    <row r="239" spans="1:7" hidden="1">
+    <row r="239" spans="1:7">
       <c r="A239" s="38" t="s">
         <v>58</v>
       </c>
@@ -12868,7 +12868,7 @@
       <c r="F239" s="38"/>
       <c r="G239" s="38"/>
     </row>
-    <row r="240" spans="1:7" hidden="1">
+    <row r="240" spans="1:7">
       <c r="A240" s="38" t="s">
         <v>58</v>
       </c>
@@ -12885,7 +12885,7 @@
       <c r="F240" s="38"/>
       <c r="G240" s="38"/>
     </row>
-    <row r="241" spans="1:7" hidden="1">
+    <row r="241" spans="1:7">
       <c r="A241" s="38" t="s">
         <v>58</v>
       </c>
@@ -12902,7 +12902,7 @@
       <c r="F241" s="38"/>
       <c r="G241" s="38"/>
     </row>
-    <row r="242" spans="1:7" hidden="1">
+    <row r="242" spans="1:7">
       <c r="A242" s="38" t="s">
         <v>58</v>
       </c>
@@ -12917,7 +12917,7 @@
       <c r="F242" s="41"/>
       <c r="G242" s="41"/>
     </row>
-    <row r="243" spans="1:7" hidden="1">
+    <row r="243" spans="1:7">
       <c r="A243" s="38" t="s">
         <v>58</v>
       </c>
@@ -12936,7 +12936,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="244" spans="1:7" hidden="1">
+    <row r="244" spans="1:7">
       <c r="A244" s="38" t="s">
         <v>58</v>
       </c>
@@ -12953,7 +12953,7 @@
       <c r="F244" s="38"/>
       <c r="G244" s="38"/>
     </row>
-    <row r="245" spans="1:7" hidden="1">
+    <row r="245" spans="1:7">
       <c r="A245" s="38" t="s">
         <v>58</v>
       </c>
@@ -12968,7 +12968,7 @@
       <c r="F245" s="41"/>
       <c r="G245" s="41"/>
     </row>
-    <row r="246" spans="1:7" hidden="1">
+    <row r="246" spans="1:7">
       <c r="A246" s="38" t="s">
         <v>58</v>
       </c>
@@ -12985,7 +12985,7 @@
       <c r="F246" s="38"/>
       <c r="G246" s="38"/>
     </row>
-    <row r="247" spans="1:7" hidden="1">
+    <row r="247" spans="1:7">
       <c r="A247" s="38" t="s">
         <v>58</v>
       </c>
@@ -13000,7 +13000,7 @@
       <c r="F247" s="38"/>
       <c r="G247" s="43"/>
     </row>
-    <row r="248" spans="1:7" hidden="1">
+    <row r="248" spans="1:7">
       <c r="A248" s="38" t="s">
         <v>58</v>
       </c>
@@ -13017,7 +13017,7 @@
       <c r="F248" s="38"/>
       <c r="G248" s="38"/>
     </row>
-    <row r="249" spans="1:7" hidden="1">
+    <row r="249" spans="1:7">
       <c r="A249" s="38" t="s">
         <v>58</v>
       </c>
@@ -13034,7 +13034,7 @@
       <c r="F249" s="38"/>
       <c r="G249" s="38"/>
     </row>
-    <row r="250" spans="1:7" hidden="1">
+    <row r="250" spans="1:7">
       <c r="A250" s="38" t="s">
         <v>58</v>
       </c>
@@ -13049,7 +13049,7 @@
       <c r="F250" s="41"/>
       <c r="G250" s="41"/>
     </row>
-    <row r="251" spans="1:7" hidden="1">
+    <row r="251" spans="1:7">
       <c r="A251" s="38" t="s">
         <v>58</v>
       </c>
@@ -13066,7 +13066,7 @@
       <c r="F251" s="38"/>
       <c r="G251" s="38"/>
     </row>
-    <row r="252" spans="1:7" hidden="1">
+    <row r="252" spans="1:7">
       <c r="A252" s="38" t="s">
         <v>58</v>
       </c>
@@ -13083,7 +13083,7 @@
       <c r="F252" s="38"/>
       <c r="G252" s="38"/>
     </row>
-    <row r="253" spans="1:7" ht="15.6" hidden="1">
+    <row r="253" spans="1:7" ht="15.6">
       <c r="A253" s="38" t="s">
         <v>58</v>
       </c>
@@ -13098,7 +13098,7 @@
       <c r="F253" s="41"/>
       <c r="G253" s="45"/>
     </row>
-    <row r="254" spans="1:7" hidden="1">
+    <row r="254" spans="1:7">
       <c r="A254" s="38" t="s">
         <v>58</v>
       </c>
@@ -13113,7 +13113,7 @@
       <c r="F254" s="41"/>
       <c r="G254" s="41"/>
     </row>
-    <row r="255" spans="1:7" hidden="1">
+    <row r="255" spans="1:7">
       <c r="A255" s="38" t="s">
         <v>58</v>
       </c>
@@ -13128,7 +13128,7 @@
       <c r="F255" s="41"/>
       <c r="G255" s="41"/>
     </row>
-    <row r="256" spans="1:7" ht="30" hidden="1">
+    <row r="256" spans="1:7" ht="30">
       <c r="A256" s="38" t="s">
         <v>58</v>
       </c>
@@ -13147,7 +13147,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="257" spans="1:7" hidden="1">
+    <row r="257" spans="1:7">
       <c r="A257" s="38" t="s">
         <v>58</v>
       </c>
@@ -13164,7 +13164,7 @@
       <c r="F257" s="38"/>
       <c r="G257" s="44"/>
     </row>
-    <row r="258" spans="1:7" hidden="1">
+    <row r="258" spans="1:7">
       <c r="A258" s="38" t="s">
         <v>58</v>
       </c>
@@ -13183,7 +13183,7 @@
       <c r="F258" s="38"/>
       <c r="G258" s="44"/>
     </row>
-    <row r="259" spans="1:7" ht="30" hidden="1">
+    <row r="259" spans="1:7" ht="30">
       <c r="A259" s="38" t="s">
         <v>58</v>
       </c>
@@ -13200,7 +13200,7 @@
       <c r="F259" s="38"/>
       <c r="G259" s="44"/>
     </row>
-    <row r="260" spans="1:7" hidden="1">
+    <row r="260" spans="1:7">
       <c r="A260" s="38" t="s">
         <v>58</v>
       </c>
@@ -13217,7 +13217,7 @@
       <c r="F260" s="38"/>
       <c r="G260" s="44"/>
     </row>
-    <row r="261" spans="1:7" hidden="1">
+    <row r="261" spans="1:7">
       <c r="A261" s="38" t="s">
         <v>58</v>
       </c>
@@ -13234,7 +13234,7 @@
       <c r="F261" s="38"/>
       <c r="G261" s="44"/>
     </row>
-    <row r="262" spans="1:7" ht="30" hidden="1">
+    <row r="262" spans="1:7" ht="30">
       <c r="A262" s="38" t="s">
         <v>58</v>
       </c>
@@ -13251,7 +13251,7 @@
       <c r="F262" s="38"/>
       <c r="G262" s="44"/>
     </row>
-    <row r="263" spans="1:7" hidden="1">
+    <row r="263" spans="1:7">
       <c r="A263" s="38" t="s">
         <v>58</v>
       </c>
@@ -13270,7 +13270,7 @@
       <c r="F263" s="38"/>
       <c r="G263" s="44"/>
     </row>
-    <row r="264" spans="1:7" ht="30" hidden="1">
+    <row r="264" spans="1:7" ht="30">
       <c r="A264" s="38" t="s">
         <v>58</v>
       </c>
@@ -13287,7 +13287,7 @@
       <c r="F264" s="38"/>
       <c r="G264" s="44"/>
     </row>
-    <row r="265" spans="1:7" ht="45" hidden="1">
+    <row r="265" spans="1:7" ht="45">
       <c r="A265" s="38" t="s">
         <v>58</v>
       </c>
@@ -13304,7 +13304,7 @@
       <c r="F265" s="38"/>
       <c r="G265" s="44"/>
     </row>
-    <row r="266" spans="1:7" ht="30" hidden="1">
+    <row r="266" spans="1:7" ht="30">
       <c r="A266" s="38" t="s">
         <v>58</v>
       </c>
@@ -13321,7 +13321,7 @@
       <c r="F266" s="38"/>
       <c r="G266" s="44"/>
     </row>
-    <row r="267" spans="1:7" ht="45" hidden="1">
+    <row r="267" spans="1:7" ht="45">
       <c r="A267" s="38" t="s">
         <v>58</v>
       </c>
@@ -13340,7 +13340,7 @@
       <c r="F267" s="38"/>
       <c r="G267" s="44"/>
     </row>
-    <row r="268" spans="1:7" hidden="1">
+    <row r="268" spans="1:7">
       <c r="A268" s="38" t="s">
         <v>58</v>
       </c>
@@ -13357,7 +13357,7 @@
       <c r="F268" s="38"/>
       <c r="G268" s="44"/>
     </row>
-    <row r="269" spans="1:7" hidden="1">
+    <row r="269" spans="1:7">
       <c r="A269" s="38" t="s">
         <v>58</v>
       </c>
@@ -13372,7 +13372,7 @@
       <c r="F269" s="41"/>
       <c r="G269" s="41"/>
     </row>
-    <row r="270" spans="1:7" hidden="1">
+    <row r="270" spans="1:7">
       <c r="A270" s="38" t="s">
         <v>58</v>
       </c>
@@ -13387,7 +13387,7 @@
       <c r="F270" s="41"/>
       <c r="G270" s="41"/>
     </row>
-    <row r="271" spans="1:7" ht="30" hidden="1">
+    <row r="271" spans="1:7" ht="30">
       <c r="A271" s="38" t="s">
         <v>58</v>
       </c>
@@ -13406,7 +13406,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="272" spans="1:7" hidden="1">
+    <row r="272" spans="1:7">
       <c r="A272" s="38" t="s">
         <v>58</v>
       </c>
@@ -13423,7 +13423,7 @@
       <c r="F272" s="38"/>
       <c r="G272" s="44"/>
     </row>
-    <row r="273" spans="1:7" hidden="1">
+    <row r="273" spans="1:7">
       <c r="A273" s="38" t="s">
         <v>58</v>
       </c>
@@ -13440,7 +13440,7 @@
       <c r="F273" s="38"/>
       <c r="G273" s="44"/>
     </row>
-    <row r="274" spans="1:7" ht="30" hidden="1">
+    <row r="274" spans="1:7" ht="30">
       <c r="A274" s="38" t="s">
         <v>58</v>
       </c>
@@ -13457,7 +13457,7 @@
       <c r="F274" s="38"/>
       <c r="G274" s="44"/>
     </row>
-    <row r="275" spans="1:7" hidden="1">
+    <row r="275" spans="1:7">
       <c r="A275" s="38" t="s">
         <v>58</v>
       </c>
@@ -13474,7 +13474,7 @@
       <c r="F275" s="38"/>
       <c r="G275" s="44"/>
     </row>
-    <row r="276" spans="1:7" hidden="1">
+    <row r="276" spans="1:7">
       <c r="A276" s="38" t="s">
         <v>58</v>
       </c>
@@ -13491,7 +13491,7 @@
       <c r="F276" s="38"/>
       <c r="G276" s="44"/>
     </row>
-    <row r="277" spans="1:7" hidden="1">
+    <row r="277" spans="1:7">
       <c r="A277" s="38" t="s">
         <v>58</v>
       </c>
@@ -13508,7 +13508,7 @@
       <c r="F277" s="38"/>
       <c r="G277" s="44"/>
     </row>
-    <row r="278" spans="1:7" ht="30" hidden="1">
+    <row r="278" spans="1:7" ht="30">
       <c r="A278" s="38" t="s">
         <v>58</v>
       </c>
@@ -13525,7 +13525,7 @@
       <c r="F278" s="38"/>
       <c r="G278" s="44"/>
     </row>
-    <row r="279" spans="1:7" hidden="1">
+    <row r="279" spans="1:7">
       <c r="A279" s="38" t="s">
         <v>58</v>
       </c>
@@ -13542,7 +13542,7 @@
       <c r="F279" s="38"/>
       <c r="G279" s="44"/>
     </row>
-    <row r="280" spans="1:7" ht="30" hidden="1">
+    <row r="280" spans="1:7" ht="30">
       <c r="A280" s="38" t="s">
         <v>58</v>
       </c>
@@ -13559,7 +13559,7 @@
       <c r="F280" s="38"/>
       <c r="G280" s="44"/>
     </row>
-    <row r="281" spans="1:7" ht="30" hidden="1">
+    <row r="281" spans="1:7" ht="30">
       <c r="A281" s="38" t="s">
         <v>58</v>
       </c>
@@ -13576,7 +13576,7 @@
       <c r="F281" s="38"/>
       <c r="G281" s="44"/>
     </row>
-    <row r="282" spans="1:7" ht="30" hidden="1">
+    <row r="282" spans="1:7" ht="30">
       <c r="A282" s="38" t="s">
         <v>58</v>
       </c>
@@ -13593,7 +13593,7 @@
       <c r="F282" s="38"/>
       <c r="G282" s="38"/>
     </row>
-    <row r="283" spans="1:7" ht="45" hidden="1">
+    <row r="283" spans="1:7" ht="45">
       <c r="A283" s="38" t="s">
         <v>58</v>
       </c>
@@ -13610,7 +13610,7 @@
       <c r="F283" s="38"/>
       <c r="G283" s="44"/>
     </row>
-    <row r="284" spans="1:7" ht="45" hidden="1">
+    <row r="284" spans="1:7" ht="45">
       <c r="A284" s="38" t="s">
         <v>58</v>
       </c>
@@ -13627,7 +13627,7 @@
       <c r="F284" s="38"/>
       <c r="G284" s="38"/>
     </row>
-    <row r="285" spans="1:7" ht="45" hidden="1">
+    <row r="285" spans="1:7" ht="45">
       <c r="A285" s="38" t="s">
         <v>58</v>
       </c>
@@ -13644,7 +13644,7 @@
       <c r="F285" s="38"/>
       <c r="G285" s="44"/>
     </row>
-    <row r="286" spans="1:7" ht="30" hidden="1">
+    <row r="286" spans="1:7" ht="30">
       <c r="A286" s="38" t="s">
         <v>58</v>
       </c>
@@ -13661,7 +13661,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="287" spans="1:7" hidden="1">
+    <row r="287" spans="1:7">
       <c r="A287" s="38" t="s">
         <v>58</v>
       </c>
@@ -13676,7 +13676,7 @@
       <c r="F287" s="41"/>
       <c r="G287" s="41"/>
     </row>
-    <row r="288" spans="1:7" hidden="1">
+    <row r="288" spans="1:7">
       <c r="A288" s="38" t="s">
         <v>58</v>
       </c>
@@ -13691,7 +13691,7 @@
       <c r="F288" s="41"/>
       <c r="G288" s="41"/>
     </row>
-    <row r="289" spans="1:7" ht="30" hidden="1">
+    <row r="289" spans="1:7" ht="30">
       <c r="A289" s="38" t="s">
         <v>58</v>
       </c>
@@ -13710,7 +13710,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="290" spans="1:7" hidden="1">
+    <row r="290" spans="1:7">
       <c r="A290" s="38" t="s">
         <v>58</v>
       </c>
@@ -13727,7 +13727,7 @@
       <c r="F290" s="38"/>
       <c r="G290" s="44"/>
     </row>
-    <row r="291" spans="1:7" hidden="1">
+    <row r="291" spans="1:7">
       <c r="A291" s="38" t="s">
         <v>58</v>
       </c>
@@ -13744,7 +13744,7 @@
       <c r="F291" s="38"/>
       <c r="G291" s="44"/>
     </row>
-    <row r="292" spans="1:7" ht="30" hidden="1">
+    <row r="292" spans="1:7" ht="30">
       <c r="A292" s="38" t="s">
         <v>58</v>
       </c>
@@ -13761,7 +13761,7 @@
       <c r="F292" s="38"/>
       <c r="G292" s="44"/>
     </row>
-    <row r="293" spans="1:7" hidden="1">
+    <row r="293" spans="1:7">
       <c r="A293" s="38" t="s">
         <v>58</v>
       </c>
@@ -13778,7 +13778,7 @@
       <c r="F293" s="38"/>
       <c r="G293" s="44"/>
     </row>
-    <row r="294" spans="1:7" hidden="1">
+    <row r="294" spans="1:7">
       <c r="A294" s="38" t="s">
         <v>58</v>
       </c>
@@ -13795,7 +13795,7 @@
       <c r="F294" s="38"/>
       <c r="G294" s="44"/>
     </row>
-    <row r="295" spans="1:7" hidden="1">
+    <row r="295" spans="1:7">
       <c r="A295" s="38" t="s">
         <v>58</v>
       </c>
@@ -13812,7 +13812,7 @@
       <c r="F295" s="38"/>
       <c r="G295" s="44"/>
     </row>
-    <row r="296" spans="1:7" ht="30" hidden="1">
+    <row r="296" spans="1:7" ht="30">
       <c r="A296" s="38" t="s">
         <v>58</v>
       </c>
@@ -13829,7 +13829,7 @@
       <c r="F296" s="38"/>
       <c r="G296" s="44"/>
     </row>
-    <row r="297" spans="1:7" hidden="1">
+    <row r="297" spans="1:7">
       <c r="A297" s="38" t="s">
         <v>58</v>
       </c>
@@ -13846,7 +13846,7 @@
       <c r="F297" s="38"/>
       <c r="G297" s="44"/>
     </row>
-    <row r="298" spans="1:7" ht="30" hidden="1">
+    <row r="298" spans="1:7" ht="30">
       <c r="A298" s="38" t="s">
         <v>58</v>
       </c>
@@ -13863,7 +13863,7 @@
       <c r="F298" s="38"/>
       <c r="G298" s="44"/>
     </row>
-    <row r="299" spans="1:7" ht="30" hidden="1">
+    <row r="299" spans="1:7" ht="30">
       <c r="A299" s="38" t="s">
         <v>58</v>
       </c>
@@ -13880,7 +13880,7 @@
       <c r="F299" s="38"/>
       <c r="G299" s="44"/>
     </row>
-    <row r="300" spans="1:7" ht="30" hidden="1">
+    <row r="300" spans="1:7" ht="30">
       <c r="A300" s="38" t="s">
         <v>58</v>
       </c>
@@ -13897,7 +13897,7 @@
       <c r="F300" s="38"/>
       <c r="G300" s="38"/>
     </row>
-    <row r="301" spans="1:7" ht="45" hidden="1">
+    <row r="301" spans="1:7" ht="45">
       <c r="A301" s="38" t="s">
         <v>58</v>
       </c>
@@ -13914,7 +13914,7 @@
       <c r="F301" s="38"/>
       <c r="G301" s="44"/>
     </row>
-    <row r="302" spans="1:7" ht="45" hidden="1">
+    <row r="302" spans="1:7" ht="45">
       <c r="A302" s="38" t="s">
         <v>58</v>
       </c>
@@ -13931,7 +13931,7 @@
       <c r="F302" s="38"/>
       <c r="G302" s="38"/>
     </row>
-    <row r="303" spans="1:7" ht="45" hidden="1">
+    <row r="303" spans="1:7" ht="45">
       <c r="A303" s="38" t="s">
         <v>58</v>
       </c>
@@ -13948,7 +13948,7 @@
       <c r="F303" s="38"/>
       <c r="G303" s="44"/>
     </row>
-    <row r="304" spans="1:7" ht="30" hidden="1">
+    <row r="304" spans="1:7" ht="30">
       <c r="A304" s="38" t="s">
         <v>58</v>
       </c>
@@ -13967,7 +13967,7 @@
       </c>
       <c r="G304" s="44"/>
     </row>
-    <row r="305" spans="1:7" hidden="1">
+    <row r="305" spans="1:7">
       <c r="A305" s="38" t="s">
         <v>58</v>
       </c>
@@ -13982,7 +13982,7 @@
       <c r="F305" s="41"/>
       <c r="G305" s="41"/>
     </row>
-    <row r="306" spans="1:7" hidden="1">
+    <row r="306" spans="1:7">
       <c r="A306" s="38" t="s">
         <v>58</v>
       </c>
@@ -13997,7 +13997,7 @@
       <c r="F306" s="41"/>
       <c r="G306" s="41"/>
     </row>
-    <row r="307" spans="1:7" ht="30" hidden="1">
+    <row r="307" spans="1:7" ht="30">
       <c r="A307" s="38" t="s">
         <v>58</v>
       </c>
@@ -14014,7 +14014,7 @@
       <c r="F307" s="38"/>
       <c r="G307" s="44"/>
     </row>
-    <row r="308" spans="1:7" hidden="1">
+    <row r="308" spans="1:7">
       <c r="A308" s="38" t="s">
         <v>58</v>
       </c>
@@ -14029,7 +14029,7 @@
       <c r="F308" s="41"/>
       <c r="G308" s="41"/>
     </row>
-    <row r="309" spans="1:7" ht="30" hidden="1">
+    <row r="309" spans="1:7" ht="30">
       <c r="A309" s="38" t="s">
         <v>58</v>
       </c>
@@ -14048,7 +14048,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="310" spans="1:7" hidden="1">
+    <row r="310" spans="1:7">
       <c r="A310" s="38" t="s">
         <v>58</v>
       </c>
@@ -14065,7 +14065,7 @@
       <c r="F310" s="38"/>
       <c r="G310" s="44"/>
     </row>
-    <row r="311" spans="1:7" hidden="1">
+    <row r="311" spans="1:7">
       <c r="A311" s="38" t="s">
         <v>58</v>
       </c>
@@ -14082,7 +14082,7 @@
       <c r="F311" s="38"/>
       <c r="G311" s="44"/>
     </row>
-    <row r="312" spans="1:7" ht="30" hidden="1">
+    <row r="312" spans="1:7" ht="30">
       <c r="A312" s="38" t="s">
         <v>58</v>
       </c>
@@ -14099,7 +14099,7 @@
       <c r="F312" s="38"/>
       <c r="G312" s="44"/>
     </row>
-    <row r="313" spans="1:7" hidden="1">
+    <row r="313" spans="1:7">
       <c r="A313" s="38" t="s">
         <v>58</v>
       </c>
@@ -14116,7 +14116,7 @@
       <c r="F313" s="38"/>
       <c r="G313" s="44"/>
     </row>
-    <row r="314" spans="1:7" hidden="1">
+    <row r="314" spans="1:7">
       <c r="A314" s="38" t="s">
         <v>58</v>
       </c>
@@ -14133,7 +14133,7 @@
       <c r="F314" s="38"/>
       <c r="G314" s="44"/>
     </row>
-    <row r="315" spans="1:7" ht="45" hidden="1">
+    <row r="315" spans="1:7" ht="45">
       <c r="A315" s="38" t="s">
         <v>58</v>
       </c>
@@ -14150,7 +14150,7 @@
       <c r="F315" s="38"/>
       <c r="G315" s="44"/>
     </row>
-    <row r="316" spans="1:7" hidden="1">
+    <row r="316" spans="1:7">
       <c r="A316" s="38" t="s">
         <v>58</v>
       </c>
@@ -14165,7 +14165,7 @@
       <c r="F316" s="41"/>
       <c r="G316" s="48"/>
     </row>
-    <row r="317" spans="1:7" hidden="1">
+    <row r="317" spans="1:7">
       <c r="A317" s="38" t="s">
         <v>58</v>
       </c>
@@ -14180,7 +14180,7 @@
       <c r="F317" s="41"/>
       <c r="G317" s="48"/>
     </row>
-    <row r="318" spans="1:7" ht="30" hidden="1">
+    <row r="318" spans="1:7" ht="30">
       <c r="A318" s="38" t="s">
         <v>58</v>
       </c>
@@ -14199,7 +14199,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="319" spans="1:7" hidden="1">
+    <row r="319" spans="1:7">
       <c r="A319" s="38" t="s">
         <v>58</v>
       </c>
@@ -14216,7 +14216,7 @@
       <c r="F319" s="38"/>
       <c r="G319" s="38"/>
     </row>
-    <row r="320" spans="1:7" hidden="1">
+    <row r="320" spans="1:7">
       <c r="A320" s="38" t="s">
         <v>58</v>
       </c>
@@ -14233,7 +14233,7 @@
       <c r="F320" s="38"/>
       <c r="G320" s="38"/>
     </row>
-    <row r="321" spans="1:7" ht="30" hidden="1">
+    <row r="321" spans="1:7" ht="30">
       <c r="A321" s="38" t="s">
         <v>58</v>
       </c>
@@ -14250,7 +14250,7 @@
       <c r="F321" s="38"/>
       <c r="G321" s="38"/>
     </row>
-    <row r="322" spans="1:7" hidden="1">
+    <row r="322" spans="1:7">
       <c r="A322" s="38" t="s">
         <v>58</v>
       </c>
@@ -14267,7 +14267,7 @@
       <c r="F322" s="38"/>
       <c r="G322" s="38"/>
     </row>
-    <row r="323" spans="1:7" hidden="1">
+    <row r="323" spans="1:7">
       <c r="A323" s="38" t="s">
         <v>58</v>
       </c>
@@ -14284,7 +14284,7 @@
       <c r="F323" s="38"/>
       <c r="G323" s="38"/>
     </row>
-    <row r="324" spans="1:7" hidden="1">
+    <row r="324" spans="1:7">
       <c r="A324" s="38" t="s">
         <v>58</v>
       </c>
@@ -14301,7 +14301,7 @@
       <c r="F324" s="38"/>
       <c r="G324" s="38"/>
     </row>
-    <row r="325" spans="1:7" ht="30" hidden="1">
+    <row r="325" spans="1:7" ht="30">
       <c r="A325" s="38" t="s">
         <v>58</v>
       </c>
@@ -14318,7 +14318,7 @@
       <c r="F325" s="38"/>
       <c r="G325" s="38"/>
     </row>
-    <row r="326" spans="1:7" hidden="1">
+    <row r="326" spans="1:7">
       <c r="A326" s="38" t="s">
         <v>58</v>
       </c>
@@ -14335,7 +14335,7 @@
       <c r="F326" s="38"/>
       <c r="G326" s="38"/>
     </row>
-    <row r="327" spans="1:7" ht="30" hidden="1">
+    <row r="327" spans="1:7" ht="30">
       <c r="A327" s="38" t="s">
         <v>58</v>
       </c>
@@ -14352,7 +14352,7 @@
       <c r="F327" s="38"/>
       <c r="G327" s="38"/>
     </row>
-    <row r="328" spans="1:7" ht="30" hidden="1">
+    <row r="328" spans="1:7" ht="30">
       <c r="A328" s="38" t="s">
         <v>58</v>
       </c>
@@ -14369,7 +14369,7 @@
       <c r="F328" s="38"/>
       <c r="G328" s="38"/>
     </row>
-    <row r="329" spans="1:7" ht="30" hidden="1">
+    <row r="329" spans="1:7" ht="30">
       <c r="A329" s="38" t="s">
         <v>58</v>
       </c>
@@ -14386,7 +14386,7 @@
       <c r="F329" s="38"/>
       <c r="G329" s="38"/>
     </row>
-    <row r="330" spans="1:7" ht="45" hidden="1">
+    <row r="330" spans="1:7" ht="45">
       <c r="A330" s="38" t="s">
         <v>58</v>
       </c>
@@ -14403,7 +14403,7 @@
       <c r="F330" s="38"/>
       <c r="G330" s="38"/>
     </row>
-    <row r="331" spans="1:7" ht="45" hidden="1">
+    <row r="331" spans="1:7" ht="45">
       <c r="A331" s="38" t="s">
         <v>58</v>
       </c>
@@ -14420,7 +14420,7 @@
       <c r="F331" s="38"/>
       <c r="G331" s="38"/>
     </row>
-    <row r="332" spans="1:7" ht="45" hidden="1">
+    <row r="332" spans="1:7" ht="45">
       <c r="A332" s="38" t="s">
         <v>58</v>
       </c>
@@ -14437,7 +14437,7 @@
       <c r="F332" s="38"/>
       <c r="G332" s="38"/>
     </row>
-    <row r="333" spans="1:7" ht="30" hidden="1">
+    <row r="333" spans="1:7" ht="30">
       <c r="A333" s="38" t="s">
         <v>58</v>
       </c>
@@ -14456,7 +14456,7 @@
       </c>
       <c r="G333" s="38"/>
     </row>
-    <row r="334" spans="1:7" ht="15.6" hidden="1">
+    <row r="334" spans="1:7" ht="15.6">
       <c r="A334" s="38" t="s">
         <v>58</v>
       </c>
@@ -14471,7 +14471,7 @@
       <c r="F334" s="41"/>
       <c r="G334" s="49"/>
     </row>
-    <row r="335" spans="1:7" hidden="1">
+    <row r="335" spans="1:7">
       <c r="A335" s="38" t="s">
         <v>58</v>
       </c>
@@ -14486,7 +14486,7 @@
       <c r="F335" s="41"/>
       <c r="G335" s="48"/>
     </row>
-    <row r="336" spans="1:7" hidden="1">
+    <row r="336" spans="1:7">
       <c r="A336" s="38" t="s">
         <v>58</v>
       </c>
@@ -14501,7 +14501,7 @@
       <c r="F336" s="41"/>
       <c r="G336" s="48"/>
     </row>
-    <row r="337" spans="1:7" ht="60" hidden="1">
+    <row r="337" spans="1:7" ht="60">
       <c r="A337" s="38" t="s">
         <v>58</v>
       </c>
@@ -14524,7 +14524,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="338" spans="1:7" hidden="1">
+    <row r="338" spans="1:7">
       <c r="A338" s="38" t="s">
         <v>58</v>
       </c>
@@ -14545,7 +14545,7 @@
       </c>
       <c r="G338" s="44"/>
     </row>
-    <row r="339" spans="1:7" hidden="1">
+    <row r="339" spans="1:7">
       <c r="A339" s="38" t="s">
         <v>58</v>
       </c>
@@ -14564,7 +14564,7 @@
       </c>
       <c r="G339" s="44"/>
     </row>
-    <row r="340" spans="1:7" hidden="1">
+    <row r="340" spans="1:7">
       <c r="A340" s="38" t="s">
         <v>58</v>
       </c>
@@ -14579,7 +14579,7 @@
       <c r="F340" s="41"/>
       <c r="G340" s="41"/>
     </row>
-    <row r="341" spans="1:7" hidden="1">
+    <row r="341" spans="1:7">
       <c r="A341" s="38" t="s">
         <v>58</v>
       </c>
@@ -14600,7 +14600,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="342" spans="1:7" hidden="1">
+    <row r="342" spans="1:7">
       <c r="A342" s="38" t="s">
         <v>58</v>
       </c>
@@ -14619,7 +14619,7 @@
       </c>
       <c r="G342" s="44"/>
     </row>
-    <row r="343" spans="1:7" hidden="1">
+    <row r="343" spans="1:7">
       <c r="A343" s="38" t="s">
         <v>58</v>
       </c>
@@ -14638,7 +14638,7 @@
       </c>
       <c r="G343" s="38"/>
     </row>
-    <row r="344" spans="1:7" hidden="1">
+    <row r="344" spans="1:7">
       <c r="A344" s="38" t="s">
         <v>58</v>
       </c>
@@ -14657,7 +14657,7 @@
       </c>
       <c r="G344" s="44"/>
     </row>
-    <row r="345" spans="1:7" hidden="1">
+    <row r="345" spans="1:7">
       <c r="A345" s="38" t="s">
         <v>58</v>
       </c>
@@ -14672,7 +14672,7 @@
       <c r="F345" s="41"/>
       <c r="G345" s="41"/>
     </row>
-    <row r="346" spans="1:7" hidden="1">
+    <row r="346" spans="1:7">
       <c r="A346" s="38" t="s">
         <v>58</v>
       </c>
@@ -14693,7 +14693,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="347" spans="1:7" hidden="1">
+    <row r="347" spans="1:7">
       <c r="A347" s="38" t="s">
         <v>58</v>
       </c>
@@ -14712,7 +14712,7 @@
       </c>
       <c r="G347" s="44"/>
     </row>
-    <row r="348" spans="1:7" hidden="1">
+    <row r="348" spans="1:7">
       <c r="A348" s="38" t="s">
         <v>58</v>
       </c>
@@ -14731,7 +14731,7 @@
       </c>
       <c r="G348" s="44"/>
     </row>
-    <row r="349" spans="1:7" hidden="1">
+    <row r="349" spans="1:7">
       <c r="A349" s="38" t="s">
         <v>58</v>
       </c>
@@ -14750,7 +14750,7 @@
       </c>
       <c r="G349" s="44"/>
     </row>
-    <row r="350" spans="1:7" hidden="1">
+    <row r="350" spans="1:7">
       <c r="A350" s="38" t="s">
         <v>58</v>
       </c>
@@ -14769,7 +14769,7 @@
       </c>
       <c r="G350" s="44"/>
     </row>
-    <row r="351" spans="1:7" hidden="1">
+    <row r="351" spans="1:7">
       <c r="A351" s="38" t="s">
         <v>58</v>
       </c>
@@ -14784,7 +14784,7 @@
       <c r="F351" s="41"/>
       <c r="G351" s="41"/>
     </row>
-    <row r="352" spans="1:7" ht="45" hidden="1">
+    <row r="352" spans="1:7" ht="45">
       <c r="A352" s="38" t="s">
         <v>58</v>
       </c>
@@ -14805,7 +14805,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="353" spans="1:7" ht="30" hidden="1">
+    <row r="353" spans="1:7" ht="30">
       <c r="A353" s="38" t="s">
         <v>58</v>
       </c>
@@ -14824,7 +14824,7 @@
       </c>
       <c r="G353" s="44"/>
     </row>
-    <row r="354" spans="1:7" ht="37.5" hidden="1" customHeight="1">
+    <row r="354" spans="1:7" ht="37.5" customHeight="1">
       <c r="A354" s="38" t="s">
         <v>58</v>
       </c>
@@ -14862,7 +14862,7 @@
       </c>
       <c r="G355" s="44"/>
     </row>
-    <row r="356" spans="1:7" hidden="1">
+    <row r="356" spans="1:7">
       <c r="A356" s="38" t="s">
         <v>58</v>
       </c>
@@ -14881,7 +14881,7 @@
       </c>
       <c r="G356" s="44"/>
     </row>
-    <row r="357" spans="1:7" hidden="1">
+    <row r="357" spans="1:7">
       <c r="A357" s="38" t="s">
         <v>58</v>
       </c>
@@ -14896,7 +14896,7 @@
       <c r="F357" s="41"/>
       <c r="G357" s="41"/>
     </row>
-    <row r="358" spans="1:7" hidden="1">
+    <row r="358" spans="1:7">
       <c r="A358" s="38" t="s">
         <v>58</v>
       </c>
@@ -14917,7 +14917,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="359" spans="1:7" hidden="1">
+    <row r="359" spans="1:7">
       <c r="A359" s="38" t="s">
         <v>58</v>
       </c>
@@ -14936,7 +14936,7 @@
       </c>
       <c r="G359" s="38"/>
     </row>
-    <row r="360" spans="1:7" hidden="1">
+    <row r="360" spans="1:7">
       <c r="A360" s="38" t="s">
         <v>58</v>
       </c>
@@ -14951,7 +14951,7 @@
       <c r="F360" s="41"/>
       <c r="G360" s="41"/>
     </row>
-    <row r="361" spans="1:7" hidden="1">
+    <row r="361" spans="1:7">
       <c r="A361" s="38" t="s">
         <v>58</v>
       </c>
@@ -14972,7 +14972,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="362" spans="1:7" hidden="1">
+    <row r="362" spans="1:7">
       <c r="A362" s="38" t="s">
         <v>58</v>
       </c>
@@ -14991,7 +14991,7 @@
       </c>
       <c r="G362" s="44"/>
     </row>
-    <row r="363" spans="1:7" hidden="1">
+    <row r="363" spans="1:7">
       <c r="A363" s="38" t="s">
         <v>58</v>
       </c>
@@ -15010,7 +15010,7 @@
       </c>
       <c r="G363" s="44"/>
     </row>
-    <row r="364" spans="1:7" hidden="1">
+    <row r="364" spans="1:7">
       <c r="A364" s="38" t="s">
         <v>58</v>
       </c>
@@ -15029,7 +15029,7 @@
       </c>
       <c r="G364" s="44"/>
     </row>
-    <row r="365" spans="1:7" hidden="1">
+    <row r="365" spans="1:7">
       <c r="A365" s="38" t="s">
         <v>58</v>
       </c>
@@ -15050,7 +15050,7 @@
       </c>
       <c r="G365" s="38"/>
     </row>
-    <row r="366" spans="1:7" hidden="1">
+    <row r="366" spans="1:7">
       <c r="A366" s="38" t="s">
         <v>58</v>
       </c>
@@ -15065,7 +15065,7 @@
       <c r="F366" s="41"/>
       <c r="G366" s="41"/>
     </row>
-    <row r="367" spans="1:7" hidden="1">
+    <row r="367" spans="1:7">
       <c r="A367" s="38" t="s">
         <v>58</v>
       </c>
@@ -15080,7 +15080,7 @@
       <c r="F367" s="41"/>
       <c r="G367" s="41"/>
     </row>
-    <row r="368" spans="1:7" ht="60" hidden="1">
+    <row r="368" spans="1:7" ht="60">
       <c r="A368" s="38" t="s">
         <v>58</v>
       </c>
@@ -15103,7 +15103,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="369" spans="1:7" ht="30" hidden="1">
+    <row r="369" spans="1:7" ht="30">
       <c r="A369" s="38" t="s">
         <v>58</v>
       </c>
@@ -15124,7 +15124,7 @@
       </c>
       <c r="G369" s="44"/>
     </row>
-    <row r="370" spans="1:7" hidden="1">
+    <row r="370" spans="1:7">
       <c r="A370" s="38" t="s">
         <v>58</v>
       </c>
@@ -15145,7 +15145,7 @@
       </c>
       <c r="G370" s="44"/>
     </row>
-    <row r="371" spans="1:7" hidden="1">
+    <row r="371" spans="1:7">
       <c r="A371" s="38" t="s">
         <v>58</v>
       </c>
@@ -15160,7 +15160,7 @@
       <c r="F371" s="41"/>
       <c r="G371" s="41"/>
     </row>
-    <row r="372" spans="1:7" hidden="1">
+    <row r="372" spans="1:7">
       <c r="A372" s="38" t="s">
         <v>58</v>
       </c>
@@ -15175,7 +15175,7 @@
       <c r="F372" s="41"/>
       <c r="G372" s="41"/>
     </row>
-    <row r="373" spans="1:7" hidden="1">
+    <row r="373" spans="1:7">
       <c r="A373" s="38" t="s">
         <v>58</v>
       </c>
@@ -15196,7 +15196,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="374" spans="1:7" hidden="1">
+    <row r="374" spans="1:7">
       <c r="A374" s="38" t="s">
         <v>58</v>
       </c>
@@ -15215,7 +15215,7 @@
       </c>
       <c r="G374" s="44"/>
     </row>
-    <row r="375" spans="1:7" ht="30" hidden="1">
+    <row r="375" spans="1:7" ht="30">
       <c r="A375" s="38" t="s">
         <v>58</v>
       </c>
@@ -15253,7 +15253,7 @@
       </c>
       <c r="G376" s="44"/>
     </row>
-    <row r="377" spans="1:7" hidden="1">
+    <row r="377" spans="1:7">
       <c r="A377" s="38" t="s">
         <v>58</v>
       </c>
@@ -15272,7 +15272,7 @@
       </c>
       <c r="G377" s="44"/>
     </row>
-    <row r="378" spans="1:7" ht="30" hidden="1">
+    <row r="378" spans="1:7" ht="30">
       <c r="A378" s="38" t="s">
         <v>58</v>
       </c>
@@ -15291,7 +15291,7 @@
       </c>
       <c r="G378" s="44"/>
     </row>
-    <row r="379" spans="1:7" hidden="1">
+    <row r="379" spans="1:7">
       <c r="A379" s="38" t="s">
         <v>58</v>
       </c>
@@ -15306,7 +15306,7 @@
       <c r="F379" s="41"/>
       <c r="G379" s="41"/>
     </row>
-    <row r="380" spans="1:7" hidden="1">
+    <row r="380" spans="1:7">
       <c r="A380" s="38" t="s">
         <v>58</v>
       </c>
@@ -15327,7 +15327,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="381" spans="1:7" hidden="1">
+    <row r="381" spans="1:7">
       <c r="A381" s="38" t="s">
         <v>58</v>
       </c>
@@ -15348,7 +15348,7 @@
       </c>
       <c r="G381" s="38"/>
     </row>
-    <row r="382" spans="1:7" hidden="1">
+    <row r="382" spans="1:7">
       <c r="A382" s="38" t="s">
         <v>58</v>
       </c>
@@ -15363,7 +15363,7 @@
       <c r="F382" s="41"/>
       <c r="G382" s="41"/>
     </row>
-    <row r="383" spans="1:7" hidden="1">
+    <row r="383" spans="1:7">
       <c r="A383" s="38" t="s">
         <v>58</v>
       </c>
@@ -15384,7 +15384,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="384" spans="1:7" hidden="1">
+    <row r="384" spans="1:7">
       <c r="A384" s="38" t="s">
         <v>58</v>
       </c>
@@ -15403,7 +15403,7 @@
       </c>
       <c r="G384" s="44"/>
     </row>
-    <row r="385" spans="1:7" hidden="1">
+    <row r="385" spans="1:7">
       <c r="A385" s="38" t="s">
         <v>58</v>
       </c>
@@ -15422,7 +15422,7 @@
       </c>
       <c r="G385" s="44"/>
     </row>
-    <row r="386" spans="1:7" hidden="1">
+    <row r="386" spans="1:7">
       <c r="A386" s="38" t="s">
         <v>58</v>
       </c>
@@ -15441,7 +15441,7 @@
       </c>
       <c r="G386" s="38"/>
     </row>
-    <row r="387" spans="1:7" hidden="1">
+    <row r="387" spans="1:7">
       <c r="A387" s="38" t="s">
         <v>58</v>
       </c>
@@ -15462,7 +15462,7 @@
       </c>
       <c r="G387" s="38"/>
     </row>
-    <row r="388" spans="1:7" hidden="1">
+    <row r="388" spans="1:7">
       <c r="A388" s="38" t="s">
         <v>58</v>
       </c>
@@ -15477,7 +15477,7 @@
       <c r="F388" s="41"/>
       <c r="G388" s="41"/>
     </row>
-    <row r="389" spans="1:7" hidden="1">
+    <row r="389" spans="1:7">
       <c r="A389" s="38" t="s">
         <v>58</v>
       </c>
@@ -15492,7 +15492,7 @@
       <c r="F389" s="41"/>
       <c r="G389" s="41"/>
     </row>
-    <row r="390" spans="1:7" ht="45" hidden="1">
+    <row r="390" spans="1:7" ht="45">
       <c r="A390" s="38" t="s">
         <v>58</v>
       </c>
@@ -15515,7 +15515,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="391" spans="1:7" ht="30" hidden="1">
+    <row r="391" spans="1:7" ht="30">
       <c r="A391" s="38" t="s">
         <v>58</v>
       </c>
@@ -15536,7 +15536,7 @@
       </c>
       <c r="G391" s="38"/>
     </row>
-    <row r="392" spans="1:7" hidden="1">
+    <row r="392" spans="1:7">
       <c r="A392" s="38" t="s">
         <v>58</v>
       </c>
@@ -15557,7 +15557,7 @@
       </c>
       <c r="G392" s="44"/>
     </row>
-    <row r="393" spans="1:7" hidden="1">
+    <row r="393" spans="1:7">
       <c r="A393" s="38" t="s">
         <v>58</v>
       </c>
@@ -15572,7 +15572,7 @@
       <c r="F393" s="41"/>
       <c r="G393" s="41"/>
     </row>
-    <row r="394" spans="1:7" hidden="1">
+    <row r="394" spans="1:7">
       <c r="A394" s="38" t="s">
         <v>58</v>
       </c>
@@ -15587,7 +15587,7 @@
       <c r="F394" s="41"/>
       <c r="G394" s="41"/>
     </row>
-    <row r="395" spans="1:7" hidden="1">
+    <row r="395" spans="1:7">
       <c r="A395" s="38" t="s">
         <v>58</v>
       </c>
@@ -15608,7 +15608,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="396" spans="1:7" hidden="1">
+    <row r="396" spans="1:7">
       <c r="A396" s="38" t="s">
         <v>58</v>
       </c>
@@ -15627,7 +15627,7 @@
       </c>
       <c r="G396" s="44"/>
     </row>
-    <row r="397" spans="1:7" hidden="1">
+    <row r="397" spans="1:7">
       <c r="A397" s="38" t="s">
         <v>58</v>
       </c>
@@ -15646,7 +15646,7 @@
       </c>
       <c r="G397" s="44"/>
     </row>
-    <row r="398" spans="1:7" ht="30" hidden="1">
+    <row r="398" spans="1:7" ht="30">
       <c r="A398" s="38" t="s">
         <v>58</v>
       </c>
@@ -15665,7 +15665,7 @@
       </c>
       <c r="G398" s="44"/>
     </row>
-    <row r="399" spans="1:7" hidden="1">
+    <row r="399" spans="1:7">
       <c r="A399" s="38" t="s">
         <v>58</v>
       </c>
@@ -15684,7 +15684,7 @@
       </c>
       <c r="G399" s="44"/>
     </row>
-    <row r="400" spans="1:7" ht="30" hidden="1">
+    <row r="400" spans="1:7" ht="30">
       <c r="A400" s="38" t="s">
         <v>58</v>
       </c>
@@ -15703,7 +15703,7 @@
       </c>
       <c r="G400" s="44"/>
     </row>
-    <row r="401" spans="1:7" hidden="1">
+    <row r="401" spans="1:7">
       <c r="A401" s="38" t="s">
         <v>58</v>
       </c>
@@ -15718,7 +15718,7 @@
       <c r="F401" s="41"/>
       <c r="G401" s="41"/>
     </row>
-    <row r="402" spans="1:7" hidden="1">
+    <row r="402" spans="1:7">
       <c r="A402" s="38" t="s">
         <v>58</v>
       </c>
@@ -15739,7 +15739,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="403" spans="1:7" hidden="1">
+    <row r="403" spans="1:7">
       <c r="A403" s="38" t="s">
         <v>58</v>
       </c>
@@ -15760,7 +15760,7 @@
       </c>
       <c r="G403" s="38"/>
     </row>
-    <row r="404" spans="1:7" hidden="1">
+    <row r="404" spans="1:7">
       <c r="A404" s="38" t="s">
         <v>58</v>
       </c>
@@ -15775,7 +15775,7 @@
       <c r="F404" s="41"/>
       <c r="G404" s="41"/>
     </row>
-    <row r="405" spans="1:7" hidden="1">
+    <row r="405" spans="1:7">
       <c r="A405" s="38" t="s">
         <v>58</v>
       </c>
@@ -15796,7 +15796,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="406" spans="1:7" hidden="1">
+    <row r="406" spans="1:7">
       <c r="A406" s="38" t="s">
         <v>58</v>
       </c>
@@ -15815,7 +15815,7 @@
       </c>
       <c r="G406" s="44"/>
     </row>
-    <row r="407" spans="1:7" hidden="1">
+    <row r="407" spans="1:7">
       <c r="A407" s="38" t="s">
         <v>58</v>
       </c>
@@ -15834,7 +15834,7 @@
       </c>
       <c r="G407" s="44"/>
     </row>
-    <row r="408" spans="1:7" hidden="1">
+    <row r="408" spans="1:7">
       <c r="A408" s="38" t="s">
         <v>58</v>
       </c>
@@ -15853,7 +15853,7 @@
       </c>
       <c r="G408" s="38"/>
     </row>
-    <row r="409" spans="1:7" hidden="1">
+    <row r="409" spans="1:7">
       <c r="A409" s="38" t="s">
         <v>58</v>
       </c>
@@ -15874,7 +15874,7 @@
       </c>
       <c r="G409" s="38"/>
     </row>
-    <row r="410" spans="1:7" hidden="1">
+    <row r="410" spans="1:7">
       <c r="A410" s="38" t="s">
         <v>58</v>
       </c>
@@ -15889,7 +15889,7 @@
       <c r="F410" s="41"/>
       <c r="G410" s="41"/>
     </row>
-    <row r="411" spans="1:7" hidden="1">
+    <row r="411" spans="1:7">
       <c r="A411" s="38" t="s">
         <v>58</v>
       </c>
@@ -15904,7 +15904,7 @@
       <c r="F411" s="41"/>
       <c r="G411" s="41"/>
     </row>
-    <row r="412" spans="1:7" ht="45" hidden="1">
+    <row r="412" spans="1:7" ht="45">
       <c r="A412" s="38" t="s">
         <v>58</v>
       </c>
@@ -15927,7 +15927,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="413" spans="1:7" hidden="1">
+    <row r="413" spans="1:7">
       <c r="A413" s="38" t="s">
         <v>58</v>
       </c>
@@ -15948,7 +15948,7 @@
       </c>
       <c r="G413" s="44"/>
     </row>
-    <row r="414" spans="1:7" hidden="1">
+    <row r="414" spans="1:7">
       <c r="A414" s="38" t="s">
         <v>58</v>
       </c>
@@ -15969,7 +15969,7 @@
       </c>
       <c r="G414" s="44"/>
     </row>
-    <row r="415" spans="1:7" hidden="1">
+    <row r="415" spans="1:7">
       <c r="A415" s="38" t="s">
         <v>58</v>
       </c>
@@ -15984,7 +15984,7 @@
       <c r="F415" s="41"/>
       <c r="G415" s="41"/>
     </row>
-    <row r="416" spans="1:7" hidden="1">
+    <row r="416" spans="1:7">
       <c r="A416" s="38" t="s">
         <v>58</v>
       </c>
@@ -15999,7 +15999,7 @@
       <c r="F416" s="41"/>
       <c r="G416" s="41"/>
     </row>
-    <row r="417" spans="1:7" hidden="1">
+    <row r="417" spans="1:7">
       <c r="A417" s="38" t="s">
         <v>58</v>
       </c>
@@ -16020,7 +16020,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="418" spans="1:7" hidden="1">
+    <row r="418" spans="1:7">
       <c r="A418" s="38" t="s">
         <v>58</v>
       </c>
@@ -16039,7 +16039,7 @@
       </c>
       <c r="G418" s="44"/>
     </row>
-    <row r="419" spans="1:7" hidden="1">
+    <row r="419" spans="1:7">
       <c r="A419" s="38" t="s">
         <v>58</v>
       </c>
@@ -16058,7 +16058,7 @@
       </c>
       <c r="G419" s="44"/>
     </row>
-    <row r="420" spans="1:7" hidden="1">
+    <row r="420" spans="1:7">
       <c r="A420" s="38" t="s">
         <v>58</v>
       </c>
@@ -16077,7 +16077,7 @@
       </c>
       <c r="G420" s="38"/>
     </row>
-    <row r="421" spans="1:7" hidden="1">
+    <row r="421" spans="1:7">
       <c r="A421" s="38" t="s">
         <v>58</v>
       </c>
@@ -16092,7 +16092,7 @@
       <c r="F421" s="41"/>
       <c r="G421" s="41"/>
     </row>
-    <row r="422" spans="1:7" hidden="1">
+    <row r="422" spans="1:7">
       <c r="A422" s="38" t="s">
         <v>58</v>
       </c>
@@ -16113,7 +16113,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="423" spans="1:7" hidden="1">
+    <row r="423" spans="1:7">
       <c r="A423" s="38" t="s">
         <v>58</v>
       </c>
@@ -16132,7 +16132,7 @@
       </c>
       <c r="G423" s="38"/>
     </row>
-    <row r="424" spans="1:7" hidden="1">
+    <row r="424" spans="1:7">
       <c r="A424" s="38" t="s">
         <v>58</v>
       </c>
@@ -16151,7 +16151,7 @@
       </c>
       <c r="G424" s="38"/>
     </row>
-    <row r="425" spans="1:7" hidden="1">
+    <row r="425" spans="1:7">
       <c r="A425" s="38" t="s">
         <v>58</v>
       </c>
@@ -16166,7 +16166,7 @@
       <c r="F425" s="41"/>
       <c r="G425" s="41"/>
     </row>
-    <row r="426" spans="1:7" hidden="1">
+    <row r="426" spans="1:7">
       <c r="A426" s="38" t="s">
         <v>58</v>
       </c>
@@ -16187,7 +16187,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="427" spans="1:7" hidden="1">
+    <row r="427" spans="1:7">
       <c r="A427" s="38" t="s">
         <v>58</v>
       </c>
@@ -16206,7 +16206,7 @@
       </c>
       <c r="G427" s="44"/>
     </row>
-    <row r="428" spans="1:7" hidden="1">
+    <row r="428" spans="1:7">
       <c r="A428" s="38" t="s">
         <v>58</v>
       </c>
@@ -16225,7 +16225,7 @@
       </c>
       <c r="G428" s="44"/>
     </row>
-    <row r="429" spans="1:7" hidden="1">
+    <row r="429" spans="1:7">
       <c r="A429" s="38" t="s">
         <v>58</v>
       </c>
@@ -16244,7 +16244,7 @@
       </c>
       <c r="G429" s="38"/>
     </row>
-    <row r="430" spans="1:7" hidden="1">
+    <row r="430" spans="1:7">
       <c r="A430" s="38" t="s">
         <v>58</v>
       </c>
@@ -16263,7 +16263,7 @@
       </c>
       <c r="G430" s="44"/>
     </row>
-    <row r="431" spans="1:7" ht="30" hidden="1">
+    <row r="431" spans="1:7" ht="30">
       <c r="A431" s="38" t="s">
         <v>58</v>
       </c>
@@ -16282,7 +16282,7 @@
       </c>
       <c r="G431" s="44"/>
     </row>
-    <row r="432" spans="1:7" hidden="1">
+    <row r="432" spans="1:7">
       <c r="A432" s="38" t="s">
         <v>58</v>
       </c>
@@ -16299,7 +16299,7 @@
       </c>
       <c r="G432" s="41"/>
     </row>
-    <row r="433" spans="1:7" ht="45" hidden="1">
+    <row r="433" spans="1:7" ht="45">
       <c r="A433" s="38" t="s">
         <v>58</v>
       </c>
@@ -16320,7 +16320,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="434" spans="1:7" ht="30" hidden="1">
+    <row r="434" spans="1:7" ht="30">
       <c r="A434" s="38" t="s">
         <v>58</v>
       </c>
@@ -16339,7 +16339,7 @@
       </c>
       <c r="G434" s="44"/>
     </row>
-    <row r="435" spans="1:7" hidden="1">
+    <row r="435" spans="1:7">
       <c r="A435" s="38" t="s">
         <v>58</v>
       </c>
@@ -16360,7 +16360,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="436" spans="1:7" hidden="1">
+    <row r="436" spans="1:7">
       <c r="A436" s="38" t="s">
         <v>58</v>
       </c>
@@ -16379,7 +16379,7 @@
       </c>
       <c r="G436" s="44"/>
     </row>
-    <row r="437" spans="1:7" hidden="1">
+    <row r="437" spans="1:7">
       <c r="A437" s="38" t="s">
         <v>58</v>
       </c>
@@ -16396,7 +16396,7 @@
       </c>
       <c r="G437" s="41"/>
     </row>
-    <row r="438" spans="1:7" hidden="1">
+    <row r="438" spans="1:7">
       <c r="A438" s="38" t="s">
         <v>58</v>
       </c>
@@ -16417,7 +16417,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="439" spans="1:7" hidden="1">
+    <row r="439" spans="1:7">
       <c r="A439" s="38" t="s">
         <v>58</v>
       </c>
@@ -16438,7 +16438,7 @@
       </c>
       <c r="G439" s="38"/>
     </row>
-    <row r="440" spans="1:7" hidden="1">
+    <row r="440" spans="1:7">
       <c r="A440" s="38" t="s">
         <v>58</v>
       </c>
@@ -16455,7 +16455,7 @@
       </c>
       <c r="G440" s="41"/>
     </row>
-    <row r="441" spans="1:7" hidden="1">
+    <row r="441" spans="1:7">
       <c r="A441" s="38" t="s">
         <v>58</v>
       </c>
@@ -16476,7 +16476,7 @@
       </c>
       <c r="G441" s="38"/>
     </row>
-    <row r="442" spans="1:7" hidden="1">
+    <row r="442" spans="1:7">
       <c r="A442" s="38" t="s">
         <v>58</v>
       </c>
@@ -16493,7 +16493,7 @@
       </c>
       <c r="G442" s="37"/>
     </row>
-    <row r="443" spans="1:7" hidden="1">
+    <row r="443" spans="1:7">
       <c r="A443" s="38" t="s">
         <v>58</v>
       </c>
@@ -16512,7 +16512,7 @@
       </c>
       <c r="G443" s="44"/>
     </row>
-    <row r="444" spans="1:7" hidden="1">
+    <row r="444" spans="1:7">
       <c r="A444" s="38" t="s">
         <v>58</v>
       </c>
@@ -16531,7 +16531,7 @@
       </c>
       <c r="G444" s="44"/>
     </row>
-    <row r="445" spans="1:7" hidden="1">
+    <row r="445" spans="1:7">
       <c r="A445" s="38" t="s">
         <v>58</v>
       </c>
@@ -16550,7 +16550,7 @@
       </c>
       <c r="G445" s="44"/>
     </row>
-    <row r="446" spans="1:7" hidden="1">
+    <row r="446" spans="1:7">
       <c r="A446" s="38" t="s">
         <v>58</v>
       </c>
@@ -16567,7 +16567,7 @@
       </c>
       <c r="G446" s="37"/>
     </row>
-    <row r="447" spans="1:7" hidden="1">
+    <row r="447" spans="1:7">
       <c r="A447" s="38" t="s">
         <v>58</v>
       </c>
@@ -16586,7 +16586,7 @@
       </c>
       <c r="G447" s="44"/>
     </row>
-    <row r="448" spans="1:7" hidden="1">
+    <row r="448" spans="1:7">
       <c r="A448" s="38" t="s">
         <v>58</v>
       </c>
@@ -16605,7 +16605,7 @@
       </c>
       <c r="G448" s="44"/>
     </row>
-    <row r="449" spans="1:7" hidden="1">
+    <row r="449" spans="1:7">
       <c r="A449" s="38" t="s">
         <v>58</v>
       </c>
@@ -16622,7 +16622,7 @@
       </c>
       <c r="G449" s="37"/>
     </row>
-    <row r="450" spans="1:7" hidden="1">
+    <row r="450" spans="1:7">
       <c r="A450" s="38" t="s">
         <v>58</v>
       </c>
@@ -16639,7 +16639,7 @@
       </c>
       <c r="G450" s="41"/>
     </row>
-    <row r="451" spans="1:7" ht="45" hidden="1">
+    <row r="451" spans="1:7" ht="45">
       <c r="A451" s="38" t="s">
         <v>58</v>
       </c>
@@ -16660,7 +16660,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="452" spans="1:7" hidden="1">
+    <row r="452" spans="1:7">
       <c r="A452" s="38" t="s">
         <v>58</v>
       </c>
@@ -16679,7 +16679,7 @@
       </c>
       <c r="G452" s="44"/>
     </row>
-    <row r="453" spans="1:7" hidden="1">
+    <row r="453" spans="1:7">
       <c r="A453" s="38" t="s">
         <v>58</v>
       </c>
@@ -16698,7 +16698,7 @@
       </c>
       <c r="G453" s="44"/>
     </row>
-    <row r="454" spans="1:7" hidden="1">
+    <row r="454" spans="1:7">
       <c r="A454" s="38" t="s">
         <v>58</v>
       </c>
@@ -16715,7 +16715,7 @@
       </c>
       <c r="G454" s="41"/>
     </row>
-    <row r="455" spans="1:7" hidden="1">
+    <row r="455" spans="1:7">
       <c r="A455" s="38" t="s">
         <v>58</v>
       </c>
@@ -16732,7 +16732,7 @@
       </c>
       <c r="G455" s="41"/>
     </row>
-    <row r="456" spans="1:7" hidden="1">
+    <row r="456" spans="1:7">
       <c r="A456" s="38" t="s">
         <v>58</v>
       </c>
@@ -16753,7 +16753,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="457" spans="1:7" hidden="1">
+    <row r="457" spans="1:7">
       <c r="A457" s="38" t="s">
         <v>58</v>
       </c>
@@ -16772,7 +16772,7 @@
       </c>
       <c r="G457" s="44"/>
     </row>
-    <row r="458" spans="1:7" hidden="1">
+    <row r="458" spans="1:7">
       <c r="A458" s="38" t="s">
         <v>58</v>
       </c>
@@ -16791,7 +16791,7 @@
       </c>
       <c r="G458" s="38"/>
     </row>
-    <row r="459" spans="1:7" hidden="1">
+    <row r="459" spans="1:7">
       <c r="A459" s="38" t="s">
         <v>58</v>
       </c>
@@ -16810,7 +16810,7 @@
       </c>
       <c r="G459" s="38"/>
     </row>
-    <row r="460" spans="1:7" hidden="1">
+    <row r="460" spans="1:7">
       <c r="A460" s="38" t="s">
         <v>58</v>
       </c>
@@ -16827,7 +16827,7 @@
       </c>
       <c r="G460" s="38"/>
     </row>
-    <row r="461" spans="1:7" ht="30" hidden="1">
+    <row r="461" spans="1:7" ht="30">
       <c r="A461" s="38" t="s">
         <v>58</v>
       </c>
@@ -16846,7 +16846,7 @@
       </c>
       <c r="G461" s="38"/>
     </row>
-    <row r="462" spans="1:7" hidden="1">
+    <row r="462" spans="1:7">
       <c r="A462" s="38" t="s">
         <v>58</v>
       </c>
@@ -16865,7 +16865,7 @@
       </c>
       <c r="G462" s="38"/>
     </row>
-    <row r="463" spans="1:7" hidden="1">
+    <row r="463" spans="1:7">
       <c r="A463" s="38" t="s">
         <v>58</v>
       </c>
@@ -16882,7 +16882,7 @@
       </c>
       <c r="G463" s="41"/>
     </row>
-    <row r="464" spans="1:7" hidden="1">
+    <row r="464" spans="1:7">
       <c r="A464" s="38" t="s">
         <v>58</v>
       </c>
@@ -16903,7 +16903,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="465" spans="1:7" hidden="1">
+    <row r="465" spans="1:7">
       <c r="A465" s="38" t="s">
         <v>58</v>
       </c>
@@ -16922,7 +16922,7 @@
       </c>
       <c r="G465" s="38"/>
     </row>
-    <row r="466" spans="1:7" hidden="1">
+    <row r="466" spans="1:7">
       <c r="A466" s="38" t="s">
         <v>58</v>
       </c>
@@ -16939,7 +16939,7 @@
       </c>
       <c r="G466" s="41"/>
     </row>
-    <row r="467" spans="1:7" hidden="1">
+    <row r="467" spans="1:7">
       <c r="A467" s="38" t="s">
         <v>58</v>
       </c>
@@ -16960,7 +16960,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="468" spans="1:7" hidden="1">
+    <row r="468" spans="1:7">
       <c r="A468" s="38" t="s">
         <v>58</v>
       </c>
@@ -16979,7 +16979,7 @@
       </c>
       <c r="G468" s="44"/>
     </row>
-    <row r="469" spans="1:7" hidden="1">
+    <row r="469" spans="1:7">
       <c r="A469" s="38" t="s">
         <v>58</v>
       </c>
@@ -16998,7 +16998,7 @@
       </c>
       <c r="G469" s="44"/>
     </row>
-    <row r="470" spans="1:7" hidden="1">
+    <row r="470" spans="1:7">
       <c r="A470" s="38" t="s">
         <v>58</v>
       </c>
@@ -17017,7 +17017,7 @@
       </c>
       <c r="G470" s="38"/>
     </row>
-    <row r="471" spans="1:7" hidden="1">
+    <row r="471" spans="1:7">
       <c r="A471" s="38" t="s">
         <v>58</v>
       </c>
@@ -17037,13 +17037,6 @@
       <c r="G471" s="38"/>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D471" xr:uid="{8A21E7FF-AD48-4859-8AB9-1DBEC792FD72}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="PKIX.13"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -21976,8 +21969,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>

--- a/conformancelib/testdata/85b_test_definitions_PIV_Production_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV_Production_Cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geoff\gsa-devel\piv-conformance\conformancelib\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E399EF-2267-4F3F-B7F4-B0180FC24CF8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EF78C7-9642-4472-A0FE-6AAFAFD46063}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="2505" windowWidth="26190" windowHeight="13845" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3771" uniqueCount="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3770" uniqueCount="1308">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -2502,9 +2502,6 @@
     <t>sp800_73_4_Test_16</t>
   </si>
   <si>
-    <t>CHUID_OID:5</t>
-  </si>
-  <si>
     <t>73-4.17</t>
   </si>
   <si>
@@ -3183,9 +3180,6 @@
     <t>PKIX_Test_6</t>
   </si>
   <si>
-    <t>Confirm that id- fpki-common-authentication OID is asserted in certificate policies</t>
-  </si>
-  <si>
     <t>PKIX_Test_7</t>
   </si>
   <si>
@@ -3379,9 +3373,6 @@
   </si>
   <si>
     <t>The BDB Format Type is set to a value of 0x0201</t>
-  </si>
-  <si>
-    <t>PIV Auth ICAM Test Card certificate policy OID</t>
   </si>
   <si>
     <t>Card Auth ICAM Test Card certificate policy OID</t>
@@ -3947,19 +3938,26 @@
     <t>The Patron Header Version field has a value of 0x03.</t>
   </si>
   <si>
-    <t>X509_CERTIFICATE_FOR_PIV_AUTHENTICATION_OID:2.16.840.1.101.3.2.1.48.11,X509_CERTIFICATE_FOR_DIGITAL_SIGNATURE_OID:2.16.840.1.101.3.2.1.48.9|2.16.840.1.101.3.2.1.48.12,X509_CERTIFICATE_FOR_KEY_MANAGEMENT_OID:2.16.840.1.101.3.2.1.48.9|2.16.840.1.101.3.2.1.48.12,X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID:2.16.840.1.101.3.2.1.48.13,CARD_HOLDER_UNIQUE_IDENTIFIER_OID:2.16.840.1.101.3.6.7</t>
-  </si>
-  <si>
     <t>eliminate cms.17 atom as it does not apply</t>
   </si>
   <si>
-    <t>X509_CERTIFICATE_FOR_PIV_AUTHENTICATION_OID;2.16.840.1.101.3.2.1.3.13,X509_CERTIFICATE_FOR_DIGITAL_SIGNATURE_OID;2.16.840.1.101.3.2.1.3.7:2.16.840.1.101.3.2.1.3.16:2.16.840.1.101.3.2.1.3.6,X509_CERTIFICATE_FOR_KEY_MANAGEMENT_OID;2.16.840.1.101.3.2.1.3.7:2.16.840.1.101.3.2.1.3.16:2.16.840.1.101.3.2.1.3.6,X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID;2.16.840.1.101.3.2.1.3.17,CARD_HOLDER_UNIQUE_IDENTIFIER_OID;2.16.840.1.101.3.2.1.48.86</t>
-  </si>
-  <si>
     <t>CARDHOLDER_IRIS_IMAGES_OID</t>
   </si>
   <si>
     <t>9.3.2.5</t>
+  </si>
+  <si>
+    <t>CARD_HOLDER_UNIQUE_IDENTIFIER_OID:2.16.840.1.101.3.6.7,X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID:2.16.840.1.101.3.6.7</t>
+  </si>
+  <si>
+    <t>X509_CERTIFICATE_FOR_PIV_AUTHENTICATION_OID;2.16.840.1.101.3.2.1.3.13,X509_CERTIFICATE_FOR_DIGITAL_SIGNATURE_OID;2.16.840.1.101.3.2.1.3.7:2.16.840.1.101.3.2.1.3.16:2.16.840.1.101.3.2.1.3.6,X509_CERTIFICATE_FOR_KEY_MANAGEMENT_OID;2.16.840.1.101.3.2.1.3.7:2.16.840.1.101.3.2.1.3.16:2.16.840.1.101.3.2.1.3.6,X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID;2.16.840.1.101.3.2.1.3.17,CARD_HOLDER_UNIQUE_IDENTIFIER_OID;2.16.840.1.101.3.2.1.3.39</t>
+  </si>
+  <si>
+    <t>Confirm that appropriate policy OID is asserted in certificate</t>
+  </si>
+  <si>
+    <t>CARD_HOLDER_UNIQUE_IDENTIFIER_OID:5
+:5</t>
   </si>
 </sst>
 </file>
@@ -4210,7 +4208,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4440,6 +4438,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4833,13 +4834,13 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="13.69921875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="57.3984375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="57.375" style="4" customWidth="1"/>
     <col min="3" max="5" width="10.5" style="4" customWidth="1"/>
-    <col min="6" max="256" width="8.8984375" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.8984375" style="19" customWidth="1"/>
+    <col min="6" max="256" width="8.875" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.875" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
@@ -5496,7 +5497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="31.2">
+    <row r="74" spans="1:5" ht="31.5">
       <c r="A74" s="3" t="s">
         <v>205</v>
       </c>
@@ -5584,7 +5585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="31.2">
+    <row r="85" spans="1:2" ht="31.5">
       <c r="A85" s="3" t="s">
         <v>217</v>
       </c>
@@ -5672,7 +5673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="31.2">
+    <row r="96" spans="1:2" ht="31.5">
       <c r="A96" s="3" t="s">
         <v>229</v>
       </c>
@@ -5760,7 +5761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="31.2">
+    <row r="107" spans="1:2">
       <c r="A107" s="3" t="s">
         <v>240</v>
       </c>
@@ -5816,7 +5817,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="31.2">
+    <row r="114" spans="1:2" ht="31.5">
       <c r="A114" s="3" t="s">
         <v>255</v>
       </c>
@@ -5832,7 +5833,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="27.6">
+    <row r="116" spans="1:2" ht="28.5">
       <c r="A116" s="3" t="s">
         <v>258</v>
       </c>
@@ -5872,7 +5873,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="46.8">
+    <row r="121" spans="1:2" ht="47.25">
       <c r="A121" s="3" t="s">
         <v>267</v>
       </c>
@@ -5888,7 +5889,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="62.4">
+    <row r="123" spans="1:2" ht="63">
       <c r="A123" s="3" t="s">
         <v>272</v>
       </c>
@@ -6040,7 +6041,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="31.2">
+    <row r="142" spans="1:2" ht="31.5">
       <c r="A142" s="3" t="s">
         <v>296</v>
       </c>
@@ -6056,7 +6057,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="31.2">
+    <row r="144" spans="1:2" ht="31.5">
       <c r="A144" s="3" t="s">
         <v>301</v>
       </c>
@@ -6064,7 +6065,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="46.8">
+    <row r="145" spans="1:2" ht="47.25">
       <c r="A145" s="3" t="s">
         <v>303</v>
       </c>
@@ -6072,7 +6073,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="46.8">
+    <row r="146" spans="1:2" ht="47.25">
       <c r="A146" s="3" t="s">
         <v>305</v>
       </c>
@@ -6096,7 +6097,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="46.8">
+    <row r="149" spans="1:2" ht="47.25">
       <c r="A149" s="3" t="s">
         <v>311</v>
       </c>
@@ -6112,7 +6113,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="62.4">
+    <row r="151" spans="1:2" ht="63">
       <c r="A151" s="3" t="s">
         <v>315</v>
       </c>
@@ -6120,7 +6121,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="31.2">
+    <row r="152" spans="1:2" ht="31.5">
       <c r="A152" s="3" t="s">
         <v>317</v>
       </c>
@@ -6128,7 +6129,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="31.2">
+    <row r="153" spans="1:2" ht="31.5">
       <c r="A153" s="3" t="s">
         <v>319</v>
       </c>
@@ -6192,7 +6193,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="31.2">
+    <row r="161" spans="1:2" ht="31.5">
       <c r="A161" s="3" t="s">
         <v>327</v>
       </c>
@@ -6208,7 +6209,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="31.2">
+    <row r="163" spans="1:2" ht="31.5">
       <c r="A163" s="3" t="s">
         <v>329</v>
       </c>
@@ -6216,7 +6217,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="31.2">
+    <row r="164" spans="1:2" ht="31.5">
       <c r="A164" s="3" t="s">
         <v>330</v>
       </c>
@@ -6224,7 +6225,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="46.8">
+    <row r="165" spans="1:2" ht="47.25">
       <c r="A165" s="3" t="s">
         <v>332</v>
       </c>
@@ -6248,7 +6249,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="31.2">
+    <row r="168" spans="1:2" ht="31.5">
       <c r="A168" s="3" t="s">
         <v>336</v>
       </c>
@@ -6264,7 +6265,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="62.4">
+    <row r="170" spans="1:2" ht="63">
       <c r="A170" s="3" t="s">
         <v>340</v>
       </c>
@@ -6272,7 +6273,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="31.2">
+    <row r="171" spans="1:2" ht="31.5">
       <c r="A171" s="3" t="s">
         <v>341</v>
       </c>
@@ -6280,7 +6281,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="31.2">
+    <row r="172" spans="1:2" ht="31.5">
       <c r="A172" s="3" t="s">
         <v>342</v>
       </c>
@@ -6376,7 +6377,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="46.8">
+    <row r="184" spans="1:2" ht="47.25">
       <c r="A184" s="3" t="s">
         <v>332</v>
       </c>
@@ -6392,7 +6393,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="31.2">
+    <row r="186" spans="1:2">
       <c r="A186" s="3" t="s">
         <v>358</v>
       </c>
@@ -6400,7 +6401,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="31.2">
+    <row r="187" spans="1:2" ht="31.5">
       <c r="A187" s="3" t="s">
         <v>360</v>
       </c>
@@ -6416,7 +6417,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="62.4">
+    <row r="189" spans="1:2" ht="63">
       <c r="A189" s="3" t="s">
         <v>363</v>
       </c>
@@ -6424,7 +6425,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="31.2">
+    <row r="190" spans="1:2" ht="31.5">
       <c r="A190" s="3" t="s">
         <v>364</v>
       </c>
@@ -6432,7 +6433,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="31.2">
+    <row r="191" spans="1:2" ht="31.5">
       <c r="A191" s="3" t="s">
         <v>365</v>
       </c>
@@ -6480,7 +6481,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="46.8">
+    <row r="197" spans="1:2" ht="47.25">
       <c r="A197" s="3" t="s">
         <v>375</v>
       </c>
@@ -6488,7 +6489,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="46.8">
+    <row r="198" spans="1:2" ht="47.25">
       <c r="A198" s="3" t="s">
         <v>377</v>
       </c>
@@ -6512,7 +6513,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="31.2">
+    <row r="201" spans="1:2" ht="31.5">
       <c r="A201" s="3" t="s">
         <v>382</v>
       </c>
@@ -6520,7 +6521,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="31.2">
+    <row r="202" spans="1:2" ht="31.5">
       <c r="A202" s="3" t="s">
         <v>384</v>
       </c>
@@ -6624,7 +6625,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="31.2">
+    <row r="215" spans="1:2" ht="31.5">
       <c r="A215" s="3" t="s">
         <v>409</v>
       </c>
@@ -6768,7 +6769,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="46.8">
+    <row r="233" spans="1:2" ht="47.25">
       <c r="A233" s="3" t="s">
         <v>432</v>
       </c>
@@ -6784,7 +6785,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="31.2">
+    <row r="235" spans="1:2" ht="31.5">
       <c r="A235" s="3" t="s">
         <v>439</v>
       </c>
@@ -6792,7 +6793,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="31.2">
+    <row r="236" spans="1:2" ht="31.5">
       <c r="A236" s="3" t="s">
         <v>442</v>
       </c>
@@ -6808,7 +6809,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="31.2">
+    <row r="238" spans="1:2">
       <c r="A238" s="3" t="s">
         <v>448</v>
       </c>
@@ -6816,7 +6817,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="62.4">
+    <row r="239" spans="1:2" ht="47.25">
       <c r="A239" s="3" t="s">
         <v>451</v>
       </c>
@@ -6824,7 +6825,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="46.8">
+    <row r="240" spans="1:2" ht="47.25">
       <c r="A240" s="3" t="s">
         <v>454</v>
       </c>
@@ -6832,7 +6833,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="78">
+    <row r="241" spans="1:2" ht="78.75">
       <c r="A241" s="3" t="s">
         <v>457</v>
       </c>
@@ -6840,7 +6841,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="62.4">
+    <row r="242" spans="1:2" ht="47.25">
       <c r="A242" s="3" t="s">
         <v>460</v>
       </c>
@@ -6848,7 +6849,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="78">
+    <row r="243" spans="1:2" ht="78.75">
       <c r="A243" s="3" t="s">
         <v>463</v>
       </c>
@@ -6856,7 +6857,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="31.2">
+    <row r="244" spans="1:2" ht="31.5">
       <c r="A244" s="3" t="s">
         <v>466</v>
       </c>
@@ -6880,7 +6881,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="46.8">
+    <row r="247" spans="1:2" ht="47.25">
       <c r="A247" s="3" t="s">
         <v>471</v>
       </c>
@@ -6896,7 +6897,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="31.2">
+    <row r="249" spans="1:2" ht="31.5">
       <c r="A249" s="3" t="s">
         <v>476</v>
       </c>
@@ -6904,7 +6905,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="31.2">
+    <row r="250" spans="1:2" ht="31.5">
       <c r="A250" s="3" t="s">
         <v>478</v>
       </c>
@@ -6920,7 +6921,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="31.2">
+    <row r="252" spans="1:2">
       <c r="A252" s="3" t="s">
         <v>481</v>
       </c>
@@ -6936,7 +6937,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="31.2">
+    <row r="254" spans="1:2" ht="31.5">
       <c r="A254" s="3" t="s">
         <v>484</v>
       </c>
@@ -6944,7 +6945,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="31.2">
+    <row r="255" spans="1:2" ht="31.5">
       <c r="A255" s="3" t="s">
         <v>486</v>
       </c>
@@ -6952,7 +6953,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="31.2">
+    <row r="256" spans="1:2" ht="31.5">
       <c r="A256" s="3" t="s">
         <v>489</v>
       </c>
@@ -6960,7 +6961,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="46.8">
+    <row r="257" spans="1:2" ht="47.25">
       <c r="A257" s="3" t="s">
         <v>491</v>
       </c>
@@ -6968,7 +6969,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="62.4">
+    <row r="258" spans="1:2" ht="47.25">
       <c r="A258" s="3" t="s">
         <v>494</v>
       </c>
@@ -6976,7 +6977,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="62.4">
+    <row r="259" spans="1:2" ht="63">
       <c r="A259" s="3" t="s">
         <v>496</v>
       </c>
@@ -6984,7 +6985,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="78">
+    <row r="260" spans="1:2" ht="78.75">
       <c r="A260" s="3" t="s">
         <v>498</v>
       </c>
@@ -6992,7 +6993,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="78">
+    <row r="261" spans="1:2" ht="78.75">
       <c r="A261" s="3" t="s">
         <v>500</v>
       </c>
@@ -7000,7 +7001,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="46.8">
+    <row r="262" spans="1:2" ht="47.25">
       <c r="A262" s="3" t="s">
         <v>503</v>
       </c>
@@ -7024,7 +7025,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="46.8">
+    <row r="265" spans="1:2" ht="47.25">
       <c r="A265" s="3" t="s">
         <v>507</v>
       </c>
@@ -7040,7 +7041,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="31.2">
+    <row r="267" spans="1:2" ht="31.5">
       <c r="A267" s="3" t="s">
         <v>509</v>
       </c>
@@ -7048,7 +7049,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="31.2">
+    <row r="268" spans="1:2" ht="31.5">
       <c r="A268" s="3" t="s">
         <v>510</v>
       </c>
@@ -7064,7 +7065,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="31.2">
+    <row r="270" spans="1:2">
       <c r="A270" s="3" t="s">
         <v>512</v>
       </c>
@@ -7080,7 +7081,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="31.2">
+    <row r="272" spans="1:2" ht="31.5">
       <c r="A272" s="3" t="s">
         <v>514</v>
       </c>
@@ -7088,7 +7089,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="31.2">
+    <row r="273" spans="1:2" ht="31.5">
       <c r="A273" s="3" t="s">
         <v>515</v>
       </c>
@@ -7096,7 +7097,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="31.2">
+    <row r="274" spans="1:2" ht="31.5">
       <c r="A274" s="3" t="s">
         <v>516</v>
       </c>
@@ -7104,7 +7105,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="46.8">
+    <row r="275" spans="1:2" ht="47.25">
       <c r="A275" s="3" t="s">
         <v>517</v>
       </c>
@@ -7112,7 +7113,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="62.4">
+    <row r="276" spans="1:2" ht="47.25">
       <c r="A276" s="3" t="s">
         <v>518</v>
       </c>
@@ -7120,7 +7121,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="62.4">
+    <row r="277" spans="1:2" ht="63">
       <c r="A277" s="3" t="s">
         <v>519</v>
       </c>
@@ -7128,7 +7129,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="78">
+    <row r="278" spans="1:2" ht="78.75">
       <c r="A278" s="3" t="s">
         <v>520</v>
       </c>
@@ -7136,7 +7137,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="78">
+    <row r="279" spans="1:2" ht="78.75">
       <c r="A279" s="3" t="s">
         <v>521</v>
       </c>
@@ -7144,7 +7145,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="46.8">
+    <row r="280" spans="1:2" ht="47.25">
       <c r="A280" s="3" t="s">
         <v>522</v>
       </c>
@@ -7168,7 +7169,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="31.2">
+    <row r="283" spans="1:2" ht="31.5">
       <c r="A283" s="3" t="s">
         <v>524</v>
       </c>
@@ -7184,7 +7185,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="31.2">
+    <row r="285" spans="1:2" ht="31.5">
       <c r="A285" s="3" t="s">
         <v>528</v>
       </c>
@@ -7208,7 +7209,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="46.8">
+    <row r="288" spans="1:2" ht="47.25">
       <c r="A288" s="3" t="s">
         <v>537</v>
       </c>
@@ -7232,7 +7233,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="78">
+    <row r="291" spans="1:2" ht="78.75">
       <c r="A291" s="3" t="s">
         <v>545</v>
       </c>
@@ -7256,7 +7257,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="46.8">
+    <row r="294" spans="1:2" ht="47.25">
       <c r="A294" s="3" t="s">
         <v>549</v>
       </c>
@@ -7272,7 +7273,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="31.2">
+    <row r="296" spans="1:2" ht="31.5">
       <c r="A296" s="3" t="s">
         <v>551</v>
       </c>
@@ -7280,7 +7281,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="31.2">
+    <row r="297" spans="1:2" ht="31.5">
       <c r="A297" s="3" t="s">
         <v>552</v>
       </c>
@@ -7296,7 +7297,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="31.2">
+    <row r="299" spans="1:2">
       <c r="A299" s="3" t="s">
         <v>554</v>
       </c>
@@ -7312,7 +7313,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="31.2">
+    <row r="301" spans="1:2" ht="31.5">
       <c r="A301" s="3" t="s">
         <v>556</v>
       </c>
@@ -7320,7 +7321,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="31.2">
+    <row r="302" spans="1:2" ht="31.5">
       <c r="A302" s="3" t="s">
         <v>557</v>
       </c>
@@ -7328,7 +7329,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="31.2">
+    <row r="303" spans="1:2" ht="31.5">
       <c r="A303" s="3" t="s">
         <v>558</v>
       </c>
@@ -7336,7 +7337,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="46.8">
+    <row r="304" spans="1:2" ht="47.25">
       <c r="A304" s="3" t="s">
         <v>559</v>
       </c>
@@ -7344,7 +7345,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="62.4">
+    <row r="305" spans="1:2" ht="47.25">
       <c r="A305" s="3" t="s">
         <v>560</v>
       </c>
@@ -7352,7 +7353,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="62.4">
+    <row r="306" spans="1:2" ht="63">
       <c r="A306" s="3" t="s">
         <v>561</v>
       </c>
@@ -7360,7 +7361,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="78">
+    <row r="307" spans="1:2" ht="78.75">
       <c r="A307" s="3" t="s">
         <v>562</v>
       </c>
@@ -7368,7 +7369,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="78">
+    <row r="308" spans="1:2" ht="78.75">
       <c r="A308" s="3" t="s">
         <v>563</v>
       </c>
@@ -7376,7 +7377,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="46.8">
+    <row r="309" spans="1:2" ht="47.25">
       <c r="A309" s="3" t="s">
         <v>564</v>
       </c>
@@ -7408,7 +7409,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="93.6">
+    <row r="313" spans="1:2" ht="94.5">
       <c r="A313" s="3" t="s">
         <v>566</v>
       </c>
@@ -7416,7 +7417,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="31.2">
+    <row r="314" spans="1:2" ht="31.5">
       <c r="A314" s="3" t="s">
         <v>569</v>
       </c>
@@ -7464,7 +7465,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="31.2">
+    <row r="320" spans="1:2" ht="31.5">
       <c r="A320" s="3" t="s">
         <v>584</v>
       </c>
@@ -7496,7 +7497,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="46.8">
+    <row r="324" spans="1:2" ht="31.5">
       <c r="A324" s="3" t="s">
         <v>595</v>
       </c>
@@ -7512,7 +7513,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="31.2">
+    <row r="326" spans="1:2" ht="31.5">
       <c r="A326" s="3" t="s">
         <v>601</v>
       </c>
@@ -7528,7 +7529,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="62.4">
+    <row r="328" spans="1:2" ht="63">
       <c r="A328" s="3" t="s">
         <v>607</v>
       </c>
@@ -7536,7 +7537,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="46.8">
+    <row r="329" spans="1:2" ht="47.25">
       <c r="A329" s="3" t="s">
         <v>609</v>
       </c>
@@ -7552,7 +7553,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="31.2">
+    <row r="331" spans="1:2" ht="31.5">
       <c r="A331" s="3" t="s">
         <v>613</v>
       </c>
@@ -7560,7 +7561,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="31.2">
+    <row r="332" spans="1:2" ht="31.5">
       <c r="A332" s="3" t="s">
         <v>616</v>
       </c>
@@ -7616,7 +7617,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="31.2">
+    <row r="339" spans="1:2" ht="31.5">
       <c r="A339" s="3" t="s">
         <v>630</v>
       </c>
@@ -7656,7 +7657,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="93.6">
+    <row r="344" spans="1:2" ht="94.5">
       <c r="A344" s="3" t="s">
         <v>638</v>
       </c>
@@ -7664,7 +7665,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="31.2">
+    <row r="345" spans="1:2" ht="31.5">
       <c r="A345" s="3" t="s">
         <v>639</v>
       </c>
@@ -7712,7 +7713,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="31.2">
+    <row r="351" spans="1:2" ht="31.5">
       <c r="A351" s="3" t="s">
         <v>652</v>
       </c>
@@ -7720,7 +7721,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="31.2">
+    <row r="352" spans="1:2" ht="31.5">
       <c r="A352" s="3" t="s">
         <v>654</v>
       </c>
@@ -7728,7 +7729,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="31.2">
+    <row r="353" spans="1:2" ht="31.5">
       <c r="A353" s="3" t="s">
         <v>656</v>
       </c>
@@ -7736,7 +7737,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="46.8">
+    <row r="354" spans="1:2" ht="31.5">
       <c r="A354" s="3" t="s">
         <v>658</v>
       </c>
@@ -7792,7 +7793,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="31.2">
+    <row r="361" spans="1:2" ht="31.5">
       <c r="A361" s="3" t="s">
         <v>667</v>
       </c>
@@ -7832,7 +7833,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="78">
+    <row r="366" spans="1:2" ht="78.75">
       <c r="A366" s="3" t="s">
         <v>671</v>
       </c>
@@ -7840,7 +7841,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="31.2">
+    <row r="367" spans="1:2" ht="31.5">
       <c r="A367" s="3" t="s">
         <v>673</v>
       </c>
@@ -7872,7 +7873,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="31.2">
+    <row r="371" spans="1:2" ht="31.5">
       <c r="A371" s="3" t="s">
         <v>679</v>
       </c>
@@ -7880,7 +7881,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="31.2">
+    <row r="372" spans="1:2" ht="31.5">
       <c r="A372" s="3" t="s">
         <v>682</v>
       </c>
@@ -7896,7 +7897,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="31.2">
+    <row r="374" spans="1:2" ht="31.5">
       <c r="A374" s="3" t="s">
         <v>687</v>
       </c>
@@ -7904,7 +7905,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="31.2">
+    <row r="375" spans="1:2" ht="31.5">
       <c r="A375" s="3" t="s">
         <v>689</v>
       </c>
@@ -7912,7 +7913,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="46.8">
+    <row r="376" spans="1:2" ht="31.5">
       <c r="A376" s="3" t="s">
         <v>691</v>
       </c>
@@ -7968,7 +7969,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="31.2">
+    <row r="383" spans="1:2" ht="31.5">
       <c r="A383" s="3" t="s">
         <v>698</v>
       </c>
@@ -8008,7 +8009,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="78">
+    <row r="388" spans="1:2" ht="78.75">
       <c r="A388" s="3" t="s">
         <v>702</v>
       </c>
@@ -8016,7 +8017,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="31.2">
+    <row r="389" spans="1:2" ht="31.5">
       <c r="A389" s="3" t="s">
         <v>703</v>
       </c>
@@ -8072,7 +8073,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="396" spans="1:2" ht="31.2">
+    <row r="396" spans="1:2" ht="31.5">
       <c r="A396" s="3" t="s">
         <v>714</v>
       </c>
@@ -8096,7 +8097,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="399" spans="1:2" ht="31.2">
+    <row r="399" spans="1:2" ht="31.5">
       <c r="A399" s="3" t="s">
         <v>722</v>
       </c>
@@ -8136,7 +8137,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="404" spans="1:2" ht="31.2">
+    <row r="404" spans="1:2" ht="31.5">
       <c r="A404" s="3" t="s">
         <v>732</v>
       </c>
@@ -8160,7 +8161,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="407" spans="1:2" ht="31.2">
+    <row r="407" spans="1:2" ht="31.5">
       <c r="A407" s="3" t="s">
         <v>735</v>
       </c>
@@ -8176,7 +8177,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="409" spans="1:2" ht="62.4">
+    <row r="409" spans="1:2" ht="63">
       <c r="A409" s="3" t="s">
         <v>737</v>
       </c>
@@ -8184,7 +8185,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="410" spans="1:2" ht="46.8">
+    <row r="410" spans="1:2" ht="47.25">
       <c r="A410" s="3" t="s">
         <v>739</v>
       </c>
@@ -8200,7 +8201,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="412" spans="1:2" ht="31.2">
+    <row r="412" spans="1:2" ht="31.5">
       <c r="A412" s="3" t="s">
         <v>742</v>
       </c>
@@ -8256,7 +8257,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="419" spans="1:2" ht="31.2">
+    <row r="419" spans="1:2" ht="31.5">
       <c r="A419" s="3" t="s">
         <v>749</v>
       </c>
@@ -8352,7 +8353,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="431" spans="1:2" ht="78">
+    <row r="431" spans="1:2" ht="78.75">
       <c r="A431" s="3" t="s">
         <v>758</v>
       </c>
@@ -8360,7 +8361,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="432" spans="1:2" ht="31.2">
+    <row r="432" spans="1:2" ht="31.5">
       <c r="A432" s="3" t="s">
         <v>759</v>
       </c>
@@ -8416,7 +8417,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="439" spans="1:2" ht="31.2">
+    <row r="439" spans="1:2" ht="31.5">
       <c r="A439" s="3" t="s">
         <v>768</v>
       </c>
@@ -8424,7 +8425,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="440" spans="1:2" ht="46.8">
+    <row r="440" spans="1:2" ht="47.25">
       <c r="A440" s="3" t="s">
         <v>770</v>
       </c>
@@ -8488,7 +8489,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="448" spans="1:2" ht="31.2">
+    <row r="448" spans="1:2" ht="31.5">
       <c r="A448" s="3" t="s">
         <v>779</v>
       </c>
@@ -8527,25 +8528,25 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView topLeftCell="B336" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D388" sqref="D388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.8984375" style="52" customWidth="1"/>
+    <col min="1" max="1" width="17.875" style="52" customWidth="1"/>
     <col min="2" max="2" width="12" style="50" customWidth="1"/>
     <col min="3" max="3" width="91.5" style="50" customWidth="1"/>
-    <col min="4" max="4" width="20.3984375" style="50" customWidth="1"/>
-    <col min="5" max="5" width="155.3984375" style="50" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="62.69921875" style="50" customWidth="1"/>
-    <col min="7" max="7" width="84.59765625" style="50" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="50" customWidth="1"/>
+    <col min="5" max="5" width="155.375" style="50" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="62.75" style="50" customWidth="1"/>
+    <col min="7" max="7" width="84.625" style="50" customWidth="1"/>
     <col min="8" max="8" width="9" style="51"/>
     <col min="9" max="1027" width="8.5" style="34" customWidth="1"/>
     <col min="1028" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="54" customFormat="1" ht="15.6">
+    <row r="1" spans="1:8" s="54" customFormat="1" ht="15.75">
       <c r="A1" s="33" t="s">
         <v>52</v>
       </c>
@@ -8562,19 +8563,19 @@
         <v>56</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="G1" s="33" t="s">
         <v>55</v>
       </c>
       <c r="H1" s="53"/>
     </row>
-    <row r="2" spans="1:8" ht="15.6">
+    <row r="2" spans="1:8" ht="15.75">
       <c r="A2" s="35" t="s">
         <v>58</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="C2" s="36" t="s">
         <v>0</v>
@@ -8604,10 +8605,10 @@
         <v>58</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="D4" s="37"/>
       <c r="E4" s="37"/>
@@ -8629,7 +8630,7 @@
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="38" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="G5" s="38" t="s">
         <v>61</v>
@@ -8650,7 +8651,7 @@
       </c>
       <c r="E6" s="38"/>
       <c r="F6" s="38" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="G6" s="38"/>
     </row>
@@ -8669,7 +8670,7 @@
       </c>
       <c r="E7" s="38"/>
       <c r="F7" s="38" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="G7" s="38"/>
     </row>
@@ -8688,7 +8689,7 @@
       </c>
       <c r="E8" s="38"/>
       <c r="F8" s="38" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="G8" s="38"/>
     </row>
@@ -8707,7 +8708,7 @@
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="38" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="G9" s="38"/>
     </row>
@@ -8726,7 +8727,7 @@
       </c>
       <c r="E10" s="38"/>
       <c r="F10" s="38" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="G10" s="38"/>
     </row>
@@ -8745,7 +8746,7 @@
       </c>
       <c r="E11" s="38"/>
       <c r="F11" s="38" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="G11" s="38"/>
     </row>
@@ -8764,7 +8765,7 @@
       </c>
       <c r="E12" s="38"/>
       <c r="F12" s="38" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="G12" s="38"/>
     </row>
@@ -8783,7 +8784,7 @@
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="38" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="G13" s="38"/>
     </row>
@@ -8802,7 +8803,7 @@
       </c>
       <c r="E14" s="38"/>
       <c r="F14" s="38" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="G14" s="38"/>
     </row>
@@ -8821,7 +8822,7 @@
       </c>
       <c r="E15" s="38"/>
       <c r="F15" s="38" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="G15" s="38"/>
     </row>
@@ -8845,10 +8846,10 @@
         <v>58</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
@@ -8870,7 +8871,7 @@
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="38" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="G18" s="38" t="s">
         <v>95</v>
@@ -8891,7 +8892,7 @@
       </c>
       <c r="E19" s="38"/>
       <c r="F19" s="38" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="G19" s="38"/>
     </row>
@@ -8910,7 +8911,7 @@
       </c>
       <c r="E20" s="38"/>
       <c r="F20" s="38" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="G20" s="38"/>
     </row>
@@ -8929,7 +8930,7 @@
       </c>
       <c r="E21" s="38"/>
       <c r="F21" s="38" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="G21" s="38"/>
     </row>
@@ -8948,7 +8949,7 @@
       </c>
       <c r="E22" s="38"/>
       <c r="F22" s="38" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="G22" s="38"/>
     </row>
@@ -8960,14 +8961,14 @@
         <v>102</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>104</v>
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="38" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="G23" s="38"/>
     </row>
@@ -8979,14 +8980,14 @@
         <v>105</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="39" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="G24" s="39"/>
     </row>
@@ -9005,7 +9006,7 @@
       </c>
       <c r="E25" s="38"/>
       <c r="F25" s="38" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="G25" s="38"/>
     </row>
@@ -9017,14 +9018,14 @@
         <v>111</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="D26" s="38" t="s">
         <v>110</v>
       </c>
       <c r="E26" s="38"/>
       <c r="F26" s="38" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="G26" s="38"/>
     </row>
@@ -9036,14 +9037,14 @@
         <v>114</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="39" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="G27" s="39"/>
     </row>
@@ -9055,14 +9056,14 @@
         <v>117</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="39" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="G28" s="39"/>
     </row>
@@ -9071,34 +9072,34 @@
         <v>58</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="E29" s="39"/>
       <c r="F29" s="39" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="G29" s="39"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="39"/>
       <c r="B30" s="39" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="39" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="G30" s="39"/>
     </row>
@@ -9107,17 +9108,17 @@
         <v>58</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="D31" s="38" t="s">
         <v>113</v>
       </c>
       <c r="E31" s="38"/>
       <c r="F31" s="38" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="G31" s="38"/>
     </row>
@@ -9126,7 +9127,7 @@
         <v>58</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="C32" s="38" t="s">
         <v>115</v>
@@ -9136,7 +9137,7 @@
       </c>
       <c r="E32" s="38"/>
       <c r="F32" s="38" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="G32" s="38"/>
     </row>
@@ -9145,17 +9146,17 @@
         <v>58</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="E33" s="39"/>
       <c r="F33" s="39" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="G33" s="39"/>
     </row>
@@ -9164,17 +9165,17 @@
         <v>58</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="E34" s="39"/>
       <c r="F34" s="39" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="G34" s="39"/>
     </row>
@@ -9183,17 +9184,17 @@
         <v>58</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="E35" s="39"/>
       <c r="F35" s="39" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="G35" s="39"/>
     </row>
@@ -9202,17 +9203,17 @@
         <v>58</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="E36" s="39"/>
       <c r="F36" s="39" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="G36" s="39"/>
     </row>
@@ -9221,7 +9222,7 @@
         <v>58</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="C37" s="38" t="s">
         <v>118</v>
@@ -9231,7 +9232,7 @@
       </c>
       <c r="E37" s="38"/>
       <c r="F37" s="38" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="G37" s="38"/>
     </row>
@@ -9250,7 +9251,7 @@
       </c>
       <c r="E38" s="38"/>
       <c r="F38" s="38" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="G38" s="38"/>
     </row>
@@ -9269,7 +9270,7 @@
       </c>
       <c r="E39" s="38"/>
       <c r="F39" s="38" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="G39" s="38"/>
     </row>
@@ -9288,7 +9289,7 @@
       </c>
       <c r="E40" s="38"/>
       <c r="F40" s="38" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="G40" s="38"/>
     </row>
@@ -9307,7 +9308,7 @@
       </c>
       <c r="E41" s="38"/>
       <c r="F41" s="38" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="G41" s="38"/>
     </row>
@@ -9316,7 +9317,7 @@
         <v>131</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="C42" s="38" t="s">
         <v>133</v>
@@ -9326,7 +9327,7 @@
       </c>
       <c r="E42" s="38"/>
       <c r="F42" s="38" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="G42" s="38"/>
     </row>
@@ -9350,10 +9351,10 @@
         <v>58</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
@@ -9375,7 +9376,7 @@
       </c>
       <c r="E45" s="38"/>
       <c r="F45" s="38" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="G45" s="38" t="s">
         <v>136</v>
@@ -9396,7 +9397,7 @@
       </c>
       <c r="E46" s="38"/>
       <c r="F46" s="38" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="G46" s="38"/>
     </row>
@@ -9415,7 +9416,7 @@
       </c>
       <c r="E47" s="38"/>
       <c r="F47" s="38" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="G47" s="38"/>
     </row>
@@ -9434,7 +9435,7 @@
       </c>
       <c r="E48" s="38"/>
       <c r="F48" s="38" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="G48" s="38"/>
     </row>
@@ -9449,11 +9450,11 @@
         <v>141</v>
       </c>
       <c r="D49" s="38" t="s">
-        <v>142</v>
+        <v>1123</v>
       </c>
       <c r="E49" s="38"/>
       <c r="F49" s="38" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="G49" s="38"/>
     </row>
@@ -9472,7 +9473,7 @@
       </c>
       <c r="E50" s="38"/>
       <c r="F50" s="38" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="G50" s="38"/>
     </row>
@@ -9491,7 +9492,7 @@
       </c>
       <c r="E51" s="38"/>
       <c r="F51" s="38" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="G51" s="38"/>
     </row>
@@ -9510,7 +9511,7 @@
       </c>
       <c r="E52" s="38"/>
       <c r="F52" s="38" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="G52" s="38"/>
     </row>
@@ -9529,7 +9530,7 @@
       </c>
       <c r="E53" s="38"/>
       <c r="F53" s="38" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="G53" s="38"/>
     </row>
@@ -9538,7 +9539,7 @@
         <v>131</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="C54" s="38" t="s">
         <v>133</v>
@@ -9548,7 +9549,7 @@
       </c>
       <c r="E54" s="38"/>
       <c r="F54" s="38" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="G54" s="38"/>
     </row>
@@ -9572,10 +9573,10 @@
         <v>58</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="D56" s="37"/>
       <c r="E56" s="37"/>
@@ -9597,7 +9598,7 @@
       </c>
       <c r="E57" s="38"/>
       <c r="F57" s="38" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="G57" s="38" t="s">
         <v>158</v>
@@ -9618,7 +9619,7 @@
       </c>
       <c r="E58" s="38"/>
       <c r="F58" s="38" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="G58" s="38"/>
     </row>
@@ -9637,7 +9638,7 @@
       </c>
       <c r="E59" s="38"/>
       <c r="F59" s="38" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="G59" s="38"/>
     </row>
@@ -9656,7 +9657,7 @@
       </c>
       <c r="E60" s="38"/>
       <c r="F60" s="38" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="G60" s="38"/>
     </row>
@@ -9675,7 +9676,7 @@
       </c>
       <c r="E61" s="38"/>
       <c r="F61" s="38" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="G61" s="38"/>
     </row>
@@ -9694,7 +9695,7 @@
       </c>
       <c r="E62" s="38"/>
       <c r="F62" s="38" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="G62" s="38"/>
     </row>
@@ -9713,7 +9714,7 @@
       </c>
       <c r="E63" s="38"/>
       <c r="F63" s="38" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="G63" s="38"/>
     </row>
@@ -9732,7 +9733,7 @@
       </c>
       <c r="E64" s="38"/>
       <c r="F64" s="38" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="G64" s="38"/>
     </row>
@@ -9751,7 +9752,7 @@
       </c>
       <c r="E65" s="38"/>
       <c r="F65" s="38" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="G65" s="38"/>
     </row>
@@ -9775,10 +9776,10 @@
         <v>58</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="D67" s="37"/>
       <c r="E67" s="37"/>
@@ -9800,7 +9801,7 @@
       </c>
       <c r="E68" s="38"/>
       <c r="F68" s="38" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="G68" s="38" t="s">
         <v>169</v>
@@ -9821,7 +9822,7 @@
       </c>
       <c r="E69" s="38"/>
       <c r="F69" s="38" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="G69" s="38"/>
     </row>
@@ -9840,7 +9841,7 @@
       </c>
       <c r="E70" s="38"/>
       <c r="F70" s="38" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="G70" s="38"/>
     </row>
@@ -9859,7 +9860,7 @@
       </c>
       <c r="E71" s="38"/>
       <c r="F71" s="38" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="G71" s="38"/>
     </row>
@@ -9878,7 +9879,7 @@
       </c>
       <c r="E72" s="40"/>
       <c r="F72" s="38" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="G72" s="38"/>
     </row>
@@ -9897,7 +9898,7 @@
       </c>
       <c r="E73" s="38"/>
       <c r="F73" s="38" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="G73" s="38"/>
     </row>
@@ -9909,14 +9910,14 @@
         <v>179</v>
       </c>
       <c r="C74" s="39" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="D74" s="39" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="E74" s="39"/>
       <c r="F74" s="39" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="G74" s="39"/>
     </row>
@@ -9928,14 +9929,14 @@
         <v>182</v>
       </c>
       <c r="C75" s="39" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="D75" s="39" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="E75" s="39"/>
       <c r="F75" s="39" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="G75" s="39"/>
     </row>
@@ -9954,7 +9955,7 @@
       </c>
       <c r="E76" s="38"/>
       <c r="F76" s="38" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="G76" s="38"/>
     </row>
@@ -9963,7 +9964,7 @@
         <v>58</v>
       </c>
       <c r="B77" s="38" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="C77" s="38" t="s">
         <v>183</v>
@@ -9973,7 +9974,7 @@
       </c>
       <c r="E77" s="38"/>
       <c r="F77" s="38" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="G77" s="38"/>
     </row>
@@ -9982,7 +9983,7 @@
         <v>58</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="C78" s="38" t="s">
         <v>186</v>
@@ -9992,7 +9993,7 @@
       </c>
       <c r="E78" s="38"/>
       <c r="F78" s="38" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="G78" s="38"/>
     </row>
@@ -10001,7 +10002,7 @@
         <v>131</v>
       </c>
       <c r="B79" s="38" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="C79" s="38" t="s">
         <v>133</v>
@@ -10011,7 +10012,7 @@
       </c>
       <c r="E79" s="38"/>
       <c r="F79" s="38" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="G79" s="38"/>
     </row>
@@ -10020,7 +10021,7 @@
         <v>58</v>
       </c>
       <c r="B80" s="38" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="C80" s="37" t="s">
         <v>6</v>
@@ -10035,10 +10036,10 @@
         <v>58</v>
       </c>
       <c r="B81" s="38" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="D81" s="37"/>
       <c r="E81" s="37"/>
@@ -10060,7 +10061,7 @@
       </c>
       <c r="E82" s="38"/>
       <c r="F82" s="38" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="G82" s="38" t="s">
         <v>191</v>
@@ -10081,7 +10082,7 @@
       </c>
       <c r="E83" s="38"/>
       <c r="F83" s="38" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="G83" s="38"/>
     </row>
@@ -10100,7 +10101,7 @@
       </c>
       <c r="E84" s="38"/>
       <c r="F84" s="38" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="G84" s="38"/>
     </row>
@@ -10119,7 +10120,7 @@
       </c>
       <c r="E85" s="38"/>
       <c r="F85" s="38" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="G85" s="38"/>
     </row>
@@ -10138,7 +10139,7 @@
       </c>
       <c r="E86" s="38"/>
       <c r="F86" s="38" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="G86" s="38"/>
     </row>
@@ -10157,7 +10158,7 @@
       </c>
       <c r="E87" s="38"/>
       <c r="F87" s="38" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="G87" s="38"/>
     </row>
@@ -10176,7 +10177,7 @@
       </c>
       <c r="E88" s="38"/>
       <c r="F88" s="38" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="G88" s="38"/>
     </row>
@@ -10185,7 +10186,7 @@
         <v>131</v>
       </c>
       <c r="B89" s="38" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="C89" s="38" t="s">
         <v>133</v>
@@ -10195,7 +10196,7 @@
       </c>
       <c r="E89" s="38"/>
       <c r="F89" s="38" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="G89" s="38"/>
     </row>
@@ -10219,10 +10220,10 @@
         <v>58</v>
       </c>
       <c r="B91" s="38" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="D91" s="37"/>
       <c r="E91" s="37"/>
@@ -10244,7 +10245,7 @@
       </c>
       <c r="E92" s="38"/>
       <c r="F92" s="38" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="G92" s="38" t="s">
         <v>207</v>
@@ -10265,7 +10266,7 @@
       </c>
       <c r="E93" s="38"/>
       <c r="F93" s="38" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="G93" s="38"/>
     </row>
@@ -10284,7 +10285,7 @@
       </c>
       <c r="E94" s="38"/>
       <c r="F94" s="38" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="G94" s="38"/>
     </row>
@@ -10303,7 +10304,7 @@
       </c>
       <c r="E95" s="38"/>
       <c r="F95" s="38" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="G95" s="38"/>
     </row>
@@ -10318,11 +10319,11 @@
         <v>141</v>
       </c>
       <c r="D96" s="38" t="s">
-        <v>142</v>
+        <v>1123</v>
       </c>
       <c r="E96" s="38"/>
       <c r="F96" s="38" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="G96" s="38"/>
     </row>
@@ -10341,7 +10342,7 @@
       </c>
       <c r="E97" s="38"/>
       <c r="F97" s="38" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="G97" s="38"/>
     </row>
@@ -10360,7 +10361,7 @@
       </c>
       <c r="E98" s="38"/>
       <c r="F98" s="38" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="G98" s="38"/>
     </row>
@@ -10379,7 +10380,7 @@
       </c>
       <c r="E99" s="38"/>
       <c r="F99" s="38" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="G99" s="38"/>
     </row>
@@ -10398,7 +10399,7 @@
       </c>
       <c r="E100" s="38"/>
       <c r="F100" s="38" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="G100" s="38"/>
     </row>
@@ -10407,7 +10408,7 @@
         <v>131</v>
       </c>
       <c r="B101" s="38" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="C101" s="38" t="s">
         <v>133</v>
@@ -10417,7 +10418,7 @@
       </c>
       <c r="E101" s="38"/>
       <c r="F101" s="38" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="G101" s="38"/>
     </row>
@@ -10441,10 +10442,10 @@
         <v>58</v>
       </c>
       <c r="B103" s="38" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="D103" s="37"/>
       <c r="E103" s="37"/>
@@ -10466,7 +10467,7 @@
       </c>
       <c r="E104" s="38"/>
       <c r="F104" s="38" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="G104" s="38" t="s">
         <v>219</v>
@@ -10487,7 +10488,7 @@
       </c>
       <c r="E105" s="38"/>
       <c r="F105" s="38" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="G105" s="38"/>
     </row>
@@ -10506,7 +10507,7 @@
       </c>
       <c r="E106" s="38"/>
       <c r="F106" s="38" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="G106" s="38"/>
     </row>
@@ -10525,7 +10526,7 @@
       </c>
       <c r="E107" s="38"/>
       <c r="F107" s="38" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="G107" s="38"/>
     </row>
@@ -10540,11 +10541,11 @@
         <v>141</v>
       </c>
       <c r="D108" s="38" t="s">
-        <v>142</v>
+        <v>1123</v>
       </c>
       <c r="E108" s="38"/>
       <c r="F108" s="38" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="G108" s="38"/>
     </row>
@@ -10563,7 +10564,7 @@
       </c>
       <c r="E109" s="38"/>
       <c r="F109" s="38" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="G109" s="38"/>
     </row>
@@ -10582,7 +10583,7 @@
       </c>
       <c r="E110" s="38"/>
       <c r="F110" s="38" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="G110" s="38"/>
     </row>
@@ -10601,7 +10602,7 @@
       </c>
       <c r="E111" s="38"/>
       <c r="F111" s="38" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="G111" s="38"/>
     </row>
@@ -10620,7 +10621,7 @@
       </c>
       <c r="E112" s="38"/>
       <c r="F112" s="38" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="G112" s="38"/>
     </row>
@@ -10629,7 +10630,7 @@
         <v>131</v>
       </c>
       <c r="B113" s="38" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="C113" s="38" t="s">
         <v>133</v>
@@ -10639,7 +10640,7 @@
       </c>
       <c r="E113" s="38"/>
       <c r="F113" s="38" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="G113" s="38"/>
     </row>
@@ -10663,10 +10664,10 @@
         <v>58</v>
       </c>
       <c r="B115" s="38" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="C115" s="37" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="D115" s="37"/>
       <c r="E115" s="37"/>
@@ -10688,7 +10689,7 @@
       </c>
       <c r="E116" s="38"/>
       <c r="F116" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G116" s="38" t="s">
         <v>136</v>
@@ -10709,7 +10710,7 @@
       </c>
       <c r="E117" s="38"/>
       <c r="F117" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G117" s="38"/>
     </row>
@@ -10728,7 +10729,7 @@
       </c>
       <c r="E118" s="38"/>
       <c r="F118" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G118" s="38"/>
     </row>
@@ -10747,7 +10748,7 @@
       </c>
       <c r="E119" s="38"/>
       <c r="F119" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G119" s="38"/>
     </row>
@@ -10762,11 +10763,11 @@
         <v>141</v>
       </c>
       <c r="D120" s="38" t="s">
-        <v>142</v>
+        <v>1123</v>
       </c>
       <c r="E120" s="38"/>
       <c r="F120" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G120" s="38"/>
     </row>
@@ -10785,7 +10786,7 @@
       </c>
       <c r="E121" s="38"/>
       <c r="F121" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G121" s="38"/>
     </row>
@@ -10804,7 +10805,7 @@
       </c>
       <c r="E122" s="38"/>
       <c r="F122" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G122" s="38"/>
     </row>
@@ -10823,7 +10824,7 @@
       </c>
       <c r="E123" s="38"/>
       <c r="F123" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G123" s="38"/>
     </row>
@@ -10842,7 +10843,7 @@
       </c>
       <c r="E124" s="38"/>
       <c r="F124" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G124" s="38"/>
     </row>
@@ -10851,7 +10852,7 @@
         <v>131</v>
       </c>
       <c r="B125" s="38" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="C125" s="38" t="s">
         <v>133</v>
@@ -10861,7 +10862,7 @@
       </c>
       <c r="E125" s="38"/>
       <c r="F125" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G125" s="38"/>
     </row>
@@ -10870,7 +10871,7 @@
         <v>58</v>
       </c>
       <c r="B126" s="38" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="C126" s="37" t="s">
         <v>10</v>
@@ -10885,10 +10886,10 @@
         <v>58</v>
       </c>
       <c r="B127" s="38" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="C127" s="37" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="D127" s="37"/>
       <c r="E127" s="37"/>
@@ -10910,7 +10911,7 @@
       </c>
       <c r="E128" s="38"/>
       <c r="F128" s="38" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="G128" s="38" t="s">
         <v>242</v>
@@ -10931,7 +10932,7 @@
       </c>
       <c r="E129" s="38"/>
       <c r="F129" s="38" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="G129" s="38"/>
     </row>
@@ -10950,7 +10951,7 @@
       </c>
       <c r="E130" s="38"/>
       <c r="F130" s="38" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="G130" s="38"/>
     </row>
@@ -10969,7 +10970,7 @@
       </c>
       <c r="E131" s="38"/>
       <c r="F131" s="38" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="G131" s="38"/>
     </row>
@@ -10988,7 +10989,7 @@
       </c>
       <c r="E132" s="38"/>
       <c r="F132" s="38" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="G132" s="38"/>
     </row>
@@ -11000,14 +11001,14 @@
         <v>249</v>
       </c>
       <c r="C133" s="38" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="D133" s="38" t="s">
         <v>251</v>
       </c>
       <c r="E133" s="38"/>
       <c r="F133" s="38" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="G133" s="38"/>
     </row>
@@ -11019,14 +11020,14 @@
         <v>252</v>
       </c>
       <c r="C134" s="39" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="D134" s="39" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="E134" s="39"/>
       <c r="F134" s="39" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="G134" s="39"/>
     </row>
@@ -11045,7 +11046,7 @@
       </c>
       <c r="E135" s="38"/>
       <c r="F135" s="38" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="G135" s="38"/>
     </row>
@@ -11054,7 +11055,7 @@
         <v>58</v>
       </c>
       <c r="B136" s="38" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="C136" s="38" t="s">
         <v>256</v>
@@ -11064,7 +11065,7 @@
       </c>
       <c r="E136" s="38"/>
       <c r="F136" s="38" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="G136" s="38"/>
     </row>
@@ -11088,10 +11089,10 @@
         <v>58</v>
       </c>
       <c r="B138" s="38" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="C138" s="37" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="D138" s="37"/>
       <c r="E138" s="37"/>
@@ -11115,10 +11116,10 @@
         <v>260</v>
       </c>
       <c r="F139" s="38" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="G139" s="38" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -11138,7 +11139,7 @@
         <v>260</v>
       </c>
       <c r="F140" s="38" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="G140" s="38"/>
     </row>
@@ -11159,7 +11160,7 @@
         <v>260</v>
       </c>
       <c r="F141" s="38" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="G141" s="38"/>
     </row>
@@ -11180,7 +11181,7 @@
         <v>260</v>
       </c>
       <c r="F142" s="38" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="G142" s="38"/>
     </row>
@@ -11192,7 +11193,7 @@
         <v>267</v>
       </c>
       <c r="C143" s="38" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="D143" s="38" t="s">
         <v>269</v>
@@ -11201,7 +11202,7 @@
         <v>260</v>
       </c>
       <c r="F143" s="38" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="G143" s="38"/>
     </row>
@@ -11213,7 +11214,7 @@
         <v>270</v>
       </c>
       <c r="C144" s="38" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="D144" s="38" t="s">
         <v>266</v>
@@ -11222,7 +11223,7 @@
         <v>260</v>
       </c>
       <c r="F144" s="38" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="G144" s="38"/>
     </row>
@@ -11234,14 +11235,14 @@
         <v>272</v>
       </c>
       <c r="C145" s="39" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="D145" s="39" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="E145" s="39"/>
       <c r="F145" s="39" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="G145" s="39"/>
     </row>
@@ -11250,19 +11251,19 @@
         <v>58</v>
       </c>
       <c r="B146" s="38" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="C146" s="38" t="s">
         <v>271</v>
       </c>
       <c r="D146" s="38" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="E146" s="38" t="s">
         <v>260</v>
       </c>
       <c r="F146" s="38" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="G146" s="38"/>
     </row>
@@ -11271,7 +11272,7 @@
         <v>58</v>
       </c>
       <c r="B147" s="38" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="C147" s="38" t="s">
         <v>273</v>
@@ -11283,7 +11284,7 @@
         <v>260</v>
       </c>
       <c r="F147" s="38" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="G147" s="38"/>
     </row>
@@ -11292,19 +11293,19 @@
         <v>131</v>
       </c>
       <c r="B148" s="38" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="C148" s="38" t="s">
         <v>133</v>
       </c>
       <c r="D148" s="38" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="E148" s="38" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="F148" s="38" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="G148" s="38"/>
     </row>
@@ -11313,7 +11314,7 @@
         <v>131</v>
       </c>
       <c r="B149" s="38" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="C149" s="38" t="s">
         <v>277</v>
@@ -11323,7 +11324,7 @@
       </c>
       <c r="E149" s="38"/>
       <c r="F149" s="38" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="G149" s="38"/>
     </row>
@@ -11372,14 +11373,14 @@
         <v>14</v>
       </c>
       <c r="D152" s="38" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="E152" s="38" t="s">
         <v>281</v>
       </c>
       <c r="F152" s="38"/>
       <c r="G152" s="38" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -11393,14 +11394,14 @@
         <v>15</v>
       </c>
       <c r="D153" s="38" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="E153" s="38" t="s">
         <v>281</v>
       </c>
       <c r="F153" s="38"/>
       <c r="G153" s="38" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -11414,14 +11415,14 @@
         <v>283</v>
       </c>
       <c r="D154" s="38" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="E154" s="38" t="s">
         <v>284</v>
       </c>
       <c r="F154" s="38"/>
       <c r="G154" s="38" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -11475,7 +11476,7 @@
       <c r="F157" s="37"/>
       <c r="G157" s="41"/>
     </row>
-    <row r="158" spans="1:8" ht="15.6">
+    <row r="158" spans="1:8" ht="15.75">
       <c r="A158" s="65" t="s">
         <v>58</v>
       </c>
@@ -11531,7 +11532,7 @@
         <v>289</v>
       </c>
       <c r="C161" s="65" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="D161" s="65">
         <v>76.2</v>
@@ -11553,7 +11554,7 @@
         <v>294</v>
       </c>
       <c r="D162" s="65" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E162" s="38"/>
       <c r="F162" s="38"/>
@@ -11567,10 +11568,10 @@
         <v>293</v>
       </c>
       <c r="C163" s="65" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="D163" s="65" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="E163" s="38"/>
       <c r="F163" s="38"/>
@@ -11581,13 +11582,13 @@
         <v>58</v>
       </c>
       <c r="B164" s="38" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="C164" s="38" t="s">
         <v>297</v>
       </c>
       <c r="D164" s="38" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E164" s="38"/>
       <c r="F164" s="38"/>
@@ -11618,10 +11619,10 @@
         <v>296</v>
       </c>
       <c r="C166" s="65" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="D166" s="65" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E166" s="65"/>
       <c r="F166" s="65"/>
@@ -11669,10 +11670,10 @@
         <v>303</v>
       </c>
       <c r="C169" s="38" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="D169" s="40" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E169" s="40"/>
       <c r="F169" s="40"/>
@@ -11763,7 +11764,7 @@
       <c r="F174" s="40"/>
       <c r="G174" s="38"/>
     </row>
-    <row r="175" spans="1:7" ht="45">
+    <row r="175" spans="1:7" ht="30">
       <c r="A175" s="38" t="s">
         <v>58</v>
       </c>
@@ -11990,10 +11991,10 @@
         <v>330</v>
       </c>
       <c r="C188" s="38" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="D188" s="40" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E188" s="40"/>
       <c r="F188" s="40"/>
@@ -12084,7 +12085,7 @@
       <c r="F193" s="40"/>
       <c r="G193" s="38"/>
     </row>
-    <row r="194" spans="1:7" ht="45">
+    <row r="194" spans="1:7" ht="30">
       <c r="A194" s="38" t="s">
         <v>58</v>
       </c>
@@ -12261,7 +12262,7 @@
         <v>350</v>
       </c>
       <c r="D204" s="38" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E204" s="38"/>
       <c r="F204" s="38"/>
@@ -12314,7 +12315,7 @@
         <v>356</v>
       </c>
       <c r="D207" s="40" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E207" s="40"/>
       <c r="F207" s="40"/>
@@ -12325,7 +12326,7 @@
         <v>58</v>
       </c>
       <c r="B208" s="38" t="s">
-        <v>1308</v>
+        <v>1303</v>
       </c>
       <c r="C208" s="38" t="s">
         <v>306</v>
@@ -12405,7 +12406,7 @@
       <c r="F212" s="40"/>
       <c r="G212" s="38"/>
     </row>
-    <row r="213" spans="1:7" ht="45">
+    <row r="213" spans="1:7" ht="30">
       <c r="A213" s="38" t="s">
         <v>58</v>
       </c>
@@ -12502,7 +12503,7 @@
       <c r="E218" s="38"/>
       <c r="F218" s="38"/>
       <c r="G218" s="38" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -12584,7 +12585,7 @@
         <v>379</v>
       </c>
       <c r="D223" s="40" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E223" s="40"/>
       <c r="F223" s="40"/>
@@ -12615,18 +12616,18 @@
         <v>382</v>
       </c>
       <c r="C225" s="40" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="D225" s="40" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="E225" s="38" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="F225" s="38"/>
       <c r="G225" s="38"/>
     </row>
-    <row r="226" spans="1:7" ht="30">
+    <row r="226" spans="1:7">
       <c r="A226" s="38" t="s">
         <v>58</v>
       </c>
@@ -12637,10 +12638,10 @@
         <v>385</v>
       </c>
       <c r="D226" s="40" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="E226" s="38" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="F226" s="38"/>
       <c r="G226" s="38"/>
@@ -12653,7 +12654,7 @@
         <v>386</v>
       </c>
       <c r="C227" s="38" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="D227" s="38">
         <v>76.16</v>
@@ -12727,7 +12728,7 @@
       <c r="E231" s="38"/>
       <c r="F231" s="38"/>
       <c r="G231" s="38" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -12741,7 +12742,7 @@
         <v>398</v>
       </c>
       <c r="D232" s="38" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E232" s="38"/>
       <c r="F232" s="38"/>
@@ -12792,10 +12793,10 @@
         <v>404</v>
       </c>
       <c r="D235" s="40" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E235" s="40" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="F235" s="40"/>
       <c r="G235" s="38"/>
@@ -13083,12 +13084,12 @@
       <c r="F252" s="38"/>
       <c r="G252" s="38"/>
     </row>
-    <row r="253" spans="1:7" ht="15.6">
+    <row r="253" spans="1:7" ht="15.75">
       <c r="A253" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B253" s="35" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="C253" s="36" t="s">
         <v>35</v>
@@ -13178,7 +13179,7 @@
         <v>441</v>
       </c>
       <c r="E258" s="59" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="F258" s="38"/>
       <c r="G258" s="44"/>
@@ -13259,13 +13260,13 @@
         <v>454</v>
       </c>
       <c r="C263" s="44" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="D263" s="38" t="s">
         <v>456</v>
       </c>
       <c r="E263" s="59" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="F263" s="38"/>
       <c r="G263" s="44"/>
@@ -13275,13 +13276,13 @@
         <v>58</v>
       </c>
       <c r="B264" s="38" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="C264" s="44" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="D264" s="38" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="E264" s="38"/>
       <c r="F264" s="38"/>
@@ -13335,7 +13336,7 @@
         <v>465</v>
       </c>
       <c r="E267" s="59" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="F267" s="38"/>
       <c r="G267" s="44"/>
@@ -13345,7 +13346,7 @@
         <v>58</v>
       </c>
       <c r="B268" s="38" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="C268" s="44" t="s">
         <v>467</v>
@@ -13508,7 +13509,7 @@
       <c r="F277" s="38"/>
       <c r="G277" s="44"/>
     </row>
-    <row r="278" spans="1:7" ht="30">
+    <row r="278" spans="1:7">
       <c r="A278" s="38" t="s">
         <v>58</v>
       </c>
@@ -13553,7 +13554,7 @@
         <v>490</v>
       </c>
       <c r="D280" s="38" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="E280" s="38"/>
       <c r="F280" s="38"/>
@@ -13658,7 +13659,7 @@
       <c r="E286" s="38"/>
       <c r="F286" s="38"/>
       <c r="G286" s="44" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -13812,7 +13813,7 @@
       <c r="F295" s="38"/>
       <c r="G295" s="44"/>
     </row>
-    <row r="296" spans="1:7" ht="30">
+    <row r="296" spans="1:7">
       <c r="A296" s="38" t="s">
         <v>58</v>
       </c>
@@ -13857,7 +13858,7 @@
         <v>490</v>
       </c>
       <c r="D298" s="38" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="E298" s="38"/>
       <c r="F298" s="38"/>
@@ -13963,7 +13964,7 @@
       </c>
       <c r="E304" s="38"/>
       <c r="F304" s="65" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="G304" s="44"/>
     </row>
@@ -14289,7 +14290,7 @@
         <v>58</v>
       </c>
       <c r="B324" s="38" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="C324" s="38" t="s">
         <v>483</v>
@@ -14301,12 +14302,12 @@
       <c r="F324" s="38"/>
       <c r="G324" s="38"/>
     </row>
-    <row r="325" spans="1:7" ht="30">
+    <row r="325" spans="1:7">
       <c r="A325" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B325" s="38" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="C325" s="38" t="s">
         <v>485</v>
@@ -14346,7 +14347,7 @@
         <v>490</v>
       </c>
       <c r="D327" s="38" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="E327" s="38"/>
       <c r="F327" s="38"/>
@@ -14425,7 +14426,7 @@
         <v>58</v>
       </c>
       <c r="B332" s="38" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="C332" s="38" t="s">
         <v>501</v>
@@ -14442,7 +14443,7 @@
         <v>58</v>
       </c>
       <c r="B333" s="38" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="C333" s="38" t="s">
         <v>504</v>
@@ -14452,16 +14453,16 @@
       </c>
       <c r="E333" s="38"/>
       <c r="F333" s="65" t="s">
-        <v>1307</v>
+        <v>1302</v>
       </c>
       <c r="G333" s="38"/>
     </row>
-    <row r="334" spans="1:7" ht="15.6">
+    <row r="334" spans="1:7" ht="15.75">
       <c r="A334" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B334" s="35" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="C334" s="49" t="s">
         <v>40</v>
@@ -14515,10 +14516,10 @@
         <v>78.3</v>
       </c>
       <c r="E337" s="38" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="F337" s="38" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="G337" s="44" t="s">
         <v>568</v>
@@ -14538,10 +14539,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E338" s="38" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="F338" s="38" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="G338" s="44"/>
     </row>
@@ -14553,14 +14554,14 @@
         <v>571</v>
       </c>
       <c r="C339" s="44" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="D339" s="38">
         <v>78.099999999999994</v>
       </c>
       <c r="E339" s="38"/>
       <c r="F339" s="38" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="G339" s="44"/>
     </row>
@@ -14594,7 +14595,7 @@
       </c>
       <c r="E341" s="38"/>
       <c r="F341" s="38" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="G341" s="44" t="s">
         <v>576</v>
@@ -14615,7 +14616,7 @@
       </c>
       <c r="E342" s="38"/>
       <c r="F342" s="38" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="G342" s="44"/>
     </row>
@@ -14634,7 +14635,7 @@
       </c>
       <c r="E343" s="38"/>
       <c r="F343" s="38" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="G343" s="38"/>
     </row>
@@ -14653,7 +14654,7 @@
       </c>
       <c r="E344" s="38"/>
       <c r="F344" s="38" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="G344" s="44"/>
     </row>
@@ -14687,10 +14688,10 @@
       </c>
       <c r="E346" s="38"/>
       <c r="F346" s="38" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="G346" s="44" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="347" spans="1:7">
@@ -14708,7 +14709,7 @@
       </c>
       <c r="E347" s="38"/>
       <c r="F347" s="38" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="G347" s="44"/>
     </row>
@@ -14720,14 +14721,14 @@
         <v>595</v>
       </c>
       <c r="C348" s="44" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="D348" s="38" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="E348" s="38"/>
       <c r="F348" s="38" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="G348" s="44"/>
     </row>
@@ -14746,7 +14747,7 @@
       </c>
       <c r="E349" s="38"/>
       <c r="F349" s="38" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="G349" s="44"/>
     </row>
@@ -14765,7 +14766,7 @@
       </c>
       <c r="E350" s="38"/>
       <c r="F350" s="38" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="G350" s="44"/>
     </row>
@@ -14799,10 +14800,10 @@
       </c>
       <c r="E352" s="40"/>
       <c r="F352" s="38" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="G352" s="44" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="353" spans="1:7" ht="30">
@@ -14820,7 +14821,7 @@
       </c>
       <c r="E353" s="40"/>
       <c r="F353" s="38" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="G353" s="44"/>
     </row>
@@ -14835,11 +14836,11 @@
         <v>612</v>
       </c>
       <c r="D354" s="40" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="E354" s="40"/>
       <c r="F354" s="38" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="G354" s="38"/>
     </row>
@@ -14858,7 +14859,7 @@
       </c>
       <c r="E355" s="40"/>
       <c r="F355" s="38" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="G355" s="44"/>
     </row>
@@ -14877,7 +14878,7 @@
       </c>
       <c r="E356" s="38"/>
       <c r="F356" s="38" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="G356" s="44"/>
     </row>
@@ -14911,10 +14912,10 @@
       </c>
       <c r="E358" s="38"/>
       <c r="F358" s="38" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="G358" s="38" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="359" spans="1:7">
@@ -14928,11 +14929,11 @@
         <v>624</v>
       </c>
       <c r="D359" s="40" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="E359" s="40"/>
       <c r="F359" s="38" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="G359" s="38"/>
     </row>
@@ -14966,10 +14967,10 @@
       </c>
       <c r="E361" s="38"/>
       <c r="F361" s="38" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="G361" s="44" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="362" spans="1:7">
@@ -14983,11 +14984,11 @@
         <v>629</v>
       </c>
       <c r="D362" s="38" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="E362" s="46"/>
       <c r="F362" s="38" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="G362" s="44"/>
     </row>
@@ -15006,7 +15007,7 @@
       </c>
       <c r="E363" s="38"/>
       <c r="F363" s="38" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="G363" s="44"/>
     </row>
@@ -15021,11 +15022,11 @@
         <v>633</v>
       </c>
       <c r="D364" s="38" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="E364" s="38"/>
       <c r="F364" s="38" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="G364" s="44"/>
     </row>
@@ -15040,13 +15041,13 @@
         <v>635</v>
       </c>
       <c r="D365" s="38" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="E365" s="38" t="s">
         <v>636</v>
       </c>
       <c r="F365" s="38" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="G365" s="38"/>
     </row>
@@ -15091,13 +15092,13 @@
         <v>567</v>
       </c>
       <c r="D368" s="40" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E368" s="40" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="F368" s="38" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="G368" s="44" t="s">
         <v>568</v>
@@ -15114,13 +15115,13 @@
         <v>640</v>
       </c>
       <c r="D369" s="40" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E369" s="40" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="F369" s="38" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="G369" s="44"/>
     </row>
@@ -15138,10 +15139,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E370" s="38" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="F370" s="38" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="G370" s="44"/>
     </row>
@@ -15190,7 +15191,7 @@
       </c>
       <c r="E373" s="38"/>
       <c r="F373" s="38" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="G373" s="44" t="s">
         <v>647</v>
@@ -15211,7 +15212,7 @@
       </c>
       <c r="E374" s="38"/>
       <c r="F374" s="38" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="G374" s="44"/>
     </row>
@@ -15230,7 +15231,7 @@
       </c>
       <c r="E375" s="38"/>
       <c r="F375" s="38" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="G375" s="44"/>
     </row>
@@ -15249,7 +15250,7 @@
       </c>
       <c r="E376" s="40"/>
       <c r="F376" s="38" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="G376" s="44"/>
     </row>
@@ -15268,7 +15269,7 @@
       </c>
       <c r="E377" s="38"/>
       <c r="F377" s="38" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="G377" s="44"/>
     </row>
@@ -15287,7 +15288,7 @@
       </c>
       <c r="E378" s="38"/>
       <c r="F378" s="38" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="G378" s="44"/>
     </row>
@@ -15321,10 +15322,10 @@
       </c>
       <c r="E380" s="38"/>
       <c r="F380" s="38" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="G380" s="44" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="381" spans="1:7">
@@ -15338,13 +15339,13 @@
         <v>624</v>
       </c>
       <c r="D381" s="40" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="E381" s="40" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="F381" s="38" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="G381" s="38"/>
     </row>
@@ -15378,10 +15379,10 @@
       </c>
       <c r="E383" s="38"/>
       <c r="F383" s="38" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="G383" s="44" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="384" spans="1:7">
@@ -15395,11 +15396,11 @@
         <v>666</v>
       </c>
       <c r="D384" s="38" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="E384" s="46"/>
       <c r="F384" s="38" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="G384" s="44"/>
     </row>
@@ -15418,7 +15419,7 @@
       </c>
       <c r="E385" s="38"/>
       <c r="F385" s="38" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="G385" s="44"/>
     </row>
@@ -15433,11 +15434,11 @@
         <v>633</v>
       </c>
       <c r="D386" s="38" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="E386" s="38"/>
       <c r="F386" s="38" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="G386" s="38"/>
     </row>
@@ -15452,13 +15453,13 @@
         <v>635</v>
       </c>
       <c r="D387" s="38" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="E387" s="38" t="s">
         <v>636</v>
       </c>
       <c r="F387" s="38" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="G387" s="38"/>
     </row>
@@ -15506,10 +15507,10 @@
         <v>78.3</v>
       </c>
       <c r="E390" s="38" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="F390" s="38" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="G390" s="44" t="s">
         <v>568</v>
@@ -15526,13 +15527,13 @@
         <v>674</v>
       </c>
       <c r="D391" s="38" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E391" s="40" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="F391" s="38" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="G391" s="38"/>
     </row>
@@ -15550,10 +15551,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E392" s="38" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="F392" s="38" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="G392" s="44"/>
     </row>
@@ -15598,11 +15599,11 @@
         <v>680</v>
       </c>
       <c r="D395" s="38" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="E395" s="38"/>
       <c r="F395" s="38" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="G395" s="44" t="s">
         <v>681</v>
@@ -15623,7 +15624,7 @@
       </c>
       <c r="E396" s="38"/>
       <c r="F396" s="38" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="G396" s="44"/>
     </row>
@@ -15642,7 +15643,7 @@
       </c>
       <c r="E397" s="38"/>
       <c r="F397" s="38" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="G397" s="44"/>
     </row>
@@ -15661,7 +15662,7 @@
       </c>
       <c r="E398" s="38"/>
       <c r="F398" s="38" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="G398" s="44"/>
     </row>
@@ -15680,7 +15681,7 @@
       </c>
       <c r="E399" s="38"/>
       <c r="F399" s="38" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="G399" s="44"/>
     </row>
@@ -15699,7 +15700,7 @@
       </c>
       <c r="E400" s="38"/>
       <c r="F400" s="38" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="G400" s="44"/>
     </row>
@@ -15733,10 +15734,10 @@
       </c>
       <c r="E402" s="38"/>
       <c r="F402" s="38" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="G402" s="44" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="403" spans="1:7">
@@ -15750,13 +15751,13 @@
         <v>624</v>
       </c>
       <c r="D403" s="40" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="E403" s="40" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="F403" s="38" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="G403" s="38"/>
     </row>
@@ -15790,10 +15791,10 @@
       </c>
       <c r="E405" s="38"/>
       <c r="F405" s="38" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="G405" s="44" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="406" spans="1:7">
@@ -15807,11 +15808,11 @@
         <v>666</v>
       </c>
       <c r="D406" s="38" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="E406" s="46"/>
       <c r="F406" s="38" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="G406" s="44"/>
     </row>
@@ -15830,7 +15831,7 @@
       </c>
       <c r="E407" s="38"/>
       <c r="F407" s="38" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="G407" s="44"/>
     </row>
@@ -15845,11 +15846,11 @@
         <v>633</v>
       </c>
       <c r="D408" s="38" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="E408" s="38"/>
       <c r="F408" s="38" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="G408" s="38"/>
     </row>
@@ -15864,13 +15865,13 @@
         <v>635</v>
       </c>
       <c r="D409" s="38" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="E409" s="38" t="s">
         <v>636</v>
       </c>
       <c r="F409" s="38" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="G409" s="38"/>
     </row>
@@ -15918,10 +15919,10 @@
         <v>78.3</v>
       </c>
       <c r="E412" s="3" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="F412" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G412" s="44" t="s">
         <v>568</v>
@@ -15941,10 +15942,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E413" s="38" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="F413" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G413" s="44"/>
     </row>
@@ -15962,10 +15963,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E414" s="38" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="F414" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G414" s="44"/>
     </row>
@@ -16014,7 +16015,7 @@
       </c>
       <c r="E417" s="38"/>
       <c r="F417" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G417" s="38" t="s">
         <v>709</v>
@@ -16035,7 +16036,7 @@
       </c>
       <c r="E418" s="38"/>
       <c r="F418" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G418" s="44"/>
     </row>
@@ -16054,7 +16055,7 @@
       </c>
       <c r="E419" s="38"/>
       <c r="F419" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G419" s="44"/>
     </row>
@@ -16073,7 +16074,7 @@
       </c>
       <c r="E420" s="38"/>
       <c r="F420" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G420" s="38"/>
     </row>
@@ -16100,14 +16101,14 @@
         <v>718</v>
       </c>
       <c r="C422" s="38" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="D422" s="38" t="s">
         <v>721</v>
       </c>
       <c r="E422" s="38"/>
       <c r="F422" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G422" s="38" t="s">
         <v>720</v>
@@ -16121,14 +16122,14 @@
         <v>722</v>
       </c>
       <c r="C423" s="38" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="D423" s="40" t="s">
         <v>724</v>
       </c>
       <c r="E423" s="40"/>
       <c r="F423" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G423" s="38"/>
     </row>
@@ -16147,7 +16148,7 @@
       </c>
       <c r="E424" s="40"/>
       <c r="F424" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G424" s="38"/>
     </row>
@@ -16181,7 +16182,7 @@
       </c>
       <c r="E426" s="40"/>
       <c r="F426" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G426" s="44" t="s">
         <v>729</v>
@@ -16202,7 +16203,7 @@
       </c>
       <c r="E427" s="40"/>
       <c r="F427" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G427" s="44"/>
     </row>
@@ -16221,7 +16222,7 @@
       </c>
       <c r="E428" s="40"/>
       <c r="F428" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G428" s="44"/>
     </row>
@@ -16240,7 +16241,7 @@
       </c>
       <c r="E429" s="40"/>
       <c r="F429" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G429" s="38"/>
     </row>
@@ -16259,7 +16260,7 @@
       </c>
       <c r="E430" s="40"/>
       <c r="F430" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G430" s="44"/>
     </row>
@@ -16278,7 +16279,7 @@
       </c>
       <c r="E431" s="40"/>
       <c r="F431" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G431" s="44"/>
     </row>
@@ -16295,7 +16296,7 @@
       <c r="D432" s="41"/>
       <c r="E432" s="41"/>
       <c r="F432" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G432" s="41"/>
     </row>
@@ -16314,7 +16315,7 @@
       </c>
       <c r="E433" s="40"/>
       <c r="F433" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G433" s="44" t="s">
         <v>738</v>
@@ -16335,7 +16336,7 @@
       </c>
       <c r="E434" s="40"/>
       <c r="F434" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G434" s="44"/>
     </row>
@@ -16354,7 +16355,7 @@
       </c>
       <c r="E435" s="40"/>
       <c r="F435" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G435" s="44" t="s">
         <v>606</v>
@@ -16375,7 +16376,7 @@
       </c>
       <c r="E436" s="40"/>
       <c r="F436" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G436" s="44"/>
     </row>
@@ -16392,7 +16393,7 @@
       <c r="D437" s="41"/>
       <c r="E437" s="41"/>
       <c r="F437" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G437" s="41"/>
     </row>
@@ -16411,10 +16412,10 @@
       </c>
       <c r="E438" s="40"/>
       <c r="F438" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G438" s="44" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -16428,13 +16429,13 @@
         <v>624</v>
       </c>
       <c r="D439" s="40" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="E439" s="40" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="F439" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G439" s="38"/>
     </row>
@@ -16446,12 +16447,12 @@
         <v>746</v>
       </c>
       <c r="C440" s="41" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="D440" s="41"/>
       <c r="E440" s="41"/>
       <c r="F440" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G440" s="41"/>
     </row>
@@ -16466,13 +16467,13 @@
         <v>635</v>
       </c>
       <c r="D441" s="38" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="E441" s="38" t="s">
         <v>636</v>
       </c>
       <c r="F441" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G441" s="38"/>
     </row>
@@ -16489,7 +16490,7 @@
       <c r="D442" s="41"/>
       <c r="E442" s="41"/>
       <c r="F442" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G442" s="37"/>
     </row>
@@ -16508,7 +16509,7 @@
         <v>279</v>
       </c>
       <c r="F443" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G443" s="44"/>
     </row>
@@ -16527,7 +16528,7 @@
         <v>279</v>
       </c>
       <c r="F444" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G444" s="44"/>
     </row>
@@ -16546,7 +16547,7 @@
         <v>279</v>
       </c>
       <c r="F445" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G445" s="44"/>
     </row>
@@ -16563,7 +16564,7 @@
       <c r="D446" s="41"/>
       <c r="E446" s="37"/>
       <c r="F446" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G446" s="37"/>
     </row>
@@ -16582,7 +16583,7 @@
         <v>279</v>
       </c>
       <c r="F447" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G447" s="44"/>
     </row>
@@ -16601,7 +16602,7 @@
         <v>279</v>
       </c>
       <c r="F448" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G448" s="44"/>
     </row>
@@ -16618,7 +16619,7 @@
       <c r="D449" s="41"/>
       <c r="E449" s="41"/>
       <c r="F449" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G449" s="37"/>
     </row>
@@ -16635,7 +16636,7 @@
       <c r="D450" s="41"/>
       <c r="E450" s="41"/>
       <c r="F450" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G450" s="41"/>
     </row>
@@ -16654,7 +16655,7 @@
       </c>
       <c r="E451" s="38"/>
       <c r="F451" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G451" s="44" t="s">
         <v>568</v>
@@ -16675,7 +16676,7 @@
       </c>
       <c r="E452" s="38"/>
       <c r="F452" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G452" s="44"/>
     </row>
@@ -16694,7 +16695,7 @@
       </c>
       <c r="E453" s="38"/>
       <c r="F453" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G453" s="44"/>
     </row>
@@ -16711,7 +16712,7 @@
       <c r="D454" s="41"/>
       <c r="E454" s="41"/>
       <c r="F454" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G454" s="41"/>
     </row>
@@ -16728,7 +16729,7 @@
       <c r="D455" s="41"/>
       <c r="E455" s="41"/>
       <c r="F455" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G455" s="41"/>
     </row>
@@ -16747,10 +16748,10 @@
       </c>
       <c r="E456" s="38"/>
       <c r="F456" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G456" s="44" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="457" spans="1:7">
@@ -16768,7 +16769,7 @@
       </c>
       <c r="E457" s="38"/>
       <c r="F457" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G457" s="44"/>
     </row>
@@ -16783,11 +16784,11 @@
         <v>767</v>
       </c>
       <c r="D458" s="38" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="E458" s="38"/>
       <c r="F458" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G458" s="38"/>
     </row>
@@ -16806,7 +16807,7 @@
       </c>
       <c r="E459" s="38"/>
       <c r="F459" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G459" s="38"/>
     </row>
@@ -16818,12 +16819,12 @@
         <v>770</v>
       </c>
       <c r="C460" s="38" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="D460" s="38"/>
       <c r="E460" s="38"/>
       <c r="F460" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G460" s="38"/>
     </row>
@@ -16832,7 +16833,7 @@
         <v>58</v>
       </c>
       <c r="B461" s="38" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="C461" s="38" t="s">
         <v>771</v>
@@ -16842,7 +16843,7 @@
       </c>
       <c r="E461" s="38"/>
       <c r="F461" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G461" s="38"/>
     </row>
@@ -16851,17 +16852,17 @@
         <v>58</v>
       </c>
       <c r="B462" s="38" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="C462" s="38" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="D462" s="38" t="s">
         <v>724</v>
       </c>
       <c r="E462" s="38"/>
       <c r="F462" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G462" s="38"/>
     </row>
@@ -16878,7 +16879,7 @@
       <c r="D463" s="41"/>
       <c r="E463" s="41"/>
       <c r="F463" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G463" s="41"/>
     </row>
@@ -16897,10 +16898,10 @@
       </c>
       <c r="E464" s="38"/>
       <c r="F464" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G464" s="44" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="465" spans="1:7">
@@ -16914,11 +16915,11 @@
         <v>624</v>
       </c>
       <c r="D465" s="40" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="E465" s="40"/>
       <c r="F465" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G465" s="38"/>
     </row>
@@ -16935,7 +16936,7 @@
       <c r="D466" s="41"/>
       <c r="E466" s="41"/>
       <c r="F466" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G466" s="41"/>
     </row>
@@ -16954,10 +16955,10 @@
       </c>
       <c r="E467" s="38"/>
       <c r="F467" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G467" s="44" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="468" spans="1:7">
@@ -16975,7 +16976,7 @@
       </c>
       <c r="E468" s="38"/>
       <c r="F468" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G468" s="44"/>
     </row>
@@ -16994,7 +16995,7 @@
       </c>
       <c r="E469" s="38"/>
       <c r="F469" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G469" s="44"/>
     </row>
@@ -17009,11 +17010,11 @@
         <v>633</v>
       </c>
       <c r="D470" s="38" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="E470" s="38"/>
       <c r="F470" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G470" s="38"/>
     </row>
@@ -17028,11 +17029,11 @@
         <v>635</v>
       </c>
       <c r="D471" s="38" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="E471" s="38"/>
       <c r="F471" s="38" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G471" s="38"/>
     </row>
@@ -17049,14 +17050,14 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="45.09765625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="81.3984375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="45.125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="4" customWidth="1"/>
+    <col min="4" max="5" width="81.375" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="1025" width="8.8984375" style="4" customWidth="1"/>
+    <col min="8" max="1025" width="8.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
@@ -17088,7 +17089,7 @@
         <v>62</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>789</v>
@@ -17107,7 +17108,7 @@
         <v>65</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>791</v>
@@ -17126,7 +17127,7 @@
         <v>68</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>792</v>
@@ -17140,12 +17141,12 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="140.4">
+    <row r="5" spans="1:7" ht="126">
       <c r="A5" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>793</v>
@@ -17164,7 +17165,7 @@
         <v>796</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>797</v>
@@ -17192,22 +17193,24 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AMK55"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.5" style="29" customWidth="1"/>
-    <col min="2" max="2" width="68.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="23.8984375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="100" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.09765625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="22.8984375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="44.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="65.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="42.75" style="4" customWidth="1"/>
+    <col min="6" max="6" width="22.875" style="4" customWidth="1"/>
     <col min="7" max="7" width="20" style="4" customWidth="1"/>
-    <col min="8" max="1025" width="8.8984375" style="4" customWidth="1"/>
+    <col min="8" max="1025" width="8.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" s="24" customFormat="1" ht="46.8">
+    <row r="1" spans="1:1025" s="24" customFormat="1">
       <c r="A1" s="8" t="s">
         <v>782</v>
       </c>
@@ -18286,7 +18289,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:1025">
+    <row r="4" spans="1:1025" ht="31.5">
       <c r="A4" s="3" t="s">
         <v>80</v>
       </c>
@@ -18305,7 +18308,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:1025">
+    <row r="5" spans="1:1025" ht="31.5">
       <c r="A5" s="3" t="s">
         <v>83</v>
       </c>
@@ -18362,7 +18365,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:1025" ht="31.2">
+    <row r="8" spans="1:1025" ht="31.5">
       <c r="A8" s="3" t="s">
         <v>810</v>
       </c>
@@ -18381,7 +18384,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:1025">
+    <row r="9" spans="1:1025" ht="31.5">
       <c r="A9" s="3" t="s">
         <v>101</v>
       </c>
@@ -18400,7 +18403,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:1025">
+    <row r="10" spans="1:1025" ht="31.5">
       <c r="A10" s="3" t="s">
         <v>119</v>
       </c>
@@ -18419,7 +18422,7 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:1025">
+    <row r="11" spans="1:1025" ht="31.5">
       <c r="A11" s="3" t="s">
         <v>104</v>
       </c>
@@ -18438,7 +18441,7 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:1025">
+    <row r="12" spans="1:1025" ht="31.5">
       <c r="A12" s="3" t="s">
         <v>107</v>
       </c>
@@ -18457,7 +18460,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:1025">
+    <row r="13" spans="1:1025" ht="31.5">
       <c r="A13" s="3" t="s">
         <v>110</v>
       </c>
@@ -18476,7 +18479,7 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:1025">
+    <row r="14" spans="1:1025" ht="31.5">
       <c r="A14" s="3" t="s">
         <v>113</v>
       </c>
@@ -18495,7 +18498,7 @@
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:1025">
+    <row r="15" spans="1:1025" ht="31.5">
       <c r="A15" s="3" t="s">
         <v>116</v>
       </c>
@@ -18514,7 +18517,7 @@
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:1025">
+    <row r="16" spans="1:1025" ht="31.5">
       <c r="A16" s="3" t="s">
         <v>122</v>
       </c>
@@ -18533,7 +18536,7 @@
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="46.8">
+    <row r="17" spans="1:7" ht="31.5">
       <c r="A17" s="3" t="s">
         <v>125</v>
       </c>
@@ -18546,26 +18549,26 @@
       <c r="D17" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>823</v>
+      <c r="E17" s="28" t="s">
+        <v>1307</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>790</v>
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="31.5">
       <c r="A18" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>813</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>825</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>826</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
@@ -18578,10 +18581,10 @@
         <v>142</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>827</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>828</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>141</v>
@@ -18597,10 +18600,10 @@
         <v>145</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>144</v>
@@ -18616,10 +18619,10 @@
         <v>148</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>147</v>
@@ -18635,10 +18638,10 @@
         <v>151</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>150</v>
@@ -18654,10 +18657,10 @@
         <v>154</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>153</v>
@@ -18673,10 +18676,10 @@
         <v>92</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>91</v>
@@ -18687,18 +18690,18 @@
       </c>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="31.5">
       <c r="A25" s="3" t="s">
         <v>130</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>835</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>836</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
@@ -18706,18 +18709,18 @@
       </c>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="31.5">
       <c r="A26" s="3" t="s">
         <v>200</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>837</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>838</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
@@ -18725,15 +18728,15 @@
       </c>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="31.5">
       <c r="A27" s="3" t="s">
         <v>203</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>202</v>
@@ -18744,15 +18747,15 @@
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="31.5">
       <c r="A28" s="3" t="s">
         <v>175</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>840</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>841</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>174</v>
@@ -18763,15 +18766,15 @@
       </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="31.5">
       <c r="A29" s="3" t="s">
         <v>178</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>177</v>
@@ -18782,15 +18785,15 @@
       </c>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" ht="31.5">
       <c r="A30" s="3" t="s">
         <v>181</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>180</v>
@@ -18801,15 +18804,15 @@
       </c>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" ht="31.5">
       <c r="A31" s="3" t="s">
         <v>184</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>183</v>
@@ -18820,15 +18823,15 @@
       </c>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" ht="31.5">
       <c r="A32" s="3" t="s">
         <v>187</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>186</v>
@@ -18839,15 +18842,15 @@
       </c>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" ht="31.5">
       <c r="A33" s="3" t="s">
         <v>197</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>846</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>847</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>196</v>
@@ -18858,15 +18861,15 @@
       </c>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" ht="31.5">
       <c r="A34" s="3" t="s">
         <v>248</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>848</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>849</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>247</v>
@@ -18877,15 +18880,15 @@
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" ht="31.5">
       <c r="A35" s="3" t="s">
         <v>251</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>250</v>
@@ -18896,15 +18899,15 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" ht="31.5">
       <c r="A36" s="3" t="s">
         <v>254</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>253</v>
@@ -18915,15 +18918,15 @@
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="78">
+    <row r="37" spans="1:7" ht="63">
       <c r="A37" s="3" t="s">
         <v>257</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>256</v>
@@ -18933,18 +18936,18 @@
         <v>809</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="31.2">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="31.5">
       <c r="A38" s="3" t="s">
         <v>526</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>525</v>
@@ -18955,15 +18958,15 @@
       </c>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" ht="31.5">
       <c r="A39" s="3" t="s">
         <v>278</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>277</v>
@@ -18974,18 +18977,18 @@
       </c>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" ht="31.5">
       <c r="A40" s="3" t="s">
         <v>269</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3" t="s">
@@ -18993,18 +18996,18 @@
       </c>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" ht="31.5">
       <c r="A41" s="3" t="s">
         <v>266</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
@@ -19012,18 +19015,18 @@
       </c>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" ht="46.8">
+    <row r="42" spans="1:7" ht="63">
       <c r="A42" s="3" t="s">
         <v>274</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>858</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>859</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
@@ -19031,18 +19034,18 @@
       </c>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" ht="31.5">
       <c r="A43" s="32" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="B43" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="E43" s="32"/>
       <c r="F43" s="32" t="s">
@@ -19050,18 +19053,18 @@
       </c>
       <c r="G43" s="32"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" ht="31.5">
       <c r="A44" s="32" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="B44" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="E44" s="32"/>
       <c r="F44" s="32" t="s">
@@ -19069,18 +19072,18 @@
       </c>
       <c r="G44" s="32"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" ht="31.5">
       <c r="A45" s="32" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="B45" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="E45" s="32"/>
       <c r="F45" s="32" t="s">
@@ -19088,18 +19091,18 @@
       </c>
       <c r="G45" s="32"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" ht="31.5">
       <c r="A46" s="32" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="B46" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="E46" s="32"/>
       <c r="F46" s="32" t="s">
@@ -19107,18 +19110,18 @@
       </c>
       <c r="G46" s="32"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" ht="31.5">
       <c r="A47" s="32" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="B47" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="E47" s="32"/>
       <c r="F47" s="32" t="s">
@@ -19126,18 +19129,18 @@
       </c>
       <c r="G47" s="32"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" ht="31.5">
       <c r="A48" s="32" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B48" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="E48" s="32"/>
       <c r="F48" s="32" t="s">
@@ -19145,18 +19148,18 @@
       </c>
       <c r="G48" s="32"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" ht="31.5">
       <c r="A49" s="32" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="B49" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="E49" s="32"/>
       <c r="F49" s="32" t="s">
@@ -19164,18 +19167,18 @@
       </c>
       <c r="G49" s="32"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" ht="31.5">
       <c r="A50" s="32" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="B50" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="E50" s="32"/>
       <c r="F50" s="32" t="s">
@@ -19183,18 +19186,18 @@
       </c>
       <c r="G50" s="32"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" ht="31.5">
       <c r="A51" s="32" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="B51" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="32" t="s">
@@ -19202,18 +19205,18 @@
       </c>
       <c r="G51" s="32"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" ht="31.5">
       <c r="A52" s="32" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="E52" s="32"/>
       <c r="F52" s="32" t="s">
@@ -19221,18 +19224,18 @@
       </c>
       <c r="G52" s="32"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" ht="31.5">
       <c r="A53" s="32" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="E53" s="32"/>
       <c r="F53" s="32" t="s">
@@ -19240,18 +19243,18 @@
       </c>
       <c r="G53" s="32"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" ht="31.5">
       <c r="A54" s="32" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="E54" s="32"/>
       <c r="F54" s="32" t="s">
@@ -19259,18 +19262,18 @@
       </c>
       <c r="G54" s="32"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" ht="31.5">
       <c r="A55" s="32" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="E55" s="32"/>
       <c r="F55" s="32" t="s">
@@ -19296,19 +19299,19 @@
       <selection sqref="A1:D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.8984375" style="29" customWidth="1"/>
-    <col min="2" max="2" width="47.3984375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.8984375" style="4" customWidth="1"/>
-    <col min="4" max="5" width="80.8984375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="29" customWidth="1"/>
+    <col min="2" max="2" width="47.375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="4" customWidth="1"/>
+    <col min="4" max="5" width="80.875" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="256" width="8.8984375" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.8984375" style="19" customWidth="1"/>
+    <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.875" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="24" customFormat="1" ht="30.9" customHeight="1">
+    <row r="1" spans="1:256" s="24" customFormat="1" ht="30.95" customHeight="1">
       <c r="A1" s="69" t="s">
         <v>782</v>
       </c>
@@ -19582,13 +19585,13 @@
     </row>
     <row r="2" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="69" t="s">
+        <v>859</v>
+      </c>
+      <c r="B2" s="69" t="s">
         <v>860</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="C2" s="69" t="s">
         <v>861</v>
-      </c>
-      <c r="C2" s="69" t="s">
-        <v>862</v>
       </c>
       <c r="D2" s="69" t="s">
         <v>290</v>
@@ -19601,16 +19604,16 @@
     </row>
     <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="69" t="s">
+        <v>862</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C3" s="69" t="s">
         <v>863</v>
       </c>
-      <c r="B3" s="69" t="s">
-        <v>861</v>
-      </c>
-      <c r="C3" s="69" t="s">
-        <v>864</v>
-      </c>
       <c r="D3" s="69" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="E3" s="30"/>
       <c r="F3" s="30" t="s">
@@ -19620,13 +19623,13 @@
     </row>
     <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="69" t="s">
+        <v>864</v>
+      </c>
+      <c r="B4" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C4" s="69" t="s">
         <v>865</v>
-      </c>
-      <c r="B4" s="69" t="s">
-        <v>861</v>
-      </c>
-      <c r="C4" s="69" t="s">
-        <v>866</v>
       </c>
       <c r="D4" s="69" t="s">
         <v>294</v>
@@ -19639,13 +19642,13 @@
     </row>
     <row r="5" spans="1:256" ht="31.5" customHeight="1">
       <c r="A5" s="69" t="s">
+        <v>866</v>
+      </c>
+      <c r="B5" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C5" s="69" t="s">
         <v>867</v>
-      </c>
-      <c r="B5" s="69" t="s">
-        <v>861</v>
-      </c>
-      <c r="C5" s="69" t="s">
-        <v>868</v>
       </c>
       <c r="D5" s="69" t="s">
         <v>297</v>
@@ -19658,16 +19661,16 @@
     </row>
     <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="69" t="s">
+        <v>868</v>
+      </c>
+      <c r="B6" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C6" s="69" t="s">
         <v>869</v>
       </c>
-      <c r="B6" s="69" t="s">
-        <v>861</v>
-      </c>
-      <c r="C6" s="69" t="s">
+      <c r="D6" s="69" t="s">
         <v>870</v>
-      </c>
-      <c r="D6" s="69" t="s">
-        <v>871</v>
       </c>
       <c r="E6" s="30"/>
       <c r="F6" s="30" t="s">
@@ -19677,16 +19680,16 @@
     </row>
     <row r="7" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="69" t="s">
+        <v>871</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C7" s="69" t="s">
         <v>872</v>
       </c>
-      <c r="B7" s="69" t="s">
-        <v>861</v>
-      </c>
-      <c r="C7" s="69" t="s">
+      <c r="D7" s="69" t="s">
         <v>873</v>
-      </c>
-      <c r="D7" s="69" t="s">
-        <v>874</v>
       </c>
       <c r="E7" s="30"/>
       <c r="F7" s="30" t="s">
@@ -19696,16 +19699,16 @@
     </row>
     <row r="8" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="69" t="s">
+        <v>874</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C8" s="69" t="s">
         <v>875</v>
       </c>
-      <c r="B8" s="69" t="s">
-        <v>861</v>
-      </c>
-      <c r="C8" s="69" t="s">
+      <c r="D8" s="69" t="s">
         <v>876</v>
-      </c>
-      <c r="D8" s="69" t="s">
-        <v>877</v>
       </c>
       <c r="E8" s="30"/>
       <c r="F8" s="30" t="s">
@@ -19715,16 +19718,16 @@
     </row>
     <row r="9" spans="1:256" ht="31.5" customHeight="1">
       <c r="A9" s="69" t="s">
+        <v>877</v>
+      </c>
+      <c r="B9" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C9" s="69" t="s">
         <v>878</v>
       </c>
-      <c r="B9" s="69" t="s">
-        <v>861</v>
-      </c>
-      <c r="C9" s="69" t="s">
+      <c r="D9" s="69" t="s">
         <v>879</v>
-      </c>
-      <c r="D9" s="69" t="s">
-        <v>880</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="30" t="s">
@@ -19734,13 +19737,13 @@
     </row>
     <row r="10" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="69" t="s">
+        <v>880</v>
+      </c>
+      <c r="B10" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C10" s="69" t="s">
         <v>881</v>
-      </c>
-      <c r="B10" s="69" t="s">
-        <v>861</v>
-      </c>
-      <c r="C10" s="69" t="s">
-        <v>882</v>
       </c>
       <c r="D10" s="69" t="s">
         <v>370</v>
@@ -19753,13 +19756,13 @@
     </row>
     <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="69" t="s">
+        <v>882</v>
+      </c>
+      <c r="B11" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C11" s="69" t="s">
         <v>883</v>
-      </c>
-      <c r="B11" s="69" t="s">
-        <v>861</v>
-      </c>
-      <c r="C11" s="69" t="s">
-        <v>884</v>
       </c>
       <c r="D11" s="69" t="s">
         <v>372</v>
@@ -19772,16 +19775,16 @@
     </row>
     <row r="12" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="69" t="s">
+        <v>884</v>
+      </c>
+      <c r="B12" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C12" s="69" t="s">
         <v>885</v>
       </c>
-      <c r="B12" s="69" t="s">
-        <v>861</v>
-      </c>
-      <c r="C12" s="69" t="s">
+      <c r="D12" s="69" t="s">
         <v>886</v>
-      </c>
-      <c r="D12" s="69" t="s">
-        <v>887</v>
       </c>
       <c r="E12" s="30"/>
       <c r="F12" s="30" t="s">
@@ -19791,13 +19794,13 @@
     </row>
     <row r="13" spans="1:256" ht="31.5" customHeight="1">
       <c r="A13" s="69" t="s">
+        <v>887</v>
+      </c>
+      <c r="B13" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C13" s="69" t="s">
         <v>888</v>
-      </c>
-      <c r="B13" s="69" t="s">
-        <v>861</v>
-      </c>
-      <c r="C13" s="69" t="s">
-        <v>889</v>
       </c>
       <c r="D13" s="69" t="s">
         <v>376</v>
@@ -19810,13 +19813,13 @@
     </row>
     <row r="14" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="69" t="s">
+        <v>889</v>
+      </c>
+      <c r="B14" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C14" s="69" t="s">
         <v>890</v>
-      </c>
-      <c r="B14" s="69" t="s">
-        <v>861</v>
-      </c>
-      <c r="C14" s="69" t="s">
-        <v>891</v>
       </c>
       <c r="D14" s="69" t="s">
         <v>379</v>
@@ -19829,13 +19832,13 @@
     </row>
     <row r="15" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="69" t="s">
+        <v>891</v>
+      </c>
+      <c r="B15" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C15" s="69" t="s">
         <v>892</v>
-      </c>
-      <c r="B15" s="69" t="s">
-        <v>861</v>
-      </c>
-      <c r="C15" s="69" t="s">
-        <v>893</v>
       </c>
       <c r="D15" s="69" t="s">
         <v>381</v>
@@ -19848,16 +19851,16 @@
     </row>
     <row r="16" spans="1:256" ht="31.5" customHeight="1">
       <c r="A16" s="68" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B16" s="69" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C16" s="68" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="D16" s="68" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30" t="s">
@@ -19867,16 +19870,16 @@
     </row>
     <row r="17" spans="1:7" ht="31.5" customHeight="1">
       <c r="A17" s="68" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B17" s="69" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C17" s="68" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="D17" s="68" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="30" t="s">
@@ -19886,16 +19889,16 @@
     </row>
     <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="69" t="s">
+        <v>893</v>
+      </c>
+      <c r="B18" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C18" s="69" t="s">
         <v>894</v>
       </c>
-      <c r="B18" s="69" t="s">
-        <v>861</v>
-      </c>
-      <c r="C18" s="69" t="s">
-        <v>895</v>
-      </c>
       <c r="D18" s="68" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="30" t="s">
@@ -19905,13 +19908,13 @@
     </row>
     <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="69" t="s">
+        <v>895</v>
+      </c>
+      <c r="B19" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C19" s="69" t="s">
         <v>896</v>
-      </c>
-      <c r="B19" s="69" t="s">
-        <v>861</v>
-      </c>
-      <c r="C19" s="69" t="s">
-        <v>897</v>
       </c>
       <c r="D19" s="69" t="s">
         <v>390</v>
@@ -19924,13 +19927,13 @@
     </row>
     <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="69" t="s">
+        <v>897</v>
+      </c>
+      <c r="B20" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C20" s="69" t="s">
         <v>898</v>
-      </c>
-      <c r="B20" s="69" t="s">
-        <v>861</v>
-      </c>
-      <c r="C20" s="69" t="s">
-        <v>899</v>
       </c>
       <c r="D20" s="69" t="s">
         <v>392</v>
@@ -19943,16 +19946,16 @@
     </row>
     <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="69" t="s">
+        <v>899</v>
+      </c>
+      <c r="B21" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C21" s="69" t="s">
         <v>900</v>
       </c>
-      <c r="B21" s="69" t="s">
-        <v>861</v>
-      </c>
-      <c r="C21" s="69" t="s">
+      <c r="D21" s="69" t="s">
         <v>901</v>
-      </c>
-      <c r="D21" s="69" t="s">
-        <v>902</v>
       </c>
       <c r="E21" s="30"/>
       <c r="F21" s="30" t="s">
@@ -19962,13 +19965,13 @@
     </row>
     <row r="22" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="69" t="s">
+        <v>902</v>
+      </c>
+      <c r="B22" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C22" s="69" t="s">
         <v>903</v>
-      </c>
-      <c r="B22" s="69" t="s">
-        <v>861</v>
-      </c>
-      <c r="C22" s="69" t="s">
-        <v>904</v>
       </c>
       <c r="D22" s="69" t="s">
         <v>398</v>
@@ -19981,13 +19984,13 @@
     </row>
     <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="69" t="s">
+        <v>904</v>
+      </c>
+      <c r="B23" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C23" s="69" t="s">
         <v>905</v>
-      </c>
-      <c r="B23" s="69" t="s">
-        <v>861</v>
-      </c>
-      <c r="C23" s="69" t="s">
-        <v>906</v>
       </c>
       <c r="D23" s="69" t="s">
         <v>400</v>
@@ -20000,13 +20003,13 @@
     </row>
     <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="69" t="s">
+        <v>906</v>
+      </c>
+      <c r="B24" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C24" s="69" t="s">
         <v>907</v>
-      </c>
-      <c r="B24" s="69" t="s">
-        <v>861</v>
-      </c>
-      <c r="C24" s="69" t="s">
-        <v>908</v>
       </c>
       <c r="D24" s="69" t="s">
         <v>402</v>
@@ -20019,16 +20022,16 @@
     </row>
     <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="69" t="s">
+        <v>908</v>
+      </c>
+      <c r="B25" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C25" s="69" t="s">
         <v>909</v>
       </c>
-      <c r="B25" s="69" t="s">
-        <v>861</v>
-      </c>
-      <c r="C25" s="69" t="s">
+      <c r="D25" s="69" t="s">
         <v>910</v>
-      </c>
-      <c r="D25" s="69" t="s">
-        <v>911</v>
       </c>
       <c r="E25" s="30"/>
       <c r="F25" s="30" t="s">
@@ -20038,13 +20041,13 @@
     </row>
     <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="69" t="s">
+        <v>911</v>
+      </c>
+      <c r="B26" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C26" s="69" t="s">
         <v>912</v>
-      </c>
-      <c r="B26" s="69" t="s">
-        <v>861</v>
-      </c>
-      <c r="C26" s="69" t="s">
-        <v>913</v>
       </c>
       <c r="D26" s="69" t="s">
         <v>408</v>
@@ -20057,16 +20060,16 @@
     </row>
     <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="69" t="s">
+        <v>913</v>
+      </c>
+      <c r="B27" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C27" s="69" t="s">
         <v>914</v>
       </c>
-      <c r="B27" s="69" t="s">
-        <v>861</v>
-      </c>
-      <c r="C27" s="69" t="s">
+      <c r="D27" s="69" t="s">
         <v>915</v>
-      </c>
-      <c r="D27" s="69" t="s">
-        <v>916</v>
       </c>
       <c r="E27" s="30"/>
       <c r="F27" s="30" t="s">
@@ -20076,13 +20079,13 @@
     </row>
     <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="69" t="s">
+        <v>916</v>
+      </c>
+      <c r="B28" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C28" s="69" t="s">
         <v>917</v>
-      </c>
-      <c r="B28" s="69" t="s">
-        <v>861</v>
-      </c>
-      <c r="C28" s="69" t="s">
-        <v>918</v>
       </c>
       <c r="D28" s="69" t="s">
         <v>412</v>
@@ -20095,13 +20098,13 @@
     </row>
     <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="69" t="s">
+        <v>918</v>
+      </c>
+      <c r="B29" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C29" s="69" t="s">
         <v>919</v>
-      </c>
-      <c r="B29" s="69" t="s">
-        <v>861</v>
-      </c>
-      <c r="C29" s="69" t="s">
-        <v>920</v>
       </c>
       <c r="D29" s="69" t="s">
         <v>414</v>
@@ -20114,13 +20117,13 @@
     </row>
     <row r="30" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="69" t="s">
+        <v>920</v>
+      </c>
+      <c r="B30" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C30" s="69" t="s">
         <v>921</v>
-      </c>
-      <c r="B30" s="69" t="s">
-        <v>861</v>
-      </c>
-      <c r="C30" s="69" t="s">
-        <v>922</v>
       </c>
       <c r="D30" s="69" t="s">
         <v>416</v>
@@ -20133,16 +20136,16 @@
     </row>
     <row r="31" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="69" t="s">
+        <v>922</v>
+      </c>
+      <c r="B31" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C31" s="69" t="s">
         <v>923</v>
       </c>
-      <c r="B31" s="69" t="s">
-        <v>861</v>
-      </c>
-      <c r="C31" s="69" t="s">
+      <c r="D31" s="69" t="s">
         <v>924</v>
-      </c>
-      <c r="D31" s="69" t="s">
-        <v>925</v>
       </c>
       <c r="E31" s="30"/>
       <c r="F31" s="30" t="s">
@@ -20152,16 +20155,16 @@
     </row>
     <row r="32" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="69" t="s">
+        <v>925</v>
+      </c>
+      <c r="B32" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C32" s="69" t="s">
         <v>926</v>
       </c>
-      <c r="B32" s="69" t="s">
-        <v>861</v>
-      </c>
-      <c r="C32" s="69" t="s">
+      <c r="D32" s="69" t="s">
         <v>927</v>
-      </c>
-      <c r="D32" s="69" t="s">
-        <v>928</v>
       </c>
       <c r="E32" s="30"/>
       <c r="F32" s="30" t="s">
@@ -20171,16 +20174,16 @@
     </row>
     <row r="33" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A33" s="69" t="s">
+        <v>928</v>
+      </c>
+      <c r="B33" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C33" s="69" t="s">
         <v>929</v>
       </c>
-      <c r="B33" s="69" t="s">
-        <v>861</v>
-      </c>
-      <c r="C33" s="69" t="s">
+      <c r="D33" s="69" t="s">
         <v>930</v>
-      </c>
-      <c r="D33" s="69" t="s">
-        <v>931</v>
       </c>
       <c r="E33" s="30"/>
       <c r="F33" s="30" t="s">
@@ -20190,16 +20193,16 @@
     </row>
     <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A34" s="69" t="s">
+        <v>931</v>
+      </c>
+      <c r="B34" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C34" s="69" t="s">
         <v>932</v>
       </c>
-      <c r="B34" s="69" t="s">
-        <v>861</v>
-      </c>
-      <c r="C34" s="69" t="s">
+      <c r="D34" s="69" t="s">
         <v>933</v>
-      </c>
-      <c r="D34" s="69" t="s">
-        <v>934</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="30" t="s">
@@ -20209,16 +20212,16 @@
     </row>
     <row r="35" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="69" t="s">
+        <v>934</v>
+      </c>
+      <c r="B35" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C35" s="69" t="s">
         <v>935</v>
       </c>
-      <c r="B35" s="69" t="s">
-        <v>861</v>
-      </c>
-      <c r="C35" s="69" t="s">
+      <c r="D35" s="69" t="s">
         <v>936</v>
-      </c>
-      <c r="D35" s="69" t="s">
-        <v>937</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="30" t="s">
@@ -20228,16 +20231,16 @@
     </row>
     <row r="36" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="69" t="s">
+        <v>937</v>
+      </c>
+      <c r="B36" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C36" s="69" t="s">
         <v>938</v>
       </c>
-      <c r="B36" s="69" t="s">
-        <v>861</v>
-      </c>
-      <c r="C36" s="69" t="s">
+      <c r="D36" s="69" t="s">
         <v>939</v>
-      </c>
-      <c r="D36" s="69" t="s">
-        <v>940</v>
       </c>
       <c r="E36" s="30"/>
       <c r="F36" s="30" t="s">
@@ -20247,16 +20250,16 @@
     </row>
     <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="69" t="s">
+        <v>940</v>
+      </c>
+      <c r="B37" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C37" s="69" t="s">
         <v>941</v>
       </c>
-      <c r="B37" s="69" t="s">
-        <v>861</v>
-      </c>
-      <c r="C37" s="69" t="s">
+      <c r="D37" s="69" t="s">
         <v>942</v>
-      </c>
-      <c r="D37" s="69" t="s">
-        <v>943</v>
       </c>
       <c r="E37" s="30"/>
       <c r="F37" s="30" t="s">
@@ -20266,16 +20269,16 @@
     </row>
     <row r="38" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A38" s="69" t="s">
+        <v>943</v>
+      </c>
+      <c r="B38" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C38" s="69" t="s">
         <v>944</v>
       </c>
-      <c r="B38" s="69" t="s">
-        <v>861</v>
-      </c>
-      <c r="C38" s="69" t="s">
+      <c r="D38" s="69" t="s">
         <v>945</v>
-      </c>
-      <c r="D38" s="69" t="s">
-        <v>946</v>
       </c>
       <c r="E38" s="30"/>
       <c r="F38" s="30" t="s">
@@ -20285,16 +20288,16 @@
     </row>
     <row r="39" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A39" s="69" t="s">
+        <v>946</v>
+      </c>
+      <c r="B39" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C39" s="69" t="s">
         <v>947</v>
       </c>
-      <c r="B39" s="69" t="s">
-        <v>861</v>
-      </c>
-      <c r="C39" s="69" t="s">
+      <c r="D39" s="69" t="s">
         <v>948</v>
-      </c>
-      <c r="D39" s="69" t="s">
-        <v>949</v>
       </c>
       <c r="E39" s="30"/>
       <c r="F39" s="30" t="s">
@@ -20302,37 +20305,37 @@
       </c>
       <c r="G39" s="30"/>
     </row>
-    <row r="40" spans="1:7" ht="30.9" customHeight="1">
+    <row r="40" spans="1:7" ht="30.95" customHeight="1">
       <c r="A40" s="69" t="s">
+        <v>949</v>
+      </c>
+      <c r="B40" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C40" s="69" t="s">
         <v>950</v>
       </c>
-      <c r="B40" s="69" t="s">
-        <v>861</v>
-      </c>
-      <c r="C40" s="69" t="s">
+      <c r="D40" s="69" t="s">
         <v>951</v>
       </c>
-      <c r="D40" s="69" t="s">
+      <c r="E40" s="30" t="s">
         <v>952</v>
-      </c>
-      <c r="E40" s="30" t="s">
-        <v>953</v>
       </c>
       <c r="F40" s="30"/>
       <c r="G40" s="30"/>
     </row>
     <row r="41" spans="1:7" ht="31.5" customHeight="1">
       <c r="A41" s="69" t="s">
+        <v>953</v>
+      </c>
+      <c r="B41" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C41" s="69" t="s">
         <v>954</v>
       </c>
-      <c r="B41" s="69" t="s">
-        <v>861</v>
-      </c>
-      <c r="C41" s="69" t="s">
+      <c r="D41" s="69" t="s">
         <v>955</v>
-      </c>
-      <c r="D41" s="69" t="s">
-        <v>956</v>
       </c>
       <c r="E41" s="30"/>
       <c r="F41" s="30"/>
@@ -20340,90 +20343,90 @@
     </row>
     <row r="42" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A42" s="69" t="s">
+        <v>956</v>
+      </c>
+      <c r="B42" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C42" s="69" t="s">
         <v>957</v>
       </c>
-      <c r="B42" s="69" t="s">
-        <v>861</v>
-      </c>
-      <c r="C42" s="69" t="s">
+      <c r="D42" s="69" t="s">
         <v>958</v>
-      </c>
-      <c r="D42" s="69" t="s">
-        <v>959</v>
       </c>
       <c r="E42" s="30"/>
       <c r="F42" s="30"/>
       <c r="G42" s="30"/>
     </row>
-    <row r="43" spans="1:7" ht="30.9" customHeight="1">
+    <row r="43" spans="1:7" ht="30.95" customHeight="1">
       <c r="A43" s="69" t="s">
+        <v>959</v>
+      </c>
+      <c r="B43" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C43" s="69" t="s">
         <v>960</v>
       </c>
-      <c r="B43" s="69" t="s">
-        <v>861</v>
-      </c>
-      <c r="C43" s="69" t="s">
+      <c r="D43" s="69" t="s">
         <v>961</v>
       </c>
-      <c r="D43" s="69" t="s">
+      <c r="E43" s="30" t="s">
         <v>962</v>
-      </c>
-      <c r="E43" s="30" t="s">
-        <v>963</v>
       </c>
       <c r="F43" s="30"/>
       <c r="G43" s="30"/>
     </row>
     <row r="44" spans="1:7" ht="47.25" customHeight="1">
       <c r="A44" s="69" t="s">
+        <v>963</v>
+      </c>
+      <c r="B44" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C44" s="69" t="s">
         <v>964</v>
       </c>
-      <c r="B44" s="69" t="s">
-        <v>861</v>
-      </c>
-      <c r="C44" s="69" t="s">
+      <c r="D44" s="69" t="s">
         <v>965</v>
       </c>
-      <c r="D44" s="69" t="s">
+      <c r="E44" s="30" t="s">
         <v>966</v>
-      </c>
-      <c r="E44" s="30" t="s">
-        <v>967</v>
       </c>
       <c r="F44" s="30"/>
       <c r="G44" s="30"/>
     </row>
     <row r="45" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A45" s="69" t="s">
+        <v>967</v>
+      </c>
+      <c r="B45" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C45" s="69" t="s">
         <v>968</v>
       </c>
-      <c r="B45" s="69" t="s">
-        <v>861</v>
-      </c>
-      <c r="C45" s="69" t="s">
+      <c r="D45" s="69" t="s">
         <v>969</v>
       </c>
-      <c r="D45" s="69" t="s">
+      <c r="E45" s="30" t="s">
         <v>970</v>
-      </c>
-      <c r="E45" s="30" t="s">
-        <v>971</v>
       </c>
       <c r="F45" s="30"/>
       <c r="G45" s="30"/>
     </row>
     <row r="46" spans="1:7" ht="31.5" customHeight="1">
       <c r="A46" s="69" t="s">
+        <v>971</v>
+      </c>
+      <c r="B46" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C46" s="69" t="s">
         <v>972</v>
       </c>
-      <c r="B46" s="69" t="s">
-        <v>861</v>
-      </c>
-      <c r="C46" s="69" t="s">
+      <c r="D46" s="69" t="s">
         <v>973</v>
-      </c>
-      <c r="D46" s="69" t="s">
-        <v>974</v>
       </c>
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
@@ -20431,16 +20434,16 @@
     </row>
     <row r="47" spans="1:7" ht="31.5" customHeight="1">
       <c r="A47" s="69" t="s">
+        <v>974</v>
+      </c>
+      <c r="B47" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C47" s="69" t="s">
         <v>975</v>
       </c>
-      <c r="B47" s="69" t="s">
-        <v>861</v>
-      </c>
-      <c r="C47" s="69" t="s">
+      <c r="D47" s="69" t="s">
         <v>976</v>
-      </c>
-      <c r="D47" s="69" t="s">
-        <v>977</v>
       </c>
       <c r="E47" s="30"/>
       <c r="F47" s="30"/>
@@ -20448,33 +20451,33 @@
     </row>
     <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A48" s="69" t="s">
+        <v>977</v>
+      </c>
+      <c r="B48" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C48" s="69" t="s">
         <v>978</v>
       </c>
-      <c r="B48" s="69" t="s">
-        <v>861</v>
-      </c>
-      <c r="C48" s="69" t="s">
+      <c r="D48" s="69" t="s">
         <v>979</v>
-      </c>
-      <c r="D48" s="69" t="s">
-        <v>980</v>
       </c>
       <c r="E48" s="30"/>
       <c r="F48" s="30"/>
       <c r="G48" s="30"/>
     </row>
-    <row r="49" spans="1:256" s="57" customFormat="1" ht="31.2">
+    <row r="49" spans="1:256" s="57" customFormat="1" ht="31.5">
       <c r="A49" s="68" t="s">
+        <v>980</v>
+      </c>
+      <c r="B49" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="C49" s="72" t="s">
         <v>981</v>
       </c>
-      <c r="B49" s="69" t="s">
-        <v>861</v>
-      </c>
-      <c r="C49" s="72" t="s">
-        <v>982</v>
-      </c>
       <c r="D49" s="72" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="E49" s="30"/>
       <c r="F49" s="30"/>
@@ -20731,16 +20734,16 @@
     </row>
     <row r="50" spans="1:256" s="71" customFormat="1">
       <c r="A50" s="68" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="B50" s="69" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C50" s="69" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="D50" s="69" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="E50" s="69"/>
       <c r="F50" s="69"/>
@@ -20760,44 +20763,44 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.5" style="29" customWidth="1"/>
     <col min="2" max="2" width="33.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="44.3984375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="41.3984375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.59765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="44.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="41.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="4" customWidth="1"/>
     <col min="7" max="7" width="29" style="4" customWidth="1"/>
-    <col min="8" max="256" width="8.8984375" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.8984375" style="19" customWidth="1"/>
+    <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.875" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:256" s="24" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="30" t="s">
         <v>782</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="30" t="s">
         <v>783</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="30" t="s">
         <v>784</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="30" t="s">
         <v>785</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="30" t="s">
         <v>786</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="30" t="s">
         <v>787</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="30" t="s">
         <v>788</v>
       </c>
       <c r="H1" s="23"/>
@@ -21051,549 +21054,549 @@
       <c r="IV1" s="23"/>
     </row>
     <row r="2" spans="1:256" ht="47.25" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="30" t="s">
         <v>435</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="30" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>982</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>983</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="30" t="s">
+        <v>790</v>
+      </c>
+      <c r="G2" s="30"/>
+    </row>
+    <row r="3" spans="1:256" ht="31.5" customHeight="1">
+      <c r="A3" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C3" s="30" t="s">
         <v>984</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
+      <c r="D3" s="30" t="s">
+        <v>985</v>
+      </c>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30" t="s">
         <v>790</v>
       </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:256" ht="31.5" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="G3" s="30"/>
+    </row>
+    <row r="4" spans="1:256" ht="31.5" customHeight="1">
+      <c r="A4" s="30" t="s">
+        <v>441</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C4" s="30" t="s">
         <v>986</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
+      <c r="D4" s="30" t="s">
+        <v>987</v>
+      </c>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30" t="s">
         <v>790</v>
       </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:256" ht="31.5" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>987</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5" spans="1:256" ht="47.25" customHeight="1">
+      <c r="A5" s="30" t="s">
+        <v>456</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>988</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="D5" s="30" t="s">
+        <v>989</v>
+      </c>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30" t="s">
         <v>790</v>
       </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:256" ht="47.25" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="1:256" ht="47.25" customHeight="1">
+      <c r="A6" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>990</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
+      <c r="D6" s="30" t="s">
+        <v>991</v>
+      </c>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30" t="s">
         <v>790</v>
       </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:256" ht="47.25" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>991</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" spans="1:256" ht="31.5" customHeight="1">
+      <c r="A7" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>992</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
+      <c r="D7" s="30" t="s">
+        <v>993</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30" t="s">
         <v>790</v>
       </c>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:256" ht="31.5" customHeight="1">
-      <c r="A7" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" spans="1:256" ht="31.5" customHeight="1">
+      <c r="A8" s="30" t="s">
+        <v>450</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>994</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5" t="s">
+      <c r="D8" s="30" t="s">
+        <v>995</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30" t="s">
         <v>790</v>
       </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:256" ht="31.5" customHeight="1">
-      <c r="A8" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>995</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="G8" s="30"/>
+    </row>
+    <row r="9" spans="1:256" ht="31.5" customHeight="1">
+      <c r="A9" s="30" t="s">
+        <v>453</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>996</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
+      <c r="D9" s="30" t="s">
+        <v>997</v>
+      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30" t="s">
         <v>790</v>
       </c>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:256" ht="31.5" customHeight="1">
-      <c r="A9" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>997</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="G9" s="30"/>
+    </row>
+    <row r="10" spans="1:256" ht="47.25" customHeight="1">
+      <c r="A10" s="30" t="s">
+        <v>459</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>998</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
+      <c r="D10" s="30" t="s">
+        <v>999</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30" t="s">
         <v>790</v>
       </c>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:256" ht="47.25" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>999</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="G10" s="30"/>
+    </row>
+    <row r="11" spans="1:256" ht="47.25" customHeight="1">
+      <c r="A11" s="30" t="s">
         <v>1000</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5" t="s">
+      <c r="B11" s="30" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30" t="s">
         <v>790</v>
       </c>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:256" ht="47.25" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="G11" s="30"/>
+    </row>
+    <row r="12" spans="1:256" ht="47.25" customHeight="1">
+      <c r="A12" s="30" t="s">
+        <v>462</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>1003</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
+      <c r="D12" s="30" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30" t="s">
         <v>790</v>
       </c>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:256" ht="47.25" customHeight="1">
-      <c r="A12" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="G12" s="30"/>
+    </row>
+    <row r="13" spans="1:256" ht="81.75" customHeight="1">
+      <c r="A13" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C13" s="30" t="s">
         <v>1005</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5" t="s">
+      <c r="D13" s="30" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30" t="s">
         <v>790</v>
       </c>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:256" ht="81.75" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="G13" s="30" t="s">
         <v>1007</v>
       </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="5" t="s">
+    </row>
+    <row r="14" spans="1:256" ht="31.5" customHeight="1">
+      <c r="A14" s="30" t="s">
+        <v>468</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30" t="s">
         <v>790</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="14" spans="1:256" ht="31.5" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="G14" s="30"/>
+    </row>
+    <row r="15" spans="1:256" ht="31.5" customHeight="1">
+      <c r="A15" s="30" t="s">
+        <v>502</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C15" s="30" t="s">
         <v>1010</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5" t="s">
+      <c r="D15" s="30" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F15" s="30" t="s">
         <v>790</v>
       </c>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:256" ht="31.5" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>1012</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="G15" s="30" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="16" spans="1:256" ht="47.25" customHeight="1">
+      <c r="A16" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>1013</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="D16" s="30" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30" t="s">
         <v>790</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="16" spans="1:256" ht="47.25" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="G16" s="30"/>
+    </row>
+    <row r="17" spans="1:7" ht="47.25" customHeight="1">
+      <c r="A17" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C17" s="30" t="s">
         <v>1015</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
+      <c r="D17" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F17" s="30" t="s">
         <v>790</v>
       </c>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" ht="47.25" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="G17" s="30" t="s">
         <v>1018</v>
       </c>
-      <c r="F17" s="5" t="s">
+    </row>
+    <row r="18" spans="1:7" ht="31.5" customHeight="1">
+      <c r="A18" s="30" t="s">
+        <v>533</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>532</v>
+      </c>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30" t="s">
         <v>790</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A18" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="G18" s="30"/>
+    </row>
+    <row r="19" spans="1:7" ht="31.5" customHeight="1">
+      <c r="A19" s="30" t="s">
+        <v>536</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C19" s="30" t="s">
         <v>1020</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5" t="s">
+      <c r="D19" s="30" t="s">
+        <v>535</v>
+      </c>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30" t="s">
         <v>790</v>
       </c>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="G19" s="30"/>
+    </row>
+    <row r="20" spans="1:7" ht="31.5" customHeight="1">
+      <c r="A20" s="30" t="s">
+        <v>539</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C20" s="30" t="s">
         <v>1021</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5" t="s">
+      <c r="D20" s="30" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30" t="s">
         <v>790</v>
       </c>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A20" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="G20" s="30"/>
+    </row>
+    <row r="21" spans="1:7" ht="31.5" customHeight="1">
+      <c r="A21" s="30" t="s">
+        <v>542</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C21" s="30" t="s">
         <v>1023</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5" t="s">
+      <c r="D21" s="30" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30" t="s">
         <v>790</v>
       </c>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="G21" s="30"/>
+    </row>
+    <row r="22" spans="1:7" ht="31.5" customHeight="1">
+      <c r="A22" s="30" t="s">
+        <v>547</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C22" s="30" t="s">
         <v>1025</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5" t="s">
+      <c r="D22" s="30" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30" t="s">
         <v>790</v>
       </c>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A22" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="G22" s="30"/>
+    </row>
+    <row r="23" spans="1:7" ht="31.5" customHeight="1">
+      <c r="A23" s="30" t="s">
+        <v>488</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C23" s="30" t="s">
         <v>1027</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5" t="s">
-        <v>790</v>
-      </c>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A23" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="30" t="s">
         <v>544</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" ht="31.2">
-      <c r="A24" s="32" t="s">
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+    </row>
+    <row r="24" spans="1:7" ht="31.5">
+      <c r="A24" s="77" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B24" s="77" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C24" s="77" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D24" s="77" t="s">
         <v>1149</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+    </row>
+    <row r="25" spans="1:7" ht="47.25">
+      <c r="A25" s="77" t="s">
         <v>1150</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="B25" s="77" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C25" s="77" t="s">
         <v>1151</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D25" s="77" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+    </row>
+    <row r="26" spans="1:7" ht="31.5">
+      <c r="A26" s="77" t="s">
         <v>1152</v>
       </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-    </row>
-    <row r="25" spans="1:7" ht="46.8">
-      <c r="A25" s="32" t="s">
+      <c r="B26" s="77" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C26" s="77" t="s">
         <v>1153</v>
       </c>
-      <c r="B25" s="32" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C25" s="32" t="s">
+      <c r="D26" s="77" t="s">
         <v>1154</v>
       </c>
-      <c r="D25" s="32" t="s">
-        <v>1283</v>
-      </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-    </row>
-    <row r="26" spans="1:7" ht="31.2">
-      <c r="A26" s="32" t="s">
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+    </row>
+    <row r="27" spans="1:7" ht="47.25">
+      <c r="A27" s="77" t="s">
         <v>1155</v>
       </c>
-      <c r="B26" s="32" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C26" s="32" t="s">
+      <c r="B27" s="77" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C27" s="77" t="s">
         <v>1156</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D27" s="77" t="s">
         <v>1157</v>
       </c>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-    </row>
-    <row r="27" spans="1:7" ht="46.8">
-      <c r="A27" s="32" t="s">
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+    </row>
+    <row r="28" spans="1:7" ht="47.25">
+      <c r="A28" s="77" t="s">
         <v>1158</v>
       </c>
-      <c r="B27" s="32" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C27" s="32" t="s">
+      <c r="B28" s="77" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C28" s="77" t="s">
         <v>1159</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D28" s="77" t="s">
         <v>1160</v>
       </c>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-    </row>
-    <row r="28" spans="1:7" ht="46.8">
-      <c r="A28" s="32" t="s">
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+    </row>
+    <row r="29" spans="1:7" ht="31.5">
+      <c r="A29" s="77" t="s">
         <v>1161</v>
       </c>
-      <c r="B28" s="32" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C28" s="32" t="s">
+      <c r="B29" s="77" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C29" s="77" t="s">
         <v>1162</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D29" s="77" t="s">
         <v>1163</v>
       </c>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-    </row>
-    <row r="29" spans="1:7" ht="46.8">
-      <c r="A29" s="32" t="s">
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+    </row>
+    <row r="30" spans="1:7" ht="47.25">
+      <c r="A30" s="77" t="s">
         <v>1164</v>
       </c>
-      <c r="B29" s="32" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C29" s="32" t="s">
+      <c r="B30" s="77" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C30" s="77" t="s">
         <v>1165</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D30" s="77" t="s">
         <v>1166</v>
       </c>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-    </row>
-    <row r="30" spans="1:7" ht="46.8">
-      <c r="A30" s="32" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>1169</v>
-      </c>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -21613,16 +21616,16 @@
       <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.8984375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="54.59765625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.8984375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="75.59765625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="132.3984375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="54.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="75.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="132.375" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="256" width="8.8984375" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.8984375" style="19" customWidth="1"/>
+    <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.875" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
@@ -21651,16 +21654,16 @@
     </row>
     <row r="2" spans="1:256" s="61" customFormat="1">
       <c r="A2" s="8" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>1029</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>1030</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>1031</v>
-      </c>
       <c r="D2" s="8" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="E2" s="63"/>
       <c r="F2" s="28" t="s">
@@ -21919,16 +21922,16 @@
     </row>
     <row r="3" spans="1:256">
       <c r="A3" s="5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>1032</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>1033</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="E3" s="64"/>
       <c r="F3" s="3" t="s">
@@ -21936,18 +21939,18 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:256" ht="62.4">
+    <row r="4" spans="1:256" ht="63">
       <c r="A4" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>1034</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>1035</v>
-      </c>
       <c r="D4" s="8" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="E4" s="63"/>
       <c r="F4" s="3" t="s">
@@ -21969,21 +21972,21 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D1:D1048576"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.5" style="25" customWidth="1"/>
-    <col min="2" max="2" width="53.3984375" style="20" customWidth="1"/>
+    <col min="2" max="2" width="53.375" style="20" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="20" customWidth="1"/>
     <col min="4" max="4" width="44.5" style="20" customWidth="1"/>
-    <col min="5" max="5" width="31.8984375" style="20" customWidth="1"/>
-    <col min="6" max="6" width="11.8984375" style="20" customWidth="1"/>
+    <col min="5" max="5" width="58.25" style="20" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="20" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="20" customWidth="1"/>
-    <col min="8" max="256" width="8.8984375" style="20" customWidth="1"/>
-    <col min="257" max="1025" width="8.8984375" style="21" customWidth="1"/>
+    <col min="8" max="256" width="8.875" style="20" customWidth="1"/>
+    <col min="257" max="1025" width="8.875" style="21" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
@@ -22261,23 +22264,23 @@
     </row>
     <row r="2" spans="1:256" ht="31.5" customHeight="1">
       <c r="A2" s="30" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>1036</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="C2" s="30" t="s">
         <v>1037</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="D2" s="30" t="s">
         <v>1038</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>1039</v>
       </c>
       <c r="E2" s="30"/>
       <c r="F2" s="30" t="s">
         <v>790</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1">
@@ -22285,13 +22288,13 @@
         <v>648</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C3" s="30" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>1041</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>1042</v>
       </c>
       <c r="E3" s="30"/>
       <c r="F3" s="30" t="s">
@@ -22304,13 +22307,13 @@
         <v>577</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C4" s="30" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D4" s="30" t="s">
         <v>1043</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>1044</v>
       </c>
       <c r="E4" s="30"/>
       <c r="F4" s="30" t="s">
@@ -22323,13 +22326,13 @@
         <v>580</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C5" s="30" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D5" s="30" t="s">
         <v>1045</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>1046</v>
       </c>
       <c r="E5" s="30"/>
       <c r="F5" s="30" t="s">
@@ -22342,13 +22345,13 @@
         <v>583</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C6" s="30" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D6" s="30" t="s">
         <v>1047</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>1048</v>
       </c>
       <c r="E6" s="30"/>
       <c r="F6" s="30" t="s">
@@ -22356,41 +22359,39 @@
       </c>
       <c r="G6" s="30"/>
     </row>
-    <row r="7" spans="1:256" ht="31.5" customHeight="1">
+    <row r="7" spans="1:256" ht="126">
       <c r="A7" s="30" t="s">
         <v>586</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E7" s="69" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D7" s="31" t="s">
         <v>1306</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>1305</v>
       </c>
       <c r="F7" s="30" t="s">
         <v>790</v>
       </c>
-      <c r="G7" s="31" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:256" ht="31.5" customHeight="1">
+      <c r="G7" s="31"/>
+    </row>
+    <row r="8" spans="1:256" ht="31.5">
       <c r="A8" s="30" t="s">
         <v>591</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="E8" s="30"/>
       <c r="F8" s="30" t="s">
@@ -22403,13 +22404,13 @@
         <v>594</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="30" t="s">
@@ -22422,13 +22423,13 @@
         <v>597</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="30" t="s">
@@ -22441,13 +22442,13 @@
         <v>600</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="30" t="s">
@@ -22460,10 +22461,10 @@
         <v>603</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>602</v>
@@ -22479,22 +22480,22 @@
         <v>606</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F13" s="30" t="s">
         <v>790</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="31.5" customHeight="1">
@@ -22502,20 +22503,20 @@
         <v>615</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="E14" s="30"/>
       <c r="F14" s="30" t="s">
         <v>790</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="15" spans="1:256" ht="31.5" customHeight="1">
@@ -22523,13 +22524,13 @@
         <v>618</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="E15" s="30"/>
       <c r="F15" s="30" t="s">
@@ -22542,13 +22543,13 @@
         <v>651</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30" t="s">
@@ -22558,16 +22559,16 @@
     </row>
     <row r="17" spans="1:7" ht="31.5" customHeight="1">
       <c r="A17" s="30" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D17" s="30" t="s">
         <v>1070</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>1072</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="30" t="s">
@@ -22580,13 +22581,13 @@
         <v>684</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="30" t="s">
@@ -22596,39 +22597,39 @@
     </row>
     <row r="19" spans="1:7" ht="31.5" customHeight="1">
       <c r="A19" s="30" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="E19" s="62" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>790</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="31.2">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="31.5">
       <c r="A20" s="30" t="s">
         <v>721</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="E20"/>
       <c r="F20" s="30" t="s">
@@ -22636,61 +22637,61 @@
       </c>
       <c r="G20" s="30"/>
     </row>
-    <row r="21" spans="1:7" ht="187.2">
+    <row r="21" spans="1:7" ht="47.25">
       <c r="A21" s="30" t="s">
         <v>724</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E21" s="30" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E21" s="31" t="s">
         <v>1304</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>790</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="31.5" customHeight="1">
       <c r="A22" s="30" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D22" s="30" t="s">
         <v>1081</v>
       </c>
-      <c r="B22" s="30" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>1083</v>
-      </c>
       <c r="E22" s="62" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>809</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="31.2">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="31.5">
       <c r="A23" s="30" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C23" s="30" t="s">
         <v>1105</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>1107</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>629</v>
@@ -22701,13 +22702,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="30" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>633</v>
@@ -22718,32 +22719,32 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="30" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>624</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
     </row>
-    <row r="26" spans="1:7" ht="31.2">
+    <row r="26" spans="1:7" ht="31.5">
       <c r="A26" s="30" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>635</v>
@@ -22754,13 +22755,13 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="58" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="D27" s="30" t="s">
         <v>767</v>
@@ -22785,16 +22786,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="19" style="22" customWidth="1"/>
-    <col min="2" max="2" width="53.3984375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="53.375" style="19" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="19" customWidth="1"/>
     <col min="4" max="4" width="25" style="19" customWidth="1"/>
     <col min="5" max="5" width="46" style="19" customWidth="1"/>
-    <col min="6" max="6" width="11.8984375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="19" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="19" customWidth="1"/>
-    <col min="8" max="1025" width="8.8984375" style="19" customWidth="1"/>
+    <col min="8" max="1025" width="8.875" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
@@ -23072,40 +23073,40 @@
     </row>
     <row r="2" spans="1:256">
       <c r="A2" s="7" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>1126</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>1129</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
         <v>790</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="3" spans="1:256">
       <c r="A3" s="7" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>809</v>
@@ -23114,19 +23115,19 @@
     </row>
     <row r="4" spans="1:256">
       <c r="A4" s="6" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>809</v>

--- a/conformancelib/testdata/85b_test_definitions_PIV_Production_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV_Production_Cards.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GSA\GSA_GIT\piv-conformance-pkix-11\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EF78C7-9642-4472-A0FE-6AAFAFD46063}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0825C5C9-DD1E-44F7-AA0A-1F4A71E971C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="2505" windowWidth="26190" windowHeight="13845" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3770" uniqueCount="1308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3773" uniqueCount="1308">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -8528,8 +8528,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView topLeftCell="B336" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D388" sqref="D388"/>
+    <sheetView tabSelected="1" topLeftCell="B317" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F332" sqref="F332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -13642,7 +13642,9 @@
         <v>502</v>
       </c>
       <c r="E285" s="38"/>
-      <c r="F285" s="38"/>
+      <c r="F285" s="38" t="s">
+        <v>1136</v>
+      </c>
       <c r="G285" s="44"/>
     </row>
     <row r="286" spans="1:7" ht="30">
@@ -13946,7 +13948,9 @@
         <v>502</v>
       </c>
       <c r="E303" s="38"/>
-      <c r="F303" s="38"/>
+      <c r="F303" s="38" t="s">
+        <v>1136</v>
+      </c>
       <c r="G303" s="44"/>
     </row>
     <row r="304" spans="1:7" ht="30">
@@ -14435,7 +14439,9 @@
         <v>502</v>
       </c>
       <c r="E332" s="38"/>
-      <c r="F332" s="38"/>
+      <c r="F332" s="38" t="s">
+        <v>1136</v>
+      </c>
       <c r="G332" s="38"/>
     </row>
     <row r="333" spans="1:7" ht="30">
@@ -17193,7 +17199,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AMK55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>

--- a/conformancelib/testdata/85b_test_definitions_PIV_Production_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV_Production_Cards.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GSA\GSA_GIT\piv-conformance-pkix-11\conformancelib\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0825C5C9-DD1E-44F7-AA0A-1F4A71E971C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB742A6-A2F4-4E76-9FC7-593679DE37A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="26025" windowHeight="14550" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -24,14 +24,14 @@
     <sheet name="Placeholders" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Steps Overview'!$D$1:$D$471</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Steps Overview'!$D$1:$D$474</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3773" uniqueCount="1308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3784" uniqueCount="1313">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -3958,6 +3958,21 @@
   <si>
     <t>CARD_HOLDER_UNIQUE_IDENTIFIER_OID:5
 :5</t>
+  </si>
+  <si>
+    <t>10.2.1.15</t>
+  </si>
+  <si>
+    <t>The signed attribute entryUUID matches GUID read from CHUID container.</t>
+  </si>
+  <si>
+    <t>signedAttrs of the SignerInfo includes the entryUUID (OID = 1.3.6.1.1.16.4) attribute.</t>
+  </si>
+  <si>
+    <t>10.3.1.15</t>
+  </si>
+  <si>
+    <t>10.5.1.17</t>
   </si>
 </sst>
 </file>
@@ -4208,7 +4223,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4344,9 +4359,6 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4384,9 +4396,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4441,6 +4450,30 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8526,27 +8559,27 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H471"/>
+  <dimension ref="A1:H474"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B317" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F332" sqref="F332"/>
+    <sheetView tabSelected="1" topLeftCell="B399" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B253" sqref="A253:XFD336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.875" style="52" customWidth="1"/>
-    <col min="2" max="2" width="12" style="50" customWidth="1"/>
-    <col min="3" max="3" width="91.5" style="50" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="50" customWidth="1"/>
-    <col min="5" max="5" width="155.375" style="50" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="62.75" style="50" customWidth="1"/>
-    <col min="7" max="7" width="84.625" style="50" customWidth="1"/>
-    <col min="8" max="8" width="9" style="51"/>
+    <col min="1" max="1" width="17.875" style="51" customWidth="1"/>
+    <col min="2" max="2" width="12" style="49" customWidth="1"/>
+    <col min="3" max="3" width="91.5" style="49" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="49" customWidth="1"/>
+    <col min="5" max="5" width="155.375" style="49" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="62.75" style="49" customWidth="1"/>
+    <col min="7" max="7" width="84.625" style="49" customWidth="1"/>
+    <col min="8" max="8" width="9" style="50"/>
     <col min="9" max="1027" width="8.5" style="34" customWidth="1"/>
     <col min="1028" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="54" customFormat="1" ht="15.75">
+    <row r="1" spans="1:8" s="53" customFormat="1" ht="15.75">
       <c r="A1" s="33" t="s">
         <v>52</v>
       </c>
@@ -8568,7 +8601,7 @@
       <c r="G1" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="53"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" ht="15.75">
       <c r="A2" s="35" t="s">
@@ -11369,7 +11402,7 @@
       <c r="B152" s="38" t="s">
         <v>280</v>
       </c>
-      <c r="C152" s="55" t="s">
+      <c r="C152" s="54" t="s">
         <v>14</v>
       </c>
       <c r="D152" s="38" t="s">
@@ -11390,7 +11423,7 @@
       <c r="B153" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="C153" s="55" t="s">
+      <c r="C153" s="54" t="s">
         <v>15</v>
       </c>
       <c r="D153" s="38" t="s">
@@ -11411,7 +11444,7 @@
       <c r="B154" s="38">
         <v>8.14</v>
       </c>
-      <c r="C154" s="55" t="s">
+      <c r="C154" s="54" t="s">
         <v>283</v>
       </c>
       <c r="D154" s="38" t="s">
@@ -11477,64 +11510,64 @@
       <c r="G157" s="41"/>
     </row>
     <row r="158" spans="1:8" ht="15.75">
-      <c r="A158" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="B158" s="65">
+      <c r="A158" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B158" s="63">
         <v>9.1</v>
       </c>
-      <c r="C158" s="66" t="s">
+      <c r="C158" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="D158" s="66"/>
+      <c r="D158" s="64"/>
       <c r="E158" s="37"/>
       <c r="F158" s="37"/>
       <c r="G158" s="36"/>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="B159" s="65" t="s">
+      <c r="A159" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B159" s="63" t="s">
         <v>285</v>
       </c>
-      <c r="C159" s="67" t="s">
+      <c r="C159" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="D159" s="66"/>
+      <c r="D159" s="64"/>
       <c r="E159" s="37"/>
       <c r="F159" s="37"/>
       <c r="G159" s="37"/>
     </row>
-    <row r="160" spans="1:8" s="76" customFormat="1">
-      <c r="A160" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="B160" s="73" t="s">
+    <row r="160" spans="1:8" s="74" customFormat="1">
+      <c r="A160" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="B160" s="71" t="s">
         <v>286</v>
       </c>
-      <c r="C160" s="73" t="s">
+      <c r="C160" s="71" t="s">
         <v>290</v>
       </c>
-      <c r="D160" s="73">
+      <c r="D160" s="71">
         <v>76.099999999999994</v>
       </c>
-      <c r="E160" s="74"/>
-      <c r="F160" s="74"/>
+      <c r="E160" s="72"/>
+      <c r="F160" s="72"/>
       <c r="G160" s="40"/>
-      <c r="H160" s="75"/>
+      <c r="H160" s="73"/>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="B161" s="65" t="s">
+      <c r="A161" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B161" s="63" t="s">
         <v>289</v>
       </c>
-      <c r="C161" s="65" t="s">
+      <c r="C161" s="63" t="s">
         <v>1295</v>
       </c>
-      <c r="D161" s="65">
+      <c r="D161" s="63">
         <v>76.2</v>
       </c>
       <c r="E161" s="38"/>
@@ -11544,16 +11577,16 @@
       </c>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="B162" s="65" t="s">
+      <c r="A162" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B162" s="63" t="s">
         <v>291</v>
       </c>
-      <c r="C162" s="65" t="s">
+      <c r="C162" s="63" t="s">
         <v>294</v>
       </c>
-      <c r="D162" s="65" t="s">
+      <c r="D162" s="63" t="s">
         <v>864</v>
       </c>
       <c r="E162" s="38"/>
@@ -11561,16 +11594,16 @@
       <c r="G162" s="38"/>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="B163" s="65" t="s">
+      <c r="A163" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B163" s="63" t="s">
         <v>293</v>
       </c>
-      <c r="C163" s="65" t="s">
+      <c r="C163" s="63" t="s">
         <v>1296</v>
       </c>
-      <c r="D163" s="65" t="s">
+      <c r="D163" s="63" t="s">
         <v>1297</v>
       </c>
       <c r="E163" s="38"/>
@@ -11611,22 +11644,22 @@
       <c r="F165" s="41"/>
       <c r="G165" s="41"/>
     </row>
-    <row r="166" spans="1:7" s="51" customFormat="1">
-      <c r="A166" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="B166" s="65" t="s">
+    <row r="166" spans="1:7" s="50" customFormat="1">
+      <c r="A166" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B166" s="63" t="s">
         <v>296</v>
       </c>
-      <c r="C166" s="65" t="s">
+      <c r="C166" s="63" t="s">
         <v>1300</v>
       </c>
-      <c r="D166" s="65" t="s">
+      <c r="D166" s="63" t="s">
         <v>868</v>
       </c>
-      <c r="E166" s="65"/>
-      <c r="F166" s="65"/>
-      <c r="G166" s="65"/>
+      <c r="E166" s="63"/>
+      <c r="F166" s="63"/>
+      <c r="G166" s="63"/>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="38" t="s">
@@ -13084,1541 +13117,1535 @@
       <c r="F252" s="38"/>
       <c r="G252" s="38"/>
     </row>
-    <row r="253" spans="1:7" ht="15.75">
-      <c r="A253" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B253" s="35" t="s">
+    <row r="253" spans="1:7" s="50" customFormat="1" ht="15.75">
+      <c r="A253" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B253" s="76" t="s">
         <v>1261</v>
       </c>
-      <c r="C253" s="36" t="s">
+      <c r="C253" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="D253" s="41"/>
-      <c r="E253" s="41"/>
-      <c r="F253" s="41"/>
-      <c r="G253" s="45"/>
-    </row>
-    <row r="254" spans="1:7">
-      <c r="A254" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B254" s="38">
+      <c r="D253" s="65"/>
+      <c r="E253" s="65"/>
+      <c r="F253" s="65"/>
+      <c r="G253" s="78"/>
+    </row>
+    <row r="254" spans="1:7" s="50" customFormat="1">
+      <c r="A254" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B254" s="63">
         <v>10.1</v>
       </c>
-      <c r="C254" s="37" t="s">
+      <c r="C254" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D254" s="41"/>
-      <c r="E254" s="41"/>
-      <c r="F254" s="41"/>
-      <c r="G254" s="41"/>
-    </row>
-    <row r="255" spans="1:7">
-      <c r="A255" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B255" s="38" t="s">
+      <c r="D254" s="65"/>
+      <c r="E254" s="65"/>
+      <c r="F254" s="65"/>
+      <c r="G254" s="65"/>
+    </row>
+    <row r="255" spans="1:7" s="50" customFormat="1">
+      <c r="A255" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B255" s="63" t="s">
         <v>431</v>
       </c>
-      <c r="C255" s="41" t="s">
+      <c r="C255" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="D255" s="41"/>
-      <c r="E255" s="41"/>
-      <c r="F255" s="41"/>
-      <c r="G255" s="41"/>
-    </row>
-    <row r="256" spans="1:7" ht="30">
-      <c r="A256" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B256" s="38" t="s">
+      <c r="D255" s="65"/>
+      <c r="E255" s="65"/>
+      <c r="F255" s="65"/>
+      <c r="G255" s="65"/>
+    </row>
+    <row r="256" spans="1:7" s="50" customFormat="1" ht="30">
+      <c r="A256" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B256" s="63" t="s">
         <v>432</v>
       </c>
-      <c r="C256" s="44" t="s">
+      <c r="C256" s="79" t="s">
         <v>433</v>
       </c>
-      <c r="D256" s="38" t="s">
+      <c r="D256" s="63" t="s">
         <v>435</v>
       </c>
-      <c r="E256" s="38"/>
-      <c r="F256" s="38"/>
-      <c r="G256" s="44" t="s">
+      <c r="E256" s="63"/>
+      <c r="F256" s="63"/>
+      <c r="G256" s="79" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
-      <c r="A257" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B257" s="38" t="s">
+    <row r="257" spans="1:7" s="50" customFormat="1">
+      <c r="A257" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B257" s="63" t="s">
         <v>436</v>
       </c>
-      <c r="C257" s="44" t="s">
+      <c r="C257" s="79" t="s">
         <v>437</v>
       </c>
-      <c r="D257" s="38" t="s">
+      <c r="D257" s="63" t="s">
         <v>438</v>
       </c>
-      <c r="E257" s="38"/>
-      <c r="F257" s="38"/>
-      <c r="G257" s="44"/>
-    </row>
-    <row r="258" spans="1:7">
-      <c r="A258" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B258" s="38" t="s">
+      <c r="E257" s="63"/>
+      <c r="F257" s="63"/>
+      <c r="G257" s="79"/>
+    </row>
+    <row r="258" spans="1:7" s="50" customFormat="1">
+      <c r="A258" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B258" s="63" t="s">
         <v>439</v>
       </c>
-      <c r="C258" s="44" t="s">
+      <c r="C258" s="79" t="s">
         <v>440</v>
       </c>
-      <c r="D258" s="38" t="s">
+      <c r="D258" s="63" t="s">
         <v>441</v>
       </c>
-      <c r="E258" s="59" t="s">
+      <c r="E258" s="80" t="s">
         <v>1272</v>
       </c>
-      <c r="F258" s="38"/>
-      <c r="G258" s="44"/>
-    </row>
-    <row r="259" spans="1:7" ht="30">
-      <c r="A259" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B259" s="38" t="s">
+      <c r="F258" s="63"/>
+      <c r="G258" s="79"/>
+    </row>
+    <row r="259" spans="1:7" s="50" customFormat="1" ht="30">
+      <c r="A259" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B259" s="63" t="s">
         <v>442</v>
       </c>
-      <c r="C259" s="44" t="s">
+      <c r="C259" s="79" t="s">
         <v>443</v>
       </c>
-      <c r="D259" s="38" t="s">
+      <c r="D259" s="63" t="s">
         <v>444</v>
       </c>
-      <c r="E259" s="38"/>
-      <c r="F259" s="38"/>
-      <c r="G259" s="44"/>
-    </row>
-    <row r="260" spans="1:7">
-      <c r="A260" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B260" s="38" t="s">
+      <c r="E259" s="63"/>
+      <c r="F259" s="63"/>
+      <c r="G259" s="79"/>
+    </row>
+    <row r="260" spans="1:7" s="50" customFormat="1">
+      <c r="A260" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B260" s="63" t="s">
         <v>445</v>
       </c>
-      <c r="C260" s="44" t="s">
+      <c r="C260" s="79" t="s">
         <v>446</v>
       </c>
-      <c r="D260" s="38" t="s">
+      <c r="D260" s="63" t="s">
         <v>447</v>
       </c>
-      <c r="E260" s="38"/>
-      <c r="F260" s="38"/>
-      <c r="G260" s="44"/>
-    </row>
-    <row r="261" spans="1:7">
-      <c r="A261" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B261" s="38" t="s">
+      <c r="E260" s="63"/>
+      <c r="F260" s="63"/>
+      <c r="G260" s="79"/>
+    </row>
+    <row r="261" spans="1:7" s="50" customFormat="1">
+      <c r="A261" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B261" s="63" t="s">
         <v>448</v>
       </c>
-      <c r="C261" s="44" t="s">
+      <c r="C261" s="79" t="s">
         <v>449</v>
       </c>
-      <c r="D261" s="38" t="s">
+      <c r="D261" s="63" t="s">
         <v>450</v>
       </c>
-      <c r="E261" s="38"/>
-      <c r="F261" s="38"/>
-      <c r="G261" s="44"/>
-    </row>
-    <row r="262" spans="1:7" ht="30">
-      <c r="A262" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B262" s="38" t="s">
+      <c r="E261" s="63"/>
+      <c r="F261" s="63"/>
+      <c r="G261" s="79"/>
+    </row>
+    <row r="262" spans="1:7" s="50" customFormat="1" ht="30">
+      <c r="A262" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B262" s="63" t="s">
         <v>451</v>
       </c>
-      <c r="C262" s="44" t="s">
+      <c r="C262" s="79" t="s">
         <v>452</v>
       </c>
-      <c r="D262" s="38" t="s">
+      <c r="D262" s="63" t="s">
         <v>453</v>
       </c>
-      <c r="E262" s="38"/>
-      <c r="F262" s="38"/>
-      <c r="G262" s="44"/>
-    </row>
-    <row r="263" spans="1:7">
-      <c r="A263" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B263" s="38" t="s">
+      <c r="E262" s="63"/>
+      <c r="F262" s="63"/>
+      <c r="G262" s="79"/>
+    </row>
+    <row r="263" spans="1:7" s="50" customFormat="1">
+      <c r="A263" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B263" s="63" t="s">
         <v>454</v>
       </c>
-      <c r="C263" s="44" t="s">
+      <c r="C263" s="79" t="s">
         <v>1277</v>
       </c>
-      <c r="D263" s="38" t="s">
+      <c r="D263" s="63" t="s">
         <v>456</v>
       </c>
-      <c r="E263" s="59" t="s">
+      <c r="E263" s="80" t="s">
         <v>1272</v>
       </c>
-      <c r="F263" s="38"/>
-      <c r="G263" s="44"/>
-    </row>
-    <row r="264" spans="1:7" ht="30">
-      <c r="A264" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B264" s="38" t="s">
+      <c r="F263" s="63"/>
+      <c r="G263" s="79"/>
+    </row>
+    <row r="264" spans="1:7" s="50" customFormat="1" ht="30">
+      <c r="A264" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B264" s="63" t="s">
         <v>1278</v>
       </c>
-      <c r="C264" s="44" t="s">
+      <c r="C264" s="79" t="s">
         <v>1279</v>
       </c>
-      <c r="D264" s="38" t="s">
+      <c r="D264" s="63" t="s">
         <v>1150</v>
       </c>
-      <c r="E264" s="38"/>
-      <c r="F264" s="38"/>
-      <c r="G264" s="44"/>
-    </row>
-    <row r="265" spans="1:7" ht="45">
-      <c r="A265" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B265" s="38" t="s">
+      <c r="E264" s="63"/>
+      <c r="F264" s="63"/>
+      <c r="G264" s="79"/>
+    </row>
+    <row r="265" spans="1:7" s="50" customFormat="1" ht="45">
+      <c r="A265" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B265" s="63" t="s">
         <v>457</v>
       </c>
-      <c r="C265" s="44" t="s">
+      <c r="C265" s="79" t="s">
         <v>458</v>
       </c>
-      <c r="D265" s="38" t="s">
+      <c r="D265" s="63" t="s">
         <v>459</v>
       </c>
-      <c r="E265" s="38"/>
-      <c r="F265" s="38"/>
-      <c r="G265" s="44"/>
-    </row>
-    <row r="266" spans="1:7" ht="30">
-      <c r="A266" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B266" s="38" t="s">
+      <c r="E265" s="63"/>
+      <c r="F265" s="63"/>
+      <c r="G265" s="79"/>
+    </row>
+    <row r="266" spans="1:7" s="50" customFormat="1" ht="30">
+      <c r="A266" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B266" s="63" t="s">
         <v>460</v>
       </c>
-      <c r="C266" s="44" t="s">
+      <c r="C266" s="79" t="s">
         <v>461</v>
       </c>
-      <c r="D266" s="38" t="s">
+      <c r="D266" s="63" t="s">
         <v>462</v>
       </c>
-      <c r="E266" s="38"/>
-      <c r="F266" s="38"/>
-      <c r="G266" s="44"/>
-    </row>
-    <row r="267" spans="1:7" ht="45">
-      <c r="A267" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B267" s="38" t="s">
+      <c r="E266" s="63"/>
+      <c r="F266" s="63"/>
+      <c r="G266" s="79"/>
+    </row>
+    <row r="267" spans="1:7" s="50" customFormat="1" ht="45">
+      <c r="A267" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B267" s="63" t="s">
         <v>466</v>
       </c>
-      <c r="C267" s="44" t="s">
+      <c r="C267" s="79" t="s">
         <v>464</v>
       </c>
-      <c r="D267" s="38" t="s">
+      <c r="D267" s="63" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E267" s="80" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F267" s="63"/>
+      <c r="G267" s="79"/>
+    </row>
+    <row r="268" spans="1:7" s="50" customFormat="1">
+      <c r="A268" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B268" s="63" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C268" s="79" t="s">
+        <v>467</v>
+      </c>
+      <c r="D268" s="63" t="s">
+        <v>468</v>
+      </c>
+      <c r="E268" s="63"/>
+      <c r="F268" s="63"/>
+      <c r="G268" s="79"/>
+    </row>
+    <row r="269" spans="1:7" s="50" customFormat="1">
+      <c r="A269" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B269" s="63">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C269" s="64" t="s">
+        <v>469</v>
+      </c>
+      <c r="D269" s="65"/>
+      <c r="E269" s="65"/>
+      <c r="F269" s="65"/>
+      <c r="G269" s="65"/>
+    </row>
+    <row r="270" spans="1:7" s="50" customFormat="1">
+      <c r="A270" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B270" s="63" t="s">
+        <v>470</v>
+      </c>
+      <c r="C270" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="D270" s="65"/>
+      <c r="E270" s="65"/>
+      <c r="F270" s="65"/>
+      <c r="G270" s="65"/>
+    </row>
+    <row r="271" spans="1:7" s="50" customFormat="1" ht="30">
+      <c r="A271" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B271" s="63" t="s">
+        <v>471</v>
+      </c>
+      <c r="C271" s="79" t="s">
+        <v>472</v>
+      </c>
+      <c r="D271" s="63" t="s">
+        <v>435</v>
+      </c>
+      <c r="E271" s="63"/>
+      <c r="F271" s="63"/>
+      <c r="G271" s="79" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" s="50" customFormat="1">
+      <c r="A272" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B272" s="63" t="s">
+        <v>474</v>
+      </c>
+      <c r="C272" s="79" t="s">
+        <v>475</v>
+      </c>
+      <c r="D272" s="63" t="s">
+        <v>438</v>
+      </c>
+      <c r="E272" s="63"/>
+      <c r="F272" s="63"/>
+      <c r="G272" s="79"/>
+    </row>
+    <row r="273" spans="1:7" s="50" customFormat="1">
+      <c r="A273" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B273" s="63" t="s">
+        <v>476</v>
+      </c>
+      <c r="C273" s="79" t="s">
+        <v>477</v>
+      </c>
+      <c r="D273" s="63" t="s">
+        <v>441</v>
+      </c>
+      <c r="E273" s="63"/>
+      <c r="F273" s="63"/>
+      <c r="G273" s="79"/>
+    </row>
+    <row r="274" spans="1:7" s="50" customFormat="1" ht="30">
+      <c r="A274" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B274" s="63" t="s">
+        <v>478</v>
+      </c>
+      <c r="C274" s="79" t="s">
+        <v>479</v>
+      </c>
+      <c r="D274" s="63" t="s">
+        <v>444</v>
+      </c>
+      <c r="E274" s="63"/>
+      <c r="F274" s="63"/>
+      <c r="G274" s="79"/>
+    </row>
+    <row r="275" spans="1:7" s="50" customFormat="1">
+      <c r="A275" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B275" s="63" t="s">
+        <v>480</v>
+      </c>
+      <c r="C275" s="79" t="s">
+        <v>446</v>
+      </c>
+      <c r="D275" s="63" t="s">
+        <v>447</v>
+      </c>
+      <c r="E275" s="63"/>
+      <c r="F275" s="63"/>
+      <c r="G275" s="79"/>
+    </row>
+    <row r="276" spans="1:7" s="50" customFormat="1">
+      <c r="A276" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B276" s="63" t="s">
+        <v>481</v>
+      </c>
+      <c r="C276" s="79" t="s">
+        <v>449</v>
+      </c>
+      <c r="D276" s="63" t="s">
+        <v>450</v>
+      </c>
+      <c r="E276" s="63"/>
+      <c r="F276" s="63"/>
+      <c r="G276" s="79"/>
+    </row>
+    <row r="277" spans="1:7" s="50" customFormat="1">
+      <c r="A277" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B277" s="63" t="s">
+        <v>482</v>
+      </c>
+      <c r="C277" s="79" t="s">
+        <v>483</v>
+      </c>
+      <c r="D277" s="63" t="s">
+        <v>453</v>
+      </c>
+      <c r="E277" s="63"/>
+      <c r="F277" s="63"/>
+      <c r="G277" s="79"/>
+    </row>
+    <row r="278" spans="1:7" s="50" customFormat="1">
+      <c r="A278" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B278" s="63" t="s">
+        <v>484</v>
+      </c>
+      <c r="C278" s="79" t="s">
+        <v>485</v>
+      </c>
+      <c r="D278" s="63" t="s">
+        <v>459</v>
+      </c>
+      <c r="E278" s="63"/>
+      <c r="F278" s="63"/>
+      <c r="G278" s="79"/>
+    </row>
+    <row r="279" spans="1:7" s="50" customFormat="1">
+      <c r="A279" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B279" s="63" t="s">
+        <v>486</v>
+      </c>
+      <c r="C279" s="79" t="s">
+        <v>487</v>
+      </c>
+      <c r="D279" s="63" t="s">
+        <v>488</v>
+      </c>
+      <c r="E279" s="63"/>
+      <c r="F279" s="63"/>
+      <c r="G279" s="79"/>
+    </row>
+    <row r="280" spans="1:7" s="50" customFormat="1" ht="30">
+      <c r="A280" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B280" s="63" t="s">
+        <v>489</v>
+      </c>
+      <c r="C280" s="79" t="s">
+        <v>490</v>
+      </c>
+      <c r="D280" s="63" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E280" s="63"/>
+      <c r="F280" s="63"/>
+      <c r="G280" s="79"/>
+    </row>
+    <row r="281" spans="1:7" s="50" customFormat="1" ht="30">
+      <c r="A281" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B281" s="63" t="s">
+        <v>491</v>
+      </c>
+      <c r="C281" s="79" t="s">
+        <v>492</v>
+      </c>
+      <c r="D281" s="63" t="s">
+        <v>493</v>
+      </c>
+      <c r="E281" s="63"/>
+      <c r="F281" s="63"/>
+      <c r="G281" s="79"/>
+    </row>
+    <row r="282" spans="1:7" s="50" customFormat="1" ht="30">
+      <c r="A282" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B282" s="63" t="s">
+        <v>494</v>
+      </c>
+      <c r="C282" s="63" t="s">
+        <v>495</v>
+      </c>
+      <c r="D282" s="63" t="s">
+        <v>462</v>
+      </c>
+      <c r="E282" s="63"/>
+      <c r="F282" s="63"/>
+      <c r="G282" s="63"/>
+    </row>
+    <row r="283" spans="1:7" s="50" customFormat="1" ht="45">
+      <c r="A283" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B283" s="63" t="s">
+        <v>496</v>
+      </c>
+      <c r="C283" s="79" t="s">
+        <v>497</v>
+      </c>
+      <c r="D283" s="63" t="s">
         <v>465</v>
       </c>
-      <c r="E267" s="59" t="s">
-        <v>1272</v>
-      </c>
-      <c r="F267" s="38"/>
-      <c r="G267" s="44"/>
-    </row>
-    <row r="268" spans="1:7">
-      <c r="A268" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B268" s="38" t="s">
-        <v>1281</v>
-      </c>
-      <c r="C268" s="44" t="s">
-        <v>467</v>
-      </c>
-      <c r="D268" s="38" t="s">
+      <c r="E283" s="63"/>
+      <c r="F283" s="63"/>
+      <c r="G283" s="79"/>
+    </row>
+    <row r="284" spans="1:7" s="50" customFormat="1" ht="45">
+      <c r="A284" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B284" s="63" t="s">
+        <v>498</v>
+      </c>
+      <c r="C284" s="63" t="s">
+        <v>499</v>
+      </c>
+      <c r="D284" s="50" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E284" s="63"/>
+      <c r="F284" s="63"/>
+      <c r="G284" s="63"/>
+    </row>
+    <row r="285" spans="1:7" s="50" customFormat="1" ht="45">
+      <c r="A285" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B285" s="63" t="s">
+        <v>500</v>
+      </c>
+      <c r="C285" s="79" t="s">
+        <v>501</v>
+      </c>
+      <c r="D285" s="63" t="s">
         <v>468</v>
       </c>
-      <c r="E268" s="38"/>
-      <c r="F268" s="38"/>
-      <c r="G268" s="44"/>
-    </row>
-    <row r="269" spans="1:7">
-      <c r="A269" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B269" s="38">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="C269" s="37" t="s">
-        <v>469</v>
-      </c>
-      <c r="D269" s="41"/>
-      <c r="E269" s="41"/>
-      <c r="F269" s="41"/>
-      <c r="G269" s="41"/>
-    </row>
-    <row r="270" spans="1:7">
-      <c r="A270" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B270" s="38" t="s">
-        <v>470</v>
-      </c>
-      <c r="C270" s="41" t="s">
+      <c r="E285" s="63"/>
+      <c r="F285" s="63"/>
+      <c r="G285" s="79"/>
+    </row>
+    <row r="286" spans="1:7" s="50" customFormat="1" ht="30">
+      <c r="A286" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B286" s="63" t="s">
+        <v>503</v>
+      </c>
+      <c r="C286" s="79" t="s">
+        <v>504</v>
+      </c>
+      <c r="D286" s="63" t="s">
+        <v>505</v>
+      </c>
+      <c r="E286" s="63"/>
+      <c r="F286" s="63"/>
+      <c r="G286" s="79" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" s="50" customFormat="1">
+      <c r="A287" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B287" s="63" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C287" s="79" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D287" s="63" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E287" s="63"/>
+      <c r="F287" s="63"/>
+      <c r="G287" s="79"/>
+    </row>
+    <row r="288" spans="1:7" s="50" customFormat="1">
+      <c r="A288" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B288" s="63">
+        <v>10.3</v>
+      </c>
+      <c r="C288" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="D288" s="65"/>
+      <c r="E288" s="65"/>
+      <c r="F288" s="65"/>
+      <c r="G288" s="65"/>
+    </row>
+    <row r="289" spans="1:7" s="50" customFormat="1">
+      <c r="A289" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B289" s="63" t="s">
+        <v>506</v>
+      </c>
+      <c r="C289" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="D270" s="41"/>
-      <c r="E270" s="41"/>
-      <c r="F270" s="41"/>
-      <c r="G270" s="41"/>
-    </row>
-    <row r="271" spans="1:7" ht="30">
-      <c r="A271" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B271" s="38" t="s">
-        <v>471</v>
-      </c>
-      <c r="C271" s="44" t="s">
+      <c r="D289" s="65"/>
+      <c r="E289" s="65"/>
+      <c r="F289" s="65"/>
+      <c r="G289" s="65"/>
+    </row>
+    <row r="290" spans="1:7" s="50" customFormat="1" ht="30">
+      <c r="A290" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B290" s="63" t="s">
+        <v>507</v>
+      </c>
+      <c r="C290" s="79" t="s">
         <v>472</v>
       </c>
-      <c r="D271" s="38" t="s">
+      <c r="D290" s="63" t="s">
         <v>435</v>
       </c>
-      <c r="E271" s="38"/>
-      <c r="F271" s="38"/>
-      <c r="G271" s="44" t="s">
+      <c r="E290" s="63"/>
+      <c r="F290" s="63"/>
+      <c r="G290" s="79" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
-      <c r="A272" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B272" s="38" t="s">
-        <v>474</v>
-      </c>
-      <c r="C272" s="44" t="s">
+    <row r="291" spans="1:7" s="50" customFormat="1">
+      <c r="A291" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B291" s="63" t="s">
+        <v>508</v>
+      </c>
+      <c r="C291" s="79" t="s">
         <v>475</v>
       </c>
-      <c r="D272" s="38" t="s">
+      <c r="D291" s="63" t="s">
         <v>438</v>
       </c>
-      <c r="E272" s="38"/>
-      <c r="F272" s="38"/>
-      <c r="G272" s="44"/>
-    </row>
-    <row r="273" spans="1:7">
-      <c r="A273" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B273" s="38" t="s">
-        <v>476</v>
-      </c>
-      <c r="C273" s="44" t="s">
+      <c r="E291" s="63"/>
+      <c r="F291" s="63"/>
+      <c r="G291" s="79"/>
+    </row>
+    <row r="292" spans="1:7" s="50" customFormat="1">
+      <c r="A292" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B292" s="63" t="s">
+        <v>509</v>
+      </c>
+      <c r="C292" s="79" t="s">
         <v>477</v>
       </c>
-      <c r="D273" s="38" t="s">
+      <c r="D292" s="63" t="s">
         <v>441</v>
       </c>
-      <c r="E273" s="38"/>
-      <c r="F273" s="38"/>
-      <c r="G273" s="44"/>
-    </row>
-    <row r="274" spans="1:7" ht="30">
-      <c r="A274" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B274" s="38" t="s">
-        <v>478</v>
-      </c>
-      <c r="C274" s="44" t="s">
+      <c r="E292" s="63"/>
+      <c r="F292" s="63"/>
+      <c r="G292" s="79"/>
+    </row>
+    <row r="293" spans="1:7" s="50" customFormat="1" ht="30">
+      <c r="A293" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B293" s="63" t="s">
+        <v>510</v>
+      </c>
+      <c r="C293" s="79" t="s">
         <v>479</v>
       </c>
-      <c r="D274" s="38" t="s">
+      <c r="D293" s="63" t="s">
         <v>444</v>
       </c>
-      <c r="E274" s="38"/>
-      <c r="F274" s="38"/>
-      <c r="G274" s="44"/>
-    </row>
-    <row r="275" spans="1:7">
-      <c r="A275" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B275" s="38" t="s">
-        <v>480</v>
-      </c>
-      <c r="C275" s="44" t="s">
+      <c r="E293" s="63"/>
+      <c r="F293" s="63"/>
+      <c r="G293" s="79"/>
+    </row>
+    <row r="294" spans="1:7" s="50" customFormat="1">
+      <c r="A294" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B294" s="63" t="s">
+        <v>511</v>
+      </c>
+      <c r="C294" s="79" t="s">
         <v>446</v>
       </c>
-      <c r="D275" s="38" t="s">
+      <c r="D294" s="63" t="s">
         <v>447</v>
       </c>
-      <c r="E275" s="38"/>
-      <c r="F275" s="38"/>
-      <c r="G275" s="44"/>
-    </row>
-    <row r="276" spans="1:7">
-      <c r="A276" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B276" s="38" t="s">
-        <v>481</v>
-      </c>
-      <c r="C276" s="44" t="s">
+      <c r="E294" s="63"/>
+      <c r="F294" s="63"/>
+      <c r="G294" s="79"/>
+    </row>
+    <row r="295" spans="1:7" s="50" customFormat="1">
+      <c r="A295" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B295" s="63" t="s">
+        <v>512</v>
+      </c>
+      <c r="C295" s="79" t="s">
         <v>449</v>
       </c>
-      <c r="D276" s="38" t="s">
+      <c r="D295" s="63" t="s">
         <v>450</v>
       </c>
-      <c r="E276" s="38"/>
-      <c r="F276" s="38"/>
-      <c r="G276" s="44"/>
-    </row>
-    <row r="277" spans="1:7">
-      <c r="A277" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B277" s="38" t="s">
-        <v>482</v>
-      </c>
-      <c r="C277" s="44" t="s">
+      <c r="E295" s="63"/>
+      <c r="F295" s="63"/>
+      <c r="G295" s="79"/>
+    </row>
+    <row r="296" spans="1:7" s="50" customFormat="1">
+      <c r="A296" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B296" s="63" t="s">
+        <v>513</v>
+      </c>
+      <c r="C296" s="79" t="s">
         <v>483</v>
       </c>
-      <c r="D277" s="38" t="s">
+      <c r="D296" s="63" t="s">
         <v>453</v>
       </c>
-      <c r="E277" s="38"/>
-      <c r="F277" s="38"/>
-      <c r="G277" s="44"/>
-    </row>
-    <row r="278" spans="1:7">
-      <c r="A278" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B278" s="38" t="s">
-        <v>484</v>
-      </c>
-      <c r="C278" s="44" t="s">
+      <c r="E296" s="63"/>
+      <c r="F296" s="63"/>
+      <c r="G296" s="79"/>
+    </row>
+    <row r="297" spans="1:7" s="50" customFormat="1">
+      <c r="A297" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B297" s="63" t="s">
+        <v>514</v>
+      </c>
+      <c r="C297" s="79" t="s">
         <v>485</v>
       </c>
-      <c r="D278" s="38" t="s">
+      <c r="D297" s="63" t="s">
         <v>459</v>
       </c>
-      <c r="E278" s="38"/>
-      <c r="F278" s="38"/>
-      <c r="G278" s="44"/>
-    </row>
-    <row r="279" spans="1:7">
-      <c r="A279" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B279" s="38" t="s">
-        <v>486</v>
-      </c>
-      <c r="C279" s="44" t="s">
+      <c r="E297" s="63"/>
+      <c r="F297" s="63"/>
+      <c r="G297" s="79"/>
+    </row>
+    <row r="298" spans="1:7" s="50" customFormat="1">
+      <c r="A298" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B298" s="63" t="s">
+        <v>515</v>
+      </c>
+      <c r="C298" s="79" t="s">
         <v>487</v>
       </c>
-      <c r="D279" s="38" t="s">
+      <c r="D298" s="63" t="s">
         <v>488</v>
       </c>
-      <c r="E279" s="38"/>
-      <c r="F279" s="38"/>
-      <c r="G279" s="44"/>
-    </row>
-    <row r="280" spans="1:7" ht="30">
-      <c r="A280" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B280" s="38" t="s">
-        <v>489</v>
-      </c>
-      <c r="C280" s="44" t="s">
+      <c r="E298" s="63"/>
+      <c r="F298" s="63"/>
+      <c r="G298" s="79"/>
+    </row>
+    <row r="299" spans="1:7" s="50" customFormat="1" ht="30">
+      <c r="A299" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B299" s="63" t="s">
+        <v>516</v>
+      </c>
+      <c r="C299" s="79" t="s">
         <v>490</v>
       </c>
-      <c r="D280" s="38" t="s">
+      <c r="D299" s="63" t="s">
         <v>1150</v>
       </c>
-      <c r="E280" s="38"/>
-      <c r="F280" s="38"/>
-      <c r="G280" s="44"/>
-    </row>
-    <row r="281" spans="1:7" ht="30">
-      <c r="A281" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B281" s="38" t="s">
-        <v>491</v>
-      </c>
-      <c r="C281" s="44" t="s">
+      <c r="E299" s="63"/>
+      <c r="F299" s="63"/>
+      <c r="G299" s="79"/>
+    </row>
+    <row r="300" spans="1:7" s="50" customFormat="1" ht="30">
+      <c r="A300" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B300" s="63" t="s">
+        <v>517</v>
+      </c>
+      <c r="C300" s="79" t="s">
         <v>492</v>
       </c>
-      <c r="D281" s="38" t="s">
+      <c r="D300" s="63" t="s">
         <v>493</v>
       </c>
-      <c r="E281" s="38"/>
-      <c r="F281" s="38"/>
-      <c r="G281" s="44"/>
-    </row>
-    <row r="282" spans="1:7" ht="30">
-      <c r="A282" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B282" s="38" t="s">
-        <v>494</v>
-      </c>
-      <c r="C282" s="38" t="s">
+      <c r="E300" s="63"/>
+      <c r="F300" s="63"/>
+      <c r="G300" s="79"/>
+    </row>
+    <row r="301" spans="1:7" s="50" customFormat="1" ht="30">
+      <c r="A301" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B301" s="63" t="s">
+        <v>518</v>
+      </c>
+      <c r="C301" s="63" t="s">
         <v>495</v>
       </c>
-      <c r="D282" s="38" t="s">
+      <c r="D301" s="63" t="s">
         <v>462</v>
       </c>
-      <c r="E282" s="38"/>
-      <c r="F282" s="38"/>
-      <c r="G282" s="38"/>
-    </row>
-    <row r="283" spans="1:7" ht="45">
-      <c r="A283" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B283" s="38" t="s">
-        <v>496</v>
-      </c>
-      <c r="C283" s="44" t="s">
+      <c r="E301" s="63"/>
+      <c r="F301" s="63"/>
+      <c r="G301" s="63"/>
+    </row>
+    <row r="302" spans="1:7" s="50" customFormat="1" ht="45">
+      <c r="A302" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B302" s="63" t="s">
+        <v>519</v>
+      </c>
+      <c r="C302" s="79" t="s">
         <v>497</v>
       </c>
-      <c r="D283" s="38" t="s">
+      <c r="D302" s="63" t="s">
         <v>465</v>
       </c>
-      <c r="E283" s="38"/>
-      <c r="F283" s="38"/>
-      <c r="G283" s="44"/>
-    </row>
-    <row r="284" spans="1:7" ht="45">
-      <c r="A284" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B284" s="38" t="s">
-        <v>498</v>
-      </c>
-      <c r="C284" s="38" t="s">
+      <c r="E302" s="63"/>
+      <c r="F302" s="63"/>
+      <c r="G302" s="79"/>
+    </row>
+    <row r="303" spans="1:7" s="50" customFormat="1" ht="45">
+      <c r="A303" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B303" s="63" t="s">
+        <v>520</v>
+      </c>
+      <c r="C303" s="63" t="s">
         <v>499</v>
       </c>
-      <c r="D284" s="38" t="s">
+      <c r="D303" s="63" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E303" s="63"/>
+      <c r="F303" s="63"/>
+      <c r="G303" s="63"/>
+    </row>
+    <row r="304" spans="1:7" s="50" customFormat="1" ht="45">
+      <c r="A304" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B304" s="63" t="s">
+        <v>521</v>
+      </c>
+      <c r="C304" s="79" t="s">
+        <v>501</v>
+      </c>
+      <c r="D304" s="63" t="s">
         <v>468</v>
       </c>
-      <c r="E284" s="38"/>
-      <c r="F284" s="38"/>
-      <c r="G284" s="38"/>
-    </row>
-    <row r="285" spans="1:7" ht="45">
-      <c r="A285" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B285" s="38" t="s">
-        <v>500</v>
-      </c>
-      <c r="C285" s="44" t="s">
+      <c r="E304" s="63"/>
+      <c r="F304" s="63" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G304" s="79"/>
+    </row>
+    <row r="305" spans="1:7" s="50" customFormat="1">
+      <c r="A305" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B305" s="63" t="s">
+        <v>522</v>
+      </c>
+      <c r="C305" s="79" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D305" s="63" t="s">
+        <v>505</v>
+      </c>
+      <c r="E305" s="63"/>
+      <c r="F305" s="63" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G305" s="79"/>
+    </row>
+    <row r="306" spans="1:7" s="50" customFormat="1">
+      <c r="A306" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B306" s="63" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C306" s="79" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D306" s="63" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E306" s="63"/>
+      <c r="F306" s="63"/>
+      <c r="G306" s="79"/>
+    </row>
+    <row r="307" spans="1:7" s="50" customFormat="1">
+      <c r="A307" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B307" s="63">
+        <v>10.4</v>
+      </c>
+      <c r="C307" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D307" s="65"/>
+      <c r="E307" s="65"/>
+      <c r="F307" s="65"/>
+      <c r="G307" s="65"/>
+    </row>
+    <row r="308" spans="1:7" s="50" customFormat="1">
+      <c r="A308" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B308" s="63" t="s">
+        <v>523</v>
+      </c>
+      <c r="C308" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="D308" s="65"/>
+      <c r="E308" s="65"/>
+      <c r="F308" s="65"/>
+      <c r="G308" s="65"/>
+    </row>
+    <row r="309" spans="1:7" s="50" customFormat="1" ht="30">
+      <c r="A309" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B309" s="63" t="s">
+        <v>524</v>
+      </c>
+      <c r="C309" s="79" t="s">
+        <v>525</v>
+      </c>
+      <c r="D309" s="63" t="s">
+        <v>526</v>
+      </c>
+      <c r="E309" s="63"/>
+      <c r="F309" s="63"/>
+      <c r="G309" s="79"/>
+    </row>
+    <row r="310" spans="1:7" s="50" customFormat="1">
+      <c r="A310" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B310" s="63" t="s">
+        <v>527</v>
+      </c>
+      <c r="C310" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="D310" s="65"/>
+      <c r="E310" s="65"/>
+      <c r="F310" s="65"/>
+      <c r="G310" s="65"/>
+    </row>
+    <row r="311" spans="1:7" s="50" customFormat="1" ht="30">
+      <c r="A311" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B311" s="63" t="s">
+        <v>528</v>
+      </c>
+      <c r="C311" s="63" t="s">
+        <v>529</v>
+      </c>
+      <c r="D311" s="63" t="s">
+        <v>435</v>
+      </c>
+      <c r="E311" s="81"/>
+      <c r="F311" s="81"/>
+      <c r="G311" s="63" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" s="50" customFormat="1">
+      <c r="A312" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B312" s="63" t="s">
+        <v>531</v>
+      </c>
+      <c r="C312" s="79" t="s">
+        <v>532</v>
+      </c>
+      <c r="D312" s="63" t="s">
+        <v>533</v>
+      </c>
+      <c r="E312" s="63"/>
+      <c r="F312" s="63"/>
+      <c r="G312" s="79"/>
+    </row>
+    <row r="313" spans="1:7" s="50" customFormat="1">
+      <c r="A313" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B313" s="63" t="s">
+        <v>534</v>
+      </c>
+      <c r="C313" s="79" t="s">
+        <v>535</v>
+      </c>
+      <c r="D313" s="63" t="s">
+        <v>536</v>
+      </c>
+      <c r="E313" s="63"/>
+      <c r="F313" s="63"/>
+      <c r="G313" s="79"/>
+    </row>
+    <row r="314" spans="1:7" s="50" customFormat="1" ht="30">
+      <c r="A314" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B314" s="63" t="s">
+        <v>537</v>
+      </c>
+      <c r="C314" s="79" t="s">
+        <v>538</v>
+      </c>
+      <c r="D314" s="63" t="s">
+        <v>539</v>
+      </c>
+      <c r="E314" s="63"/>
+      <c r="F314" s="63"/>
+      <c r="G314" s="79"/>
+    </row>
+    <row r="315" spans="1:7" s="50" customFormat="1">
+      <c r="A315" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B315" s="63" t="s">
+        <v>540</v>
+      </c>
+      <c r="C315" s="79" t="s">
+        <v>541</v>
+      </c>
+      <c r="D315" s="63" t="s">
+        <v>542</v>
+      </c>
+      <c r="E315" s="63"/>
+      <c r="F315" s="63"/>
+      <c r="G315" s="79"/>
+    </row>
+    <row r="316" spans="1:7" s="50" customFormat="1">
+      <c r="A316" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B316" s="63" t="s">
+        <v>543</v>
+      </c>
+      <c r="C316" s="79" t="s">
+        <v>544</v>
+      </c>
+      <c r="D316" s="63" t="s">
+        <v>488</v>
+      </c>
+      <c r="E316" s="63"/>
+      <c r="F316" s="63"/>
+      <c r="G316" s="79"/>
+    </row>
+    <row r="317" spans="1:7" s="50" customFormat="1" ht="45">
+      <c r="A317" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B317" s="63" t="s">
+        <v>545</v>
+      </c>
+      <c r="C317" s="79" t="s">
+        <v>546</v>
+      </c>
+      <c r="D317" s="63" t="s">
+        <v>547</v>
+      </c>
+      <c r="E317" s="63"/>
+      <c r="F317" s="63"/>
+      <c r="G317" s="79"/>
+    </row>
+    <row r="318" spans="1:7" s="50" customFormat="1">
+      <c r="A318" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B318" s="63">
+        <v>10.5</v>
+      </c>
+      <c r="C318" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="D318" s="65"/>
+      <c r="E318" s="65"/>
+      <c r="F318" s="65"/>
+      <c r="G318" s="83"/>
+    </row>
+    <row r="319" spans="1:7" s="50" customFormat="1">
+      <c r="A319" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B319" s="63" t="s">
+        <v>548</v>
+      </c>
+      <c r="C319" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="D319" s="65"/>
+      <c r="E319" s="65"/>
+      <c r="F319" s="65"/>
+      <c r="G319" s="83"/>
+    </row>
+    <row r="320" spans="1:7" s="50" customFormat="1" ht="30">
+      <c r="A320" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B320" s="63" t="s">
+        <v>549</v>
+      </c>
+      <c r="C320" s="63" t="s">
+        <v>472</v>
+      </c>
+      <c r="D320" s="63" t="s">
+        <v>435</v>
+      </c>
+      <c r="E320" s="63"/>
+      <c r="F320" s="63"/>
+      <c r="G320" s="63" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" s="50" customFormat="1">
+      <c r="A321" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B321" s="63" t="s">
+        <v>550</v>
+      </c>
+      <c r="C321" s="63" t="s">
+        <v>475</v>
+      </c>
+      <c r="D321" s="63" t="s">
+        <v>438</v>
+      </c>
+      <c r="E321" s="63"/>
+      <c r="F321" s="63"/>
+      <c r="G321" s="63"/>
+    </row>
+    <row r="322" spans="1:7" s="50" customFormat="1">
+      <c r="A322" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B322" s="63" t="s">
+        <v>551</v>
+      </c>
+      <c r="C322" s="63" t="s">
+        <v>477</v>
+      </c>
+      <c r="D322" s="63" t="s">
+        <v>456</v>
+      </c>
+      <c r="E322" s="63"/>
+      <c r="F322" s="63"/>
+      <c r="G322" s="63"/>
+    </row>
+    <row r="323" spans="1:7" s="50" customFormat="1" ht="30">
+      <c r="A323" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B323" s="63" t="s">
+        <v>552</v>
+      </c>
+      <c r="C323" s="63" t="s">
+        <v>479</v>
+      </c>
+      <c r="D323" s="63" t="s">
+        <v>444</v>
+      </c>
+      <c r="E323" s="63"/>
+      <c r="F323" s="63"/>
+      <c r="G323" s="63"/>
+    </row>
+    <row r="324" spans="1:7" s="50" customFormat="1">
+      <c r="A324" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B324" s="63" t="s">
+        <v>553</v>
+      </c>
+      <c r="C324" s="63" t="s">
+        <v>446</v>
+      </c>
+      <c r="D324" s="63" t="s">
+        <v>447</v>
+      </c>
+      <c r="E324" s="63"/>
+      <c r="F324" s="63"/>
+      <c r="G324" s="63"/>
+    </row>
+    <row r="325" spans="1:7" s="50" customFormat="1">
+      <c r="A325" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B325" s="63" t="s">
+        <v>554</v>
+      </c>
+      <c r="C325" s="63" t="s">
+        <v>449</v>
+      </c>
+      <c r="D325" s="63" t="s">
+        <v>450</v>
+      </c>
+      <c r="E325" s="63"/>
+      <c r="F325" s="63"/>
+      <c r="G325" s="63"/>
+    </row>
+    <row r="326" spans="1:7" s="50" customFormat="1">
+      <c r="A326" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B326" s="63" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C326" s="63" t="s">
+        <v>483</v>
+      </c>
+      <c r="D326" s="63" t="s">
+        <v>453</v>
+      </c>
+      <c r="E326" s="63"/>
+      <c r="F326" s="63"/>
+      <c r="G326" s="63"/>
+    </row>
+    <row r="327" spans="1:7" s="50" customFormat="1">
+      <c r="A327" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B327" s="63" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C327" s="63" t="s">
+        <v>485</v>
+      </c>
+      <c r="D327" s="63" t="s">
+        <v>459</v>
+      </c>
+      <c r="E327" s="63"/>
+      <c r="F327" s="63"/>
+      <c r="G327" s="63"/>
+    </row>
+    <row r="328" spans="1:7" s="50" customFormat="1">
+      <c r="A328" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B328" s="63" t="s">
+        <v>559</v>
+      </c>
+      <c r="C328" s="63" t="s">
+        <v>487</v>
+      </c>
+      <c r="D328" s="63" t="s">
+        <v>488</v>
+      </c>
+      <c r="E328" s="63"/>
+      <c r="F328" s="63"/>
+      <c r="G328" s="63"/>
+    </row>
+    <row r="329" spans="1:7" s="50" customFormat="1" ht="30">
+      <c r="A329" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B329" s="63" t="s">
+        <v>560</v>
+      </c>
+      <c r="C329" s="63" t="s">
+        <v>490</v>
+      </c>
+      <c r="D329" s="63" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E329" s="63"/>
+      <c r="F329" s="63"/>
+      <c r="G329" s="63"/>
+    </row>
+    <row r="330" spans="1:7" s="50" customFormat="1" ht="30">
+      <c r="A330" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B330" s="63" t="s">
+        <v>561</v>
+      </c>
+      <c r="C330" s="63" t="s">
+        <v>492</v>
+      </c>
+      <c r="D330" s="63" t="s">
+        <v>493</v>
+      </c>
+      <c r="E330" s="63"/>
+      <c r="F330" s="63"/>
+      <c r="G330" s="63"/>
+    </row>
+    <row r="331" spans="1:7" s="50" customFormat="1" ht="30">
+      <c r="A331" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B331" s="63" t="s">
+        <v>562</v>
+      </c>
+      <c r="C331" s="63" t="s">
+        <v>495</v>
+      </c>
+      <c r="D331" s="63" t="s">
+        <v>462</v>
+      </c>
+      <c r="E331" s="63"/>
+      <c r="F331" s="63"/>
+      <c r="G331" s="63"/>
+    </row>
+    <row r="332" spans="1:7" s="50" customFormat="1" ht="45">
+      <c r="A332" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B332" s="63" t="s">
+        <v>563</v>
+      </c>
+      <c r="C332" s="63" t="s">
+        <v>497</v>
+      </c>
+      <c r="D332" s="63" t="s">
+        <v>465</v>
+      </c>
+      <c r="E332" s="63"/>
+      <c r="F332" s="63"/>
+      <c r="G332" s="63"/>
+    </row>
+    <row r="333" spans="1:7" s="50" customFormat="1" ht="45">
+      <c r="A333" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B333" s="63" t="s">
+        <v>564</v>
+      </c>
+      <c r="C333" s="63" t="s">
+        <v>499</v>
+      </c>
+      <c r="D333" s="63" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E333" s="63"/>
+      <c r="F333" s="63"/>
+      <c r="G333" s="63"/>
+    </row>
+    <row r="334" spans="1:7" s="50" customFormat="1" ht="45">
+      <c r="A334" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B334" s="63" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C334" s="63" t="s">
         <v>501</v>
       </c>
-      <c r="D285" s="38" t="s">
-        <v>502</v>
-      </c>
-      <c r="E285" s="38"/>
-      <c r="F285" s="38" t="s">
-        <v>1136</v>
-      </c>
-      <c r="G285" s="44"/>
-    </row>
-    <row r="286" spans="1:7" ht="30">
-      <c r="A286" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B286" s="38" t="s">
-        <v>503</v>
-      </c>
-      <c r="C286" s="44" t="s">
-        <v>504</v>
-      </c>
-      <c r="D286" s="38"/>
-      <c r="E286" s="38"/>
-      <c r="F286" s="38"/>
-      <c r="G286" s="44" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7">
-      <c r="A287" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B287" s="38">
-        <v>10.3</v>
-      </c>
-      <c r="C287" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="D287" s="41"/>
-      <c r="E287" s="41"/>
-      <c r="F287" s="41"/>
-      <c r="G287" s="41"/>
-    </row>
-    <row r="288" spans="1:7">
-      <c r="A288" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B288" s="38" t="s">
-        <v>506</v>
-      </c>
-      <c r="C288" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="D288" s="41"/>
-      <c r="E288" s="41"/>
-      <c r="F288" s="41"/>
-      <c r="G288" s="41"/>
-    </row>
-    <row r="289" spans="1:7" ht="30">
-      <c r="A289" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B289" s="38" t="s">
-        <v>507</v>
-      </c>
-      <c r="C289" s="44" t="s">
-        <v>472</v>
-      </c>
-      <c r="D289" s="38" t="s">
-        <v>435</v>
-      </c>
-      <c r="E289" s="38"/>
-      <c r="F289" s="38"/>
-      <c r="G289" s="44" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7">
-      <c r="A290" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B290" s="38" t="s">
-        <v>508</v>
-      </c>
-      <c r="C290" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="D290" s="38" t="s">
-        <v>438</v>
-      </c>
-      <c r="E290" s="38"/>
-      <c r="F290" s="38"/>
-      <c r="G290" s="44"/>
-    </row>
-    <row r="291" spans="1:7">
-      <c r="A291" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B291" s="38" t="s">
-        <v>509</v>
-      </c>
-      <c r="C291" s="44" t="s">
-        <v>477</v>
-      </c>
-      <c r="D291" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="E291" s="38"/>
-      <c r="F291" s="38"/>
-      <c r="G291" s="44"/>
-    </row>
-    <row r="292" spans="1:7" ht="30">
-      <c r="A292" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B292" s="38" t="s">
-        <v>510</v>
-      </c>
-      <c r="C292" s="44" t="s">
-        <v>479</v>
-      </c>
-      <c r="D292" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="E292" s="38"/>
-      <c r="F292" s="38"/>
-      <c r="G292" s="44"/>
-    </row>
-    <row r="293" spans="1:7">
-      <c r="A293" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B293" s="38" t="s">
-        <v>511</v>
-      </c>
-      <c r="C293" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="D293" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="E293" s="38"/>
-      <c r="F293" s="38"/>
-      <c r="G293" s="44"/>
-    </row>
-    <row r="294" spans="1:7">
-      <c r="A294" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B294" s="38" t="s">
-        <v>512</v>
-      </c>
-      <c r="C294" s="44" t="s">
-        <v>449</v>
-      </c>
-      <c r="D294" s="38" t="s">
-        <v>450</v>
-      </c>
-      <c r="E294" s="38"/>
-      <c r="F294" s="38"/>
-      <c r="G294" s="44"/>
-    </row>
-    <row r="295" spans="1:7">
-      <c r="A295" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B295" s="38" t="s">
-        <v>513</v>
-      </c>
-      <c r="C295" s="44" t="s">
-        <v>483</v>
-      </c>
-      <c r="D295" s="38" t="s">
-        <v>453</v>
-      </c>
-      <c r="E295" s="38"/>
-      <c r="F295" s="38"/>
-      <c r="G295" s="44"/>
-    </row>
-    <row r="296" spans="1:7">
-      <c r="A296" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B296" s="38" t="s">
-        <v>514</v>
-      </c>
-      <c r="C296" s="44" t="s">
-        <v>485</v>
-      </c>
-      <c r="D296" s="38" t="s">
-        <v>459</v>
-      </c>
-      <c r="E296" s="38"/>
-      <c r="F296" s="38"/>
-      <c r="G296" s="44"/>
-    </row>
-    <row r="297" spans="1:7">
-      <c r="A297" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B297" s="38" t="s">
-        <v>515</v>
-      </c>
-      <c r="C297" s="44" t="s">
-        <v>487</v>
-      </c>
-      <c r="D297" s="38" t="s">
-        <v>488</v>
-      </c>
-      <c r="E297" s="38"/>
-      <c r="F297" s="38"/>
-      <c r="G297" s="44"/>
-    </row>
-    <row r="298" spans="1:7" ht="30">
-      <c r="A298" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B298" s="38" t="s">
-        <v>516</v>
-      </c>
-      <c r="C298" s="44" t="s">
-        <v>490</v>
-      </c>
-      <c r="D298" s="38" t="s">
-        <v>1150</v>
-      </c>
-      <c r="E298" s="38"/>
-      <c r="F298" s="38"/>
-      <c r="G298" s="44"/>
-    </row>
-    <row r="299" spans="1:7" ht="30">
-      <c r="A299" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B299" s="38" t="s">
-        <v>517</v>
-      </c>
-      <c r="C299" s="44" t="s">
-        <v>492</v>
-      </c>
-      <c r="D299" s="38" t="s">
-        <v>493</v>
-      </c>
-      <c r="E299" s="38"/>
-      <c r="F299" s="38"/>
-      <c r="G299" s="44"/>
-    </row>
-    <row r="300" spans="1:7" ht="30">
-      <c r="A300" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B300" s="38" t="s">
-        <v>518</v>
-      </c>
-      <c r="C300" s="38" t="s">
-        <v>495</v>
-      </c>
-      <c r="D300" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="E300" s="38"/>
-      <c r="F300" s="38"/>
-      <c r="G300" s="38"/>
-    </row>
-    <row r="301" spans="1:7" ht="45">
-      <c r="A301" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B301" s="38" t="s">
-        <v>519</v>
-      </c>
-      <c r="C301" s="44" t="s">
-        <v>497</v>
-      </c>
-      <c r="D301" s="38" t="s">
-        <v>465</v>
-      </c>
-      <c r="E301" s="38"/>
-      <c r="F301" s="38"/>
-      <c r="G301" s="44"/>
-    </row>
-    <row r="302" spans="1:7" ht="45">
-      <c r="A302" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B302" s="38" t="s">
-        <v>520</v>
-      </c>
-      <c r="C302" s="38" t="s">
-        <v>499</v>
-      </c>
-      <c r="D302" s="38" t="s">
+      <c r="D334" s="63" t="s">
         <v>468</v>
       </c>
-      <c r="E302" s="38"/>
-      <c r="F302" s="38"/>
-      <c r="G302" s="38"/>
-    </row>
-    <row r="303" spans="1:7" ht="45">
-      <c r="A303" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B303" s="38" t="s">
-        <v>521</v>
-      </c>
-      <c r="C303" s="44" t="s">
-        <v>501</v>
-      </c>
-      <c r="D303" s="38" t="s">
-        <v>502</v>
-      </c>
-      <c r="E303" s="38"/>
-      <c r="F303" s="38" t="s">
-        <v>1136</v>
-      </c>
-      <c r="G303" s="44"/>
-    </row>
-    <row r="304" spans="1:7" ht="30">
-      <c r="A304" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B304" s="38" t="s">
-        <v>522</v>
-      </c>
-      <c r="C304" s="44" t="s">
-        <v>504</v>
-      </c>
-      <c r="D304" s="38" t="s">
+      <c r="E334" s="63"/>
+      <c r="F334" s="63"/>
+      <c r="G334" s="63"/>
+    </row>
+    <row r="335" spans="1:7" s="50" customFormat="1">
+      <c r="A335" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B335" s="63" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C335" s="79" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D335" s="63" t="s">
         <v>505</v>
       </c>
-      <c r="E304" s="38"/>
-      <c r="F304" s="65" t="s">
-        <v>1140</v>
-      </c>
-      <c r="G304" s="44"/>
-    </row>
-    <row r="305" spans="1:7">
-      <c r="A305" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B305" s="38">
-        <v>10.4</v>
-      </c>
-      <c r="C305" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D305" s="41"/>
-      <c r="E305" s="41"/>
-      <c r="F305" s="41"/>
-      <c r="G305" s="41"/>
-    </row>
-    <row r="306" spans="1:7">
-      <c r="A306" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B306" s="38" t="s">
-        <v>523</v>
-      </c>
-      <c r="C306" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D306" s="41"/>
-      <c r="E306" s="41"/>
-      <c r="F306" s="41"/>
-      <c r="G306" s="41"/>
-    </row>
-    <row r="307" spans="1:7" ht="30">
-      <c r="A307" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B307" s="38" t="s">
-        <v>524</v>
-      </c>
-      <c r="C307" s="44" t="s">
-        <v>525</v>
-      </c>
-      <c r="D307" s="38" t="s">
-        <v>526</v>
-      </c>
-      <c r="E307" s="38"/>
-      <c r="F307" s="38"/>
-      <c r="G307" s="44"/>
-    </row>
-    <row r="308" spans="1:7">
-      <c r="A308" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B308" s="38" t="s">
-        <v>527</v>
-      </c>
-      <c r="C308" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="D308" s="41"/>
-      <c r="E308" s="41"/>
-      <c r="F308" s="41"/>
-      <c r="G308" s="41"/>
-    </row>
-    <row r="309" spans="1:7" ht="30">
-      <c r="A309" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B309" s="38" t="s">
-        <v>528</v>
-      </c>
-      <c r="C309" s="38" t="s">
-        <v>529</v>
-      </c>
-      <c r="D309" s="38" t="s">
-        <v>435</v>
-      </c>
-      <c r="E309" s="46"/>
-      <c r="F309" s="46"/>
-      <c r="G309" s="38" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7">
-      <c r="A310" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B310" s="38" t="s">
-        <v>531</v>
-      </c>
-      <c r="C310" s="44" t="s">
-        <v>532</v>
-      </c>
-      <c r="D310" s="38" t="s">
-        <v>533</v>
-      </c>
-      <c r="E310" s="38"/>
-      <c r="F310" s="38"/>
-      <c r="G310" s="44"/>
-    </row>
-    <row r="311" spans="1:7">
-      <c r="A311" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B311" s="38" t="s">
-        <v>534</v>
-      </c>
-      <c r="C311" s="44" t="s">
-        <v>535</v>
-      </c>
-      <c r="D311" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="E311" s="38"/>
-      <c r="F311" s="38"/>
-      <c r="G311" s="44"/>
-    </row>
-    <row r="312" spans="1:7" ht="30">
-      <c r="A312" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B312" s="38" t="s">
-        <v>537</v>
-      </c>
-      <c r="C312" s="44" t="s">
-        <v>538</v>
-      </c>
-      <c r="D312" s="38" t="s">
-        <v>539</v>
-      </c>
-      <c r="E312" s="38"/>
-      <c r="F312" s="38"/>
-      <c r="G312" s="44"/>
-    </row>
-    <row r="313" spans="1:7">
-      <c r="A313" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B313" s="38" t="s">
-        <v>540</v>
-      </c>
-      <c r="C313" s="44" t="s">
-        <v>541</v>
-      </c>
-      <c r="D313" s="38" t="s">
-        <v>542</v>
-      </c>
-      <c r="E313" s="38"/>
-      <c r="F313" s="38"/>
-      <c r="G313" s="44"/>
-    </row>
-    <row r="314" spans="1:7">
-      <c r="A314" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B314" s="38" t="s">
-        <v>543</v>
-      </c>
-      <c r="C314" s="44" t="s">
-        <v>544</v>
-      </c>
-      <c r="D314" s="38" t="s">
-        <v>488</v>
-      </c>
-      <c r="E314" s="38"/>
-      <c r="F314" s="38"/>
-      <c r="G314" s="44"/>
-    </row>
-    <row r="315" spans="1:7" ht="45">
-      <c r="A315" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B315" s="38" t="s">
-        <v>545</v>
-      </c>
-      <c r="C315" s="44" t="s">
-        <v>546</v>
-      </c>
-      <c r="D315" s="38" t="s">
-        <v>547</v>
-      </c>
-      <c r="E315" s="38"/>
-      <c r="F315" s="38"/>
-      <c r="G315" s="44"/>
-    </row>
-    <row r="316" spans="1:7">
-      <c r="A316" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B316" s="38">
-        <v>10.5</v>
-      </c>
-      <c r="C316" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="D316" s="41"/>
-      <c r="E316" s="41"/>
-      <c r="F316" s="41"/>
-      <c r="G316" s="48"/>
-    </row>
-    <row r="317" spans="1:7">
-      <c r="A317" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B317" s="38" t="s">
-        <v>548</v>
-      </c>
-      <c r="C317" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="D317" s="41"/>
-      <c r="E317" s="41"/>
-      <c r="F317" s="41"/>
-      <c r="G317" s="48"/>
-    </row>
-    <row r="318" spans="1:7" ht="30">
-      <c r="A318" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B318" s="38" t="s">
-        <v>549</v>
-      </c>
-      <c r="C318" s="38" t="s">
-        <v>472</v>
-      </c>
-      <c r="D318" s="38" t="s">
-        <v>435</v>
-      </c>
-      <c r="E318" s="38"/>
-      <c r="F318" s="38"/>
-      <c r="G318" s="38" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7">
-      <c r="A319" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B319" s="38" t="s">
-        <v>550</v>
-      </c>
-      <c r="C319" s="38" t="s">
-        <v>475</v>
-      </c>
-      <c r="D319" s="38" t="s">
-        <v>438</v>
-      </c>
-      <c r="E319" s="38"/>
-      <c r="F319" s="38"/>
-      <c r="G319" s="38"/>
-    </row>
-    <row r="320" spans="1:7">
-      <c r="A320" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B320" s="38" t="s">
-        <v>551</v>
-      </c>
-      <c r="C320" s="38" t="s">
-        <v>477</v>
-      </c>
-      <c r="D320" s="38" t="s">
-        <v>456</v>
-      </c>
-      <c r="E320" s="38"/>
-      <c r="F320" s="38"/>
-      <c r="G320" s="38"/>
-    </row>
-    <row r="321" spans="1:7" ht="30">
-      <c r="A321" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B321" s="38" t="s">
-        <v>552</v>
-      </c>
-      <c r="C321" s="38" t="s">
-        <v>479</v>
-      </c>
-      <c r="D321" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="E321" s="38"/>
-      <c r="F321" s="38"/>
-      <c r="G321" s="38"/>
-    </row>
-    <row r="322" spans="1:7">
-      <c r="A322" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B322" s="38" t="s">
-        <v>553</v>
-      </c>
-      <c r="C322" s="38" t="s">
-        <v>446</v>
-      </c>
-      <c r="D322" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="E322" s="38"/>
-      <c r="F322" s="38"/>
-      <c r="G322" s="38"/>
-    </row>
-    <row r="323" spans="1:7">
-      <c r="A323" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B323" s="38" t="s">
-        <v>554</v>
-      </c>
-      <c r="C323" s="38" t="s">
-        <v>449</v>
-      </c>
-      <c r="D323" s="38" t="s">
-        <v>450</v>
-      </c>
-      <c r="E323" s="38"/>
-      <c r="F323" s="38"/>
-      <c r="G323" s="38"/>
-    </row>
-    <row r="324" spans="1:7">
-      <c r="A324" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B324" s="38" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C324" s="38" t="s">
-        <v>483</v>
-      </c>
-      <c r="D324" s="38" t="s">
-        <v>453</v>
-      </c>
-      <c r="E324" s="38"/>
-      <c r="F324" s="38"/>
-      <c r="G324" s="38"/>
-    </row>
-    <row r="325" spans="1:7">
-      <c r="A325" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B325" s="38" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C325" s="38" t="s">
-        <v>485</v>
-      </c>
-      <c r="D325" s="38" t="s">
-        <v>459</v>
-      </c>
-      <c r="E325" s="38"/>
-      <c r="F325" s="38"/>
-      <c r="G325" s="38"/>
-    </row>
-    <row r="326" spans="1:7">
-      <c r="A326" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B326" s="38" t="s">
-        <v>559</v>
-      </c>
-      <c r="C326" s="38" t="s">
-        <v>487</v>
-      </c>
-      <c r="D326" s="38" t="s">
-        <v>488</v>
-      </c>
-      <c r="E326" s="38"/>
-      <c r="F326" s="38"/>
-      <c r="G326" s="38"/>
-    </row>
-    <row r="327" spans="1:7" ht="30">
-      <c r="A327" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B327" s="38" t="s">
-        <v>560</v>
-      </c>
-      <c r="C327" s="38" t="s">
-        <v>490</v>
-      </c>
-      <c r="D327" s="38" t="s">
-        <v>1150</v>
-      </c>
-      <c r="E327" s="38"/>
-      <c r="F327" s="38"/>
-      <c r="G327" s="38"/>
-    </row>
-    <row r="328" spans="1:7" ht="30">
-      <c r="A328" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B328" s="38" t="s">
-        <v>561</v>
-      </c>
-      <c r="C328" s="38" t="s">
-        <v>492</v>
-      </c>
-      <c r="D328" s="38" t="s">
-        <v>493</v>
-      </c>
-      <c r="E328" s="38"/>
-      <c r="F328" s="38"/>
-      <c r="G328" s="38"/>
-    </row>
-    <row r="329" spans="1:7" ht="30">
-      <c r="A329" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B329" s="38" t="s">
-        <v>562</v>
-      </c>
-      <c r="C329" s="38" t="s">
-        <v>495</v>
-      </c>
-      <c r="D329" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="E329" s="38"/>
-      <c r="F329" s="38"/>
-      <c r="G329" s="38"/>
-    </row>
-    <row r="330" spans="1:7" ht="45">
-      <c r="A330" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B330" s="38" t="s">
-        <v>563</v>
-      </c>
-      <c r="C330" s="38" t="s">
-        <v>497</v>
-      </c>
-      <c r="D330" s="38" t="s">
-        <v>465</v>
-      </c>
-      <c r="E330" s="38"/>
-      <c r="F330" s="38"/>
-      <c r="G330" s="38"/>
-    </row>
-    <row r="331" spans="1:7" ht="45">
-      <c r="A331" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B331" s="38" t="s">
-        <v>564</v>
-      </c>
-      <c r="C331" s="38" t="s">
-        <v>499</v>
-      </c>
-      <c r="D331" s="38" t="s">
-        <v>468</v>
-      </c>
-      <c r="E331" s="38"/>
-      <c r="F331" s="38"/>
-      <c r="G331" s="38"/>
-    </row>
-    <row r="332" spans="1:7" ht="45">
-      <c r="A332" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B332" s="38" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C332" s="38" t="s">
-        <v>501</v>
-      </c>
-      <c r="D332" s="38" t="s">
-        <v>502</v>
-      </c>
-      <c r="E332" s="38"/>
-      <c r="F332" s="38" t="s">
-        <v>1136</v>
-      </c>
-      <c r="G332" s="38"/>
-    </row>
-    <row r="333" spans="1:7" ht="30">
-      <c r="A333" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B333" s="38" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C333" s="38" t="s">
-        <v>504</v>
-      </c>
-      <c r="D333" s="38" t="s">
-        <v>505</v>
-      </c>
-      <c r="E333" s="38"/>
-      <c r="F333" s="65" t="s">
+      <c r="E335" s="63"/>
+      <c r="F335" s="63" t="s">
         <v>1302</v>
       </c>
-      <c r="G333" s="38"/>
-    </row>
-    <row r="334" spans="1:7" ht="15.75">
-      <c r="A334" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B334" s="35" t="s">
+      <c r="G335" s="63"/>
+    </row>
+    <row r="336" spans="1:7" s="50" customFormat="1">
+      <c r="A336" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B336" s="63" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C336" s="79" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D336" s="63" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E336" s="63"/>
+      <c r="F336" s="63"/>
+      <c r="G336" s="79"/>
+    </row>
+    <row r="337" spans="1:7" ht="15.75">
+      <c r="A337" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B337" s="35" t="s">
         <v>1262</v>
       </c>
-      <c r="C334" s="49" t="s">
+      <c r="C337" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="D334" s="41"/>
-      <c r="E334" s="41"/>
-      <c r="F334" s="41"/>
-      <c r="G334" s="49"/>
-    </row>
-    <row r="335" spans="1:7">
-      <c r="A335" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B335" s="38">
-        <v>11.1</v>
-      </c>
-      <c r="C335" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="D335" s="41"/>
-      <c r="E335" s="41"/>
-      <c r="F335" s="41"/>
-      <c r="G335" s="48"/>
-    </row>
-    <row r="336" spans="1:7">
-      <c r="A336" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B336" s="38" t="s">
-        <v>565</v>
-      </c>
-      <c r="C336" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="D336" s="41"/>
-      <c r="E336" s="41"/>
-      <c r="F336" s="41"/>
-      <c r="G336" s="48"/>
-    </row>
-    <row r="337" spans="1:7" ht="60">
-      <c r="A337" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B337" s="38" t="s">
-        <v>566</v>
-      </c>
-      <c r="C337" s="44" t="s">
-        <v>567</v>
-      </c>
-      <c r="D337" s="38">
-        <v>78.3</v>
-      </c>
-      <c r="E337" s="38" t="s">
-        <v>1272</v>
-      </c>
-      <c r="F337" s="38" t="s">
-        <v>1137</v>
-      </c>
-      <c r="G337" s="44" t="s">
-        <v>568</v>
-      </c>
+      <c r="D337" s="41"/>
+      <c r="E337" s="41"/>
+      <c r="F337" s="41"/>
+      <c r="G337" s="48"/>
     </row>
     <row r="338" spans="1:7">
       <c r="A338" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B338" s="38" t="s">
-        <v>569</v>
-      </c>
-      <c r="C338" s="44" t="s">
-        <v>570</v>
-      </c>
-      <c r="D338" s="38">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E338" s="38" t="s">
-        <v>1268</v>
-      </c>
-      <c r="F338" s="38" t="s">
-        <v>1137</v>
-      </c>
-      <c r="G338" s="44"/>
+      <c r="B338" s="38">
+        <v>11.1</v>
+      </c>
+      <c r="C338" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="D338" s="41"/>
+      <c r="E338" s="41"/>
+      <c r="F338" s="41"/>
+      <c r="G338" s="47"/>
     </row>
     <row r="339" spans="1:7">
       <c r="A339" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B339" s="38" t="s">
-        <v>571</v>
-      </c>
-      <c r="C339" s="44" t="s">
-        <v>1286</v>
-      </c>
-      <c r="D339" s="38">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E339" s="38"/>
-      <c r="F339" s="38" t="s">
+        <v>565</v>
+      </c>
+      <c r="C339" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D339" s="41"/>
+      <c r="E339" s="41"/>
+      <c r="F339" s="41"/>
+      <c r="G339" s="47"/>
+    </row>
+    <row r="340" spans="1:7" ht="60">
+      <c r="A340" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B340" s="38" t="s">
+        <v>566</v>
+      </c>
+      <c r="C340" s="44" t="s">
+        <v>567</v>
+      </c>
+      <c r="D340" s="38">
+        <v>78.3</v>
+      </c>
+      <c r="E340" s="38" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F340" s="38" t="s">
         <v>1137</v>
       </c>
-      <c r="G339" s="44"/>
-    </row>
-    <row r="340" spans="1:7">
-      <c r="A340" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B340" s="38" t="s">
-        <v>573</v>
-      </c>
-      <c r="C340" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D340" s="41"/>
-      <c r="E340" s="41"/>
-      <c r="F340" s="41"/>
-      <c r="G340" s="41"/>
+      <c r="G340" s="44" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="341" spans="1:7">
       <c r="A341" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B341" s="38" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="C341" s="44" t="s">
-        <v>575</v>
-      </c>
-      <c r="D341" s="38" t="s">
-        <v>577</v>
-      </c>
-      <c r="E341" s="38"/>
+        <v>570</v>
+      </c>
+      <c r="D341" s="38">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E341" s="38" t="s">
+        <v>1268</v>
+      </c>
       <c r="F341" s="38" t="s">
         <v>1137</v>
       </c>
-      <c r="G341" s="44" t="s">
-        <v>576</v>
-      </c>
+      <c r="G341" s="44"/>
     </row>
     <row r="342" spans="1:7">
       <c r="A342" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B342" s="38" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="C342" s="44" t="s">
-        <v>579</v>
-      </c>
-      <c r="D342" s="38" t="s">
-        <v>580</v>
+        <v>1286</v>
+      </c>
+      <c r="D342" s="38">
+        <v>78.099999999999994</v>
       </c>
       <c r="E342" s="38"/>
       <c r="F342" s="38" t="s">
@@ -14631,87 +14658,87 @@
         <v>58</v>
       </c>
       <c r="B343" s="38" t="s">
-        <v>581</v>
-      </c>
-      <c r="C343" s="38" t="s">
-        <v>582</v>
-      </c>
-      <c r="D343" s="38" t="s">
-        <v>583</v>
-      </c>
-      <c r="E343" s="38"/>
-      <c r="F343" s="38" t="s">
-        <v>1137</v>
-      </c>
-      <c r="G343" s="38"/>
+        <v>573</v>
+      </c>
+      <c r="C343" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D343" s="41"/>
+      <c r="E343" s="41"/>
+      <c r="F343" s="41"/>
+      <c r="G343" s="41"/>
     </row>
     <row r="344" spans="1:7">
       <c r="A344" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B344" s="38" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="C344" s="44" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="D344" s="38" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="E344" s="38"/>
       <c r="F344" s="38" t="s">
         <v>1137</v>
       </c>
-      <c r="G344" s="44"/>
+      <c r="G344" s="44" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="345" spans="1:7">
       <c r="A345" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B345" s="38" t="s">
-        <v>587</v>
-      </c>
-      <c r="C345" s="41" t="s">
-        <v>588</v>
-      </c>
-      <c r="D345" s="41"/>
-      <c r="E345" s="41"/>
-      <c r="F345" s="41"/>
-      <c r="G345" s="41"/>
+        <v>578</v>
+      </c>
+      <c r="C345" s="44" t="s">
+        <v>579</v>
+      </c>
+      <c r="D345" s="38" t="s">
+        <v>580</v>
+      </c>
+      <c r="E345" s="38"/>
+      <c r="F345" s="38" t="s">
+        <v>1137</v>
+      </c>
+      <c r="G345" s="44"/>
     </row>
     <row r="346" spans="1:7">
       <c r="A346" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B346" s="38" t="s">
-        <v>589</v>
-      </c>
-      <c r="C346" s="44" t="s">
-        <v>590</v>
+        <v>581</v>
+      </c>
+      <c r="C346" s="38" t="s">
+        <v>582</v>
       </c>
       <c r="D346" s="38" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="E346" s="38"/>
       <c r="F346" s="38" t="s">
         <v>1137</v>
       </c>
-      <c r="G346" s="44" t="s">
-        <v>1104</v>
-      </c>
+      <c r="G346" s="38"/>
     </row>
     <row r="347" spans="1:7">
       <c r="A347" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B347" s="38" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="C347" s="44" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="D347" s="38" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="E347" s="38"/>
       <c r="F347" s="38" t="s">
@@ -14724,51 +14751,49 @@
         <v>58</v>
       </c>
       <c r="B348" s="38" t="s">
-        <v>595</v>
-      </c>
-      <c r="C348" s="44" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D348" s="38" t="s">
-        <v>1101</v>
-      </c>
-      <c r="E348" s="38"/>
-      <c r="F348" s="38" t="s">
-        <v>1137</v>
-      </c>
-      <c r="G348" s="44"/>
+        <v>587</v>
+      </c>
+      <c r="C348" s="41" t="s">
+        <v>588</v>
+      </c>
+      <c r="D348" s="41"/>
+      <c r="E348" s="41"/>
+      <c r="F348" s="41"/>
+      <c r="G348" s="41"/>
     </row>
     <row r="349" spans="1:7">
       <c r="A349" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B349" s="38" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="C349" s="44" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="D349" s="38" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="E349" s="38"/>
       <c r="F349" s="38" t="s">
         <v>1137</v>
       </c>
-      <c r="G349" s="44"/>
+      <c r="G349" s="44" t="s">
+        <v>1104</v>
+      </c>
     </row>
     <row r="350" spans="1:7">
       <c r="A350" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B350" s="38" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="C350" s="44" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="D350" s="38" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="E350" s="38"/>
       <c r="F350" s="38" t="s">
@@ -14781,177 +14806,179 @@
         <v>58</v>
       </c>
       <c r="B351" s="38" t="s">
-        <v>604</v>
-      </c>
-      <c r="C351" s="41" t="s">
-        <v>605</v>
-      </c>
-      <c r="D351" s="41"/>
-      <c r="E351" s="41"/>
-      <c r="F351" s="41"/>
-      <c r="G351" s="41"/>
-    </row>
-    <row r="352" spans="1:7" ht="45">
+        <v>595</v>
+      </c>
+      <c r="C351" s="44" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D351" s="38" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E351" s="38"/>
+      <c r="F351" s="38" t="s">
+        <v>1137</v>
+      </c>
+      <c r="G351" s="44"/>
+    </row>
+    <row r="352" spans="1:7">
       <c r="A352" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B352" s="38" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="C352" s="44" t="s">
-        <v>608</v>
-      </c>
-      <c r="D352" s="40" t="s">
-        <v>606</v>
-      </c>
-      <c r="E352" s="40"/>
+        <v>599</v>
+      </c>
+      <c r="D352" s="38" t="s">
+        <v>600</v>
+      </c>
+      <c r="E352" s="38"/>
       <c r="F352" s="38" t="s">
         <v>1137</v>
       </c>
-      <c r="G352" s="44" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7" ht="30">
+      <c r="G352" s="44"/>
+    </row>
+    <row r="353" spans="1:7">
       <c r="A353" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B353" s="38" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="C353" s="44" t="s">
-        <v>610</v>
-      </c>
-      <c r="D353" s="40" t="s">
-        <v>606</v>
-      </c>
-      <c r="E353" s="40"/>
+        <v>602</v>
+      </c>
+      <c r="D353" s="38" t="s">
+        <v>603</v>
+      </c>
+      <c r="E353" s="38"/>
       <c r="F353" s="38" t="s">
         <v>1137</v>
       </c>
       <c r="G353" s="44"/>
     </row>
-    <row r="354" spans="1:7" ht="37.5" customHeight="1">
+    <row r="354" spans="1:7">
       <c r="A354" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B354" s="38" t="s">
-        <v>611</v>
-      </c>
-      <c r="C354" s="40" t="s">
-        <v>612</v>
-      </c>
-      <c r="D354" s="40" t="s">
-        <v>1123</v>
-      </c>
-      <c r="E354" s="40"/>
-      <c r="F354" s="38" t="s">
-        <v>1137</v>
-      </c>
-      <c r="G354" s="38"/>
-    </row>
-    <row r="355" spans="1:7" ht="30">
+        <v>604</v>
+      </c>
+      <c r="C354" s="41" t="s">
+        <v>605</v>
+      </c>
+      <c r="D354" s="41"/>
+      <c r="E354" s="41"/>
+      <c r="F354" s="41"/>
+      <c r="G354" s="41"/>
+    </row>
+    <row r="355" spans="1:7" ht="45">
       <c r="A355" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B355" s="38" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="C355" s="44" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="D355" s="40" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="E355" s="40"/>
       <c r="F355" s="38" t="s">
         <v>1137</v>
       </c>
-      <c r="G355" s="44"/>
-    </row>
-    <row r="356" spans="1:7">
+      <c r="G355" s="44" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" ht="30">
       <c r="A356" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B356" s="38" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="C356" s="44" t="s">
-        <v>617</v>
-      </c>
-      <c r="D356" s="38" t="s">
-        <v>618</v>
-      </c>
-      <c r="E356" s="38"/>
+        <v>610</v>
+      </c>
+      <c r="D356" s="40" t="s">
+        <v>606</v>
+      </c>
+      <c r="E356" s="40"/>
       <c r="F356" s="38" t="s">
         <v>1137</v>
       </c>
       <c r="G356" s="44"/>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" ht="37.5" customHeight="1">
       <c r="A357" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B357" s="38" t="s">
-        <v>619</v>
-      </c>
-      <c r="C357" s="41" t="s">
-        <v>620</v>
-      </c>
-      <c r="D357" s="41"/>
-      <c r="E357" s="41"/>
-      <c r="F357" s="41"/>
-      <c r="G357" s="41"/>
-    </row>
-    <row r="358" spans="1:7">
+        <v>611</v>
+      </c>
+      <c r="C357" s="40" t="s">
+        <v>612</v>
+      </c>
+      <c r="D357" s="40" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E357" s="40"/>
+      <c r="F357" s="38" t="s">
+        <v>1137</v>
+      </c>
+      <c r="G357" s="38"/>
+    </row>
+    <row r="358" spans="1:7" ht="30">
       <c r="A358" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B358" s="38" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="C358" s="44" t="s">
-        <v>622</v>
-      </c>
-      <c r="D358" s="38" t="s">
-        <v>597</v>
-      </c>
-      <c r="E358" s="38"/>
+        <v>614</v>
+      </c>
+      <c r="D358" s="40" t="s">
+        <v>615</v>
+      </c>
+      <c r="E358" s="40"/>
       <c r="F358" s="38" t="s">
         <v>1137</v>
       </c>
-      <c r="G358" s="38" t="s">
-        <v>1096</v>
-      </c>
+      <c r="G358" s="44"/>
     </row>
     <row r="359" spans="1:7">
       <c r="A359" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B359" s="38" t="s">
-        <v>623</v>
-      </c>
-      <c r="C359" s="40" t="s">
-        <v>624</v>
-      </c>
-      <c r="D359" s="40" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E359" s="40"/>
+        <v>616</v>
+      </c>
+      <c r="C359" s="44" t="s">
+        <v>617</v>
+      </c>
+      <c r="D359" s="38" t="s">
+        <v>618</v>
+      </c>
+      <c r="E359" s="38"/>
       <c r="F359" s="38" t="s">
         <v>1137</v>
       </c>
-      <c r="G359" s="38"/>
+      <c r="G359" s="44"/>
     </row>
     <row r="360" spans="1:7">
       <c r="A360" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B360" s="38" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="C360" s="41" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="D360" s="41"/>
       <c r="E360" s="41"/>
@@ -14963,20 +14990,20 @@
         <v>58</v>
       </c>
       <c r="B361" s="38" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="C361" s="44" t="s">
-        <v>590</v>
+        <v>622</v>
       </c>
       <c r="D361" s="38" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="E361" s="38"/>
       <c r="F361" s="38" t="s">
         <v>1137</v>
       </c>
-      <c r="G361" s="44" t="s">
-        <v>1109</v>
+      <c r="G361" s="38" t="s">
+        <v>1096</v>
       </c>
     </row>
     <row r="362" spans="1:7">
@@ -14984,294 +15011,292 @@
         <v>58</v>
       </c>
       <c r="B362" s="38" t="s">
-        <v>628</v>
-      </c>
-      <c r="C362" s="44" t="s">
-        <v>629</v>
-      </c>
-      <c r="D362" s="38" t="s">
-        <v>1103</v>
-      </c>
-      <c r="E362" s="46"/>
+        <v>623</v>
+      </c>
+      <c r="C362" s="40" t="s">
+        <v>624</v>
+      </c>
+      <c r="D362" s="40" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E362" s="40"/>
       <c r="F362" s="38" t="s">
         <v>1137</v>
       </c>
-      <c r="G362" s="44"/>
+      <c r="G362" s="38"/>
     </row>
     <row r="363" spans="1:7">
       <c r="A363" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B363" s="38" t="s">
-        <v>630</v>
-      </c>
-      <c r="C363" s="44" t="s">
-        <v>631</v>
-      </c>
-      <c r="D363" s="38" t="s">
-        <v>597</v>
-      </c>
-      <c r="E363" s="38"/>
-      <c r="F363" s="38" t="s">
-        <v>1137</v>
-      </c>
-      <c r="G363" s="44"/>
+        <v>625</v>
+      </c>
+      <c r="C363" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D363" s="41"/>
+      <c r="E363" s="41"/>
+      <c r="F363" s="41"/>
+      <c r="G363" s="41"/>
     </row>
     <row r="364" spans="1:7">
       <c r="A364" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B364" s="38" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="C364" s="44" t="s">
-        <v>633</v>
+        <v>590</v>
       </c>
       <c r="D364" s="38" t="s">
-        <v>1101</v>
+        <v>591</v>
       </c>
       <c r="E364" s="38"/>
       <c r="F364" s="38" t="s">
         <v>1137</v>
       </c>
-      <c r="G364" s="44"/>
+      <c r="G364" s="44" t="s">
+        <v>1109</v>
+      </c>
     </row>
     <row r="365" spans="1:7">
       <c r="A365" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B365" s="38" t="s">
-        <v>634</v>
-      </c>
-      <c r="C365" s="40" t="s">
-        <v>635</v>
+        <v>628</v>
+      </c>
+      <c r="C365" s="44" t="s">
+        <v>629</v>
       </c>
       <c r="D365" s="38" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E365" s="38" t="s">
-        <v>636</v>
-      </c>
+        <v>1103</v>
+      </c>
+      <c r="E365" s="45"/>
       <c r="F365" s="38" t="s">
         <v>1137</v>
       </c>
-      <c r="G365" s="38"/>
+      <c r="G365" s="44"/>
     </row>
     <row r="366" spans="1:7">
       <c r="A366" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B366" s="38">
-        <v>11.2</v>
-      </c>
-      <c r="C366" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D366" s="41"/>
-      <c r="E366" s="41"/>
-      <c r="F366" s="41"/>
-      <c r="G366" s="41"/>
+      <c r="B366" s="38" t="s">
+        <v>630</v>
+      </c>
+      <c r="C366" s="44" t="s">
+        <v>631</v>
+      </c>
+      <c r="D366" s="38" t="s">
+        <v>597</v>
+      </c>
+      <c r="E366" s="38"/>
+      <c r="F366" s="38" t="s">
+        <v>1137</v>
+      </c>
+      <c r="G366" s="44"/>
     </row>
     <row r="367" spans="1:7">
       <c r="A367" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B367" s="38" t="s">
-        <v>637</v>
-      </c>
-      <c r="C367" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D367" s="41"/>
-      <c r="E367" s="41"/>
-      <c r="F367" s="41"/>
-      <c r="G367" s="41"/>
-    </row>
-    <row r="368" spans="1:7" ht="60">
+        <v>632</v>
+      </c>
+      <c r="C367" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D367" s="38" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E367" s="38"/>
+      <c r="F367" s="38" t="s">
+        <v>1137</v>
+      </c>
+      <c r="G367" s="44"/>
+    </row>
+    <row r="368" spans="1:7">
       <c r="A368" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B368" s="38" t="s">
-        <v>638</v>
-      </c>
-      <c r="C368" s="44" t="s">
-        <v>567</v>
-      </c>
-      <c r="D368" s="40" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E368" s="40" t="s">
-        <v>1272</v>
+        <v>634</v>
+      </c>
+      <c r="C368" s="40" t="s">
+        <v>635</v>
+      </c>
+      <c r="D368" s="38" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E368" s="38" t="s">
+        <v>636</v>
       </c>
       <c r="F368" s="38" t="s">
-        <v>1141</v>
-      </c>
-      <c r="G368" s="44" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="369" spans="1:7" ht="30">
+        <v>1137</v>
+      </c>
+      <c r="G368" s="38"/>
+    </row>
+    <row r="369" spans="1:7">
       <c r="A369" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B369" s="38" t="s">
-        <v>639</v>
-      </c>
-      <c r="C369" s="44" t="s">
-        <v>640</v>
-      </c>
-      <c r="D369" s="40" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E369" s="40" t="s">
-        <v>1269</v>
-      </c>
-      <c r="F369" s="38" t="s">
-        <v>1141</v>
-      </c>
-      <c r="G369" s="44"/>
+      <c r="B369" s="38">
+        <v>11.2</v>
+      </c>
+      <c r="C369" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D369" s="41"/>
+      <c r="E369" s="41"/>
+      <c r="F369" s="41"/>
+      <c r="G369" s="41"/>
     </row>
     <row r="370" spans="1:7">
       <c r="A370" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B370" s="38" t="s">
-        <v>641</v>
-      </c>
-      <c r="C370" s="44" t="s">
-        <v>572</v>
-      </c>
-      <c r="D370" s="38">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E370" s="38" t="s">
+        <v>637</v>
+      </c>
+      <c r="C370" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D370" s="41"/>
+      <c r="E370" s="41"/>
+      <c r="F370" s="41"/>
+      <c r="G370" s="41"/>
+    </row>
+    <row r="371" spans="1:7" ht="60">
+      <c r="A371" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B371" s="38" t="s">
+        <v>638</v>
+      </c>
+      <c r="C371" s="44" t="s">
+        <v>567</v>
+      </c>
+      <c r="D371" s="40" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E371" s="40" t="s">
         <v>1272</v>
       </c>
-      <c r="F370" s="38" t="s">
+      <c r="F371" s="38" t="s">
         <v>1141</v>
       </c>
-      <c r="G370" s="44"/>
-    </row>
-    <row r="371" spans="1:7">
-      <c r="A371" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B371" s="38" t="s">
-        <v>642</v>
-      </c>
-      <c r="C371" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D371" s="41"/>
-      <c r="E371" s="41"/>
-      <c r="F371" s="41"/>
-      <c r="G371" s="41"/>
-    </row>
-    <row r="372" spans="1:7">
+      <c r="G371" s="44" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" ht="30">
       <c r="A372" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B372" s="38" t="s">
-        <v>643</v>
-      </c>
-      <c r="C372" s="41" t="s">
-        <v>644</v>
-      </c>
-      <c r="D372" s="41"/>
-      <c r="E372" s="41"/>
-      <c r="F372" s="41"/>
-      <c r="G372" s="41"/>
+        <v>639</v>
+      </c>
+      <c r="C372" s="44" t="s">
+        <v>640</v>
+      </c>
+      <c r="D372" s="40" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E372" s="40" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F372" s="38" t="s">
+        <v>1141</v>
+      </c>
+      <c r="G372" s="44"/>
     </row>
     <row r="373" spans="1:7">
       <c r="A373" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B373" s="38" t="s">
-        <v>645</v>
-      </c>
-      <c r="C373" s="38" t="s">
-        <v>646</v>
-      </c>
-      <c r="D373" s="38" t="s">
-        <v>648</v>
-      </c>
-      <c r="E373" s="38"/>
+        <v>641</v>
+      </c>
+      <c r="C373" s="44" t="s">
+        <v>572</v>
+      </c>
+      <c r="D373" s="38">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E373" s="38" t="s">
+        <v>1272</v>
+      </c>
       <c r="F373" s="38" t="s">
         <v>1141</v>
       </c>
-      <c r="G373" s="44" t="s">
-        <v>647</v>
-      </c>
+      <c r="G373" s="44"/>
     </row>
     <row r="374" spans="1:7">
       <c r="A374" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B374" s="38" t="s">
-        <v>649</v>
-      </c>
-      <c r="C374" s="44" t="s">
-        <v>650</v>
-      </c>
-      <c r="D374" s="38" t="s">
-        <v>651</v>
-      </c>
-      <c r="E374" s="38"/>
-      <c r="F374" s="38" t="s">
-        <v>1141</v>
-      </c>
-      <c r="G374" s="44"/>
-    </row>
-    <row r="375" spans="1:7" ht="30">
+        <v>642</v>
+      </c>
+      <c r="C374" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D374" s="41"/>
+      <c r="E374" s="41"/>
+      <c r="F374" s="41"/>
+      <c r="G374" s="41"/>
+    </row>
+    <row r="375" spans="1:7">
       <c r="A375" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B375" s="38" t="s">
-        <v>652</v>
-      </c>
-      <c r="C375" s="44" t="s">
-        <v>653</v>
-      </c>
-      <c r="D375" s="38" t="s">
-        <v>603</v>
-      </c>
-      <c r="E375" s="38"/>
-      <c r="F375" s="38" t="s">
-        <v>1141</v>
-      </c>
-      <c r="G375" s="44"/>
-    </row>
-    <row r="376" spans="1:7" ht="30">
+        <v>643</v>
+      </c>
+      <c r="C375" s="41" t="s">
+        <v>644</v>
+      </c>
+      <c r="D375" s="41"/>
+      <c r="E375" s="41"/>
+      <c r="F375" s="41"/>
+      <c r="G375" s="41"/>
+    </row>
+    <row r="376" spans="1:7">
       <c r="A376" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B376" s="38" t="s">
-        <v>654</v>
-      </c>
-      <c r="C376" s="44" t="s">
-        <v>655</v>
-      </c>
-      <c r="D376" s="40" t="s">
-        <v>615</v>
-      </c>
-      <c r="E376" s="40"/>
+        <v>645</v>
+      </c>
+      <c r="C376" s="38" t="s">
+        <v>646</v>
+      </c>
+      <c r="D376" s="38" t="s">
+        <v>648</v>
+      </c>
+      <c r="E376" s="38"/>
       <c r="F376" s="38" t="s">
         <v>1141</v>
       </c>
-      <c r="G376" s="44"/>
+      <c r="G376" s="44" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="377" spans="1:7">
       <c r="A377" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B377" s="38" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="C377" s="44" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="D377" s="38" t="s">
-        <v>618</v>
+        <v>651</v>
       </c>
       <c r="E377" s="38"/>
       <c r="F377" s="38" t="s">
@@ -15284,13 +15309,13 @@
         <v>58</v>
       </c>
       <c r="B378" s="38" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="C378" s="44" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="D378" s="38" t="s">
-        <v>586</v>
+        <v>603</v>
       </c>
       <c r="E378" s="38"/>
       <c r="F378" s="38" t="s">
@@ -15298,72 +15323,72 @@
       </c>
       <c r="G378" s="44"/>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" ht="30">
       <c r="A379" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B379" s="38" t="s">
-        <v>660</v>
-      </c>
-      <c r="C379" s="41" t="s">
-        <v>620</v>
-      </c>
-      <c r="D379" s="41"/>
-      <c r="E379" s="41"/>
-      <c r="F379" s="41"/>
-      <c r="G379" s="41"/>
+        <v>654</v>
+      </c>
+      <c r="C379" s="44" t="s">
+        <v>655</v>
+      </c>
+      <c r="D379" s="40" t="s">
+        <v>615</v>
+      </c>
+      <c r="E379" s="40"/>
+      <c r="F379" s="38" t="s">
+        <v>1141</v>
+      </c>
+      <c r="G379" s="44"/>
     </row>
     <row r="380" spans="1:7">
       <c r="A380" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B380" s="38" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="C380" s="44" t="s">
-        <v>622</v>
+        <v>657</v>
       </c>
       <c r="D380" s="38" t="s">
-        <v>597</v>
+        <v>618</v>
       </c>
       <c r="E380" s="38"/>
       <c r="F380" s="38" t="s">
         <v>1141</v>
       </c>
-      <c r="G380" s="44" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="381" spans="1:7">
+      <c r="G380" s="44"/>
+    </row>
+    <row r="381" spans="1:7" ht="30">
       <c r="A381" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B381" s="38" t="s">
-        <v>662</v>
-      </c>
-      <c r="C381" s="40" t="s">
-        <v>624</v>
-      </c>
-      <c r="D381" s="40" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E381" s="40" t="s">
-        <v>1121</v>
-      </c>
+        <v>658</v>
+      </c>
+      <c r="C381" s="44" t="s">
+        <v>659</v>
+      </c>
+      <c r="D381" s="38" t="s">
+        <v>586</v>
+      </c>
+      <c r="E381" s="38"/>
       <c r="F381" s="38" t="s">
         <v>1141</v>
       </c>
-      <c r="G381" s="38"/>
+      <c r="G381" s="44"/>
     </row>
     <row r="382" spans="1:7">
       <c r="A382" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B382" s="38" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C382" s="41" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="D382" s="41"/>
       <c r="E382" s="41"/>
@@ -15375,20 +15400,20 @@
         <v>58</v>
       </c>
       <c r="B383" s="38" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C383" s="44" t="s">
-        <v>590</v>
+        <v>622</v>
       </c>
       <c r="D383" s="38" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="E383" s="38"/>
       <c r="F383" s="38" t="s">
         <v>1141</v>
       </c>
       <c r="G383" s="44" t="s">
-        <v>1109</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="384" spans="1:7">
@@ -15396,294 +15421,294 @@
         <v>58</v>
       </c>
       <c r="B384" s="38" t="s">
-        <v>665</v>
-      </c>
-      <c r="C384" s="44" t="s">
-        <v>666</v>
-      </c>
-      <c r="D384" s="38" t="s">
-        <v>1103</v>
-      </c>
-      <c r="E384" s="46"/>
+        <v>662</v>
+      </c>
+      <c r="C384" s="40" t="s">
+        <v>624</v>
+      </c>
+      <c r="D384" s="40" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E384" s="40" t="s">
+        <v>1121</v>
+      </c>
       <c r="F384" s="38" t="s">
         <v>1141</v>
       </c>
-      <c r="G384" s="44"/>
+      <c r="G384" s="38"/>
     </row>
     <row r="385" spans="1:7">
       <c r="A385" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B385" s="38" t="s">
-        <v>667</v>
-      </c>
-      <c r="C385" s="44" t="s">
-        <v>631</v>
-      </c>
-      <c r="D385" s="38" t="s">
-        <v>597</v>
-      </c>
-      <c r="E385" s="38"/>
-      <c r="F385" s="38" t="s">
-        <v>1141</v>
-      </c>
-      <c r="G385" s="44"/>
+        <v>663</v>
+      </c>
+      <c r="C385" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D385" s="41"/>
+      <c r="E385" s="41"/>
+      <c r="F385" s="41"/>
+      <c r="G385" s="41"/>
     </row>
     <row r="386" spans="1:7">
       <c r="A386" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B386" s="38" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C386" s="44" t="s">
-        <v>633</v>
+        <v>590</v>
       </c>
       <c r="D386" s="38" t="s">
-        <v>1101</v>
+        <v>591</v>
       </c>
       <c r="E386" s="38"/>
       <c r="F386" s="38" t="s">
         <v>1141</v>
       </c>
-      <c r="G386" s="38"/>
+      <c r="G386" s="44" t="s">
+        <v>1109</v>
+      </c>
     </row>
     <row r="387" spans="1:7">
       <c r="A387" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B387" s="38" t="s">
-        <v>669</v>
-      </c>
-      <c r="C387" s="40" t="s">
-        <v>635</v>
+        <v>665</v>
+      </c>
+      <c r="C387" s="44" t="s">
+        <v>666</v>
       </c>
       <c r="D387" s="38" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E387" s="38" t="s">
-        <v>636</v>
-      </c>
+        <v>1103</v>
+      </c>
+      <c r="E387" s="45"/>
       <c r="F387" s="38" t="s">
         <v>1141</v>
       </c>
-      <c r="G387" s="38"/>
+      <c r="G387" s="44"/>
     </row>
     <row r="388" spans="1:7">
       <c r="A388" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B388" s="38">
-        <v>11.3</v>
-      </c>
-      <c r="C388" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D388" s="41"/>
-      <c r="E388" s="41"/>
-      <c r="F388" s="41"/>
-      <c r="G388" s="41"/>
+      <c r="B388" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="C388" s="44" t="s">
+        <v>631</v>
+      </c>
+      <c r="D388" s="38" t="s">
+        <v>597</v>
+      </c>
+      <c r="E388" s="38"/>
+      <c r="F388" s="38" t="s">
+        <v>1141</v>
+      </c>
+      <c r="G388" s="44"/>
     </row>
     <row r="389" spans="1:7">
       <c r="A389" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B389" s="38" t="s">
-        <v>670</v>
-      </c>
-      <c r="C389" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D389" s="41"/>
-      <c r="E389" s="41"/>
-      <c r="F389" s="41"/>
-      <c r="G389" s="41"/>
-    </row>
-    <row r="390" spans="1:7" ht="45">
+        <v>668</v>
+      </c>
+      <c r="C389" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D389" s="38" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E389" s="38"/>
+      <c r="F389" s="38" t="s">
+        <v>1141</v>
+      </c>
+      <c r="G389" s="38"/>
+    </row>
+    <row r="390" spans="1:7">
       <c r="A390" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B390" s="38" t="s">
-        <v>671</v>
-      </c>
-      <c r="C390" s="44" t="s">
-        <v>672</v>
-      </c>
-      <c r="D390" s="38">
-        <v>78.3</v>
+        <v>669</v>
+      </c>
+      <c r="C390" s="40" t="s">
+        <v>635</v>
+      </c>
+      <c r="D390" s="38" t="s">
+        <v>1098</v>
       </c>
       <c r="E390" s="38" t="s">
-        <v>1272</v>
+        <v>636</v>
       </c>
       <c r="F390" s="38" t="s">
-        <v>1142</v>
-      </c>
-      <c r="G390" s="44" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="391" spans="1:7" ht="30">
+        <v>1141</v>
+      </c>
+      <c r="G390" s="38"/>
+    </row>
+    <row r="391" spans="1:7">
       <c r="A391" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B391" s="38" t="s">
-        <v>673</v>
-      </c>
-      <c r="C391" s="38" t="s">
-        <v>674</v>
-      </c>
-      <c r="D391" s="38" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E391" s="40" t="s">
-        <v>1270</v>
-      </c>
-      <c r="F391" s="38" t="s">
-        <v>1142</v>
-      </c>
-      <c r="G391" s="38"/>
+      <c r="B391" s="38">
+        <v>11.3</v>
+      </c>
+      <c r="C391" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D391" s="41"/>
+      <c r="E391" s="41"/>
+      <c r="F391" s="41"/>
+      <c r="G391" s="41"/>
     </row>
     <row r="392" spans="1:7">
       <c r="A392" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B392" s="38" t="s">
-        <v>675</v>
-      </c>
-      <c r="C392" s="44" t="s">
-        <v>676</v>
-      </c>
-      <c r="D392" s="38">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E392" s="38" t="s">
+        <v>670</v>
+      </c>
+      <c r="C392" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D392" s="41"/>
+      <c r="E392" s="41"/>
+      <c r="F392" s="41"/>
+      <c r="G392" s="41"/>
+    </row>
+    <row r="393" spans="1:7" ht="45">
+      <c r="A393" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B393" s="38" t="s">
+        <v>671</v>
+      </c>
+      <c r="C393" s="44" t="s">
+        <v>672</v>
+      </c>
+      <c r="D393" s="38">
+        <v>78.3</v>
+      </c>
+      <c r="E393" s="38" t="s">
         <v>1272</v>
       </c>
-      <c r="F392" s="38" t="s">
+      <c r="F393" s="38" t="s">
         <v>1142</v>
       </c>
-      <c r="G392" s="44"/>
-    </row>
-    <row r="393" spans="1:7">
-      <c r="A393" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B393" s="38" t="s">
-        <v>677</v>
-      </c>
-      <c r="C393" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D393" s="41"/>
-      <c r="E393" s="41"/>
-      <c r="F393" s="41"/>
-      <c r="G393" s="41"/>
-    </row>
-    <row r="394" spans="1:7">
+      <c r="G393" s="44" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" ht="30">
       <c r="A394" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B394" s="38" t="s">
-        <v>678</v>
-      </c>
-      <c r="C394" s="41" t="s">
-        <v>644</v>
-      </c>
-      <c r="D394" s="41"/>
-      <c r="E394" s="41"/>
-      <c r="F394" s="41"/>
-      <c r="G394" s="41"/>
+        <v>673</v>
+      </c>
+      <c r="C394" s="38" t="s">
+        <v>674</v>
+      </c>
+      <c r="D394" s="38" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E394" s="40" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F394" s="38" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G394" s="38"/>
     </row>
     <row r="395" spans="1:7">
       <c r="A395" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B395" s="38" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C395" s="44" t="s">
-        <v>680</v>
-      </c>
-      <c r="D395" s="38" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E395" s="38"/>
+        <v>676</v>
+      </c>
+      <c r="D395" s="38">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E395" s="38" t="s">
+        <v>1272</v>
+      </c>
       <c r="F395" s="38" t="s">
         <v>1142</v>
       </c>
-      <c r="G395" s="44" t="s">
-        <v>681</v>
-      </c>
+      <c r="G395" s="44"/>
     </row>
     <row r="396" spans="1:7">
       <c r="A396" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B396" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="C396" s="44" t="s">
-        <v>683</v>
-      </c>
-      <c r="D396" s="38" t="s">
-        <v>684</v>
-      </c>
-      <c r="E396" s="38"/>
-      <c r="F396" s="38" t="s">
-        <v>1142</v>
-      </c>
-      <c r="G396" s="44"/>
+        <v>677</v>
+      </c>
+      <c r="C396" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D396" s="41"/>
+      <c r="E396" s="41"/>
+      <c r="F396" s="41"/>
+      <c r="G396" s="41"/>
     </row>
     <row r="397" spans="1:7">
       <c r="A397" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B397" s="38" t="s">
-        <v>685</v>
-      </c>
-      <c r="C397" s="44" t="s">
-        <v>686</v>
-      </c>
-      <c r="D397" s="38" t="s">
-        <v>580</v>
-      </c>
-      <c r="E397" s="38"/>
-      <c r="F397" s="38" t="s">
-        <v>1142</v>
-      </c>
-      <c r="G397" s="44"/>
-    </row>
-    <row r="398" spans="1:7" ht="30">
+        <v>678</v>
+      </c>
+      <c r="C397" s="41" t="s">
+        <v>644</v>
+      </c>
+      <c r="D397" s="41"/>
+      <c r="E397" s="41"/>
+      <c r="F397" s="41"/>
+      <c r="G397" s="41"/>
+    </row>
+    <row r="398" spans="1:7">
       <c r="A398" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B398" s="38" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="C398" s="44" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="D398" s="38" t="s">
-        <v>603</v>
+        <v>1068</v>
       </c>
       <c r="E398" s="38"/>
       <c r="F398" s="38" t="s">
         <v>1142</v>
       </c>
-      <c r="G398" s="44"/>
+      <c r="G398" s="44" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="399" spans="1:7">
       <c r="A399" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B399" s="38" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="C399" s="44" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="D399" s="38" t="s">
-        <v>618</v>
+        <v>684</v>
       </c>
       <c r="E399" s="38"/>
       <c r="F399" s="38" t="s">
@@ -15691,18 +15716,18 @@
       </c>
       <c r="G399" s="44"/>
     </row>
-    <row r="400" spans="1:7" ht="30">
+    <row r="400" spans="1:7">
       <c r="A400" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B400" s="38" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="C400" s="44" t="s">
-        <v>659</v>
+        <v>686</v>
       </c>
       <c r="D400" s="38" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E400" s="38"/>
       <c r="F400" s="38" t="s">
@@ -15710,72 +15735,72 @@
       </c>
       <c r="G400" s="44"/>
     </row>
-    <row r="401" spans="1:7">
+    <row r="401" spans="1:7" ht="30">
       <c r="A401" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B401" s="38" t="s">
-        <v>692</v>
-      </c>
-      <c r="C401" s="41" t="s">
-        <v>620</v>
-      </c>
-      <c r="D401" s="41"/>
-      <c r="E401" s="41"/>
-      <c r="F401" s="41"/>
-      <c r="G401" s="41"/>
+        <v>687</v>
+      </c>
+      <c r="C401" s="44" t="s">
+        <v>688</v>
+      </c>
+      <c r="D401" s="38" t="s">
+        <v>603</v>
+      </c>
+      <c r="E401" s="38"/>
+      <c r="F401" s="38" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G401" s="44"/>
     </row>
     <row r="402" spans="1:7">
       <c r="A402" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B402" s="38" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="C402" s="44" t="s">
-        <v>622</v>
+        <v>690</v>
       </c>
       <c r="D402" s="38" t="s">
-        <v>597</v>
+        <v>618</v>
       </c>
       <c r="E402" s="38"/>
       <c r="F402" s="38" t="s">
         <v>1142</v>
       </c>
-      <c r="G402" s="44" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="403" spans="1:7">
+      <c r="G402" s="44"/>
+    </row>
+    <row r="403" spans="1:7" ht="30">
       <c r="A403" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B403" s="38" t="s">
-        <v>694</v>
-      </c>
-      <c r="C403" s="40" t="s">
-        <v>624</v>
-      </c>
-      <c r="D403" s="40" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E403" s="40" t="s">
-        <v>1121</v>
-      </c>
+        <v>691</v>
+      </c>
+      <c r="C403" s="44" t="s">
+        <v>659</v>
+      </c>
+      <c r="D403" s="38" t="s">
+        <v>586</v>
+      </c>
+      <c r="E403" s="38"/>
       <c r="F403" s="38" t="s">
         <v>1142</v>
       </c>
-      <c r="G403" s="38"/>
+      <c r="G403" s="44"/>
     </row>
     <row r="404" spans="1:7">
       <c r="A404" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B404" s="38" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C404" s="41" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="D404" s="41"/>
       <c r="E404" s="41"/>
@@ -15787,20 +15812,20 @@
         <v>58</v>
       </c>
       <c r="B405" s="38" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C405" s="44" t="s">
-        <v>590</v>
+        <v>622</v>
       </c>
       <c r="D405" s="38" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="E405" s="38"/>
       <c r="F405" s="38" t="s">
         <v>1142</v>
       </c>
       <c r="G405" s="44" t="s">
-        <v>1109</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="406" spans="1:7">
@@ -15808,332 +15833,334 @@
         <v>58</v>
       </c>
       <c r="B406" s="38" t="s">
-        <v>697</v>
-      </c>
-      <c r="C406" s="44" t="s">
-        <v>666</v>
-      </c>
-      <c r="D406" s="38" t="s">
-        <v>1103</v>
-      </c>
-      <c r="E406" s="46"/>
+        <v>694</v>
+      </c>
+      <c r="C406" s="40" t="s">
+        <v>624</v>
+      </c>
+      <c r="D406" s="40" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E406" s="40" t="s">
+        <v>1121</v>
+      </c>
       <c r="F406" s="38" t="s">
         <v>1142</v>
       </c>
-      <c r="G406" s="44"/>
+      <c r="G406" s="38"/>
     </row>
     <row r="407" spans="1:7">
       <c r="A407" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B407" s="38" t="s">
-        <v>698</v>
-      </c>
-      <c r="C407" s="44" t="s">
-        <v>631</v>
-      </c>
-      <c r="D407" s="38" t="s">
-        <v>597</v>
-      </c>
-      <c r="E407" s="38"/>
-      <c r="F407" s="38" t="s">
-        <v>1142</v>
-      </c>
-      <c r="G407" s="44"/>
+        <v>695</v>
+      </c>
+      <c r="C407" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D407" s="41"/>
+      <c r="E407" s="41"/>
+      <c r="F407" s="41"/>
+      <c r="G407" s="41"/>
     </row>
     <row r="408" spans="1:7">
       <c r="A408" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B408" s="38" t="s">
-        <v>699</v>
-      </c>
-      <c r="C408" s="38" t="s">
-        <v>633</v>
+        <v>696</v>
+      </c>
+      <c r="C408" s="44" t="s">
+        <v>590</v>
       </c>
       <c r="D408" s="38" t="s">
-        <v>1101</v>
+        <v>591</v>
       </c>
       <c r="E408" s="38"/>
       <c r="F408" s="38" t="s">
         <v>1142</v>
       </c>
-      <c r="G408" s="38"/>
+      <c r="G408" s="44" t="s">
+        <v>1109</v>
+      </c>
     </row>
     <row r="409" spans="1:7">
       <c r="A409" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B409" s="38" t="s">
-        <v>700</v>
-      </c>
-      <c r="C409" s="40" t="s">
-        <v>635</v>
+        <v>697</v>
+      </c>
+      <c r="C409" s="44" t="s">
+        <v>666</v>
       </c>
       <c r="D409" s="38" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E409" s="38" t="s">
-        <v>636</v>
-      </c>
+        <v>1103</v>
+      </c>
+      <c r="E409" s="45"/>
       <c r="F409" s="38" t="s">
         <v>1142</v>
       </c>
-      <c r="G409" s="38"/>
+      <c r="G409" s="44"/>
     </row>
     <row r="410" spans="1:7">
       <c r="A410" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B410" s="38">
-        <v>11.4</v>
-      </c>
-      <c r="C410" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="D410" s="41"/>
-      <c r="E410" s="41"/>
-      <c r="F410" s="41"/>
-      <c r="G410" s="41"/>
+      <c r="B410" s="38" t="s">
+        <v>698</v>
+      </c>
+      <c r="C410" s="44" t="s">
+        <v>631</v>
+      </c>
+      <c r="D410" s="38" t="s">
+        <v>597</v>
+      </c>
+      <c r="E410" s="38"/>
+      <c r="F410" s="38" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G410" s="44"/>
     </row>
     <row r="411" spans="1:7">
       <c r="A411" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B411" s="38" t="s">
-        <v>701</v>
-      </c>
-      <c r="C411" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D411" s="41"/>
-      <c r="E411" s="41"/>
-      <c r="F411" s="41"/>
-      <c r="G411" s="41"/>
-    </row>
-    <row r="412" spans="1:7" ht="45">
+        <v>699</v>
+      </c>
+      <c r="C411" s="38" t="s">
+        <v>633</v>
+      </c>
+      <c r="D411" s="38" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E411" s="38"/>
+      <c r="F411" s="38" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G411" s="38"/>
+    </row>
+    <row r="412" spans="1:7">
       <c r="A412" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B412" s="38" t="s">
-        <v>702</v>
-      </c>
-      <c r="C412" s="44" t="s">
-        <v>672</v>
-      </c>
-      <c r="D412" s="38">
-        <v>78.3</v>
-      </c>
-      <c r="E412" s="3" t="s">
-        <v>1276</v>
+        <v>700</v>
+      </c>
+      <c r="C412" s="40" t="s">
+        <v>635</v>
+      </c>
+      <c r="D412" s="38" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E412" s="38" t="s">
+        <v>636</v>
       </c>
       <c r="F412" s="38" t="s">
-        <v>1143</v>
-      </c>
-      <c r="G412" s="44" t="s">
-        <v>568</v>
-      </c>
+        <v>1142</v>
+      </c>
+      <c r="G412" s="38"/>
     </row>
     <row r="413" spans="1:7">
       <c r="A413" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B413" s="38" t="s">
-        <v>703</v>
-      </c>
-      <c r="C413" s="44" t="s">
-        <v>704</v>
-      </c>
-      <c r="D413" s="38">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E413" s="38" t="s">
-        <v>1271</v>
-      </c>
-      <c r="F413" s="38" t="s">
-        <v>1143</v>
-      </c>
-      <c r="G413" s="44"/>
+      <c r="B413" s="38">
+        <v>11.4</v>
+      </c>
+      <c r="C413" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D413" s="41"/>
+      <c r="E413" s="41"/>
+      <c r="F413" s="41"/>
+      <c r="G413" s="41"/>
     </row>
     <row r="414" spans="1:7">
       <c r="A414" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B414" s="38" t="s">
-        <v>705</v>
-      </c>
-      <c r="C414" s="44" t="s">
-        <v>676</v>
-      </c>
-      <c r="D414" s="38">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E414" s="38" t="s">
-        <v>1272</v>
-      </c>
-      <c r="F414" s="38" t="s">
+        <v>701</v>
+      </c>
+      <c r="C414" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D414" s="41"/>
+      <c r="E414" s="41"/>
+      <c r="F414" s="41"/>
+      <c r="G414" s="41"/>
+    </row>
+    <row r="415" spans="1:7" ht="45">
+      <c r="A415" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B415" s="38" t="s">
+        <v>702</v>
+      </c>
+      <c r="C415" s="44" t="s">
+        <v>672</v>
+      </c>
+      <c r="D415" s="38">
+        <v>78.3</v>
+      </c>
+      <c r="E415" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F415" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G414" s="44"/>
-    </row>
-    <row r="415" spans="1:7">
-      <c r="A415" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B415" s="38" t="s">
-        <v>706</v>
-      </c>
-      <c r="C415" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D415" s="41"/>
-      <c r="E415" s="41"/>
-      <c r="F415" s="41"/>
-      <c r="G415" s="41"/>
+      <c r="G415" s="44" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="416" spans="1:7">
       <c r="A416" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B416" s="38" t="s">
-        <v>707</v>
-      </c>
-      <c r="C416" s="41" t="s">
-        <v>644</v>
-      </c>
-      <c r="D416" s="41"/>
-      <c r="E416" s="41"/>
-      <c r="F416" s="41"/>
-      <c r="G416" s="41"/>
+        <v>703</v>
+      </c>
+      <c r="C416" s="44" t="s">
+        <v>704</v>
+      </c>
+      <c r="D416" s="38">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E416" s="38" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F416" s="38" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G416" s="44"/>
     </row>
     <row r="417" spans="1:7">
       <c r="A417" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B417" s="38" t="s">
-        <v>708</v>
-      </c>
-      <c r="C417" s="38" t="s">
-        <v>646</v>
-      </c>
-      <c r="D417" s="38" t="s">
-        <v>648</v>
-      </c>
-      <c r="E417" s="38"/>
+        <v>705</v>
+      </c>
+      <c r="C417" s="44" t="s">
+        <v>676</v>
+      </c>
+      <c r="D417" s="38">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E417" s="38" t="s">
+        <v>1272</v>
+      </c>
       <c r="F417" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G417" s="38" t="s">
-        <v>709</v>
-      </c>
+      <c r="G417" s="44"/>
     </row>
     <row r="418" spans="1:7">
       <c r="A418" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B418" s="38" t="s">
-        <v>710</v>
-      </c>
-      <c r="C418" s="44" t="s">
-        <v>711</v>
-      </c>
-      <c r="D418" s="38" t="s">
-        <v>577</v>
-      </c>
-      <c r="E418" s="38"/>
-      <c r="F418" s="38" t="s">
-        <v>1143</v>
-      </c>
-      <c r="G418" s="44"/>
+        <v>706</v>
+      </c>
+      <c r="C418" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D418" s="41"/>
+      <c r="E418" s="41"/>
+      <c r="F418" s="41"/>
+      <c r="G418" s="41"/>
     </row>
     <row r="419" spans="1:7">
       <c r="A419" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B419" s="38" t="s">
-        <v>712</v>
-      </c>
-      <c r="C419" s="44" t="s">
-        <v>713</v>
-      </c>
-      <c r="D419" s="38" t="s">
-        <v>580</v>
-      </c>
-      <c r="E419" s="38"/>
-      <c r="F419" s="38" t="s">
-        <v>1143</v>
-      </c>
-      <c r="G419" s="44"/>
+        <v>707</v>
+      </c>
+      <c r="C419" s="41" t="s">
+        <v>644</v>
+      </c>
+      <c r="D419" s="41"/>
+      <c r="E419" s="41"/>
+      <c r="F419" s="41"/>
+      <c r="G419" s="41"/>
     </row>
     <row r="420" spans="1:7">
       <c r="A420" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B420" s="38" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="C420" s="38" t="s">
-        <v>715</v>
+        <v>646</v>
       </c>
       <c r="D420" s="38" t="s">
-        <v>586</v>
+        <v>648</v>
       </c>
       <c r="E420" s="38"/>
       <c r="F420" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G420" s="38"/>
+      <c r="G420" s="38" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="421" spans="1:7">
       <c r="A421" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B421" s="38" t="s">
-        <v>716</v>
-      </c>
-      <c r="C421" s="41" t="s">
-        <v>717</v>
-      </c>
-      <c r="D421" s="41"/>
-      <c r="E421" s="41"/>
-      <c r="F421" s="41"/>
-      <c r="G421" s="41"/>
+        <v>710</v>
+      </c>
+      <c r="C421" s="44" t="s">
+        <v>711</v>
+      </c>
+      <c r="D421" s="38" t="s">
+        <v>577</v>
+      </c>
+      <c r="E421" s="38"/>
+      <c r="F421" s="38" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G421" s="44"/>
     </row>
     <row r="422" spans="1:7">
       <c r="A422" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B422" s="38" t="s">
-        <v>718</v>
-      </c>
-      <c r="C422" s="38" t="s">
-        <v>1294</v>
+        <v>712</v>
+      </c>
+      <c r="C422" s="44" t="s">
+        <v>713</v>
       </c>
       <c r="D422" s="38" t="s">
-        <v>721</v>
+        <v>580</v>
       </c>
       <c r="E422" s="38"/>
       <c r="F422" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G422" s="38" t="s">
-        <v>720</v>
-      </c>
+      <c r="G422" s="44"/>
     </row>
     <row r="423" spans="1:7">
       <c r="A423" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B423" s="38" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="C423" s="38" t="s">
-        <v>1292</v>
-      </c>
-      <c r="D423" s="40" t="s">
-        <v>724</v>
-      </c>
-      <c r="E423" s="40"/>
+        <v>715</v>
+      </c>
+      <c r="D423" s="38" t="s">
+        <v>586</v>
+      </c>
+      <c r="E423" s="38"/>
       <c r="F423" s="38" t="s">
         <v>1143</v>
       </c>
@@ -16144,125 +16171,123 @@
         <v>58</v>
       </c>
       <c r="B424" s="38" t="s">
-        <v>725</v>
-      </c>
-      <c r="C424" s="38" t="s">
-        <v>726</v>
-      </c>
-      <c r="D424" s="40" t="s">
-        <v>724</v>
-      </c>
-      <c r="E424" s="40"/>
-      <c r="F424" s="38" t="s">
-        <v>1143</v>
-      </c>
-      <c r="G424" s="38"/>
+        <v>716</v>
+      </c>
+      <c r="C424" s="41" t="s">
+        <v>717</v>
+      </c>
+      <c r="D424" s="41"/>
+      <c r="E424" s="41"/>
+      <c r="F424" s="41"/>
+      <c r="G424" s="41"/>
     </row>
     <row r="425" spans="1:7">
       <c r="A425" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B425" s="38" t="s">
-        <v>727</v>
-      </c>
-      <c r="C425" s="41" t="s">
-        <v>626</v>
-      </c>
-      <c r="D425" s="41"/>
-      <c r="E425" s="41"/>
-      <c r="F425" s="41"/>
-      <c r="G425" s="41"/>
+        <v>718</v>
+      </c>
+      <c r="C425" s="38" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D425" s="38" t="s">
+        <v>721</v>
+      </c>
+      <c r="E425" s="38"/>
+      <c r="F425" s="38" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G425" s="38" t="s">
+        <v>720</v>
+      </c>
     </row>
     <row r="426" spans="1:7">
       <c r="A426" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B426" s="38" t="s">
-        <v>728</v>
-      </c>
-      <c r="C426" s="44" t="s">
-        <v>590</v>
+        <v>722</v>
+      </c>
+      <c r="C426" s="38" t="s">
+        <v>1292</v>
       </c>
       <c r="D426" s="40" t="s">
-        <v>591</v>
+        <v>724</v>
       </c>
       <c r="E426" s="40"/>
       <c r="F426" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G426" s="44" t="s">
-        <v>729</v>
-      </c>
+      <c r="G426" s="38"/>
     </row>
     <row r="427" spans="1:7">
       <c r="A427" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B427" s="38" t="s">
-        <v>730</v>
-      </c>
-      <c r="C427" s="44" t="s">
-        <v>731</v>
+        <v>725</v>
+      </c>
+      <c r="C427" s="38" t="s">
+        <v>726</v>
       </c>
       <c r="D427" s="40" t="s">
-        <v>594</v>
+        <v>724</v>
       </c>
       <c r="E427" s="40"/>
       <c r="F427" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G427" s="44"/>
+      <c r="G427" s="38"/>
     </row>
     <row r="428" spans="1:7">
       <c r="A428" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B428" s="38" t="s">
-        <v>732</v>
-      </c>
-      <c r="C428" s="44" t="s">
-        <v>631</v>
-      </c>
-      <c r="D428" s="40" t="s">
-        <v>597</v>
-      </c>
-      <c r="E428" s="40"/>
-      <c r="F428" s="38" t="s">
-        <v>1143</v>
-      </c>
-      <c r="G428" s="44"/>
+        <v>727</v>
+      </c>
+      <c r="C428" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D428" s="41"/>
+      <c r="E428" s="41"/>
+      <c r="F428" s="41"/>
+      <c r="G428" s="41"/>
     </row>
     <row r="429" spans="1:7">
       <c r="A429" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B429" s="38" t="s">
-        <v>733</v>
-      </c>
-      <c r="C429" s="38" t="s">
-        <v>633</v>
+        <v>728</v>
+      </c>
+      <c r="C429" s="44" t="s">
+        <v>590</v>
       </c>
       <c r="D429" s="40" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="E429" s="40"/>
       <c r="F429" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G429" s="38"/>
+      <c r="G429" s="44" t="s">
+        <v>729</v>
+      </c>
     </row>
     <row r="430" spans="1:7">
       <c r="A430" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B430" s="38" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C430" s="44" t="s">
-        <v>599</v>
+        <v>731</v>
       </c>
       <c r="D430" s="40" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="E430" s="40"/>
       <c r="F430" s="38" t="s">
@@ -16270,18 +16295,18 @@
       </c>
       <c r="G430" s="44"/>
     </row>
-    <row r="431" spans="1:7" ht="30">
+    <row r="431" spans="1:7">
       <c r="A431" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B431" s="38" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C431" s="44" t="s">
-        <v>688</v>
+        <v>631</v>
       </c>
       <c r="D431" s="40" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="E431" s="40"/>
       <c r="F431" s="38" t="s">
@@ -16294,51 +16319,51 @@
         <v>58</v>
       </c>
       <c r="B432" s="38" t="s">
-        <v>736</v>
-      </c>
-      <c r="C432" s="41" t="s">
-        <v>605</v>
-      </c>
-      <c r="D432" s="41"/>
-      <c r="E432" s="41"/>
+        <v>733</v>
+      </c>
+      <c r="C432" s="38" t="s">
+        <v>633</v>
+      </c>
+      <c r="D432" s="40" t="s">
+        <v>597</v>
+      </c>
+      <c r="E432" s="40"/>
       <c r="F432" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G432" s="41"/>
-    </row>
-    <row r="433" spans="1:7" ht="45">
+      <c r="G432" s="38"/>
+    </row>
+    <row r="433" spans="1:7">
       <c r="A433" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B433" s="38" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C433" s="44" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="D433" s="40" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="E433" s="40"/>
       <c r="F433" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G433" s="44" t="s">
-        <v>738</v>
-      </c>
+      <c r="G433" s="44"/>
     </row>
     <row r="434" spans="1:7" ht="30">
       <c r="A434" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B434" s="38" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C434" s="44" t="s">
-        <v>610</v>
+        <v>688</v>
       </c>
       <c r="D434" s="40" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E434" s="40"/>
       <c r="F434" s="38" t="s">
@@ -16351,77 +16376,77 @@
         <v>58</v>
       </c>
       <c r="B435" s="38" t="s">
-        <v>740</v>
-      </c>
-      <c r="C435" s="44" t="s">
-        <v>741</v>
-      </c>
-      <c r="D435" s="40" t="s">
-        <v>606</v>
-      </c>
-      <c r="E435" s="40"/>
+        <v>736</v>
+      </c>
+      <c r="C435" s="41" t="s">
+        <v>605</v>
+      </c>
+      <c r="D435" s="41"/>
+      <c r="E435" s="41"/>
       <c r="F435" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G435" s="44" t="s">
+      <c r="G435" s="41"/>
+    </row>
+    <row r="436" spans="1:7" ht="45">
+      <c r="A436" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B436" s="38" t="s">
+        <v>737</v>
+      </c>
+      <c r="C436" s="44" t="s">
+        <v>608</v>
+      </c>
+      <c r="D436" s="40" t="s">
         <v>606</v>
-      </c>
-    </row>
-    <row r="436" spans="1:7">
-      <c r="A436" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B436" s="38" t="s">
-        <v>742</v>
-      </c>
-      <c r="C436" s="44" t="s">
-        <v>690</v>
-      </c>
-      <c r="D436" s="38" t="s">
-        <v>618</v>
       </c>
       <c r="E436" s="40"/>
       <c r="F436" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G436" s="44"/>
-    </row>
-    <row r="437" spans="1:7">
+      <c r="G436" s="44" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" ht="30">
       <c r="A437" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B437" s="38" t="s">
-        <v>743</v>
-      </c>
-      <c r="C437" s="41" t="s">
-        <v>620</v>
-      </c>
-      <c r="D437" s="41"/>
-      <c r="E437" s="41"/>
+        <v>739</v>
+      </c>
+      <c r="C437" s="44" t="s">
+        <v>610</v>
+      </c>
+      <c r="D437" s="40" t="s">
+        <v>606</v>
+      </c>
+      <c r="E437" s="40"/>
       <c r="F437" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G437" s="41"/>
+      <c r="G437" s="44"/>
     </row>
     <row r="438" spans="1:7">
       <c r="A438" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B438" s="38" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C438" s="44" t="s">
-        <v>622</v>
-      </c>
-      <c r="D438" s="38" t="s">
-        <v>597</v>
+        <v>741</v>
+      </c>
+      <c r="D438" s="40" t="s">
+        <v>606</v>
       </c>
       <c r="E438" s="40"/>
       <c r="F438" s="38" t="s">
         <v>1143</v>
       </c>
       <c r="G438" s="44" t="s">
-        <v>1096</v>
+        <v>606</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -16429,31 +16454,29 @@
         <v>58</v>
       </c>
       <c r="B439" s="38" t="s">
-        <v>745</v>
-      </c>
-      <c r="C439" s="40" t="s">
-        <v>624</v>
-      </c>
-      <c r="D439" s="40" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E439" s="40" t="s">
-        <v>1121</v>
-      </c>
+        <v>742</v>
+      </c>
+      <c r="C439" s="44" t="s">
+        <v>690</v>
+      </c>
+      <c r="D439" s="38" t="s">
+        <v>618</v>
+      </c>
+      <c r="E439" s="40"/>
       <c r="F439" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G439" s="38"/>
+      <c r="G439" s="44"/>
     </row>
     <row r="440" spans="1:7">
       <c r="A440" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B440" s="38" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C440" s="41" t="s">
-        <v>1110</v>
+        <v>620</v>
       </c>
       <c r="D440" s="41"/>
       <c r="E440" s="41"/>
@@ -16467,122 +16490,126 @@
         <v>58</v>
       </c>
       <c r="B441" s="38" t="s">
-        <v>751</v>
-      </c>
-      <c r="C441" s="40" t="s">
-        <v>635</v>
+        <v>744</v>
+      </c>
+      <c r="C441" s="44" t="s">
+        <v>622</v>
       </c>
       <c r="D441" s="38" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E441" s="38" t="s">
-        <v>636</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="E441" s="40"/>
       <c r="F441" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G441" s="38"/>
+      <c r="G441" s="44" t="s">
+        <v>1096</v>
+      </c>
     </row>
     <row r="442" spans="1:7">
       <c r="A442" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B442" s="38">
-        <v>11.5</v>
-      </c>
-      <c r="C442" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D442" s="41"/>
-      <c r="E442" s="41"/>
+      <c r="B442" s="38" t="s">
+        <v>745</v>
+      </c>
+      <c r="C442" s="40" t="s">
+        <v>624</v>
+      </c>
+      <c r="D442" s="40" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E442" s="40" t="s">
+        <v>1121</v>
+      </c>
       <c r="F442" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G442" s="37"/>
+      <c r="G442" s="38"/>
     </row>
     <row r="443" spans="1:7">
       <c r="A443" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B443" s="38" t="s">
-        <v>752</v>
-      </c>
-      <c r="C443" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D443" s="38"/>
-      <c r="E443" s="44" t="s">
-        <v>279</v>
-      </c>
+        <v>746</v>
+      </c>
+      <c r="C443" s="41" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D443" s="41"/>
+      <c r="E443" s="41"/>
       <c r="F443" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G443" s="44"/>
+      <c r="G443" s="41"/>
     </row>
     <row r="444" spans="1:7">
       <c r="A444" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B444" s="38" t="s">
-        <v>753</v>
-      </c>
-      <c r="C444" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="D444" s="38"/>
-      <c r="E444" s="44" t="s">
-        <v>279</v>
+        <v>751</v>
+      </c>
+      <c r="C444" s="40" t="s">
+        <v>635</v>
+      </c>
+      <c r="D444" s="38" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E444" s="38" t="s">
+        <v>636</v>
       </c>
       <c r="F444" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G444" s="44"/>
+      <c r="G444" s="38"/>
     </row>
     <row r="445" spans="1:7">
       <c r="A445" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B445" s="38" t="s">
-        <v>754</v>
-      </c>
-      <c r="C445" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="D445" s="38"/>
-      <c r="E445" s="44" t="s">
-        <v>279</v>
-      </c>
+      <c r="B445" s="38">
+        <v>11.5</v>
+      </c>
+      <c r="C445" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D445" s="41"/>
+      <c r="E445" s="41"/>
       <c r="F445" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G445" s="44"/>
+      <c r="G445" s="37"/>
     </row>
     <row r="446" spans="1:7">
       <c r="A446" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B446" s="38">
-        <v>11.6</v>
-      </c>
-      <c r="C446" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D446" s="41"/>
-      <c r="E446" s="37"/>
+      <c r="B446" s="38" t="s">
+        <v>752</v>
+      </c>
+      <c r="C446" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D446" s="38"/>
+      <c r="E446" s="44" t="s">
+        <v>279</v>
+      </c>
       <c r="F446" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G446" s="37"/>
+      <c r="G446" s="44"/>
     </row>
     <row r="447" spans="1:7">
       <c r="A447" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B447" s="38" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C447" s="44" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D447" s="38"/>
       <c r="E447" s="44" t="s">
@@ -16598,10 +16625,10 @@
         <v>58</v>
       </c>
       <c r="B448" s="38" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C448" s="44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D448" s="38"/>
       <c r="E448" s="44" t="s">
@@ -16617,13 +16644,13 @@
         <v>58</v>
       </c>
       <c r="B449" s="38">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="C449" s="37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D449" s="41"/>
-      <c r="E449" s="41"/>
+      <c r="E449" s="37"/>
       <c r="F449" s="38" t="s">
         <v>1143</v>
       </c>
@@ -16634,218 +16661,218 @@
         <v>58</v>
       </c>
       <c r="B450" s="38" t="s">
-        <v>757</v>
-      </c>
-      <c r="C450" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D450" s="41"/>
-      <c r="E450" s="41"/>
+        <v>755</v>
+      </c>
+      <c r="C450" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D450" s="38"/>
+      <c r="E450" s="44" t="s">
+        <v>279</v>
+      </c>
       <c r="F450" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G450" s="41"/>
-    </row>
-    <row r="451" spans="1:7" ht="45">
+      <c r="G450" s="44"/>
+    </row>
+    <row r="451" spans="1:7">
       <c r="A451" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B451" s="38" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C451" s="44" t="s">
-        <v>672</v>
-      </c>
-      <c r="D451" s="38">
-        <v>78.3</v>
-      </c>
-      <c r="E451" s="38"/>
+        <v>42</v>
+      </c>
+      <c r="D451" s="38"/>
+      <c r="E451" s="44" t="s">
+        <v>279</v>
+      </c>
       <c r="F451" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G451" s="44" t="s">
-        <v>568</v>
-      </c>
+      <c r="G451" s="44"/>
     </row>
     <row r="452" spans="1:7">
       <c r="A452" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B452" s="38" t="s">
-        <v>759</v>
-      </c>
-      <c r="C452" s="44" t="s">
-        <v>704</v>
-      </c>
-      <c r="D452" s="38">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E452" s="38"/>
+      <c r="B452" s="38">
+        <v>11.7</v>
+      </c>
+      <c r="C452" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D452" s="41"/>
+      <c r="E452" s="41"/>
       <c r="F452" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G452" s="44"/>
+      <c r="G452" s="37"/>
     </row>
     <row r="453" spans="1:7">
       <c r="A453" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B453" s="38" t="s">
-        <v>760</v>
-      </c>
-      <c r="C453" s="44" t="s">
-        <v>676</v>
-      </c>
-      <c r="D453" s="38">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E453" s="38"/>
+        <v>757</v>
+      </c>
+      <c r="C453" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D453" s="41"/>
+      <c r="E453" s="41"/>
       <c r="F453" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G453" s="44"/>
-    </row>
-    <row r="454" spans="1:7">
+      <c r="G453" s="41"/>
+    </row>
+    <row r="454" spans="1:7" ht="45">
       <c r="A454" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B454" s="38" t="s">
-        <v>761</v>
-      </c>
-      <c r="C454" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D454" s="41"/>
-      <c r="E454" s="41"/>
+        <v>758</v>
+      </c>
+      <c r="C454" s="44" t="s">
+        <v>672</v>
+      </c>
+      <c r="D454" s="38">
+        <v>78.3</v>
+      </c>
+      <c r="E454" s="38"/>
       <c r="F454" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G454" s="41"/>
+      <c r="G454" s="44" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="455" spans="1:7">
       <c r="A455" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B455" s="38" t="s">
-        <v>762</v>
-      </c>
-      <c r="C455" s="41" t="s">
-        <v>644</v>
-      </c>
-      <c r="D455" s="41"/>
-      <c r="E455" s="41"/>
+        <v>759</v>
+      </c>
+      <c r="C455" s="44" t="s">
+        <v>704</v>
+      </c>
+      <c r="D455" s="38">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E455" s="38"/>
       <c r="F455" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G455" s="41"/>
+      <c r="G455" s="44"/>
     </row>
     <row r="456" spans="1:7">
       <c r="A456" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B456" s="38" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C456" s="44" t="s">
-        <v>764</v>
-      </c>
-      <c r="D456" s="38" t="s">
-        <v>577</v>
+        <v>676</v>
+      </c>
+      <c r="D456" s="38">
+        <v>78.099999999999994</v>
       </c>
       <c r="E456" s="38"/>
       <c r="F456" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G456" s="44" t="s">
-        <v>1099</v>
-      </c>
+      <c r="G456" s="44"/>
     </row>
     <row r="457" spans="1:7">
       <c r="A457" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B457" s="38" t="s">
-        <v>765</v>
-      </c>
-      <c r="C457" s="44" t="s">
-        <v>713</v>
-      </c>
-      <c r="D457" s="38" t="s">
-        <v>580</v>
-      </c>
-      <c r="E457" s="38"/>
+        <v>761</v>
+      </c>
+      <c r="C457" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D457" s="41"/>
+      <c r="E457" s="41"/>
       <c r="F457" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G457" s="44"/>
+      <c r="G457" s="41"/>
     </row>
     <row r="458" spans="1:7">
       <c r="A458" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B458" s="38" t="s">
-        <v>766</v>
-      </c>
-      <c r="C458" s="40" t="s">
-        <v>767</v>
-      </c>
-      <c r="D458" s="38" t="s">
-        <v>1100</v>
-      </c>
-      <c r="E458" s="38"/>
+        <v>762</v>
+      </c>
+      <c r="C458" s="41" t="s">
+        <v>644</v>
+      </c>
+      <c r="D458" s="41"/>
+      <c r="E458" s="41"/>
       <c r="F458" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G458" s="38"/>
+      <c r="G458" s="41"/>
     </row>
     <row r="459" spans="1:7">
       <c r="A459" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B459" s="38" t="s">
-        <v>768</v>
-      </c>
-      <c r="C459" s="38" t="s">
-        <v>769</v>
+        <v>763</v>
+      </c>
+      <c r="C459" s="44" t="s">
+        <v>764</v>
       </c>
       <c r="D459" s="38" t="s">
-        <v>618</v>
+        <v>577</v>
       </c>
       <c r="E459" s="38"/>
       <c r="F459" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G459" s="38"/>
+      <c r="G459" s="44" t="s">
+        <v>1099</v>
+      </c>
     </row>
     <row r="460" spans="1:7">
       <c r="A460" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B460" s="38" t="s">
-        <v>770</v>
-      </c>
-      <c r="C460" s="38" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D460" s="38"/>
+        <v>765</v>
+      </c>
+      <c r="C460" s="44" t="s">
+        <v>713</v>
+      </c>
+      <c r="D460" s="38" t="s">
+        <v>580</v>
+      </c>
       <c r="E460" s="38"/>
       <c r="F460" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G460" s="38"/>
-    </row>
-    <row r="461" spans="1:7" ht="30">
+      <c r="G460" s="44"/>
+    </row>
+    <row r="461" spans="1:7">
       <c r="A461" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B461" s="38" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C461" s="38" t="s">
-        <v>771</v>
+        <v>766</v>
+      </c>
+      <c r="C461" s="40" t="s">
+        <v>767</v>
       </c>
       <c r="D461" s="38" t="s">
-        <v>586</v>
+        <v>1100</v>
       </c>
       <c r="E461" s="38"/>
       <c r="F461" s="38" t="s">
@@ -16858,13 +16885,13 @@
         <v>58</v>
       </c>
       <c r="B462" s="38" t="s">
-        <v>1120</v>
+        <v>768</v>
       </c>
       <c r="C462" s="38" t="s">
-        <v>1117</v>
+        <v>769</v>
       </c>
       <c r="D462" s="38" t="s">
-        <v>724</v>
+        <v>618</v>
       </c>
       <c r="E462" s="38"/>
       <c r="F462" s="38" t="s">
@@ -16877,53 +16904,51 @@
         <v>58</v>
       </c>
       <c r="B463" s="38" t="s">
-        <v>773</v>
-      </c>
-      <c r="C463" s="41" t="s">
-        <v>620</v>
-      </c>
-      <c r="D463" s="41"/>
-      <c r="E463" s="41"/>
+        <v>770</v>
+      </c>
+      <c r="C463" s="38" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D463" s="38"/>
+      <c r="E463" s="38"/>
       <c r="F463" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G463" s="41"/>
-    </row>
-    <row r="464" spans="1:7">
+      <c r="G463" s="38"/>
+    </row>
+    <row r="464" spans="1:7" ht="30">
       <c r="A464" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B464" s="38" t="s">
-        <v>774</v>
-      </c>
-      <c r="C464" s="44" t="s">
-        <v>622</v>
+        <v>1119</v>
+      </c>
+      <c r="C464" s="38" t="s">
+        <v>771</v>
       </c>
       <c r="D464" s="38" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="E464" s="38"/>
       <c r="F464" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G464" s="44" t="s">
-        <v>1096</v>
-      </c>
+      <c r="G464" s="38"/>
     </row>
     <row r="465" spans="1:7">
       <c r="A465" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B465" s="38" t="s">
-        <v>775</v>
-      </c>
-      <c r="C465" s="40" t="s">
-        <v>624</v>
-      </c>
-      <c r="D465" s="40" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E465" s="40"/>
+        <v>1120</v>
+      </c>
+      <c r="C465" s="38" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D465" s="38" t="s">
+        <v>724</v>
+      </c>
+      <c r="E465" s="38"/>
       <c r="F465" s="38" t="s">
         <v>1143</v>
       </c>
@@ -16934,10 +16959,10 @@
         <v>58</v>
       </c>
       <c r="B466" s="38" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C466" s="41" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="D466" s="41"/>
       <c r="E466" s="41"/>
@@ -16951,20 +16976,20 @@
         <v>58</v>
       </c>
       <c r="B467" s="38" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C467" s="44" t="s">
-        <v>590</v>
+        <v>622</v>
       </c>
       <c r="D467" s="38" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="E467" s="38"/>
       <c r="F467" s="38" t="s">
         <v>1143</v>
       </c>
       <c r="G467" s="44" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="468" spans="1:7">
@@ -16972,76 +16997,133 @@
         <v>58</v>
       </c>
       <c r="B468" s="38" t="s">
-        <v>778</v>
-      </c>
-      <c r="C468" s="44" t="s">
-        <v>666</v>
-      </c>
-      <c r="D468" s="38" t="s">
-        <v>594</v>
-      </c>
-      <c r="E468" s="38"/>
+        <v>775</v>
+      </c>
+      <c r="C468" s="40" t="s">
+        <v>624</v>
+      </c>
+      <c r="D468" s="40" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E468" s="40"/>
       <c r="F468" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G468" s="44"/>
+      <c r="G468" s="38"/>
     </row>
     <row r="469" spans="1:7">
       <c r="A469" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B469" s="38" t="s">
-        <v>779</v>
-      </c>
-      <c r="C469" s="44" t="s">
-        <v>631</v>
-      </c>
-      <c r="D469" s="38" t="s">
-        <v>597</v>
-      </c>
-      <c r="E469" s="38"/>
+        <v>776</v>
+      </c>
+      <c r="C469" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D469" s="41"/>
+      <c r="E469" s="41"/>
       <c r="F469" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G469" s="44"/>
+      <c r="G469" s="41"/>
     </row>
     <row r="470" spans="1:7">
       <c r="A470" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B470" s="38" t="s">
-        <v>780</v>
-      </c>
-      <c r="C470" s="38" t="s">
-        <v>633</v>
+        <v>777</v>
+      </c>
+      <c r="C470" s="44" t="s">
+        <v>590</v>
       </c>
       <c r="D470" s="38" t="s">
-        <v>1101</v>
+        <v>591</v>
       </c>
       <c r="E470" s="38"/>
       <c r="F470" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G470" s="38"/>
+      <c r="G470" s="44" t="s">
+        <v>1097</v>
+      </c>
     </row>
     <row r="471" spans="1:7">
       <c r="A471" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B471" s="38" t="s">
-        <v>781</v>
-      </c>
-      <c r="C471" s="40" t="s">
-        <v>635</v>
+        <v>778</v>
+      </c>
+      <c r="C471" s="44" t="s">
+        <v>666</v>
       </c>
       <c r="D471" s="38" t="s">
-        <v>1098</v>
+        <v>594</v>
       </c>
       <c r="E471" s="38"/>
       <c r="F471" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G471" s="38"/>
+      <c r="G471" s="44"/>
+    </row>
+    <row r="472" spans="1:7">
+      <c r="A472" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B472" s="38" t="s">
+        <v>779</v>
+      </c>
+      <c r="C472" s="44" t="s">
+        <v>631</v>
+      </c>
+      <c r="D472" s="38" t="s">
+        <v>597</v>
+      </c>
+      <c r="E472" s="38"/>
+      <c r="F472" s="38" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G472" s="44"/>
+    </row>
+    <row r="473" spans="1:7">
+      <c r="A473" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B473" s="38" t="s">
+        <v>780</v>
+      </c>
+      <c r="C473" s="38" t="s">
+        <v>633</v>
+      </c>
+      <c r="D473" s="38" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E473" s="38"/>
+      <c r="F473" s="38" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G473" s="38"/>
+    </row>
+    <row r="474" spans="1:7">
+      <c r="A474" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B474" s="38" t="s">
+        <v>781</v>
+      </c>
+      <c r="C474" s="40" t="s">
+        <v>635</v>
+      </c>
+      <c r="D474" s="38" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E474" s="38"/>
+      <c r="F474" s="38" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G474" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -19318,16 +19400,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" s="24" customFormat="1" ht="30.95" customHeight="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="67" t="s">
         <v>782</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="67" t="s">
         <v>783</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="67" t="s">
         <v>784</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="67" t="s">
         <v>785</v>
       </c>
       <c r="E1" s="30" t="s">
@@ -19590,16 +19672,16 @@
       <c r="IV1" s="23"/>
     </row>
     <row r="2" spans="1:256" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="67" t="s">
         <v>859</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="67" t="s">
         <v>861</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="67" t="s">
         <v>290</v>
       </c>
       <c r="E2" s="30"/>
@@ -19609,16 +19691,16 @@
       <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="67" t="s">
         <v>862</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="67" t="s">
         <v>863</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="67" t="s">
         <v>1295</v>
       </c>
       <c r="E3" s="30"/>
@@ -19628,16 +19710,16 @@
       <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="67" t="s">
         <v>864</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="67" t="s">
         <v>865</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="67" t="s">
         <v>294</v>
       </c>
       <c r="E4" s="30"/>
@@ -19647,16 +19729,16 @@
       <c r="G4" s="30"/>
     </row>
     <row r="5" spans="1:256" ht="31.5" customHeight="1">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="67" t="s">
         <v>866</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="67" t="s">
         <v>867</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="67" t="s">
         <v>297</v>
       </c>
       <c r="E5" s="30"/>
@@ -19666,16 +19748,16 @@
       <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="67" t="s">
         <v>868</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="67" t="s">
         <v>869</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="67" t="s">
         <v>870</v>
       </c>
       <c r="E6" s="30"/>
@@ -19685,16 +19767,16 @@
       <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:256" ht="17.100000000000001" customHeight="1">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="67" t="s">
         <v>871</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="67" t="s">
         <v>872</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="67" t="s">
         <v>873</v>
       </c>
       <c r="E7" s="30"/>
@@ -19704,16 +19786,16 @@
       <c r="G7" s="30"/>
     </row>
     <row r="8" spans="1:256" ht="17.100000000000001" customHeight="1">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="67" t="s">
         <v>874</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="67" t="s">
         <v>875</v>
       </c>
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="67" t="s">
         <v>876</v>
       </c>
       <c r="E8" s="30"/>
@@ -19723,16 +19805,16 @@
       <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:256" ht="31.5" customHeight="1">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="67" t="s">
         <v>877</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="67" t="s">
         <v>878</v>
       </c>
-      <c r="D9" s="69" t="s">
+      <c r="D9" s="67" t="s">
         <v>879</v>
       </c>
       <c r="E9" s="30"/>
@@ -19742,16 +19824,16 @@
       <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:256" ht="17.100000000000001" customHeight="1">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="67" t="s">
         <v>880</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="67" t="s">
         <v>881</v>
       </c>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="67" t="s">
         <v>370</v>
       </c>
       <c r="E10" s="30"/>
@@ -19761,16 +19843,16 @@
       <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="67" t="s">
         <v>882</v>
       </c>
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="67" t="s">
         <v>883</v>
       </c>
-      <c r="D11" s="69" t="s">
+      <c r="D11" s="67" t="s">
         <v>372</v>
       </c>
       <c r="E11" s="30"/>
@@ -19780,16 +19862,16 @@
       <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:256" ht="17.100000000000001" customHeight="1">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="67" t="s">
         <v>884</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="67" t="s">
         <v>885</v>
       </c>
-      <c r="D12" s="69" t="s">
+      <c r="D12" s="67" t="s">
         <v>886</v>
       </c>
       <c r="E12" s="30"/>
@@ -19799,16 +19881,16 @@
       <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:256" ht="31.5" customHeight="1">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="67" t="s">
         <v>887</v>
       </c>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="67" t="s">
         <v>888</v>
       </c>
-      <c r="D13" s="69" t="s">
+      <c r="D13" s="67" t="s">
         <v>376</v>
       </c>
       <c r="E13" s="30"/>
@@ -19818,16 +19900,16 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:256" ht="17.100000000000001" customHeight="1">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="67" t="s">
         <v>889</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="67" t="s">
         <v>890</v>
       </c>
-      <c r="D14" s="69" t="s">
+      <c r="D14" s="67" t="s">
         <v>379</v>
       </c>
       <c r="E14" s="30"/>
@@ -19837,16 +19919,16 @@
       <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:256" ht="17.100000000000001" customHeight="1">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="67" t="s">
         <v>891</v>
       </c>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="67" t="s">
         <v>892</v>
       </c>
-      <c r="D15" s="69" t="s">
+      <c r="D15" s="67" t="s">
         <v>381</v>
       </c>
       <c r="E15" s="30"/>
@@ -19856,16 +19938,16 @@
       <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:256" ht="31.5" customHeight="1">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="66" t="s">
         <v>1092</v>
       </c>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C16" s="68" t="s">
+      <c r="C16" s="66" t="s">
         <v>1091</v>
       </c>
-      <c r="D16" s="68" t="s">
+      <c r="D16" s="66" t="s">
         <v>1086</v>
       </c>
       <c r="E16" s="30"/>
@@ -19875,16 +19957,16 @@
       <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="66" t="s">
         <v>1085</v>
       </c>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="66" t="s">
         <v>1089</v>
       </c>
-      <c r="D17" s="68" t="s">
+      <c r="D17" s="66" t="s">
         <v>1090</v>
       </c>
       <c r="E17" s="30"/>
@@ -19894,16 +19976,16 @@
       <c r="G17" s="30"/>
     </row>
     <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="67" t="s">
         <v>893</v>
       </c>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="67" t="s">
         <v>894</v>
       </c>
-      <c r="D18" s="68" t="s">
+      <c r="D18" s="66" t="s">
         <v>1094</v>
       </c>
       <c r="E18" s="30"/>
@@ -19913,16 +19995,16 @@
       <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="67" t="s">
         <v>895</v>
       </c>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="67" t="s">
         <v>896</v>
       </c>
-      <c r="D19" s="69" t="s">
+      <c r="D19" s="67" t="s">
         <v>390</v>
       </c>
       <c r="E19" s="30"/>
@@ -19932,16 +20014,16 @@
       <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="67" t="s">
         <v>897</v>
       </c>
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C20" s="69" t="s">
+      <c r="C20" s="67" t="s">
         <v>898</v>
       </c>
-      <c r="D20" s="69" t="s">
+      <c r="D20" s="67" t="s">
         <v>392</v>
       </c>
       <c r="E20" s="30"/>
@@ -19951,16 +20033,16 @@
       <c r="G20" s="30"/>
     </row>
     <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A21" s="69" t="s">
+      <c r="A21" s="67" t="s">
         <v>899</v>
       </c>
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C21" s="69" t="s">
+      <c r="C21" s="67" t="s">
         <v>900</v>
       </c>
-      <c r="D21" s="69" t="s">
+      <c r="D21" s="67" t="s">
         <v>901</v>
       </c>
       <c r="E21" s="30"/>
@@ -19970,16 +20052,16 @@
       <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="67" t="s">
         <v>902</v>
       </c>
-      <c r="B22" s="69" t="s">
+      <c r="B22" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C22" s="69" t="s">
+      <c r="C22" s="67" t="s">
         <v>903</v>
       </c>
-      <c r="D22" s="69" t="s">
+      <c r="D22" s="67" t="s">
         <v>398</v>
       </c>
       <c r="E22" s="30"/>
@@ -19989,16 +20071,16 @@
       <c r="G22" s="30"/>
     </row>
     <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="67" t="s">
         <v>904</v>
       </c>
-      <c r="B23" s="69" t="s">
+      <c r="B23" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C23" s="69" t="s">
+      <c r="C23" s="67" t="s">
         <v>905</v>
       </c>
-      <c r="D23" s="69" t="s">
+      <c r="D23" s="67" t="s">
         <v>400</v>
       </c>
       <c r="E23" s="30"/>
@@ -20008,16 +20090,16 @@
       <c r="G23" s="30"/>
     </row>
     <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="67" t="s">
         <v>906</v>
       </c>
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C24" s="69" t="s">
+      <c r="C24" s="67" t="s">
         <v>907</v>
       </c>
-      <c r="D24" s="69" t="s">
+      <c r="D24" s="67" t="s">
         <v>402</v>
       </c>
       <c r="E24" s="30"/>
@@ -20027,16 +20109,16 @@
       <c r="G24" s="30"/>
     </row>
     <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A25" s="69" t="s">
+      <c r="A25" s="67" t="s">
         <v>908</v>
       </c>
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C25" s="69" t="s">
+      <c r="C25" s="67" t="s">
         <v>909</v>
       </c>
-      <c r="D25" s="69" t="s">
+      <c r="D25" s="67" t="s">
         <v>910</v>
       </c>
       <c r="E25" s="30"/>
@@ -20046,16 +20128,16 @@
       <c r="G25" s="30"/>
     </row>
     <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A26" s="69" t="s">
+      <c r="A26" s="67" t="s">
         <v>911</v>
       </c>
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C26" s="69" t="s">
+      <c r="C26" s="67" t="s">
         <v>912</v>
       </c>
-      <c r="D26" s="69" t="s">
+      <c r="D26" s="67" t="s">
         <v>408</v>
       </c>
       <c r="E26" s="30"/>
@@ -20065,16 +20147,16 @@
       <c r="G26" s="30"/>
     </row>
     <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="67" t="s">
         <v>913</v>
       </c>
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C27" s="69" t="s">
+      <c r="C27" s="67" t="s">
         <v>914</v>
       </c>
-      <c r="D27" s="69" t="s">
+      <c r="D27" s="67" t="s">
         <v>915</v>
       </c>
       <c r="E27" s="30"/>
@@ -20084,16 +20166,16 @@
       <c r="G27" s="30"/>
     </row>
     <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A28" s="69" t="s">
+      <c r="A28" s="67" t="s">
         <v>916</v>
       </c>
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C28" s="69" t="s">
+      <c r="C28" s="67" t="s">
         <v>917</v>
       </c>
-      <c r="D28" s="69" t="s">
+      <c r="D28" s="67" t="s">
         <v>412</v>
       </c>
       <c r="E28" s="30"/>
@@ -20103,16 +20185,16 @@
       <c r="G28" s="30"/>
     </row>
     <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A29" s="69" t="s">
+      <c r="A29" s="67" t="s">
         <v>918</v>
       </c>
-      <c r="B29" s="69" t="s">
+      <c r="B29" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="67" t="s">
         <v>919</v>
       </c>
-      <c r="D29" s="69" t="s">
+      <c r="D29" s="67" t="s">
         <v>414</v>
       </c>
       <c r="E29" s="30"/>
@@ -20122,16 +20204,16 @@
       <c r="G29" s="30"/>
     </row>
     <row r="30" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A30" s="69" t="s">
+      <c r="A30" s="67" t="s">
         <v>920</v>
       </c>
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C30" s="69" t="s">
+      <c r="C30" s="67" t="s">
         <v>921</v>
       </c>
-      <c r="D30" s="69" t="s">
+      <c r="D30" s="67" t="s">
         <v>416</v>
       </c>
       <c r="E30" s="30"/>
@@ -20141,16 +20223,16 @@
       <c r="G30" s="30"/>
     </row>
     <row r="31" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A31" s="69" t="s">
+      <c r="A31" s="67" t="s">
         <v>922</v>
       </c>
-      <c r="B31" s="69" t="s">
+      <c r="B31" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C31" s="69" t="s">
+      <c r="C31" s="67" t="s">
         <v>923</v>
       </c>
-      <c r="D31" s="69" t="s">
+      <c r="D31" s="67" t="s">
         <v>924</v>
       </c>
       <c r="E31" s="30"/>
@@ -20160,16 +20242,16 @@
       <c r="G31" s="30"/>
     </row>
     <row r="32" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A32" s="69" t="s">
+      <c r="A32" s="67" t="s">
         <v>925</v>
       </c>
-      <c r="B32" s="69" t="s">
+      <c r="B32" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C32" s="69" t="s">
+      <c r="C32" s="67" t="s">
         <v>926</v>
       </c>
-      <c r="D32" s="69" t="s">
+      <c r="D32" s="67" t="s">
         <v>927</v>
       </c>
       <c r="E32" s="30"/>
@@ -20179,16 +20261,16 @@
       <c r="G32" s="30"/>
     </row>
     <row r="33" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A33" s="69" t="s">
+      <c r="A33" s="67" t="s">
         <v>928</v>
       </c>
-      <c r="B33" s="69" t="s">
+      <c r="B33" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C33" s="69" t="s">
+      <c r="C33" s="67" t="s">
         <v>929</v>
       </c>
-      <c r="D33" s="69" t="s">
+      <c r="D33" s="67" t="s">
         <v>930</v>
       </c>
       <c r="E33" s="30"/>
@@ -20198,16 +20280,16 @@
       <c r="G33" s="30"/>
     </row>
     <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A34" s="69" t="s">
+      <c r="A34" s="67" t="s">
         <v>931</v>
       </c>
-      <c r="B34" s="69" t="s">
+      <c r="B34" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C34" s="69" t="s">
+      <c r="C34" s="67" t="s">
         <v>932</v>
       </c>
-      <c r="D34" s="69" t="s">
+      <c r="D34" s="67" t="s">
         <v>933</v>
       </c>
       <c r="E34" s="30"/>
@@ -20217,16 +20299,16 @@
       <c r="G34" s="30"/>
     </row>
     <row r="35" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A35" s="69" t="s">
+      <c r="A35" s="67" t="s">
         <v>934</v>
       </c>
-      <c r="B35" s="69" t="s">
+      <c r="B35" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C35" s="69" t="s">
+      <c r="C35" s="67" t="s">
         <v>935</v>
       </c>
-      <c r="D35" s="69" t="s">
+      <c r="D35" s="67" t="s">
         <v>936</v>
       </c>
       <c r="E35" s="30"/>
@@ -20236,16 +20318,16 @@
       <c r="G35" s="30"/>
     </row>
     <row r="36" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A36" s="69" t="s">
+      <c r="A36" s="67" t="s">
         <v>937</v>
       </c>
-      <c r="B36" s="69" t="s">
+      <c r="B36" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C36" s="69" t="s">
+      <c r="C36" s="67" t="s">
         <v>938</v>
       </c>
-      <c r="D36" s="69" t="s">
+      <c r="D36" s="67" t="s">
         <v>939</v>
       </c>
       <c r="E36" s="30"/>
@@ -20255,16 +20337,16 @@
       <c r="G36" s="30"/>
     </row>
     <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A37" s="69" t="s">
+      <c r="A37" s="67" t="s">
         <v>940</v>
       </c>
-      <c r="B37" s="69" t="s">
+      <c r="B37" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C37" s="69" t="s">
+      <c r="C37" s="67" t="s">
         <v>941</v>
       </c>
-      <c r="D37" s="69" t="s">
+      <c r="D37" s="67" t="s">
         <v>942</v>
       </c>
       <c r="E37" s="30"/>
@@ -20274,16 +20356,16 @@
       <c r="G37" s="30"/>
     </row>
     <row r="38" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A38" s="69" t="s">
+      <c r="A38" s="67" t="s">
         <v>943</v>
       </c>
-      <c r="B38" s="69" t="s">
+      <c r="B38" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C38" s="69" t="s">
+      <c r="C38" s="67" t="s">
         <v>944</v>
       </c>
-      <c r="D38" s="69" t="s">
+      <c r="D38" s="67" t="s">
         <v>945</v>
       </c>
       <c r="E38" s="30"/>
@@ -20293,16 +20375,16 @@
       <c r="G38" s="30"/>
     </row>
     <row r="39" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A39" s="69" t="s">
+      <c r="A39" s="67" t="s">
         <v>946</v>
       </c>
-      <c r="B39" s="69" t="s">
+      <c r="B39" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C39" s="69" t="s">
+      <c r="C39" s="67" t="s">
         <v>947</v>
       </c>
-      <c r="D39" s="69" t="s">
+      <c r="D39" s="67" t="s">
         <v>948</v>
       </c>
       <c r="E39" s="30"/>
@@ -20312,16 +20394,16 @@
       <c r="G39" s="30"/>
     </row>
     <row r="40" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A40" s="69" t="s">
+      <c r="A40" s="67" t="s">
         <v>949</v>
       </c>
-      <c r="B40" s="69" t="s">
+      <c r="B40" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C40" s="69" t="s">
+      <c r="C40" s="67" t="s">
         <v>950</v>
       </c>
-      <c r="D40" s="69" t="s">
+      <c r="D40" s="67" t="s">
         <v>951</v>
       </c>
       <c r="E40" s="30" t="s">
@@ -20331,16 +20413,16 @@
       <c r="G40" s="30"/>
     </row>
     <row r="41" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A41" s="69" t="s">
+      <c r="A41" s="67" t="s">
         <v>953</v>
       </c>
-      <c r="B41" s="69" t="s">
+      <c r="B41" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C41" s="69" t="s">
+      <c r="C41" s="67" t="s">
         <v>954</v>
       </c>
-      <c r="D41" s="69" t="s">
+      <c r="D41" s="67" t="s">
         <v>955</v>
       </c>
       <c r="E41" s="30"/>
@@ -20348,16 +20430,16 @@
       <c r="G41" s="30"/>
     </row>
     <row r="42" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A42" s="69" t="s">
+      <c r="A42" s="67" t="s">
         <v>956</v>
       </c>
-      <c r="B42" s="69" t="s">
+      <c r="B42" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C42" s="69" t="s">
+      <c r="C42" s="67" t="s">
         <v>957</v>
       </c>
-      <c r="D42" s="69" t="s">
+      <c r="D42" s="67" t="s">
         <v>958</v>
       </c>
       <c r="E42" s="30"/>
@@ -20365,16 +20447,16 @@
       <c r="G42" s="30"/>
     </row>
     <row r="43" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A43" s="69" t="s">
+      <c r="A43" s="67" t="s">
         <v>959</v>
       </c>
-      <c r="B43" s="69" t="s">
+      <c r="B43" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C43" s="69" t="s">
+      <c r="C43" s="67" t="s">
         <v>960</v>
       </c>
-      <c r="D43" s="69" t="s">
+      <c r="D43" s="67" t="s">
         <v>961</v>
       </c>
       <c r="E43" s="30" t="s">
@@ -20384,16 +20466,16 @@
       <c r="G43" s="30"/>
     </row>
     <row r="44" spans="1:7" ht="47.25" customHeight="1">
-      <c r="A44" s="69" t="s">
+      <c r="A44" s="67" t="s">
         <v>963</v>
       </c>
-      <c r="B44" s="69" t="s">
+      <c r="B44" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C44" s="69" t="s">
+      <c r="C44" s="67" t="s">
         <v>964</v>
       </c>
-      <c r="D44" s="69" t="s">
+      <c r="D44" s="67" t="s">
         <v>965</v>
       </c>
       <c r="E44" s="30" t="s">
@@ -20403,16 +20485,16 @@
       <c r="G44" s="30"/>
     </row>
     <row r="45" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A45" s="69" t="s">
+      <c r="A45" s="67" t="s">
         <v>967</v>
       </c>
-      <c r="B45" s="69" t="s">
+      <c r="B45" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C45" s="69" t="s">
+      <c r="C45" s="67" t="s">
         <v>968</v>
       </c>
-      <c r="D45" s="69" t="s">
+      <c r="D45" s="67" t="s">
         <v>969</v>
       </c>
       <c r="E45" s="30" t="s">
@@ -20422,16 +20504,16 @@
       <c r="G45" s="30"/>
     </row>
     <row r="46" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A46" s="69" t="s">
+      <c r="A46" s="67" t="s">
         <v>971</v>
       </c>
-      <c r="B46" s="69" t="s">
+      <c r="B46" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C46" s="69" t="s">
+      <c r="C46" s="67" t="s">
         <v>972</v>
       </c>
-      <c r="D46" s="69" t="s">
+      <c r="D46" s="67" t="s">
         <v>973</v>
       </c>
       <c r="E46" s="30"/>
@@ -20439,16 +20521,16 @@
       <c r="G46" s="30"/>
     </row>
     <row r="47" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A47" s="69" t="s">
+      <c r="A47" s="67" t="s">
         <v>974</v>
       </c>
-      <c r="B47" s="69" t="s">
+      <c r="B47" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C47" s="69" t="s">
+      <c r="C47" s="67" t="s">
         <v>975</v>
       </c>
-      <c r="D47" s="69" t="s">
+      <c r="D47" s="67" t="s">
         <v>976</v>
       </c>
       <c r="E47" s="30"/>
@@ -20456,304 +20538,304 @@
       <c r="G47" s="30"/>
     </row>
     <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A48" s="69" t="s">
+      <c r="A48" s="67" t="s">
         <v>977</v>
       </c>
-      <c r="B48" s="69" t="s">
+      <c r="B48" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C48" s="69" t="s">
+      <c r="C48" s="67" t="s">
         <v>978</v>
       </c>
-      <c r="D48" s="69" t="s">
+      <c r="D48" s="67" t="s">
         <v>979</v>
       </c>
       <c r="E48" s="30"/>
       <c r="F48" s="30"/>
       <c r="G48" s="30"/>
     </row>
-    <row r="49" spans="1:256" s="57" customFormat="1" ht="31.5">
-      <c r="A49" s="68" t="s">
+    <row r="49" spans="1:256" s="56" customFormat="1" ht="31.5">
+      <c r="A49" s="66" t="s">
         <v>980</v>
       </c>
-      <c r="B49" s="69" t="s">
+      <c r="B49" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C49" s="72" t="s">
+      <c r="C49" s="70" t="s">
         <v>981</v>
       </c>
-      <c r="D49" s="72" t="s">
+      <c r="D49" s="70" t="s">
         <v>1087</v>
       </c>
       <c r="E49" s="30"/>
       <c r="F49" s="30"/>
       <c r="G49" s="30"/>
-      <c r="H49" s="56"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="56"/>
-      <c r="K49" s="56"/>
-      <c r="L49" s="56"/>
-      <c r="M49" s="56"/>
-      <c r="N49" s="56"/>
-      <c r="O49" s="56"/>
-      <c r="P49" s="56"/>
-      <c r="Q49" s="56"/>
-      <c r="R49" s="56"/>
-      <c r="S49" s="56"/>
-      <c r="T49" s="56"/>
-      <c r="U49" s="56"/>
-      <c r="V49" s="56"/>
-      <c r="W49" s="56"/>
-      <c r="X49" s="56"/>
-      <c r="Y49" s="56"/>
-      <c r="Z49" s="56"/>
-      <c r="AA49" s="56"/>
-      <c r="AB49" s="56"/>
-      <c r="AC49" s="56"/>
-      <c r="AD49" s="56"/>
-      <c r="AE49" s="56"/>
-      <c r="AF49" s="56"/>
-      <c r="AG49" s="56"/>
-      <c r="AH49" s="56"/>
-      <c r="AI49" s="56"/>
-      <c r="AJ49" s="56"/>
-      <c r="AK49" s="56"/>
-      <c r="AL49" s="56"/>
-      <c r="AM49" s="56"/>
-      <c r="AN49" s="56"/>
-      <c r="AO49" s="56"/>
-      <c r="AP49" s="56"/>
-      <c r="AQ49" s="56"/>
-      <c r="AR49" s="56"/>
-      <c r="AS49" s="56"/>
-      <c r="AT49" s="56"/>
-      <c r="AU49" s="56"/>
-      <c r="AV49" s="56"/>
-      <c r="AW49" s="56"/>
-      <c r="AX49" s="56"/>
-      <c r="AY49" s="56"/>
-      <c r="AZ49" s="56"/>
-      <c r="BA49" s="56"/>
-      <c r="BB49" s="56"/>
-      <c r="BC49" s="56"/>
-      <c r="BD49" s="56"/>
-      <c r="BE49" s="56"/>
-      <c r="BF49" s="56"/>
-      <c r="BG49" s="56"/>
-      <c r="BH49" s="56"/>
-      <c r="BI49" s="56"/>
-      <c r="BJ49" s="56"/>
-      <c r="BK49" s="56"/>
-      <c r="BL49" s="56"/>
-      <c r="BM49" s="56"/>
-      <c r="BN49" s="56"/>
-      <c r="BO49" s="56"/>
-      <c r="BP49" s="56"/>
-      <c r="BQ49" s="56"/>
-      <c r="BR49" s="56"/>
-      <c r="BS49" s="56"/>
-      <c r="BT49" s="56"/>
-      <c r="BU49" s="56"/>
-      <c r="BV49" s="56"/>
-      <c r="BW49" s="56"/>
-      <c r="BX49" s="56"/>
-      <c r="BY49" s="56"/>
-      <c r="BZ49" s="56"/>
-      <c r="CA49" s="56"/>
-      <c r="CB49" s="56"/>
-      <c r="CC49" s="56"/>
-      <c r="CD49" s="56"/>
-      <c r="CE49" s="56"/>
-      <c r="CF49" s="56"/>
-      <c r="CG49" s="56"/>
-      <c r="CH49" s="56"/>
-      <c r="CI49" s="56"/>
-      <c r="CJ49" s="56"/>
-      <c r="CK49" s="56"/>
-      <c r="CL49" s="56"/>
-      <c r="CM49" s="56"/>
-      <c r="CN49" s="56"/>
-      <c r="CO49" s="56"/>
-      <c r="CP49" s="56"/>
-      <c r="CQ49" s="56"/>
-      <c r="CR49" s="56"/>
-      <c r="CS49" s="56"/>
-      <c r="CT49" s="56"/>
-      <c r="CU49" s="56"/>
-      <c r="CV49" s="56"/>
-      <c r="CW49" s="56"/>
-      <c r="CX49" s="56"/>
-      <c r="CY49" s="56"/>
-      <c r="CZ49" s="56"/>
-      <c r="DA49" s="56"/>
-      <c r="DB49" s="56"/>
-      <c r="DC49" s="56"/>
-      <c r="DD49" s="56"/>
-      <c r="DE49" s="56"/>
-      <c r="DF49" s="56"/>
-      <c r="DG49" s="56"/>
-      <c r="DH49" s="56"/>
-      <c r="DI49" s="56"/>
-      <c r="DJ49" s="56"/>
-      <c r="DK49" s="56"/>
-      <c r="DL49" s="56"/>
-      <c r="DM49" s="56"/>
-      <c r="DN49" s="56"/>
-      <c r="DO49" s="56"/>
-      <c r="DP49" s="56"/>
-      <c r="DQ49" s="56"/>
-      <c r="DR49" s="56"/>
-      <c r="DS49" s="56"/>
-      <c r="DT49" s="56"/>
-      <c r="DU49" s="56"/>
-      <c r="DV49" s="56"/>
-      <c r="DW49" s="56"/>
-      <c r="DX49" s="56"/>
-      <c r="DY49" s="56"/>
-      <c r="DZ49" s="56"/>
-      <c r="EA49" s="56"/>
-      <c r="EB49" s="56"/>
-      <c r="EC49" s="56"/>
-      <c r="ED49" s="56"/>
-      <c r="EE49" s="56"/>
-      <c r="EF49" s="56"/>
-      <c r="EG49" s="56"/>
-      <c r="EH49" s="56"/>
-      <c r="EI49" s="56"/>
-      <c r="EJ49" s="56"/>
-      <c r="EK49" s="56"/>
-      <c r="EL49" s="56"/>
-      <c r="EM49" s="56"/>
-      <c r="EN49" s="56"/>
-      <c r="EO49" s="56"/>
-      <c r="EP49" s="56"/>
-      <c r="EQ49" s="56"/>
-      <c r="ER49" s="56"/>
-      <c r="ES49" s="56"/>
-      <c r="ET49" s="56"/>
-      <c r="EU49" s="56"/>
-      <c r="EV49" s="56"/>
-      <c r="EW49" s="56"/>
-      <c r="EX49" s="56"/>
-      <c r="EY49" s="56"/>
-      <c r="EZ49" s="56"/>
-      <c r="FA49" s="56"/>
-      <c r="FB49" s="56"/>
-      <c r="FC49" s="56"/>
-      <c r="FD49" s="56"/>
-      <c r="FE49" s="56"/>
-      <c r="FF49" s="56"/>
-      <c r="FG49" s="56"/>
-      <c r="FH49" s="56"/>
-      <c r="FI49" s="56"/>
-      <c r="FJ49" s="56"/>
-      <c r="FK49" s="56"/>
-      <c r="FL49" s="56"/>
-      <c r="FM49" s="56"/>
-      <c r="FN49" s="56"/>
-      <c r="FO49" s="56"/>
-      <c r="FP49" s="56"/>
-      <c r="FQ49" s="56"/>
-      <c r="FR49" s="56"/>
-      <c r="FS49" s="56"/>
-      <c r="FT49" s="56"/>
-      <c r="FU49" s="56"/>
-      <c r="FV49" s="56"/>
-      <c r="FW49" s="56"/>
-      <c r="FX49" s="56"/>
-      <c r="FY49" s="56"/>
-      <c r="FZ49" s="56"/>
-      <c r="GA49" s="56"/>
-      <c r="GB49" s="56"/>
-      <c r="GC49" s="56"/>
-      <c r="GD49" s="56"/>
-      <c r="GE49" s="56"/>
-      <c r="GF49" s="56"/>
-      <c r="GG49" s="56"/>
-      <c r="GH49" s="56"/>
-      <c r="GI49" s="56"/>
-      <c r="GJ49" s="56"/>
-      <c r="GK49" s="56"/>
-      <c r="GL49" s="56"/>
-      <c r="GM49" s="56"/>
-      <c r="GN49" s="56"/>
-      <c r="GO49" s="56"/>
-      <c r="GP49" s="56"/>
-      <c r="GQ49" s="56"/>
-      <c r="GR49" s="56"/>
-      <c r="GS49" s="56"/>
-      <c r="GT49" s="56"/>
-      <c r="GU49" s="56"/>
-      <c r="GV49" s="56"/>
-      <c r="GW49" s="56"/>
-      <c r="GX49" s="56"/>
-      <c r="GY49" s="56"/>
-      <c r="GZ49" s="56"/>
-      <c r="HA49" s="56"/>
-      <c r="HB49" s="56"/>
-      <c r="HC49" s="56"/>
-      <c r="HD49" s="56"/>
-      <c r="HE49" s="56"/>
-      <c r="HF49" s="56"/>
-      <c r="HG49" s="56"/>
-      <c r="HH49" s="56"/>
-      <c r="HI49" s="56"/>
-      <c r="HJ49" s="56"/>
-      <c r="HK49" s="56"/>
-      <c r="HL49" s="56"/>
-      <c r="HM49" s="56"/>
-      <c r="HN49" s="56"/>
-      <c r="HO49" s="56"/>
-      <c r="HP49" s="56"/>
-      <c r="HQ49" s="56"/>
-      <c r="HR49" s="56"/>
-      <c r="HS49" s="56"/>
-      <c r="HT49" s="56"/>
-      <c r="HU49" s="56"/>
-      <c r="HV49" s="56"/>
-      <c r="HW49" s="56"/>
-      <c r="HX49" s="56"/>
-      <c r="HY49" s="56"/>
-      <c r="HZ49" s="56"/>
-      <c r="IA49" s="56"/>
-      <c r="IB49" s="56"/>
-      <c r="IC49" s="56"/>
-      <c r="ID49" s="56"/>
-      <c r="IE49" s="56"/>
-      <c r="IF49" s="56"/>
-      <c r="IG49" s="56"/>
-      <c r="IH49" s="56"/>
-      <c r="II49" s="56"/>
-      <c r="IJ49" s="56"/>
-      <c r="IK49" s="56"/>
-      <c r="IL49" s="56"/>
-      <c r="IM49" s="56"/>
-      <c r="IN49" s="56"/>
-      <c r="IO49" s="56"/>
-      <c r="IP49" s="56"/>
-      <c r="IQ49" s="56"/>
-      <c r="IR49" s="56"/>
-      <c r="IS49" s="56"/>
-      <c r="IT49" s="56"/>
-      <c r="IU49" s="56"/>
-      <c r="IV49" s="56"/>
-    </row>
-    <row r="50" spans="1:256" s="71" customFormat="1">
-      <c r="A50" s="68" t="s">
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="55"/>
+      <c r="N49" s="55"/>
+      <c r="O49" s="55"/>
+      <c r="P49" s="55"/>
+      <c r="Q49" s="55"/>
+      <c r="R49" s="55"/>
+      <c r="S49" s="55"/>
+      <c r="T49" s="55"/>
+      <c r="U49" s="55"/>
+      <c r="V49" s="55"/>
+      <c r="W49" s="55"/>
+      <c r="X49" s="55"/>
+      <c r="Y49" s="55"/>
+      <c r="Z49" s="55"/>
+      <c r="AA49" s="55"/>
+      <c r="AB49" s="55"/>
+      <c r="AC49" s="55"/>
+      <c r="AD49" s="55"/>
+      <c r="AE49" s="55"/>
+      <c r="AF49" s="55"/>
+      <c r="AG49" s="55"/>
+      <c r="AH49" s="55"/>
+      <c r="AI49" s="55"/>
+      <c r="AJ49" s="55"/>
+      <c r="AK49" s="55"/>
+      <c r="AL49" s="55"/>
+      <c r="AM49" s="55"/>
+      <c r="AN49" s="55"/>
+      <c r="AO49" s="55"/>
+      <c r="AP49" s="55"/>
+      <c r="AQ49" s="55"/>
+      <c r="AR49" s="55"/>
+      <c r="AS49" s="55"/>
+      <c r="AT49" s="55"/>
+      <c r="AU49" s="55"/>
+      <c r="AV49" s="55"/>
+      <c r="AW49" s="55"/>
+      <c r="AX49" s="55"/>
+      <c r="AY49" s="55"/>
+      <c r="AZ49" s="55"/>
+      <c r="BA49" s="55"/>
+      <c r="BB49" s="55"/>
+      <c r="BC49" s="55"/>
+      <c r="BD49" s="55"/>
+      <c r="BE49" s="55"/>
+      <c r="BF49" s="55"/>
+      <c r="BG49" s="55"/>
+      <c r="BH49" s="55"/>
+      <c r="BI49" s="55"/>
+      <c r="BJ49" s="55"/>
+      <c r="BK49" s="55"/>
+      <c r="BL49" s="55"/>
+      <c r="BM49" s="55"/>
+      <c r="BN49" s="55"/>
+      <c r="BO49" s="55"/>
+      <c r="BP49" s="55"/>
+      <c r="BQ49" s="55"/>
+      <c r="BR49" s="55"/>
+      <c r="BS49" s="55"/>
+      <c r="BT49" s="55"/>
+      <c r="BU49" s="55"/>
+      <c r="BV49" s="55"/>
+      <c r="BW49" s="55"/>
+      <c r="BX49" s="55"/>
+      <c r="BY49" s="55"/>
+      <c r="BZ49" s="55"/>
+      <c r="CA49" s="55"/>
+      <c r="CB49" s="55"/>
+      <c r="CC49" s="55"/>
+      <c r="CD49" s="55"/>
+      <c r="CE49" s="55"/>
+      <c r="CF49" s="55"/>
+      <c r="CG49" s="55"/>
+      <c r="CH49" s="55"/>
+      <c r="CI49" s="55"/>
+      <c r="CJ49" s="55"/>
+      <c r="CK49" s="55"/>
+      <c r="CL49" s="55"/>
+      <c r="CM49" s="55"/>
+      <c r="CN49" s="55"/>
+      <c r="CO49" s="55"/>
+      <c r="CP49" s="55"/>
+      <c r="CQ49" s="55"/>
+      <c r="CR49" s="55"/>
+      <c r="CS49" s="55"/>
+      <c r="CT49" s="55"/>
+      <c r="CU49" s="55"/>
+      <c r="CV49" s="55"/>
+      <c r="CW49" s="55"/>
+      <c r="CX49" s="55"/>
+      <c r="CY49" s="55"/>
+      <c r="CZ49" s="55"/>
+      <c r="DA49" s="55"/>
+      <c r="DB49" s="55"/>
+      <c r="DC49" s="55"/>
+      <c r="DD49" s="55"/>
+      <c r="DE49" s="55"/>
+      <c r="DF49" s="55"/>
+      <c r="DG49" s="55"/>
+      <c r="DH49" s="55"/>
+      <c r="DI49" s="55"/>
+      <c r="DJ49" s="55"/>
+      <c r="DK49" s="55"/>
+      <c r="DL49" s="55"/>
+      <c r="DM49" s="55"/>
+      <c r="DN49" s="55"/>
+      <c r="DO49" s="55"/>
+      <c r="DP49" s="55"/>
+      <c r="DQ49" s="55"/>
+      <c r="DR49" s="55"/>
+      <c r="DS49" s="55"/>
+      <c r="DT49" s="55"/>
+      <c r="DU49" s="55"/>
+      <c r="DV49" s="55"/>
+      <c r="DW49" s="55"/>
+      <c r="DX49" s="55"/>
+      <c r="DY49" s="55"/>
+      <c r="DZ49" s="55"/>
+      <c r="EA49" s="55"/>
+      <c r="EB49" s="55"/>
+      <c r="EC49" s="55"/>
+      <c r="ED49" s="55"/>
+      <c r="EE49" s="55"/>
+      <c r="EF49" s="55"/>
+      <c r="EG49" s="55"/>
+      <c r="EH49" s="55"/>
+      <c r="EI49" s="55"/>
+      <c r="EJ49" s="55"/>
+      <c r="EK49" s="55"/>
+      <c r="EL49" s="55"/>
+      <c r="EM49" s="55"/>
+      <c r="EN49" s="55"/>
+      <c r="EO49" s="55"/>
+      <c r="EP49" s="55"/>
+      <c r="EQ49" s="55"/>
+      <c r="ER49" s="55"/>
+      <c r="ES49" s="55"/>
+      <c r="ET49" s="55"/>
+      <c r="EU49" s="55"/>
+      <c r="EV49" s="55"/>
+      <c r="EW49" s="55"/>
+      <c r="EX49" s="55"/>
+      <c r="EY49" s="55"/>
+      <c r="EZ49" s="55"/>
+      <c r="FA49" s="55"/>
+      <c r="FB49" s="55"/>
+      <c r="FC49" s="55"/>
+      <c r="FD49" s="55"/>
+      <c r="FE49" s="55"/>
+      <c r="FF49" s="55"/>
+      <c r="FG49" s="55"/>
+      <c r="FH49" s="55"/>
+      <c r="FI49" s="55"/>
+      <c r="FJ49" s="55"/>
+      <c r="FK49" s="55"/>
+      <c r="FL49" s="55"/>
+      <c r="FM49" s="55"/>
+      <c r="FN49" s="55"/>
+      <c r="FO49" s="55"/>
+      <c r="FP49" s="55"/>
+      <c r="FQ49" s="55"/>
+      <c r="FR49" s="55"/>
+      <c r="FS49" s="55"/>
+      <c r="FT49" s="55"/>
+      <c r="FU49" s="55"/>
+      <c r="FV49" s="55"/>
+      <c r="FW49" s="55"/>
+      <c r="FX49" s="55"/>
+      <c r="FY49" s="55"/>
+      <c r="FZ49" s="55"/>
+      <c r="GA49" s="55"/>
+      <c r="GB49" s="55"/>
+      <c r="GC49" s="55"/>
+      <c r="GD49" s="55"/>
+      <c r="GE49" s="55"/>
+      <c r="GF49" s="55"/>
+      <c r="GG49" s="55"/>
+      <c r="GH49" s="55"/>
+      <c r="GI49" s="55"/>
+      <c r="GJ49" s="55"/>
+      <c r="GK49" s="55"/>
+      <c r="GL49" s="55"/>
+      <c r="GM49" s="55"/>
+      <c r="GN49" s="55"/>
+      <c r="GO49" s="55"/>
+      <c r="GP49" s="55"/>
+      <c r="GQ49" s="55"/>
+      <c r="GR49" s="55"/>
+      <c r="GS49" s="55"/>
+      <c r="GT49" s="55"/>
+      <c r="GU49" s="55"/>
+      <c r="GV49" s="55"/>
+      <c r="GW49" s="55"/>
+      <c r="GX49" s="55"/>
+      <c r="GY49" s="55"/>
+      <c r="GZ49" s="55"/>
+      <c r="HA49" s="55"/>
+      <c r="HB49" s="55"/>
+      <c r="HC49" s="55"/>
+      <c r="HD49" s="55"/>
+      <c r="HE49" s="55"/>
+      <c r="HF49" s="55"/>
+      <c r="HG49" s="55"/>
+      <c r="HH49" s="55"/>
+      <c r="HI49" s="55"/>
+      <c r="HJ49" s="55"/>
+      <c r="HK49" s="55"/>
+      <c r="HL49" s="55"/>
+      <c r="HM49" s="55"/>
+      <c r="HN49" s="55"/>
+      <c r="HO49" s="55"/>
+      <c r="HP49" s="55"/>
+      <c r="HQ49" s="55"/>
+      <c r="HR49" s="55"/>
+      <c r="HS49" s="55"/>
+      <c r="HT49" s="55"/>
+      <c r="HU49" s="55"/>
+      <c r="HV49" s="55"/>
+      <c r="HW49" s="55"/>
+      <c r="HX49" s="55"/>
+      <c r="HY49" s="55"/>
+      <c r="HZ49" s="55"/>
+      <c r="IA49" s="55"/>
+      <c r="IB49" s="55"/>
+      <c r="IC49" s="55"/>
+      <c r="ID49" s="55"/>
+      <c r="IE49" s="55"/>
+      <c r="IF49" s="55"/>
+      <c r="IG49" s="55"/>
+      <c r="IH49" s="55"/>
+      <c r="II49" s="55"/>
+      <c r="IJ49" s="55"/>
+      <c r="IK49" s="55"/>
+      <c r="IL49" s="55"/>
+      <c r="IM49" s="55"/>
+      <c r="IN49" s="55"/>
+      <c r="IO49" s="55"/>
+      <c r="IP49" s="55"/>
+      <c r="IQ49" s="55"/>
+      <c r="IR49" s="55"/>
+      <c r="IS49" s="55"/>
+      <c r="IT49" s="55"/>
+      <c r="IU49" s="55"/>
+      <c r="IV49" s="55"/>
+    </row>
+    <row r="50" spans="1:256" s="69" customFormat="1">
+      <c r="A50" s="66" t="s">
         <v>1297</v>
       </c>
-      <c r="B50" s="69" t="s">
+      <c r="B50" s="67" t="s">
         <v>860</v>
       </c>
-      <c r="C50" s="69" t="s">
+      <c r="C50" s="67" t="s">
         <v>1298</v>
       </c>
-      <c r="D50" s="69" t="s">
+      <c r="D50" s="67" t="s">
         <v>1296</v>
       </c>
-      <c r="E50" s="69"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="70"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -21486,123 +21568,123 @@
       <c r="G23" s="30"/>
     </row>
     <row r="24" spans="1:7" ht="31.5">
-      <c r="A24" s="77" t="s">
+      <c r="A24" s="75" t="s">
         <v>1146</v>
       </c>
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="75" t="s">
         <v>1147</v>
       </c>
-      <c r="C24" s="77" t="s">
+      <c r="C24" s="75" t="s">
         <v>1148</v>
       </c>
-      <c r="D24" s="77" t="s">
+      <c r="D24" s="75" t="s">
         <v>1149</v>
       </c>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
     </row>
     <row r="25" spans="1:7" ht="47.25">
-      <c r="A25" s="77" t="s">
+      <c r="A25" s="75" t="s">
         <v>1150</v>
       </c>
-      <c r="B25" s="77" t="s">
+      <c r="B25" s="75" t="s">
         <v>1147</v>
       </c>
-      <c r="C25" s="77" t="s">
+      <c r="C25" s="75" t="s">
         <v>1151</v>
       </c>
-      <c r="D25" s="77" t="s">
+      <c r="D25" s="75" t="s">
         <v>1280</v>
       </c>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
     </row>
     <row r="26" spans="1:7" ht="31.5">
-      <c r="A26" s="77" t="s">
+      <c r="A26" s="75" t="s">
         <v>1152</v>
       </c>
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="75" t="s">
         <v>1147</v>
       </c>
-      <c r="C26" s="77" t="s">
+      <c r="C26" s="75" t="s">
         <v>1153</v>
       </c>
-      <c r="D26" s="77" t="s">
+      <c r="D26" s="75" t="s">
         <v>1154</v>
       </c>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
     </row>
     <row r="27" spans="1:7" ht="47.25">
-      <c r="A27" s="77" t="s">
+      <c r="A27" s="75" t="s">
         <v>1155</v>
       </c>
-      <c r="B27" s="77" t="s">
+      <c r="B27" s="75" t="s">
         <v>1147</v>
       </c>
-      <c r="C27" s="77" t="s">
+      <c r="C27" s="75" t="s">
         <v>1156</v>
       </c>
-      <c r="D27" s="77" t="s">
+      <c r="D27" s="75" t="s">
         <v>1157</v>
       </c>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
     </row>
     <row r="28" spans="1:7" ht="47.25">
-      <c r="A28" s="77" t="s">
+      <c r="A28" s="75" t="s">
         <v>1158</v>
       </c>
-      <c r="B28" s="77" t="s">
+      <c r="B28" s="75" t="s">
         <v>1147</v>
       </c>
-      <c r="C28" s="77" t="s">
+      <c r="C28" s="75" t="s">
         <v>1159</v>
       </c>
-      <c r="D28" s="77" t="s">
+      <c r="D28" s="75" t="s">
         <v>1160</v>
       </c>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
     </row>
     <row r="29" spans="1:7" ht="31.5">
-      <c r="A29" s="77" t="s">
+      <c r="A29" s="75" t="s">
         <v>1161</v>
       </c>
-      <c r="B29" s="77" t="s">
+      <c r="B29" s="75" t="s">
         <v>1147</v>
       </c>
-      <c r="C29" s="77" t="s">
+      <c r="C29" s="75" t="s">
         <v>1162</v>
       </c>
-      <c r="D29" s="77" t="s">
+      <c r="D29" s="75" t="s">
         <v>1163</v>
       </c>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
     </row>
     <row r="30" spans="1:7" ht="47.25">
-      <c r="A30" s="77" t="s">
+      <c r="A30" s="75" t="s">
         <v>1164</v>
       </c>
-      <c r="B30" s="77" t="s">
+      <c r="B30" s="75" t="s">
         <v>1147</v>
       </c>
-      <c r="C30" s="77" t="s">
+      <c r="C30" s="75" t="s">
         <v>1165</v>
       </c>
-      <c r="D30" s="77" t="s">
+      <c r="D30" s="75" t="s">
         <v>1166</v>
       </c>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -21658,7 +21740,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="2" spans="1:256" s="61" customFormat="1">
+    <row r="2" spans="1:256" s="59" customFormat="1">
       <c r="A2" s="8" t="s">
         <v>1028</v>
       </c>
@@ -21671,260 +21753,260 @@
       <c r="D2" s="8" t="s">
         <v>1273</v>
       </c>
-      <c r="E2" s="63"/>
+      <c r="E2" s="61"/>
       <c r="F2" s="28" t="s">
         <v>790</v>
       </c>
       <c r="G2" s="28"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="60"/>
-      <c r="AL2" s="60"/>
-      <c r="AM2" s="60"/>
-      <c r="AN2" s="60"/>
-      <c r="AO2" s="60"/>
-      <c r="AP2" s="60"/>
-      <c r="AQ2" s="60"/>
-      <c r="AR2" s="60"/>
-      <c r="AS2" s="60"/>
-      <c r="AT2" s="60"/>
-      <c r="AU2" s="60"/>
-      <c r="AV2" s="60"/>
-      <c r="AW2" s="60"/>
-      <c r="AX2" s="60"/>
-      <c r="AY2" s="60"/>
-      <c r="AZ2" s="60"/>
-      <c r="BA2" s="60"/>
-      <c r="BB2" s="60"/>
-      <c r="BC2" s="60"/>
-      <c r="BD2" s="60"/>
-      <c r="BE2" s="60"/>
-      <c r="BF2" s="60"/>
-      <c r="BG2" s="60"/>
-      <c r="BH2" s="60"/>
-      <c r="BI2" s="60"/>
-      <c r="BJ2" s="60"/>
-      <c r="BK2" s="60"/>
-      <c r="BL2" s="60"/>
-      <c r="BM2" s="60"/>
-      <c r="BN2" s="60"/>
-      <c r="BO2" s="60"/>
-      <c r="BP2" s="60"/>
-      <c r="BQ2" s="60"/>
-      <c r="BR2" s="60"/>
-      <c r="BS2" s="60"/>
-      <c r="BT2" s="60"/>
-      <c r="BU2" s="60"/>
-      <c r="BV2" s="60"/>
-      <c r="BW2" s="60"/>
-      <c r="BX2" s="60"/>
-      <c r="BY2" s="60"/>
-      <c r="BZ2" s="60"/>
-      <c r="CA2" s="60"/>
-      <c r="CB2" s="60"/>
-      <c r="CC2" s="60"/>
-      <c r="CD2" s="60"/>
-      <c r="CE2" s="60"/>
-      <c r="CF2" s="60"/>
-      <c r="CG2" s="60"/>
-      <c r="CH2" s="60"/>
-      <c r="CI2" s="60"/>
-      <c r="CJ2" s="60"/>
-      <c r="CK2" s="60"/>
-      <c r="CL2" s="60"/>
-      <c r="CM2" s="60"/>
-      <c r="CN2" s="60"/>
-      <c r="CO2" s="60"/>
-      <c r="CP2" s="60"/>
-      <c r="CQ2" s="60"/>
-      <c r="CR2" s="60"/>
-      <c r="CS2" s="60"/>
-      <c r="CT2" s="60"/>
-      <c r="CU2" s="60"/>
-      <c r="CV2" s="60"/>
-      <c r="CW2" s="60"/>
-      <c r="CX2" s="60"/>
-      <c r="CY2" s="60"/>
-      <c r="CZ2" s="60"/>
-      <c r="DA2" s="60"/>
-      <c r="DB2" s="60"/>
-      <c r="DC2" s="60"/>
-      <c r="DD2" s="60"/>
-      <c r="DE2" s="60"/>
-      <c r="DF2" s="60"/>
-      <c r="DG2" s="60"/>
-      <c r="DH2" s="60"/>
-      <c r="DI2" s="60"/>
-      <c r="DJ2" s="60"/>
-      <c r="DK2" s="60"/>
-      <c r="DL2" s="60"/>
-      <c r="DM2" s="60"/>
-      <c r="DN2" s="60"/>
-      <c r="DO2" s="60"/>
-      <c r="DP2" s="60"/>
-      <c r="DQ2" s="60"/>
-      <c r="DR2" s="60"/>
-      <c r="DS2" s="60"/>
-      <c r="DT2" s="60"/>
-      <c r="DU2" s="60"/>
-      <c r="DV2" s="60"/>
-      <c r="DW2" s="60"/>
-      <c r="DX2" s="60"/>
-      <c r="DY2" s="60"/>
-      <c r="DZ2" s="60"/>
-      <c r="EA2" s="60"/>
-      <c r="EB2" s="60"/>
-      <c r="EC2" s="60"/>
-      <c r="ED2" s="60"/>
-      <c r="EE2" s="60"/>
-      <c r="EF2" s="60"/>
-      <c r="EG2" s="60"/>
-      <c r="EH2" s="60"/>
-      <c r="EI2" s="60"/>
-      <c r="EJ2" s="60"/>
-      <c r="EK2" s="60"/>
-      <c r="EL2" s="60"/>
-      <c r="EM2" s="60"/>
-      <c r="EN2" s="60"/>
-      <c r="EO2" s="60"/>
-      <c r="EP2" s="60"/>
-      <c r="EQ2" s="60"/>
-      <c r="ER2" s="60"/>
-      <c r="ES2" s="60"/>
-      <c r="ET2" s="60"/>
-      <c r="EU2" s="60"/>
-      <c r="EV2" s="60"/>
-      <c r="EW2" s="60"/>
-      <c r="EX2" s="60"/>
-      <c r="EY2" s="60"/>
-      <c r="EZ2" s="60"/>
-      <c r="FA2" s="60"/>
-      <c r="FB2" s="60"/>
-      <c r="FC2" s="60"/>
-      <c r="FD2" s="60"/>
-      <c r="FE2" s="60"/>
-      <c r="FF2" s="60"/>
-      <c r="FG2" s="60"/>
-      <c r="FH2" s="60"/>
-      <c r="FI2" s="60"/>
-      <c r="FJ2" s="60"/>
-      <c r="FK2" s="60"/>
-      <c r="FL2" s="60"/>
-      <c r="FM2" s="60"/>
-      <c r="FN2" s="60"/>
-      <c r="FO2" s="60"/>
-      <c r="FP2" s="60"/>
-      <c r="FQ2" s="60"/>
-      <c r="FR2" s="60"/>
-      <c r="FS2" s="60"/>
-      <c r="FT2" s="60"/>
-      <c r="FU2" s="60"/>
-      <c r="FV2" s="60"/>
-      <c r="FW2" s="60"/>
-      <c r="FX2" s="60"/>
-      <c r="FY2" s="60"/>
-      <c r="FZ2" s="60"/>
-      <c r="GA2" s="60"/>
-      <c r="GB2" s="60"/>
-      <c r="GC2" s="60"/>
-      <c r="GD2" s="60"/>
-      <c r="GE2" s="60"/>
-      <c r="GF2" s="60"/>
-      <c r="GG2" s="60"/>
-      <c r="GH2" s="60"/>
-      <c r="GI2" s="60"/>
-      <c r="GJ2" s="60"/>
-      <c r="GK2" s="60"/>
-      <c r="GL2" s="60"/>
-      <c r="GM2" s="60"/>
-      <c r="GN2" s="60"/>
-      <c r="GO2" s="60"/>
-      <c r="GP2" s="60"/>
-      <c r="GQ2" s="60"/>
-      <c r="GR2" s="60"/>
-      <c r="GS2" s="60"/>
-      <c r="GT2" s="60"/>
-      <c r="GU2" s="60"/>
-      <c r="GV2" s="60"/>
-      <c r="GW2" s="60"/>
-      <c r="GX2" s="60"/>
-      <c r="GY2" s="60"/>
-      <c r="GZ2" s="60"/>
-      <c r="HA2" s="60"/>
-      <c r="HB2" s="60"/>
-      <c r="HC2" s="60"/>
-      <c r="HD2" s="60"/>
-      <c r="HE2" s="60"/>
-      <c r="HF2" s="60"/>
-      <c r="HG2" s="60"/>
-      <c r="HH2" s="60"/>
-      <c r="HI2" s="60"/>
-      <c r="HJ2" s="60"/>
-      <c r="HK2" s="60"/>
-      <c r="HL2" s="60"/>
-      <c r="HM2" s="60"/>
-      <c r="HN2" s="60"/>
-      <c r="HO2" s="60"/>
-      <c r="HP2" s="60"/>
-      <c r="HQ2" s="60"/>
-      <c r="HR2" s="60"/>
-      <c r="HS2" s="60"/>
-      <c r="HT2" s="60"/>
-      <c r="HU2" s="60"/>
-      <c r="HV2" s="60"/>
-      <c r="HW2" s="60"/>
-      <c r="HX2" s="60"/>
-      <c r="HY2" s="60"/>
-      <c r="HZ2" s="60"/>
-      <c r="IA2" s="60"/>
-      <c r="IB2" s="60"/>
-      <c r="IC2" s="60"/>
-      <c r="ID2" s="60"/>
-      <c r="IE2" s="60"/>
-      <c r="IF2" s="60"/>
-      <c r="IG2" s="60"/>
-      <c r="IH2" s="60"/>
-      <c r="II2" s="60"/>
-      <c r="IJ2" s="60"/>
-      <c r="IK2" s="60"/>
-      <c r="IL2" s="60"/>
-      <c r="IM2" s="60"/>
-      <c r="IN2" s="60"/>
-      <c r="IO2" s="60"/>
-      <c r="IP2" s="60"/>
-      <c r="IQ2" s="60"/>
-      <c r="IR2" s="60"/>
-      <c r="IS2" s="60"/>
-      <c r="IT2" s="60"/>
-      <c r="IU2" s="60"/>
-      <c r="IV2" s="60"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="58"/>
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="58"/>
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="58"/>
+      <c r="AN2" s="58"/>
+      <c r="AO2" s="58"/>
+      <c r="AP2" s="58"/>
+      <c r="AQ2" s="58"/>
+      <c r="AR2" s="58"/>
+      <c r="AS2" s="58"/>
+      <c r="AT2" s="58"/>
+      <c r="AU2" s="58"/>
+      <c r="AV2" s="58"/>
+      <c r="AW2" s="58"/>
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="58"/>
+      <c r="BA2" s="58"/>
+      <c r="BB2" s="58"/>
+      <c r="BC2" s="58"/>
+      <c r="BD2" s="58"/>
+      <c r="BE2" s="58"/>
+      <c r="BF2" s="58"/>
+      <c r="BG2" s="58"/>
+      <c r="BH2" s="58"/>
+      <c r="BI2" s="58"/>
+      <c r="BJ2" s="58"/>
+      <c r="BK2" s="58"/>
+      <c r="BL2" s="58"/>
+      <c r="BM2" s="58"/>
+      <c r="BN2" s="58"/>
+      <c r="BO2" s="58"/>
+      <c r="BP2" s="58"/>
+      <c r="BQ2" s="58"/>
+      <c r="BR2" s="58"/>
+      <c r="BS2" s="58"/>
+      <c r="BT2" s="58"/>
+      <c r="BU2" s="58"/>
+      <c r="BV2" s="58"/>
+      <c r="BW2" s="58"/>
+      <c r="BX2" s="58"/>
+      <c r="BY2" s="58"/>
+      <c r="BZ2" s="58"/>
+      <c r="CA2" s="58"/>
+      <c r="CB2" s="58"/>
+      <c r="CC2" s="58"/>
+      <c r="CD2" s="58"/>
+      <c r="CE2" s="58"/>
+      <c r="CF2" s="58"/>
+      <c r="CG2" s="58"/>
+      <c r="CH2" s="58"/>
+      <c r="CI2" s="58"/>
+      <c r="CJ2" s="58"/>
+      <c r="CK2" s="58"/>
+      <c r="CL2" s="58"/>
+      <c r="CM2" s="58"/>
+      <c r="CN2" s="58"/>
+      <c r="CO2" s="58"/>
+      <c r="CP2" s="58"/>
+      <c r="CQ2" s="58"/>
+      <c r="CR2" s="58"/>
+      <c r="CS2" s="58"/>
+      <c r="CT2" s="58"/>
+      <c r="CU2" s="58"/>
+      <c r="CV2" s="58"/>
+      <c r="CW2" s="58"/>
+      <c r="CX2" s="58"/>
+      <c r="CY2" s="58"/>
+      <c r="CZ2" s="58"/>
+      <c r="DA2" s="58"/>
+      <c r="DB2" s="58"/>
+      <c r="DC2" s="58"/>
+      <c r="DD2" s="58"/>
+      <c r="DE2" s="58"/>
+      <c r="DF2" s="58"/>
+      <c r="DG2" s="58"/>
+      <c r="DH2" s="58"/>
+      <c r="DI2" s="58"/>
+      <c r="DJ2" s="58"/>
+      <c r="DK2" s="58"/>
+      <c r="DL2" s="58"/>
+      <c r="DM2" s="58"/>
+      <c r="DN2" s="58"/>
+      <c r="DO2" s="58"/>
+      <c r="DP2" s="58"/>
+      <c r="DQ2" s="58"/>
+      <c r="DR2" s="58"/>
+      <c r="DS2" s="58"/>
+      <c r="DT2" s="58"/>
+      <c r="DU2" s="58"/>
+      <c r="DV2" s="58"/>
+      <c r="DW2" s="58"/>
+      <c r="DX2" s="58"/>
+      <c r="DY2" s="58"/>
+      <c r="DZ2" s="58"/>
+      <c r="EA2" s="58"/>
+      <c r="EB2" s="58"/>
+      <c r="EC2" s="58"/>
+      <c r="ED2" s="58"/>
+      <c r="EE2" s="58"/>
+      <c r="EF2" s="58"/>
+      <c r="EG2" s="58"/>
+      <c r="EH2" s="58"/>
+      <c r="EI2" s="58"/>
+      <c r="EJ2" s="58"/>
+      <c r="EK2" s="58"/>
+      <c r="EL2" s="58"/>
+      <c r="EM2" s="58"/>
+      <c r="EN2" s="58"/>
+      <c r="EO2" s="58"/>
+      <c r="EP2" s="58"/>
+      <c r="EQ2" s="58"/>
+      <c r="ER2" s="58"/>
+      <c r="ES2" s="58"/>
+      <c r="ET2" s="58"/>
+      <c r="EU2" s="58"/>
+      <c r="EV2" s="58"/>
+      <c r="EW2" s="58"/>
+      <c r="EX2" s="58"/>
+      <c r="EY2" s="58"/>
+      <c r="EZ2" s="58"/>
+      <c r="FA2" s="58"/>
+      <c r="FB2" s="58"/>
+      <c r="FC2" s="58"/>
+      <c r="FD2" s="58"/>
+      <c r="FE2" s="58"/>
+      <c r="FF2" s="58"/>
+      <c r="FG2" s="58"/>
+      <c r="FH2" s="58"/>
+      <c r="FI2" s="58"/>
+      <c r="FJ2" s="58"/>
+      <c r="FK2" s="58"/>
+      <c r="FL2" s="58"/>
+      <c r="FM2" s="58"/>
+      <c r="FN2" s="58"/>
+      <c r="FO2" s="58"/>
+      <c r="FP2" s="58"/>
+      <c r="FQ2" s="58"/>
+      <c r="FR2" s="58"/>
+      <c r="FS2" s="58"/>
+      <c r="FT2" s="58"/>
+      <c r="FU2" s="58"/>
+      <c r="FV2" s="58"/>
+      <c r="FW2" s="58"/>
+      <c r="FX2" s="58"/>
+      <c r="FY2" s="58"/>
+      <c r="FZ2" s="58"/>
+      <c r="GA2" s="58"/>
+      <c r="GB2" s="58"/>
+      <c r="GC2" s="58"/>
+      <c r="GD2" s="58"/>
+      <c r="GE2" s="58"/>
+      <c r="GF2" s="58"/>
+      <c r="GG2" s="58"/>
+      <c r="GH2" s="58"/>
+      <c r="GI2" s="58"/>
+      <c r="GJ2" s="58"/>
+      <c r="GK2" s="58"/>
+      <c r="GL2" s="58"/>
+      <c r="GM2" s="58"/>
+      <c r="GN2" s="58"/>
+      <c r="GO2" s="58"/>
+      <c r="GP2" s="58"/>
+      <c r="GQ2" s="58"/>
+      <c r="GR2" s="58"/>
+      <c r="GS2" s="58"/>
+      <c r="GT2" s="58"/>
+      <c r="GU2" s="58"/>
+      <c r="GV2" s="58"/>
+      <c r="GW2" s="58"/>
+      <c r="GX2" s="58"/>
+      <c r="GY2" s="58"/>
+      <c r="GZ2" s="58"/>
+      <c r="HA2" s="58"/>
+      <c r="HB2" s="58"/>
+      <c r="HC2" s="58"/>
+      <c r="HD2" s="58"/>
+      <c r="HE2" s="58"/>
+      <c r="HF2" s="58"/>
+      <c r="HG2" s="58"/>
+      <c r="HH2" s="58"/>
+      <c r="HI2" s="58"/>
+      <c r="HJ2" s="58"/>
+      <c r="HK2" s="58"/>
+      <c r="HL2" s="58"/>
+      <c r="HM2" s="58"/>
+      <c r="HN2" s="58"/>
+      <c r="HO2" s="58"/>
+      <c r="HP2" s="58"/>
+      <c r="HQ2" s="58"/>
+      <c r="HR2" s="58"/>
+      <c r="HS2" s="58"/>
+      <c r="HT2" s="58"/>
+      <c r="HU2" s="58"/>
+      <c r="HV2" s="58"/>
+      <c r="HW2" s="58"/>
+      <c r="HX2" s="58"/>
+      <c r="HY2" s="58"/>
+      <c r="HZ2" s="58"/>
+      <c r="IA2" s="58"/>
+      <c r="IB2" s="58"/>
+      <c r="IC2" s="58"/>
+      <c r="ID2" s="58"/>
+      <c r="IE2" s="58"/>
+      <c r="IF2" s="58"/>
+      <c r="IG2" s="58"/>
+      <c r="IH2" s="58"/>
+      <c r="II2" s="58"/>
+      <c r="IJ2" s="58"/>
+      <c r="IK2" s="58"/>
+      <c r="IL2" s="58"/>
+      <c r="IM2" s="58"/>
+      <c r="IN2" s="58"/>
+      <c r="IO2" s="58"/>
+      <c r="IP2" s="58"/>
+      <c r="IQ2" s="58"/>
+      <c r="IR2" s="58"/>
+      <c r="IS2" s="58"/>
+      <c r="IT2" s="58"/>
+      <c r="IU2" s="58"/>
+      <c r="IV2" s="58"/>
     </row>
     <row r="3" spans="1:256">
       <c r="A3" s="5" t="s">
@@ -21939,7 +22021,7 @@
       <c r="D3" s="5" t="s">
         <v>1274</v>
       </c>
-      <c r="E3" s="64"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="3" t="s">
         <v>790</v>
       </c>
@@ -21958,7 +22040,7 @@
       <c r="D4" s="8" t="s">
         <v>1275</v>
       </c>
-      <c r="E4" s="63"/>
+      <c r="E4" s="61"/>
       <c r="F4" s="3" t="s">
         <v>790</v>
       </c>
@@ -22378,7 +22460,7 @@
       <c r="D7" s="31" t="s">
         <v>1306</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="E7" s="66" t="s">
         <v>1305</v>
       </c>
       <c r="F7" s="30" t="s">
@@ -22614,7 +22696,7 @@
       <c r="D19" s="30" t="s">
         <v>1293</v>
       </c>
-      <c r="E19" s="62" t="s">
+      <c r="E19" s="60" t="s">
         <v>1287</v>
       </c>
       <c r="F19" s="30" t="s">
@@ -22679,7 +22761,7 @@
       <c r="D22" s="30" t="s">
         <v>1081</v>
       </c>
-      <c r="E22" s="62" t="s">
+      <c r="E22" s="60" t="s">
         <v>1288</v>
       </c>
       <c r="F22" s="30" t="s">
@@ -22760,7 +22842,7 @@
       <c r="G26" s="30"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="58" t="s">
+      <c r="A27" s="57" t="s">
         <v>1100</v>
       </c>
       <c r="B27" s="30" t="s">
